--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="wVQHoDmy2bVyQG+y4JMVOCtnDQQh1CAOBfbbm+BtA3A="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="SSyVSCz2wMwY/7y87AkOYS9dbYpKbEpaF5CfpkEqb30="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="275">
   <si>
     <t>category</t>
   </si>
@@ -94,15 +94,6 @@
     <t>turkish_description</t>
   </si>
   <si>
-    <t>(X)  Size</t>
-  </si>
-  <si>
-    <t>(XX) Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (XXX) Size</t>
-  </si>
-  <si>
     <t>SICAK IÇECEKLER</t>
   </si>
   <si>
@@ -157,13 +148,13 @@
     <t>Espresso</t>
   </si>
   <si>
-    <t>Espresso Bombom</t>
-  </si>
-  <si>
     <t>Lungo</t>
   </si>
   <si>
-    <t>Espresso Con Panna</t>
+    <t>Macchiato</t>
+  </si>
+  <si>
+    <t>Con Panne</t>
   </si>
   <si>
     <t>Americano</t>
@@ -181,16 +172,19 @@
     <t>Flat White</t>
   </si>
   <si>
+    <t>Latte</t>
+  </si>
+  <si>
     <t>Latte Macchiato</t>
   </si>
   <si>
     <t>Mocha</t>
   </si>
   <si>
-    <t>White Chocolate Mocha</t>
-  </si>
-  <si>
-    <t>Latte</t>
+    <t>White Mocha</t>
+  </si>
+  <si>
+    <t>Cafe Bombom</t>
   </si>
   <si>
     <t>Filter Coffee</t>
@@ -283,6 +277,9 @@
     <t xml:space="preserve">Mavi Kelebek Çayı </t>
   </si>
   <si>
+    <t>Chai Tea Latte</t>
+  </si>
+  <si>
     <t>Rooibos Cream Orange</t>
   </si>
   <si>
@@ -325,9 +322,6 @@
     <t>Matcha Latte</t>
   </si>
   <si>
-    <t>Chai Tea Latte</t>
-  </si>
-  <si>
     <t>BENEFI Green Tea</t>
   </si>
   <si>
@@ -367,7 +361,16 @@
     <t>Iced Black Eye</t>
   </si>
   <si>
-    <t>Milkshake</t>
+    <t>Cold Brew</t>
+  </si>
+  <si>
+    <t>Milkshake ( Vanilla / Chocolate / Strawberry / Banana )</t>
+  </si>
+  <si>
+    <t>Milkshake ( Vanilya / Çikolata / Çilek / Muz )</t>
+  </si>
+  <si>
+    <t>Milkshake (Oreo)</t>
   </si>
   <si>
     <t>Smoothie</t>
@@ -478,37 +481,16 @@
     <t>Su (Cam Şişe)</t>
   </si>
   <si>
-    <t>Cheesecake</t>
-  </si>
-  <si>
-    <t>Chees cake</t>
-  </si>
-  <si>
-    <t>Mosaic Cake</t>
-  </si>
-  <si>
-    <t>Mozaik Pastası</t>
+    <t>Cheesecake (lemon / raspberry)</t>
+  </si>
+  <si>
+    <t>Cheesecake (limonlu / frambuazlı)</t>
   </si>
   <si>
     <t>Latte Mono</t>
   </si>
   <si>
-    <t>My Heart</t>
-  </si>
-  <si>
-    <t>Kalbim</t>
-  </si>
-  <si>
-    <t>Peanut Dream</t>
-  </si>
-  <si>
-    <t>Fıstık Rüyası</t>
-  </si>
-  <si>
-    <t>Devil's Cake</t>
-  </si>
-  <si>
-    <t>Devil's Pasta</t>
+    <t>Tiramisu Mono</t>
   </si>
   <si>
     <t>Profitol Cake</t>
@@ -517,13 +499,57 @@
     <t>Profitollu Pasta</t>
   </si>
   <si>
-    <t>Donut World</t>
-  </si>
-  <si>
-    <t>Çörek Dünyası</t>
-  </si>
-  <si>
-    <t>Cheescake</t>
+    <t>Nutella Cake</t>
+  </si>
+  <si>
+    <t>Nutellalı Pasta</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Helvetica Neue"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Cheesecake </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Helvetica Neue"/>
+        <b val="0"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>(A diffenrent variety is cooked every day. Please get information)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Helvetica Neue"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Cheescake</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Helvetica Neue"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Helvetica Neue"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>( Her gün farklı bir çeşit pişiyor. Lütfen bilgi alınız)</t>
+    </r>
   </si>
   <si>
     <t>Cheesecake Lotus</t>
@@ -532,7 +558,7 @@
     <t>Cheesecake Lotuslu</t>
   </si>
   <si>
-    <t>Cheesecake with baklava</t>
+    <t>Cheesecake with Baklava</t>
   </si>
   <si>
     <t>Baklavalı Cheesecake</t>
@@ -730,10 +756,10 @@
     <t>Peynirli Börek (adet)</t>
   </si>
   <si>
-    <t>World of Roll Pastry</t>
-  </si>
-  <si>
-    <t>Rulo Börek Dünyası</t>
+    <t>World of Roll Pastry (spinach+cheese / Three cheese / patato)</t>
+  </si>
+  <si>
+    <t>Rulo Börek Dünyası (Ispanaklı+3 Peynirli / 3 Peynirli / Patatesli)</t>
   </si>
   <si>
     <t>Meat and Pea Pastry</t>
@@ -754,22 +780,22 @@
     <t>Kahvaltı Tabağı</t>
   </si>
   <si>
-    <t>Toast-1</t>
+    <t>Toast with Cheddar</t>
   </si>
   <si>
     <t>Tost Kaşarlı</t>
   </si>
   <si>
-    <t>Toast-2</t>
+    <t>Toast with Cheddar+Salami</t>
   </si>
   <si>
     <t>Tost Karışık</t>
   </si>
   <si>
-    <t>Sandwich</t>
-  </si>
-  <si>
-    <t>Sandeviç Karışık</t>
+    <t>Sandwich (Cheese +Cheddar+Salami)</t>
+  </si>
+  <si>
+    <t>Sandeviç (Kaşar Peyniri+Chedar+Salam)</t>
   </si>
   <si>
     <t>Fruit Salad</t>
@@ -781,10 +807,10 @@
     <t>Bowl</t>
   </si>
   <si>
-    <t>Decaffeinated Coffee</t>
-  </si>
-  <si>
-    <t>Kafeinsiz  Kahve  Seçimi</t>
+    <t xml:space="preserve">Decaffeinated Coffee price difference </t>
+  </si>
+  <si>
+    <t>Kafeinsiz  Kahve  Seçimi fiyat farkı</t>
   </si>
   <si>
     <t>Extra Espresso</t>
@@ -793,6 +819,12 @@
     <t>Ekstra Espresso Shot</t>
   </si>
   <si>
+    <t>Large Paper Cup Difference</t>
+  </si>
+  <si>
+    <t>Büyük Karton Bardak farkı</t>
+  </si>
+  <si>
     <t>Cream</t>
   </si>
   <si>
@@ -817,12 +849,6 @@
     <t>İlave Süt Farkı (bardak)</t>
   </si>
   <si>
-    <t>Additional Coffee</t>
-  </si>
-  <si>
-    <t>İlave Kahve</t>
-  </si>
-  <si>
     <t>Additional Syrup</t>
   </si>
   <si>
@@ -847,10 +873,10 @@
     <t xml:space="preserve">Bal </t>
   </si>
   <si>
-    <t>Glass and ice</t>
-  </si>
-  <si>
-    <t>Bardak ve Buz</t>
+    <t>Extra Glass and ice</t>
+  </si>
+  <si>
+    <t>İlave Bardak ve Buz</t>
   </si>
   <si>
     <t>Extra Bread</t>
@@ -863,7 +889,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -874,11 +900,6 @@
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -895,12 +916,6 @@
       <b/>
       <sz val="11.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <color theme="1"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
@@ -909,14 +924,29 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -929,8 +959,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -947,6 +982,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor rgb="FFF8F9FA"/>
       </patternFill>
     </fill>
   </fills>
@@ -976,12 +1017,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -990,36 +1031,37 @@
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1362,11 +1404,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.787401575"/>
@@ -1378,7 +1415,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1390,8 +1427,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="51.11"/>
     <col customWidth="1" min="2" max="2" width="12.44"/>
-    <col customWidth="1" min="3" max="3" width="33.44"/>
-    <col customWidth="1" min="4" max="4" width="53.11"/>
+    <col customWidth="1" min="3" max="3" width="52.56"/>
+    <col customWidth="1" min="4" max="4" width="23.44"/>
     <col customWidth="1" min="5" max="5" width="44.67"/>
     <col customWidth="1" min="6" max="6" width="24.56"/>
     <col customWidth="1" min="7" max="7" width="12.44"/>
@@ -1417,15 +1454,9 @@
       <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="5"/>
@@ -1435,7 +1466,7 @@
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
@@ -1450,7 +1481,7 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
@@ -1460,14 +1491,14 @@
     <row r="4">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
@@ -1477,14 +1508,14 @@
     <row r="5">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
@@ -1494,7 +1525,7 @@
     <row r="6">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>5</v>
@@ -1516,7 +1547,7 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
@@ -1531,7 +1562,7 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
@@ -1546,7 +1577,7 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
@@ -1561,7 +1592,7 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
@@ -1576,7 +1607,7 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
@@ -1591,7 +1622,7 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
@@ -1606,7 +1637,7 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
@@ -1621,7 +1652,7 @@
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
@@ -1636,7 +1667,7 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
@@ -1651,7 +1682,7 @@
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
@@ -1666,7 +1697,7 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
@@ -1696,7 +1727,7 @@
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
@@ -1709,147 +1740,135 @@
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="8">
-        <v>70.0</v>
-      </c>
+      <c r="G20" s="8"/>
       <c r="H20" s="8">
-        <v>75.0</v>
-      </c>
-      <c r="I20" s="9"/>
+        <v>90.0</v>
+      </c>
+      <c r="I20" s="9">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="11">
-        <v>85.0</v>
-      </c>
-      <c r="I21" s="9"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="9">
+        <v>110.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="7" t="s">
-        <v>47</v>
+      <c r="C22" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="7" t="s">
-        <v>47</v>
+      <c r="E22" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8">
-        <v>75.0</v>
-      </c>
-      <c r="I22" s="8">
-        <v>90.0</v>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="9">
+        <v>120.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>48</v>
+      <c r="B23" s="7"/>
+      <c r="C23" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="7" t="s">
-        <v>48</v>
+      <c r="E23" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="F23" s="5"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="8">
-        <v>75.0</v>
-      </c>
-      <c r="I23" s="9">
-        <v>90.0</v>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="8">
+        <v>120.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D24" s="5"/>
-      <c r="E24" s="7" t="s">
-        <v>49</v>
+      <c r="E24" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="8">
-        <v>90.0</v>
-      </c>
-      <c r="I24" s="8">
-        <v>100.0</v>
+      <c r="H24" s="11"/>
+      <c r="I24" s="9">
+        <v>120.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7" t="s">
-        <v>50</v>
+      <c r="B25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="7" t="s">
-        <v>50</v>
+      <c r="E25" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="8">
-        <v>95.0</v>
-      </c>
-      <c r="I25" s="8">
-        <v>105.0</v>
+      <c r="H25" s="11"/>
+      <c r="I25" s="9">
+        <v>130.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="8">
-        <v>90.0</v>
-      </c>
+      <c r="H26" s="11"/>
       <c r="I26" s="8">
-        <v>100.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="27">
@@ -1858,40 +1877,34 @@
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="8">
-        <v>100.0</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="11"/>
       <c r="I27" s="8">
-        <v>110.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="15"/>
+        <v>50</v>
+      </c>
+      <c r="D28" s="5"/>
       <c r="E28" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="8">
-        <v>105.0</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="11"/>
       <c r="I28" s="8">
-        <v>120.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="29">
@@ -1899,22 +1912,20 @@
         <v>3</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="D29" s="5"/>
       <c r="E29" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="8">
-        <v>100.0</v>
-      </c>
+      <c r="H29" s="11"/>
       <c r="I29" s="8">
-        <v>110.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="30">
@@ -1923,17 +1934,15 @@
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="15"/>
+        <v>52</v>
+      </c>
+      <c r="D30" s="5"/>
       <c r="E30" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="8">
-        <v>115.0</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="11"/>
       <c r="I30" s="8">
         <v>125.0</v>
       </c>
@@ -1944,63 +1953,57 @@
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="8">
-        <v>115.0</v>
-      </c>
+      <c r="H31" s="11"/>
       <c r="I31" s="8">
-        <v>125.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>57</v>
+      <c r="B32" s="7"/>
+      <c r="C32" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="D32" s="15"/>
-      <c r="E32" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" s="15"/>
+      <c r="E32" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="5"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="8">
-        <v>100.0</v>
-      </c>
+      <c r="H32" s="11"/>
       <c r="I32" s="8">
-        <v>110.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7" t="s">
-        <v>58</v>
+      <c r="B33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="D33" s="15"/>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
+      <c r="E33" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="8">
-        <v>90.0</v>
-      </c>
+      <c r="H33" s="11"/>
       <c r="I33" s="8">
-        <v>100.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="34">
@@ -2008,20 +2011,18 @@
         <v>3</v>
       </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="10" t="s">
-        <v>60</v>
+      <c r="C34" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="D34" s="15"/>
-      <c r="E34" s="10" t="s">
-        <v>60</v>
+      <c r="E34" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="F34" s="15"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="11">
-        <v>150.0</v>
-      </c>
-      <c r="I34" s="11">
-        <v>160.0</v>
+      <c r="G34" s="12"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="8">
+        <v>120.0</v>
       </c>
     </row>
     <row r="35">
@@ -2029,20 +2030,18 @@
         <v>3</v>
       </c>
       <c r="B35" s="7"/>
-      <c r="C35" s="10" t="s">
-        <v>61</v>
+      <c r="C35" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="D35" s="15"/>
-      <c r="E35" s="10" t="s">
-        <v>61</v>
+      <c r="E35" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="12"/>
-      <c r="H35" s="11">
-        <v>160.0</v>
-      </c>
-      <c r="I35" s="11">
-        <v>170.0</v>
+      <c r="H35" s="11"/>
+      <c r="I35" s="8">
+        <v>155.0</v>
       </c>
     </row>
     <row r="36">
@@ -2051,20 +2050,18 @@
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F36" s="15"/>
-      <c r="G36" s="8">
-        <v>65.0</v>
-      </c>
-      <c r="H36" s="8">
-        <v>75.0</v>
-      </c>
-      <c r="I36" s="9"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="8">
+        <v>155.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
@@ -2072,104 +2069,104 @@
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F37" s="15"/>
-      <c r="G37" s="8">
-        <v>75.0</v>
-      </c>
+      <c r="G37" s="11"/>
       <c r="H37" s="8">
-        <v>80.0</v>
-      </c>
-      <c r="I37" s="9"/>
+        <v>85.0</v>
+      </c>
+      <c r="I37" s="9">
+        <v>95.0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="7"/>
-      <c r="C38" s="10" t="s">
-        <v>66</v>
+      <c r="C38" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="15"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="8">
+        <v>95.0</v>
+      </c>
+      <c r="I38" s="9">
+        <v>105.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="8">
+        <v>95.0</v>
+      </c>
+      <c r="I39" s="9">
+        <v>105.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="8">
-        <v>75.0</v>
-      </c>
-      <c r="H38" s="8">
-        <v>80.0</v>
-      </c>
-      <c r="I38" s="9"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="8">
+      <c r="F40" s="15"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="8">
         <v>30.0</v>
       </c>
-      <c r="H39" s="8">
+      <c r="I40" s="8">
         <v>40.0</v>
       </c>
-      <c r="I39" s="8">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F40" s="15"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="11">
-        <v>120.0</v>
-      </c>
-      <c r="I40" s="9"/>
     </row>
     <row r="41">
       <c r="A41" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="7"/>
-      <c r="C41" s="10" t="s">
-        <v>72</v>
+      <c r="C41" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="D41" s="17"/>
-      <c r="E41" s="10" t="s">
-        <v>73</v>
+      <c r="E41" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="F41" s="15"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="11">
-        <v>120.0</v>
-      </c>
-      <c r="I41" s="9"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="9">
+        <v>135.0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
@@ -2177,18 +2174,18 @@
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F42" s="17"/>
+        <v>71</v>
+      </c>
+      <c r="F42" s="15"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="8">
-        <v>90.0</v>
-      </c>
-      <c r="I42" s="9"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="9">
+        <v>135.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
@@ -2196,18 +2193,18 @@
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="D43" s="17"/>
       <c r="E43" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F43" s="17"/>
       <c r="G43" s="12"/>
-      <c r="H43" s="8">
-        <v>90.0</v>
-      </c>
-      <c r="I43" s="9"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="9">
+        <v>125.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
@@ -2215,18 +2212,18 @@
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F44" s="17"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8">
-        <v>90.0</v>
-      </c>
-      <c r="I44" s="9"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="9">
+        <v>125.0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="7" t="s">
@@ -2234,18 +2231,18 @@
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F45" s="17"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="8">
-        <v>90.0</v>
-      </c>
-      <c r="I45" s="9"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="9">
+        <v>125.0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
@@ -2253,18 +2250,18 @@
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F46" s="15"/>
+        <v>79</v>
+      </c>
+      <c r="F46" s="17"/>
       <c r="G46" s="12"/>
-      <c r="H46" s="8">
-        <v>90.0</v>
-      </c>
-      <c r="I46" s="9"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="9">
+        <v>125.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
@@ -2272,115 +2269,120 @@
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="15"/>
+        <v>80</v>
+      </c>
+      <c r="D47" s="5"/>
       <c r="E47" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F47" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="F47" s="15"/>
       <c r="G47" s="12"/>
-      <c r="H47" s="8">
-        <v>90.0</v>
-      </c>
-      <c r="I47" s="9"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="9">
+        <v>125.0</v>
+      </c>
+      <c r="J47" s="18"/>
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="B48" s="7"/>
       <c r="C48" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="12"/>
-      <c r="H48" s="8">
-        <v>90.0</v>
-      </c>
-      <c r="I48" s="9"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="9">
+        <v>125.0</v>
+      </c>
+      <c r="J48" s="18"/>
     </row>
     <row r="49">
-      <c r="A49" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8" t="s">
-        <v>88</v>
+      <c r="A49" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="D49" s="15"/>
-      <c r="E49" s="8" t="s">
-        <v>88</v>
+      <c r="E49" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="12"/>
-      <c r="H49" s="8">
-        <v>90.0</v>
-      </c>
-      <c r="I49" s="9"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="9">
+        <v>125.0</v>
+      </c>
+      <c r="J49" s="18"/>
     </row>
     <row r="50">
-      <c r="A50" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7" t="s">
-        <v>89</v>
+      <c r="A50" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="D50" s="15"/>
-      <c r="E50" s="7" t="s">
-        <v>89</v>
+      <c r="E50" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="12"/>
-      <c r="H50" s="8">
-        <v>90.0</v>
-      </c>
-      <c r="I50" s="9"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="9">
+        <v>150.0</v>
+      </c>
+      <c r="J50" s="18"/>
     </row>
     <row r="51">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7" t="s">
-        <v>90</v>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="D51" s="15"/>
-      <c r="E51" s="7" t="s">
-        <v>90</v>
+      <c r="E51" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="12"/>
-      <c r="H51" s="8">
-        <v>90.0</v>
-      </c>
-      <c r="I51" s="9"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="9">
+        <v>125.0</v>
+      </c>
+      <c r="J51" s="18"/>
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B52" s="7"/>
-      <c r="C52" s="18" t="s">
-        <v>91</v>
+      <c r="C52" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="D52" s="15"/>
-      <c r="E52" s="18" t="s">
-        <v>91</v>
+      <c r="E52" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="12"/>
-      <c r="H52" s="8">
-        <v>90.0</v>
-      </c>
-      <c r="I52" s="9"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="9">
+        <v>125.0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="7" t="s">
@@ -2388,37 +2390,37 @@
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D53" s="15"/>
       <c r="E53" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="12"/>
-      <c r="H53" s="8">
-        <v>90.0</v>
-      </c>
-      <c r="I53" s="9"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="9">
+        <v>125.0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B54" s="7"/>
-      <c r="C54" s="7" t="s">
-        <v>93</v>
+      <c r="C54" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="D54" s="15"/>
-      <c r="E54" s="7" t="s">
-        <v>93</v>
+      <c r="E54" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="12"/>
-      <c r="H54" s="8">
-        <v>90.0</v>
-      </c>
-      <c r="I54" s="9"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="9">
+        <v>125.0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="7" t="s">
@@ -2426,18 +2428,18 @@
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D55" s="15"/>
       <c r="E55" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="12"/>
-      <c r="H55" s="8">
-        <v>90.0</v>
-      </c>
-      <c r="I55" s="9"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="9">
+        <v>125.0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
@@ -2445,18 +2447,18 @@
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" s="17"/>
+        <v>92</v>
+      </c>
+      <c r="D56" s="15"/>
       <c r="E56" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F56" s="17"/>
+        <v>92</v>
+      </c>
+      <c r="F56" s="5"/>
       <c r="G56" s="12"/>
-      <c r="H56" s="8">
-        <v>90.0</v>
-      </c>
-      <c r="I56" s="9"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="9">
+        <v>125.0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="7" t="s">
@@ -2464,94 +2466,94 @@
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D57" s="17"/>
+        <v>93</v>
+      </c>
+      <c r="D57" s="15"/>
       <c r="E57" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F57" s="17"/>
+        <v>93</v>
+      </c>
+      <c r="F57" s="5"/>
       <c r="G57" s="12"/>
-      <c r="H57" s="8">
-        <v>90.0</v>
-      </c>
-      <c r="I57" s="9"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="9">
+        <v>125.0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B58" s="7"/>
-      <c r="C58" s="18" t="s">
-        <v>97</v>
+      <c r="C58" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D58" s="17"/>
-      <c r="E58" s="18" t="s">
-        <v>97</v>
+      <c r="E58" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="F58" s="17"/>
       <c r="G58" s="12"/>
-      <c r="H58" s="8">
-        <v>90.0</v>
-      </c>
-      <c r="I58" s="9"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="9">
+        <v>125.0</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8" t="s">
-        <v>98</v>
+      <c r="A59" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="D59" s="17"/>
-      <c r="E59" s="8" t="s">
-        <v>99</v>
+      <c r="E59" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="F59" s="17"/>
       <c r="G59" s="12"/>
-      <c r="H59" s="11">
-        <v>115.0</v>
-      </c>
-      <c r="I59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="9">
+        <v>125.0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B60" s="7"/>
-      <c r="C60" s="7" t="s">
-        <v>100</v>
+      <c r="C60" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="D60" s="17"/>
-      <c r="E60" s="7" t="s">
-        <v>100</v>
+      <c r="E60" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="F60" s="17"/>
       <c r="G60" s="12"/>
-      <c r="H60" s="11">
-        <v>115.0</v>
-      </c>
-      <c r="I60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="9">
+        <v>125.0</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7" t="s">
-        <v>101</v>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="D61" s="17"/>
-      <c r="E61" s="7" t="s">
-        <v>101</v>
+      <c r="E61" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="F61" s="17"/>
       <c r="G61" s="12"/>
-      <c r="H61" s="11">
-        <v>115.0</v>
-      </c>
-      <c r="I61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="8">
+        <v>150.0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="7" t="s">
@@ -2559,18 +2561,18 @@
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F62" s="17"/>
       <c r="G62" s="12"/>
-      <c r="H62" s="8">
-        <v>115.0</v>
-      </c>
-      <c r="I62" s="19"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="8">
+        <v>150.0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="7" t="s">
@@ -2578,103 +2580,95 @@
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F63" s="17"/>
       <c r="G63" s="12"/>
-      <c r="H63" s="8">
-        <v>90.0</v>
-      </c>
-      <c r="I63" s="16">
-        <v>100.0</v>
+      <c r="H63" s="11"/>
+      <c r="I63" s="8">
+        <v>150.0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8" t="s">
-        <v>105</v>
+      <c r="A64" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="D64" s="17"/>
-      <c r="E64" s="8" t="s">
-        <v>105</v>
+      <c r="E64" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="F64" s="17"/>
       <c r="G64" s="12"/>
-      <c r="H64" s="8">
-        <v>90.0</v>
-      </c>
-      <c r="I64" s="16">
-        <v>100.0</v>
+      <c r="H64" s="11"/>
+      <c r="I64" s="9">
+        <v>110.0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7" t="s">
-        <v>106</v>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="D65" s="17"/>
-      <c r="E65" s="7" t="s">
-        <v>107</v>
+      <c r="E65" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="F65" s="17"/>
       <c r="G65" s="12"/>
-      <c r="H65" s="8">
-        <v>95.0</v>
-      </c>
-      <c r="I65" s="12">
-        <v>105.0</v>
+      <c r="H65" s="11"/>
+      <c r="I65" s="9">
+        <v>100.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="B66" s="7"/>
       <c r="C66" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F66" s="17"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="8">
-        <v>95.0</v>
-      </c>
-      <c r="I66" s="8">
-        <v>105.0</v>
+      <c r="G66" s="12"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="9">
+        <v>130.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="7"/>
+      <c r="B67" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C67" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F67" s="17"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="8"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="11"/>
       <c r="I67" s="8">
-        <v>110.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="68">
@@ -2683,17 +2677,17 @@
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D68" s="17"/>
       <c r="E68" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F68" s="17"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="8"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="11"/>
       <c r="I68" s="8">
-        <v>120.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="69">
@@ -2702,17 +2696,17 @@
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F69" s="17"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="8"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="11"/>
       <c r="I69" s="8">
-        <v>130.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="70">
@@ -2721,57 +2715,57 @@
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F70" s="17"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="8"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="11"/>
       <c r="I70" s="8">
-        <v>130.0</v>
+        <v>155.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="B71" s="7"/>
       <c r="C71" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F71" s="17"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="8"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="11"/>
       <c r="I71" s="8">
-        <v>110.0</v>
+        <v>155.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="18" t="s">
-        <v>114</v>
+      <c r="B72" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="D72" s="17"/>
-      <c r="E72" s="18" t="s">
-        <v>114</v>
+      <c r="E72" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="F72" s="17"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="8"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="11"/>
       <c r="I72" s="8">
-        <v>150.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="73">
@@ -2779,115 +2773,113 @@
         <v>8</v>
       </c>
       <c r="B73" s="7"/>
-      <c r="C73" s="18" t="s">
-        <v>115</v>
+      <c r="C73" s="19" t="s">
+        <v>112</v>
       </c>
       <c r="D73" s="17"/>
-      <c r="E73" s="18" t="s">
-        <v>115</v>
+      <c r="E73" s="19" t="s">
+        <v>112</v>
       </c>
       <c r="F73" s="17"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="11"/>
       <c r="I73" s="8">
-        <v>150.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D74" s="15"/>
-      <c r="E74" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F74" s="5"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="9"/>
+      <c r="A74" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c r="C74" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D74" s="17"/>
+      <c r="E74" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F74" s="17"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
       <c r="I74" s="8">
-        <v>135.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7" t="s">
-        <v>117</v>
+      <c r="A75" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="11"/>
+      <c r="C75" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="D75" s="15"/>
-      <c r="E75" s="7" t="s">
-        <v>117</v>
+      <c r="E75" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="12"/>
-      <c r="H75" s="9"/>
+      <c r="H75" s="20"/>
       <c r="I75" s="8">
-        <v>135.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7" t="s">
-        <v>118</v>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="D76" s="15"/>
-      <c r="E76" s="7" t="s">
-        <v>118</v>
+      <c r="E76" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="12"/>
-      <c r="H76" s="9"/>
+      <c r="H76" s="20"/>
       <c r="I76" s="8">
-        <v>135.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="7"/>
+      <c r="B77" s="11"/>
       <c r="C77" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D77" s="15"/>
       <c r="E77" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="12"/>
-      <c r="H77" s="9"/>
+      <c r="H77" s="20"/>
       <c r="I77" s="8">
-        <v>135.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="B78" s="7"/>
       <c r="C78" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D78" s="15"/>
       <c r="E78" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="12"/>
-      <c r="H78" s="8"/>
+      <c r="H78" s="20"/>
       <c r="I78" s="8">
-        <v>90.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="79">
@@ -2896,17 +2888,17 @@
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D79" s="17"/>
+        <v>119</v>
+      </c>
+      <c r="D79" s="15"/>
       <c r="E79" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F79" s="17"/>
+        <v>119</v>
+      </c>
+      <c r="F79" s="5"/>
       <c r="G79" s="12"/>
-      <c r="H79" s="9"/>
+      <c r="H79" s="20"/>
       <c r="I79" s="8">
-        <v>125.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="80">
@@ -2915,36 +2907,38 @@
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D80" s="20"/>
+        <v>120</v>
+      </c>
+      <c r="D80" s="15"/>
       <c r="E80" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F80" s="20"/>
+        <v>120</v>
+      </c>
+      <c r="F80" s="5"/>
       <c r="G80" s="12"/>
-      <c r="H80" s="9"/>
+      <c r="H80" s="20"/>
       <c r="I80" s="8">
-        <v>110.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B81" s="7"/>
+      <c r="B81" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C81" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D81" s="17"/>
+        <v>121</v>
+      </c>
+      <c r="D81" s="15"/>
       <c r="E81" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F81" s="17"/>
+        <v>122</v>
+      </c>
+      <c r="F81" s="5"/>
       <c r="G81" s="12"/>
-      <c r="H81" s="9"/>
+      <c r="H81" s="11"/>
       <c r="I81" s="8">
-        <v>110.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="82">
@@ -2953,17 +2947,17 @@
       </c>
       <c r="B82" s="7"/>
       <c r="C82" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F82" s="17"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="11">
-        <v>115.0</v>
+      <c r="G82" s="12"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="8">
+        <v>120.0</v>
       </c>
     </row>
     <row r="83">
@@ -2972,17 +2966,17 @@
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D83" s="17"/>
+        <v>124</v>
+      </c>
+      <c r="D83" s="21"/>
       <c r="E83" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F83" s="20"/>
+        <v>124</v>
+      </c>
+      <c r="F83" s="21"/>
       <c r="G83" s="12"/>
-      <c r="H83" s="8"/>
+      <c r="H83" s="20"/>
       <c r="I83" s="8">
-        <v>90.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="84">
@@ -2991,17 +2985,17 @@
       </c>
       <c r="B84" s="7"/>
       <c r="C84" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F84" s="20"/>
+        <v>125</v>
+      </c>
+      <c r="F84" s="17"/>
       <c r="G84" s="12"/>
-      <c r="H84" s="8"/>
+      <c r="H84" s="20"/>
       <c r="I84" s="8">
-        <v>90.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="85">
@@ -3010,17 +3004,17 @@
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F85" s="17"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="8"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="11"/>
       <c r="I85" s="8">
-        <v>110.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="86">
@@ -3029,17 +3023,17 @@
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F86" s="17"/>
+        <v>128</v>
+      </c>
+      <c r="F86" s="21"/>
       <c r="G86" s="12"/>
-      <c r="H86" s="8"/>
+      <c r="H86" s="11"/>
       <c r="I86" s="11">
-        <v>130.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="87">
@@ -3047,18 +3041,18 @@
         <v>9</v>
       </c>
       <c r="B87" s="7"/>
-      <c r="C87" s="10" t="s">
-        <v>132</v>
+      <c r="C87" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="D87" s="17"/>
-      <c r="E87" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F87" s="17"/>
+      <c r="E87" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F87" s="21"/>
       <c r="G87" s="12"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="11">
-        <v>150.0</v>
+      <c r="H87" s="11"/>
+      <c r="I87" s="8">
+        <v>110.0</v>
       </c>
     </row>
     <row r="88">
@@ -3067,61 +3061,55 @@
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D88" s="17"/>
       <c r="E88" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F88" s="17"/>
       <c r="G88" s="12"/>
-      <c r="H88" s="8">
-        <v>75.0</v>
-      </c>
-      <c r="I88" s="16">
-        <v>90.0</v>
+      <c r="H88" s="11"/>
+      <c r="I88" s="8">
+        <v>150.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="B89" s="7"/>
       <c r="C89" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D89" s="17"/>
       <c r="E89" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F89" s="17"/>
       <c r="G89" s="12"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="12">
-        <v>90.0</v>
+      <c r="H89" s="11"/>
+      <c r="I89" s="8">
+        <v>115.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="B90" s="7"/>
       <c r="C90" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D90" s="17"/>
       <c r="E90" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F90" s="17"/>
       <c r="G90" s="12"/>
-      <c r="H90" s="8"/>
+      <c r="H90" s="11"/>
       <c r="I90" s="8">
-        <v>90.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="91">
@@ -3130,16 +3118,16 @@
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D91" s="17"/>
       <c r="E91" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F91" s="17"/>
       <c r="G91" s="12"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8">
+      <c r="H91" s="11"/>
+      <c r="I91" s="12">
         <v>90.0</v>
       </c>
     </row>
@@ -3147,159 +3135,163 @@
       <c r="A92" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B92" s="7"/>
-      <c r="C92" s="18" t="s">
-        <v>139</v>
+      <c r="B92" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="D92" s="17"/>
       <c r="E92" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F92" s="17"/>
       <c r="G92" s="12"/>
-      <c r="H92" s="8">
-        <v>75.0</v>
-      </c>
-      <c r="I92" s="8"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="9">
+        <v>120.0</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B93" s="8"/>
-      <c r="C93" s="11" t="s">
-        <v>140</v>
+      <c r="A93" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="D93" s="17"/>
-      <c r="E93" s="8" t="s">
-        <v>141</v>
+      <c r="E93" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="F93" s="17"/>
       <c r="G93" s="12"/>
-      <c r="H93" s="8">
-        <v>50.0</v>
-      </c>
-      <c r="I93" s="9"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="8">
+        <v>110.0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>30</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B94" s="7"/>
       <c r="C94" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D94" s="17"/>
       <c r="E94" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F94" s="17"/>
       <c r="G94" s="12"/>
-      <c r="H94" s="8">
-        <v>60.0</v>
-      </c>
-      <c r="I94" s="9"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="8">
+        <v>110.0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>143</v>
+        <v>9</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c r="C95" s="19" t="s">
+        <v>140</v>
       </c>
       <c r="D95" s="17"/>
       <c r="E95" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F95" s="17"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8">
-        <v>75.0</v>
-      </c>
-      <c r="I95" s="9"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="8">
+        <v>95.0</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B96" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>144</v>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="D96" s="17"/>
-      <c r="E96" s="7" t="s">
-        <v>145</v>
+      <c r="E96" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="F96" s="17"/>
       <c r="G96" s="12"/>
-      <c r="H96" s="8">
-        <v>50.0</v>
-      </c>
-      <c r="I96" s="9"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="9">
+        <v>60.0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="7"/>
-      <c r="C97" s="10" t="s">
-        <v>146</v>
+      <c r="B97" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F97" s="17"/>
       <c r="G97" s="12"/>
-      <c r="H97" s="8">
-        <v>35.0</v>
-      </c>
-      <c r="I97" s="9"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="9">
+        <v>60.0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="7"/>
+      <c r="B98" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C98" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F98" s="17"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8">
-        <v>40.0</v>
-      </c>
-      <c r="I98" s="9"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="9">
+        <v>85.0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B99" s="7"/>
+      <c r="B99" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C99" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F99" s="17"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8">
-        <v>30.0</v>
-      </c>
-      <c r="I99" s="9"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="9">
+        <v>60.0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
@@ -3307,96 +3299,96 @@
       </c>
       <c r="B100" s="7"/>
       <c r="C100" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F100" s="5"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8">
-        <v>25.0</v>
-      </c>
-      <c r="I100" s="9"/>
+        <v>148</v>
+      </c>
+      <c r="F100" s="17"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="9">
+        <v>40.0</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B101" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>153</v>
+      <c r="A101" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="D101" s="17"/>
-      <c r="E101" s="8" t="s">
-        <v>154</v>
+      <c r="E101" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="F101" s="17"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="11">
-        <v>130.0</v>
-      </c>
-      <c r="I101" s="9"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="9">
+        <v>45.0</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B102" s="5"/>
+      <c r="A102" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="7"/>
       <c r="C102" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D102" s="17"/>
       <c r="E102" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F102" s="17"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="11">
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="9">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D103" s="17"/>
+      <c r="E103" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F103" s="5"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="9">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D104" s="17"/>
+      <c r="E104" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F104" s="17"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11">
         <v>130.0</v>
       </c>
-      <c r="I102" s="9"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B103" s="5"/>
-      <c r="C103" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D103" s="15"/>
-      <c r="E103" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F103" s="17"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="11">
-        <v>130.0</v>
-      </c>
-      <c r="I103" s="9"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B104" s="5"/>
-      <c r="C104" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D104" s="17"/>
-      <c r="E104" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F104" s="17"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="11">
-        <v>130.0</v>
-      </c>
-      <c r="I104" s="9"/>
     </row>
     <row r="105">
       <c r="A105" s="5" t="s">
@@ -3404,39 +3396,39 @@
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D105" s="15"/>
       <c r="E105" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F105" s="17"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="11">
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11">
         <v>130.0</v>
       </c>
-      <c r="I105" s="9"/>
     </row>
     <row r="106">
       <c r="A106" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D106" s="17"/>
       <c r="E106" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F106" s="17"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="11">
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11">
         <v>130.0</v>
       </c>
-      <c r="I106" s="9"/>
     </row>
     <row r="107">
       <c r="A107" s="5" t="s">
@@ -3444,115 +3436,115 @@
       </c>
       <c r="B107" s="5"/>
       <c r="C107" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D107" s="17"/>
       <c r="E107" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F107" s="17"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="11">
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11">
         <v>130.0</v>
       </c>
-      <c r="I107" s="9"/>
     </row>
     <row r="108">
       <c r="A108" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B108" s="5"/>
-      <c r="C108" s="10" t="s">
-        <v>166</v>
+      <c r="C108" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="D108" s="17"/>
-      <c r="E108" s="10" t="s">
-        <v>167</v>
+      <c r="E108" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="F108" s="17"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="11">
-        <v>75.0</v>
-      </c>
-      <c r="I108" s="9"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11">
+        <v>130.0</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" s="21" t="s">
+      <c r="A109" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B109" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>153</v>
+      <c r="B109" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="D109" s="17"/>
-      <c r="E109" s="11" t="s">
-        <v>168</v>
+      <c r="E109" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="F109" s="17"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="16">
+      <c r="G109" s="20"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12">
         <v>180.0</v>
       </c>
-      <c r="I109" s="9"/>
     </row>
     <row r="110">
       <c r="A110" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B110" s="21"/>
-      <c r="C110" s="22" t="s">
-        <v>169</v>
+      <c r="B110" s="22"/>
+      <c r="C110" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="D110" s="17"/>
       <c r="E110" s="11" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F110" s="17"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="16">
+      <c r="G110" s="20"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12">
         <v>200.0</v>
       </c>
-      <c r="I110" s="9"/>
     </row>
     <row r="111">
       <c r="A111" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B111" s="21"/>
-      <c r="C111" s="22" t="s">
-        <v>171</v>
+      <c r="B111" s="22"/>
+      <c r="C111" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="D111" s="17"/>
       <c r="E111" s="11" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F111" s="17"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="16">
+      <c r="G111" s="20"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12">
         <v>200.0</v>
       </c>
-      <c r="I111" s="9"/>
     </row>
     <row r="112">
       <c r="A112" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B112" s="5"/>
-      <c r="C112" s="10" t="s">
-        <v>173</v>
+      <c r="C112" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="D112" s="17"/>
-      <c r="E112" s="10" t="s">
-        <v>174</v>
+      <c r="E112" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="F112" s="5"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="16">
+      <c r="G112" s="20"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12">
         <v>180.0</v>
       </c>
-      <c r="I112" s="9"/>
     </row>
     <row r="113">
       <c r="A113" s="5" t="s">
@@ -3560,18 +3552,18 @@
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F113" s="5"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="16">
+      <c r="G113" s="20"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12">
         <v>180.0</v>
       </c>
-      <c r="I113" s="9"/>
     </row>
     <row r="114">
       <c r="A114" s="5" t="s">
@@ -3579,39 +3571,39 @@
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D114" s="17"/>
       <c r="E114" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F114" s="17"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="16">
+      <c r="G114" s="20"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12">
         <v>180.0</v>
       </c>
-      <c r="I114" s="9"/>
     </row>
     <row r="115">
       <c r="A115" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D115" s="17"/>
       <c r="E115" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F115" s="17"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="16">
+      <c r="G115" s="20"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12">
         <v>200.0</v>
       </c>
-      <c r="I115" s="9"/>
     </row>
     <row r="116">
       <c r="A116" s="5" t="s">
@@ -3619,39 +3611,39 @@
       </c>
       <c r="B116" s="5"/>
       <c r="C116" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D116" s="17"/>
       <c r="E116" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F116" s="5"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="16">
+      <c r="G116" s="20"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12">
         <v>200.0</v>
       </c>
-      <c r="I116" s="9"/>
     </row>
     <row r="117">
       <c r="A117" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F117" s="17"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="16">
+      <c r="G117" s="20"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12">
         <v>200.0</v>
       </c>
-      <c r="I117" s="9"/>
     </row>
     <row r="118">
       <c r="A118" s="5" t="s">
@@ -3659,18 +3651,18 @@
       </c>
       <c r="B118" s="5"/>
       <c r="C118" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D118" s="17"/>
       <c r="E118" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F118" s="17"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="16">
+      <c r="G118" s="20"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12">
         <v>200.0</v>
       </c>
-      <c r="I118" s="9"/>
     </row>
     <row r="119">
       <c r="A119" s="5" t="s">
@@ -3678,18 +3670,18 @@
       </c>
       <c r="B119" s="5"/>
       <c r="C119" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D119" s="17"/>
       <c r="E119" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F119" s="17"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="16">
+      <c r="G119" s="20"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12">
         <v>200.0</v>
       </c>
-      <c r="I119" s="9"/>
     </row>
     <row r="120">
       <c r="A120" s="5" t="s">
@@ -3697,56 +3689,56 @@
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F120" s="5"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="16">
+      <c r="G120" s="20"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12">
         <v>200.0</v>
       </c>
-      <c r="I120" s="9"/>
     </row>
     <row r="121">
       <c r="A121" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B121" s="5"/>
-      <c r="C121" s="10" t="s">
-        <v>190</v>
+      <c r="C121" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="D121" s="5"/>
-      <c r="E121" s="10" t="s">
-        <v>191</v>
+      <c r="E121" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="F121" s="5"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="16">
+      <c r="G121" s="20"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12">
         <v>180.0</v>
       </c>
-      <c r="I121" s="9"/>
     </row>
     <row r="122">
       <c r="A122" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B122" s="5"/>
-      <c r="C122" s="10" t="s">
-        <v>192</v>
+      <c r="C122" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="D122" s="5"/>
-      <c r="E122" s="10" t="s">
-        <v>193</v>
+      <c r="E122" s="7" t="s">
+        <v>188</v>
       </c>
       <c r="F122" s="5"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="16">
+      <c r="G122" s="20"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12">
         <v>180.0</v>
       </c>
-      <c r="I122" s="9"/>
     </row>
     <row r="123">
       <c r="A123" s="5" t="s">
@@ -3754,18 +3746,18 @@
       </c>
       <c r="B123" s="5"/>
       <c r="C123" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F123" s="5"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="16">
+      <c r="G123" s="20"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12">
         <v>180.0</v>
       </c>
-      <c r="I123" s="9"/>
     </row>
     <row r="124">
       <c r="A124" s="5" t="s">
@@ -3773,18 +3765,18 @@
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F124" s="5"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="16">
+      <c r="G124" s="20"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12">
         <v>180.0</v>
       </c>
-      <c r="I124" s="9"/>
     </row>
     <row r="125">
       <c r="A125" s="5" t="s">
@@ -3792,39 +3784,39 @@
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F125" s="5"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="12">
+      <c r="G125" s="20"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12">
         <v>65.0</v>
       </c>
-      <c r="I125" s="9"/>
     </row>
     <row r="126">
       <c r="A126" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D126" s="17"/>
       <c r="E126" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F126" s="17"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="16">
+      <c r="G126" s="20"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12">
         <v>180.0</v>
       </c>
-      <c r="I126" s="9"/>
     </row>
     <row r="127">
       <c r="A127" s="5" t="s">
@@ -3832,18 +3824,18 @@
       </c>
       <c r="B127" s="5"/>
       <c r="C127" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F127" s="5"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="16">
+      <c r="G127" s="20"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12">
         <v>180.0</v>
       </c>
-      <c r="I127" s="9"/>
     </row>
     <row r="128">
       <c r="A128" s="5" t="s">
@@ -3851,39 +3843,39 @@
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F128" s="5"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="12">
+      <c r="G128" s="20"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12">
         <v>65.0</v>
       </c>
-      <c r="I128" s="9"/>
     </row>
     <row r="129">
       <c r="A129" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D129" s="17"/>
       <c r="E129" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F129" s="17"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="16">
+      <c r="G129" s="20"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12">
         <v>200.0</v>
       </c>
-      <c r="I129" s="9"/>
     </row>
     <row r="130">
       <c r="A130" s="5" t="s">
@@ -3891,39 +3883,39 @@
       </c>
       <c r="B130" s="5"/>
       <c r="C130" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D130" s="17"/>
       <c r="E130" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F130" s="17"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="16">
+      <c r="G130" s="20"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12">
         <v>180.0</v>
       </c>
-      <c r="I130" s="9"/>
     </row>
     <row r="131">
       <c r="A131" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F131" s="5"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="16">
+      <c r="G131" s="20"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12">
         <v>180.0</v>
       </c>
-      <c r="I131" s="9"/>
     </row>
     <row r="132">
       <c r="A132" s="5" t="s">
@@ -3931,18 +3923,18 @@
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F132" s="5"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="16">
+      <c r="G132" s="20"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12">
         <v>175.0</v>
       </c>
-      <c r="I132" s="9"/>
     </row>
     <row r="133">
       <c r="A133" s="5" t="s">
@@ -3950,39 +3942,39 @@
       </c>
       <c r="B133" s="5"/>
       <c r="C133" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D133" s="17"/>
       <c r="E133" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F133" s="17"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="16">
+      <c r="G133" s="20"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12">
         <v>175.0</v>
       </c>
-      <c r="I133" s="9"/>
     </row>
     <row r="134">
       <c r="A134" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D134" s="17"/>
       <c r="E134" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F134" s="17"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="16">
+      <c r="G134" s="20"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12">
         <v>145.0</v>
       </c>
-      <c r="I134" s="9"/>
     </row>
     <row r="135">
       <c r="A135" s="5" t="s">
@@ -3990,115 +3982,115 @@
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F135" s="5"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="16">
+      <c r="G135" s="20"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12">
         <v>155.0</v>
       </c>
-      <c r="I135" s="9"/>
     </row>
     <row r="136">
       <c r="A136" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B136" s="5"/>
-      <c r="C136" s="10" t="s">
-        <v>217</v>
+      <c r="C136" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="D136" s="5"/>
-      <c r="E136" s="10" t="s">
-        <v>218</v>
+      <c r="E136" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="F136" s="5"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="16">
+      <c r="G136" s="20"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12">
         <v>185.0</v>
       </c>
-      <c r="I136" s="9"/>
     </row>
     <row r="137">
       <c r="A137" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B137" s="5"/>
-      <c r="C137" s="10" t="s">
-        <v>219</v>
+      <c r="C137" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="D137" s="5"/>
-      <c r="E137" s="10" t="s">
-        <v>220</v>
+      <c r="E137" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="F137" s="5"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="16">
+      <c r="G137" s="20"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12">
         <v>155.0</v>
       </c>
-      <c r="I137" s="9"/>
     </row>
     <row r="138">
       <c r="A138" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B138" s="5"/>
-      <c r="C138" s="10" t="s">
-        <v>221</v>
+      <c r="C138" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="D138" s="5"/>
-      <c r="E138" s="10" t="s">
-        <v>222</v>
+      <c r="E138" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="F138" s="5"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="16">
+      <c r="G138" s="20"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12">
         <v>75.0</v>
       </c>
-      <c r="I138" s="9"/>
     </row>
     <row r="139">
-      <c r="A139" s="21" t="s">
+      <c r="A139" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B139" s="21"/>
-      <c r="C139" s="8" t="s">
-        <v>223</v>
+      <c r="B139" s="22"/>
+      <c r="C139" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="D139" s="5"/>
-      <c r="E139" s="8" t="s">
-        <v>224</v>
+      <c r="E139" s="11" t="s">
+        <v>219</v>
       </c>
       <c r="F139" s="5"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="12">
+      <c r="G139" s="20"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12">
         <v>75.0</v>
       </c>
-      <c r="I139" s="9"/>
     </row>
     <row r="140">
       <c r="A140" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D140" s="17"/>
       <c r="E140" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F140" s="5"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="12">
+      <c r="G140" s="20"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12">
         <v>80.0</v>
       </c>
-      <c r="I140" s="9"/>
     </row>
     <row r="141">
       <c r="A141" s="5" t="s">
@@ -4106,340 +4098,340 @@
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D141" s="17"/>
       <c r="E141" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F141" s="5"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="12">
+      <c r="G141" s="20"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12">
         <v>110.0</v>
       </c>
-      <c r="I141" s="9"/>
     </row>
     <row r="142">
       <c r="A142" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B142" s="5"/>
-      <c r="C142" s="10" t="s">
-        <v>229</v>
+      <c r="C142" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="D142" s="17"/>
-      <c r="E142" s="10" t="s">
-        <v>230</v>
+      <c r="E142" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="F142" s="5"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="16">
+      <c r="G142" s="20"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12">
         <v>120.0</v>
       </c>
-      <c r="I142" s="9"/>
     </row>
     <row r="143">
       <c r="A143" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D143" s="17"/>
       <c r="E143" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F143" s="17"/>
-      <c r="G143" s="9"/>
-      <c r="H143" s="12">
+      <c r="G143" s="20"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12">
         <v>150.0</v>
       </c>
-      <c r="I143" s="9"/>
     </row>
     <row r="144">
       <c r="A144" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F144" s="5"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="12">
+      <c r="G144" s="20"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="12">
         <v>165.0</v>
       </c>
-      <c r="I144" s="9"/>
     </row>
     <row r="145">
-      <c r="A145" s="23" t="s">
+      <c r="A145" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B145" s="5"/>
-      <c r="C145" s="10" t="s">
-        <v>235</v>
+      <c r="C145" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="D145" s="5"/>
-      <c r="E145" s="10" t="s">
-        <v>236</v>
+      <c r="E145" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="F145" s="5"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="16">
+      <c r="G145" s="20"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="12">
         <v>50.0</v>
       </c>
-      <c r="I145" s="9"/>
     </row>
     <row r="146">
-      <c r="A146" s="21" t="s">
+      <c r="A146" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B146" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>237</v>
+      <c r="B146" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>232</v>
       </c>
       <c r="D146" s="5"/>
-      <c r="E146" s="8" t="s">
-        <v>238</v>
+      <c r="E146" s="11" t="s">
+        <v>233</v>
       </c>
       <c r="F146" s="5"/>
-      <c r="G146" s="9"/>
-      <c r="H146" s="16">
+      <c r="G146" s="20"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="12">
         <v>80.0</v>
       </c>
-      <c r="I146" s="9"/>
     </row>
     <row r="147">
       <c r="A147" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B147" s="5"/>
-      <c r="C147" s="10" t="s">
-        <v>239</v>
+      <c r="C147" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="D147" s="17"/>
-      <c r="E147" s="10" t="s">
-        <v>240</v>
+      <c r="E147" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="F147" s="5"/>
-      <c r="G147" s="9"/>
-      <c r="H147" s="16">
+      <c r="G147" s="20"/>
+      <c r="H147" s="12"/>
+      <c r="I147" s="12">
         <v>95.0</v>
       </c>
-      <c r="I147" s="9"/>
     </row>
     <row r="148">
       <c r="A148" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B148" s="5"/>
-      <c r="C148" s="10" t="s">
-        <v>241</v>
+      <c r="C148" s="7" t="s">
+        <v>236</v>
       </c>
       <c r="D148" s="17"/>
-      <c r="E148" s="10" t="s">
-        <v>242</v>
+      <c r="E148" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="F148" s="5"/>
-      <c r="G148" s="9"/>
-      <c r="H148" s="16">
+      <c r="G148" s="20"/>
+      <c r="H148" s="12"/>
+      <c r="I148" s="12">
         <v>55.0</v>
       </c>
-      <c r="I148" s="9"/>
     </row>
     <row r="149">
-      <c r="A149" s="21" t="s">
+      <c r="A149" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B149" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>243</v>
+      <c r="B149" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>238</v>
       </c>
       <c r="D149" s="17"/>
-      <c r="E149" s="8" t="s">
-        <v>244</v>
+      <c r="E149" s="11" t="s">
+        <v>239</v>
       </c>
       <c r="F149" s="5"/>
-      <c r="G149" s="9"/>
-      <c r="H149" s="12">
+      <c r="G149" s="20"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="12">
         <v>195.0</v>
       </c>
-      <c r="I149" s="9"/>
     </row>
     <row r="150">
       <c r="A150" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D150" s="17"/>
       <c r="E150" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F150" s="5"/>
-      <c r="G150" s="9"/>
-      <c r="H150" s="16">
+      <c r="G150" s="20"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="12">
         <v>120.0</v>
       </c>
-      <c r="I150" s="9"/>
     </row>
     <row r="151">
       <c r="A151" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D151" s="17"/>
       <c r="E151" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F151" s="5"/>
-      <c r="G151" s="9"/>
-      <c r="H151" s="16">
+      <c r="G151" s="20"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="12">
         <v>135.0</v>
       </c>
-      <c r="I151" s="9"/>
     </row>
     <row r="152">
       <c r="A152" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>249</v>
+        <v>27</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="D152" s="17"/>
-      <c r="E152" s="10" t="s">
-        <v>250</v>
+      <c r="E152" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="F152" s="5"/>
-      <c r="G152" s="9"/>
-      <c r="H152" s="16">
+      <c r="G152" s="20"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="12">
         <v>135.0</v>
       </c>
-      <c r="I152" s="9"/>
     </row>
     <row r="153">
-      <c r="A153" s="8" t="s">
+      <c r="A153" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B153" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>251</v>
+      <c r="B153" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>246</v>
       </c>
       <c r="D153" s="17"/>
-      <c r="E153" s="8" t="s">
-        <v>252</v>
+      <c r="E153" s="11" t="s">
+        <v>247</v>
       </c>
       <c r="F153" s="17"/>
-      <c r="G153" s="9"/>
-      <c r="H153" s="12">
-        <v>135.0</v>
-      </c>
-      <c r="I153" s="9"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="12">
+        <v>155.0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F154" s="5"/>
-      <c r="G154" s="9"/>
-      <c r="H154" s="12">
-        <v>135.0</v>
-      </c>
-      <c r="I154" s="9"/>
+      <c r="G154" s="20"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="12">
+        <v>155.0</v>
+      </c>
     </row>
     <row r="155">
-      <c r="A155" s="21" t="s">
+      <c r="A155" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B155" s="21"/>
-      <c r="C155" s="8" t="s">
-        <v>254</v>
+      <c r="B155" s="22"/>
+      <c r="C155" s="11" t="s">
+        <v>249</v>
       </c>
       <c r="D155" s="5"/>
-      <c r="E155" s="8" t="s">
-        <v>255</v>
+      <c r="E155" s="11" t="s">
+        <v>250</v>
       </c>
       <c r="F155" s="5"/>
-      <c r="G155" s="9"/>
-      <c r="H155" s="12">
+      <c r="G155" s="20"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="12">
         <v>20.0</v>
       </c>
-      <c r="I155" s="9"/>
     </row>
     <row r="156">
       <c r="A156" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B156" s="21"/>
-      <c r="C156" s="10" t="s">
-        <v>256</v>
+      <c r="B156" s="22"/>
+      <c r="C156" s="7" t="s">
+        <v>251</v>
       </c>
       <c r="D156" s="5"/>
-      <c r="E156" s="22" t="s">
-        <v>257</v>
+      <c r="E156" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="F156" s="5"/>
-      <c r="G156" s="9"/>
-      <c r="H156" s="16">
-        <v>25.0</v>
-      </c>
-      <c r="I156" s="9"/>
+      <c r="G156" s="20"/>
+      <c r="H156" s="9"/>
+      <c r="I156" s="9">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="157">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B157" s="5"/>
-      <c r="C157" s="7" t="s">
-        <v>258</v>
+      <c r="C157" s="10" t="s">
+        <v>253</v>
       </c>
       <c r="D157" s="17"/>
-      <c r="E157" s="7" t="s">
-        <v>259</v>
+      <c r="E157" s="24" t="s">
+        <v>254</v>
       </c>
       <c r="F157" s="17"/>
-      <c r="G157" s="9"/>
-      <c r="H157" s="12">
-        <v>25.0</v>
-      </c>
-      <c r="I157" s="9"/>
+      <c r="G157" s="20"/>
+      <c r="H157" s="9"/>
+      <c r="I157" s="9">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="5" t="s">
@@ -4447,18 +4439,18 @@
       </c>
       <c r="B158" s="5"/>
       <c r="C158" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D158" s="17"/>
       <c r="E158" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F158" s="17"/>
-      <c r="G158" s="9"/>
-      <c r="H158" s="16">
-        <v>40.0</v>
-      </c>
-      <c r="I158" s="9"/>
+      <c r="G158" s="20"/>
+      <c r="H158" s="9"/>
+      <c r="I158" s="9">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="5" t="s">
@@ -4466,18 +4458,18 @@
       </c>
       <c r="B159" s="5"/>
       <c r="C159" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D159" s="17"/>
       <c r="E159" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F159" s="17"/>
-      <c r="G159" s="9"/>
-      <c r="H159" s="16">
-        <v>30.0</v>
-      </c>
-      <c r="I159" s="9"/>
+      <c r="G159" s="20"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="12">
+        <v>40.0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="5" t="s">
@@ -4485,18 +4477,18 @@
       </c>
       <c r="B160" s="5"/>
       <c r="C160" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D160" s="17"/>
       <c r="E160" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F160" s="17"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="12">
-        <v>20.0</v>
-      </c>
-      <c r="I160" s="9"/>
+      <c r="G160" s="20"/>
+      <c r="H160" s="12"/>
+      <c r="I160" s="12">
+        <v>30.0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="5" t="s">
@@ -4504,18 +4496,18 @@
       </c>
       <c r="B161" s="5"/>
       <c r="C161" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D161" s="17"/>
       <c r="E161" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F161" s="17"/>
-      <c r="G161" s="9"/>
-      <c r="H161" s="12">
+      <c r="G161" s="20"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="12">
         <v>20.0</v>
       </c>
-      <c r="I161" s="9"/>
     </row>
     <row r="162">
       <c r="A162" s="5" t="s">
@@ -4523,18 +4515,18 @@
       </c>
       <c r="B162" s="5"/>
       <c r="C162" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D162" s="17"/>
       <c r="E162" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F162" s="17"/>
-      <c r="G162" s="9"/>
-      <c r="H162" s="12">
+      <c r="G162" s="20"/>
+      <c r="H162" s="12"/>
+      <c r="I162" s="12">
         <v>20.0</v>
       </c>
-      <c r="I162" s="9"/>
     </row>
     <row r="163">
       <c r="A163" s="5" t="s">
@@ -4542,18 +4534,18 @@
       </c>
       <c r="B163" s="5"/>
       <c r="C163" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F163" s="5"/>
-      <c r="G163" s="9"/>
-      <c r="H163" s="12">
+      <c r="G163" s="20"/>
+      <c r="H163" s="12"/>
+      <c r="I163" s="12">
         <v>25.0</v>
       </c>
-      <c r="I163" s="9"/>
     </row>
     <row r="164">
       <c r="A164" s="5" t="s">
@@ -4561,18 +4553,18 @@
       </c>
       <c r="B164" s="5"/>
       <c r="C164" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F164" s="5"/>
-      <c r="G164" s="9"/>
-      <c r="H164" s="12">
+      <c r="G164" s="20"/>
+      <c r="H164" s="12"/>
+      <c r="I164" s="12">
         <v>50.0</v>
       </c>
-      <c r="I164" s="9"/>
     </row>
     <row r="165">
       <c r="A165" s="5" t="s">
@@ -4580,38 +4572,36 @@
       </c>
       <c r="B165" s="5"/>
       <c r="C165" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F165" s="5"/>
-      <c r="G165" s="9"/>
-      <c r="H165" s="12">
+      <c r="G165" s="20"/>
+      <c r="H165" s="12"/>
+      <c r="I165" s="12">
         <v>15.0</v>
       </c>
-      <c r="I165" s="9"/>
     </row>
     <row r="166">
       <c r="A166" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B166" s="5"/>
-      <c r="C166" s="7" t="s">
-        <v>276</v>
+      <c r="C166" s="10" t="s">
+        <v>271</v>
       </c>
       <c r="D166" s="5"/>
-      <c r="E166" s="7" t="s">
-        <v>277</v>
+      <c r="E166" s="10" t="s">
+        <v>272</v>
       </c>
       <c r="F166" s="5"/>
-      <c r="G166" s="9"/>
-      <c r="H166" s="12">
-        <v>10.0</v>
-      </c>
-      <c r="I166" s="12">
-        <v>20.0</v>
+      <c r="G166" s="20"/>
+      <c r="H166" s="12"/>
+      <c r="I166" s="9">
+        <v>15.0</v>
       </c>
     </row>
     <row r="167">
@@ -4619,68 +4609,68 @@
         <v>19</v>
       </c>
       <c r="B167" s="17"/>
-      <c r="C167" s="17" t="s">
-        <v>278</v>
+      <c r="C167" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="D167" s="5"/>
-      <c r="E167" s="17" t="s">
-        <v>279</v>
+      <c r="E167" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
-      <c r="H167" s="12">
+      <c r="H167" s="12"/>
+      <c r="I167" s="12">
         <v>60.0</v>
       </c>
-      <c r="I167" s="5"/>
     </row>
     <row r="168">
-      <c r="A168" s="24"/>
-      <c r="B168" s="24"/>
-      <c r="C168" s="24"/>
-      <c r="E168" s="24"/>
+      <c r="A168" s="25"/>
+      <c r="B168" s="25"/>
+      <c r="C168" s="25"/>
+      <c r="E168" s="25"/>
     </row>
     <row r="169">
-      <c r="A169" s="24"/>
-      <c r="B169" s="24"/>
-      <c r="C169" s="24"/>
-      <c r="E169" s="24"/>
+      <c r="A169" s="25"/>
+      <c r="B169" s="25"/>
+      <c r="C169" s="25"/>
+      <c r="E169" s="25"/>
     </row>
     <row r="170">
-      <c r="A170" s="24"/>
-      <c r="B170" s="24"/>
-      <c r="C170" s="24"/>
-      <c r="E170" s="24"/>
+      <c r="A170" s="25"/>
+      <c r="B170" s="25"/>
+      <c r="C170" s="25"/>
+      <c r="E170" s="25"/>
     </row>
     <row r="171">
-      <c r="A171" s="24"/>
-      <c r="B171" s="24"/>
-      <c r="C171" s="24"/>
-      <c r="E171" s="24"/>
+      <c r="A171" s="25"/>
+      <c r="B171" s="25"/>
+      <c r="C171" s="25"/>
+      <c r="E171" s="25"/>
     </row>
     <row r="172">
-      <c r="A172" s="24"/>
-      <c r="B172" s="24"/>
-      <c r="C172" s="24"/>
-      <c r="E172" s="24"/>
+      <c r="A172" s="25"/>
+      <c r="B172" s="25"/>
+      <c r="C172" s="25"/>
+      <c r="E172" s="25"/>
     </row>
     <row r="173">
-      <c r="A173" s="24"/>
-      <c r="B173" s="24"/>
-      <c r="C173" s="24"/>
-      <c r="E173" s="24"/>
+      <c r="A173" s="25"/>
+      <c r="B173" s="25"/>
+      <c r="C173" s="25"/>
+      <c r="E173" s="25"/>
     </row>
     <row r="174">
-      <c r="A174" s="24"/>
-      <c r="B174" s="24"/>
+      <c r="A174" s="25"/>
+      <c r="B174" s="25"/>
     </row>
     <row r="175">
-      <c r="A175" s="24"/>
-      <c r="B175" s="24"/>
+      <c r="A175" s="25"/>
+      <c r="B175" s="25"/>
     </row>
   </sheetData>
-  <printOptions/>
+  <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" orientation="landscape"/>
+  <pageSetup paperSize="9" cellComments="atEnd" orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -1749,7 +1749,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8">
-        <v>90.0</v>
+        <v>10000.0</v>
       </c>
       <c r="I20" s="9">
         <v>100.0</v>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -1430,8 +1430,8 @@
     <col customWidth="1" min="3" max="3" width="52.56"/>
     <col customWidth="1" min="4" max="4" width="23.44"/>
     <col customWidth="1" min="5" max="5" width="44.67"/>
-    <col customWidth="1" min="6" max="6" width="24.56"/>
-    <col customWidth="1" min="7" max="7" width="12.44"/>
+    <col customWidth="1" min="6" max="6" width="13.56"/>
+    <col customWidth="1" min="7" max="7" width="7.0"/>
     <col customWidth="1" min="8" max="26" width="11.11"/>
   </cols>
   <sheetData>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -1749,7 +1749,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8">
-        <v>10000.0</v>
+        <v>90.0</v>
       </c>
       <c r="I20" s="9">
         <v>100.0</v>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -3485,8 +3485,8 @@
       <c r="F109" s="17"/>
       <c r="G109" s="20"/>
       <c r="H109" s="12"/>
-      <c r="I109" s="12">
-        <v>180.0</v>
+      <c r="I109" s="9">
+        <v>200.0</v>
       </c>
     </row>
     <row r="110">
@@ -3504,8 +3504,8 @@
       <c r="F110" s="17"/>
       <c r="G110" s="20"/>
       <c r="H110" s="12"/>
-      <c r="I110" s="12">
-        <v>200.0</v>
+      <c r="I110" s="9">
+        <v>220.0</v>
       </c>
     </row>
     <row r="111">
@@ -3523,8 +3523,8 @@
       <c r="F111" s="17"/>
       <c r="G111" s="20"/>
       <c r="H111" s="12"/>
-      <c r="I111" s="12">
-        <v>200.0</v>
+      <c r="I111" s="9">
+        <v>220.0</v>
       </c>
     </row>
     <row r="112">
@@ -3542,8 +3542,8 @@
       <c r="F112" s="5"/>
       <c r="G112" s="20"/>
       <c r="H112" s="12"/>
-      <c r="I112" s="12">
-        <v>180.0</v>
+      <c r="I112" s="9">
+        <v>200.0</v>
       </c>
     </row>
     <row r="113">
@@ -3561,8 +3561,8 @@
       <c r="F113" s="5"/>
       <c r="G113" s="20"/>
       <c r="H113" s="12"/>
-      <c r="I113" s="12">
-        <v>180.0</v>
+      <c r="I113" s="9">
+        <v>200.0</v>
       </c>
     </row>
     <row r="114">
@@ -3580,8 +3580,8 @@
       <c r="F114" s="17"/>
       <c r="G114" s="20"/>
       <c r="H114" s="12"/>
-      <c r="I114" s="12">
-        <v>180.0</v>
+      <c r="I114" s="9">
+        <v>200.0</v>
       </c>
     </row>
     <row r="115">
@@ -3601,8 +3601,8 @@
       <c r="F115" s="17"/>
       <c r="G115" s="20"/>
       <c r="H115" s="12"/>
-      <c r="I115" s="12">
-        <v>200.0</v>
+      <c r="I115" s="9">
+        <v>220.0</v>
       </c>
     </row>
     <row r="116">
@@ -3620,8 +3620,8 @@
       <c r="F116" s="5"/>
       <c r="G116" s="20"/>
       <c r="H116" s="12"/>
-      <c r="I116" s="12">
-        <v>200.0</v>
+      <c r="I116" s="9">
+        <v>220.0</v>
       </c>
     </row>
     <row r="117">
@@ -3641,8 +3641,8 @@
       <c r="F117" s="17"/>
       <c r="G117" s="20"/>
       <c r="H117" s="12"/>
-      <c r="I117" s="12">
-        <v>200.0</v>
+      <c r="I117" s="9">
+        <v>220.0</v>
       </c>
     </row>
     <row r="118">
@@ -3660,8 +3660,8 @@
       <c r="F118" s="17"/>
       <c r="G118" s="20"/>
       <c r="H118" s="12"/>
-      <c r="I118" s="12">
-        <v>200.0</v>
+      <c r="I118" s="9">
+        <v>220.0</v>
       </c>
     </row>
     <row r="119">
@@ -3679,8 +3679,8 @@
       <c r="F119" s="17"/>
       <c r="G119" s="20"/>
       <c r="H119" s="12"/>
-      <c r="I119" s="12">
-        <v>200.0</v>
+      <c r="I119" s="9">
+        <v>220.0</v>
       </c>
     </row>
     <row r="120">
@@ -3698,8 +3698,8 @@
       <c r="F120" s="5"/>
       <c r="G120" s="20"/>
       <c r="H120" s="12"/>
-      <c r="I120" s="12">
-        <v>200.0</v>
+      <c r="I120" s="9">
+        <v>220.0</v>
       </c>
     </row>
     <row r="121">
@@ -3717,8 +3717,8 @@
       <c r="F121" s="5"/>
       <c r="G121" s="20"/>
       <c r="H121" s="12"/>
-      <c r="I121" s="12">
-        <v>180.0</v>
+      <c r="I121" s="9">
+        <v>200.0</v>
       </c>
     </row>
     <row r="122">
@@ -3736,8 +3736,8 @@
       <c r="F122" s="5"/>
       <c r="G122" s="20"/>
       <c r="H122" s="12"/>
-      <c r="I122" s="12">
-        <v>180.0</v>
+      <c r="I122" s="9">
+        <v>200.0</v>
       </c>
     </row>
     <row r="123">
@@ -3755,8 +3755,8 @@
       <c r="F123" s="5"/>
       <c r="G123" s="20"/>
       <c r="H123" s="12"/>
-      <c r="I123" s="12">
-        <v>180.0</v>
+      <c r="I123" s="9">
+        <v>200.0</v>
       </c>
     </row>
     <row r="124">
@@ -3774,8 +3774,8 @@
       <c r="F124" s="5"/>
       <c r="G124" s="20"/>
       <c r="H124" s="12"/>
-      <c r="I124" s="12">
-        <v>180.0</v>
+      <c r="I124" s="9">
+        <v>200.0</v>
       </c>
     </row>
     <row r="125">
@@ -3793,8 +3793,8 @@
       <c r="F125" s="5"/>
       <c r="G125" s="20"/>
       <c r="H125" s="12"/>
-      <c r="I125" s="12">
-        <v>65.0</v>
+      <c r="I125" s="9">
+        <v>80.0</v>
       </c>
     </row>
     <row r="126">
@@ -3814,8 +3814,8 @@
       <c r="F126" s="17"/>
       <c r="G126" s="20"/>
       <c r="H126" s="12"/>
-      <c r="I126" s="12">
-        <v>180.0</v>
+      <c r="I126" s="9">
+        <v>200.0</v>
       </c>
     </row>
     <row r="127">
@@ -3833,8 +3833,8 @@
       <c r="F127" s="5"/>
       <c r="G127" s="20"/>
       <c r="H127" s="12"/>
-      <c r="I127" s="12">
-        <v>180.0</v>
+      <c r="I127" s="9">
+        <v>200.0</v>
       </c>
     </row>
     <row r="128">
@@ -3852,8 +3852,8 @@
       <c r="F128" s="5"/>
       <c r="G128" s="20"/>
       <c r="H128" s="12"/>
-      <c r="I128" s="12">
-        <v>65.0</v>
+      <c r="I128" s="9">
+        <v>75.0</v>
       </c>
     </row>
     <row r="129">
@@ -3873,8 +3873,8 @@
       <c r="F129" s="17"/>
       <c r="G129" s="20"/>
       <c r="H129" s="12"/>
-      <c r="I129" s="12">
-        <v>200.0</v>
+      <c r="I129" s="9">
+        <v>220.0</v>
       </c>
     </row>
     <row r="130">
@@ -3892,8 +3892,8 @@
       <c r="F130" s="17"/>
       <c r="G130" s="20"/>
       <c r="H130" s="12"/>
-      <c r="I130" s="12">
-        <v>180.0</v>
+      <c r="I130" s="9">
+        <v>200.0</v>
       </c>
     </row>
     <row r="131">
@@ -3913,8 +3913,8 @@
       <c r="F131" s="5"/>
       <c r="G131" s="20"/>
       <c r="H131" s="12"/>
-      <c r="I131" s="12">
-        <v>180.0</v>
+      <c r="I131" s="9">
+        <v>200.0</v>
       </c>
     </row>
     <row r="132">
@@ -3932,8 +3932,8 @@
       <c r="F132" s="5"/>
       <c r="G132" s="20"/>
       <c r="H132" s="12"/>
-      <c r="I132" s="12">
-        <v>175.0</v>
+      <c r="I132" s="9">
+        <v>185.0</v>
       </c>
     </row>
     <row r="133">
@@ -3951,8 +3951,8 @@
       <c r="F133" s="17"/>
       <c r="G133" s="20"/>
       <c r="H133" s="12"/>
-      <c r="I133" s="12">
-        <v>175.0</v>
+      <c r="I133" s="9">
+        <v>185.0</v>
       </c>
     </row>
     <row r="134">
@@ -3972,8 +3972,8 @@
       <c r="F134" s="17"/>
       <c r="G134" s="20"/>
       <c r="H134" s="12"/>
-      <c r="I134" s="12">
-        <v>145.0</v>
+      <c r="I134" s="9">
+        <v>175.0</v>
       </c>
     </row>
     <row r="135">
@@ -3991,8 +3991,8 @@
       <c r="F135" s="5"/>
       <c r="G135" s="20"/>
       <c r="H135" s="12"/>
-      <c r="I135" s="12">
-        <v>155.0</v>
+      <c r="I135" s="9">
+        <v>175.0</v>
       </c>
     </row>
     <row r="136">

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -753,7 +753,7 @@
     <t>Cheese Pastry (piece)</t>
   </si>
   <si>
-    <t>Peynirli Börek (adet)</t>
+    <t>Peynirli Börek (uzun-adet)</t>
   </si>
   <si>
     <t>World of Roll Pastry (spinach+cheese / Three cheese / patato)</t>
@@ -777,7 +777,24 @@
     <t>Breakfast Plate</t>
   </si>
   <si>
-    <t>Kahvaltı Tabağı</t>
+    <r>
+      <rPr>
+        <rFont val="Helvetica Neue"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Kahvaltı Tabağı </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Helvetica Neue"/>
+        <b val="0"/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>(2 adet bardakta çay ilave)</t>
+    </r>
   </si>
   <si>
     <t>Toast with Cheddar</t>
@@ -4010,8 +4027,8 @@
       <c r="F136" s="5"/>
       <c r="G136" s="20"/>
       <c r="H136" s="12"/>
-      <c r="I136" s="12">
-        <v>185.0</v>
+      <c r="I136" s="9">
+        <v>200.0</v>
       </c>
     </row>
     <row r="137">
@@ -4029,8 +4046,8 @@
       <c r="F137" s="5"/>
       <c r="G137" s="20"/>
       <c r="H137" s="12"/>
-      <c r="I137" s="12">
-        <v>155.0</v>
+      <c r="I137" s="9">
+        <v>185.0</v>
       </c>
     </row>
     <row r="138">
@@ -4048,8 +4065,8 @@
       <c r="F138" s="5"/>
       <c r="G138" s="20"/>
       <c r="H138" s="12"/>
-      <c r="I138" s="12">
-        <v>75.0</v>
+      <c r="I138" s="9">
+        <v>80.0</v>
       </c>
     </row>
     <row r="139">
@@ -4067,8 +4084,8 @@
       <c r="F139" s="5"/>
       <c r="G139" s="20"/>
       <c r="H139" s="12"/>
-      <c r="I139" s="12">
-        <v>75.0</v>
+      <c r="I139" s="9">
+        <v>85.0</v>
       </c>
     </row>
     <row r="140">
@@ -4088,8 +4105,8 @@
       <c r="F140" s="5"/>
       <c r="G140" s="20"/>
       <c r="H140" s="12"/>
-      <c r="I140" s="12">
-        <v>80.0</v>
+      <c r="I140" s="9">
+        <v>90.0</v>
       </c>
     </row>
     <row r="141">
@@ -4168,8 +4185,8 @@
       <c r="F144" s="5"/>
       <c r="G144" s="20"/>
       <c r="H144" s="12"/>
-      <c r="I144" s="12">
-        <v>165.0</v>
+      <c r="I144" s="9">
+        <v>175.0</v>
       </c>
     </row>
     <row r="145">
@@ -4181,14 +4198,14 @@
         <v>230</v>
       </c>
       <c r="D145" s="5"/>
-      <c r="E145" s="7" t="s">
+      <c r="E145" s="10" t="s">
         <v>231</v>
       </c>
       <c r="F145" s="5"/>
       <c r="G145" s="20"/>
       <c r="H145" s="12"/>
-      <c r="I145" s="12">
-        <v>50.0</v>
+      <c r="I145" s="9">
+        <v>90.0</v>
       </c>
     </row>
     <row r="146">
@@ -4208,8 +4225,8 @@
       <c r="F146" s="5"/>
       <c r="G146" s="20"/>
       <c r="H146" s="12"/>
-      <c r="I146" s="12">
-        <v>80.0</v>
+      <c r="I146" s="9">
+        <v>90.0</v>
       </c>
     </row>
     <row r="147">
@@ -4227,8 +4244,8 @@
       <c r="F147" s="5"/>
       <c r="G147" s="20"/>
       <c r="H147" s="12"/>
-      <c r="I147" s="12">
-        <v>95.0</v>
+      <c r="I147" s="9">
+        <v>100.0</v>
       </c>
     </row>
     <row r="148">
@@ -4246,8 +4263,8 @@
       <c r="F148" s="5"/>
       <c r="G148" s="20"/>
       <c r="H148" s="12"/>
-      <c r="I148" s="12">
-        <v>55.0</v>
+      <c r="I148" s="9">
+        <v>70.0</v>
       </c>
     </row>
     <row r="149">
@@ -4261,14 +4278,14 @@
         <v>238</v>
       </c>
       <c r="D149" s="17"/>
-      <c r="E149" s="11" t="s">
+      <c r="E149" s="8" t="s">
         <v>239</v>
       </c>
       <c r="F149" s="5"/>
       <c r="G149" s="20"/>
       <c r="H149" s="12"/>
-      <c r="I149" s="12">
-        <v>195.0</v>
+      <c r="I149" s="9">
+        <v>225.0</v>
       </c>
     </row>
     <row r="150">
@@ -4288,8 +4305,8 @@
       <c r="F150" s="5"/>
       <c r="G150" s="20"/>
       <c r="H150" s="12"/>
-      <c r="I150" s="12">
-        <v>120.0</v>
+      <c r="I150" s="9">
+        <v>150.0</v>
       </c>
     </row>
     <row r="151">
@@ -4309,8 +4326,8 @@
       <c r="F151" s="5"/>
       <c r="G151" s="20"/>
       <c r="H151" s="12"/>
-      <c r="I151" s="12">
-        <v>135.0</v>
+      <c r="I151" s="9">
+        <v>150.0</v>
       </c>
     </row>
     <row r="152">
@@ -4330,8 +4347,8 @@
       <c r="F152" s="5"/>
       <c r="G152" s="20"/>
       <c r="H152" s="12"/>
-      <c r="I152" s="12">
-        <v>135.0</v>
+      <c r="I152" s="9">
+        <v>150.0</v>
       </c>
     </row>
     <row r="153">
@@ -4351,8 +4368,8 @@
       <c r="F153" s="17"/>
       <c r="G153" s="20"/>
       <c r="H153" s="12"/>
-      <c r="I153" s="12">
-        <v>155.0</v>
+      <c r="I153" s="9">
+        <v>170.0</v>
       </c>
     </row>
     <row r="154">
@@ -4372,8 +4389,8 @@
       <c r="F154" s="5"/>
       <c r="G154" s="20"/>
       <c r="H154" s="12"/>
-      <c r="I154" s="12">
-        <v>155.0</v>
+      <c r="I154" s="9">
+        <v>170.0</v>
       </c>
     </row>
     <row r="155">

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -793,7 +793,7 @@
         <color rgb="FF000000"/>
         <sz val="10.0"/>
       </rPr>
-      <t>(2 adet bardakta çay ilave)</t>
+      <t>( 2 adet bardakta çay ilave)</t>
     </r>
   </si>
   <si>
@@ -3403,8 +3403,8 @@
       <c r="F104" s="17"/>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
-      <c r="I104" s="11">
-        <v>130.0</v>
+      <c r="I104" s="8">
+        <v>160.0</v>
       </c>
     </row>
     <row r="105">
@@ -3422,8 +3422,8 @@
       <c r="F105" s="17"/>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
-      <c r="I105" s="11">
-        <v>130.0</v>
+      <c r="I105" s="8">
+        <v>160.0</v>
       </c>
     </row>
     <row r="106">
@@ -3443,8 +3443,8 @@
       <c r="F106" s="17"/>
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
-      <c r="I106" s="11">
-        <v>130.0</v>
+      <c r="I106" s="8">
+        <v>160.0</v>
       </c>
     </row>
     <row r="107">
@@ -3462,8 +3462,8 @@
       <c r="F107" s="17"/>
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
-      <c r="I107" s="11">
-        <v>130.0</v>
+      <c r="I107" s="8">
+        <v>160.0</v>
       </c>
     </row>
     <row r="108">
@@ -3481,8 +3481,8 @@
       <c r="F108" s="17"/>
       <c r="G108" s="11"/>
       <c r="H108" s="11"/>
-      <c r="I108" s="11">
-        <v>130.0</v>
+      <c r="I108" s="8">
+        <v>160.0</v>
       </c>
     </row>
     <row r="109">
@@ -3503,7 +3503,7 @@
       <c r="G109" s="20"/>
       <c r="H109" s="12"/>
       <c r="I109" s="9">
-        <v>200.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="110">
@@ -3522,7 +3522,7 @@
       <c r="G110" s="20"/>
       <c r="H110" s="12"/>
       <c r="I110" s="9">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="111">
@@ -3560,7 +3560,7 @@
       <c r="G112" s="20"/>
       <c r="H112" s="12"/>
       <c r="I112" s="9">
-        <v>200.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="113">
@@ -3579,7 +3579,7 @@
       <c r="G113" s="20"/>
       <c r="H113" s="12"/>
       <c r="I113" s="9">
-        <v>200.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="114">
@@ -3598,7 +3598,7 @@
       <c r="G114" s="20"/>
       <c r="H114" s="12"/>
       <c r="I114" s="9">
-        <v>200.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="115">
@@ -3619,7 +3619,7 @@
       <c r="G115" s="20"/>
       <c r="H115" s="12"/>
       <c r="I115" s="9">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="116">
@@ -3638,7 +3638,7 @@
       <c r="G116" s="20"/>
       <c r="H116" s="12"/>
       <c r="I116" s="9">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="117">
@@ -3659,7 +3659,7 @@
       <c r="G117" s="20"/>
       <c r="H117" s="12"/>
       <c r="I117" s="9">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="118">
@@ -3678,7 +3678,7 @@
       <c r="G118" s="20"/>
       <c r="H118" s="12"/>
       <c r="I118" s="9">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="119">
@@ -3697,7 +3697,7 @@
       <c r="G119" s="20"/>
       <c r="H119" s="12"/>
       <c r="I119" s="9">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="120">
@@ -3716,7 +3716,7 @@
       <c r="G120" s="20"/>
       <c r="H120" s="12"/>
       <c r="I120" s="9">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="121">
@@ -3735,7 +3735,7 @@
       <c r="G121" s="20"/>
       <c r="H121" s="12"/>
       <c r="I121" s="9">
-        <v>200.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="122">
@@ -3754,7 +3754,7 @@
       <c r="G122" s="20"/>
       <c r="H122" s="12"/>
       <c r="I122" s="9">
-        <v>200.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="123">
@@ -3773,7 +3773,7 @@
       <c r="G123" s="20"/>
       <c r="H123" s="12"/>
       <c r="I123" s="9">
-        <v>200.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="124">
@@ -3792,7 +3792,7 @@
       <c r="G124" s="20"/>
       <c r="H124" s="12"/>
       <c r="I124" s="9">
-        <v>200.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="125">
@@ -3832,7 +3832,7 @@
       <c r="G126" s="20"/>
       <c r="H126" s="12"/>
       <c r="I126" s="9">
-        <v>200.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="127">
@@ -3851,7 +3851,7 @@
       <c r="G127" s="20"/>
       <c r="H127" s="12"/>
       <c r="I127" s="9">
-        <v>200.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="128">
@@ -3910,7 +3910,7 @@
       <c r="G130" s="20"/>
       <c r="H130" s="12"/>
       <c r="I130" s="9">
-        <v>200.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="131">
@@ -3931,7 +3931,7 @@
       <c r="G131" s="20"/>
       <c r="H131" s="12"/>
       <c r="I131" s="9">
-        <v>200.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="132">
@@ -3990,7 +3990,7 @@
       <c r="G134" s="20"/>
       <c r="H134" s="12"/>
       <c r="I134" s="9">
-        <v>175.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="135">
@@ -4009,7 +4009,7 @@
       <c r="G135" s="20"/>
       <c r="H135" s="12"/>
       <c r="I135" s="9">
-        <v>175.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="136">

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -800,13 +800,13 @@
     <t>Toast with Cheddar</t>
   </si>
   <si>
-    <t>Tost Kaşarlı</t>
+    <t>Tost Kaşarlı (çift kaşar)</t>
   </si>
   <si>
     <t>Toast with Cheddar+Salami</t>
   </si>
   <si>
-    <t>Tost Karışık</t>
+    <t>Tost Karışık (kaşar+jambon/salam)</t>
   </si>
   <si>
     <t>Sandwich (Cheese +Cheddar+Salami)</t>
@@ -1432,7 +1432,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4299,7 +4299,7 @@
         <v>240</v>
       </c>
       <c r="D150" s="17"/>
-      <c r="E150" s="7" t="s">
+      <c r="E150" s="10" t="s">
         <v>241</v>
       </c>
       <c r="F150" s="5"/>
@@ -4320,7 +4320,7 @@
         <v>242</v>
       </c>
       <c r="D151" s="17"/>
-      <c r="E151" s="7" t="s">
+      <c r="E151" s="10" t="s">
         <v>243</v>
       </c>
       <c r="F151" s="5"/>
@@ -4685,9 +4685,9 @@
       <c r="B175" s="25"/>
     </row>
   </sheetData>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>
-  <pageSetup paperSize="9" cellComments="atEnd" orientation="landscape"/>
+  <printOptions gridLines="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -3404,7 +3404,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
       <c r="I104" s="8">
-        <v>160.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="105">
@@ -3423,7 +3423,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
       <c r="I105" s="8">
-        <v>160.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="106">
@@ -3444,7 +3444,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
       <c r="I106" s="8">
-        <v>160.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="107">
@@ -3463,7 +3463,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
       <c r="I107" s="8">
-        <v>160.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="108">
@@ -3482,7 +3482,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="11"/>
       <c r="I108" s="8">
-        <v>160.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="109">
@@ -3503,7 +3503,7 @@
       <c r="G109" s="20"/>
       <c r="H109" s="12"/>
       <c r="I109" s="9">
-        <v>210.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="110">
@@ -3522,7 +3522,7 @@
       <c r="G110" s="20"/>
       <c r="H110" s="12"/>
       <c r="I110" s="9">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="111">
@@ -3560,7 +3560,7 @@
       <c r="G112" s="20"/>
       <c r="H112" s="12"/>
       <c r="I112" s="9">
-        <v>210.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="113">
@@ -3579,7 +3579,7 @@
       <c r="G113" s="20"/>
       <c r="H113" s="12"/>
       <c r="I113" s="9">
-        <v>210.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="114">
@@ -3598,7 +3598,7 @@
       <c r="G114" s="20"/>
       <c r="H114" s="12"/>
       <c r="I114" s="9">
-        <v>210.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="115">
@@ -3619,7 +3619,7 @@
       <c r="G115" s="20"/>
       <c r="H115" s="12"/>
       <c r="I115" s="9">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="116">
@@ -3638,7 +3638,7 @@
       <c r="G116" s="20"/>
       <c r="H116" s="12"/>
       <c r="I116" s="9">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="117">
@@ -3659,7 +3659,7 @@
       <c r="G117" s="20"/>
       <c r="H117" s="12"/>
       <c r="I117" s="9">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="118">
@@ -3678,7 +3678,7 @@
       <c r="G118" s="20"/>
       <c r="H118" s="12"/>
       <c r="I118" s="9">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="119">
@@ -3697,7 +3697,7 @@
       <c r="G119" s="20"/>
       <c r="H119" s="12"/>
       <c r="I119" s="9">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="120">
@@ -3716,7 +3716,7 @@
       <c r="G120" s="20"/>
       <c r="H120" s="12"/>
       <c r="I120" s="9">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="121">
@@ -3735,7 +3735,7 @@
       <c r="G121" s="20"/>
       <c r="H121" s="12"/>
       <c r="I121" s="9">
-        <v>210.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="122">
@@ -3754,7 +3754,7 @@
       <c r="G122" s="20"/>
       <c r="H122" s="12"/>
       <c r="I122" s="9">
-        <v>210.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="123">
@@ -3773,7 +3773,7 @@
       <c r="G123" s="20"/>
       <c r="H123" s="12"/>
       <c r="I123" s="9">
-        <v>210.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="124">
@@ -3792,7 +3792,7 @@
       <c r="G124" s="20"/>
       <c r="H124" s="12"/>
       <c r="I124" s="9">
-        <v>210.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="125">
@@ -3832,7 +3832,7 @@
       <c r="G126" s="20"/>
       <c r="H126" s="12"/>
       <c r="I126" s="9">
-        <v>210.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="127">
@@ -3851,7 +3851,7 @@
       <c r="G127" s="20"/>
       <c r="H127" s="12"/>
       <c r="I127" s="9">
-        <v>180.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="128">
@@ -3870,7 +3870,7 @@
       <c r="G128" s="20"/>
       <c r="H128" s="12"/>
       <c r="I128" s="9">
-        <v>75.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="129">

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="276">
   <si>
     <t>category</t>
   </si>
@@ -664,6 +664,9 @@
   </si>
   <si>
     <t>Tiramisu</t>
+  </si>
+  <si>
+    <t>Tiramisu Pasta</t>
   </si>
   <si>
     <t>Types of pies (slice)</t>
@@ -3884,14 +3887,14 @@
         <v>201</v>
       </c>
       <c r="D129" s="17"/>
-      <c r="E129" s="7" t="s">
-        <v>201</v>
+      <c r="E129" s="10" t="s">
+        <v>202</v>
       </c>
       <c r="F129" s="17"/>
       <c r="G129" s="20"/>
       <c r="H129" s="12"/>
       <c r="I129" s="9">
-        <v>220.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="130">
@@ -3900,17 +3903,17 @@
       </c>
       <c r="B130" s="5"/>
       <c r="C130" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D130" s="17"/>
       <c r="E130" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F130" s="17"/>
       <c r="G130" s="20"/>
       <c r="H130" s="12"/>
       <c r="I130" s="9">
-        <v>210.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="131">
@@ -3921,17 +3924,17 @@
         <v>27</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="20"/>
       <c r="H131" s="12"/>
       <c r="I131" s="9">
-        <v>210.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="132">
@@ -3940,11 +3943,11 @@
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F132" s="5"/>
       <c r="G132" s="20"/>
@@ -3959,11 +3962,11 @@
       </c>
       <c r="B133" s="5"/>
       <c r="C133" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D133" s="17"/>
       <c r="E133" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F133" s="17"/>
       <c r="G133" s="20"/>
@@ -3980,11 +3983,11 @@
         <v>27</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D134" s="17"/>
       <c r="E134" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F134" s="17"/>
       <c r="G134" s="20"/>
@@ -3999,11 +4002,11 @@
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F135" s="5"/>
       <c r="G135" s="20"/>
@@ -4018,11 +4021,11 @@
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F136" s="5"/>
       <c r="G136" s="20"/>
@@ -4037,11 +4040,11 @@
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F137" s="5"/>
       <c r="G137" s="20"/>
@@ -4056,11 +4059,11 @@
       </c>
       <c r="B138" s="5"/>
       <c r="C138" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F138" s="5"/>
       <c r="G138" s="20"/>
@@ -4075,11 +4078,11 @@
       </c>
       <c r="B139" s="22"/>
       <c r="C139" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="20"/>
@@ -4096,11 +4099,11 @@
         <v>27</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D140" s="17"/>
       <c r="E140" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F140" s="5"/>
       <c r="G140" s="20"/>
@@ -4115,11 +4118,11 @@
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D141" s="17"/>
       <c r="E141" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F141" s="5"/>
       <c r="G141" s="20"/>
@@ -4134,11 +4137,11 @@
       </c>
       <c r="B142" s="5"/>
       <c r="C142" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D142" s="17"/>
       <c r="E142" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F142" s="5"/>
       <c r="G142" s="20"/>
@@ -4155,11 +4158,11 @@
         <v>27</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D143" s="17"/>
       <c r="E143" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F143" s="17"/>
       <c r="G143" s="20"/>
@@ -4176,17 +4179,17 @@
         <v>27</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F144" s="5"/>
       <c r="G144" s="20"/>
       <c r="H144" s="12"/>
       <c r="I144" s="9">
-        <v>175.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="145">
@@ -4195,11 +4198,11 @@
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F145" s="5"/>
       <c r="G145" s="20"/>
@@ -4216,11 +4219,11 @@
         <v>27</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F146" s="5"/>
       <c r="G146" s="20"/>
@@ -4235,11 +4238,11 @@
       </c>
       <c r="B147" s="5"/>
       <c r="C147" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D147" s="17"/>
       <c r="E147" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F147" s="5"/>
       <c r="G147" s="20"/>
@@ -4254,11 +4257,11 @@
       </c>
       <c r="B148" s="5"/>
       <c r="C148" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D148" s="17"/>
       <c r="E148" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="20"/>
@@ -4275,11 +4278,11 @@
         <v>27</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D149" s="17"/>
       <c r="E149" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F149" s="5"/>
       <c r="G149" s="20"/>
@@ -4296,11 +4299,11 @@
         <v>27</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D150" s="17"/>
       <c r="E150" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="20"/>
@@ -4317,11 +4320,11 @@
         <v>27</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D151" s="17"/>
       <c r="E151" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="20"/>
@@ -4338,11 +4341,11 @@
         <v>27</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D152" s="17"/>
       <c r="E152" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="20"/>
@@ -4359,11 +4362,11 @@
         <v>27</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D153" s="17"/>
       <c r="E153" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F153" s="17"/>
       <c r="G153" s="20"/>
@@ -4380,11 +4383,11 @@
         <v>27</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F154" s="5"/>
       <c r="G154" s="20"/>
@@ -4399,11 +4402,11 @@
       </c>
       <c r="B155" s="22"/>
       <c r="C155" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F155" s="5"/>
       <c r="G155" s="20"/>
@@ -4418,11 +4421,11 @@
       </c>
       <c r="B156" s="22"/>
       <c r="C156" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F156" s="5"/>
       <c r="G156" s="20"/>
@@ -4437,11 +4440,11 @@
       </c>
       <c r="B157" s="5"/>
       <c r="C157" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D157" s="17"/>
       <c r="E157" s="24" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F157" s="17"/>
       <c r="G157" s="20"/>
@@ -4456,11 +4459,11 @@
       </c>
       <c r="B158" s="5"/>
       <c r="C158" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D158" s="17"/>
       <c r="E158" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F158" s="17"/>
       <c r="G158" s="20"/>
@@ -4475,11 +4478,11 @@
       </c>
       <c r="B159" s="5"/>
       <c r="C159" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D159" s="17"/>
       <c r="E159" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F159" s="17"/>
       <c r="G159" s="20"/>
@@ -4494,11 +4497,11 @@
       </c>
       <c r="B160" s="5"/>
       <c r="C160" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D160" s="17"/>
       <c r="E160" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F160" s="17"/>
       <c r="G160" s="20"/>
@@ -4513,11 +4516,11 @@
       </c>
       <c r="B161" s="5"/>
       <c r="C161" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D161" s="17"/>
       <c r="E161" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F161" s="17"/>
       <c r="G161" s="20"/>
@@ -4532,11 +4535,11 @@
       </c>
       <c r="B162" s="5"/>
       <c r="C162" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D162" s="17"/>
       <c r="E162" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F162" s="17"/>
       <c r="G162" s="20"/>
@@ -4551,11 +4554,11 @@
       </c>
       <c r="B163" s="5"/>
       <c r="C163" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F163" s="5"/>
       <c r="G163" s="20"/>
@@ -4570,11 +4573,11 @@
       </c>
       <c r="B164" s="5"/>
       <c r="C164" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F164" s="5"/>
       <c r="G164" s="20"/>
@@ -4589,11 +4592,11 @@
       </c>
       <c r="B165" s="5"/>
       <c r="C165" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F165" s="5"/>
       <c r="G165" s="20"/>
@@ -4608,11 +4611,11 @@
       </c>
       <c r="B166" s="5"/>
       <c r="C166" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F166" s="5"/>
       <c r="G166" s="20"/>
@@ -4627,11 +4630,11 @@
       </c>
       <c r="B167" s="17"/>
       <c r="C167" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -2785,7 +2785,7 @@
       <c r="G72" s="20"/>
       <c r="H72" s="11"/>
       <c r="I72" s="8">
-        <v>160.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="73">
@@ -2977,7 +2977,7 @@
       <c r="G82" s="12"/>
       <c r="H82" s="20"/>
       <c r="I82" s="8">
-        <v>120.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="83">
@@ -3247,7 +3247,7 @@
       <c r="G96" s="12"/>
       <c r="H96" s="8"/>
       <c r="I96" s="9">
-        <v>60.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="97">
@@ -3268,7 +3268,7 @@
       <c r="G97" s="12"/>
       <c r="H97" s="11"/>
       <c r="I97" s="9">
-        <v>60.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="98">

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="276">
   <si>
     <t>category</t>
   </si>
@@ -1456,8 +1456,9 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
+      <c r="A1" s="3" t="str">
+        <f>SUM()</f>
+        <v>#N/A</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>20</v>
@@ -3386,7 +3387,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
       <c r="I103" s="9">
-        <v>30.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="104">

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="277">
   <si>
     <t>category</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Con Panne</t>
+  </si>
+  <si>
+    <t>Con Panna</t>
   </si>
   <si>
     <t>Americano</t>
@@ -1824,7 +1827,7 @@
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="11"/>
@@ -1839,11 +1842,11 @@
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="12"/>
@@ -1860,11 +1863,11 @@
         <v>27</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="12"/>
@@ -1879,11 +1882,11 @@
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="12"/>
@@ -1898,11 +1901,11 @@
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="12"/>
@@ -1915,11 +1918,11 @@
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="12"/>
@@ -1936,11 +1939,11 @@
         <v>27</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="12"/>
@@ -1955,11 +1958,11 @@
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="14"/>
@@ -1974,11 +1977,11 @@
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="12"/>
@@ -1993,11 +1996,11 @@
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="12"/>
@@ -2014,11 +2017,11 @@
         <v>27</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="12"/>
@@ -2033,11 +2036,11 @@
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F34" s="15"/>
       <c r="G34" s="12"/>
@@ -2052,11 +2055,11 @@
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="12"/>
@@ -2071,11 +2074,11 @@
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="12"/>
@@ -2090,11 +2093,11 @@
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="11"/>
@@ -2111,11 +2114,11 @@
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="11"/>
@@ -2132,11 +2135,11 @@
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="11"/>
@@ -2155,11 +2158,11 @@
         <v>27</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F40" s="15"/>
       <c r="G40" s="11"/>
@@ -2176,11 +2179,11 @@
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F41" s="15"/>
       <c r="G41" s="12"/>
@@ -2195,11 +2198,11 @@
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F42" s="15"/>
       <c r="G42" s="12"/>
@@ -2214,11 +2217,11 @@
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F43" s="17"/>
       <c r="G43" s="12"/>
@@ -2233,11 +2236,11 @@
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F44" s="17"/>
       <c r="G44" s="12"/>
@@ -2252,11 +2255,11 @@
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F45" s="17"/>
       <c r="G45" s="11"/>
@@ -2271,11 +2274,11 @@
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F46" s="17"/>
       <c r="G46" s="12"/>
@@ -2290,11 +2293,11 @@
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F47" s="15"/>
       <c r="G47" s="12"/>
@@ -2310,11 +2313,11 @@
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="12"/>
@@ -2332,11 +2335,11 @@
         <v>27</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="12"/>
@@ -2352,11 +2355,11 @@
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="12"/>
@@ -2372,11 +2375,11 @@
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="12"/>
@@ -2392,11 +2395,11 @@
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="12"/>
@@ -2411,11 +2414,11 @@
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D53" s="15"/>
       <c r="E53" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="12"/>
@@ -2430,11 +2433,11 @@
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="12"/>
@@ -2449,11 +2452,11 @@
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D55" s="15"/>
       <c r="E55" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="12"/>
@@ -2468,11 +2471,11 @@
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="12"/>
@@ -2487,11 +2490,11 @@
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D57" s="15"/>
       <c r="E57" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="12"/>
@@ -2506,11 +2509,11 @@
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D58" s="17"/>
       <c r="E58" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F58" s="17"/>
       <c r="G58" s="12"/>
@@ -2525,11 +2528,11 @@
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F59" s="17"/>
       <c r="G59" s="12"/>
@@ -2544,11 +2547,11 @@
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F60" s="17"/>
       <c r="G60" s="12"/>
@@ -2563,11 +2566,11 @@
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F61" s="17"/>
       <c r="G61" s="12"/>
@@ -2582,11 +2585,11 @@
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F62" s="17"/>
       <c r="G62" s="12"/>
@@ -2601,11 +2604,11 @@
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F63" s="17"/>
       <c r="G63" s="12"/>
@@ -2620,11 +2623,11 @@
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F64" s="17"/>
       <c r="G64" s="12"/>
@@ -2639,11 +2642,11 @@
       </c>
       <c r="B65" s="11"/>
       <c r="C65" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F65" s="17"/>
       <c r="G65" s="12"/>
@@ -2658,11 +2661,11 @@
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F66" s="17"/>
       <c r="G66" s="12"/>
@@ -2679,11 +2682,11 @@
         <v>27</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F67" s="17"/>
       <c r="G67" s="20"/>
@@ -2698,11 +2701,11 @@
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D68" s="17"/>
       <c r="E68" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F68" s="17"/>
       <c r="G68" s="20"/>
@@ -2717,11 +2720,11 @@
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F69" s="17"/>
       <c r="G69" s="20"/>
@@ -2736,11 +2739,11 @@
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F70" s="17"/>
       <c r="G70" s="20"/>
@@ -2755,11 +2758,11 @@
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F71" s="17"/>
       <c r="G71" s="20"/>
@@ -2776,11 +2779,11 @@
         <v>27</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F72" s="17"/>
       <c r="G72" s="20"/>
@@ -2795,11 +2798,11 @@
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F73" s="17"/>
       <c r="G73" s="20"/>
@@ -2814,11 +2817,11 @@
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F74" s="17"/>
       <c r="G74" s="11"/>
@@ -2833,11 +2836,11 @@
       </c>
       <c r="B75" s="11"/>
       <c r="C75" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D75" s="15"/>
       <c r="E75" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="12"/>
@@ -2852,11 +2855,11 @@
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D76" s="15"/>
       <c r="E76" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="12"/>
@@ -2871,11 +2874,11 @@
       </c>
       <c r="B77" s="11"/>
       <c r="C77" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D77" s="15"/>
       <c r="E77" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="12"/>
@@ -2890,11 +2893,11 @@
       </c>
       <c r="B78" s="7"/>
       <c r="C78" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D78" s="15"/>
       <c r="E78" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="12"/>
@@ -2909,11 +2912,11 @@
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D79" s="15"/>
       <c r="E79" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="12"/>
@@ -2928,11 +2931,11 @@
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D80" s="15"/>
       <c r="E80" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="12"/>
@@ -2949,11 +2952,11 @@
         <v>27</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D81" s="15"/>
       <c r="E81" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="12"/>
@@ -2968,11 +2971,11 @@
       </c>
       <c r="B82" s="7"/>
       <c r="C82" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F82" s="17"/>
       <c r="G82" s="12"/>
@@ -2987,11 +2990,11 @@
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D83" s="21"/>
       <c r="E83" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F83" s="21"/>
       <c r="G83" s="12"/>
@@ -3006,11 +3009,11 @@
       </c>
       <c r="B84" s="7"/>
       <c r="C84" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F84" s="17"/>
       <c r="G84" s="12"/>
@@ -3025,11 +3028,11 @@
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F85" s="17"/>
       <c r="G85" s="20"/>
@@ -3044,11 +3047,11 @@
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F86" s="21"/>
       <c r="G86" s="12"/>
@@ -3063,11 +3066,11 @@
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D87" s="17"/>
       <c r="E87" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F87" s="21"/>
       <c r="G87" s="12"/>
@@ -3082,11 +3085,11 @@
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D88" s="17"/>
       <c r="E88" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F88" s="17"/>
       <c r="G88" s="12"/>
@@ -3101,11 +3104,11 @@
       </c>
       <c r="B89" s="7"/>
       <c r="C89" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D89" s="17"/>
       <c r="E89" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F89" s="17"/>
       <c r="G89" s="12"/>
@@ -3120,11 +3123,11 @@
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D90" s="17"/>
       <c r="E90" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F90" s="17"/>
       <c r="G90" s="12"/>
@@ -3139,11 +3142,11 @@
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D91" s="17"/>
       <c r="E91" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F91" s="17"/>
       <c r="G91" s="12"/>
@@ -3160,11 +3163,11 @@
         <v>27</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D92" s="17"/>
       <c r="E92" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F92" s="17"/>
       <c r="G92" s="12"/>
@@ -3181,11 +3184,11 @@
         <v>27</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D93" s="17"/>
       <c r="E93" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F93" s="17"/>
       <c r="G93" s="12"/>
@@ -3200,11 +3203,11 @@
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D94" s="17"/>
       <c r="E94" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F94" s="17"/>
       <c r="G94" s="12"/>
@@ -3219,11 +3222,11 @@
       </c>
       <c r="B95" s="7"/>
       <c r="C95" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D95" s="17"/>
       <c r="E95" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F95" s="17"/>
       <c r="G95" s="12"/>
@@ -3238,11 +3241,11 @@
       </c>
       <c r="B96" s="11"/>
       <c r="C96" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D96" s="17"/>
       <c r="E96" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F96" s="17"/>
       <c r="G96" s="12"/>
@@ -3259,11 +3262,11 @@
         <v>27</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F97" s="17"/>
       <c r="G97" s="12"/>
@@ -3280,11 +3283,11 @@
         <v>27</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F98" s="17"/>
       <c r="G98" s="11"/>
@@ -3301,11 +3304,11 @@
         <v>27</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F99" s="17"/>
       <c r="G99" s="12"/>
@@ -3320,11 +3323,11 @@
       </c>
       <c r="B100" s="7"/>
       <c r="C100" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F100" s="17"/>
       <c r="G100" s="12"/>
@@ -3339,11 +3342,11 @@
       </c>
       <c r="B101" s="7"/>
       <c r="C101" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F101" s="17"/>
       <c r="G101" s="11"/>
@@ -3358,11 +3361,11 @@
       </c>
       <c r="B102" s="7"/>
       <c r="C102" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D102" s="17"/>
       <c r="E102" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F102" s="17"/>
       <c r="G102" s="11"/>
@@ -3377,11 +3380,11 @@
       </c>
       <c r="B103" s="7"/>
       <c r="C103" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D103" s="17"/>
       <c r="E103" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F103" s="5"/>
       <c r="G103" s="11"/>
@@ -3398,11 +3401,11 @@
         <v>27</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D104" s="17"/>
       <c r="E104" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F104" s="17"/>
       <c r="G104" s="11"/>
@@ -3417,11 +3420,11 @@
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D105" s="15"/>
       <c r="E105" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F105" s="17"/>
       <c r="G105" s="11"/>
@@ -3438,11 +3441,11 @@
         <v>27</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D106" s="17"/>
       <c r="E106" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F106" s="17"/>
       <c r="G106" s="11"/>
@@ -3457,11 +3460,11 @@
       </c>
       <c r="B107" s="5"/>
       <c r="C107" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D107" s="17"/>
       <c r="E107" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F107" s="17"/>
       <c r="G107" s="11"/>
@@ -3476,11 +3479,11 @@
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D108" s="17"/>
       <c r="E108" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F108" s="17"/>
       <c r="G108" s="11"/>
@@ -3497,11 +3500,11 @@
         <v>27</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F109" s="17"/>
       <c r="G109" s="20"/>
@@ -3516,11 +3519,11 @@
       </c>
       <c r="B110" s="22"/>
       <c r="C110" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D110" s="17"/>
       <c r="E110" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F110" s="17"/>
       <c r="G110" s="20"/>
@@ -3535,11 +3538,11 @@
       </c>
       <c r="B111" s="22"/>
       <c r="C111" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D111" s="17"/>
       <c r="E111" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F111" s="17"/>
       <c r="G111" s="20"/>
@@ -3554,11 +3557,11 @@
       </c>
       <c r="B112" s="5"/>
       <c r="C112" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D112" s="17"/>
       <c r="E112" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F112" s="5"/>
       <c r="G112" s="20"/>
@@ -3573,11 +3576,11 @@
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F113" s="5"/>
       <c r="G113" s="20"/>
@@ -3592,11 +3595,11 @@
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D114" s="17"/>
       <c r="E114" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F114" s="17"/>
       <c r="G114" s="20"/>
@@ -3613,11 +3616,11 @@
         <v>27</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D115" s="17"/>
       <c r="E115" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F115" s="17"/>
       <c r="G115" s="20"/>
@@ -3632,11 +3635,11 @@
       </c>
       <c r="B116" s="5"/>
       <c r="C116" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D116" s="17"/>
       <c r="E116" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="20"/>
@@ -3653,11 +3656,11 @@
         <v>27</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F117" s="17"/>
       <c r="G117" s="20"/>
@@ -3672,11 +3675,11 @@
       </c>
       <c r="B118" s="5"/>
       <c r="C118" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D118" s="17"/>
       <c r="E118" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F118" s="17"/>
       <c r="G118" s="20"/>
@@ -3691,11 +3694,11 @@
       </c>
       <c r="B119" s="5"/>
       <c r="C119" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D119" s="17"/>
       <c r="E119" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F119" s="17"/>
       <c r="G119" s="20"/>
@@ -3710,11 +3713,11 @@
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F120" s="5"/>
       <c r="G120" s="20"/>
@@ -3729,11 +3732,11 @@
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F121" s="5"/>
       <c r="G121" s="20"/>
@@ -3748,11 +3751,11 @@
       </c>
       <c r="B122" s="5"/>
       <c r="C122" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="20"/>
@@ -3767,11 +3770,11 @@
       </c>
       <c r="B123" s="5"/>
       <c r="C123" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="20"/>
@@ -3786,11 +3789,11 @@
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="20"/>
@@ -3805,11 +3808,11 @@
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="20"/>
@@ -3826,11 +3829,11 @@
         <v>27</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D126" s="17"/>
       <c r="E126" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F126" s="17"/>
       <c r="G126" s="20"/>
@@ -3845,11 +3848,11 @@
       </c>
       <c r="B127" s="5"/>
       <c r="C127" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F127" s="5"/>
       <c r="G127" s="20"/>
@@ -3864,11 +3867,11 @@
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="20"/>
@@ -3885,11 +3888,11 @@
         <v>27</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D129" s="17"/>
       <c r="E129" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F129" s="17"/>
       <c r="G129" s="20"/>
@@ -3904,11 +3907,11 @@
       </c>
       <c r="B130" s="5"/>
       <c r="C130" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D130" s="17"/>
       <c r="E130" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F130" s="17"/>
       <c r="G130" s="20"/>
@@ -3925,11 +3928,11 @@
         <v>27</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="20"/>
@@ -3944,11 +3947,11 @@
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F132" s="5"/>
       <c r="G132" s="20"/>
@@ -3963,11 +3966,11 @@
       </c>
       <c r="B133" s="5"/>
       <c r="C133" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D133" s="17"/>
       <c r="E133" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F133" s="17"/>
       <c r="G133" s="20"/>
@@ -3984,11 +3987,11 @@
         <v>27</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D134" s="17"/>
       <c r="E134" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F134" s="17"/>
       <c r="G134" s="20"/>
@@ -4003,11 +4006,11 @@
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F135" s="5"/>
       <c r="G135" s="20"/>
@@ -4022,11 +4025,11 @@
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F136" s="5"/>
       <c r="G136" s="20"/>
@@ -4041,11 +4044,11 @@
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F137" s="5"/>
       <c r="G137" s="20"/>
@@ -4060,11 +4063,11 @@
       </c>
       <c r="B138" s="5"/>
       <c r="C138" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F138" s="5"/>
       <c r="G138" s="20"/>
@@ -4079,11 +4082,11 @@
       </c>
       <c r="B139" s="22"/>
       <c r="C139" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="20"/>
@@ -4100,11 +4103,11 @@
         <v>27</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D140" s="17"/>
       <c r="E140" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F140" s="5"/>
       <c r="G140" s="20"/>
@@ -4119,11 +4122,11 @@
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D141" s="17"/>
       <c r="E141" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F141" s="5"/>
       <c r="G141" s="20"/>
@@ -4138,11 +4141,11 @@
       </c>
       <c r="B142" s="5"/>
       <c r="C142" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D142" s="17"/>
       <c r="E142" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F142" s="5"/>
       <c r="G142" s="20"/>
@@ -4159,11 +4162,11 @@
         <v>27</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D143" s="17"/>
       <c r="E143" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F143" s="17"/>
       <c r="G143" s="20"/>
@@ -4180,11 +4183,11 @@
         <v>27</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F144" s="5"/>
       <c r="G144" s="20"/>
@@ -4199,11 +4202,11 @@
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F145" s="5"/>
       <c r="G145" s="20"/>
@@ -4220,11 +4223,11 @@
         <v>27</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F146" s="5"/>
       <c r="G146" s="20"/>
@@ -4239,11 +4242,11 @@
       </c>
       <c r="B147" s="5"/>
       <c r="C147" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D147" s="17"/>
       <c r="E147" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F147" s="5"/>
       <c r="G147" s="20"/>
@@ -4258,11 +4261,11 @@
       </c>
       <c r="B148" s="5"/>
       <c r="C148" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D148" s="17"/>
       <c r="E148" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="20"/>
@@ -4279,11 +4282,11 @@
         <v>27</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D149" s="17"/>
       <c r="E149" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F149" s="5"/>
       <c r="G149" s="20"/>
@@ -4300,11 +4303,11 @@
         <v>27</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D150" s="17"/>
       <c r="E150" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="20"/>
@@ -4321,11 +4324,11 @@
         <v>27</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D151" s="17"/>
       <c r="E151" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="20"/>
@@ -4342,11 +4345,11 @@
         <v>27</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D152" s="17"/>
       <c r="E152" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="20"/>
@@ -4363,11 +4366,11 @@
         <v>27</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D153" s="17"/>
       <c r="E153" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F153" s="17"/>
       <c r="G153" s="20"/>
@@ -4384,11 +4387,11 @@
         <v>27</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F154" s="5"/>
       <c r="G154" s="20"/>
@@ -4403,11 +4406,11 @@
       </c>
       <c r="B155" s="22"/>
       <c r="C155" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F155" s="5"/>
       <c r="G155" s="20"/>
@@ -4422,11 +4425,11 @@
       </c>
       <c r="B156" s="22"/>
       <c r="C156" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F156" s="5"/>
       <c r="G156" s="20"/>
@@ -4441,11 +4444,11 @@
       </c>
       <c r="B157" s="5"/>
       <c r="C157" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D157" s="17"/>
       <c r="E157" s="24" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F157" s="17"/>
       <c r="G157" s="20"/>
@@ -4460,11 +4463,11 @@
       </c>
       <c r="B158" s="5"/>
       <c r="C158" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D158" s="17"/>
       <c r="E158" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F158" s="17"/>
       <c r="G158" s="20"/>
@@ -4479,11 +4482,11 @@
       </c>
       <c r="B159" s="5"/>
       <c r="C159" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D159" s="17"/>
       <c r="E159" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F159" s="17"/>
       <c r="G159" s="20"/>
@@ -4498,11 +4501,11 @@
       </c>
       <c r="B160" s="5"/>
       <c r="C160" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D160" s="17"/>
       <c r="E160" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F160" s="17"/>
       <c r="G160" s="20"/>
@@ -4517,11 +4520,11 @@
       </c>
       <c r="B161" s="5"/>
       <c r="C161" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D161" s="17"/>
       <c r="E161" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F161" s="17"/>
       <c r="G161" s="20"/>
@@ -4536,11 +4539,11 @@
       </c>
       <c r="B162" s="5"/>
       <c r="C162" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D162" s="17"/>
       <c r="E162" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F162" s="17"/>
       <c r="G162" s="20"/>
@@ -4555,11 +4558,11 @@
       </c>
       <c r="B163" s="5"/>
       <c r="C163" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F163" s="5"/>
       <c r="G163" s="20"/>
@@ -4574,11 +4577,11 @@
       </c>
       <c r="B164" s="5"/>
       <c r="C164" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F164" s="5"/>
       <c r="G164" s="20"/>
@@ -4593,11 +4596,11 @@
       </c>
       <c r="B165" s="5"/>
       <c r="C165" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F165" s="5"/>
       <c r="G165" s="20"/>
@@ -4612,11 +4615,11 @@
       </c>
       <c r="B166" s="5"/>
       <c r="C166" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F166" s="5"/>
       <c r="G166" s="20"/>
@@ -4631,11 +4634,11 @@
       </c>
       <c r="B167" s="17"/>
       <c r="C167" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -2102,10 +2102,10 @@
       <c r="F37" s="15"/>
       <c r="G37" s="11"/>
       <c r="H37" s="8">
-        <v>85.0</v>
+        <v>105.0</v>
       </c>
       <c r="I37" s="9">
-        <v>95.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="38">
@@ -2123,10 +2123,10 @@
       <c r="F38" s="15"/>
       <c r="G38" s="11"/>
       <c r="H38" s="8">
-        <v>95.0</v>
+        <v>115.0</v>
       </c>
       <c r="I38" s="9">
-        <v>105.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="39">
@@ -2144,10 +2144,10 @@
       <c r="F39" s="15"/>
       <c r="G39" s="11"/>
       <c r="H39" s="8">
-        <v>95.0</v>
+        <v>115.0</v>
       </c>
       <c r="I39" s="9">
-        <v>105.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="40">
@@ -2170,7 +2170,7 @@
         <v>30.0</v>
       </c>
       <c r="I40" s="8">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="41">
@@ -3390,7 +3390,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
       <c r="I103" s="9">
-        <v>35.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="104">

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -4292,7 +4292,7 @@
       <c r="G149" s="20"/>
       <c r="H149" s="12"/>
       <c r="I149" s="9">
-        <v>225.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="150">
@@ -4313,7 +4313,7 @@
       <c r="G150" s="20"/>
       <c r="H150" s="12"/>
       <c r="I150" s="9">
-        <v>150.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="151">
@@ -4334,7 +4334,7 @@
       <c r="G151" s="20"/>
       <c r="H151" s="12"/>
       <c r="I151" s="9">
-        <v>150.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="152">
@@ -4355,7 +4355,7 @@
       <c r="G152" s="20"/>
       <c r="H152" s="12"/>
       <c r="I152" s="9">
-        <v>150.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="153">
@@ -4397,7 +4397,7 @@
       <c r="G154" s="20"/>
       <c r="H154" s="12"/>
       <c r="I154" s="9">
-        <v>170.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="155">

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -4233,7 +4233,7 @@
       <c r="G146" s="20"/>
       <c r="H146" s="12"/>
       <c r="I146" s="9">
-        <v>90.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="147">

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -3151,8 +3151,8 @@
       <c r="F91" s="17"/>
       <c r="G91" s="12"/>
       <c r="H91" s="11"/>
-      <c r="I91" s="12">
-        <v>90.0</v>
+      <c r="I91" s="9">
+        <v>110.0</v>
       </c>
     </row>
     <row r="92">
@@ -3333,7 +3333,7 @@
       <c r="G100" s="12"/>
       <c r="H100" s="11"/>
       <c r="I100" s="9">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="101">
@@ -3352,7 +3352,7 @@
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
       <c r="I101" s="9">
-        <v>45.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="102">
@@ -3510,7 +3510,7 @@
       <c r="G109" s="20"/>
       <c r="H109" s="12"/>
       <c r="I109" s="9">
-        <v>200.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="110">
@@ -3529,7 +3529,7 @@
       <c r="G110" s="20"/>
       <c r="H110" s="12"/>
       <c r="I110" s="9">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="111">
@@ -3548,7 +3548,7 @@
       <c r="G111" s="20"/>
       <c r="H111" s="12"/>
       <c r="I111" s="9">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="112">
@@ -3567,7 +3567,7 @@
       <c r="G112" s="20"/>
       <c r="H112" s="12"/>
       <c r="I112" s="9">
-        <v>200.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="113">
@@ -3586,7 +3586,7 @@
       <c r="G113" s="20"/>
       <c r="H113" s="12"/>
       <c r="I113" s="9">
-        <v>200.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="114">
@@ -3605,7 +3605,7 @@
       <c r="G114" s="20"/>
       <c r="H114" s="12"/>
       <c r="I114" s="9">
-        <v>200.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="115">
@@ -3626,7 +3626,7 @@
       <c r="G115" s="20"/>
       <c r="H115" s="12"/>
       <c r="I115" s="9">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="116">

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -3645,7 +3645,7 @@
       <c r="G116" s="20"/>
       <c r="H116" s="12"/>
       <c r="I116" s="9">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="117">
@@ -3723,7 +3723,7 @@
       <c r="G120" s="20"/>
       <c r="H120" s="12"/>
       <c r="I120" s="9">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="121">
@@ -3742,7 +3742,7 @@
       <c r="G121" s="20"/>
       <c r="H121" s="12"/>
       <c r="I121" s="9">
-        <v>200.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="122">
@@ -3761,7 +3761,7 @@
       <c r="G122" s="20"/>
       <c r="H122" s="12"/>
       <c r="I122" s="9">
-        <v>200.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="123">
@@ -3780,7 +3780,7 @@
       <c r="G123" s="20"/>
       <c r="H123" s="12"/>
       <c r="I123" s="9">
-        <v>200.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="124">
@@ -3799,7 +3799,7 @@
       <c r="G124" s="20"/>
       <c r="H124" s="12"/>
       <c r="I124" s="9">
-        <v>200.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="125">
@@ -3839,7 +3839,7 @@
       <c r="G126" s="20"/>
       <c r="H126" s="12"/>
       <c r="I126" s="9">
-        <v>200.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="127">
@@ -3898,7 +3898,7 @@
       <c r="G129" s="20"/>
       <c r="H129" s="12"/>
       <c r="I129" s="9">
-        <v>200.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="130">
@@ -3917,7 +3917,7 @@
       <c r="G130" s="20"/>
       <c r="H130" s="12"/>
       <c r="I130" s="9">
-        <v>200.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="131">
@@ -3938,7 +3938,7 @@
       <c r="G131" s="20"/>
       <c r="H131" s="12"/>
       <c r="I131" s="9">
-        <v>200.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="132">

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -3411,7 +3411,7 @@
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
       <c r="I104" s="8">
-        <v>150.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="105">
@@ -3430,7 +3430,7 @@
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
       <c r="I105" s="8">
-        <v>150.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="106">
@@ -3451,7 +3451,7 @@
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
       <c r="I106" s="8">
-        <v>150.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="107">
@@ -3470,7 +3470,7 @@
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
       <c r="I107" s="8">
-        <v>150.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="108">
@@ -3489,7 +3489,7 @@
       <c r="G108" s="11"/>
       <c r="H108" s="11"/>
       <c r="I108" s="8">
-        <v>150.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="109">
@@ -4567,8 +4567,8 @@
       <c r="F163" s="5"/>
       <c r="G163" s="20"/>
       <c r="H163" s="12"/>
-      <c r="I163" s="12">
-        <v>25.0</v>
+      <c r="I163" s="9">
+        <v>30.0</v>
       </c>
     </row>
     <row r="164">
@@ -4586,8 +4586,8 @@
       <c r="F164" s="5"/>
       <c r="G164" s="20"/>
       <c r="H164" s="12"/>
-      <c r="I164" s="12">
-        <v>50.0</v>
+      <c r="I164" s="9">
+        <v>60.0</v>
       </c>
     </row>
     <row r="165">

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="SSyVSCz2wMwY/7y87AkOYS9dbYpKbEpaF5CfpkEqb30="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="OLOP41HkcjxrXeUe7iBtzVg0HK1dOvTROcumCbA5c0M="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="277">
   <si>
     <t>category</t>
   </si>
@@ -2884,7 +2884,7 @@
       <c r="G77" s="12"/>
       <c r="H77" s="20"/>
       <c r="I77" s="8">
-        <v>185.0</v>
+        <v>195.0</v>
       </c>
     </row>
     <row r="78">
@@ -3000,7 +3000,7 @@
       <c r="G83" s="12"/>
       <c r="H83" s="20"/>
       <c r="I83" s="8">
-        <v>120.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="84">
@@ -3019,7 +3019,7 @@
       <c r="G84" s="12"/>
       <c r="H84" s="20"/>
       <c r="I84" s="8">
-        <v>120.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="85">
@@ -3095,7 +3095,7 @@
       <c r="G88" s="12"/>
       <c r="H88" s="11"/>
       <c r="I88" s="8">
-        <v>150.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="89">
@@ -3114,7 +3114,7 @@
       <c r="G89" s="12"/>
       <c r="H89" s="11"/>
       <c r="I89" s="8">
-        <v>115.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="90">
@@ -3133,7 +3133,7 @@
       <c r="G90" s="12"/>
       <c r="H90" s="11"/>
       <c r="I90" s="8">
-        <v>115.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="91">
@@ -3177,37 +3177,31 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>137</v>
-      </c>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
       <c r="D93" s="17"/>
-      <c r="E93" s="7" t="s">
-        <v>138</v>
-      </c>
+      <c r="E93" s="7"/>
       <c r="F93" s="17"/>
       <c r="G93" s="12"/>
       <c r="H93" s="11"/>
-      <c r="I93" s="8">
-        <v>110.0</v>
-      </c>
+      <c r="I93" s="9"/>
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B94" s="7"/>
+      <c r="B94" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C94" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D94" s="17"/>
       <c r="E94" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F94" s="17"/>
       <c r="G94" s="12"/>
@@ -3221,58 +3215,56 @@
         <v>9</v>
       </c>
       <c r="B95" s="7"/>
-      <c r="C95" s="19" t="s">
-        <v>141</v>
+      <c r="C95" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="D95" s="17"/>
       <c r="E95" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F95" s="17"/>
       <c r="G95" s="12"/>
       <c r="H95" s="11"/>
       <c r="I95" s="8">
-        <v>95.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11" t="s">
-        <v>142</v>
+      <c r="A96" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c r="C96" s="19" t="s">
+        <v>141</v>
       </c>
       <c r="D96" s="17"/>
-      <c r="E96" s="11" t="s">
-        <v>143</v>
+      <c r="E96" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="F96" s="17"/>
       <c r="G96" s="12"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="9">
-        <v>70.0</v>
+      <c r="H96" s="11"/>
+      <c r="I96" s="8">
+        <v>95.0</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>144</v>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="D97" s="17"/>
-      <c r="E97" s="7" t="s">
-        <v>144</v>
+      <c r="E97" s="11" t="s">
+        <v>143</v>
       </c>
       <c r="F97" s="17"/>
       <c r="G97" s="12"/>
-      <c r="H97" s="11"/>
+      <c r="H97" s="8"/>
       <c r="I97" s="9">
-        <v>85.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="98">
@@ -3283,15 +3275,15 @@
         <v>27</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F98" s="17"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="8"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="11"/>
       <c r="I98" s="9">
         <v>85.0</v>
       </c>
@@ -3304,36 +3296,38 @@
         <v>27</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F99" s="17"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="8"/>
       <c r="I99" s="9">
-        <v>60.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="7"/>
+      <c r="B100" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C100" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F100" s="17"/>
       <c r="G100" s="12"/>
       <c r="H100" s="11"/>
       <c r="I100" s="9">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="101">
@@ -3342,17 +3336,17 @@
       </c>
       <c r="B101" s="7"/>
       <c r="C101" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F101" s="17"/>
-      <c r="G101" s="11"/>
+      <c r="G101" s="12"/>
       <c r="H101" s="11"/>
       <c r="I101" s="9">
-        <v>55.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="102">
@@ -3361,17 +3355,17 @@
       </c>
       <c r="B102" s="7"/>
       <c r="C102" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D102" s="17"/>
       <c r="E102" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F102" s="17"/>
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
       <c r="I102" s="9">
-        <v>40.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="103">
@@ -3380,13 +3374,13 @@
       </c>
       <c r="B103" s="7"/>
       <c r="C103" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D103" s="17"/>
       <c r="E103" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F103" s="5"/>
+        <v>152</v>
+      </c>
+      <c r="F103" s="17"/>
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
       <c r="I103" s="9">
@@ -3394,37 +3388,37 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B104" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>155</v>
+      <c r="A104" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="D104" s="17"/>
-      <c r="E104" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F104" s="17"/>
+      <c r="E104" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F104" s="5"/>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
-      <c r="I104" s="8">
-        <v>185.0</v>
+      <c r="I104" s="9">
+        <v>40.0</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="5"/>
-      <c r="C105" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D105" s="15"/>
-      <c r="E105" s="7" t="s">
-        <v>157</v>
+      <c r="B105" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D105" s="17"/>
+      <c r="E105" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="F105" s="17"/>
       <c r="G105" s="11"/>
@@ -3437,15 +3431,13 @@
       <c r="A106" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B106" s="5"/>
       <c r="C106" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D106" s="17"/>
+        <v>157</v>
+      </c>
+      <c r="D106" s="15"/>
       <c r="E106" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F106" s="17"/>
       <c r="G106" s="11"/>
@@ -3458,13 +3450,15 @@
       <c r="A107" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B107" s="5"/>
+      <c r="B107" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C107" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D107" s="17"/>
       <c r="E107" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F107" s="17"/>
       <c r="G107" s="11"/>
@@ -3479,11 +3473,11 @@
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D108" s="17"/>
       <c r="E108" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F108" s="17"/>
       <c r="G108" s="11"/>
@@ -3493,43 +3487,43 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>163</v>
+      <c r="A109" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" s="5"/>
+      <c r="C109" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F109" s="17"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="8">
+        <v>185.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D110" s="17"/>
+      <c r="E110" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F109" s="17"/>
-      <c r="G109" s="20"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="9">
-        <v>215.0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B110" s="22"/>
-      <c r="C110" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D110" s="17"/>
-      <c r="E110" s="11" t="s">
-        <v>166</v>
       </c>
       <c r="F110" s="17"/>
       <c r="G110" s="20"/>
       <c r="H110" s="12"/>
       <c r="I110" s="9">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="111">
@@ -3538,11 +3532,11 @@
       </c>
       <c r="B111" s="22"/>
       <c r="C111" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D111" s="17"/>
       <c r="E111" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F111" s="17"/>
       <c r="G111" s="20"/>
@@ -3555,19 +3549,19 @@
       <c r="A112" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B112" s="5"/>
-      <c r="C112" s="7" t="s">
-        <v>169</v>
+      <c r="B112" s="22"/>
+      <c r="C112" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="D112" s="17"/>
-      <c r="E112" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F112" s="5"/>
+      <c r="E112" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F112" s="17"/>
       <c r="G112" s="20"/>
       <c r="H112" s="12"/>
       <c r="I112" s="9">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="113">
@@ -3576,11 +3570,11 @@
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F113" s="5"/>
       <c r="G113" s="20"/>
@@ -3595,32 +3589,30 @@
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D114" s="17"/>
       <c r="E114" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F114" s="17"/>
+        <v>171</v>
+      </c>
+      <c r="F114" s="5"/>
       <c r="G114" s="20"/>
       <c r="H114" s="12"/>
       <c r="I114" s="9">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B115" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B115" s="5"/>
       <c r="C115" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D115" s="17"/>
       <c r="E115" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F115" s="17"/>
       <c r="G115" s="20"/>
@@ -3633,15 +3625,17 @@
       <c r="A116" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B116" s="5"/>
+      <c r="B116" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C116" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D116" s="17"/>
       <c r="E116" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F116" s="5"/>
+        <v>175</v>
+      </c>
+      <c r="F116" s="17"/>
       <c r="G116" s="20"/>
       <c r="H116" s="12"/>
       <c r="I116" s="9">
@@ -3652,34 +3646,34 @@
       <c r="A117" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B117" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B117" s="5"/>
       <c r="C117" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F117" s="17"/>
+        <v>177</v>
+      </c>
+      <c r="F117" s="5"/>
       <c r="G117" s="20"/>
       <c r="H117" s="12"/>
       <c r="I117" s="9">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B118" s="5"/>
+      <c r="B118" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C118" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D118" s="17"/>
       <c r="E118" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F118" s="17"/>
       <c r="G118" s="20"/>
@@ -3694,11 +3688,11 @@
       </c>
       <c r="B119" s="5"/>
       <c r="C119" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D119" s="17"/>
       <c r="E119" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F119" s="17"/>
       <c r="G119" s="20"/>
@@ -3713,17 +3707,17 @@
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D120" s="5"/>
+        <v>182</v>
+      </c>
+      <c r="D120" s="17"/>
       <c r="E120" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F120" s="5"/>
+        <v>183</v>
+      </c>
+      <c r="F120" s="17"/>
       <c r="G120" s="20"/>
       <c r="H120" s="12"/>
       <c r="I120" s="9">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="121">
@@ -3732,17 +3726,17 @@
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F121" s="5"/>
       <c r="G121" s="20"/>
       <c r="H121" s="12"/>
       <c r="I121" s="9">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="122">
@@ -3751,17 +3745,17 @@
       </c>
       <c r="B122" s="5"/>
       <c r="C122" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="20"/>
       <c r="H122" s="12"/>
       <c r="I122" s="9">
-        <v>215.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="123">
@@ -3770,17 +3764,17 @@
       </c>
       <c r="B123" s="5"/>
       <c r="C123" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="20"/>
       <c r="H123" s="12"/>
       <c r="I123" s="9">
-        <v>220.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="124">
@@ -3789,17 +3783,17 @@
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="20"/>
       <c r="H124" s="12"/>
       <c r="I124" s="9">
-        <v>210.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="125">
@@ -3808,57 +3802,57 @@
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="20"/>
       <c r="H125" s="12"/>
       <c r="I125" s="9">
-        <v>80.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B126" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B126" s="5"/>
       <c r="C126" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D126" s="17"/>
+        <v>194</v>
+      </c>
+      <c r="D126" s="5"/>
       <c r="E126" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F126" s="17"/>
+        <v>195</v>
+      </c>
+      <c r="F126" s="5"/>
       <c r="G126" s="20"/>
       <c r="H126" s="12"/>
       <c r="I126" s="9">
-        <v>220.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B127" s="5"/>
+      <c r="B127" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C127" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D127" s="5"/>
+        <v>196</v>
+      </c>
+      <c r="D127" s="17"/>
       <c r="E127" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F127" s="5"/>
+        <v>197</v>
+      </c>
+      <c r="F127" s="17"/>
       <c r="G127" s="20"/>
       <c r="H127" s="12"/>
       <c r="I127" s="9">
-        <v>160.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="128">
@@ -3867,51 +3861,51 @@
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="20"/>
       <c r="H128" s="12"/>
       <c r="I128" s="9">
-        <v>70.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B129" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B129" s="5"/>
       <c r="C129" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D129" s="17"/>
-      <c r="E129" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="F129" s="17"/>
+        <v>200</v>
+      </c>
+      <c r="D129" s="5"/>
+      <c r="E129" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F129" s="5"/>
       <c r="G129" s="20"/>
       <c r="H129" s="12"/>
       <c r="I129" s="9">
-        <v>220.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B130" s="5"/>
+      <c r="B130" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C130" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D130" s="17"/>
-      <c r="E130" s="7" t="s">
-        <v>205</v>
+      <c r="E130" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="F130" s="17"/>
       <c r="G130" s="20"/>
@@ -3924,17 +3918,15 @@
       <c r="A131" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B131" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B131" s="5"/>
       <c r="C131" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D131" s="5"/>
+        <v>204</v>
+      </c>
+      <c r="D131" s="17"/>
       <c r="E131" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F131" s="5"/>
+        <v>205</v>
+      </c>
+      <c r="F131" s="17"/>
       <c r="G131" s="20"/>
       <c r="H131" s="12"/>
       <c r="I131" s="9">
@@ -3945,19 +3937,21 @@
       <c r="A132" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B132" s="5"/>
+      <c r="B132" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C132" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F132" s="5"/>
       <c r="G132" s="20"/>
       <c r="H132" s="12"/>
       <c r="I132" s="9">
-        <v>185.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="133">
@@ -3966,13 +3960,13 @@
       </c>
       <c r="B133" s="5"/>
       <c r="C133" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D133" s="17"/>
+        <v>208</v>
+      </c>
+      <c r="D133" s="5"/>
       <c r="E133" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F133" s="17"/>
+        <v>208</v>
+      </c>
+      <c r="F133" s="5"/>
       <c r="G133" s="20"/>
       <c r="H133" s="12"/>
       <c r="I133" s="9">
@@ -3983,15 +3977,13 @@
       <c r="A134" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B134" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B134" s="5"/>
       <c r="C134" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D134" s="17"/>
       <c r="E134" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F134" s="17"/>
       <c r="G134" s="20"/>
@@ -4004,15 +3996,17 @@
       <c r="A135" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B135" s="5"/>
+      <c r="B135" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C135" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D135" s="5"/>
+        <v>210</v>
+      </c>
+      <c r="D135" s="17"/>
       <c r="E135" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F135" s="5"/>
+        <v>211</v>
+      </c>
+      <c r="F135" s="17"/>
       <c r="G135" s="20"/>
       <c r="H135" s="12"/>
       <c r="I135" s="9">
@@ -4025,17 +4019,17 @@
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F136" s="5"/>
       <c r="G136" s="20"/>
       <c r="H136" s="12"/>
       <c r="I136" s="9">
-        <v>200.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="137">
@@ -4044,17 +4038,17 @@
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F137" s="5"/>
       <c r="G137" s="20"/>
       <c r="H137" s="12"/>
       <c r="I137" s="9">
-        <v>185.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="138">
@@ -4063,76 +4057,76 @@
       </c>
       <c r="B138" s="5"/>
       <c r="C138" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F138" s="5"/>
       <c r="G138" s="20"/>
       <c r="H138" s="12"/>
       <c r="I138" s="9">
-        <v>80.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B139" s="22"/>
-      <c r="C139" s="11" t="s">
-        <v>220</v>
+      <c r="A139" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" s="5"/>
+      <c r="C139" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="D139" s="5"/>
-      <c r="E139" s="11" t="s">
-        <v>221</v>
+      <c r="E139" s="7" t="s">
+        <v>219</v>
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="20"/>
       <c r="H139" s="12"/>
       <c r="I139" s="9">
-        <v>85.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B140" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="D140" s="17"/>
-      <c r="E140" s="7" t="s">
-        <v>223</v>
+      <c r="B140" s="22"/>
+      <c r="C140" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D140" s="5"/>
+      <c r="E140" s="11" t="s">
+        <v>221</v>
       </c>
       <c r="F140" s="5"/>
       <c r="G140" s="20"/>
       <c r="H140" s="12"/>
       <c r="I140" s="9">
-        <v>90.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B141" s="5"/>
+      <c r="B141" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C141" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D141" s="17"/>
       <c r="E141" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F141" s="5"/>
       <c r="G141" s="20"/>
       <c r="H141" s="12"/>
-      <c r="I141" s="12">
-        <v>110.0</v>
+      <c r="I141" s="9">
+        <v>90.0</v>
       </c>
     </row>
     <row r="142">
@@ -4141,38 +4135,36 @@
       </c>
       <c r="B142" s="5"/>
       <c r="C142" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D142" s="17"/>
       <c r="E142" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F142" s="5"/>
       <c r="G142" s="20"/>
       <c r="H142" s="12"/>
       <c r="I142" s="12">
-        <v>120.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B143" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B143" s="5"/>
       <c r="C143" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D143" s="17"/>
       <c r="E143" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F143" s="17"/>
+        <v>227</v>
+      </c>
+      <c r="F143" s="5"/>
       <c r="G143" s="20"/>
       <c r="H143" s="12"/>
       <c r="I143" s="12">
-        <v>150.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="144">
@@ -4183,16 +4175,16 @@
         <v>27</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="D144" s="5"/>
+        <v>228</v>
+      </c>
+      <c r="D144" s="17"/>
       <c r="E144" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F144" s="5"/>
+        <v>229</v>
+      </c>
+      <c r="F144" s="17"/>
       <c r="G144" s="20"/>
       <c r="H144" s="12"/>
-      <c r="I144" s="9">
+      <c r="I144" s="12">
         <v>150.0</v>
       </c>
     </row>
@@ -4200,59 +4192,61 @@
       <c r="A145" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B145" s="5"/>
+      <c r="B145" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C145" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D145" s="5"/>
-      <c r="E145" s="10" t="s">
-        <v>233</v>
+      <c r="E145" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="F145" s="5"/>
       <c r="G145" s="20"/>
       <c r="H145" s="12"/>
       <c r="I145" s="9">
-        <v>90.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B146" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>234</v>
+      <c r="A146" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B146" s="5"/>
+      <c r="C146" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="D146" s="5"/>
-      <c r="E146" s="11" t="s">
-        <v>235</v>
+      <c r="E146" s="10" t="s">
+        <v>233</v>
       </c>
       <c r="F146" s="5"/>
       <c r="G146" s="20"/>
       <c r="H146" s="12"/>
       <c r="I146" s="9">
-        <v>110.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="5" t="s">
+      <c r="A147" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B147" s="5"/>
-      <c r="C147" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="D147" s="17"/>
-      <c r="E147" s="7" t="s">
-        <v>237</v>
+      <c r="B147" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D147" s="5"/>
+      <c r="E147" s="11" t="s">
+        <v>235</v>
       </c>
       <c r="F147" s="5"/>
       <c r="G147" s="20"/>
       <c r="H147" s="12"/>
       <c r="I147" s="9">
-        <v>100.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="148">
@@ -4261,59 +4255,57 @@
       </c>
       <c r="B148" s="5"/>
       <c r="C148" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D148" s="17"/>
       <c r="E148" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="20"/>
       <c r="H148" s="12"/>
       <c r="I148" s="9">
-        <v>70.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B149" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C149" s="11" t="s">
-        <v>240</v>
+      <c r="A149" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B149" s="5"/>
+      <c r="C149" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="D149" s="17"/>
-      <c r="E149" s="8" t="s">
-        <v>241</v>
+      <c r="E149" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="F149" s="5"/>
       <c r="G149" s="20"/>
       <c r="H149" s="12"/>
       <c r="I149" s="9">
-        <v>260.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C150" s="7" t="s">
-        <v>242</v>
+      <c r="C150" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="D150" s="17"/>
-      <c r="E150" s="10" t="s">
-        <v>243</v>
+      <c r="E150" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="20"/>
       <c r="H150" s="12"/>
       <c r="I150" s="9">
-        <v>210.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="151">
@@ -4324,11 +4316,11 @@
         <v>27</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D151" s="17"/>
       <c r="E151" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="20"/>
@@ -4345,11 +4337,11 @@
         <v>27</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D152" s="17"/>
-      <c r="E152" s="7" t="s">
-        <v>247</v>
+      <c r="E152" s="10" t="s">
+        <v>245</v>
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="20"/>
@@ -4359,98 +4351,100 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B153" s="11" t="s">
+      <c r="A153" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B153" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C153" s="11" t="s">
-        <v>248</v>
+      <c r="C153" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="D153" s="17"/>
-      <c r="E153" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="F153" s="17"/>
+      <c r="E153" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F153" s="5"/>
       <c r="G153" s="20"/>
       <c r="H153" s="12"/>
       <c r="I153" s="9">
-        <v>170.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="7" t="s">
+      <c r="A154" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B154" s="7" t="s">
+      <c r="B154" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C154" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D154" s="5"/>
-      <c r="E154" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F154" s="5"/>
+      <c r="C154" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D154" s="17"/>
+      <c r="E154" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="F154" s="17"/>
       <c r="G154" s="20"/>
       <c r="H154" s="12"/>
       <c r="I154" s="9">
-        <v>215.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B155" s="22"/>
-      <c r="C155" s="11" t="s">
-        <v>251</v>
+      <c r="A155" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>250</v>
       </c>
       <c r="D155" s="5"/>
-      <c r="E155" s="11" t="s">
-        <v>252</v>
+      <c r="E155" s="7" t="s">
+        <v>250</v>
       </c>
       <c r="F155" s="5"/>
       <c r="G155" s="20"/>
       <c r="H155" s="12"/>
-      <c r="I155" s="12">
-        <v>20.0</v>
+      <c r="I155" s="9">
+        <v>215.0</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B156" s="22"/>
-      <c r="C156" s="7" t="s">
-        <v>253</v>
+      <c r="C156" s="11" t="s">
+        <v>251</v>
       </c>
       <c r="D156" s="5"/>
-      <c r="E156" s="7" t="s">
-        <v>254</v>
+      <c r="E156" s="11" t="s">
+        <v>252</v>
       </c>
       <c r="F156" s="5"/>
       <c r="G156" s="20"/>
-      <c r="H156" s="9"/>
-      <c r="I156" s="9">
+      <c r="H156" s="12"/>
+      <c r="I156" s="12">
         <v>20.0</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="23" t="s">
+      <c r="A157" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B157" s="5"/>
-      <c r="C157" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="D157" s="17"/>
-      <c r="E157" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="F157" s="17"/>
+      <c r="B157" s="22"/>
+      <c r="C157" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D157" s="5"/>
+      <c r="E157" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F157" s="5"/>
       <c r="G157" s="20"/>
       <c r="H157" s="9"/>
       <c r="I157" s="9">
@@ -4458,16 +4452,16 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="5" t="s">
+      <c r="A158" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B158" s="5"/>
-      <c r="C158" s="7" t="s">
-        <v>257</v>
+      <c r="C158" s="10" t="s">
+        <v>255</v>
       </c>
       <c r="D158" s="17"/>
-      <c r="E158" s="7" t="s">
-        <v>258</v>
+      <c r="E158" s="24" t="s">
+        <v>256</v>
       </c>
       <c r="F158" s="17"/>
       <c r="G158" s="20"/>
@@ -4482,17 +4476,17 @@
       </c>
       <c r="B159" s="5"/>
       <c r="C159" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D159" s="17"/>
       <c r="E159" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F159" s="17"/>
       <c r="G159" s="20"/>
-      <c r="H159" s="12"/>
-      <c r="I159" s="12">
-        <v>40.0</v>
+      <c r="H159" s="9"/>
+      <c r="I159" s="9">
+        <v>20.0</v>
       </c>
     </row>
     <row r="160">
@@ -4501,17 +4495,17 @@
       </c>
       <c r="B160" s="5"/>
       <c r="C160" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D160" s="17"/>
       <c r="E160" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F160" s="17"/>
       <c r="G160" s="20"/>
       <c r="H160" s="12"/>
       <c r="I160" s="12">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="161">
@@ -4520,17 +4514,17 @@
       </c>
       <c r="B161" s="5"/>
       <c r="C161" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D161" s="17"/>
       <c r="E161" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F161" s="17"/>
       <c r="G161" s="20"/>
       <c r="H161" s="12"/>
       <c r="I161" s="12">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="162">
@@ -4539,11 +4533,11 @@
       </c>
       <c r="B162" s="5"/>
       <c r="C162" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D162" s="17"/>
       <c r="E162" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F162" s="17"/>
       <c r="G162" s="20"/>
@@ -4558,17 +4552,17 @@
       </c>
       <c r="B163" s="5"/>
       <c r="C163" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="D163" s="5"/>
+        <v>265</v>
+      </c>
+      <c r="D163" s="17"/>
       <c r="E163" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F163" s="5"/>
+        <v>266</v>
+      </c>
+      <c r="F163" s="17"/>
       <c r="G163" s="20"/>
       <c r="H163" s="12"/>
-      <c r="I163" s="9">
-        <v>30.0</v>
+      <c r="I163" s="12">
+        <v>20.0</v>
       </c>
     </row>
     <row r="164">
@@ -4577,17 +4571,17 @@
       </c>
       <c r="B164" s="5"/>
       <c r="C164" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F164" s="5"/>
       <c r="G164" s="20"/>
       <c r="H164" s="12"/>
       <c r="I164" s="9">
-        <v>60.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="165">
@@ -4596,17 +4590,17 @@
       </c>
       <c r="B165" s="5"/>
       <c r="C165" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F165" s="5"/>
       <c r="G165" s="20"/>
       <c r="H165" s="12"/>
-      <c r="I165" s="12">
-        <v>15.0</v>
+      <c r="I165" s="9">
+        <v>60.0</v>
       </c>
     </row>
     <row r="166">
@@ -4614,17 +4608,17 @@
         <v>19</v>
       </c>
       <c r="B166" s="5"/>
-      <c r="C166" s="10" t="s">
-        <v>273</v>
+      <c r="C166" s="7" t="s">
+        <v>271</v>
       </c>
       <c r="D166" s="5"/>
-      <c r="E166" s="10" t="s">
-        <v>274</v>
+      <c r="E166" s="7" t="s">
+        <v>272</v>
       </c>
       <c r="F166" s="5"/>
       <c r="G166" s="20"/>
       <c r="H166" s="12"/>
-      <c r="I166" s="9">
+      <c r="I166" s="12">
         <v>15.0</v>
       </c>
     </row>
@@ -4632,26 +4626,39 @@
       <c r="A167" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B167" s="17"/>
-      <c r="C167" s="7" t="s">
+      <c r="B167" s="5"/>
+      <c r="C167" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D167" s="5"/>
+      <c r="E167" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="F167" s="5"/>
+      <c r="G167" s="20"/>
+      <c r="H167" s="12"/>
+      <c r="I167" s="9">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B168" s="17"/>
+      <c r="C168" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="D167" s="5"/>
-      <c r="E167" s="7" t="s">
+      <c r="D168" s="5"/>
+      <c r="E168" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F167" s="5"/>
-      <c r="G167" s="5"/>
-      <c r="H167" s="12"/>
-      <c r="I167" s="12">
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12">
         <v>60.0</v>
       </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="25"/>
-      <c r="B168" s="25"/>
-      <c r="C168" s="25"/>
-      <c r="E168" s="25"/>
     </row>
     <row r="169">
       <c r="A169" s="25"/>
@@ -4686,10 +4693,16 @@
     <row r="174">
       <c r="A174" s="25"/>
       <c r="B174" s="25"/>
+      <c r="C174" s="25"/>
+      <c r="E174" s="25"/>
     </row>
     <row r="175">
       <c r="A175" s="25"/>
       <c r="B175" s="25"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="25"/>
+      <c r="B176" s="25"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="OLOP41HkcjxrXeUe7iBtzVg0HK1dOvTROcumCbA5c0M="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="AMwMzXrMSOdK3voyQVwmsis0S+WjxN7q1Uy/alpnd9I="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="281">
   <si>
     <t>category</t>
   </si>
@@ -430,6 +430,12 @@
     <t>Bubble Tea</t>
   </si>
   <si>
+    <t>Mor Zest</t>
+  </si>
+  <si>
+    <t>Summer Brezze</t>
+  </si>
+  <si>
     <t>Lemonade (HOMEMADE)</t>
   </si>
   <si>
@@ -506,6 +512,12 @@
   </si>
   <si>
     <t>Nutellalı Pasta</t>
+  </si>
+  <si>
+    <t>Gluten Free Browni</t>
+  </si>
+  <si>
+    <t>Glutensiz Browni</t>
   </si>
   <si>
     <r>
@@ -3181,40 +3193,46 @@
         <v>9</v>
       </c>
       <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
+      <c r="C93" s="10" t="s">
+        <v>137</v>
+      </c>
       <c r="D93" s="17"/>
-      <c r="E93" s="7"/>
+      <c r="E93" s="10" t="s">
+        <v>137</v>
+      </c>
       <c r="F93" s="17"/>
       <c r="G93" s="12"/>
       <c r="H93" s="11"/>
-      <c r="I93" s="9"/>
+      <c r="I93" s="9">
+        <v>165.0</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B94" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>137</v>
+      <c r="B94" s="7"/>
+      <c r="C94" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="D94" s="17"/>
-      <c r="E94" s="7" t="s">
+      <c r="E94" s="10" t="s">
         <v>138</v>
       </c>
       <c r="F94" s="17"/>
       <c r="G94" s="12"/>
       <c r="H94" s="11"/>
-      <c r="I94" s="8">
-        <v>110.0</v>
+      <c r="I94" s="9">
+        <v>165.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="7"/>
+      <c r="B95" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C95" s="7" t="s">
         <v>139</v>
       </c>
@@ -3234,58 +3252,56 @@
         <v>9</v>
       </c>
       <c r="B96" s="7"/>
-      <c r="C96" s="19" t="s">
+      <c r="C96" s="7" t="s">
         <v>141</v>
       </c>
       <c r="D96" s="17"/>
       <c r="E96" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F96" s="17"/>
       <c r="G96" s="12"/>
       <c r="H96" s="11"/>
       <c r="I96" s="8">
-        <v>95.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11" t="s">
-        <v>142</v>
+      <c r="A97" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c r="C97" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="D97" s="17"/>
-      <c r="E97" s="11" t="s">
+      <c r="E97" s="7" t="s">
         <v>143</v>
       </c>
       <c r="F97" s="17"/>
       <c r="G97" s="12"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="9">
-        <v>70.0</v>
+      <c r="H97" s="11"/>
+      <c r="I97" s="8">
+        <v>95.0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C98" s="7" t="s">
+      <c r="B98" s="11"/>
+      <c r="C98" s="11" t="s">
         <v>144</v>
       </c>
       <c r="D98" s="17"/>
-      <c r="E98" s="7" t="s">
-        <v>144</v>
+      <c r="E98" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="F98" s="17"/>
       <c r="G98" s="12"/>
-      <c r="H98" s="11"/>
+      <c r="H98" s="8"/>
       <c r="I98" s="9">
-        <v>85.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="99">
@@ -3296,15 +3312,15 @@
         <v>27</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F99" s="17"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="8"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="11"/>
       <c r="I99" s="9">
         <v>85.0</v>
       </c>
@@ -3317,24 +3333,26 @@
         <v>27</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="7" t="s">
         <v>147</v>
       </c>
       <c r="F100" s="17"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="8"/>
       <c r="I100" s="9">
-        <v>60.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="7"/>
+      <c r="B101" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C101" s="7" t="s">
         <v>148</v>
       </c>
@@ -3346,7 +3364,7 @@
       <c r="G101" s="12"/>
       <c r="H101" s="11"/>
       <c r="I101" s="9">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="102">
@@ -3362,10 +3380,10 @@
         <v>151</v>
       </c>
       <c r="F102" s="17"/>
-      <c r="G102" s="11"/>
+      <c r="G102" s="12"/>
       <c r="H102" s="11"/>
       <c r="I102" s="9">
-        <v>55.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="103">
@@ -3378,13 +3396,13 @@
       </c>
       <c r="D103" s="17"/>
       <c r="E103" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F103" s="17"/>
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
       <c r="I103" s="9">
-        <v>40.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="104">
@@ -3393,13 +3411,13 @@
       </c>
       <c r="B104" s="7"/>
       <c r="C104" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D104" s="17"/>
       <c r="E104" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F104" s="5"/>
+      <c r="F104" s="17"/>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
       <c r="I104" s="9">
@@ -3407,37 +3425,37 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B105" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C105" s="11" t="s">
+      <c r="A105" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7" t="s">
         <v>155</v>
       </c>
       <c r="D105" s="17"/>
-      <c r="E105" s="11" t="s">
+      <c r="E105" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F105" s="17"/>
+      <c r="F105" s="5"/>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
-      <c r="I105" s="8">
-        <v>185.0</v>
+      <c r="I105" s="9">
+        <v>40.0</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="5"/>
-      <c r="C106" s="7" t="s">
+      <c r="B106" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C106" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="D106" s="15"/>
-      <c r="E106" s="7" t="s">
-        <v>157</v>
+      <c r="D106" s="17"/>
+      <c r="E106" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="F106" s="17"/>
       <c r="G106" s="11"/>
@@ -3450,15 +3468,13 @@
       <c r="A107" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B107" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B107" s="5"/>
       <c r="C107" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D107" s="17"/>
+        <v>159</v>
+      </c>
+      <c r="D107" s="15"/>
       <c r="E107" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F107" s="17"/>
       <c r="G107" s="11"/>
@@ -3471,9 +3487,11 @@
       <c r="A108" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="5"/>
+      <c r="B108" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C108" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D108" s="17"/>
       <c r="E108" s="7" t="s">
@@ -3506,13 +3524,11 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B110" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C110" s="11" t="s">
+      <c r="A110" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" s="5"/>
+      <c r="C110" s="7" t="s">
         <v>163</v>
       </c>
       <c r="D110" s="17"/>
@@ -3520,63 +3536,57 @@
         <v>164</v>
       </c>
       <c r="F110" s="17"/>
-      <c r="G110" s="20"/>
-      <c r="H110" s="12"/>
-      <c r="I110" s="9">
-        <v>215.0</v>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="8">
+        <v>185.0</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" s="5"/>
+      <c r="C111" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D111" s="17"/>
+      <c r="E111" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F111" s="17"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="8"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" s="5"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="8"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B111" s="22"/>
-      <c r="C111" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D111" s="17"/>
-      <c r="E111" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="F111" s="17"/>
-      <c r="G111" s="20"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="9">
-        <v>230.0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B112" s="22"/>
-      <c r="C112" s="11" t="s">
+      <c r="B113" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C113" s="11" t="s">
         <v>167</v>
-      </c>
-      <c r="D112" s="17"/>
-      <c r="E112" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="F112" s="17"/>
-      <c r="G112" s="20"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="9">
-        <v>230.0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B113" s="5"/>
-      <c r="C113" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F113" s="5"/>
+        <v>168</v>
+      </c>
+      <c r="F113" s="17"/>
       <c r="G113" s="20"/>
       <c r="H113" s="12"/>
       <c r="I113" s="9">
@@ -3587,32 +3597,32 @@
       <c r="A114" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B114" s="5"/>
-      <c r="C114" s="7" t="s">
-        <v>171</v>
+      <c r="B114" s="22"/>
+      <c r="C114" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="D114" s="17"/>
-      <c r="E114" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F114" s="5"/>
+      <c r="E114" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F114" s="17"/>
       <c r="G114" s="20"/>
       <c r="H114" s="12"/>
       <c r="I114" s="9">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B115" s="5"/>
-      <c r="C115" s="7" t="s">
+      <c r="B115" s="22"/>
+      <c r="C115" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D115" s="17"/>
+      <c r="E115" s="11" t="s">
         <v>172</v>
-      </c>
-      <c r="D115" s="17"/>
-      <c r="E115" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="F115" s="17"/>
       <c r="G115" s="20"/>
@@ -3625,21 +3635,19 @@
       <c r="A116" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B116" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B116" s="5"/>
       <c r="C116" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D116" s="17"/>
       <c r="E116" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F116" s="17"/>
+        <v>174</v>
+      </c>
+      <c r="F116" s="5"/>
       <c r="G116" s="20"/>
       <c r="H116" s="12"/>
       <c r="I116" s="9">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="117">
@@ -3648,57 +3656,57 @@
       </c>
       <c r="B117" s="5"/>
       <c r="C117" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F117" s="5"/>
       <c r="G117" s="20"/>
       <c r="H117" s="12"/>
       <c r="I117" s="9">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B118" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B118" s="5"/>
       <c r="C118" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D118" s="17"/>
       <c r="E118" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F118" s="17"/>
       <c r="G118" s="20"/>
       <c r="H118" s="12"/>
       <c r="I118" s="9">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B119" s="5"/>
+      <c r="B119" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C119" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D119" s="17"/>
       <c r="E119" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F119" s="17"/>
       <c r="G119" s="20"/>
       <c r="H119" s="12"/>
       <c r="I119" s="9">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="120">
@@ -3707,36 +3715,38 @@
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D120" s="17"/>
       <c r="E120" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F120" s="17"/>
+        <v>181</v>
+      </c>
+      <c r="F120" s="5"/>
       <c r="G120" s="20"/>
       <c r="H120" s="12"/>
       <c r="I120" s="9">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B121" s="5"/>
+      <c r="B121" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C121" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D121" s="5"/>
+        <v>182</v>
+      </c>
+      <c r="D121" s="17"/>
       <c r="E121" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F121" s="5"/>
+        <v>183</v>
+      </c>
+      <c r="F121" s="17"/>
       <c r="G121" s="20"/>
       <c r="H121" s="12"/>
       <c r="I121" s="9">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="122">
@@ -3745,13 +3755,13 @@
       </c>
       <c r="B122" s="5"/>
       <c r="C122" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D122" s="5"/>
+        <v>184</v>
+      </c>
+      <c r="D122" s="17"/>
       <c r="E122" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F122" s="5"/>
+        <v>185</v>
+      </c>
+      <c r="F122" s="17"/>
       <c r="G122" s="20"/>
       <c r="H122" s="12"/>
       <c r="I122" s="9">
@@ -3764,17 +3774,17 @@
       </c>
       <c r="B123" s="5"/>
       <c r="C123" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D123" s="5"/>
+        <v>186</v>
+      </c>
+      <c r="D123" s="17"/>
       <c r="E123" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F123" s="5"/>
+        <v>187</v>
+      </c>
+      <c r="F123" s="17"/>
       <c r="G123" s="20"/>
       <c r="H123" s="12"/>
       <c r="I123" s="9">
-        <v>215.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="124">
@@ -3783,17 +3793,17 @@
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="20"/>
       <c r="H124" s="12"/>
       <c r="I124" s="9">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="125">
@@ -3802,17 +3812,17 @@
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="20"/>
       <c r="H125" s="12"/>
       <c r="I125" s="9">
-        <v>210.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="126">
@@ -3821,34 +3831,32 @@
       </c>
       <c r="B126" s="5"/>
       <c r="C126" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="20"/>
       <c r="H126" s="12"/>
       <c r="I126" s="9">
-        <v>80.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B127" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B127" s="5"/>
       <c r="C127" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D127" s="17"/>
+        <v>194</v>
+      </c>
+      <c r="D127" s="5"/>
       <c r="E127" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F127" s="17"/>
+        <v>195</v>
+      </c>
+      <c r="F127" s="5"/>
       <c r="G127" s="20"/>
       <c r="H127" s="12"/>
       <c r="I127" s="9">
@@ -3861,17 +3869,17 @@
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="20"/>
       <c r="H128" s="12"/>
       <c r="I128" s="9">
-        <v>160.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="129">
@@ -3880,17 +3888,17 @@
       </c>
       <c r="B129" s="5"/>
       <c r="C129" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F129" s="5"/>
       <c r="G129" s="20"/>
       <c r="H129" s="12"/>
       <c r="I129" s="9">
-        <v>70.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="130">
@@ -3901,11 +3909,11 @@
         <v>27</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D130" s="17"/>
-      <c r="E130" s="10" t="s">
-        <v>203</v>
+      <c r="E130" s="7" t="s">
+        <v>201</v>
       </c>
       <c r="F130" s="17"/>
       <c r="G130" s="20"/>
@@ -3920,57 +3928,57 @@
       </c>
       <c r="B131" s="5"/>
       <c r="C131" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D131" s="17"/>
+        <v>202</v>
+      </c>
+      <c r="D131" s="5"/>
       <c r="E131" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F131" s="17"/>
+        <v>203</v>
+      </c>
+      <c r="F131" s="5"/>
       <c r="G131" s="20"/>
       <c r="H131" s="12"/>
       <c r="I131" s="9">
-        <v>220.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B132" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B132" s="5"/>
       <c r="C132" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F132" s="5"/>
       <c r="G132" s="20"/>
       <c r="H132" s="12"/>
       <c r="I132" s="9">
-        <v>220.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B133" s="5"/>
+      <c r="B133" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C133" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D133" s="5"/>
-      <c r="E133" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F133" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="D133" s="17"/>
+      <c r="E133" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F133" s="17"/>
       <c r="G133" s="20"/>
       <c r="H133" s="12"/>
       <c r="I133" s="9">
-        <v>185.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="134">
@@ -3979,7 +3987,7 @@
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D134" s="17"/>
       <c r="E134" s="7" t="s">
@@ -3989,7 +3997,7 @@
       <c r="G134" s="20"/>
       <c r="H134" s="12"/>
       <c r="I134" s="9">
-        <v>185.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="135">
@@ -4002,15 +4010,15 @@
       <c r="C135" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D135" s="17"/>
+      <c r="D135" s="5"/>
       <c r="E135" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F135" s="17"/>
+      <c r="F135" s="5"/>
       <c r="G135" s="20"/>
       <c r="H135" s="12"/>
       <c r="I135" s="9">
-        <v>185.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="136">
@@ -4023,7 +4031,7 @@
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F136" s="5"/>
       <c r="G136" s="20"/>
@@ -4038,32 +4046,34 @@
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="D137" s="5"/>
+        <v>213</v>
+      </c>
+      <c r="D137" s="17"/>
       <c r="E137" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F137" s="5"/>
+        <v>213</v>
+      </c>
+      <c r="F137" s="17"/>
       <c r="G137" s="20"/>
       <c r="H137" s="12"/>
       <c r="I137" s="9">
-        <v>200.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B138" s="5"/>
+      <c r="B138" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C138" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D138" s="5"/>
+        <v>214</v>
+      </c>
+      <c r="D138" s="17"/>
       <c r="E138" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F138" s="5"/>
+        <v>215</v>
+      </c>
+      <c r="F138" s="17"/>
       <c r="G138" s="20"/>
       <c r="H138" s="12"/>
       <c r="I138" s="9">
@@ -4076,95 +4086,93 @@
       </c>
       <c r="B139" s="5"/>
       <c r="C139" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="20"/>
       <c r="H139" s="12"/>
       <c r="I139" s="9">
-        <v>80.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B140" s="22"/>
-      <c r="C140" s="11" t="s">
-        <v>220</v>
+      <c r="A140" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" s="5"/>
+      <c r="C140" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="D140" s="5"/>
-      <c r="E140" s="11" t="s">
-        <v>221</v>
+      <c r="E140" s="7" t="s">
+        <v>219</v>
       </c>
       <c r="F140" s="5"/>
       <c r="G140" s="20"/>
       <c r="H140" s="12"/>
       <c r="I140" s="9">
-        <v>85.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B141" s="5"/>
       <c r="C141" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="D141" s="17"/>
+        <v>220</v>
+      </c>
+      <c r="D141" s="5"/>
       <c r="E141" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F141" s="5"/>
       <c r="G141" s="20"/>
       <c r="H141" s="12"/>
       <c r="I141" s="9">
-        <v>90.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B142" s="5"/>
       <c r="C142" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D142" s="17"/>
+        <v>222</v>
+      </c>
+      <c r="D142" s="5"/>
       <c r="E142" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F142" s="5"/>
       <c r="G142" s="20"/>
       <c r="H142" s="12"/>
-      <c r="I142" s="12">
-        <v>110.0</v>
+      <c r="I142" s="9">
+        <v>80.0</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="5" t="s">
+      <c r="A143" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B143" s="5"/>
-      <c r="C143" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D143" s="17"/>
-      <c r="E143" s="7" t="s">
-        <v>227</v>
+      <c r="B143" s="22"/>
+      <c r="C143" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D143" s="5"/>
+      <c r="E143" s="11" t="s">
+        <v>225</v>
       </c>
       <c r="F143" s="5"/>
       <c r="G143" s="20"/>
       <c r="H143" s="12"/>
-      <c r="I143" s="12">
-        <v>120.0</v>
+      <c r="I143" s="9">
+        <v>85.0</v>
       </c>
     </row>
     <row r="144">
@@ -4175,38 +4183,36 @@
         <v>27</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D144" s="17"/>
       <c r="E144" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F144" s="17"/>
+        <v>227</v>
+      </c>
+      <c r="F144" s="5"/>
       <c r="G144" s="20"/>
       <c r="H144" s="12"/>
-      <c r="I144" s="12">
-        <v>150.0</v>
+      <c r="I144" s="9">
+        <v>90.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B145" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B145" s="5"/>
       <c r="C145" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="D145" s="5"/>
+        <v>228</v>
+      </c>
+      <c r="D145" s="17"/>
       <c r="E145" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F145" s="5"/>
       <c r="G145" s="20"/>
       <c r="H145" s="12"/>
-      <c r="I145" s="9">
-        <v>150.0</v>
+      <c r="I145" s="12">
+        <v>110.0</v>
       </c>
     </row>
     <row r="146">
@@ -4215,277 +4221,281 @@
       </c>
       <c r="B146" s="5"/>
       <c r="C146" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="D146" s="5"/>
-      <c r="E146" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
+      </c>
+      <c r="D146" s="17"/>
+      <c r="E146" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="F146" s="5"/>
       <c r="G146" s="20"/>
       <c r="H146" s="12"/>
-      <c r="I146" s="9">
-        <v>90.0</v>
+      <c r="I146" s="12">
+        <v>120.0</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B147" s="22" t="s">
+      <c r="A147" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B147" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C147" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D147" s="5"/>
-      <c r="E147" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="F147" s="5"/>
+      <c r="C147" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D147" s="17"/>
+      <c r="E147" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F147" s="17"/>
       <c r="G147" s="20"/>
       <c r="H147" s="12"/>
-      <c r="I147" s="9">
-        <v>110.0</v>
+      <c r="I147" s="12">
+        <v>150.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B148" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C148" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="D148" s="17"/>
+        <v>234</v>
+      </c>
+      <c r="D148" s="5"/>
       <c r="E148" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="20"/>
       <c r="H148" s="12"/>
       <c r="I148" s="9">
-        <v>100.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B149" s="5"/>
       <c r="C149" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="D149" s="17"/>
-      <c r="E149" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
+      </c>
+      <c r="D149" s="5"/>
+      <c r="E149" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="F149" s="5"/>
       <c r="G149" s="20"/>
       <c r="H149" s="12"/>
       <c r="I149" s="9">
-        <v>70.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B150" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="D150" s="17"/>
-      <c r="E150" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
+      </c>
+      <c r="D150" s="5"/>
+      <c r="E150" s="11" t="s">
+        <v>239</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="20"/>
       <c r="H150" s="12"/>
       <c r="I150" s="9">
-        <v>260.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B151" s="5"/>
       <c r="C151" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D151" s="17"/>
-      <c r="E151" s="10" t="s">
-        <v>243</v>
+      <c r="E151" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="20"/>
       <c r="H151" s="12"/>
       <c r="I151" s="9">
-        <v>210.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B152" s="5"/>
       <c r="C152" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D152" s="17"/>
-      <c r="E152" s="10" t="s">
-        <v>245</v>
+      <c r="E152" s="7" t="s">
+        <v>243</v>
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="20"/>
       <c r="H152" s="12"/>
       <c r="I152" s="9">
-        <v>210.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="5" t="s">
+      <c r="A153" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C153" s="7" t="s">
-        <v>246</v>
+      <c r="C153" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="D153" s="17"/>
-      <c r="E153" s="7" t="s">
-        <v>247</v>
+      <c r="E153" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="F153" s="5"/>
       <c r="G153" s="20"/>
       <c r="H153" s="12"/>
       <c r="I153" s="9">
-        <v>210.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B154" s="11" t="s">
+      <c r="A154" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B154" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C154" s="11" t="s">
-        <v>248</v>
+      <c r="C154" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="D154" s="17"/>
-      <c r="E154" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="F154" s="17"/>
+      <c r="E154" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="F154" s="5"/>
       <c r="G154" s="20"/>
       <c r="H154" s="12"/>
       <c r="I154" s="9">
-        <v>170.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B155" s="7" t="s">
+      <c r="A155" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B155" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D155" s="5"/>
-      <c r="E155" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
+      </c>
+      <c r="D155" s="17"/>
+      <c r="E155" s="10" t="s">
+        <v>249</v>
       </c>
       <c r="F155" s="5"/>
       <c r="G155" s="20"/>
       <c r="H155" s="12"/>
       <c r="I155" s="9">
-        <v>215.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B156" s="22"/>
-      <c r="C156" s="11" t="s">
+      <c r="A156" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D156" s="17"/>
+      <c r="E156" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="D156" s="5"/>
-      <c r="E156" s="11" t="s">
-        <v>252</v>
       </c>
       <c r="F156" s="5"/>
       <c r="G156" s="20"/>
       <c r="H156" s="12"/>
-      <c r="I156" s="12">
-        <v>20.0</v>
+      <c r="I156" s="9">
+        <v>210.0</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D157" s="17"/>
+      <c r="E157" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F157" s="17"/>
+      <c r="G157" s="20"/>
+      <c r="H157" s="12"/>
+      <c r="I157" s="9">
+        <v>170.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D158" s="5"/>
+      <c r="E158" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F158" s="5"/>
+      <c r="G158" s="20"/>
+      <c r="H158" s="12"/>
+      <c r="I158" s="9">
+        <v>215.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B157" s="22"/>
-      <c r="C157" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D157" s="5"/>
-      <c r="E157" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F157" s="5"/>
-      <c r="G157" s="20"/>
-      <c r="H157" s="9"/>
-      <c r="I157" s="9">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B158" s="5"/>
-      <c r="C158" s="10" t="s">
+      <c r="B159" s="22"/>
+      <c r="C159" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="D158" s="17"/>
-      <c r="E158" s="24" t="s">
+      <c r="D159" s="5"/>
+      <c r="E159" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="F158" s="17"/>
-      <c r="G158" s="20"/>
-      <c r="H158" s="9"/>
-      <c r="I158" s="9">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B159" s="5"/>
-      <c r="C159" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D159" s="17"/>
-      <c r="E159" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F159" s="17"/>
+      <c r="F159" s="5"/>
       <c r="G159" s="20"/>
-      <c r="H159" s="9"/>
-      <c r="I159" s="9">
+      <c r="H159" s="12"/>
+      <c r="I159" s="12">
         <v>20.0</v>
       </c>
     </row>
@@ -4493,38 +4503,38 @@
       <c r="A160" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B160" s="5"/>
+      <c r="B160" s="22"/>
       <c r="C160" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D160" s="5"/>
+      <c r="E160" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F160" s="5"/>
+      <c r="G160" s="20"/>
+      <c r="H160" s="9"/>
+      <c r="I160" s="9">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B161" s="5"/>
+      <c r="C161" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="D160" s="17"/>
-      <c r="E160" s="7" t="s">
+      <c r="D161" s="17"/>
+      <c r="E161" s="24" t="s">
         <v>260</v>
-      </c>
-      <c r="F160" s="17"/>
-      <c r="G160" s="20"/>
-      <c r="H160" s="12"/>
-      <c r="I160" s="12">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B161" s="5"/>
-      <c r="C161" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="D161" s="17"/>
-      <c r="E161" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="F161" s="17"/>
       <c r="G161" s="20"/>
-      <c r="H161" s="12"/>
-      <c r="I161" s="12">
-        <v>30.0</v>
+      <c r="H161" s="9"/>
+      <c r="I161" s="9">
+        <v>20.0</v>
       </c>
     </row>
     <row r="162">
@@ -4533,16 +4543,16 @@
       </c>
       <c r="B162" s="5"/>
       <c r="C162" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D162" s="17"/>
       <c r="E162" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F162" s="17"/>
       <c r="G162" s="20"/>
-      <c r="H162" s="12"/>
-      <c r="I162" s="12">
+      <c r="H162" s="9"/>
+      <c r="I162" s="9">
         <v>20.0</v>
       </c>
     </row>
@@ -4552,17 +4562,17 @@
       </c>
       <c r="B163" s="5"/>
       <c r="C163" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D163" s="17"/>
       <c r="E163" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F163" s="17"/>
       <c r="G163" s="20"/>
       <c r="H163" s="12"/>
       <c r="I163" s="12">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="164">
@@ -4571,16 +4581,16 @@
       </c>
       <c r="B164" s="5"/>
       <c r="C164" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="D164" s="5"/>
+        <v>265</v>
+      </c>
+      <c r="D164" s="17"/>
       <c r="E164" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F164" s="5"/>
+        <v>266</v>
+      </c>
+      <c r="F164" s="17"/>
       <c r="G164" s="20"/>
       <c r="H164" s="12"/>
-      <c r="I164" s="9">
+      <c r="I164" s="12">
         <v>30.0</v>
       </c>
     </row>
@@ -4590,17 +4600,17 @@
       </c>
       <c r="B165" s="5"/>
       <c r="C165" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D165" s="5"/>
+        <v>267</v>
+      </c>
+      <c r="D165" s="17"/>
       <c r="E165" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="F165" s="5"/>
+        <v>268</v>
+      </c>
+      <c r="F165" s="17"/>
       <c r="G165" s="20"/>
       <c r="H165" s="12"/>
-      <c r="I165" s="9">
-        <v>60.0</v>
+      <c r="I165" s="12">
+        <v>20.0</v>
       </c>
     </row>
     <row r="166">
@@ -4609,17 +4619,17 @@
       </c>
       <c r="B166" s="5"/>
       <c r="C166" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D166" s="5"/>
+        <v>269</v>
+      </c>
+      <c r="D166" s="17"/>
       <c r="E166" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F166" s="5"/>
+        <v>270</v>
+      </c>
+      <c r="F166" s="17"/>
       <c r="G166" s="20"/>
       <c r="H166" s="12"/>
       <c r="I166" s="12">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="167">
@@ -4627,56 +4637,95 @@
         <v>19</v>
       </c>
       <c r="B167" s="5"/>
-      <c r="C167" s="10" t="s">
-        <v>273</v>
+      <c r="C167" s="7" t="s">
+        <v>271</v>
       </c>
       <c r="D167" s="5"/>
-      <c r="E167" s="10" t="s">
-        <v>274</v>
+      <c r="E167" s="7" t="s">
+        <v>272</v>
       </c>
       <c r="F167" s="5"/>
       <c r="G167" s="20"/>
       <c r="H167" s="12"/>
       <c r="I167" s="9">
-        <v>15.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B168" s="17"/>
+      <c r="B168" s="5"/>
       <c r="C168" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F168" s="5"/>
+      <c r="G168" s="20"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="9">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B169" s="5"/>
+      <c r="C169" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D169" s="5"/>
+      <c r="E169" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F168" s="5"/>
-      <c r="G168" s="5"/>
-      <c r="H168" s="12"/>
-      <c r="I168" s="12">
+      <c r="F169" s="5"/>
+      <c r="G169" s="20"/>
+      <c r="H169" s="12"/>
+      <c r="I169" s="12">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B170" s="5"/>
+      <c r="C170" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D170" s="5"/>
+      <c r="E170" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="F170" s="5"/>
+      <c r="G170" s="20"/>
+      <c r="H170" s="12"/>
+      <c r="I170" s="9">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B171" s="17"/>
+      <c r="C171" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D171" s="5"/>
+      <c r="E171" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="12"/>
+      <c r="I171" s="12">
         <v>60.0</v>
       </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="25"/>
-      <c r="B169" s="25"/>
-      <c r="C169" s="25"/>
-      <c r="E169" s="25"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="25"/>
-      <c r="B170" s="25"/>
-      <c r="C170" s="25"/>
-      <c r="E170" s="25"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="25"/>
-      <c r="B171" s="25"/>
-      <c r="C171" s="25"/>
-      <c r="E171" s="25"/>
     </row>
     <row r="172">
       <c r="A172" s="25"/>
@@ -4699,10 +4748,28 @@
     <row r="175">
       <c r="A175" s="25"/>
       <c r="B175" s="25"/>
+      <c r="C175" s="25"/>
+      <c r="E175" s="25"/>
     </row>
     <row r="176">
       <c r="A176" s="25"/>
       <c r="B176" s="25"/>
+      <c r="C176" s="25"/>
+      <c r="E176" s="25"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="25"/>
+      <c r="B177" s="25"/>
+      <c r="C177" s="25"/>
+      <c r="E177" s="25"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="25"/>
+      <c r="B178" s="25"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="25"/>
+      <c r="B179" s="25"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="283">
   <si>
     <t>category</t>
   </si>
@@ -514,10 +514,16 @@
     <t>Nutellalı Pasta</t>
   </si>
   <si>
-    <t>Gluten Free Browni</t>
-  </si>
-  <si>
-    <t>Glutensiz Browni</t>
+    <t>Gluten Free and Vegan BROWNI</t>
+  </si>
+  <si>
+    <t>Glutensiz ve Vegan BROWNI</t>
+  </si>
+  <si>
+    <t>Gluten Free and Vegan CAKE</t>
+  </si>
+  <si>
+    <t>Glutensiz ve Vegan EKLER</t>
   </si>
   <si>
     <r>
@@ -3557,20 +3563,28 @@
       <c r="F111" s="17"/>
       <c r="G111" s="11"/>
       <c r="H111" s="11"/>
-      <c r="I111" s="8"/>
+      <c r="I111" s="8">
+        <v>220.0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B112" s="5"/>
-      <c r="C112" s="7"/>
+      <c r="C112" s="10" t="s">
+        <v>167</v>
+      </c>
       <c r="D112" s="17"/>
-      <c r="E112" s="7"/>
+      <c r="E112" s="10" t="s">
+        <v>168</v>
+      </c>
       <c r="F112" s="17"/>
       <c r="G112" s="11"/>
       <c r="H112" s="11"/>
-      <c r="I112" s="8"/>
+      <c r="I112" s="8">
+        <v>210.0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="22" t="s">
@@ -3580,11 +3594,11 @@
         <v>27</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F113" s="17"/>
       <c r="G113" s="20"/>
@@ -3599,11 +3613,11 @@
       </c>
       <c r="B114" s="22"/>
       <c r="C114" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D114" s="17"/>
       <c r="E114" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F114" s="17"/>
       <c r="G114" s="20"/>
@@ -3618,11 +3632,11 @@
       </c>
       <c r="B115" s="22"/>
       <c r="C115" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D115" s="17"/>
       <c r="E115" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F115" s="17"/>
       <c r="G115" s="20"/>
@@ -3637,11 +3651,11 @@
       </c>
       <c r="B116" s="5"/>
       <c r="C116" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D116" s="17"/>
       <c r="E116" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="20"/>
@@ -3656,11 +3670,11 @@
       </c>
       <c r="B117" s="5"/>
       <c r="C117" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F117" s="5"/>
       <c r="G117" s="20"/>
@@ -3675,11 +3689,11 @@
       </c>
       <c r="B118" s="5"/>
       <c r="C118" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D118" s="17"/>
       <c r="E118" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F118" s="17"/>
       <c r="G118" s="20"/>
@@ -3696,11 +3710,11 @@
         <v>27</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D119" s="17"/>
       <c r="E119" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F119" s="17"/>
       <c r="G119" s="20"/>
@@ -3715,11 +3729,11 @@
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D120" s="17"/>
       <c r="E120" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F120" s="5"/>
       <c r="G120" s="20"/>
@@ -3736,11 +3750,11 @@
         <v>27</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D121" s="17"/>
       <c r="E121" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F121" s="17"/>
       <c r="G121" s="20"/>
@@ -3755,11 +3769,11 @@
       </c>
       <c r="B122" s="5"/>
       <c r="C122" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D122" s="17"/>
       <c r="E122" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F122" s="17"/>
       <c r="G122" s="20"/>
@@ -3774,11 +3788,11 @@
       </c>
       <c r="B123" s="5"/>
       <c r="C123" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D123" s="17"/>
       <c r="E123" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F123" s="17"/>
       <c r="G123" s="20"/>
@@ -3793,11 +3807,11 @@
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="20"/>
@@ -3812,11 +3826,11 @@
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="20"/>
@@ -3831,11 +3845,11 @@
       </c>
       <c r="B126" s="5"/>
       <c r="C126" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="20"/>
@@ -3850,11 +3864,11 @@
       </c>
       <c r="B127" s="5"/>
       <c r="C127" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F127" s="5"/>
       <c r="G127" s="20"/>
@@ -3869,11 +3883,11 @@
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="20"/>
@@ -3888,11 +3902,11 @@
       </c>
       <c r="B129" s="5"/>
       <c r="C129" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F129" s="5"/>
       <c r="G129" s="20"/>
@@ -3909,11 +3923,11 @@
         <v>27</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D130" s="17"/>
       <c r="E130" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F130" s="17"/>
       <c r="G130" s="20"/>
@@ -3928,11 +3942,11 @@
       </c>
       <c r="B131" s="5"/>
       <c r="C131" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="20"/>
@@ -3947,11 +3961,11 @@
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F132" s="5"/>
       <c r="G132" s="20"/>
@@ -3968,11 +3982,11 @@
         <v>27</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D133" s="17"/>
       <c r="E133" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F133" s="17"/>
       <c r="G133" s="20"/>
@@ -3987,11 +4001,11 @@
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D134" s="17"/>
       <c r="E134" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F134" s="17"/>
       <c r="G134" s="20"/>
@@ -4008,11 +4022,11 @@
         <v>27</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F135" s="5"/>
       <c r="G135" s="20"/>
@@ -4027,11 +4041,11 @@
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F136" s="5"/>
       <c r="G136" s="20"/>
@@ -4046,11 +4060,11 @@
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D137" s="17"/>
       <c r="E137" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F137" s="17"/>
       <c r="G137" s="20"/>
@@ -4067,11 +4081,11 @@
         <v>27</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D138" s="17"/>
       <c r="E138" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F138" s="17"/>
       <c r="G138" s="20"/>
@@ -4086,11 +4100,11 @@
       </c>
       <c r="B139" s="5"/>
       <c r="C139" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="20"/>
@@ -4105,11 +4119,11 @@
       </c>
       <c r="B140" s="5"/>
       <c r="C140" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F140" s="5"/>
       <c r="G140" s="20"/>
@@ -4124,11 +4138,11 @@
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F141" s="5"/>
       <c r="G141" s="20"/>
@@ -4143,11 +4157,11 @@
       </c>
       <c r="B142" s="5"/>
       <c r="C142" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F142" s="5"/>
       <c r="G142" s="20"/>
@@ -4162,11 +4176,11 @@
       </c>
       <c r="B143" s="22"/>
       <c r="C143" s="11" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F143" s="5"/>
       <c r="G143" s="20"/>
@@ -4183,11 +4197,11 @@
         <v>27</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D144" s="17"/>
       <c r="E144" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F144" s="5"/>
       <c r="G144" s="20"/>
@@ -4202,11 +4216,11 @@
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D145" s="17"/>
       <c r="E145" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F145" s="5"/>
       <c r="G145" s="20"/>
@@ -4221,11 +4235,11 @@
       </c>
       <c r="B146" s="5"/>
       <c r="C146" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D146" s="17"/>
       <c r="E146" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F146" s="5"/>
       <c r="G146" s="20"/>
@@ -4242,11 +4256,11 @@
         <v>27</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D147" s="17"/>
       <c r="E147" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F147" s="17"/>
       <c r="G147" s="20"/>
@@ -4263,11 +4277,11 @@
         <v>27</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="20"/>
@@ -4282,11 +4296,11 @@
       </c>
       <c r="B149" s="5"/>
       <c r="C149" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F149" s="5"/>
       <c r="G149" s="20"/>
@@ -4303,11 +4317,11 @@
         <v>27</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="11" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="20"/>
@@ -4322,11 +4336,11 @@
       </c>
       <c r="B151" s="5"/>
       <c r="C151" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D151" s="17"/>
       <c r="E151" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="20"/>
@@ -4341,11 +4355,11 @@
       </c>
       <c r="B152" s="5"/>
       <c r="C152" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D152" s="17"/>
       <c r="E152" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="20"/>
@@ -4362,11 +4376,11 @@
         <v>27</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D153" s="17"/>
       <c r="E153" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F153" s="5"/>
       <c r="G153" s="20"/>
@@ -4383,11 +4397,11 @@
         <v>27</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D154" s="17"/>
       <c r="E154" s="10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F154" s="5"/>
       <c r="G154" s="20"/>
@@ -4404,11 +4418,11 @@
         <v>27</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D155" s="17"/>
       <c r="E155" s="10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F155" s="5"/>
       <c r="G155" s="20"/>
@@ -4425,11 +4439,11 @@
         <v>27</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D156" s="17"/>
       <c r="E156" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F156" s="5"/>
       <c r="G156" s="20"/>
@@ -4446,11 +4460,11 @@
         <v>27</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D157" s="17"/>
       <c r="E157" s="11" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F157" s="17"/>
       <c r="G157" s="20"/>
@@ -4467,11 +4481,11 @@
         <v>27</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F158" s="5"/>
       <c r="G158" s="20"/>
@@ -4486,11 +4500,11 @@
       </c>
       <c r="B159" s="22"/>
       <c r="C159" s="11" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="11" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F159" s="5"/>
       <c r="G159" s="20"/>
@@ -4505,11 +4519,11 @@
       </c>
       <c r="B160" s="22"/>
       <c r="C160" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F160" s="5"/>
       <c r="G160" s="20"/>
@@ -4524,11 +4538,11 @@
       </c>
       <c r="B161" s="5"/>
       <c r="C161" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D161" s="17"/>
       <c r="E161" s="24" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F161" s="17"/>
       <c r="G161" s="20"/>
@@ -4543,11 +4557,11 @@
       </c>
       <c r="B162" s="5"/>
       <c r="C162" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D162" s="17"/>
       <c r="E162" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F162" s="17"/>
       <c r="G162" s="20"/>
@@ -4562,11 +4576,11 @@
       </c>
       <c r="B163" s="5"/>
       <c r="C163" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D163" s="17"/>
       <c r="E163" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F163" s="17"/>
       <c r="G163" s="20"/>
@@ -4581,11 +4595,11 @@
       </c>
       <c r="B164" s="5"/>
       <c r="C164" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D164" s="17"/>
       <c r="E164" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F164" s="17"/>
       <c r="G164" s="20"/>
@@ -4600,11 +4614,11 @@
       </c>
       <c r="B165" s="5"/>
       <c r="C165" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D165" s="17"/>
       <c r="E165" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F165" s="17"/>
       <c r="G165" s="20"/>
@@ -4619,11 +4633,11 @@
       </c>
       <c r="B166" s="5"/>
       <c r="C166" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D166" s="17"/>
       <c r="E166" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F166" s="17"/>
       <c r="G166" s="20"/>
@@ -4638,11 +4652,11 @@
       </c>
       <c r="B167" s="5"/>
       <c r="C167" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F167" s="5"/>
       <c r="G167" s="20"/>
@@ -4657,11 +4671,11 @@
       </c>
       <c r="B168" s="5"/>
       <c r="C168" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F168" s="5"/>
       <c r="G168" s="20"/>
@@ -4676,11 +4690,11 @@
       </c>
       <c r="B169" s="5"/>
       <c r="C169" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F169" s="5"/>
       <c r="G169" s="20"/>
@@ -4695,11 +4709,11 @@
       </c>
       <c r="B170" s="5"/>
       <c r="C170" s="10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F170" s="5"/>
       <c r="G170" s="20"/>
@@ -4714,11 +4728,11 @@
       </c>
       <c r="B171" s="17"/>
       <c r="C171" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -3583,7 +3583,7 @@
       <c r="G112" s="11"/>
       <c r="H112" s="11"/>
       <c r="I112" s="8">
-        <v>210.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="113">

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -10,7 +10,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="AMwMzXrMSOdK3voyQVwmsis0S+WjxN7q1Uy/alpnd9I="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="FKmOTYdGV6rnEkPo3D9zw8ShqHBZdMxmExfgUxk//3Q="/>
     </ext>
   </extLst>
 </workbook>
@@ -896,10 +896,10 @@
     <t>İlave Şurup</t>
   </si>
   <si>
-    <t>1 scoop of ice cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Top Dondurma </t>
+    <t>Ice Cream Cone</t>
+  </si>
+  <si>
+    <t>Külah Dondurma</t>
   </si>
   <si>
     <t>2 scoop of ice cream</t>
@@ -4651,18 +4651,18 @@
         <v>19</v>
       </c>
       <c r="B167" s="5"/>
-      <c r="C167" s="7" t="s">
+      <c r="C167" s="10" t="s">
         <v>273</v>
       </c>
       <c r="D167" s="5"/>
-      <c r="E167" s="7" t="s">
+      <c r="E167" s="10" t="s">
         <v>274</v>
       </c>
       <c r="F167" s="5"/>
       <c r="G167" s="20"/>
       <c r="H167" s="12"/>
       <c r="I167" s="9">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="168">
@@ -4681,7 +4681,7 @@
       <c r="G168" s="20"/>
       <c r="H168" s="12"/>
       <c r="I168" s="9">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="169">

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="FKmOTYdGV6rnEkPo3D9zw8ShqHBZdMxmExfgUxk//3Q="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="y4vu/6RgnAd+2Nm4PagwkTqpfoTlliVjUJURSUMmJCc="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="285">
   <si>
     <t>category</t>
   </si>
@@ -902,10 +902,16 @@
     <t>Külah Dondurma</t>
   </si>
   <si>
-    <t>2 scoop of ice cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Top Dondurma </t>
+    <t>Ice CreamCup</t>
+  </si>
+  <si>
+    <t>Karton Bardak Dondurma</t>
+  </si>
+  <si>
+    <t>Fruit Ice Cream</t>
+  </si>
+  <si>
+    <t>Meyveli Dondurma</t>
   </si>
   <si>
     <t xml:space="preserve">Honey </t>
@@ -4670,37 +4676,37 @@
         <v>19</v>
       </c>
       <c r="B168" s="5"/>
-      <c r="C168" s="7" t="s">
+      <c r="C168" s="10" t="s">
         <v>275</v>
       </c>
       <c r="D168" s="5"/>
-      <c r="E168" s="7" t="s">
+      <c r="E168" s="10" t="s">
         <v>276</v>
       </c>
       <c r="F168" s="5"/>
       <c r="G168" s="20"/>
       <c r="H168" s="12"/>
       <c r="I168" s="9">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="5" t="s">
+      <c r="A169" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B169" s="5"/>
-      <c r="C169" s="7" t="s">
+      <c r="C169" s="10" t="s">
         <v>277</v>
       </c>
       <c r="D169" s="5"/>
-      <c r="E169" s="7" t="s">
+      <c r="E169" s="10" t="s">
         <v>278</v>
       </c>
       <c r="F169" s="5"/>
       <c r="G169" s="20"/>
       <c r="H169" s="12"/>
-      <c r="I169" s="12">
-        <v>15.0</v>
+      <c r="I169" s="9">
+        <v>150.0</v>
       </c>
     </row>
     <row r="170">
@@ -4708,17 +4714,17 @@
         <v>19</v>
       </c>
       <c r="B170" s="5"/>
-      <c r="C170" s="10" t="s">
+      <c r="C170" s="7" t="s">
         <v>279</v>
       </c>
       <c r="D170" s="5"/>
-      <c r="E170" s="10" t="s">
+      <c r="E170" s="7" t="s">
         <v>280</v>
       </c>
       <c r="F170" s="5"/>
       <c r="G170" s="20"/>
       <c r="H170" s="12"/>
-      <c r="I170" s="9">
+      <c r="I170" s="12">
         <v>15.0</v>
       </c>
     </row>
@@ -4726,26 +4732,39 @@
       <c r="A171" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B171" s="17"/>
-      <c r="C171" s="7" t="s">
+      <c r="B171" s="5"/>
+      <c r="C171" s="10" t="s">
         <v>281</v>
       </c>
       <c r="D171" s="5"/>
-      <c r="E171" s="7" t="s">
+      <c r="E171" s="10" t="s">
         <v>282</v>
       </c>
       <c r="F171" s="5"/>
-      <c r="G171" s="5"/>
+      <c r="G171" s="20"/>
       <c r="H171" s="12"/>
-      <c r="I171" s="12">
+      <c r="I171" s="9">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B172" s="17"/>
+      <c r="C172" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D172" s="5"/>
+      <c r="E172" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="12"/>
+      <c r="I172" s="12">
         <v>60.0</v>
       </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="25"/>
-      <c r="B172" s="25"/>
-      <c r="C172" s="25"/>
-      <c r="E172" s="25"/>
     </row>
     <row r="173">
       <c r="A173" s="25"/>
@@ -4780,10 +4799,16 @@
     <row r="178">
       <c r="A178" s="25"/>
       <c r="B178" s="25"/>
+      <c r="C178" s="25"/>
+      <c r="E178" s="25"/>
     </row>
     <row r="179">
       <c r="A179" s="25"/>
       <c r="B179" s="25"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="25"/>
+      <c r="B180" s="25"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -1797,7 +1797,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
       <c r="I20" s="9">
         <v>100.0</v>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="y4vu/6RgnAd+2Nm4PagwkTqpfoTlliVjUJURSUMmJCc="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="FKmOTYdGV6rnEkPo3D9zw8ShqHBZdMxmExfgUxk//3Q="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="284">
   <si>
     <t>category</t>
   </si>
@@ -149,9 +149,6 @@
   </si>
   <si>
     <t>Lungo</t>
-  </si>
-  <si>
-    <t>Macchiato</t>
   </si>
   <si>
     <t>Con Panne</t>
@@ -1800,7 +1797,7 @@
         <v>100.0</v>
       </c>
       <c r="I20" s="9">
-        <v>100.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="21">
@@ -1819,7 +1816,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="9">
-        <v>110.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="22">
@@ -1832,40 +1829,42 @@
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="9">
+      <c r="I22" s="8">
         <v>120.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="10" t="s">
-        <v>45</v>
+      <c r="C23" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="10" t="s">
         <v>46</v>
       </c>
       <c r="F23" s="5"/>
-      <c r="G23" s="11"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="8">
-        <v>120.0</v>
+      <c r="I23" s="9">
+        <v>130.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D24" s="5"/>
@@ -1876,27 +1875,25 @@
       <c r="G24" s="12"/>
       <c r="H24" s="11"/>
       <c r="I24" s="9">
-        <v>120.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="10" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="12"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="9">
+      <c r="I25" s="8">
         <v>130.0</v>
       </c>
     </row>
@@ -1916,13 +1913,11 @@
       <c r="G26" s="12"/>
       <c r="H26" s="11"/>
       <c r="I26" s="8">
-        <v>120.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
         <v>50</v>
@@ -1935,12 +1930,16 @@
       <c r="G27" s="12"/>
       <c r="H27" s="11"/>
       <c r="I27" s="8">
-        <v>125.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C28" s="7" t="s">
         <v>51</v>
       </c>
@@ -1959,9 +1958,7 @@
       <c r="A29" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="B29" s="7"/>
       <c r="C29" s="7" t="s">
         <v>52</v>
       </c>
@@ -1969,11 +1966,11 @@
       <c r="E29" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="12"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="14"/>
       <c r="H29" s="11"/>
       <c r="I29" s="8">
-        <v>125.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="30">
@@ -1984,15 +1981,15 @@
       <c r="C30" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="12"/>
       <c r="H30" s="11"/>
       <c r="I30" s="8">
-        <v>125.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="31">
@@ -2000,58 +1997,58 @@
         <v>3</v>
       </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="10" t="s">
         <v>54</v>
       </c>
       <c r="D31" s="15"/>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="12"/>
       <c r="H31" s="11"/>
       <c r="I31" s="8">
-        <v>145.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>55</v>
       </c>
       <c r="D32" s="15"/>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="5"/>
+      <c r="F32" s="15"/>
       <c r="G32" s="12"/>
       <c r="H32" s="11"/>
       <c r="I32" s="8">
-        <v>145.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="16" t="s">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="15"/>
-      <c r="E33" s="16" t="s">
-        <v>56</v>
+      <c r="E33" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="12"/>
       <c r="H33" s="11"/>
       <c r="I33" s="8">
-        <v>120.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="34">
@@ -2060,7 +2057,7 @@
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="7" t="s">
@@ -2070,7 +2067,7 @@
       <c r="G34" s="12"/>
       <c r="H34" s="11"/>
       <c r="I34" s="8">
-        <v>120.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="35">
@@ -2089,7 +2086,7 @@
       <c r="G35" s="12"/>
       <c r="H35" s="11"/>
       <c r="I35" s="8">
-        <v>155.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="36">
@@ -2102,13 +2099,15 @@
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F36" s="15"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="8">
-        <v>155.0</v>
+      <c r="G36" s="11"/>
+      <c r="H36" s="8">
+        <v>115.0</v>
+      </c>
+      <c r="I36" s="9">
+        <v>115.0</v>
       </c>
     </row>
     <row r="37">
@@ -2117,19 +2116,19 @@
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="11"/>
       <c r="H37" s="8">
-        <v>105.0</v>
+        <v>115.0</v>
       </c>
       <c r="I37" s="9">
-        <v>115.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="38">
@@ -2138,11 +2137,11 @@
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="11"/>
@@ -2154,47 +2153,45 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="7" t="s">
+      <c r="A39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>66</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="11"/>
       <c r="H39" s="8">
-        <v>115.0</v>
-      </c>
-      <c r="I39" s="9">
-        <v>120.0</v>
+        <v>30.0</v>
+      </c>
+      <c r="I39" s="8">
+        <v>50.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>67</v>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="D40" s="17"/>
-      <c r="E40" s="11" t="s">
-        <v>68</v>
+      <c r="E40" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="F40" s="15"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="8">
-        <v>30.0</v>
-      </c>
-      <c r="I40" s="8">
-        <v>50.0</v>
+      <c r="G40" s="12"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="9">
+        <v>135.0</v>
       </c>
     </row>
     <row r="41">
@@ -2203,11 +2200,11 @@
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F41" s="15"/>
       <c r="G41" s="12"/>
@@ -2222,17 +2219,17 @@
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F42" s="15"/>
+        <v>73</v>
+      </c>
+      <c r="F42" s="17"/>
       <c r="G42" s="12"/>
       <c r="H42" s="11"/>
       <c r="I42" s="9">
-        <v>135.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="43">
@@ -2241,11 +2238,11 @@
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D43" s="17"/>
+        <v>74</v>
+      </c>
+      <c r="D43" s="5"/>
       <c r="E43" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F43" s="17"/>
       <c r="G43" s="12"/>
@@ -2260,14 +2257,14 @@
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F44" s="17"/>
-      <c r="G44" s="12"/>
+      <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="9">
         <v>125.0</v>
@@ -2279,14 +2276,14 @@
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F45" s="17"/>
-      <c r="G45" s="11"/>
+      <c r="G45" s="12"/>
       <c r="H45" s="11"/>
       <c r="I45" s="9">
         <v>125.0</v>
@@ -2298,18 +2295,19 @@
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F46" s="17"/>
+        <v>81</v>
+      </c>
+      <c r="F46" s="15"/>
       <c r="G46" s="12"/>
       <c r="H46" s="11"/>
       <c r="I46" s="9">
         <v>125.0</v>
       </c>
+      <c r="J46" s="18"/>
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
@@ -2317,13 +2315,13 @@
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="D47" s="15"/>
       <c r="E47" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F47" s="15"/>
+        <v>83</v>
+      </c>
+      <c r="F47" s="5"/>
       <c r="G47" s="12"/>
       <c r="H47" s="11"/>
       <c r="I47" s="9">
@@ -2335,13 +2333,15 @@
       <c r="A48" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="7"/>
+      <c r="B48" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C48" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="12"/>
@@ -2352,57 +2352,55 @@
       <c r="J48" s="18"/>
     </row>
     <row r="49">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>85</v>
+      <c r="B49" s="11"/>
+      <c r="C49" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="D49" s="15"/>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="10" t="s">
         <v>86</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="12"/>
       <c r="H49" s="11"/>
       <c r="I49" s="9">
-        <v>125.0</v>
+        <v>150.0</v>
       </c>
       <c r="J49" s="18"/>
     </row>
     <row r="50">
-      <c r="A50" s="10" t="s">
-        <v>4</v>
+      <c r="A50" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="B50" s="11"/>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="11" t="s">
         <v>87</v>
       </c>
       <c r="D50" s="15"/>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="11" t="s">
         <v>87</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="12"/>
       <c r="H50" s="11"/>
       <c r="I50" s="9">
-        <v>150.0</v>
+        <v>125.0</v>
       </c>
       <c r="J50" s="18"/>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11" t="s">
+      <c r="B51" s="7"/>
+      <c r="C51" s="7" t="s">
         <v>88</v>
       </c>
       <c r="D51" s="15"/>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="7" t="s">
         <v>88</v>
       </c>
       <c r="F51" s="5"/>
@@ -2411,7 +2409,6 @@
       <c r="I51" s="9">
         <v>125.0</v>
       </c>
-      <c r="J51" s="18"/>
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
@@ -2437,11 +2434,11 @@
         <v>5</v>
       </c>
       <c r="B53" s="7"/>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="19" t="s">
         <v>90</v>
       </c>
       <c r="D53" s="15"/>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="19" t="s">
         <v>90</v>
       </c>
       <c r="F53" s="5"/>
@@ -2456,11 +2453,11 @@
         <v>5</v>
       </c>
       <c r="B54" s="7"/>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D54" s="15"/>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="7" t="s">
         <v>91</v>
       </c>
       <c r="F54" s="5"/>
@@ -2516,11 +2513,11 @@
       <c r="C57" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D57" s="15"/>
+      <c r="D57" s="17"/>
       <c r="E57" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F57" s="5"/>
+      <c r="F57" s="17"/>
       <c r="G57" s="12"/>
       <c r="H57" s="11"/>
       <c r="I57" s="9">
@@ -2551,11 +2548,11 @@
         <v>5</v>
       </c>
       <c r="B59" s="7"/>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="19" t="s">
         <v>96</v>
       </c>
       <c r="D59" s="17"/>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="19" t="s">
         <v>96</v>
       </c>
       <c r="F59" s="17"/>
@@ -2566,34 +2563,34 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="19" t="s">
+      <c r="A60" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11" t="s">
         <v>97</v>
       </c>
       <c r="D60" s="17"/>
-      <c r="E60" s="19" t="s">
-        <v>97</v>
+      <c r="E60" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="F60" s="17"/>
       <c r="G60" s="12"/>
       <c r="H60" s="11"/>
-      <c r="I60" s="9">
-        <v>125.0</v>
+      <c r="I60" s="8">
+        <v>150.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11" t="s">
-        <v>98</v>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="D61" s="17"/>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="7" t="s">
         <v>99</v>
       </c>
       <c r="F61" s="17"/>
@@ -2632,69 +2629,71 @@
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F63" s="17"/>
       <c r="G63" s="12"/>
       <c r="H63" s="11"/>
-      <c r="I63" s="8">
-        <v>150.0</v>
+      <c r="I63" s="9">
+        <v>110.0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7" t="s">
-        <v>102</v>
+      <c r="A64" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="D64" s="17"/>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="11" t="s">
         <v>103</v>
       </c>
       <c r="F64" s="17"/>
       <c r="G64" s="12"/>
       <c r="H64" s="11"/>
       <c r="I64" s="9">
-        <v>110.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11" t="s">
+      <c r="B65" s="7"/>
+      <c r="C65" s="7" t="s">
         <v>104</v>
       </c>
       <c r="D65" s="17"/>
-      <c r="E65" s="11" t="s">
-        <v>104</v>
+      <c r="E65" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="F65" s="17"/>
       <c r="G65" s="12"/>
       <c r="H65" s="11"/>
       <c r="I65" s="9">
-        <v>100.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="7"/>
+      <c r="B66" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C66" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="7" t="s">
         <v>106</v>
       </c>
       <c r="F66" s="17"/>
-      <c r="G66" s="12"/>
+      <c r="G66" s="20"/>
       <c r="H66" s="11"/>
-      <c r="I66" s="9">
+      <c r="I66" s="8">
         <v>130.0</v>
       </c>
     </row>
@@ -2702,9 +2701,7 @@
       <c r="A67" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="B67" s="7"/>
       <c r="C67" s="7" t="s">
         <v>107</v>
       </c>
@@ -2716,7 +2713,7 @@
       <c r="G67" s="20"/>
       <c r="H67" s="11"/>
       <c r="I67" s="8">
-        <v>130.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="68">
@@ -2735,7 +2732,7 @@
       <c r="G68" s="20"/>
       <c r="H68" s="11"/>
       <c r="I68" s="8">
-        <v>135.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="69">
@@ -2754,7 +2751,7 @@
       <c r="G69" s="20"/>
       <c r="H69" s="11"/>
       <c r="I69" s="8">
-        <v>145.0</v>
+        <v>155.0</v>
       </c>
     </row>
     <row r="70">
@@ -2780,7 +2777,9 @@
       <c r="A71" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="7"/>
+      <c r="B71" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C71" s="7" t="s">
         <v>111</v>
       </c>
@@ -2792,28 +2791,26 @@
       <c r="G71" s="20"/>
       <c r="H71" s="11"/>
       <c r="I71" s="8">
-        <v>155.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C72" s="7" t="s">
+      <c r="B72" s="7"/>
+      <c r="C72" s="19" t="s">
         <v>112</v>
       </c>
       <c r="D72" s="17"/>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="19" t="s">
         <v>112</v>
       </c>
       <c r="F72" s="17"/>
       <c r="G72" s="20"/>
       <c r="H72" s="11"/>
       <c r="I72" s="8">
-        <v>135.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="73">
@@ -2829,74 +2826,74 @@
         <v>113</v>
       </c>
       <c r="F73" s="17"/>
-      <c r="G73" s="20"/>
+      <c r="G73" s="11"/>
       <c r="H73" s="11"/>
       <c r="I73" s="8">
         <v>165.0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="19" t="s">
+      <c r="B74" s="11"/>
+      <c r="C74" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D74" s="17"/>
-      <c r="E74" s="19" t="s">
+      <c r="D74" s="15"/>
+      <c r="E74" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F74" s="17"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="20"/>
       <c r="I74" s="8">
-        <v>165.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="10" t="s">
-        <v>8</v>
+      <c r="A75" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="B75" s="11"/>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="11" t="s">
         <v>115</v>
       </c>
       <c r="D75" s="15"/>
-      <c r="E75" s="10" t="s">
-        <v>115</v>
+      <c r="E75" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="12"/>
       <c r="H75" s="20"/>
       <c r="I75" s="8">
-        <v>130.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B76" s="11"/>
-      <c r="C76" s="11" t="s">
-        <v>116</v>
+      <c r="C76" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="D76" s="15"/>
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="7" t="s">
         <v>117</v>
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="12"/>
       <c r="H76" s="20"/>
       <c r="I76" s="8">
-        <v>165.0</v>
+        <v>195.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="11"/>
+      <c r="B77" s="7"/>
       <c r="C77" s="7" t="s">
         <v>118</v>
       </c>
@@ -2908,7 +2905,7 @@
       <c r="G77" s="12"/>
       <c r="H77" s="20"/>
       <c r="I77" s="8">
-        <v>195.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="78">
@@ -2953,40 +2950,40 @@
       <c r="A80" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="7"/>
+      <c r="B80" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C80" s="7" t="s">
         <v>121</v>
       </c>
       <c r="D80" s="15"/>
       <c r="E80" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="12"/>
-      <c r="H80" s="20"/>
+      <c r="H80" s="11"/>
       <c r="I80" s="8">
-        <v>165.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B81" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="B81" s="7"/>
       <c r="C81" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D81" s="15"/>
+        <v>123</v>
+      </c>
+      <c r="D81" s="17"/>
       <c r="E81" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F81" s="5"/>
+      <c r="F81" s="17"/>
       <c r="G81" s="12"/>
-      <c r="H81" s="11"/>
+      <c r="H81" s="20"/>
       <c r="I81" s="8">
-        <v>125.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="82">
@@ -2997,15 +2994,15 @@
       <c r="C82" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D82" s="17"/>
+      <c r="D82" s="21"/>
       <c r="E82" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F82" s="17"/>
+      <c r="F82" s="21"/>
       <c r="G82" s="12"/>
       <c r="H82" s="20"/>
       <c r="I82" s="8">
-        <v>160.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="83">
@@ -3016,15 +3013,15 @@
       <c r="C83" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D83" s="21"/>
+      <c r="D83" s="17"/>
       <c r="E83" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F83" s="21"/>
+      <c r="F83" s="17"/>
       <c r="G83" s="12"/>
       <c r="H83" s="20"/>
       <c r="I83" s="8">
-        <v>145.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="84">
@@ -3040,10 +3037,10 @@
         <v>126</v>
       </c>
       <c r="F84" s="17"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="11"/>
       <c r="I84" s="8">
-        <v>165.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="85">
@@ -3056,13 +3053,13 @@
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F85" s="17"/>
-      <c r="G85" s="20"/>
+        <v>128</v>
+      </c>
+      <c r="F85" s="21"/>
+      <c r="G85" s="12"/>
       <c r="H85" s="11"/>
-      <c r="I85" s="8">
-        <v>160.0</v>
+      <c r="I85" s="11">
+        <v>90.0</v>
       </c>
     </row>
     <row r="86">
@@ -3071,17 +3068,17 @@
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F86" s="21"/>
       <c r="G86" s="12"/>
       <c r="H86" s="11"/>
-      <c r="I86" s="11">
-        <v>90.0</v>
+      <c r="I86" s="8">
+        <v>110.0</v>
       </c>
     </row>
     <row r="87">
@@ -3090,17 +3087,17 @@
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D87" s="17"/>
       <c r="E87" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F87" s="21"/>
+      <c r="F87" s="17"/>
       <c r="G87" s="12"/>
       <c r="H87" s="11"/>
       <c r="I87" s="8">
-        <v>110.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="88">
@@ -3119,7 +3116,7 @@
       <c r="G88" s="12"/>
       <c r="H88" s="11"/>
       <c r="I88" s="8">
-        <v>165.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="89">
@@ -3138,7 +3135,7 @@
       <c r="G89" s="12"/>
       <c r="H89" s="11"/>
       <c r="I89" s="8">
-        <v>145.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="90">
@@ -3156,15 +3153,17 @@
       <c r="F90" s="17"/>
       <c r="G90" s="12"/>
       <c r="H90" s="11"/>
-      <c r="I90" s="8">
-        <v>165.0</v>
+      <c r="I90" s="9">
+        <v>110.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="7"/>
+      <c r="B91" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C91" s="7" t="s">
         <v>135</v>
       </c>
@@ -3176,28 +3175,26 @@
       <c r="G91" s="12"/>
       <c r="H91" s="11"/>
       <c r="I91" s="9">
-        <v>110.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B92" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C92" s="7" t="s">
+      <c r="B92" s="7"/>
+      <c r="C92" s="10" t="s">
         <v>136</v>
       </c>
       <c r="D92" s="17"/>
-      <c r="E92" s="7" t="s">
+      <c r="E92" s="10" t="s">
         <v>136</v>
       </c>
       <c r="F92" s="17"/>
       <c r="G92" s="12"/>
       <c r="H92" s="11"/>
       <c r="I92" s="9">
-        <v>120.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="93">
@@ -3220,37 +3217,37 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B94" s="7"/>
-      <c r="C94" s="10" t="s">
+      <c r="B94" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" s="7" t="s">
         <v>138</v>
       </c>
       <c r="D94" s="17"/>
-      <c r="E94" s="10" t="s">
-        <v>138</v>
+      <c r="E94" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="F94" s="17"/>
       <c r="G94" s="12"/>
       <c r="H94" s="11"/>
-      <c r="I94" s="9">
-        <v>165.0</v>
+      <c r="I94" s="8">
+        <v>110.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="B95" s="7"/>
       <c r="C95" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D95" s="17"/>
       <c r="E95" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F95" s="17"/>
       <c r="G95" s="12"/>
@@ -3264,8 +3261,8 @@
         <v>9</v>
       </c>
       <c r="B96" s="7"/>
-      <c r="C96" s="7" t="s">
-        <v>141</v>
+      <c r="C96" s="19" t="s">
+        <v>142</v>
       </c>
       <c r="D96" s="17"/>
       <c r="E96" s="7" t="s">
@@ -3275,45 +3272,47 @@
       <c r="G96" s="12"/>
       <c r="H96" s="11"/>
       <c r="I96" s="8">
-        <v>110.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B97" s="7"/>
-      <c r="C97" s="19" t="s">
+      <c r="A97" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11" t="s">
         <v>143</v>
       </c>
       <c r="D97" s="17"/>
-      <c r="E97" s="7" t="s">
-        <v>143</v>
+      <c r="E97" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="F97" s="17"/>
       <c r="G97" s="12"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="8">
-        <v>95.0</v>
+      <c r="H97" s="8"/>
+      <c r="I97" s="9">
+        <v>70.0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11" t="s">
-        <v>144</v>
+      <c r="B98" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="D98" s="17"/>
-      <c r="E98" s="11" t="s">
+      <c r="E98" s="7" t="s">
         <v>145</v>
       </c>
       <c r="F98" s="17"/>
       <c r="G98" s="12"/>
-      <c r="H98" s="8"/>
+      <c r="H98" s="11"/>
       <c r="I98" s="9">
-        <v>70.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="99">
@@ -3331,8 +3330,8 @@
         <v>146</v>
       </c>
       <c r="F99" s="17"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="8"/>
       <c r="I99" s="9">
         <v>85.0</v>
       </c>
@@ -3349,34 +3348,32 @@
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F100" s="17"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="8"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="11"/>
       <c r="I100" s="9">
-        <v>85.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="B101" s="7"/>
       <c r="C101" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F101" s="17"/>
       <c r="G101" s="12"/>
       <c r="H101" s="11"/>
       <c r="I101" s="9">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="102">
@@ -3385,17 +3382,17 @@
       </c>
       <c r="B102" s="7"/>
       <c r="C102" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D102" s="17"/>
       <c r="E102" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F102" s="17"/>
-      <c r="G102" s="12"/>
+      <c r="G102" s="11"/>
       <c r="H102" s="11"/>
       <c r="I102" s="9">
-        <v>50.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="103">
@@ -3404,7 +3401,7 @@
       </c>
       <c r="B103" s="7"/>
       <c r="C103" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D103" s="17"/>
       <c r="E103" s="7" t="s">
@@ -3414,7 +3411,7 @@
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
       <c r="I103" s="9">
-        <v>55.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="104">
@@ -3427,9 +3424,9 @@
       </c>
       <c r="D104" s="17"/>
       <c r="E104" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F104" s="17"/>
+        <v>155</v>
+      </c>
+      <c r="F104" s="5"/>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
       <c r="I104" s="9">
@@ -3437,36 +3434,36 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7" t="s">
-        <v>155</v>
+      <c r="A105" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="D105" s="17"/>
-      <c r="E105" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F105" s="5"/>
+      <c r="E105" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F105" s="17"/>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
-      <c r="I105" s="9">
-        <v>40.0</v>
+      <c r="I105" s="8">
+        <v>185.0</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="22" t="s">
+      <c r="A106" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D106" s="17"/>
-      <c r="E106" s="11" t="s">
+      <c r="B106" s="5"/>
+      <c r="C106" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D106" s="15"/>
+      <c r="E106" s="7" t="s">
         <v>158</v>
       </c>
       <c r="F106" s="17"/>
@@ -3480,11 +3477,13 @@
       <c r="A107" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B107" s="5"/>
+      <c r="B107" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C107" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D107" s="15"/>
+      <c r="D107" s="17"/>
       <c r="E107" s="7" t="s">
         <v>159</v>
       </c>
@@ -3499,15 +3498,13 @@
       <c r="A108" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B108" s="5"/>
       <c r="C108" s="7" t="s">
         <v>160</v>
       </c>
       <c r="D108" s="17"/>
       <c r="E108" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F108" s="17"/>
       <c r="G108" s="11"/>
@@ -3522,11 +3519,11 @@
       </c>
       <c r="B109" s="5"/>
       <c r="C109" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F109" s="17"/>
       <c r="G109" s="11"/>
@@ -3536,22 +3533,22 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B110" s="5"/>
-      <c r="C110" s="7" t="s">
-        <v>163</v>
+      <c r="C110" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="D110" s="17"/>
-      <c r="E110" s="7" t="s">
-        <v>164</v>
+      <c r="E110" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="F110" s="17"/>
       <c r="G110" s="11"/>
       <c r="H110" s="11"/>
       <c r="I110" s="8">
-        <v>185.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="111">
@@ -3560,57 +3557,57 @@
       </c>
       <c r="B111" s="5"/>
       <c r="C111" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D111" s="17"/>
       <c r="E111" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F111" s="17"/>
       <c r="G111" s="11"/>
       <c r="H111" s="11"/>
       <c r="I111" s="8">
-        <v>220.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B112" s="5"/>
-      <c r="C112" s="10" t="s">
-        <v>167</v>
+      <c r="A112" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="D112" s="17"/>
-      <c r="E112" s="10" t="s">
-        <v>168</v>
+      <c r="E112" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="F112" s="17"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="11"/>
-      <c r="I112" s="8">
-        <v>240.0</v>
+      <c r="G112" s="20"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="9">
+        <v>215.0</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="22" t="s">
+      <c r="A113" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B113" s="22" t="s">
-        <v>27</v>
-      </c>
+      <c r="B113" s="22"/>
       <c r="C113" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D113" s="17"/>
-      <c r="E113" s="7" t="s">
-        <v>170</v>
+      <c r="E113" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="F113" s="17"/>
       <c r="G113" s="20"/>
       <c r="H113" s="12"/>
       <c r="I113" s="9">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="114">
@@ -3619,11 +3616,11 @@
       </c>
       <c r="B114" s="22"/>
       <c r="C114" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D114" s="17"/>
       <c r="E114" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F114" s="17"/>
       <c r="G114" s="20"/>
@@ -3636,19 +3633,19 @@
       <c r="A115" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B115" s="22"/>
-      <c r="C115" s="11" t="s">
-        <v>173</v>
+      <c r="B115" s="5"/>
+      <c r="C115" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="D115" s="17"/>
-      <c r="E115" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="F115" s="17"/>
+      <c r="E115" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F115" s="5"/>
       <c r="G115" s="20"/>
       <c r="H115" s="12"/>
       <c r="I115" s="9">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="116">
@@ -3657,7 +3654,7 @@
       </c>
       <c r="B116" s="5"/>
       <c r="C116" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D116" s="17"/>
       <c r="E116" s="7" t="s">
@@ -3680,26 +3677,28 @@
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F117" s="5"/>
+        <v>178</v>
+      </c>
+      <c r="F117" s="17"/>
       <c r="G117" s="20"/>
       <c r="H117" s="12"/>
       <c r="I117" s="9">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B118" s="5"/>
+      <c r="B118" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C118" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D118" s="17"/>
       <c r="E118" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F118" s="17"/>
       <c r="G118" s="20"/>
@@ -3712,17 +3711,15 @@
       <c r="A119" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B119" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B119" s="5"/>
       <c r="C119" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D119" s="17"/>
       <c r="E119" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F119" s="17"/>
+        <v>182</v>
+      </c>
+      <c r="F119" s="5"/>
       <c r="G119" s="20"/>
       <c r="H119" s="12"/>
       <c r="I119" s="9">
@@ -3733,34 +3730,34 @@
       <c r="A120" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B120" s="5"/>
+      <c r="B120" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C120" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D120" s="17"/>
       <c r="E120" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F120" s="5"/>
+        <v>184</v>
+      </c>
+      <c r="F120" s="17"/>
       <c r="G120" s="20"/>
       <c r="H120" s="12"/>
       <c r="I120" s="9">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B121" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B121" s="5"/>
       <c r="C121" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D121" s="17"/>
       <c r="E121" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F121" s="17"/>
       <c r="G121" s="20"/>
@@ -3775,11 +3772,11 @@
       </c>
       <c r="B122" s="5"/>
       <c r="C122" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D122" s="17"/>
       <c r="E122" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F122" s="17"/>
       <c r="G122" s="20"/>
@@ -3794,17 +3791,17 @@
       </c>
       <c r="B123" s="5"/>
       <c r="C123" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D123" s="17"/>
+        <v>189</v>
+      </c>
+      <c r="D123" s="5"/>
       <c r="E123" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F123" s="17"/>
+        <v>190</v>
+      </c>
+      <c r="F123" s="5"/>
       <c r="G123" s="20"/>
       <c r="H123" s="12"/>
       <c r="I123" s="9">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="124">
@@ -3813,17 +3810,17 @@
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="20"/>
       <c r="H124" s="12"/>
       <c r="I124" s="9">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="125">
@@ -3832,17 +3829,17 @@
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="20"/>
       <c r="H125" s="12"/>
       <c r="I125" s="9">
-        <v>220.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="126">
@@ -3851,17 +3848,17 @@
       </c>
       <c r="B126" s="5"/>
       <c r="C126" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="20"/>
       <c r="H126" s="12"/>
       <c r="I126" s="9">
-        <v>215.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="127">
@@ -3870,17 +3867,17 @@
       </c>
       <c r="B127" s="5"/>
       <c r="C127" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F127" s="5"/>
       <c r="G127" s="20"/>
       <c r="H127" s="12"/>
       <c r="I127" s="9">
-        <v>220.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="128">
@@ -3889,57 +3886,57 @@
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="20"/>
       <c r="H128" s="12"/>
       <c r="I128" s="9">
-        <v>210.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B129" s="5"/>
+      <c r="B129" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C129" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D129" s="5"/>
+        <v>201</v>
+      </c>
+      <c r="D129" s="17"/>
       <c r="E129" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F129" s="5"/>
+        <v>202</v>
+      </c>
+      <c r="F129" s="17"/>
       <c r="G129" s="20"/>
       <c r="H129" s="12"/>
       <c r="I129" s="9">
-        <v>80.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B130" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B130" s="5"/>
       <c r="C130" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D130" s="17"/>
+        <v>203</v>
+      </c>
+      <c r="D130" s="5"/>
       <c r="E130" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F130" s="17"/>
+        <v>204</v>
+      </c>
+      <c r="F130" s="5"/>
       <c r="G130" s="20"/>
       <c r="H130" s="12"/>
       <c r="I130" s="9">
-        <v>220.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="131">
@@ -3948,51 +3945,51 @@
       </c>
       <c r="B131" s="5"/>
       <c r="C131" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="20"/>
       <c r="H131" s="12"/>
       <c r="I131" s="9">
-        <v>160.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B132" s="5"/>
+      <c r="B132" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C132" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D132" s="5"/>
-      <c r="E132" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F132" s="5"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F132" s="17"/>
       <c r="G132" s="20"/>
       <c r="H132" s="12"/>
       <c r="I132" s="9">
-        <v>70.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B133" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B133" s="5"/>
       <c r="C133" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D133" s="17"/>
-      <c r="E133" s="10" t="s">
-        <v>209</v>
+      <c r="E133" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="F133" s="17"/>
       <c r="G133" s="20"/>
@@ -4005,15 +4002,17 @@
       <c r="A134" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B134" s="5"/>
+      <c r="B134" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C134" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="D134" s="17"/>
+        <v>211</v>
+      </c>
+      <c r="D134" s="5"/>
       <c r="E134" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F134" s="17"/>
+        <v>212</v>
+      </c>
+      <c r="F134" s="5"/>
       <c r="G134" s="20"/>
       <c r="H134" s="12"/>
       <c r="I134" s="9">
@@ -4024,11 +4023,9 @@
       <c r="A135" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B135" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B135" s="5"/>
       <c r="C135" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="7" t="s">
@@ -4038,7 +4035,7 @@
       <c r="G135" s="20"/>
       <c r="H135" s="12"/>
       <c r="I135" s="9">
-        <v>220.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="136">
@@ -4049,11 +4046,11 @@
       <c r="C136" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D136" s="5"/>
+      <c r="D136" s="17"/>
       <c r="E136" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F136" s="5"/>
+      <c r="F136" s="17"/>
       <c r="G136" s="20"/>
       <c r="H136" s="12"/>
       <c r="I136" s="9">
@@ -4064,13 +4061,15 @@
       <c r="A137" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B137" s="5"/>
+      <c r="B137" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C137" s="7" t="s">
         <v>215</v>
       </c>
       <c r="D137" s="17"/>
       <c r="E137" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F137" s="17"/>
       <c r="G137" s="20"/>
@@ -4083,17 +4082,15 @@
       <c r="A138" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B138" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B138" s="5"/>
       <c r="C138" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D138" s="17"/>
+        <v>217</v>
+      </c>
+      <c r="D138" s="5"/>
       <c r="E138" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F138" s="17"/>
+        <v>218</v>
+      </c>
+      <c r="F138" s="5"/>
       <c r="G138" s="20"/>
       <c r="H138" s="12"/>
       <c r="I138" s="9">
@@ -4106,17 +4103,17 @@
       </c>
       <c r="B139" s="5"/>
       <c r="C139" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="20"/>
       <c r="H139" s="12"/>
       <c r="I139" s="9">
-        <v>185.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="140">
@@ -4125,17 +4122,17 @@
       </c>
       <c r="B140" s="5"/>
       <c r="C140" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F140" s="5"/>
       <c r="G140" s="20"/>
       <c r="H140" s="12"/>
       <c r="I140" s="9">
-        <v>200.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="141">
@@ -4144,76 +4141,76 @@
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F141" s="5"/>
       <c r="G141" s="20"/>
       <c r="H141" s="12"/>
       <c r="I141" s="9">
-        <v>185.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B142" s="5"/>
-      <c r="C142" s="7" t="s">
-        <v>224</v>
+      <c r="A142" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142" s="22"/>
+      <c r="C142" s="11" t="s">
+        <v>225</v>
       </c>
       <c r="D142" s="5"/>
-      <c r="E142" s="7" t="s">
-        <v>225</v>
+      <c r="E142" s="11" t="s">
+        <v>226</v>
       </c>
       <c r="F142" s="5"/>
       <c r="G142" s="20"/>
       <c r="H142" s="12"/>
       <c r="I142" s="9">
-        <v>80.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="22" t="s">
+      <c r="A143" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B143" s="22"/>
-      <c r="C143" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D143" s="5"/>
-      <c r="E143" s="11" t="s">
+      <c r="B143" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C143" s="7" t="s">
         <v>227</v>
+      </c>
+      <c r="D143" s="17"/>
+      <c r="E143" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="F143" s="5"/>
       <c r="G143" s="20"/>
       <c r="H143" s="12"/>
       <c r="I143" s="9">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B144" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B144" s="5"/>
       <c r="C144" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D144" s="17"/>
       <c r="E144" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F144" s="5"/>
       <c r="G144" s="20"/>
       <c r="H144" s="12"/>
-      <c r="I144" s="9">
-        <v>90.0</v>
+      <c r="I144" s="12">
+        <v>110.0</v>
       </c>
     </row>
     <row r="145">
@@ -4222,36 +4219,38 @@
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D145" s="17"/>
       <c r="E145" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F145" s="5"/>
       <c r="G145" s="20"/>
       <c r="H145" s="12"/>
       <c r="I145" s="12">
-        <v>110.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B146" s="5"/>
+      <c r="B146" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C146" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D146" s="17"/>
       <c r="E146" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F146" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="F146" s="17"/>
       <c r="G146" s="20"/>
       <c r="H146" s="12"/>
       <c r="I146" s="12">
-        <v>120.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="147">
@@ -4262,16 +4261,16 @@
         <v>27</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="D147" s="17"/>
+        <v>235</v>
+      </c>
+      <c r="D147" s="5"/>
       <c r="E147" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F147" s="17"/>
+        <v>236</v>
+      </c>
+      <c r="F147" s="5"/>
       <c r="G147" s="20"/>
       <c r="H147" s="12"/>
-      <c r="I147" s="12">
+      <c r="I147" s="9">
         <v>150.0</v>
       </c>
     </row>
@@ -4279,61 +4278,59 @@
       <c r="A148" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B148" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B148" s="5"/>
       <c r="C148" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D148" s="5"/>
-      <c r="E148" s="7" t="s">
-        <v>237</v>
+      <c r="E148" s="10" t="s">
+        <v>238</v>
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="20"/>
       <c r="H148" s="12"/>
       <c r="I148" s="9">
-        <v>150.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B149" s="5"/>
-      <c r="C149" s="7" t="s">
-        <v>238</v>
+      <c r="A149" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B149" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>239</v>
       </c>
       <c r="D149" s="5"/>
-      <c r="E149" s="10" t="s">
-        <v>239</v>
+      <c r="E149" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="F149" s="5"/>
       <c r="G149" s="20"/>
       <c r="H149" s="12"/>
       <c r="I149" s="9">
-        <v>90.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="22" t="s">
+      <c r="A150" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B150" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="D150" s="5"/>
-      <c r="E150" s="11" t="s">
+      <c r="B150" s="5"/>
+      <c r="C150" s="7" t="s">
         <v>241</v>
+      </c>
+      <c r="D150" s="17"/>
+      <c r="E150" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="20"/>
       <c r="H150" s="12"/>
       <c r="I150" s="9">
-        <v>110.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="151">
@@ -4342,57 +4339,59 @@
       </c>
       <c r="B151" s="5"/>
       <c r="C151" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D151" s="17"/>
       <c r="E151" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="20"/>
       <c r="H151" s="12"/>
       <c r="I151" s="9">
-        <v>100.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B152" s="5"/>
-      <c r="C152" s="7" t="s">
-        <v>244</v>
+      <c r="A152" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B152" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="D152" s="17"/>
-      <c r="E152" s="7" t="s">
-        <v>245</v>
+      <c r="E152" s="8" t="s">
+        <v>246</v>
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="20"/>
       <c r="H152" s="12"/>
       <c r="I152" s="9">
-        <v>70.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="22" t="s">
+      <c r="A153" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B153" s="22" t="s">
+      <c r="B153" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C153" s="11" t="s">
-        <v>246</v>
+      <c r="C153" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="D153" s="17"/>
-      <c r="E153" s="8" t="s">
-        <v>247</v>
+      <c r="E153" s="10" t="s">
+        <v>248</v>
       </c>
       <c r="F153" s="5"/>
       <c r="G153" s="20"/>
       <c r="H153" s="12"/>
       <c r="I153" s="9">
-        <v>260.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="154">
@@ -4403,11 +4402,11 @@
         <v>27</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D154" s="17"/>
       <c r="E154" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F154" s="5"/>
       <c r="G154" s="20"/>
@@ -4424,11 +4423,11 @@
         <v>27</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D155" s="17"/>
-      <c r="E155" s="10" t="s">
-        <v>251</v>
+      <c r="E155" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="F155" s="5"/>
       <c r="G155" s="20"/>
@@ -4438,100 +4437,98 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B156" s="5" t="s">
+      <c r="A156" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B156" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C156" s="7" t="s">
-        <v>252</v>
+      <c r="C156" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="D156" s="17"/>
-      <c r="E156" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F156" s="5"/>
+      <c r="E156" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F156" s="17"/>
       <c r="G156" s="20"/>
       <c r="H156" s="12"/>
       <c r="I156" s="9">
-        <v>210.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="11" t="s">
+      <c r="A157" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B157" s="11" t="s">
+      <c r="B157" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C157" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="D157" s="17"/>
-      <c r="E157" s="11" t="s">
+      <c r="C157" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F157" s="17"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F157" s="5"/>
       <c r="G157" s="20"/>
       <c r="H157" s="12"/>
       <c r="I157" s="9">
-        <v>170.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C158" s="7" t="s">
+      <c r="A158" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B158" s="22"/>
+      <c r="C158" s="11" t="s">
         <v>256</v>
       </c>
       <c r="D158" s="5"/>
-      <c r="E158" s="7" t="s">
-        <v>256</v>
+      <c r="E158" s="11" t="s">
+        <v>257</v>
       </c>
       <c r="F158" s="5"/>
       <c r="G158" s="20"/>
       <c r="H158" s="12"/>
-      <c r="I158" s="9">
-        <v>215.0</v>
+      <c r="I158" s="12">
+        <v>20.0</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="22" t="s">
+      <c r="A159" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B159" s="22"/>
-      <c r="C159" s="11" t="s">
-        <v>257</v>
+      <c r="C159" s="7" t="s">
+        <v>258</v>
       </c>
       <c r="D159" s="5"/>
-      <c r="E159" s="11" t="s">
-        <v>258</v>
+      <c r="E159" s="7" t="s">
+        <v>259</v>
       </c>
       <c r="F159" s="5"/>
       <c r="G159" s="20"/>
-      <c r="H159" s="12"/>
-      <c r="I159" s="12">
+      <c r="H159" s="9"/>
+      <c r="I159" s="9">
         <v>20.0</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B160" s="22"/>
-      <c r="C160" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D160" s="5"/>
-      <c r="E160" s="7" t="s">
+      <c r="B160" s="5"/>
+      <c r="C160" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="F160" s="5"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="F160" s="17"/>
       <c r="G160" s="20"/>
       <c r="H160" s="9"/>
       <c r="I160" s="9">
@@ -4539,16 +4536,16 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="23" t="s">
+      <c r="A161" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B161" s="5"/>
-      <c r="C161" s="10" t="s">
-        <v>261</v>
+      <c r="C161" s="7" t="s">
+        <v>262</v>
       </c>
       <c r="D161" s="17"/>
-      <c r="E161" s="24" t="s">
-        <v>262</v>
+      <c r="E161" s="7" t="s">
+        <v>263</v>
       </c>
       <c r="F161" s="17"/>
       <c r="G161" s="20"/>
@@ -4563,17 +4560,17 @@
       </c>
       <c r="B162" s="5"/>
       <c r="C162" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D162" s="17"/>
       <c r="E162" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F162" s="17"/>
       <c r="G162" s="20"/>
-      <c r="H162" s="9"/>
-      <c r="I162" s="9">
-        <v>20.0</v>
+      <c r="H162" s="12"/>
+      <c r="I162" s="12">
+        <v>40.0</v>
       </c>
     </row>
     <row r="163">
@@ -4582,17 +4579,17 @@
       </c>
       <c r="B163" s="5"/>
       <c r="C163" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D163" s="17"/>
       <c r="E163" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F163" s="17"/>
       <c r="G163" s="20"/>
       <c r="H163" s="12"/>
       <c r="I163" s="12">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="164">
@@ -4601,17 +4598,17 @@
       </c>
       <c r="B164" s="5"/>
       <c r="C164" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D164" s="17"/>
       <c r="E164" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F164" s="17"/>
       <c r="G164" s="20"/>
       <c r="H164" s="12"/>
       <c r="I164" s="12">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="165">
@@ -4620,11 +4617,11 @@
       </c>
       <c r="B165" s="5"/>
       <c r="C165" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D165" s="17"/>
       <c r="E165" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F165" s="17"/>
       <c r="G165" s="20"/>
@@ -4638,18 +4635,18 @@
         <v>19</v>
       </c>
       <c r="B166" s="5"/>
-      <c r="C166" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D166" s="17"/>
-      <c r="E166" s="7" t="s">
+      <c r="C166" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="F166" s="17"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F166" s="5"/>
       <c r="G166" s="20"/>
       <c r="H166" s="12"/>
-      <c r="I166" s="12">
-        <v>20.0</v>
+      <c r="I166" s="9">
+        <v>40.0</v>
       </c>
     </row>
     <row r="167">
@@ -4658,55 +4655,55 @@
       </c>
       <c r="B167" s="5"/>
       <c r="C167" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F167" s="5"/>
       <c r="G167" s="20"/>
       <c r="H167" s="12"/>
       <c r="I167" s="9">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="5" t="s">
+      <c r="A168" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B168" s="5"/>
       <c r="C168" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F168" s="5"/>
       <c r="G168" s="20"/>
       <c r="H168" s="12"/>
       <c r="I168" s="9">
-        <v>60.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="23" t="s">
+      <c r="A169" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B169" s="5"/>
-      <c r="C169" s="10" t="s">
-        <v>277</v>
+      <c r="C169" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="D169" s="5"/>
-      <c r="E169" s="10" t="s">
-        <v>278</v>
+      <c r="E169" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="F169" s="5"/>
       <c r="G169" s="20"/>
       <c r="H169" s="12"/>
-      <c r="I169" s="9">
-        <v>150.0</v>
+      <c r="I169" s="12">
+        <v>15.0</v>
       </c>
     </row>
     <row r="170">
@@ -4714,17 +4711,17 @@
         <v>19</v>
       </c>
       <c r="B170" s="5"/>
-      <c r="C170" s="7" t="s">
-        <v>279</v>
+      <c r="C170" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="D170" s="5"/>
-      <c r="E170" s="7" t="s">
-        <v>280</v>
+      <c r="E170" s="10" t="s">
+        <v>281</v>
       </c>
       <c r="F170" s="5"/>
       <c r="G170" s="20"/>
       <c r="H170" s="12"/>
-      <c r="I170" s="12">
+      <c r="I170" s="9">
         <v>15.0</v>
       </c>
     </row>
@@ -4732,39 +4729,26 @@
       <c r="A171" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B171" s="5"/>
-      <c r="C171" s="10" t="s">
-        <v>281</v>
+      <c r="B171" s="17"/>
+      <c r="C171" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="D171" s="5"/>
-      <c r="E171" s="10" t="s">
-        <v>282</v>
+      <c r="E171" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="F171" s="5"/>
-      <c r="G171" s="20"/>
+      <c r="G171" s="5"/>
       <c r="H171" s="12"/>
-      <c r="I171" s="9">
-        <v>15.0</v>
+      <c r="I171" s="12">
+        <v>60.0</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B172" s="17"/>
-      <c r="C172" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="D172" s="5"/>
-      <c r="E172" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F172" s="5"/>
-      <c r="G172" s="5"/>
-      <c r="H172" s="12"/>
-      <c r="I172" s="12">
-        <v>60.0</v>
-      </c>
+      <c r="A172" s="25"/>
+      <c r="B172" s="25"/>
+      <c r="C172" s="25"/>
+      <c r="E172" s="25"/>
     </row>
     <row r="173">
       <c r="A173" s="25"/>
@@ -4799,16 +4783,10 @@
     <row r="178">
       <c r="A178" s="25"/>
       <c r="B178" s="25"/>
-      <c r="C178" s="25"/>
-      <c r="E178" s="25"/>
     </row>
     <row r="179">
       <c r="A179" s="25"/>
       <c r="B179" s="25"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="25"/>
-      <c r="B180" s="25"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="FKmOTYdGV6rnEkPo3D9zw8ShqHBZdMxmExfgUxk//3Q="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="HzO0Fg93vMmzV50RzkVvBi9N5a/l/IdM3dwp0IPGhDo="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="281">
   <si>
     <t>category</t>
   </si>
@@ -262,7 +262,7 @@
     <t>Detox Tea</t>
   </si>
   <si>
-    <t>Detoks Çayı</t>
+    <t>Detox Çayı</t>
   </si>
   <si>
     <t>Dream Tea</t>
@@ -289,9 +289,6 @@
     <t>Tropical Sun</t>
   </si>
   <si>
-    <t>Irish Whsiky-Cream</t>
-  </si>
-  <si>
     <t>Masalia Chai</t>
   </si>
   <si>
@@ -320,12 +317,6 @@
   </si>
   <si>
     <t>Matcha Latte</t>
-  </si>
-  <si>
-    <t>BENEFI Green Tea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENEFI Yeşili </t>
   </si>
   <si>
     <t>Affagato</t>
@@ -2107,7 +2098,7 @@
         <v>115.0</v>
       </c>
       <c r="I36" s="9">
-        <v>115.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="37">
@@ -2125,10 +2116,10 @@
       <c r="F37" s="15"/>
       <c r="G37" s="11"/>
       <c r="H37" s="8">
-        <v>115.0</v>
+        <v>125.0</v>
       </c>
       <c r="I37" s="9">
-        <v>120.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="38">
@@ -2146,10 +2137,10 @@
       <c r="F38" s="15"/>
       <c r="G38" s="11"/>
       <c r="H38" s="8">
-        <v>115.0</v>
+        <v>125.0</v>
       </c>
       <c r="I38" s="9">
-        <v>120.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="39">
@@ -2169,10 +2160,10 @@
       <c r="F39" s="15"/>
       <c r="G39" s="11"/>
       <c r="H39" s="8">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="I39" s="8">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="40">
@@ -2191,7 +2182,7 @@
       <c r="G40" s="12"/>
       <c r="H40" s="11"/>
       <c r="I40" s="9">
-        <v>135.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="41">
@@ -2210,7 +2201,7 @@
       <c r="G41" s="12"/>
       <c r="H41" s="11"/>
       <c r="I41" s="9">
-        <v>135.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="42">
@@ -2229,7 +2220,7 @@
       <c r="G42" s="12"/>
       <c r="H42" s="11"/>
       <c r="I42" s="9">
-        <v>125.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="43">
@@ -2248,7 +2239,7 @@
       <c r="G43" s="12"/>
       <c r="H43" s="11"/>
       <c r="I43" s="9">
-        <v>125.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="44">
@@ -2267,7 +2258,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="9">
-        <v>125.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="45">
@@ -2286,7 +2277,7 @@
       <c r="G45" s="12"/>
       <c r="H45" s="11"/>
       <c r="I45" s="9">
-        <v>125.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="46">
@@ -2298,14 +2289,14 @@
         <v>80</v>
       </c>
       <c r="D46" s="5"/>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="10" t="s">
         <v>81</v>
       </c>
       <c r="F46" s="15"/>
       <c r="G46" s="12"/>
       <c r="H46" s="11"/>
       <c r="I46" s="9">
-        <v>125.0</v>
+        <v>130.0</v>
       </c>
       <c r="J46" s="18"/>
     </row>
@@ -2325,7 +2316,7 @@
       <c r="G47" s="12"/>
       <c r="H47" s="11"/>
       <c r="I47" s="9">
-        <v>125.0</v>
+        <v>130.0</v>
       </c>
       <c r="J47" s="18"/>
     </row>
@@ -2347,7 +2338,7 @@
       <c r="G48" s="12"/>
       <c r="H48" s="11"/>
       <c r="I48" s="9">
-        <v>125.0</v>
+        <v>130.0</v>
       </c>
       <c r="J48" s="18"/>
     </row>
@@ -2387,7 +2378,7 @@
       <c r="G50" s="12"/>
       <c r="H50" s="11"/>
       <c r="I50" s="9">
-        <v>125.0</v>
+        <v>135.0</v>
       </c>
       <c r="J50" s="18"/>
     </row>
@@ -2407,7 +2398,7 @@
       <c r="G51" s="12"/>
       <c r="H51" s="11"/>
       <c r="I51" s="9">
-        <v>125.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="52">
@@ -2426,7 +2417,7 @@
       <c r="G52" s="12"/>
       <c r="H52" s="11"/>
       <c r="I52" s="9">
-        <v>125.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="53">
@@ -2434,18 +2425,18 @@
         <v>5</v>
       </c>
       <c r="B53" s="7"/>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="7" t="s">
         <v>90</v>
       </c>
       <c r="D53" s="15"/>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="7" t="s">
         <v>90</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="12"/>
       <c r="H53" s="11"/>
       <c r="I53" s="9">
-        <v>125.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="54">
@@ -2464,7 +2455,7 @@
       <c r="G54" s="12"/>
       <c r="H54" s="11"/>
       <c r="I54" s="9">
-        <v>125.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="55">
@@ -2483,7 +2474,7 @@
       <c r="G55" s="12"/>
       <c r="H55" s="11"/>
       <c r="I55" s="9">
-        <v>125.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="56">
@@ -2494,15 +2485,15 @@
       <c r="C56" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D56" s="15"/>
+      <c r="D56" s="17"/>
       <c r="E56" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F56" s="5"/>
+      <c r="F56" s="17"/>
       <c r="G56" s="12"/>
       <c r="H56" s="11"/>
       <c r="I56" s="9">
-        <v>125.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="57">
@@ -2521,7 +2512,7 @@
       <c r="G57" s="12"/>
       <c r="H57" s="11"/>
       <c r="I57" s="9">
-        <v>125.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="58">
@@ -2529,49 +2520,49 @@
         <v>5</v>
       </c>
       <c r="B58" s="7"/>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="19" t="s">
         <v>95</v>
       </c>
       <c r="D58" s="17"/>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="19" t="s">
         <v>95</v>
       </c>
       <c r="F58" s="17"/>
       <c r="G58" s="12"/>
       <c r="H58" s="11"/>
       <c r="I58" s="9">
-        <v>125.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="19" t="s">
+      <c r="A59" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11" t="s">
         <v>96</v>
       </c>
       <c r="D59" s="17"/>
-      <c r="E59" s="19" t="s">
-        <v>96</v>
+      <c r="E59" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="F59" s="17"/>
       <c r="G59" s="12"/>
       <c r="H59" s="11"/>
-      <c r="I59" s="9">
-        <v>125.0</v>
+      <c r="I59" s="8">
+        <v>150.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11" t="s">
-        <v>97</v>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D60" s="17"/>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="7" t="s">
         <v>98</v>
       </c>
       <c r="F60" s="17"/>
@@ -2597,31 +2588,31 @@
       <c r="G61" s="12"/>
       <c r="H61" s="11"/>
       <c r="I61" s="8">
-        <v>150.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7" t="s">
+      <c r="A62" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D62" s="17"/>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="11" t="s">
         <v>100</v>
       </c>
       <c r="F62" s="17"/>
       <c r="G62" s="12"/>
       <c r="H62" s="11"/>
-      <c r="I62" s="8">
-        <v>150.0</v>
+      <c r="I62" s="9">
+        <v>130.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7" t="s">
@@ -2635,26 +2626,28 @@
       <c r="G63" s="12"/>
       <c r="H63" s="11"/>
       <c r="I63" s="9">
-        <v>110.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11" t="s">
+      <c r="B64" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="7" t="s">
         <v>103</v>
       </c>
       <c r="D64" s="17"/>
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F64" s="17"/>
-      <c r="G64" s="12"/>
+      <c r="G64" s="20"/>
       <c r="H64" s="11"/>
-      <c r="I64" s="9">
-        <v>100.0</v>
+      <c r="I64" s="8">
+        <v>140.0</v>
       </c>
     </row>
     <row r="65">
@@ -2667,34 +2660,32 @@
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F65" s="17"/>
-      <c r="G65" s="12"/>
+      <c r="G65" s="20"/>
       <c r="H65" s="11"/>
-      <c r="I65" s="9">
-        <v>130.0</v>
+      <c r="I65" s="8">
+        <v>145.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="B66" s="7"/>
       <c r="C66" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F66" s="17"/>
       <c r="G66" s="20"/>
       <c r="H66" s="11"/>
       <c r="I66" s="8">
-        <v>130.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="67">
@@ -2703,17 +2694,17 @@
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F67" s="17"/>
       <c r="G67" s="20"/>
       <c r="H67" s="11"/>
       <c r="I67" s="8">
-        <v>135.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="68">
@@ -2722,36 +2713,38 @@
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D68" s="17"/>
       <c r="E68" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F68" s="17"/>
       <c r="G68" s="20"/>
       <c r="H68" s="11"/>
       <c r="I68" s="8">
-        <v>145.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="7"/>
+      <c r="B69" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C69" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F69" s="17"/>
       <c r="G69" s="20"/>
       <c r="H69" s="11"/>
       <c r="I69" s="8">
-        <v>155.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="70">
@@ -2759,109 +2752,107 @@
         <v>8</v>
       </c>
       <c r="B70" s="7"/>
-      <c r="C70" s="7" t="s">
-        <v>110</v>
+      <c r="C70" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="D70" s="17"/>
-      <c r="E70" s="7" t="s">
-        <v>110</v>
+      <c r="E70" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="F70" s="17"/>
       <c r="G70" s="20"/>
       <c r="H70" s="11"/>
       <c r="I70" s="8">
-        <v>155.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>111</v>
+      <c r="B71" s="7"/>
+      <c r="C71" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="D71" s="17"/>
-      <c r="E71" s="7" t="s">
-        <v>111</v>
+      <c r="E71" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="F71" s="17"/>
-      <c r="G71" s="20"/>
+      <c r="G71" s="11"/>
       <c r="H71" s="11"/>
       <c r="I71" s="8">
-        <v>135.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="19" t="s">
+      <c r="B72" s="11"/>
+      <c r="C72" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D72" s="15"/>
+      <c r="E72" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F72" s="5"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="8">
+        <v>140.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D72" s="17"/>
-      <c r="E72" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F72" s="17"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="8">
-        <v>165.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="19" t="s">
+      <c r="D73" s="15"/>
+      <c r="E73" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D73" s="17"/>
-      <c r="E73" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="F73" s="17"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="20"/>
       <c r="I73" s="8">
         <v>165.0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="10" t="s">
-        <v>8</v>
+      <c r="A74" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B74" s="11"/>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="7" t="s">
         <v>114</v>
       </c>
       <c r="D74" s="15"/>
-      <c r="E74" s="10" t="s">
+      <c r="E74" s="7" t="s">
         <v>114</v>
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="12"/>
       <c r="H74" s="20"/>
       <c r="I74" s="8">
-        <v>130.0</v>
+        <v>195.0</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11" t="s">
+      <c r="B75" s="7"/>
+      <c r="C75" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D75" s="15"/>
-      <c r="E75" s="11" t="s">
-        <v>116</v>
+      <c r="E75" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="12"/>
@@ -2874,19 +2865,19 @@
       <c r="A76" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="11"/>
+      <c r="B76" s="7"/>
       <c r="C76" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D76" s="15"/>
       <c r="E76" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="12"/>
       <c r="H76" s="20"/>
       <c r="I76" s="8">
-        <v>195.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="77">
@@ -2895,11 +2886,11 @@
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D77" s="15"/>
       <c r="E77" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="12"/>
@@ -2912,9 +2903,11 @@
       <c r="A78" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="7"/>
+      <c r="B78" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C78" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D78" s="15"/>
       <c r="E78" s="7" t="s">
@@ -2922,9 +2915,9 @@
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="12"/>
-      <c r="H78" s="20"/>
+      <c r="H78" s="11"/>
       <c r="I78" s="8">
-        <v>165.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="79">
@@ -2935,36 +2928,34 @@
       <c r="C79" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D79" s="15"/>
+      <c r="D79" s="17"/>
       <c r="E79" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F79" s="5"/>
+      <c r="F79" s="17"/>
       <c r="G79" s="12"/>
       <c r="H79" s="20"/>
       <c r="I79" s="8">
-        <v>165.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="B80" s="7"/>
       <c r="C80" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D80" s="15"/>
+      <c r="D80" s="21"/>
       <c r="E80" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F80" s="5"/>
+        <v>121</v>
+      </c>
+      <c r="F80" s="21"/>
       <c r="G80" s="12"/>
-      <c r="H80" s="11"/>
+      <c r="H80" s="20"/>
       <c r="I80" s="8">
-        <v>125.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="81">
@@ -2973,17 +2964,17 @@
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D81" s="17"/>
       <c r="E81" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F81" s="17"/>
       <c r="G81" s="12"/>
       <c r="H81" s="20"/>
       <c r="I81" s="8">
-        <v>160.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="82">
@@ -2992,17 +2983,17 @@
       </c>
       <c r="B82" s="7"/>
       <c r="C82" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D82" s="21"/>
+        <v>123</v>
+      </c>
+      <c r="D82" s="17"/>
       <c r="E82" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F82" s="21"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="20"/>
+        <v>123</v>
+      </c>
+      <c r="F82" s="17"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="11"/>
       <c r="I82" s="8">
-        <v>145.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="83">
@@ -3011,17 +3002,17 @@
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F83" s="17"/>
+      <c r="F83" s="21"/>
       <c r="G83" s="12"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="8">
-        <v>165.0</v>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11">
+        <v>90.0</v>
       </c>
     </row>
     <row r="84">
@@ -3034,13 +3025,13 @@
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F84" s="17"/>
-      <c r="G84" s="20"/>
+        <v>127</v>
+      </c>
+      <c r="F84" s="21"/>
+      <c r="G84" s="12"/>
       <c r="H84" s="11"/>
       <c r="I84" s="8">
-        <v>160.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="85">
@@ -3049,17 +3040,17 @@
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F85" s="21"/>
+      <c r="F85" s="17"/>
       <c r="G85" s="12"/>
       <c r="H85" s="11"/>
-      <c r="I85" s="11">
-        <v>90.0</v>
+      <c r="I85" s="8">
+        <v>165.0</v>
       </c>
     </row>
     <row r="86">
@@ -3072,13 +3063,13 @@
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F86" s="21"/>
+        <v>129</v>
+      </c>
+      <c r="F86" s="17"/>
       <c r="G86" s="12"/>
       <c r="H86" s="11"/>
       <c r="I86" s="8">
-        <v>110.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="87">
@@ -3087,11 +3078,11 @@
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D87" s="17"/>
       <c r="E87" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F87" s="17"/>
       <c r="G87" s="12"/>
@@ -3106,125 +3097,125 @@
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D88" s="17"/>
       <c r="E88" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F88" s="17"/>
       <c r="G88" s="12"/>
       <c r="H88" s="11"/>
-      <c r="I88" s="8">
-        <v>145.0</v>
+      <c r="I88" s="9">
+        <v>110.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="7"/>
+      <c r="B89" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C89" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D89" s="17"/>
       <c r="E89" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F89" s="17"/>
       <c r="G89" s="12"/>
       <c r="H89" s="11"/>
-      <c r="I89" s="8">
-        <v>165.0</v>
+      <c r="I89" s="9">
+        <v>120.0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B90" s="7"/>
-      <c r="C90" s="7" t="s">
-        <v>134</v>
+      <c r="C90" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="D90" s="17"/>
-      <c r="E90" s="7" t="s">
-        <v>134</v>
+      <c r="E90" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="F90" s="17"/>
       <c r="G90" s="12"/>
       <c r="H90" s="11"/>
       <c r="I90" s="9">
-        <v>110.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>135</v>
+      <c r="B91" s="7"/>
+      <c r="C91" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="D91" s="17"/>
-      <c r="E91" s="7" t="s">
-        <v>135</v>
+      <c r="E91" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="F91" s="17"/>
       <c r="G91" s="12"/>
       <c r="H91" s="11"/>
       <c r="I91" s="9">
-        <v>120.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B92" s="7"/>
-      <c r="C92" s="10" t="s">
-        <v>136</v>
+      <c r="B92" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="D92" s="17"/>
-      <c r="E92" s="10" t="s">
+      <c r="E92" s="7" t="s">
         <v>136</v>
       </c>
       <c r="F92" s="17"/>
       <c r="G92" s="12"/>
       <c r="H92" s="11"/>
-      <c r="I92" s="9">
-        <v>165.0</v>
+      <c r="I92" s="8">
+        <v>110.0</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B93" s="7"/>
-      <c r="C93" s="10" t="s">
+      <c r="C93" s="7" t="s">
         <v>137</v>
       </c>
       <c r="D93" s="17"/>
-      <c r="E93" s="10" t="s">
-        <v>137</v>
+      <c r="E93" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="F93" s="17"/>
       <c r="G93" s="12"/>
       <c r="H93" s="11"/>
-      <c r="I93" s="9">
-        <v>165.0</v>
+      <c r="I93" s="8">
+        <v>110.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B94" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>138</v>
+      <c r="B94" s="7"/>
+      <c r="C94" s="19" t="s">
+        <v>139</v>
       </c>
       <c r="D94" s="17"/>
       <c r="E94" s="7" t="s">
@@ -3234,34 +3225,36 @@
       <c r="G94" s="12"/>
       <c r="H94" s="11"/>
       <c r="I94" s="8">
-        <v>110.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7" t="s">
+      <c r="A95" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11" t="s">
         <v>140</v>
       </c>
       <c r="D95" s="17"/>
-      <c r="E95" s="7" t="s">
+      <c r="E95" s="11" t="s">
         <v>141</v>
       </c>
       <c r="F95" s="17"/>
       <c r="G95" s="12"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="8">
-        <v>110.0</v>
+      <c r="H95" s="8"/>
+      <c r="I95" s="9">
+        <v>70.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B96" s="7"/>
-      <c r="C96" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96" s="7" t="s">
         <v>142</v>
       </c>
       <c r="D96" s="17"/>
@@ -3271,27 +3264,29 @@
       <c r="F96" s="17"/>
       <c r="G96" s="12"/>
       <c r="H96" s="11"/>
-      <c r="I96" s="8">
-        <v>95.0</v>
+      <c r="I96" s="9">
+        <v>85.0</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11" t="s">
+      <c r="B97" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D97" s="17"/>
-      <c r="E97" s="11" t="s">
-        <v>144</v>
+      <c r="E97" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="F97" s="17"/>
-      <c r="G97" s="12"/>
+      <c r="G97" s="11"/>
       <c r="H97" s="8"/>
       <c r="I97" s="9">
-        <v>70.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="98">
@@ -3302,7 +3297,7 @@
         <v>27</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="7" t="s">
@@ -3312,49 +3307,45 @@
       <c r="G98" s="12"/>
       <c r="H98" s="11"/>
       <c r="I98" s="9">
-        <v>85.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B99" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="B99" s="7"/>
       <c r="C99" s="7" t="s">
         <v>146</v>
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F99" s="17"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="8"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="11"/>
       <c r="I99" s="9">
-        <v>85.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="B100" s="7"/>
       <c r="C100" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F100" s="17"/>
-      <c r="G100" s="12"/>
+      <c r="G100" s="11"/>
       <c r="H100" s="11"/>
       <c r="I100" s="9">
-        <v>60.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="101">
@@ -3363,17 +3354,17 @@
       </c>
       <c r="B101" s="7"/>
       <c r="C101" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="7" t="s">
         <v>150</v>
       </c>
       <c r="F101" s="17"/>
-      <c r="G101" s="12"/>
+      <c r="G101" s="11"/>
       <c r="H101" s="11"/>
       <c r="I101" s="9">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="102">
@@ -3388,64 +3379,66 @@
       <c r="E102" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F102" s="17"/>
+      <c r="F102" s="5"/>
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
       <c r="I102" s="9">
-        <v>55.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7" t="s">
+      <c r="A103" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C103" s="11" t="s">
         <v>153</v>
       </c>
       <c r="D103" s="17"/>
-      <c r="E103" s="7" t="s">
-        <v>153</v>
+      <c r="E103" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="F103" s="17"/>
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
-      <c r="I103" s="9">
-        <v>40.0</v>
+      <c r="I103" s="8">
+        <v>185.0</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B104" s="7"/>
+      <c r="A104" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="5"/>
       <c r="C104" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D104" s="17"/>
+        <v>155</v>
+      </c>
+      <c r="D104" s="15"/>
       <c r="E104" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F104" s="5"/>
+      <c r="F104" s="17"/>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
-      <c r="I104" s="9">
-        <v>40.0</v>
+      <c r="I104" s="8">
+        <v>185.0</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="22" t="s">
+      <c r="A105" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="22" t="s">
+      <c r="B105" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C105" s="7" t="s">
         <v>156</v>
       </c>
       <c r="D105" s="17"/>
-      <c r="E105" s="11" t="s">
-        <v>157</v>
+      <c r="E105" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="F105" s="17"/>
       <c r="G105" s="11"/>
@@ -3460,9 +3453,9 @@
       </c>
       <c r="B106" s="5"/>
       <c r="C106" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D106" s="15"/>
+        <v>157</v>
+      </c>
+      <c r="D106" s="17"/>
       <c r="E106" s="7" t="s">
         <v>158</v>
       </c>
@@ -3477,15 +3470,13 @@
       <c r="A107" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B107" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B107" s="5"/>
       <c r="C107" s="7" t="s">
         <v>159</v>
       </c>
       <c r="D107" s="17"/>
       <c r="E107" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F107" s="17"/>
       <c r="G107" s="11"/>
@@ -3495,138 +3486,138 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B108" s="5"/>
-      <c r="C108" s="7" t="s">
-        <v>160</v>
+      <c r="C108" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="D108" s="17"/>
-      <c r="E108" s="7" t="s">
-        <v>161</v>
+      <c r="E108" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="F108" s="17"/>
       <c r="G108" s="11"/>
       <c r="H108" s="11"/>
       <c r="I108" s="8">
-        <v>185.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B109" s="5"/>
-      <c r="C109" s="7" t="s">
-        <v>162</v>
+      <c r="C109" s="10" t="s">
+        <v>163</v>
       </c>
       <c r="D109" s="17"/>
-      <c r="E109" s="7" t="s">
-        <v>163</v>
+      <c r="E109" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="F109" s="17"/>
       <c r="G109" s="11"/>
       <c r="H109" s="11"/>
       <c r="I109" s="8">
-        <v>185.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B110" s="5"/>
-      <c r="C110" s="10" t="s">
-        <v>164</v>
+      <c r="A110" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="D110" s="17"/>
-      <c r="E110" s="10" t="s">
-        <v>165</v>
+      <c r="E110" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="F110" s="17"/>
-      <c r="G110" s="11"/>
-      <c r="H110" s="11"/>
-      <c r="I110" s="8">
-        <v>220.0</v>
+      <c r="G110" s="20"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="9">
+        <v>215.0</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B111" s="5"/>
-      <c r="C111" s="10" t="s">
-        <v>166</v>
+      <c r="A111" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" s="22"/>
+      <c r="C111" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="D111" s="17"/>
-      <c r="E111" s="10" t="s">
-        <v>167</v>
+      <c r="E111" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F111" s="17"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="11"/>
-      <c r="I111" s="8">
-        <v>240.0</v>
+      <c r="G111" s="20"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="9">
+        <v>230.0</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="22" t="s">
+      <c r="A112" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B112" s="22" t="s">
-        <v>27</v>
-      </c>
+      <c r="B112" s="22"/>
       <c r="C112" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D112" s="17"/>
-      <c r="E112" s="7" t="s">
-        <v>169</v>
+      <c r="E112" s="11" t="s">
+        <v>170</v>
       </c>
       <c r="F112" s="17"/>
       <c r="G112" s="20"/>
       <c r="H112" s="12"/>
       <c r="I112" s="9">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B113" s="22"/>
-      <c r="C113" s="11" t="s">
-        <v>170</v>
+      <c r="B113" s="5"/>
+      <c r="C113" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="D113" s="17"/>
-      <c r="E113" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F113" s="17"/>
+      <c r="E113" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F113" s="5"/>
       <c r="G113" s="20"/>
       <c r="H113" s="12"/>
       <c r="I113" s="9">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B114" s="22"/>
-      <c r="C114" s="11" t="s">
-        <v>172</v>
+      <c r="B114" s="5"/>
+      <c r="C114" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="D114" s="17"/>
-      <c r="E114" s="11" t="s">
+      <c r="E114" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F114" s="17"/>
+      <c r="F114" s="5"/>
       <c r="G114" s="20"/>
       <c r="H114" s="12"/>
       <c r="I114" s="9">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="115">
@@ -3641,30 +3632,32 @@
       <c r="E115" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F115" s="5"/>
+      <c r="F115" s="17"/>
       <c r="G115" s="20"/>
       <c r="H115" s="12"/>
       <c r="I115" s="9">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B116" s="5"/>
+      <c r="B116" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C116" s="7" t="s">
         <v>176</v>
       </c>
       <c r="D116" s="17"/>
       <c r="E116" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F116" s="5"/>
+        <v>177</v>
+      </c>
+      <c r="F116" s="17"/>
       <c r="G116" s="20"/>
       <c r="H116" s="12"/>
       <c r="I116" s="9">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="117">
@@ -3673,13 +3666,13 @@
       </c>
       <c r="B117" s="5"/>
       <c r="C117" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F117" s="17"/>
+        <v>179</v>
+      </c>
+      <c r="F117" s="5"/>
       <c r="G117" s="20"/>
       <c r="H117" s="12"/>
       <c r="I117" s="9">
@@ -3694,17 +3687,17 @@
         <v>27</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D118" s="17"/>
       <c r="E118" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F118" s="17"/>
       <c r="G118" s="20"/>
       <c r="H118" s="12"/>
       <c r="I118" s="9">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="119">
@@ -3713,32 +3706,30 @@
       </c>
       <c r="B119" s="5"/>
       <c r="C119" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D119" s="17"/>
       <c r="E119" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F119" s="5"/>
+        <v>183</v>
+      </c>
+      <c r="F119" s="17"/>
       <c r="G119" s="20"/>
       <c r="H119" s="12"/>
       <c r="I119" s="9">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B120" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B120" s="5"/>
       <c r="C120" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D120" s="17"/>
       <c r="E120" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F120" s="17"/>
       <c r="G120" s="20"/>
@@ -3753,17 +3744,17 @@
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D121" s="17"/>
+        <v>186</v>
+      </c>
+      <c r="D121" s="5"/>
       <c r="E121" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F121" s="17"/>
+        <v>187</v>
+      </c>
+      <c r="F121" s="5"/>
       <c r="G121" s="20"/>
       <c r="H121" s="12"/>
       <c r="I121" s="9">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="122">
@@ -3772,13 +3763,13 @@
       </c>
       <c r="B122" s="5"/>
       <c r="C122" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D122" s="17"/>
+        <v>188</v>
+      </c>
+      <c r="D122" s="5"/>
       <c r="E122" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F122" s="17"/>
+        <v>189</v>
+      </c>
+      <c r="F122" s="5"/>
       <c r="G122" s="20"/>
       <c r="H122" s="12"/>
       <c r="I122" s="9">
@@ -3791,17 +3782,17 @@
       </c>
       <c r="B123" s="5"/>
       <c r="C123" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="20"/>
       <c r="H123" s="12"/>
       <c r="I123" s="9">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="124">
@@ -3810,11 +3801,11 @@
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="20"/>
@@ -3829,17 +3820,17 @@
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="20"/>
       <c r="H125" s="12"/>
       <c r="I125" s="9">
-        <v>215.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="126">
@@ -3848,36 +3839,38 @@
       </c>
       <c r="B126" s="5"/>
       <c r="C126" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="20"/>
       <c r="H126" s="12"/>
       <c r="I126" s="9">
-        <v>220.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B127" s="5"/>
+      <c r="B127" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C127" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D127" s="5"/>
+        <v>198</v>
+      </c>
+      <c r="D127" s="17"/>
       <c r="E127" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F127" s="5"/>
+        <v>199</v>
+      </c>
+      <c r="F127" s="17"/>
       <c r="G127" s="20"/>
       <c r="H127" s="12"/>
       <c r="I127" s="9">
-        <v>210.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="128">
@@ -3886,57 +3879,57 @@
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="20"/>
       <c r="H128" s="12"/>
       <c r="I128" s="9">
-        <v>80.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B129" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B129" s="5"/>
       <c r="C129" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D129" s="17"/>
+        <v>202</v>
+      </c>
+      <c r="D129" s="5"/>
       <c r="E129" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F129" s="17"/>
+        <v>203</v>
+      </c>
+      <c r="F129" s="5"/>
       <c r="G129" s="20"/>
       <c r="H129" s="12"/>
       <c r="I129" s="9">
-        <v>220.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B130" s="5"/>
+      <c r="B130" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C130" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D130" s="5"/>
-      <c r="E130" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F130" s="5"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F130" s="17"/>
       <c r="G130" s="20"/>
       <c r="H130" s="12"/>
       <c r="I130" s="9">
-        <v>160.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="131">
@@ -3945,17 +3938,17 @@
       </c>
       <c r="B131" s="5"/>
       <c r="C131" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="D131" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="D131" s="17"/>
       <c r="E131" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F131" s="5"/>
+        <v>207</v>
+      </c>
+      <c r="F131" s="17"/>
       <c r="G131" s="20"/>
       <c r="H131" s="12"/>
       <c r="I131" s="9">
-        <v>70.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="132">
@@ -3966,13 +3959,13 @@
         <v>27</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D132" s="17"/>
-      <c r="E132" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="F132" s="17"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F132" s="5"/>
       <c r="G132" s="20"/>
       <c r="H132" s="12"/>
       <c r="I132" s="9">
@@ -3985,53 +3978,53 @@
       </c>
       <c r="B133" s="5"/>
       <c r="C133" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D133" s="17"/>
+        <v>210</v>
+      </c>
+      <c r="D133" s="5"/>
       <c r="E133" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F133" s="17"/>
+      <c r="F133" s="5"/>
       <c r="G133" s="20"/>
       <c r="H133" s="12"/>
       <c r="I133" s="9">
-        <v>220.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B134" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B134" s="5"/>
       <c r="C134" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="D134" s="5"/>
+      <c r="D134" s="17"/>
       <c r="E134" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F134" s="5"/>
+        <v>211</v>
+      </c>
+      <c r="F134" s="17"/>
       <c r="G134" s="20"/>
       <c r="H134" s="12"/>
       <c r="I134" s="9">
-        <v>220.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B135" s="5"/>
+      <c r="B135" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C135" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D135" s="5"/>
+        <v>212</v>
+      </c>
+      <c r="D135" s="17"/>
       <c r="E135" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F135" s="5"/>
+      <c r="F135" s="17"/>
       <c r="G135" s="20"/>
       <c r="H135" s="12"/>
       <c r="I135" s="9">
@@ -4046,11 +4039,11 @@
       <c r="C136" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D136" s="17"/>
+      <c r="D136" s="5"/>
       <c r="E136" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F136" s="17"/>
+        <v>215</v>
+      </c>
+      <c r="F136" s="5"/>
       <c r="G136" s="20"/>
       <c r="H136" s="12"/>
       <c r="I136" s="9">
@@ -4061,21 +4054,19 @@
       <c r="A137" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B137" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B137" s="5"/>
       <c r="C137" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D137" s="17"/>
+        <v>216</v>
+      </c>
+      <c r="D137" s="5"/>
       <c r="E137" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F137" s="17"/>
+        <v>217</v>
+      </c>
+      <c r="F137" s="5"/>
       <c r="G137" s="20"/>
       <c r="H137" s="12"/>
       <c r="I137" s="9">
-        <v>185.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="138">
@@ -4084,11 +4075,11 @@
       </c>
       <c r="B138" s="5"/>
       <c r="C138" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F138" s="5"/>
       <c r="G138" s="20"/>
@@ -4103,274 +4094,278 @@
       </c>
       <c r="B139" s="5"/>
       <c r="C139" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="20"/>
       <c r="H139" s="12"/>
       <c r="I139" s="9">
-        <v>200.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B140" s="5"/>
-      <c r="C140" s="7" t="s">
-        <v>221</v>
+      <c r="A140" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" s="22"/>
+      <c r="C140" s="11" t="s">
+        <v>222</v>
       </c>
       <c r="D140" s="5"/>
-      <c r="E140" s="7" t="s">
-        <v>222</v>
+      <c r="E140" s="11" t="s">
+        <v>223</v>
       </c>
       <c r="F140" s="5"/>
       <c r="G140" s="20"/>
       <c r="H140" s="12"/>
       <c r="I140" s="9">
-        <v>185.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B141" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C141" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D141" s="5"/>
+        <v>224</v>
+      </c>
+      <c r="D141" s="17"/>
       <c r="E141" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F141" s="5"/>
       <c r="G141" s="20"/>
       <c r="H141" s="12"/>
       <c r="I141" s="9">
-        <v>80.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="22" t="s">
+      <c r="A142" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B142" s="22"/>
-      <c r="C142" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D142" s="5"/>
-      <c r="E142" s="11" t="s">
+      <c r="B142" s="5"/>
+      <c r="C142" s="7" t="s">
         <v>226</v>
+      </c>
+      <c r="D142" s="17"/>
+      <c r="E142" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="F142" s="5"/>
       <c r="G142" s="20"/>
       <c r="H142" s="12"/>
-      <c r="I142" s="9">
-        <v>85.0</v>
+      <c r="I142" s="12">
+        <v>110.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B143" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B143" s="5"/>
       <c r="C143" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D143" s="17"/>
       <c r="E143" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F143" s="5"/>
       <c r="G143" s="20"/>
       <c r="H143" s="12"/>
-      <c r="I143" s="9">
-        <v>90.0</v>
+      <c r="I143" s="12">
+        <v>120.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B144" s="5"/>
+      <c r="B144" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C144" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D144" s="17"/>
       <c r="E144" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F144" s="5"/>
+        <v>231</v>
+      </c>
+      <c r="F144" s="17"/>
       <c r="G144" s="20"/>
       <c r="H144" s="12"/>
       <c r="I144" s="12">
-        <v>110.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B145" s="5"/>
+      <c r="B145" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C145" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="D145" s="17"/>
+        <v>232</v>
+      </c>
+      <c r="D145" s="5"/>
       <c r="E145" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F145" s="5"/>
       <c r="G145" s="20"/>
       <c r="H145" s="12"/>
-      <c r="I145" s="12">
-        <v>120.0</v>
+      <c r="I145" s="9">
+        <v>150.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B146" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B146" s="5"/>
       <c r="C146" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D146" s="17"/>
-      <c r="E146" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F146" s="17"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F146" s="5"/>
       <c r="G146" s="20"/>
       <c r="H146" s="12"/>
-      <c r="I146" s="12">
-        <v>150.0</v>
+      <c r="I146" s="9">
+        <v>90.0</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B147" s="5" t="s">
+      <c r="A147" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B147" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C147" s="7" t="s">
-        <v>235</v>
+      <c r="C147" s="11" t="s">
+        <v>236</v>
       </c>
       <c r="D147" s="5"/>
-      <c r="E147" s="7" t="s">
-        <v>236</v>
+      <c r="E147" s="11" t="s">
+        <v>237</v>
       </c>
       <c r="F147" s="5"/>
       <c r="G147" s="20"/>
       <c r="H147" s="12"/>
       <c r="I147" s="9">
-        <v>150.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B148" s="5"/>
       <c r="C148" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D148" s="5"/>
-      <c r="E148" s="10" t="s">
         <v>238</v>
+      </c>
+      <c r="D148" s="17"/>
+      <c r="E148" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="20"/>
       <c r="H148" s="12"/>
       <c r="I148" s="9">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="22" t="s">
+      <c r="A149" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B149" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C149" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="D149" s="5"/>
-      <c r="E149" s="11" t="s">
+      <c r="B149" s="5"/>
+      <c r="C149" s="7" t="s">
         <v>240</v>
+      </c>
+      <c r="D149" s="17"/>
+      <c r="E149" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="F149" s="5"/>
       <c r="G149" s="20"/>
       <c r="H149" s="12"/>
       <c r="I149" s="9">
-        <v>110.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B150" s="5"/>
-      <c r="C150" s="7" t="s">
-        <v>241</v>
+      <c r="A150" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B150" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="D150" s="17"/>
-      <c r="E150" s="7" t="s">
-        <v>242</v>
+      <c r="E150" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="20"/>
       <c r="H150" s="12"/>
       <c r="I150" s="9">
-        <v>100.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B151" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C151" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D151" s="17"/>
-      <c r="E151" s="7" t="s">
-        <v>244</v>
+      <c r="E151" s="10" t="s">
+        <v>245</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="20"/>
       <c r="H151" s="12"/>
       <c r="I151" s="9">
-        <v>70.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="22" t="s">
+      <c r="A152" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B152" s="22" t="s">
+      <c r="B152" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C152" s="11" t="s">
-        <v>245</v>
+      <c r="C152" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="D152" s="17"/>
-      <c r="E152" s="8" t="s">
-        <v>246</v>
+      <c r="E152" s="10" t="s">
+        <v>247</v>
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="20"/>
       <c r="H152" s="12"/>
       <c r="I152" s="9">
-        <v>260.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="153">
@@ -4381,11 +4376,11 @@
         <v>27</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D153" s="17"/>
-      <c r="E153" s="10" t="s">
-        <v>248</v>
+      <c r="E153" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="F153" s="5"/>
       <c r="G153" s="20"/>
@@ -4395,37 +4390,37 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B154" s="5" t="s">
+      <c r="A154" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B154" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C154" s="7" t="s">
-        <v>249</v>
+      <c r="C154" s="11" t="s">
+        <v>250</v>
       </c>
       <c r="D154" s="17"/>
-      <c r="E154" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="F154" s="5"/>
+      <c r="E154" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="F154" s="17"/>
       <c r="G154" s="20"/>
       <c r="H154" s="12"/>
       <c r="I154" s="9">
-        <v>210.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B155" s="5" t="s">
+      <c r="A155" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B155" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="D155" s="17"/>
+        <v>252</v>
+      </c>
+      <c r="D155" s="5"/>
       <c r="E155" s="7" t="s">
         <v>252</v>
       </c>
@@ -4433,67 +4428,63 @@
       <c r="G155" s="20"/>
       <c r="H155" s="12"/>
       <c r="I155" s="9">
-        <v>210.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="A156" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B156" s="22"/>
       <c r="C156" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="D156" s="17"/>
+      <c r="D156" s="5"/>
       <c r="E156" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="F156" s="17"/>
+      <c r="F156" s="5"/>
       <c r="G156" s="20"/>
       <c r="H156" s="12"/>
-      <c r="I156" s="9">
-        <v>170.0</v>
+      <c r="I156" s="12">
+        <v>20.0</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="A157" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B157" s="22"/>
       <c r="C157" s="7" t="s">
         <v>255</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F157" s="5"/>
       <c r="G157" s="20"/>
-      <c r="H157" s="12"/>
+      <c r="H157" s="9"/>
       <c r="I157" s="9">
-        <v>215.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="22" t="s">
+      <c r="A158" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B158" s="22"/>
-      <c r="C158" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="D158" s="5"/>
-      <c r="E158" s="11" t="s">
+      <c r="B158" s="5"/>
+      <c r="C158" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="F158" s="5"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="F158" s="17"/>
       <c r="G158" s="20"/>
-      <c r="H158" s="12"/>
-      <c r="I158" s="12">
+      <c r="H158" s="9"/>
+      <c r="I158" s="9">
         <v>20.0</v>
       </c>
     </row>
@@ -4501,15 +4492,15 @@
       <c r="A159" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B159" s="22"/>
+      <c r="B159" s="5"/>
       <c r="C159" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="D159" s="5"/>
+        <v>259</v>
+      </c>
+      <c r="D159" s="17"/>
       <c r="E159" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="F159" s="5"/>
+        <v>260</v>
+      </c>
+      <c r="F159" s="17"/>
       <c r="G159" s="20"/>
       <c r="H159" s="9"/>
       <c r="I159" s="9">
@@ -4517,22 +4508,22 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="23" t="s">
+      <c r="A160" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B160" s="5"/>
-      <c r="C160" s="10" t="s">
-        <v>260</v>
+      <c r="C160" s="7" t="s">
+        <v>261</v>
       </c>
       <c r="D160" s="17"/>
-      <c r="E160" s="24" t="s">
-        <v>261</v>
+      <c r="E160" s="7" t="s">
+        <v>262</v>
       </c>
       <c r="F160" s="17"/>
       <c r="G160" s="20"/>
-      <c r="H160" s="9"/>
-      <c r="I160" s="9">
-        <v>20.0</v>
+      <c r="H160" s="12"/>
+      <c r="I160" s="12">
+        <v>40.0</v>
       </c>
     </row>
     <row r="161">
@@ -4541,17 +4532,17 @@
       </c>
       <c r="B161" s="5"/>
       <c r="C161" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D161" s="17"/>
       <c r="E161" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F161" s="17"/>
       <c r="G161" s="20"/>
-      <c r="H161" s="9"/>
-      <c r="I161" s="9">
-        <v>20.0</v>
+      <c r="H161" s="12"/>
+      <c r="I161" s="12">
+        <v>30.0</v>
       </c>
     </row>
     <row r="162">
@@ -4560,17 +4551,17 @@
       </c>
       <c r="B162" s="5"/>
       <c r="C162" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D162" s="17"/>
       <c r="E162" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F162" s="17"/>
       <c r="G162" s="20"/>
       <c r="H162" s="12"/>
       <c r="I162" s="12">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="163">
@@ -4579,17 +4570,17 @@
       </c>
       <c r="B163" s="5"/>
       <c r="C163" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D163" s="17"/>
       <c r="E163" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F163" s="17"/>
       <c r="G163" s="20"/>
       <c r="H163" s="12"/>
       <c r="I163" s="12">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="164">
@@ -4597,18 +4588,18 @@
         <v>19</v>
       </c>
       <c r="B164" s="5"/>
-      <c r="C164" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D164" s="17"/>
-      <c r="E164" s="7" t="s">
+      <c r="C164" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="F164" s="17"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="F164" s="5"/>
       <c r="G164" s="20"/>
       <c r="H164" s="12"/>
-      <c r="I164" s="12">
-        <v>20.0</v>
+      <c r="I164" s="9">
+        <v>40.0</v>
       </c>
     </row>
     <row r="165">
@@ -4616,37 +4607,37 @@
         <v>19</v>
       </c>
       <c r="B165" s="5"/>
-      <c r="C165" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="D165" s="17"/>
-      <c r="E165" s="7" t="s">
+      <c r="C165" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="F165" s="17"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="F165" s="5"/>
       <c r="G165" s="20"/>
       <c r="H165" s="12"/>
-      <c r="I165" s="12">
-        <v>20.0</v>
+      <c r="I165" s="9">
+        <v>60.0</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B166" s="5"/>
       <c r="C166" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F166" s="5"/>
       <c r="G166" s="20"/>
       <c r="H166" s="12"/>
       <c r="I166" s="9">
-        <v>40.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="167">
@@ -4654,95 +4645,69 @@
         <v>19</v>
       </c>
       <c r="B167" s="5"/>
-      <c r="C167" s="10" t="s">
-        <v>274</v>
+      <c r="C167" s="7" t="s">
+        <v>275</v>
       </c>
       <c r="D167" s="5"/>
-      <c r="E167" s="10" t="s">
-        <v>275</v>
+      <c r="E167" s="7" t="s">
+        <v>276</v>
       </c>
       <c r="F167" s="5"/>
       <c r="G167" s="20"/>
       <c r="H167" s="12"/>
-      <c r="I167" s="9">
-        <v>60.0</v>
+      <c r="I167" s="12">
+        <v>15.0</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="23" t="s">
+      <c r="A168" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B168" s="5"/>
       <c r="C168" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F168" s="5"/>
       <c r="G168" s="20"/>
       <c r="H168" s="12"/>
       <c r="I168" s="9">
-        <v>150.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B169" s="5"/>
+      <c r="B169" s="17"/>
       <c r="C169" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F169" s="5"/>
-      <c r="G169" s="20"/>
+      <c r="G169" s="5"/>
       <c r="H169" s="12"/>
       <c r="I169" s="12">
-        <v>15.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B170" s="5"/>
-      <c r="C170" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="D170" s="5"/>
-      <c r="E170" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="F170" s="5"/>
-      <c r="G170" s="20"/>
-      <c r="H170" s="12"/>
-      <c r="I170" s="9">
-        <v>15.0</v>
-      </c>
+      <c r="A170" s="25"/>
+      <c r="B170" s="25"/>
+      <c r="C170" s="25"/>
+      <c r="E170" s="25"/>
     </row>
     <row r="171">
-      <c r="A171" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B171" s="17"/>
-      <c r="C171" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="D171" s="5"/>
-      <c r="E171" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="F171" s="5"/>
-      <c r="G171" s="5"/>
-      <c r="H171" s="12"/>
-      <c r="I171" s="12">
-        <v>60.0</v>
-      </c>
+      <c r="A171" s="25"/>
+      <c r="B171" s="25"/>
+      <c r="C171" s="25"/>
+      <c r="E171" s="25"/>
     </row>
     <row r="172">
       <c r="A172" s="25"/>
@@ -4771,22 +4736,10 @@
     <row r="176">
       <c r="A176" s="25"/>
       <c r="B176" s="25"/>
-      <c r="C176" s="25"/>
-      <c r="E176" s="25"/>
     </row>
     <row r="177">
       <c r="A177" s="25"/>
       <c r="B177" s="25"/>
-      <c r="C177" s="25"/>
-      <c r="E177" s="25"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="25"/>
-      <c r="B178" s="25"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="25"/>
-      <c r="B179" s="25"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="HzO0Fg93vMmzV50RzkVvBi9N5a/l/IdM3dwp0IPGhDo="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="LpOSVwFWQUK8UOw0rC1TimEDtlp3Tl4AUdstOVTmptw="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="277">
   <si>
     <t>category</t>
   </si>
@@ -382,9 +382,6 @@
     <t>Iced Matcha Latte</t>
   </si>
   <si>
-    <t>Iced Green BENEFI</t>
-  </si>
-  <si>
     <t>Iced Blue Lagoon</t>
   </si>
   <si>
@@ -397,12 +394,6 @@
     <t>Buzlu Çay / Iced Tea</t>
   </si>
   <si>
-    <t>Iced Green Tea Mojito</t>
-  </si>
-  <si>
-    <t>Buzlu Yeşil Çaylı Mojito</t>
-  </si>
-  <si>
     <t>Island Rush Cooler</t>
   </si>
   <si>
@@ -416,9 +407,6 @@
   </si>
   <si>
     <t>Bubble Tea</t>
-  </si>
-  <si>
-    <t>Mor Zest</t>
   </si>
   <si>
     <t>Summer Brezze</t>
@@ -2820,7 +2808,7 @@
       <c r="G73" s="12"/>
       <c r="H73" s="20"/>
       <c r="I73" s="8">
-        <v>165.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="74">
@@ -2858,7 +2846,7 @@
       <c r="G75" s="12"/>
       <c r="H75" s="20"/>
       <c r="I75" s="8">
-        <v>165.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="76">
@@ -2877,7 +2865,7 @@
       <c r="G76" s="12"/>
       <c r="H76" s="20"/>
       <c r="I76" s="8">
-        <v>165.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="77">
@@ -2896,7 +2884,7 @@
       <c r="G77" s="12"/>
       <c r="H77" s="20"/>
       <c r="I77" s="8">
-        <v>165.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="78">
@@ -2936,26 +2924,26 @@
       <c r="G79" s="12"/>
       <c r="H79" s="20"/>
       <c r="I79" s="8">
-        <v>160.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="7" t="s">
-        <v>9</v>
+      <c r="A80" s="10">
+        <v>15.0</v>
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D80" s="21"/>
+      <c r="D80" s="17"/>
       <c r="E80" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F80" s="21"/>
+      <c r="F80" s="17"/>
       <c r="G80" s="12"/>
       <c r="H80" s="20"/>
       <c r="I80" s="8">
-        <v>145.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="81">
@@ -2971,10 +2959,10 @@
         <v>122</v>
       </c>
       <c r="F81" s="17"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="11"/>
       <c r="I81" s="8">
-        <v>165.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="82">
@@ -2987,13 +2975,13 @@
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F82" s="17"/>
-      <c r="G82" s="20"/>
+        <v>124</v>
+      </c>
+      <c r="F82" s="21"/>
+      <c r="G82" s="12"/>
       <c r="H82" s="11"/>
       <c r="I82" s="8">
-        <v>160.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="83">
@@ -3002,17 +2990,17 @@
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F83" s="21"/>
+      <c r="F83" s="17"/>
       <c r="G83" s="12"/>
       <c r="H83" s="11"/>
-      <c r="I83" s="11">
-        <v>90.0</v>
+      <c r="I83" s="8">
+        <v>150.0</v>
       </c>
     </row>
     <row r="84">
@@ -3025,13 +3013,13 @@
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F84" s="21"/>
+        <v>126</v>
+      </c>
+      <c r="F84" s="17"/>
       <c r="G84" s="12"/>
       <c r="H84" s="11"/>
       <c r="I84" s="8">
-        <v>110.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="85">
@@ -3040,17 +3028,17 @@
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F85" s="17"/>
       <c r="G85" s="12"/>
       <c r="H85" s="11"/>
       <c r="I85" s="8">
-        <v>165.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="86">
@@ -3059,55 +3047,57 @@
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F86" s="17"/>
       <c r="G86" s="12"/>
       <c r="H86" s="11"/>
-      <c r="I86" s="8">
-        <v>145.0</v>
+      <c r="I86" s="9">
+        <v>120.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="7"/>
+      <c r="B87" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C87" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D87" s="17"/>
       <c r="E87" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F87" s="17"/>
       <c r="G87" s="12"/>
       <c r="H87" s="11"/>
-      <c r="I87" s="8">
-        <v>165.0</v>
+      <c r="I87" s="9">
+        <v>125.0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B88" s="7"/>
-      <c r="C88" s="7" t="s">
-        <v>131</v>
+      <c r="C88" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="D88" s="17"/>
-      <c r="E88" s="7" t="s">
-        <v>131</v>
+      <c r="E88" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="F88" s="17"/>
       <c r="G88" s="12"/>
       <c r="H88" s="11"/>
       <c r="I88" s="9">
-        <v>110.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="89">
@@ -3118,7 +3108,7 @@
         <v>27</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D89" s="17"/>
       <c r="E89" s="7" t="s">
@@ -3127,76 +3117,76 @@
       <c r="F89" s="17"/>
       <c r="G89" s="12"/>
       <c r="H89" s="11"/>
-      <c r="I89" s="9">
-        <v>120.0</v>
+      <c r="I89" s="8">
+        <v>110.0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B90" s="7"/>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="7" t="s">
         <v>133</v>
       </c>
       <c r="D90" s="17"/>
-      <c r="E90" s="10" t="s">
-        <v>133</v>
+      <c r="E90" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="F90" s="17"/>
       <c r="G90" s="12"/>
       <c r="H90" s="11"/>
-      <c r="I90" s="9">
-        <v>165.0</v>
+      <c r="I90" s="8">
+        <v>110.0</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B91" s="7"/>
-      <c r="C91" s="10" t="s">
-        <v>134</v>
+      <c r="C91" s="19" t="s">
+        <v>135</v>
       </c>
       <c r="D91" s="17"/>
-      <c r="E91" s="10" t="s">
-        <v>134</v>
+      <c r="E91" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="F91" s="17"/>
       <c r="G91" s="12"/>
       <c r="H91" s="11"/>
-      <c r="I91" s="9">
-        <v>165.0</v>
+      <c r="I91" s="8">
+        <v>130.0</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>135</v>
+      <c r="A92" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="D92" s="17"/>
-      <c r="E92" s="7" t="s">
-        <v>136</v>
+      <c r="E92" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="F92" s="17"/>
       <c r="G92" s="12"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="8">
-        <v>110.0</v>
+      <c r="H92" s="8"/>
+      <c r="I92" s="9">
+        <v>70.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B93" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="C93" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D93" s="17"/>
       <c r="E93" s="7" t="s">
@@ -3205,16 +3195,18 @@
       <c r="F93" s="17"/>
       <c r="G93" s="12"/>
       <c r="H93" s="11"/>
-      <c r="I93" s="8">
-        <v>110.0</v>
+      <c r="I93" s="9">
+        <v>85.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B94" s="7"/>
-      <c r="C94" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" s="7" t="s">
         <v>139</v>
       </c>
       <c r="D94" s="17"/>
@@ -3222,92 +3214,88 @@
         <v>139</v>
       </c>
       <c r="F94" s="17"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="8">
-        <v>95.0</v>
+      <c r="G94" s="11"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="9">
+        <v>85.0</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="11" t="s">
+      <c r="A95" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11" t="s">
+      <c r="B95" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" s="7" t="s">
         <v>140</v>
       </c>
       <c r="D95" s="17"/>
-      <c r="E95" s="11" t="s">
+      <c r="E95" s="7" t="s">
         <v>141</v>
       </c>
       <c r="F95" s="17"/>
       <c r="G95" s="12"/>
-      <c r="H95" s="8"/>
+      <c r="H95" s="11"/>
       <c r="I95" s="9">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B96" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="B96" s="7"/>
       <c r="C96" s="7" t="s">
         <v>142</v>
       </c>
       <c r="D96" s="17"/>
       <c r="E96" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F96" s="17"/>
       <c r="G96" s="12"/>
       <c r="H96" s="11"/>
       <c r="I96" s="9">
-        <v>85.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="B97" s="7"/>
       <c r="C97" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F97" s="17"/>
       <c r="G97" s="11"/>
-      <c r="H97" s="8"/>
+      <c r="H97" s="11"/>
       <c r="I97" s="9">
-        <v>85.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="B98" s="7"/>
       <c r="C98" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F98" s="17"/>
-      <c r="G98" s="12"/>
+      <c r="G98" s="11"/>
       <c r="H98" s="11"/>
       <c r="I98" s="9">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="99">
@@ -3316,88 +3304,90 @@
       </c>
       <c r="B99" s="7"/>
       <c r="C99" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F99" s="17"/>
-      <c r="G99" s="12"/>
+        <v>148</v>
+      </c>
+      <c r="F99" s="5"/>
+      <c r="G99" s="11"/>
       <c r="H99" s="11"/>
       <c r="I99" s="9">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7" t="s">
-        <v>148</v>
+      <c r="A100" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="D100" s="17"/>
-      <c r="E100" s="7" t="s">
-        <v>149</v>
+      <c r="E100" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="F100" s="17"/>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
-      <c r="I100" s="9">
-        <v>55.0</v>
+      <c r="I100" s="8">
+        <v>185.0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B101" s="7"/>
+      <c r="A101" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="5"/>
       <c r="C101" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D101" s="17"/>
+        <v>151</v>
+      </c>
+      <c r="D101" s="15"/>
       <c r="E101" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F101" s="17"/>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
-      <c r="I101" s="9">
-        <v>40.0</v>
+      <c r="I101" s="8">
+        <v>185.0</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B102" s="7"/>
+      <c r="A102" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C102" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D102" s="17"/>
       <c r="E102" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F102" s="5"/>
+      <c r="F102" s="17"/>
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
-      <c r="I102" s="9">
-        <v>40.0</v>
+      <c r="I102" s="8">
+        <v>185.0</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="22" t="s">
+      <c r="A103" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B103" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C103" s="11" t="s">
+      <c r="B103" s="5"/>
+      <c r="C103" s="7" t="s">
         <v>153</v>
       </c>
       <c r="D103" s="17"/>
-      <c r="E103" s="11" t="s">
+      <c r="E103" s="7" t="s">
         <v>154</v>
       </c>
       <c r="F103" s="17"/>
@@ -3415,9 +3405,9 @@
       <c r="C104" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D104" s="15"/>
+      <c r="D104" s="17"/>
       <c r="E104" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F104" s="17"/>
       <c r="G104" s="11"/>
@@ -3427,117 +3417,115 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>156</v>
+      <c r="B105" s="5"/>
+      <c r="C105" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="D105" s="17"/>
-      <c r="E105" s="7" t="s">
-        <v>156</v>
+      <c r="E105" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="F105" s="17"/>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
       <c r="I105" s="8">
-        <v>185.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B106" s="5"/>
-      <c r="C106" s="7" t="s">
-        <v>157</v>
+      <c r="C106" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="D106" s="17"/>
-      <c r="E106" s="7" t="s">
-        <v>158</v>
+      <c r="E106" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="F106" s="17"/>
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
       <c r="I106" s="8">
-        <v>185.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B107" s="5"/>
-      <c r="C107" s="7" t="s">
-        <v>159</v>
+      <c r="A107" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="D107" s="17"/>
       <c r="E107" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F107" s="17"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="11"/>
-      <c r="I107" s="8">
-        <v>185.0</v>
+      <c r="G107" s="20"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="9">
+        <v>215.0</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B108" s="5"/>
-      <c r="C108" s="10" t="s">
-        <v>161</v>
+      <c r="A108" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" s="22"/>
+      <c r="C108" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="D108" s="17"/>
-      <c r="E108" s="10" t="s">
-        <v>162</v>
+      <c r="E108" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="F108" s="17"/>
-      <c r="G108" s="11"/>
-      <c r="H108" s="11"/>
-      <c r="I108" s="8">
-        <v>220.0</v>
+      <c r="G108" s="20"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="9">
+        <v>230.0</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B109" s="5"/>
-      <c r="C109" s="10" t="s">
-        <v>163</v>
+      <c r="A109" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="22"/>
+      <c r="C109" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="D109" s="17"/>
-      <c r="E109" s="10" t="s">
-        <v>164</v>
+      <c r="E109" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="F109" s="17"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="11"/>
-      <c r="I109" s="8">
-        <v>240.0</v>
+      <c r="G109" s="20"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="9">
+        <v>230.0</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="22" t="s">
+      <c r="A110" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B110" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>165</v>
+      <c r="B110" s="5"/>
+      <c r="C110" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="D110" s="17"/>
       <c r="E110" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F110" s="17"/>
+        <v>168</v>
+      </c>
+      <c r="F110" s="5"/>
       <c r="G110" s="20"/>
       <c r="H110" s="12"/>
       <c r="I110" s="9">
@@ -3548,32 +3536,32 @@
       <c r="A111" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B111" s="22"/>
-      <c r="C111" s="11" t="s">
-        <v>167</v>
+      <c r="B111" s="5"/>
+      <c r="C111" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="D111" s="17"/>
-      <c r="E111" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="F111" s="17"/>
+      <c r="E111" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F111" s="5"/>
       <c r="G111" s="20"/>
       <c r="H111" s="12"/>
       <c r="I111" s="9">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B112" s="22"/>
-      <c r="C112" s="11" t="s">
-        <v>169</v>
+      <c r="B112" s="5"/>
+      <c r="C112" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="D112" s="17"/>
-      <c r="E112" s="11" t="s">
-        <v>170</v>
+      <c r="E112" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="F112" s="17"/>
       <c r="G112" s="20"/>
@@ -3586,19 +3574,21 @@
       <c r="A113" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B113" s="5"/>
+      <c r="B113" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C113" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F113" s="5"/>
+        <v>173</v>
+      </c>
+      <c r="F113" s="17"/>
       <c r="G113" s="20"/>
       <c r="H113" s="12"/>
       <c r="I113" s="9">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="114">
@@ -3607,57 +3597,57 @@
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D114" s="17"/>
       <c r="E114" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="20"/>
       <c r="H114" s="12"/>
       <c r="I114" s="9">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B115" s="5"/>
+      <c r="B115" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C115" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D115" s="17"/>
       <c r="E115" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F115" s="17"/>
       <c r="G115" s="20"/>
       <c r="H115" s="12"/>
       <c r="I115" s="9">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B116" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B116" s="5"/>
       <c r="C116" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D116" s="17"/>
       <c r="E116" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F116" s="17"/>
       <c r="G116" s="20"/>
       <c r="H116" s="12"/>
       <c r="I116" s="9">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="117">
@@ -3666,38 +3656,36 @@
       </c>
       <c r="B117" s="5"/>
       <c r="C117" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F117" s="5"/>
+        <v>181</v>
+      </c>
+      <c r="F117" s="17"/>
       <c r="G117" s="20"/>
       <c r="H117" s="12"/>
       <c r="I117" s="9">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B118" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B118" s="5"/>
       <c r="C118" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D118" s="17"/>
+        <v>182</v>
+      </c>
+      <c r="D118" s="5"/>
       <c r="E118" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F118" s="17"/>
+        <v>183</v>
+      </c>
+      <c r="F118" s="5"/>
       <c r="G118" s="20"/>
       <c r="H118" s="12"/>
       <c r="I118" s="9">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="119">
@@ -3706,13 +3694,13 @@
       </c>
       <c r="B119" s="5"/>
       <c r="C119" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D119" s="17"/>
+        <v>184</v>
+      </c>
+      <c r="D119" s="5"/>
       <c r="E119" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F119" s="17"/>
+        <v>185</v>
+      </c>
+      <c r="F119" s="5"/>
       <c r="G119" s="20"/>
       <c r="H119" s="12"/>
       <c r="I119" s="9">
@@ -3725,17 +3713,17 @@
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D120" s="17"/>
+        <v>186</v>
+      </c>
+      <c r="D120" s="5"/>
       <c r="E120" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F120" s="17"/>
+        <v>187</v>
+      </c>
+      <c r="F120" s="5"/>
       <c r="G120" s="20"/>
       <c r="H120" s="12"/>
       <c r="I120" s="9">
-        <v>220.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="121">
@@ -3744,17 +3732,17 @@
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F121" s="5"/>
       <c r="G121" s="20"/>
       <c r="H121" s="12"/>
       <c r="I121" s="9">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="122">
@@ -3763,17 +3751,17 @@
       </c>
       <c r="B122" s="5"/>
       <c r="C122" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="20"/>
       <c r="H122" s="12"/>
       <c r="I122" s="9">
-        <v>220.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="123">
@@ -3782,32 +3770,34 @@
       </c>
       <c r="B123" s="5"/>
       <c r="C123" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="20"/>
       <c r="H123" s="12"/>
       <c r="I123" s="9">
-        <v>215.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B124" s="5"/>
+      <c r="B124" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C124" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D124" s="5"/>
+        <v>194</v>
+      </c>
+      <c r="D124" s="17"/>
       <c r="E124" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F124" s="5"/>
+        <v>195</v>
+      </c>
+      <c r="F124" s="17"/>
       <c r="G124" s="20"/>
       <c r="H124" s="12"/>
       <c r="I124" s="9">
@@ -3820,17 +3810,17 @@
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="20"/>
       <c r="H125" s="12"/>
       <c r="I125" s="9">
-        <v>210.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="126">
@@ -3839,17 +3829,17 @@
       </c>
       <c r="B126" s="5"/>
       <c r="C126" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="20"/>
       <c r="H126" s="12"/>
       <c r="I126" s="9">
-        <v>80.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="127">
@@ -3860,11 +3850,11 @@
         <v>27</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D127" s="17"/>
-      <c r="E127" s="7" t="s">
-        <v>199</v>
+      <c r="E127" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="F127" s="17"/>
       <c r="G127" s="20"/>
@@ -3879,57 +3869,57 @@
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D128" s="5"/>
+        <v>202</v>
+      </c>
+      <c r="D128" s="17"/>
       <c r="E128" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F128" s="5"/>
+        <v>203</v>
+      </c>
+      <c r="F128" s="17"/>
       <c r="G128" s="20"/>
       <c r="H128" s="12"/>
       <c r="I128" s="9">
-        <v>160.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B129" s="5"/>
+      <c r="B129" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C129" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F129" s="5"/>
       <c r="G129" s="20"/>
       <c r="H129" s="12"/>
       <c r="I129" s="9">
-        <v>70.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B130" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B130" s="5"/>
       <c r="C130" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D130" s="17"/>
-      <c r="E130" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="F130" s="17"/>
+        <v>206</v>
+      </c>
+      <c r="D130" s="5"/>
+      <c r="E130" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F130" s="5"/>
       <c r="G130" s="20"/>
       <c r="H130" s="12"/>
       <c r="I130" s="9">
-        <v>220.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="131">
@@ -3938,7 +3928,7 @@
       </c>
       <c r="B131" s="5"/>
       <c r="C131" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D131" s="17"/>
       <c r="E131" s="7" t="s">
@@ -3948,7 +3938,7 @@
       <c r="G131" s="20"/>
       <c r="H131" s="12"/>
       <c r="I131" s="9">
-        <v>220.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="132">
@@ -3961,15 +3951,15 @@
       <c r="C132" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="D132" s="5"/>
+      <c r="D132" s="17"/>
       <c r="E132" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F132" s="5"/>
+      <c r="F132" s="17"/>
       <c r="G132" s="20"/>
       <c r="H132" s="12"/>
       <c r="I132" s="9">
-        <v>220.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="133">
@@ -3982,7 +3972,7 @@
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F133" s="5"/>
       <c r="G133" s="20"/>
@@ -3997,34 +3987,32 @@
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D134" s="17"/>
+        <v>212</v>
+      </c>
+      <c r="D134" s="5"/>
       <c r="E134" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F134" s="17"/>
+        <v>213</v>
+      </c>
+      <c r="F134" s="5"/>
       <c r="G134" s="20"/>
       <c r="H134" s="12"/>
       <c r="I134" s="9">
-        <v>185.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B135" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B135" s="5"/>
       <c r="C135" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D135" s="17"/>
+        <v>214</v>
+      </c>
+      <c r="D135" s="5"/>
       <c r="E135" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F135" s="17"/>
+        <v>215</v>
+      </c>
+      <c r="F135" s="5"/>
       <c r="G135" s="20"/>
       <c r="H135" s="12"/>
       <c r="I135" s="9">
@@ -4037,93 +4025,95 @@
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F136" s="5"/>
       <c r="G136" s="20"/>
       <c r="H136" s="12"/>
       <c r="I136" s="9">
-        <v>185.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B137" s="5"/>
-      <c r="C137" s="7" t="s">
-        <v>216</v>
+      <c r="A137" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137" s="22"/>
+      <c r="C137" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="D137" s="5"/>
-      <c r="E137" s="7" t="s">
-        <v>217</v>
+      <c r="E137" s="11" t="s">
+        <v>219</v>
       </c>
       <c r="F137" s="5"/>
       <c r="G137" s="20"/>
       <c r="H137" s="12"/>
       <c r="I137" s="9">
-        <v>200.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B138" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C138" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D138" s="5"/>
+        <v>220</v>
+      </c>
+      <c r="D138" s="17"/>
       <c r="E138" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F138" s="5"/>
       <c r="G138" s="20"/>
       <c r="H138" s="12"/>
       <c r="I138" s="9">
-        <v>185.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B139" s="5"/>
       <c r="C139" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D139" s="5"/>
+        <v>222</v>
+      </c>
+      <c r="D139" s="17"/>
       <c r="E139" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="20"/>
       <c r="H139" s="12"/>
-      <c r="I139" s="9">
-        <v>80.0</v>
+      <c r="I139" s="12">
+        <v>110.0</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="22" t="s">
+      <c r="A140" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B140" s="22"/>
-      <c r="C140" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="D140" s="5"/>
-      <c r="E140" s="11" t="s">
-        <v>223</v>
+      <c r="B140" s="5"/>
+      <c r="C140" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D140" s="17"/>
+      <c r="E140" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="F140" s="5"/>
       <c r="G140" s="20"/>
       <c r="H140" s="12"/>
-      <c r="I140" s="9">
-        <v>85.0</v>
+      <c r="I140" s="12">
+        <v>120.0</v>
       </c>
     </row>
     <row r="141">
@@ -4134,36 +4124,38 @@
         <v>27</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D141" s="17"/>
       <c r="E141" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F141" s="5"/>
+        <v>227</v>
+      </c>
+      <c r="F141" s="17"/>
       <c r="G141" s="20"/>
       <c r="H141" s="12"/>
-      <c r="I141" s="9">
-        <v>90.0</v>
+      <c r="I141" s="12">
+        <v>150.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B142" s="5"/>
+      <c r="B142" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C142" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D142" s="17"/>
+        <v>228</v>
+      </c>
+      <c r="D142" s="5"/>
       <c r="E142" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F142" s="5"/>
       <c r="G142" s="20"/>
       <c r="H142" s="12"/>
-      <c r="I142" s="12">
-        <v>110.0</v>
+      <c r="I142" s="9">
+        <v>150.0</v>
       </c>
     </row>
     <row r="143">
@@ -4172,281 +4164,277 @@
       </c>
       <c r="B143" s="5"/>
       <c r="C143" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D143" s="17"/>
-      <c r="E143" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="D143" s="5"/>
+      <c r="E143" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="F143" s="5"/>
       <c r="G143" s="20"/>
       <c r="H143" s="12"/>
-      <c r="I143" s="12">
-        <v>120.0</v>
+      <c r="I143" s="9">
+        <v>90.0</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B144" s="5" t="s">
+      <c r="A144" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B144" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C144" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="D144" s="17"/>
-      <c r="E144" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F144" s="17"/>
+      <c r="C144" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D144" s="5"/>
+      <c r="E144" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F144" s="5"/>
       <c r="G144" s="20"/>
       <c r="H144" s="12"/>
-      <c r="I144" s="12">
-        <v>150.0</v>
+      <c r="I144" s="9">
+        <v>110.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B145" s="5"/>
       <c r="C145" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="D145" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="D145" s="17"/>
       <c r="E145" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F145" s="5"/>
       <c r="G145" s="20"/>
       <c r="H145" s="12"/>
       <c r="I145" s="9">
-        <v>150.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B146" s="5"/>
       <c r="C146" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="D146" s="5"/>
-      <c r="E146" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="D146" s="17"/>
+      <c r="E146" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="F146" s="5"/>
       <c r="G146" s="20"/>
       <c r="H146" s="12"/>
       <c r="I146" s="9">
-        <v>90.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B147" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D147" s="5"/>
-      <c r="E147" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
+      </c>
+      <c r="D147" s="17"/>
+      <c r="E147" s="8" t="s">
+        <v>239</v>
       </c>
       <c r="F147" s="5"/>
       <c r="G147" s="20"/>
       <c r="H147" s="12"/>
       <c r="I147" s="9">
-        <v>110.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B148" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C148" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D148" s="17"/>
-      <c r="E148" s="7" t="s">
-        <v>239</v>
+      <c r="E148" s="10" t="s">
+        <v>241</v>
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="20"/>
       <c r="H148" s="12"/>
       <c r="I148" s="9">
-        <v>100.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B149" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C149" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D149" s="17"/>
-      <c r="E149" s="7" t="s">
-        <v>241</v>
+      <c r="E149" s="10" t="s">
+        <v>243</v>
       </c>
       <c r="F149" s="5"/>
       <c r="G149" s="20"/>
       <c r="H149" s="12"/>
       <c r="I149" s="9">
-        <v>70.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="22" t="s">
+      <c r="A150" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B150" s="22" t="s">
+      <c r="B150" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C150" s="11" t="s">
-        <v>242</v>
+      <c r="C150" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="D150" s="17"/>
-      <c r="E150" s="8" t="s">
-        <v>243</v>
+      <c r="E150" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="20"/>
       <c r="H150" s="12"/>
       <c r="I150" s="9">
-        <v>260.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B151" s="5" t="s">
+      <c r="A151" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B151" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C151" s="7" t="s">
-        <v>244</v>
+      <c r="C151" s="11" t="s">
+        <v>246</v>
       </c>
       <c r="D151" s="17"/>
-      <c r="E151" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="F151" s="5"/>
+      <c r="E151" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F151" s="17"/>
       <c r="G151" s="20"/>
       <c r="H151" s="12"/>
       <c r="I151" s="9">
-        <v>210.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B152" s="5" t="s">
+      <c r="A152" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B152" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="D152" s="17"/>
-      <c r="E152" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="D152" s="5"/>
+      <c r="E152" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="20"/>
       <c r="H152" s="12"/>
       <c r="I152" s="9">
-        <v>210.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="D153" s="17"/>
-      <c r="E153" s="7" t="s">
+      <c r="A153" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B153" s="22"/>
+      <c r="C153" s="11" t="s">
         <v>249</v>
+      </c>
+      <c r="D153" s="5"/>
+      <c r="E153" s="11" t="s">
+        <v>250</v>
       </c>
       <c r="F153" s="5"/>
       <c r="G153" s="20"/>
       <c r="H153" s="12"/>
-      <c r="I153" s="9">
-        <v>210.0</v>
+      <c r="I153" s="12">
+        <v>20.0</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B154" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C154" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D154" s="17"/>
-      <c r="E154" s="11" t="s">
+      <c r="A154" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B154" s="22"/>
+      <c r="C154" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F154" s="17"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F154" s="5"/>
       <c r="G154" s="20"/>
-      <c r="H154" s="12"/>
+      <c r="H154" s="9"/>
       <c r="I154" s="9">
-        <v>170.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D155" s="5"/>
-      <c r="E155" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F155" s="5"/>
+      <c r="A155" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B155" s="5"/>
+      <c r="C155" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D155" s="17"/>
+      <c r="E155" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="F155" s="17"/>
       <c r="G155" s="20"/>
-      <c r="H155" s="12"/>
+      <c r="H155" s="9"/>
       <c r="I155" s="9">
-        <v>215.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="22" t="s">
+      <c r="A156" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B156" s="22"/>
-      <c r="C156" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="D156" s="5"/>
-      <c r="E156" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="F156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D156" s="17"/>
+      <c r="E156" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F156" s="17"/>
       <c r="G156" s="20"/>
-      <c r="H156" s="12"/>
-      <c r="I156" s="12">
+      <c r="H156" s="9"/>
+      <c r="I156" s="9">
         <v>20.0</v>
       </c>
     </row>
@@ -4454,38 +4442,38 @@
       <c r="A157" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B157" s="22"/>
+      <c r="B157" s="5"/>
       <c r="C157" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D157" s="5"/>
+        <v>257</v>
+      </c>
+      <c r="D157" s="17"/>
       <c r="E157" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F157" s="5"/>
+        <v>258</v>
+      </c>
+      <c r="F157" s="17"/>
       <c r="G157" s="20"/>
-      <c r="H157" s="9"/>
-      <c r="I157" s="9">
-        <v>20.0</v>
+      <c r="H157" s="12"/>
+      <c r="I157" s="12">
+        <v>40.0</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="23" t="s">
+      <c r="A158" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B158" s="5"/>
-      <c r="C158" s="10" t="s">
-        <v>257</v>
+      <c r="C158" s="7" t="s">
+        <v>259</v>
       </c>
       <c r="D158" s="17"/>
-      <c r="E158" s="24" t="s">
-        <v>258</v>
+      <c r="E158" s="7" t="s">
+        <v>260</v>
       </c>
       <c r="F158" s="17"/>
       <c r="G158" s="20"/>
-      <c r="H158" s="9"/>
-      <c r="I158" s="9">
-        <v>20.0</v>
+      <c r="H158" s="12"/>
+      <c r="I158" s="12">
+        <v>30.0</v>
       </c>
     </row>
     <row r="159">
@@ -4494,16 +4482,16 @@
       </c>
       <c r="B159" s="5"/>
       <c r="C159" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D159" s="17"/>
       <c r="E159" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F159" s="17"/>
       <c r="G159" s="20"/>
-      <c r="H159" s="9"/>
-      <c r="I159" s="9">
+      <c r="H159" s="12"/>
+      <c r="I159" s="12">
         <v>20.0</v>
       </c>
     </row>
@@ -4513,17 +4501,17 @@
       </c>
       <c r="B160" s="5"/>
       <c r="C160" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D160" s="17"/>
       <c r="E160" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F160" s="17"/>
       <c r="G160" s="20"/>
       <c r="H160" s="12"/>
       <c r="I160" s="12">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="161">
@@ -4531,18 +4519,18 @@
         <v>19</v>
       </c>
       <c r="B161" s="5"/>
-      <c r="C161" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D161" s="17"/>
-      <c r="E161" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F161" s="17"/>
+      <c r="C161" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D161" s="5"/>
+      <c r="E161" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="F161" s="5"/>
       <c r="G161" s="20"/>
       <c r="H161" s="12"/>
-      <c r="I161" s="12">
-        <v>30.0</v>
+      <c r="I161" s="9">
+        <v>40.0</v>
       </c>
     </row>
     <row r="162">
@@ -4550,37 +4538,37 @@
         <v>19</v>
       </c>
       <c r="B162" s="5"/>
-      <c r="C162" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="D162" s="17"/>
-      <c r="E162" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="F162" s="17"/>
+      <c r="C162" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D162" s="5"/>
+      <c r="E162" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="F162" s="5"/>
       <c r="G162" s="20"/>
       <c r="H162" s="12"/>
-      <c r="I162" s="12">
-        <v>20.0</v>
+      <c r="I162" s="9">
+        <v>60.0</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="5" t="s">
+      <c r="A163" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B163" s="5"/>
-      <c r="C163" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="D163" s="17"/>
-      <c r="E163" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F163" s="17"/>
+      <c r="C163" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D163" s="5"/>
+      <c r="E163" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="F163" s="5"/>
       <c r="G163" s="20"/>
       <c r="H163" s="12"/>
-      <c r="I163" s="12">
-        <v>20.0</v>
+      <c r="I163" s="9">
+        <v>150.0</v>
       </c>
     </row>
     <row r="164">
@@ -4588,18 +4576,18 @@
         <v>19</v>
       </c>
       <c r="B164" s="5"/>
-      <c r="C164" s="10" t="s">
-        <v>269</v>
+      <c r="C164" s="7" t="s">
+        <v>271</v>
       </c>
       <c r="D164" s="5"/>
-      <c r="E164" s="10" t="s">
-        <v>270</v>
+      <c r="E164" s="7" t="s">
+        <v>272</v>
       </c>
       <c r="F164" s="5"/>
       <c r="G164" s="20"/>
       <c r="H164" s="12"/>
-      <c r="I164" s="9">
-        <v>40.0</v>
+      <c r="I164" s="12">
+        <v>15.0</v>
       </c>
     </row>
     <row r="165">
@@ -4608,94 +4596,55 @@
       </c>
       <c r="B165" s="5"/>
       <c r="C165" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="10" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F165" s="5"/>
       <c r="G165" s="20"/>
       <c r="H165" s="12"/>
       <c r="I165" s="9">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B166" s="17"/>
+      <c r="C166" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D166" s="5"/>
+      <c r="E166" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="12"/>
+      <c r="I166" s="12">
         <v>60.0</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B166" s="5"/>
-      <c r="C166" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="D166" s="5"/>
-      <c r="E166" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="F166" s="5"/>
-      <c r="G166" s="20"/>
-      <c r="H166" s="12"/>
-      <c r="I166" s="9">
-        <v>150.0</v>
-      </c>
-    </row>
     <row r="167">
-      <c r="A167" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B167" s="5"/>
-      <c r="C167" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="D167" s="5"/>
-      <c r="E167" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F167" s="5"/>
-      <c r="G167" s="20"/>
-      <c r="H167" s="12"/>
-      <c r="I167" s="12">
-        <v>15.0</v>
-      </c>
+      <c r="A167" s="25"/>
+      <c r="B167" s="25"/>
+      <c r="C167" s="25"/>
+      <c r="E167" s="25"/>
     </row>
     <row r="168">
-      <c r="A168" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B168" s="5"/>
-      <c r="C168" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="D168" s="5"/>
-      <c r="E168" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="F168" s="5"/>
-      <c r="G168" s="20"/>
-      <c r="H168" s="12"/>
-      <c r="I168" s="9">
-        <v>15.0</v>
-      </c>
+      <c r="A168" s="25"/>
+      <c r="B168" s="25"/>
+      <c r="C168" s="25"/>
+      <c r="E168" s="25"/>
     </row>
     <row r="169">
-      <c r="A169" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B169" s="17"/>
-      <c r="C169" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="D169" s="5"/>
-      <c r="E169" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F169" s="5"/>
-      <c r="G169" s="5"/>
-      <c r="H169" s="12"/>
-      <c r="I169" s="12">
-        <v>60.0</v>
-      </c>
+      <c r="A169" s="25"/>
+      <c r="B169" s="25"/>
+      <c r="C169" s="25"/>
+      <c r="E169" s="25"/>
     </row>
     <row r="170">
       <c r="A170" s="25"/>
@@ -4718,28 +4667,10 @@
     <row r="173">
       <c r="A173" s="25"/>
       <c r="B173" s="25"/>
-      <c r="C173" s="25"/>
-      <c r="E173" s="25"/>
     </row>
     <row r="174">
       <c r="A174" s="25"/>
       <c r="B174" s="25"/>
-      <c r="C174" s="25"/>
-      <c r="E174" s="25"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="25"/>
-      <c r="B175" s="25"/>
-      <c r="C175" s="25"/>
-      <c r="E175" s="25"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="25"/>
-      <c r="B176" s="25"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="25"/>
-      <c r="B177" s="25"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -3257,7 +3257,7 @@
       <c r="G96" s="12"/>
       <c r="H96" s="11"/>
       <c r="I96" s="9">
-        <v>50.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="97">
@@ -3276,7 +3276,7 @@
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
       <c r="I97" s="9">
-        <v>55.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="98">
@@ -3314,7 +3314,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
       <c r="I99" s="9">
-        <v>40.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="100">
@@ -4054,7 +4054,7 @@
       <c r="G137" s="20"/>
       <c r="H137" s="12"/>
       <c r="I137" s="9">
-        <v>85.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="138">
@@ -4075,7 +4075,7 @@
       <c r="G138" s="20"/>
       <c r="H138" s="12"/>
       <c r="I138" s="9">
-        <v>90.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="139">
@@ -4093,8 +4093,8 @@
       <c r="F139" s="5"/>
       <c r="G139" s="20"/>
       <c r="H139" s="12"/>
-      <c r="I139" s="12">
-        <v>110.0</v>
+      <c r="I139" s="9">
+        <v>140.0</v>
       </c>
     </row>
     <row r="140">
@@ -4112,8 +4112,8 @@
       <c r="F140" s="5"/>
       <c r="G140" s="20"/>
       <c r="H140" s="12"/>
-      <c r="I140" s="12">
-        <v>120.0</v>
+      <c r="I140" s="9">
+        <v>150.0</v>
       </c>
     </row>
     <row r="141">
@@ -4133,8 +4133,8 @@
       <c r="F141" s="17"/>
       <c r="G141" s="20"/>
       <c r="H141" s="12"/>
-      <c r="I141" s="12">
-        <v>150.0</v>
+      <c r="I141" s="9">
+        <v>180.0</v>
       </c>
     </row>
     <row r="142">
@@ -4155,7 +4155,7 @@
       <c r="G142" s="20"/>
       <c r="H142" s="12"/>
       <c r="I142" s="9">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="143">
@@ -4174,7 +4174,7 @@
       <c r="G143" s="20"/>
       <c r="H143" s="12"/>
       <c r="I143" s="9">
-        <v>90.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="144">
@@ -4195,7 +4195,7 @@
       <c r="G144" s="20"/>
       <c r="H144" s="12"/>
       <c r="I144" s="9">
-        <v>110.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="145">
@@ -4214,7 +4214,7 @@
       <c r="G145" s="20"/>
       <c r="H145" s="12"/>
       <c r="I145" s="9">
-        <v>100.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="146">
@@ -4338,7 +4338,7 @@
       <c r="G151" s="20"/>
       <c r="H151" s="12"/>
       <c r="I151" s="9">
-        <v>170.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="152">
@@ -4359,7 +4359,7 @@
       <c r="G152" s="20"/>
       <c r="H152" s="12"/>
       <c r="I152" s="9">
-        <v>215.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="153">

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -4397,7 +4397,7 @@
       <c r="G154" s="20"/>
       <c r="H154" s="9"/>
       <c r="I154" s="9">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="155">

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -800,7 +800,7 @@
     <t>Toast with Cheddar</t>
   </si>
   <si>
-    <t>Tost Kaşarlı (çift kaşar)</t>
+    <t>Tost Kaşarlı (çift kaşar+Chedar)</t>
   </si>
   <si>
     <t>Toast with Cheddar+Salami</t>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -3314,7 +3314,7 @@
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
       <c r="I99" s="9">
-        <v>45.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="100">

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -1773,7 +1773,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8">
-        <v>100.0</v>
+        <v>110.0</v>
       </c>
       <c r="I20" s="9">
         <v>140.0</v>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="277">
   <si>
     <t>category</t>
   </si>
@@ -1040,12 +1040,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1459,3218 +1462,3217 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="str">
-        <f>SUM()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="3"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8">
+      <c r="F20" s="6"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9">
         <v>110.0</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="10">
         <v>140.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="10" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="9">
+      <c r="F21" s="6"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="10">
         <v>125.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="10" t="s">
+      <c r="D22" s="6"/>
+      <c r="E22" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="8">
+      <c r="F22" s="6"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="9">
         <v>120.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="10" t="s">
+      <c r="D23" s="6"/>
+      <c r="E23" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="9">
+      <c r="F23" s="6"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="10">
         <v>130.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="10" t="s">
+      <c r="D24" s="6"/>
+      <c r="E24" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="9">
+      <c r="F24" s="6"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="10">
         <v>140.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="7" t="s">
+      <c r="D25" s="6"/>
+      <c r="E25" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="8">
+      <c r="F25" s="6"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="9">
         <v>130.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="7" t="s">
+      <c r="D26" s="6"/>
+      <c r="E26" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="8">
+      <c r="F26" s="6"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="9">
         <v>135.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7" t="s">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="7" t="s">
+      <c r="D27" s="6"/>
+      <c r="E27" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="8">
+      <c r="F27" s="6"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="9">
         <v>150.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="7" t="s">
+      <c r="D28" s="6"/>
+      <c r="E28" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="8">
+      <c r="F28" s="6"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="9">
         <v>135.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="7" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="8">
+      <c r="F29" s="14"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="9">
         <v>140.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="7" t="s">
+      <c r="D30" s="16"/>
+      <c r="E30" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="8">
+      <c r="F30" s="6"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="9">
         <v>160.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="10" t="s">
+      <c r="B31" s="8"/>
+      <c r="C31" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="10" t="s">
+      <c r="D31" s="16"/>
+      <c r="E31" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="8">
+      <c r="F31" s="6"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="9">
         <v>160.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="16" t="s">
+      <c r="D32" s="16"/>
+      <c r="E32" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="8">
+      <c r="F32" s="16"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="9">
         <v>125.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="7" t="s">
+      <c r="D33" s="16"/>
+      <c r="E33" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="8">
+      <c r="F33" s="16"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="9">
         <v>125.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="7" t="s">
+      <c r="D34" s="16"/>
+      <c r="E34" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="8">
+      <c r="F34" s="16"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="9">
         <v>165.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7" t="s">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="7" t="s">
+      <c r="D35" s="16"/>
+      <c r="E35" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="15"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="8">
+      <c r="F35" s="16"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="9">
         <v>165.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7" t="s">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="7" t="s">
+      <c r="D36" s="16"/>
+      <c r="E36" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="8">
+      <c r="F36" s="16"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="9">
         <v>115.0</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="10">
         <v>125.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7" t="s">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="7" t="s">
+      <c r="D37" s="16"/>
+      <c r="E37" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="8">
+      <c r="F37" s="16"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="9">
         <v>125.0</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="10">
         <v>130.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7" t="s">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="7" t="s">
+      <c r="D38" s="16"/>
+      <c r="E38" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="8">
+      <c r="F38" s="16"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="9">
         <v>125.0</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="10">
         <v>130.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="11" t="s">
+      <c r="D39" s="18"/>
+      <c r="E39" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="8">
+      <c r="F39" s="16"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="9">
         <v>40.0</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="9">
         <v>60.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7" t="s">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="7" t="s">
+      <c r="D40" s="18"/>
+      <c r="E40" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F40" s="15"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="9">
+      <c r="F40" s="16"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="10">
         <v>140.0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7" t="s">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="7" t="s">
+      <c r="D41" s="18"/>
+      <c r="E41" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="9">
+      <c r="F41" s="16"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="10">
         <v>140.0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7" t="s">
+      <c r="B42" s="8"/>
+      <c r="C42" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="7" t="s">
+      <c r="D42" s="18"/>
+      <c r="E42" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="9">
+      <c r="F42" s="18"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="10">
         <v>140.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7" t="s">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="7" t="s">
+      <c r="D43" s="6"/>
+      <c r="E43" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="9">
+      <c r="F43" s="18"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="10">
         <v>130.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7" t="s">
+      <c r="B44" s="8"/>
+      <c r="C44" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="7" t="s">
+      <c r="D44" s="6"/>
+      <c r="E44" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="9">
+      <c r="F44" s="18"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="10">
         <v>130.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7" t="s">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="7" t="s">
+      <c r="D45" s="6"/>
+      <c r="E45" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F45" s="17"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="9">
+      <c r="F45" s="18"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="10">
         <v>130.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7" t="s">
+      <c r="B46" s="8"/>
+      <c r="C46" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="10" t="s">
+      <c r="D46" s="6"/>
+      <c r="E46" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F46" s="15"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="9">
+      <c r="F46" s="16"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="10">
         <v>130.0</v>
       </c>
-      <c r="J46" s="18"/>
+      <c r="J46" s="19"/>
     </row>
     <row r="47">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7" t="s">
+      <c r="B47" s="8"/>
+      <c r="C47" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="7" t="s">
+      <c r="D47" s="16"/>
+      <c r="E47" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="9">
+      <c r="F47" s="6"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="10">
         <v>130.0</v>
       </c>
-      <c r="J47" s="18"/>
+      <c r="J47" s="19"/>
     </row>
     <row r="48">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="7" t="s">
+      <c r="D48" s="16"/>
+      <c r="E48" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="9">
+      <c r="F48" s="6"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="10">
         <v>130.0</v>
       </c>
-      <c r="J48" s="18"/>
+      <c r="J48" s="19"/>
     </row>
     <row r="49">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="10" t="s">
+      <c r="B49" s="12"/>
+      <c r="C49" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D49" s="15"/>
-      <c r="E49" s="10" t="s">
+      <c r="D49" s="16"/>
+      <c r="E49" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="9">
+      <c r="F49" s="6"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="10">
         <v>150.0</v>
       </c>
-      <c r="J49" s="18"/>
+      <c r="J49" s="19"/>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11" t="s">
+      <c r="B50" s="12"/>
+      <c r="C50" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="11" t="s">
+      <c r="D50" s="16"/>
+      <c r="E50" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="9">
+      <c r="F50" s="6"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="10">
         <v>135.0</v>
       </c>
-      <c r="J50" s="18"/>
+      <c r="J50" s="19"/>
     </row>
     <row r="51">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7" t="s">
+      <c r="B51" s="8"/>
+      <c r="C51" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D51" s="15"/>
-      <c r="E51" s="7" t="s">
+      <c r="D51" s="16"/>
+      <c r="E51" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="9">
+      <c r="F51" s="6"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="10">
         <v>135.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7" t="s">
+      <c r="B52" s="8"/>
+      <c r="C52" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="7" t="s">
+      <c r="D52" s="16"/>
+      <c r="E52" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="9">
+      <c r="F52" s="6"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="10">
         <v>135.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7" t="s">
+      <c r="B53" s="8"/>
+      <c r="C53" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="7" t="s">
+      <c r="D53" s="16"/>
+      <c r="E53" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="9">
+      <c r="F53" s="6"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="10">
         <v>135.0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7" t="s">
+      <c r="B54" s="8"/>
+      <c r="C54" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="7" t="s">
+      <c r="D54" s="16"/>
+      <c r="E54" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F54" s="5"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="9">
+      <c r="F54" s="6"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="10">
         <v>135.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7" t="s">
+      <c r="B55" s="8"/>
+      <c r="C55" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D55" s="15"/>
-      <c r="E55" s="7" t="s">
+      <c r="D55" s="16"/>
+      <c r="E55" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="9">
+      <c r="F55" s="6"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="10">
         <v>135.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7" t="s">
+      <c r="B56" s="8"/>
+      <c r="C56" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="7" t="s">
+      <c r="D56" s="18"/>
+      <c r="E56" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F56" s="17"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="9">
+      <c r="F56" s="18"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="10">
         <v>135.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7" t="s">
+      <c r="B57" s="8"/>
+      <c r="C57" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D57" s="17"/>
-      <c r="E57" s="7" t="s">
+      <c r="D57" s="18"/>
+      <c r="E57" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F57" s="17"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="9">
+      <c r="F57" s="18"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="10">
         <v>135.0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="19" t="s">
+      <c r="B58" s="8"/>
+      <c r="C58" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="19" t="s">
+      <c r="D58" s="18"/>
+      <c r="E58" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F58" s="17"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="9">
+      <c r="F58" s="18"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="10">
         <v>135.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11" t="s">
+      <c r="B59" s="12"/>
+      <c r="C59" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D59" s="17"/>
-      <c r="E59" s="11" t="s">
+      <c r="D59" s="18"/>
+      <c r="E59" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F59" s="17"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="8">
+      <c r="F59" s="18"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="9">
         <v>150.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7" t="s">
+      <c r="B60" s="8"/>
+      <c r="C60" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D60" s="17"/>
-      <c r="E60" s="7" t="s">
+      <c r="D60" s="18"/>
+      <c r="E60" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F60" s="17"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="8">
+      <c r="F60" s="18"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="9">
         <v>150.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7" t="s">
+      <c r="B61" s="8"/>
+      <c r="C61" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D61" s="17"/>
-      <c r="E61" s="7" t="s">
+      <c r="D61" s="18"/>
+      <c r="E61" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F61" s="17"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="8">
+      <c r="F61" s="18"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="9">
         <v>170.0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11" t="s">
+      <c r="B62" s="12"/>
+      <c r="C62" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D62" s="17"/>
-      <c r="E62" s="11" t="s">
+      <c r="D62" s="18"/>
+      <c r="E62" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F62" s="17"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="9">
+      <c r="F62" s="18"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="10">
         <v>130.0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7" t="s">
+      <c r="B63" s="8"/>
+      <c r="C63" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D63" s="17"/>
-      <c r="E63" s="7" t="s">
+      <c r="D63" s="18"/>
+      <c r="E63" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F63" s="17"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="9">
+      <c r="F63" s="18"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="10">
         <v>135.0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D64" s="17"/>
-      <c r="E64" s="7" t="s">
+      <c r="D64" s="18"/>
+      <c r="E64" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F64" s="17"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="8">
+      <c r="F64" s="18"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="9">
         <v>140.0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7" t="s">
+      <c r="B65" s="8"/>
+      <c r="C65" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D65" s="17"/>
-      <c r="E65" s="7" t="s">
+      <c r="D65" s="18"/>
+      <c r="E65" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F65" s="17"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="8">
+      <c r="F65" s="18"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="9">
         <v>145.0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7" t="s">
+      <c r="B66" s="8"/>
+      <c r="C66" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D66" s="17"/>
-      <c r="E66" s="7" t="s">
+      <c r="D66" s="18"/>
+      <c r="E66" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F66" s="17"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="8">
+      <c r="F66" s="18"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="9">
         <v>160.0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7" t="s">
+      <c r="B67" s="8"/>
+      <c r="C67" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D67" s="17"/>
-      <c r="E67" s="7" t="s">
+      <c r="D67" s="18"/>
+      <c r="E67" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F67" s="17"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="8">
+      <c r="F67" s="18"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="9">
         <v>170.0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7" t="s">
+      <c r="B68" s="8"/>
+      <c r="C68" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D68" s="17"/>
-      <c r="E68" s="7" t="s">
+      <c r="D68" s="18"/>
+      <c r="E68" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F68" s="17"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="8">
+      <c r="F68" s="18"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="9">
         <v>170.0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D69" s="17"/>
-      <c r="E69" s="7" t="s">
+      <c r="D69" s="18"/>
+      <c r="E69" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F69" s="17"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="8">
+      <c r="F69" s="18"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="9">
         <v>145.0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="7"/>
-      <c r="C70" s="19" t="s">
+      <c r="B70" s="8"/>
+      <c r="C70" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D70" s="17"/>
-      <c r="E70" s="19" t="s">
+      <c r="D70" s="18"/>
+      <c r="E70" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="F70" s="17"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="8">
+      <c r="F70" s="18"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="9">
         <v>180.0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="19" t="s">
+      <c r="B71" s="8"/>
+      <c r="C71" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D71" s="17"/>
-      <c r="E71" s="19" t="s">
+      <c r="D71" s="18"/>
+      <c r="E71" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="F71" s="17"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="8">
+      <c r="F71" s="18"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="9">
         <v>180.0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="10" t="s">
+      <c r="B72" s="12"/>
+      <c r="C72" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D72" s="15"/>
-      <c r="E72" s="10" t="s">
+      <c r="D72" s="16"/>
+      <c r="E72" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F72" s="5"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="8">
+      <c r="F72" s="6"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="9">
         <v>140.0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11" t="s">
+      <c r="B73" s="12"/>
+      <c r="C73" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D73" s="15"/>
-      <c r="E73" s="11" t="s">
+      <c r="D73" s="16"/>
+      <c r="E73" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F73" s="5"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="8">
+      <c r="F73" s="6"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="9">
         <v>180.0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="7" t="s">
+      <c r="B74" s="12"/>
+      <c r="C74" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D74" s="15"/>
-      <c r="E74" s="7" t="s">
+      <c r="D74" s="16"/>
+      <c r="E74" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F74" s="5"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="8">
+      <c r="F74" s="6"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="9">
         <v>195.0</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7" t="s">
+      <c r="B75" s="8"/>
+      <c r="C75" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D75" s="15"/>
-      <c r="E75" s="7" t="s">
+      <c r="D75" s="16"/>
+      <c r="E75" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F75" s="5"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="8">
+      <c r="F75" s="6"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="9">
         <v>180.0</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7" t="s">
+      <c r="B76" s="8"/>
+      <c r="C76" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D76" s="15"/>
-      <c r="E76" s="7" t="s">
+      <c r="D76" s="16"/>
+      <c r="E76" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F76" s="5"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="8">
+      <c r="F76" s="6"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="9">
         <v>180.0</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7" t="s">
+      <c r="B77" s="8"/>
+      <c r="C77" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D77" s="15"/>
-      <c r="E77" s="7" t="s">
+      <c r="D77" s="16"/>
+      <c r="E77" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F77" s="5"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="8">
+      <c r="F77" s="6"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="9">
         <v>170.0</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D78" s="15"/>
-      <c r="E78" s="7" t="s">
+      <c r="D78" s="16"/>
+      <c r="E78" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F78" s="5"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="8">
+      <c r="F78" s="6"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="9">
         <v>125.0</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7" t="s">
+      <c r="B79" s="8"/>
+      <c r="C79" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D79" s="17"/>
-      <c r="E79" s="7" t="s">
+      <c r="D79" s="18"/>
+      <c r="E79" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F79" s="17"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="8">
+      <c r="F79" s="18"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="9">
         <v>180.0</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="10">
+      <c r="A80" s="11">
         <v>15.0</v>
       </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7" t="s">
+      <c r="B80" s="8"/>
+      <c r="C80" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D80" s="17"/>
-      <c r="E80" s="7" t="s">
+      <c r="D80" s="18"/>
+      <c r="E80" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F80" s="17"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="8">
+      <c r="F80" s="18"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="9">
         <v>150.0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7" t="s">
+      <c r="B81" s="8"/>
+      <c r="C81" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D81" s="17"/>
-      <c r="E81" s="7" t="s">
+      <c r="D81" s="18"/>
+      <c r="E81" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F81" s="17"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="8">
+      <c r="F81" s="18"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="9">
         <v>160.0</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7" t="s">
+      <c r="B82" s="8"/>
+      <c r="C82" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D82" s="17"/>
-      <c r="E82" s="7" t="s">
+      <c r="D82" s="18"/>
+      <c r="E82" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F82" s="21"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="8">
+      <c r="F82" s="22"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="9">
         <v>130.0</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7" t="s">
+      <c r="B83" s="8"/>
+      <c r="C83" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D83" s="17"/>
-      <c r="E83" s="7" t="s">
+      <c r="D83" s="18"/>
+      <c r="E83" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F83" s="17"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="8">
+      <c r="F83" s="18"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="9">
         <v>150.0</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7" t="s">
+      <c r="B84" s="8"/>
+      <c r="C84" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D84" s="17"/>
-      <c r="E84" s="7" t="s">
+      <c r="D84" s="18"/>
+      <c r="E84" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F84" s="17"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="8">
+      <c r="F84" s="18"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="9">
         <v>150.0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7" t="s">
+      <c r="B85" s="8"/>
+      <c r="C85" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D85" s="17"/>
-      <c r="E85" s="7" t="s">
+      <c r="D85" s="18"/>
+      <c r="E85" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F85" s="17"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="8">
+      <c r="F85" s="18"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="9">
         <v>150.0</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7" t="s">
+      <c r="B86" s="8"/>
+      <c r="C86" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D86" s="17"/>
-      <c r="E86" s="7" t="s">
+      <c r="D86" s="18"/>
+      <c r="E86" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F86" s="17"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="9">
+      <c r="F86" s="18"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="10">
         <v>120.0</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D87" s="17"/>
-      <c r="E87" s="7" t="s">
+      <c r="D87" s="18"/>
+      <c r="E87" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F87" s="17"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="9">
+      <c r="F87" s="18"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="10">
         <v>125.0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="7"/>
-      <c r="C88" s="10" t="s">
+      <c r="B88" s="8"/>
+      <c r="C88" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D88" s="17"/>
-      <c r="E88" s="10" t="s">
+      <c r="D88" s="18"/>
+      <c r="E88" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="F88" s="17"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="9">
+      <c r="F88" s="18"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="10">
         <v>150.0</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D89" s="17"/>
-      <c r="E89" s="7" t="s">
+      <c r="D89" s="18"/>
+      <c r="E89" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F89" s="17"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="8">
+      <c r="F89" s="18"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="9">
         <v>110.0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7" t="s">
+      <c r="B90" s="8"/>
+      <c r="C90" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D90" s="17"/>
-      <c r="E90" s="7" t="s">
+      <c r="D90" s="18"/>
+      <c r="E90" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F90" s="17"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="8">
+      <c r="F90" s="18"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="9">
         <v>110.0</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="19" t="s">
+      <c r="B91" s="8"/>
+      <c r="C91" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="D91" s="17"/>
-      <c r="E91" s="7" t="s">
+      <c r="D91" s="18"/>
+      <c r="E91" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F91" s="17"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="8">
+      <c r="F91" s="18"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="9">
         <v>130.0</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11" t="s">
+      <c r="B92" s="12"/>
+      <c r="C92" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D92" s="17"/>
-      <c r="E92" s="11" t="s">
+      <c r="D92" s="18"/>
+      <c r="E92" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="F92" s="17"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="9">
+      <c r="F92" s="18"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="10">
         <v>70.0</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D93" s="17"/>
-      <c r="E93" s="7" t="s">
+      <c r="D93" s="18"/>
+      <c r="E93" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F93" s="17"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="9">
+      <c r="F93" s="18"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="10">
         <v>85.0</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D94" s="17"/>
-      <c r="E94" s="7" t="s">
+      <c r="D94" s="18"/>
+      <c r="E94" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F94" s="17"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="9">
+      <c r="F94" s="18"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="10">
         <v>85.0</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D95" s="17"/>
-      <c r="E95" s="7" t="s">
+      <c r="D95" s="18"/>
+      <c r="E95" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="F95" s="17"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="9">
+      <c r="F95" s="18"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="10">
         <v>60.0</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7" t="s">
+      <c r="B96" s="8"/>
+      <c r="C96" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D96" s="17"/>
-      <c r="E96" s="7" t="s">
+      <c r="D96" s="18"/>
+      <c r="E96" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F96" s="17"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="9">
+      <c r="F96" s="18"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="10">
         <v>65.0</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7" t="s">
+      <c r="B97" s="8"/>
+      <c r="C97" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D97" s="17"/>
-      <c r="E97" s="7" t="s">
+      <c r="D97" s="18"/>
+      <c r="E97" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="F97" s="17"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="9">
+      <c r="F97" s="18"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="10">
         <v>65.0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7" t="s">
+      <c r="B98" s="8"/>
+      <c r="C98" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D98" s="17"/>
-      <c r="E98" s="7" t="s">
+      <c r="D98" s="18"/>
+      <c r="E98" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F98" s="17"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="9">
+      <c r="F98" s="18"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="10">
         <v>40.0</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7" t="s">
+      <c r="B99" s="8"/>
+      <c r="C99" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D99" s="17"/>
-      <c r="E99" s="7" t="s">
+      <c r="D99" s="18"/>
+      <c r="E99" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F99" s="5"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="9">
+      <c r="F99" s="6"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="10">
         <v>50.0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="22" t="s">
+      <c r="A100" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B100" s="22" t="s">
+      <c r="B100" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C100" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D100" s="17"/>
-      <c r="E100" s="11" t="s">
+      <c r="D100" s="18"/>
+      <c r="E100" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="F100" s="17"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="8">
+      <c r="F100" s="18"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="9">
         <v>185.0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B101" s="5"/>
-      <c r="C101" s="7" t="s">
+      <c r="B101" s="6"/>
+      <c r="C101" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D101" s="15"/>
-      <c r="E101" s="7" t="s">
+      <c r="D101" s="16"/>
+      <c r="E101" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F101" s="17"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="8">
+      <c r="F101" s="18"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="9">
         <v>185.0</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D102" s="17"/>
-      <c r="E102" s="7" t="s">
+      <c r="D102" s="18"/>
+      <c r="E102" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F102" s="17"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="8">
+      <c r="F102" s="18"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="9">
         <v>185.0</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B103" s="5"/>
-      <c r="C103" s="7" t="s">
+      <c r="B103" s="6"/>
+      <c r="C103" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D103" s="17"/>
-      <c r="E103" s="7" t="s">
+      <c r="D103" s="18"/>
+      <c r="E103" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F103" s="17"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="8">
+      <c r="F103" s="18"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="9">
         <v>185.0</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B104" s="5"/>
-      <c r="C104" s="7" t="s">
+      <c r="B104" s="6"/>
+      <c r="C104" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D104" s="17"/>
-      <c r="E104" s="7" t="s">
+      <c r="D104" s="18"/>
+      <c r="E104" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F104" s="17"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="8">
+      <c r="F104" s="18"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="9">
         <v>185.0</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="23" t="s">
+      <c r="A105" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="5"/>
-      <c r="C105" s="10" t="s">
+      <c r="B105" s="6"/>
+      <c r="C105" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="D105" s="17"/>
-      <c r="E105" s="10" t="s">
+      <c r="D105" s="18"/>
+      <c r="E105" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="F105" s="17"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="8">
+      <c r="F105" s="18"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="9">
         <v>220.0</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="23" t="s">
+      <c r="A106" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="5"/>
-      <c r="C106" s="10" t="s">
+      <c r="B106" s="6"/>
+      <c r="C106" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D106" s="17"/>
-      <c r="E106" s="10" t="s">
+      <c r="D106" s="18"/>
+      <c r="E106" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="F106" s="17"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="8">
+      <c r="F106" s="18"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="9">
         <v>240.0</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="22" t="s">
+      <c r="A107" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B107" s="22" t="s">
+      <c r="B107" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C107" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D107" s="17"/>
-      <c r="E107" s="7" t="s">
+      <c r="D107" s="18"/>
+      <c r="E107" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="F107" s="17"/>
-      <c r="G107" s="20"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="9">
+      <c r="F107" s="18"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="10">
         <v>215.0</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B108" s="22"/>
-      <c r="C108" s="11" t="s">
+      <c r="B108" s="23"/>
+      <c r="C108" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="D108" s="17"/>
-      <c r="E108" s="11" t="s">
+      <c r="D108" s="18"/>
+      <c r="E108" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="F108" s="17"/>
-      <c r="G108" s="20"/>
-      <c r="H108" s="12"/>
-      <c r="I108" s="9">
+      <c r="F108" s="18"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="10">
         <v>230.0</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B109" s="22"/>
-      <c r="C109" s="11" t="s">
+      <c r="B109" s="23"/>
+      <c r="C109" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="D109" s="17"/>
-      <c r="E109" s="11" t="s">
+      <c r="D109" s="18"/>
+      <c r="E109" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="F109" s="17"/>
-      <c r="G109" s="20"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="9">
+      <c r="F109" s="18"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="10">
         <v>230.0</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B110" s="5"/>
-      <c r="C110" s="7" t="s">
+      <c r="B110" s="6"/>
+      <c r="C110" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D110" s="17"/>
-      <c r="E110" s="7" t="s">
+      <c r="D110" s="18"/>
+      <c r="E110" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F110" s="5"/>
-      <c r="G110" s="20"/>
-      <c r="H110" s="12"/>
-      <c r="I110" s="9">
+      <c r="F110" s="6"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="10">
         <v>215.0</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B111" s="5"/>
-      <c r="C111" s="7" t="s">
+      <c r="B111" s="6"/>
+      <c r="C111" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D111" s="17"/>
-      <c r="E111" s="7" t="s">
+      <c r="D111" s="18"/>
+      <c r="E111" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F111" s="5"/>
-      <c r="G111" s="20"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="9">
+      <c r="F111" s="6"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="10">
         <v>215.0</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B112" s="5"/>
-      <c r="C112" s="7" t="s">
+      <c r="B112" s="6"/>
+      <c r="C112" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D112" s="17"/>
-      <c r="E112" s="7" t="s">
+      <c r="D112" s="18"/>
+      <c r="E112" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="F112" s="17"/>
-      <c r="G112" s="20"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="9">
+      <c r="F112" s="18"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="10">
         <v>230.0</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D113" s="17"/>
-      <c r="E113" s="7" t="s">
+      <c r="D113" s="18"/>
+      <c r="E113" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="F113" s="17"/>
-      <c r="G113" s="20"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="9">
+      <c r="F113" s="18"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="10">
         <v>230.0</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B114" s="5"/>
-      <c r="C114" s="7" t="s">
+      <c r="B114" s="6"/>
+      <c r="C114" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D114" s="17"/>
-      <c r="E114" s="7" t="s">
+      <c r="D114" s="18"/>
+      <c r="E114" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="F114" s="5"/>
-      <c r="G114" s="20"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="9">
+      <c r="F114" s="6"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="10">
         <v>230.0</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C115" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D115" s="17"/>
-      <c r="E115" s="7" t="s">
+      <c r="D115" s="18"/>
+      <c r="E115" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="F115" s="17"/>
-      <c r="G115" s="20"/>
-      <c r="H115" s="12"/>
-      <c r="I115" s="9">
+      <c r="F115" s="18"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="10">
         <v>220.0</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B116" s="5"/>
-      <c r="C116" s="7" t="s">
+      <c r="B116" s="6"/>
+      <c r="C116" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="D116" s="17"/>
-      <c r="E116" s="7" t="s">
+      <c r="D116" s="18"/>
+      <c r="E116" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="F116" s="17"/>
-      <c r="G116" s="20"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="9">
+      <c r="F116" s="18"/>
+      <c r="G116" s="21"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="10">
         <v>220.0</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B117" s="5"/>
-      <c r="C117" s="7" t="s">
+      <c r="B117" s="6"/>
+      <c r="C117" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D117" s="17"/>
-      <c r="E117" s="7" t="s">
+      <c r="D117" s="18"/>
+      <c r="E117" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="F117" s="17"/>
-      <c r="G117" s="20"/>
-      <c r="H117" s="12"/>
-      <c r="I117" s="9">
+      <c r="F117" s="18"/>
+      <c r="G117" s="21"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="10">
         <v>220.0</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B118" s="5"/>
-      <c r="C118" s="7" t="s">
+      <c r="B118" s="6"/>
+      <c r="C118" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D118" s="5"/>
-      <c r="E118" s="7" t="s">
+      <c r="D118" s="6"/>
+      <c r="E118" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F118" s="5"/>
-      <c r="G118" s="20"/>
-      <c r="H118" s="12"/>
-      <c r="I118" s="9">
+      <c r="F118" s="6"/>
+      <c r="G118" s="21"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="10">
         <v>230.0</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B119" s="5"/>
-      <c r="C119" s="7" t="s">
+      <c r="B119" s="6"/>
+      <c r="C119" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D119" s="5"/>
-      <c r="E119" s="7" t="s">
+      <c r="D119" s="6"/>
+      <c r="E119" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F119" s="5"/>
-      <c r="G119" s="20"/>
-      <c r="H119" s="12"/>
-      <c r="I119" s="9">
+      <c r="F119" s="6"/>
+      <c r="G119" s="21"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="10">
         <v>220.0</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B120" s="5"/>
-      <c r="C120" s="7" t="s">
+      <c r="B120" s="6"/>
+      <c r="C120" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D120" s="5"/>
-      <c r="E120" s="7" t="s">
+      <c r="D120" s="6"/>
+      <c r="E120" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="F120" s="5"/>
-      <c r="G120" s="20"/>
-      <c r="H120" s="12"/>
-      <c r="I120" s="9">
+      <c r="F120" s="6"/>
+      <c r="G120" s="21"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="10">
         <v>215.0</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B121" s="5"/>
-      <c r="C121" s="7" t="s">
+      <c r="B121" s="6"/>
+      <c r="C121" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D121" s="5"/>
-      <c r="E121" s="7" t="s">
+      <c r="D121" s="6"/>
+      <c r="E121" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F121" s="5"/>
-      <c r="G121" s="20"/>
-      <c r="H121" s="12"/>
-      <c r="I121" s="9">
+      <c r="F121" s="6"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="13"/>
+      <c r="I121" s="10">
         <v>220.0</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B122" s="5"/>
-      <c r="C122" s="7" t="s">
+      <c r="B122" s="6"/>
+      <c r="C122" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D122" s="5"/>
-      <c r="E122" s="7" t="s">
+      <c r="D122" s="6"/>
+      <c r="E122" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="F122" s="5"/>
-      <c r="G122" s="20"/>
-      <c r="H122" s="12"/>
-      <c r="I122" s="9">
+      <c r="F122" s="6"/>
+      <c r="G122" s="21"/>
+      <c r="H122" s="13"/>
+      <c r="I122" s="10">
         <v>210.0</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B123" s="5"/>
-      <c r="C123" s="7" t="s">
+      <c r="B123" s="6"/>
+      <c r="C123" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D123" s="5"/>
-      <c r="E123" s="7" t="s">
+      <c r="D123" s="6"/>
+      <c r="E123" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="F123" s="5"/>
-      <c r="G123" s="20"/>
-      <c r="H123" s="12"/>
-      <c r="I123" s="9">
+      <c r="F123" s="6"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="13"/>
+      <c r="I123" s="10">
         <v>80.0</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C124" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D124" s="17"/>
-      <c r="E124" s="7" t="s">
+      <c r="D124" s="18"/>
+      <c r="E124" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="F124" s="17"/>
-      <c r="G124" s="20"/>
-      <c r="H124" s="12"/>
-      <c r="I124" s="9">
+      <c r="F124" s="18"/>
+      <c r="G124" s="21"/>
+      <c r="H124" s="13"/>
+      <c r="I124" s="10">
         <v>220.0</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B125" s="5"/>
-      <c r="C125" s="7" t="s">
+      <c r="B125" s="6"/>
+      <c r="C125" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D125" s="5"/>
-      <c r="E125" s="7" t="s">
+      <c r="D125" s="6"/>
+      <c r="E125" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F125" s="5"/>
-      <c r="G125" s="20"/>
-      <c r="H125" s="12"/>
-      <c r="I125" s="9">
+      <c r="F125" s="6"/>
+      <c r="G125" s="21"/>
+      <c r="H125" s="13"/>
+      <c r="I125" s="10">
         <v>160.0</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B126" s="5"/>
-      <c r="C126" s="7" t="s">
+      <c r="B126" s="6"/>
+      <c r="C126" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D126" s="5"/>
-      <c r="E126" s="7" t="s">
+      <c r="D126" s="6"/>
+      <c r="E126" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F126" s="5"/>
-      <c r="G126" s="20"/>
-      <c r="H126" s="12"/>
-      <c r="I126" s="9">
+      <c r="F126" s="6"/>
+      <c r="G126" s="21"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="10">
         <v>70.0</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B127" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C127" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D127" s="17"/>
-      <c r="E127" s="10" t="s">
+      <c r="D127" s="18"/>
+      <c r="E127" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="F127" s="17"/>
-      <c r="G127" s="20"/>
-      <c r="H127" s="12"/>
-      <c r="I127" s="9">
+      <c r="F127" s="18"/>
+      <c r="G127" s="21"/>
+      <c r="H127" s="13"/>
+      <c r="I127" s="10">
         <v>220.0</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B128" s="5"/>
-      <c r="C128" s="7" t="s">
+      <c r="B128" s="6"/>
+      <c r="C128" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D128" s="17"/>
-      <c r="E128" s="7" t="s">
+      <c r="D128" s="18"/>
+      <c r="E128" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F128" s="17"/>
-      <c r="G128" s="20"/>
-      <c r="H128" s="12"/>
-      <c r="I128" s="9">
+      <c r="F128" s="18"/>
+      <c r="G128" s="21"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="10">
         <v>220.0</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C129" s="7" t="s">
+      <c r="C129" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D129" s="5"/>
-      <c r="E129" s="7" t="s">
+      <c r="D129" s="6"/>
+      <c r="E129" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="F129" s="5"/>
-      <c r="G129" s="20"/>
-      <c r="H129" s="12"/>
-      <c r="I129" s="9">
+      <c r="F129" s="6"/>
+      <c r="G129" s="21"/>
+      <c r="H129" s="13"/>
+      <c r="I129" s="10">
         <v>220.0</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B130" s="5"/>
-      <c r="C130" s="7" t="s">
+      <c r="B130" s="6"/>
+      <c r="C130" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D130" s="5"/>
-      <c r="E130" s="7" t="s">
+      <c r="D130" s="6"/>
+      <c r="E130" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="F130" s="5"/>
-      <c r="G130" s="20"/>
-      <c r="H130" s="12"/>
-      <c r="I130" s="9">
+      <c r="F130" s="6"/>
+      <c r="G130" s="21"/>
+      <c r="H130" s="13"/>
+      <c r="I130" s="10">
         <v>185.0</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="5" t="s">
+      <c r="A131" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B131" s="5"/>
-      <c r="C131" s="7" t="s">
+      <c r="B131" s="6"/>
+      <c r="C131" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D131" s="17"/>
-      <c r="E131" s="7" t="s">
+      <c r="D131" s="18"/>
+      <c r="E131" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F131" s="17"/>
-      <c r="G131" s="20"/>
-      <c r="H131" s="12"/>
-      <c r="I131" s="9">
+      <c r="F131" s="18"/>
+      <c r="G131" s="21"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="10">
         <v>185.0</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C132" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D132" s="17"/>
-      <c r="E132" s="7" t="s">
+      <c r="D132" s="18"/>
+      <c r="E132" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F132" s="17"/>
-      <c r="G132" s="20"/>
-      <c r="H132" s="12"/>
-      <c r="I132" s="9">
+      <c r="F132" s="18"/>
+      <c r="G132" s="21"/>
+      <c r="H132" s="13"/>
+      <c r="I132" s="10">
         <v>185.0</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="5" t="s">
+      <c r="A133" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B133" s="5"/>
-      <c r="C133" s="7" t="s">
+      <c r="B133" s="6"/>
+      <c r="C133" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D133" s="5"/>
-      <c r="E133" s="7" t="s">
+      <c r="D133" s="6"/>
+      <c r="E133" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="F133" s="5"/>
-      <c r="G133" s="20"/>
-      <c r="H133" s="12"/>
-      <c r="I133" s="9">
+      <c r="F133" s="6"/>
+      <c r="G133" s="21"/>
+      <c r="H133" s="13"/>
+      <c r="I133" s="10">
         <v>185.0</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B134" s="5"/>
-      <c r="C134" s="7" t="s">
+      <c r="B134" s="6"/>
+      <c r="C134" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D134" s="5"/>
-      <c r="E134" s="7" t="s">
+      <c r="D134" s="6"/>
+      <c r="E134" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="F134" s="5"/>
-      <c r="G134" s="20"/>
-      <c r="H134" s="12"/>
-      <c r="I134" s="9">
+      <c r="F134" s="6"/>
+      <c r="G134" s="21"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="10">
         <v>200.0</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B135" s="5"/>
-      <c r="C135" s="7" t="s">
+      <c r="B135" s="6"/>
+      <c r="C135" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D135" s="5"/>
-      <c r="E135" s="7" t="s">
+      <c r="D135" s="6"/>
+      <c r="E135" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="F135" s="5"/>
-      <c r="G135" s="20"/>
-      <c r="H135" s="12"/>
-      <c r="I135" s="9">
+      <c r="F135" s="6"/>
+      <c r="G135" s="21"/>
+      <c r="H135" s="13"/>
+      <c r="I135" s="10">
         <v>185.0</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="5" t="s">
+      <c r="A136" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B136" s="5"/>
-      <c r="C136" s="7" t="s">
+      <c r="B136" s="6"/>
+      <c r="C136" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D136" s="5"/>
-      <c r="E136" s="7" t="s">
+      <c r="D136" s="6"/>
+      <c r="E136" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="F136" s="5"/>
-      <c r="G136" s="20"/>
-      <c r="H136" s="12"/>
-      <c r="I136" s="9">
+      <c r="F136" s="6"/>
+      <c r="G136" s="21"/>
+      <c r="H136" s="13"/>
+      <c r="I136" s="10">
         <v>80.0</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="22" t="s">
+      <c r="A137" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B137" s="22"/>
-      <c r="C137" s="11" t="s">
+      <c r="B137" s="23"/>
+      <c r="C137" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="D137" s="5"/>
-      <c r="E137" s="11" t="s">
+      <c r="D137" s="6"/>
+      <c r="E137" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="F137" s="5"/>
-      <c r="G137" s="20"/>
-      <c r="H137" s="12"/>
-      <c r="I137" s="9">
+      <c r="F137" s="6"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="13"/>
+      <c r="I137" s="10">
         <v>120.0</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="C138" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="D138" s="17"/>
-      <c r="E138" s="7" t="s">
+      <c r="D138" s="18"/>
+      <c r="E138" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="F138" s="5"/>
-      <c r="G138" s="20"/>
-      <c r="H138" s="12"/>
-      <c r="I138" s="9">
+      <c r="F138" s="6"/>
+      <c r="G138" s="21"/>
+      <c r="H138" s="13"/>
+      <c r="I138" s="10">
         <v>130.0</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="5" t="s">
+      <c r="A139" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B139" s="5"/>
-      <c r="C139" s="7" t="s">
+      <c r="B139" s="6"/>
+      <c r="C139" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="D139" s="17"/>
-      <c r="E139" s="7" t="s">
+      <c r="D139" s="18"/>
+      <c r="E139" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="F139" s="5"/>
-      <c r="G139" s="20"/>
-      <c r="H139" s="12"/>
-      <c r="I139" s="9">
+      <c r="F139" s="6"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="13"/>
+      <c r="I139" s="10">
         <v>140.0</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B140" s="5"/>
-      <c r="C140" s="7" t="s">
+      <c r="B140" s="6"/>
+      <c r="C140" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D140" s="17"/>
-      <c r="E140" s="7" t="s">
+      <c r="D140" s="18"/>
+      <c r="E140" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="F140" s="5"/>
-      <c r="G140" s="20"/>
-      <c r="H140" s="12"/>
-      <c r="I140" s="9">
+      <c r="F140" s="6"/>
+      <c r="G140" s="21"/>
+      <c r="H140" s="13"/>
+      <c r="I140" s="10">
         <v>150.0</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="C141" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="D141" s="17"/>
-      <c r="E141" s="7" t="s">
+      <c r="D141" s="18"/>
+      <c r="E141" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="F141" s="17"/>
-      <c r="G141" s="20"/>
-      <c r="H141" s="12"/>
-      <c r="I141" s="9">
+      <c r="F141" s="18"/>
+      <c r="G141" s="21"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="10">
         <v>180.0</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="C142" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D142" s="5"/>
-      <c r="E142" s="7" t="s">
+      <c r="D142" s="6"/>
+      <c r="E142" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="F142" s="5"/>
-      <c r="G142" s="20"/>
-      <c r="H142" s="12"/>
-      <c r="I142" s="9">
+      <c r="F142" s="6"/>
+      <c r="G142" s="21"/>
+      <c r="H142" s="13"/>
+      <c r="I142" s="10">
         <v>180.0</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="5" t="s">
+      <c r="A143" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B143" s="5"/>
-      <c r="C143" s="7" t="s">
+      <c r="B143" s="6"/>
+      <c r="C143" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="D143" s="5"/>
-      <c r="E143" s="10" t="s">
+      <c r="D143" s="6"/>
+      <c r="E143" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="F143" s="5"/>
-      <c r="G143" s="20"/>
-      <c r="H143" s="12"/>
-      <c r="I143" s="9">
+      <c r="F143" s="6"/>
+      <c r="G143" s="21"/>
+      <c r="H143" s="13"/>
+      <c r="I143" s="10">
         <v>110.0</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="22" t="s">
+      <c r="A144" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B144" s="22" t="s">
+      <c r="B144" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C144" s="11" t="s">
+      <c r="C144" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="D144" s="5"/>
-      <c r="E144" s="11" t="s">
+      <c r="D144" s="6"/>
+      <c r="E144" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="F144" s="5"/>
-      <c r="G144" s="20"/>
-      <c r="H144" s="12"/>
-      <c r="I144" s="9">
+      <c r="F144" s="6"/>
+      <c r="G144" s="21"/>
+      <c r="H144" s="13"/>
+      <c r="I144" s="10">
         <v>130.0</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B145" s="5"/>
-      <c r="C145" s="7" t="s">
+      <c r="B145" s="6"/>
+      <c r="C145" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="D145" s="17"/>
-      <c r="E145" s="7" t="s">
+      <c r="D145" s="18"/>
+      <c r="E145" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="F145" s="5"/>
-      <c r="G145" s="20"/>
-      <c r="H145" s="12"/>
-      <c r="I145" s="9">
+      <c r="F145" s="6"/>
+      <c r="G145" s="21"/>
+      <c r="H145" s="13"/>
+      <c r="I145" s="10">
         <v>140.0</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B146" s="5"/>
-      <c r="C146" s="7" t="s">
+      <c r="B146" s="6"/>
+      <c r="C146" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D146" s="17"/>
-      <c r="E146" s="7" t="s">
+      <c r="D146" s="18"/>
+      <c r="E146" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="F146" s="5"/>
-      <c r="G146" s="20"/>
-      <c r="H146" s="12"/>
-      <c r="I146" s="9">
+      <c r="F146" s="6"/>
+      <c r="G146" s="21"/>
+      <c r="H146" s="13"/>
+      <c r="I146" s="10">
         <v>70.0</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="22" t="s">
+      <c r="A147" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B147" s="22" t="s">
+      <c r="B147" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C147" s="11" t="s">
+      <c r="C147" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="D147" s="17"/>
-      <c r="E147" s="8" t="s">
+      <c r="D147" s="18"/>
+      <c r="E147" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="F147" s="5"/>
-      <c r="G147" s="20"/>
-      <c r="H147" s="12"/>
-      <c r="I147" s="9">
+      <c r="F147" s="6"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="13"/>
+      <c r="I147" s="10">
         <v>260.0</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="5" t="s">
+      <c r="A148" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="B148" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C148" s="7" t="s">
+      <c r="C148" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D148" s="17"/>
-      <c r="E148" s="10" t="s">
+      <c r="D148" s="18"/>
+      <c r="E148" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="F148" s="5"/>
-      <c r="G148" s="20"/>
-      <c r="H148" s="12"/>
-      <c r="I148" s="9">
+      <c r="F148" s="6"/>
+      <c r="G148" s="21"/>
+      <c r="H148" s="13"/>
+      <c r="I148" s="10">
         <v>210.0</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="5" t="s">
+      <c r="A149" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B149" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="C149" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="D149" s="17"/>
-      <c r="E149" s="10" t="s">
+      <c r="D149" s="18"/>
+      <c r="E149" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="F149" s="5"/>
-      <c r="G149" s="20"/>
-      <c r="H149" s="12"/>
-      <c r="I149" s="9">
+      <c r="F149" s="6"/>
+      <c r="G149" s="21"/>
+      <c r="H149" s="13"/>
+      <c r="I149" s="10">
         <v>210.0</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C150" s="7" t="s">
+      <c r="C150" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="D150" s="17"/>
-      <c r="E150" s="7" t="s">
+      <c r="D150" s="18"/>
+      <c r="E150" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="F150" s="5"/>
-      <c r="G150" s="20"/>
-      <c r="H150" s="12"/>
-      <c r="I150" s="9">
+      <c r="F150" s="6"/>
+      <c r="G150" s="21"/>
+      <c r="H150" s="13"/>
+      <c r="I150" s="10">
         <v>210.0</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="11" t="s">
+      <c r="A151" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B151" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C151" s="11" t="s">
+      <c r="C151" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="D151" s="17"/>
-      <c r="E151" s="11" t="s">
+      <c r="D151" s="18"/>
+      <c r="E151" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="F151" s="17"/>
-      <c r="G151" s="20"/>
-      <c r="H151" s="12"/>
-      <c r="I151" s="9">
+      <c r="F151" s="18"/>
+      <c r="G151" s="21"/>
+      <c r="H151" s="13"/>
+      <c r="I151" s="10">
         <v>220.0</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="7" t="s">
+      <c r="A152" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B152" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C152" s="7" t="s">
+      <c r="C152" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="D152" s="5"/>
-      <c r="E152" s="7" t="s">
+      <c r="D152" s="6"/>
+      <c r="E152" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="F152" s="5"/>
-      <c r="G152" s="20"/>
-      <c r="H152" s="12"/>
-      <c r="I152" s="9">
+      <c r="F152" s="6"/>
+      <c r="G152" s="21"/>
+      <c r="H152" s="13"/>
+      <c r="I152" s="10">
         <v>250.0</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="22" t="s">
+      <c r="A153" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B153" s="22"/>
-      <c r="C153" s="11" t="s">
+      <c r="B153" s="23"/>
+      <c r="C153" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="D153" s="5"/>
-      <c r="E153" s="11" t="s">
+      <c r="D153" s="6"/>
+      <c r="E153" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="F153" s="5"/>
-      <c r="G153" s="20"/>
-      <c r="H153" s="12"/>
-      <c r="I153" s="12">
+      <c r="F153" s="6"/>
+      <c r="G153" s="21"/>
+      <c r="H153" s="13"/>
+      <c r="I153" s="13">
         <v>20.0</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="5" t="s">
+      <c r="A154" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B154" s="22"/>
-      <c r="C154" s="7" t="s">
+      <c r="B154" s="23"/>
+      <c r="C154" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="D154" s="5"/>
-      <c r="E154" s="7" t="s">
+      <c r="D154" s="6"/>
+      <c r="E154" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="F154" s="5"/>
-      <c r="G154" s="20"/>
-      <c r="H154" s="9"/>
-      <c r="I154" s="9">
+      <c r="F154" s="6"/>
+      <c r="G154" s="21"/>
+      <c r="H154" s="10"/>
+      <c r="I154" s="10">
         <v>40.0</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="23" t="s">
+      <c r="A155" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B155" s="5"/>
-      <c r="C155" s="10" t="s">
+      <c r="B155" s="6"/>
+      <c r="C155" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="D155" s="17"/>
-      <c r="E155" s="24" t="s">
+      <c r="D155" s="18"/>
+      <c r="E155" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="F155" s="17"/>
-      <c r="G155" s="20"/>
-      <c r="H155" s="9"/>
-      <c r="I155" s="9">
+      <c r="F155" s="18"/>
+      <c r="G155" s="21"/>
+      <c r="H155" s="10"/>
+      <c r="I155" s="10">
         <v>20.0</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B156" s="5"/>
-      <c r="C156" s="7" t="s">
+      <c r="B156" s="6"/>
+      <c r="C156" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="D156" s="17"/>
-      <c r="E156" s="7" t="s">
+      <c r="D156" s="18"/>
+      <c r="E156" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="F156" s="17"/>
-      <c r="G156" s="20"/>
-      <c r="H156" s="9"/>
-      <c r="I156" s="9">
+      <c r="F156" s="18"/>
+      <c r="G156" s="21"/>
+      <c r="H156" s="10"/>
+      <c r="I156" s="10">
         <v>20.0</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B157" s="5"/>
-      <c r="C157" s="7" t="s">
+      <c r="B157" s="6"/>
+      <c r="C157" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="D157" s="17"/>
-      <c r="E157" s="7" t="s">
+      <c r="D157" s="18"/>
+      <c r="E157" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="F157" s="17"/>
-      <c r="G157" s="20"/>
-      <c r="H157" s="12"/>
-      <c r="I157" s="12">
+      <c r="F157" s="18"/>
+      <c r="G157" s="21"/>
+      <c r="H157" s="13"/>
+      <c r="I157" s="13">
         <v>40.0</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="5" t="s">
+      <c r="A158" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B158" s="5"/>
-      <c r="C158" s="7" t="s">
+      <c r="B158" s="6"/>
+      <c r="C158" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D158" s="17"/>
-      <c r="E158" s="7" t="s">
+      <c r="D158" s="18"/>
+      <c r="E158" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="F158" s="17"/>
-      <c r="G158" s="20"/>
-      <c r="H158" s="12"/>
-      <c r="I158" s="12">
+      <c r="F158" s="18"/>
+      <c r="G158" s="21"/>
+      <c r="H158" s="13"/>
+      <c r="I158" s="13">
         <v>30.0</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="5" t="s">
+      <c r="A159" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B159" s="5"/>
-      <c r="C159" s="7" t="s">
+      <c r="B159" s="6"/>
+      <c r="C159" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="D159" s="17"/>
-      <c r="E159" s="7" t="s">
+      <c r="D159" s="18"/>
+      <c r="E159" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="F159" s="17"/>
-      <c r="G159" s="20"/>
-      <c r="H159" s="12"/>
-      <c r="I159" s="12">
+      <c r="F159" s="18"/>
+      <c r="G159" s="21"/>
+      <c r="H159" s="13"/>
+      <c r="I159" s="13">
         <v>20.0</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B160" s="5"/>
-      <c r="C160" s="7" t="s">
+      <c r="B160" s="6"/>
+      <c r="C160" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="D160" s="17"/>
-      <c r="E160" s="7" t="s">
+      <c r="D160" s="18"/>
+      <c r="E160" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="F160" s="17"/>
-      <c r="G160" s="20"/>
-      <c r="H160" s="12"/>
-      <c r="I160" s="12">
+      <c r="F160" s="18"/>
+      <c r="G160" s="21"/>
+      <c r="H160" s="13"/>
+      <c r="I160" s="13">
         <v>20.0</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="5" t="s">
+      <c r="A161" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B161" s="5"/>
-      <c r="C161" s="10" t="s">
+      <c r="B161" s="6"/>
+      <c r="C161" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="D161" s="5"/>
-      <c r="E161" s="10" t="s">
+      <c r="D161" s="6"/>
+      <c r="E161" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="F161" s="5"/>
-      <c r="G161" s="20"/>
-      <c r="H161" s="12"/>
-      <c r="I161" s="9">
+      <c r="F161" s="6"/>
+      <c r="G161" s="21"/>
+      <c r="H161" s="13"/>
+      <c r="I161" s="10">
         <v>40.0</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="5" t="s">
+      <c r="A162" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B162" s="5"/>
-      <c r="C162" s="10" t="s">
+      <c r="B162" s="6"/>
+      <c r="C162" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="D162" s="5"/>
-      <c r="E162" s="10" t="s">
+      <c r="D162" s="6"/>
+      <c r="E162" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="F162" s="5"/>
-      <c r="G162" s="20"/>
-      <c r="H162" s="12"/>
-      <c r="I162" s="9">
+      <c r="F162" s="6"/>
+      <c r="G162" s="21"/>
+      <c r="H162" s="13"/>
+      <c r="I162" s="10">
         <v>60.0</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="23" t="s">
+      <c r="A163" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B163" s="5"/>
-      <c r="C163" s="10" t="s">
+      <c r="B163" s="6"/>
+      <c r="C163" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="D163" s="5"/>
-      <c r="E163" s="10" t="s">
+      <c r="D163" s="6"/>
+      <c r="E163" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="F163" s="5"/>
-      <c r="G163" s="20"/>
-      <c r="H163" s="12"/>
-      <c r="I163" s="9">
+      <c r="F163" s="6"/>
+      <c r="G163" s="21"/>
+      <c r="H163" s="13"/>
+      <c r="I163" s="10">
         <v>150.0</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="5" t="s">
+      <c r="A164" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B164" s="5"/>
-      <c r="C164" s="7" t="s">
+      <c r="B164" s="6"/>
+      <c r="C164" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="D164" s="5"/>
-      <c r="E164" s="7" t="s">
+      <c r="D164" s="6"/>
+      <c r="E164" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="F164" s="5"/>
-      <c r="G164" s="20"/>
-      <c r="H164" s="12"/>
-      <c r="I164" s="12">
+      <c r="F164" s="6"/>
+      <c r="G164" s="21"/>
+      <c r="H164" s="13"/>
+      <c r="I164" s="13">
         <v>15.0</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="5" t="s">
+      <c r="A165" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B165" s="5"/>
-      <c r="C165" s="10" t="s">
+      <c r="B165" s="6"/>
+      <c r="C165" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="D165" s="5"/>
-      <c r="E165" s="10" t="s">
+      <c r="D165" s="6"/>
+      <c r="E165" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="F165" s="5"/>
-      <c r="G165" s="20"/>
-      <c r="H165" s="12"/>
-      <c r="I165" s="9">
+      <c r="F165" s="6"/>
+      <c r="G165" s="21"/>
+      <c r="H165" s="13"/>
+      <c r="I165" s="10">
         <v>15.0</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B166" s="17"/>
-      <c r="C166" s="7" t="s">
+      <c r="B166" s="18"/>
+      <c r="C166" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="D166" s="5"/>
-      <c r="E166" s="7" t="s">
+      <c r="D166" s="6"/>
+      <c r="E166" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="F166" s="5"/>
-      <c r="G166" s="5"/>
-      <c r="H166" s="12"/>
-      <c r="I166" s="12">
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="13"/>
+      <c r="I166" s="13">
         <v>60.0</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="25"/>
-      <c r="B167" s="25"/>
-      <c r="C167" s="25"/>
-      <c r="E167" s="25"/>
+      <c r="A167" s="26"/>
+      <c r="B167" s="26"/>
+      <c r="C167" s="26"/>
+      <c r="E167" s="26"/>
     </row>
     <row r="168">
-      <c r="A168" s="25"/>
-      <c r="B168" s="25"/>
-      <c r="C168" s="25"/>
-      <c r="E168" s="25"/>
+      <c r="A168" s="26"/>
+      <c r="B168" s="26"/>
+      <c r="C168" s="26"/>
+      <c r="E168" s="26"/>
     </row>
     <row r="169">
-      <c r="A169" s="25"/>
-      <c r="B169" s="25"/>
-      <c r="C169" s="25"/>
-      <c r="E169" s="25"/>
+      <c r="A169" s="26"/>
+      <c r="B169" s="26"/>
+      <c r="C169" s="26"/>
+      <c r="E169" s="26"/>
     </row>
     <row r="170">
-      <c r="A170" s="25"/>
-      <c r="B170" s="25"/>
-      <c r="C170" s="25"/>
-      <c r="E170" s="25"/>
+      <c r="A170" s="26"/>
+      <c r="B170" s="26"/>
+      <c r="C170" s="26"/>
+      <c r="E170" s="26"/>
     </row>
     <row r="171">
-      <c r="A171" s="25"/>
-      <c r="B171" s="25"/>
-      <c r="C171" s="25"/>
-      <c r="E171" s="25"/>
+      <c r="A171" s="26"/>
+      <c r="B171" s="26"/>
+      <c r="C171" s="26"/>
+      <c r="E171" s="26"/>
     </row>
     <row r="172">
-      <c r="A172" s="25"/>
-      <c r="B172" s="25"/>
-      <c r="C172" s="25"/>
-      <c r="E172" s="25"/>
+      <c r="A172" s="26"/>
+      <c r="B172" s="26"/>
+      <c r="C172" s="26"/>
+      <c r="E172" s="26"/>
     </row>
     <row r="173">
-      <c r="A173" s="25"/>
-      <c r="B173" s="25"/>
+      <c r="A173" s="26"/>
+      <c r="B173" s="26"/>
     </row>
     <row r="174">
-      <c r="A174" s="25"/>
-      <c r="B174" s="25"/>
+      <c r="A174" s="26"/>
+      <c r="B174" s="26"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="277">
   <si>
     <t>category</t>
   </si>
@@ -1898,7 +1898,9 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="8"/>
+      <c r="A27" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8" t="s">
         <v>50</v>
@@ -2930,8 +2932,8 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="11">
-        <v>15.0</v>
+      <c r="A80" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="B80" s="8"/>
       <c r="C80" s="8" t="s">

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -10,7 +10,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="LpOSVwFWQUK8UOw0rC1TimEDtlp3Tl4AUdstOVTmptw="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="28fRTs9VeopEJQMfWtOv3/HU5UbTF6Dk5qFBc3f/rtM="/>
     </ext>
   </extLst>
 </workbook>
@@ -1879,81 +1879,73 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A26" s="8"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="C26" s="8"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="E26" s="8"/>
       <c r="F26" s="6"/>
       <c r="G26" s="13"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="9">
-        <v>135.0</v>
-      </c>
+      <c r="I26" s="9"/>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="13"/>
       <c r="H27" s="12"/>
       <c r="I27" s="9">
-        <v>150.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="13"/>
       <c r="H28" s="12"/>
       <c r="I28" s="9">
-        <v>135.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="8"/>
+      <c r="B29" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C29" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="13"/>
       <c r="H29" s="12"/>
       <c r="I29" s="9">
-        <v>140.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="30">
@@ -1962,17 +1954,17 @@
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="16"/>
+        <v>52</v>
+      </c>
+      <c r="D30" s="6"/>
       <c r="E30" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="13"/>
+        <v>52</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
       <c r="H30" s="12"/>
       <c r="I30" s="9">
-        <v>160.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="31">
@@ -1980,12 +1972,12 @@
         <v>3</v>
       </c>
       <c r="B31" s="8"/>
-      <c r="C31" s="11" t="s">
-        <v>54</v>
+      <c r="C31" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="D31" s="16"/>
-      <c r="E31" s="11" t="s">
-        <v>54</v>
+      <c r="E31" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="13"/>
@@ -1998,34 +1990,34 @@
       <c r="A32" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>55</v>
+      <c r="B32" s="8"/>
+      <c r="C32" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="D32" s="16"/>
-      <c r="E32" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="16"/>
+      <c r="E32" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="6"/>
       <c r="G32" s="13"/>
       <c r="H32" s="12"/>
       <c r="I32" s="9">
-        <v>125.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8" t="s">
-        <v>56</v>
+      <c r="B33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="D33" s="16"/>
-      <c r="E33" s="8" t="s">
-        <v>57</v>
+      <c r="E33" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="13"/>
@@ -2040,17 +2032,17 @@
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="13"/>
       <c r="H34" s="12"/>
       <c r="I34" s="9">
-        <v>165.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="35">
@@ -2059,11 +2051,11 @@
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="13"/>
@@ -2078,19 +2070,17 @@
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F36" s="16"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="9">
-        <v>115.0</v>
-      </c>
-      <c r="I36" s="10">
-        <v>125.0</v>
+      <c r="G36" s="13"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="9">
+        <v>165.0</v>
       </c>
     </row>
     <row r="37">
@@ -2099,19 +2089,19 @@
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="12"/>
       <c r="H37" s="9">
+        <v>115.0</v>
+      </c>
+      <c r="I37" s="10">
         <v>125.0</v>
-      </c>
-      <c r="I37" s="10">
-        <v>130.0</v>
       </c>
     </row>
     <row r="38">
@@ -2120,11 +2110,11 @@
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="12"/>
@@ -2136,45 +2126,47 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="12" t="s">
-        <v>67</v>
+      <c r="A39" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="12"/>
       <c r="H39" s="9">
+        <v>125.0</v>
+      </c>
+      <c r="I39" s="10">
+        <v>130.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="18"/>
+      <c r="E40" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="9">
         <v>40.0</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I40" s="9">
         <v>60.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="10">
-        <v>140.0</v>
       </c>
     </row>
     <row r="41">
@@ -2183,11 +2175,11 @@
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="13"/>
@@ -2202,13 +2194,13 @@
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F42" s="18"/>
+        <v>71</v>
+      </c>
+      <c r="F42" s="16"/>
       <c r="G42" s="13"/>
       <c r="H42" s="12"/>
       <c r="I42" s="10">
@@ -2221,17 +2213,17 @@
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="D43" s="18"/>
       <c r="E43" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F43" s="18"/>
       <c r="G43" s="13"/>
       <c r="H43" s="12"/>
       <c r="I43" s="10">
-        <v>130.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="44">
@@ -2240,14 +2232,14 @@
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F44" s="18"/>
-      <c r="G44" s="12"/>
+      <c r="G44" s="13"/>
       <c r="H44" s="12"/>
       <c r="I44" s="10">
         <v>130.0</v>
@@ -2259,14 +2251,14 @@
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F45" s="18"/>
-      <c r="G45" s="13"/>
+      <c r="G45" s="12"/>
       <c r="H45" s="12"/>
       <c r="I45" s="10">
         <v>130.0</v>
@@ -2278,19 +2270,18 @@
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D46" s="6"/>
-      <c r="E46" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F46" s="16"/>
+      <c r="E46" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="18"/>
       <c r="G46" s="13"/>
       <c r="H46" s="12"/>
       <c r="I46" s="10">
         <v>130.0</v>
       </c>
-      <c r="J46" s="19"/>
     </row>
     <row r="47">
       <c r="A47" s="8" t="s">
@@ -2298,13 +2289,13 @@
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" s="16"/>
-      <c r="E47" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F47" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="16"/>
       <c r="G47" s="13"/>
       <c r="H47" s="12"/>
       <c r="I47" s="10">
@@ -2316,15 +2307,13 @@
       <c r="A48" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B48" s="8"/>
       <c r="C48" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="13"/>
@@ -2335,56 +2324,58 @@
       <c r="J48" s="19"/>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="11" t="s">
-        <v>86</v>
+      <c r="B49" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="D49" s="16"/>
-      <c r="E49" s="11" t="s">
-        <v>86</v>
+      <c r="E49" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="13"/>
       <c r="H49" s="12"/>
       <c r="I49" s="10">
-        <v>150.0</v>
+        <v>130.0</v>
       </c>
       <c r="J49" s="19"/>
     </row>
     <row r="50">
-      <c r="A50" s="12" t="s">
-        <v>5</v>
+      <c r="A50" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="B50" s="12"/>
-      <c r="C50" s="12" t="s">
-        <v>87</v>
+      <c r="C50" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="D50" s="16"/>
-      <c r="E50" s="12" t="s">
-        <v>87</v>
+      <c r="E50" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="13"/>
       <c r="H50" s="12"/>
       <c r="I50" s="10">
-        <v>135.0</v>
+        <v>150.0</v>
       </c>
       <c r="J50" s="19"/>
     </row>
     <row r="51">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8" t="s">
-        <v>88</v>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D51" s="16"/>
-      <c r="E51" s="8" t="s">
-        <v>88</v>
+      <c r="E51" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="13"/>
@@ -2392,6 +2383,7 @@
       <c r="I51" s="10">
         <v>135.0</v>
       </c>
+      <c r="J51" s="19"/>
     </row>
     <row r="52">
       <c r="A52" s="8" t="s">
@@ -2399,11 +2391,11 @@
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="13"/>
@@ -2418,11 +2410,11 @@
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D53" s="16"/>
       <c r="E53" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="13"/>
@@ -2437,11 +2429,11 @@
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D54" s="16"/>
       <c r="E54" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="13"/>
@@ -2456,11 +2448,11 @@
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="16"/>
       <c r="E55" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="13"/>
@@ -2475,13 +2467,13 @@
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D56" s="18"/>
+        <v>92</v>
+      </c>
+      <c r="D56" s="16"/>
       <c r="E56" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F56" s="18"/>
+        <v>92</v>
+      </c>
+      <c r="F56" s="6"/>
       <c r="G56" s="13"/>
       <c r="H56" s="12"/>
       <c r="I56" s="10">
@@ -2494,11 +2486,11 @@
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D57" s="18"/>
       <c r="E57" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="13"/>
@@ -2512,12 +2504,12 @@
         <v>5</v>
       </c>
       <c r="B58" s="8"/>
-      <c r="C58" s="20" t="s">
-        <v>95</v>
+      <c r="C58" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="D58" s="18"/>
-      <c r="E58" s="20" t="s">
-        <v>95</v>
+      <c r="E58" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="F58" s="18"/>
       <c r="G58" s="13"/>
@@ -2527,35 +2519,35 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12" t="s">
-        <v>96</v>
+      <c r="A59" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="D59" s="18"/>
-      <c r="E59" s="12" t="s">
-        <v>97</v>
+      <c r="E59" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="F59" s="18"/>
       <c r="G59" s="13"/>
       <c r="H59" s="12"/>
-      <c r="I59" s="9">
-        <v>150.0</v>
+      <c r="I59" s="10">
+        <v>135.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8" t="s">
-        <v>98</v>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="D60" s="18"/>
-      <c r="E60" s="8" t="s">
-        <v>98</v>
+      <c r="E60" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="F60" s="18"/>
       <c r="G60" s="13"/>
@@ -2570,95 +2562,95 @@
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D61" s="18"/>
       <c r="E61" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="13"/>
       <c r="H61" s="12"/>
       <c r="I61" s="9">
-        <v>170.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12" t="s">
-        <v>100</v>
+      <c r="A62" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="D62" s="18"/>
-      <c r="E62" s="12" t="s">
-        <v>100</v>
+      <c r="E62" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="13"/>
       <c r="H62" s="12"/>
-      <c r="I62" s="10">
-        <v>130.0</v>
+      <c r="I62" s="9">
+        <v>170.0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8" t="s">
-        <v>101</v>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="D63" s="18"/>
-      <c r="E63" s="8" t="s">
-        <v>102</v>
+      <c r="E63" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="F63" s="18"/>
       <c r="G63" s="13"/>
       <c r="H63" s="12"/>
       <c r="I63" s="10">
-        <v>135.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B64" s="8"/>
       <c r="C64" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D64" s="18"/>
       <c r="E64" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F64" s="18"/>
-      <c r="G64" s="21"/>
+      <c r="G64" s="13"/>
       <c r="H64" s="12"/>
-      <c r="I64" s="9">
-        <v>140.0</v>
+      <c r="I64" s="10">
+        <v>135.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="8"/>
+      <c r="B65" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C65" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D65" s="18"/>
       <c r="E65" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F65" s="18"/>
       <c r="G65" s="21"/>
       <c r="H65" s="12"/>
       <c r="I65" s="9">
-        <v>145.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="66">
@@ -2667,17 +2659,17 @@
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D66" s="18"/>
       <c r="E66" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F66" s="18"/>
       <c r="G66" s="21"/>
       <c r="H66" s="12"/>
       <c r="I66" s="9">
-        <v>160.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="67">
@@ -2686,17 +2678,17 @@
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D67" s="18"/>
       <c r="E67" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F67" s="18"/>
       <c r="G67" s="21"/>
       <c r="H67" s="12"/>
       <c r="I67" s="9">
-        <v>170.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="68">
@@ -2705,11 +2697,11 @@
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D68" s="18"/>
       <c r="E68" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F68" s="18"/>
       <c r="G68" s="21"/>
@@ -2722,40 +2714,40 @@
       <c r="A69" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B69" s="8"/>
       <c r="C69" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D69" s="18"/>
       <c r="E69" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F69" s="18"/>
       <c r="G69" s="21"/>
       <c r="H69" s="12"/>
       <c r="I69" s="9">
-        <v>145.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="20" t="s">
-        <v>109</v>
+      <c r="B70" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="D70" s="18"/>
-      <c r="E70" s="20" t="s">
-        <v>109</v>
+      <c r="E70" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="21"/>
       <c r="H70" s="12"/>
       <c r="I70" s="9">
-        <v>180.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="71">
@@ -2764,93 +2756,93 @@
       </c>
       <c r="B71" s="8"/>
       <c r="C71" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D71" s="18"/>
       <c r="E71" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F71" s="18"/>
-      <c r="G71" s="12"/>
+      <c r="G71" s="21"/>
       <c r="H71" s="12"/>
       <c r="I71" s="9">
         <v>180.0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="12"/>
-      <c r="C72" s="11" t="s">
+      <c r="B72" s="8"/>
+      <c r="C72" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" s="18"/>
+      <c r="E72" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F72" s="18"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="9">
+        <v>180.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="12"/>
+      <c r="C73" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D72" s="16"/>
-      <c r="E72" s="11" t="s">
+      <c r="D73" s="16"/>
+      <c r="E73" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="F72" s="6"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="9">
-        <v>140.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D73" s="16"/>
-      <c r="E73" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="13"/>
       <c r="H73" s="21"/>
       <c r="I73" s="9">
-        <v>180.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B74" s="12"/>
-      <c r="C74" s="8" t="s">
-        <v>114</v>
+      <c r="C74" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="D74" s="16"/>
-      <c r="E74" s="8" t="s">
-        <v>114</v>
+      <c r="E74" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="13"/>
       <c r="H74" s="21"/>
       <c r="I74" s="9">
-        <v>195.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="8"/>
+      <c r="B75" s="12"/>
       <c r="C75" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="13"/>
       <c r="H75" s="21"/>
       <c r="I75" s="9">
-        <v>180.0</v>
+        <v>195.0</v>
       </c>
     </row>
     <row r="76">
@@ -2859,11 +2851,11 @@
       </c>
       <c r="B76" s="8"/>
       <c r="C76" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D76" s="16"/>
       <c r="E76" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="13"/>
@@ -2878,95 +2870,95 @@
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D77" s="16"/>
       <c r="E77" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="13"/>
       <c r="H77" s="21"/>
       <c r="I77" s="9">
-        <v>170.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B78" s="8"/>
       <c r="C78" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="13"/>
-      <c r="H78" s="12"/>
+      <c r="H78" s="21"/>
       <c r="I78" s="9">
-        <v>125.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B79" s="8"/>
+      <c r="B79" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C79" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D79" s="18"/>
+        <v>118</v>
+      </c>
+      <c r="D79" s="16"/>
       <c r="E79" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F79" s="18"/>
+        <v>119</v>
+      </c>
+      <c r="F79" s="6"/>
       <c r="G79" s="13"/>
-      <c r="H79" s="21"/>
+      <c r="H79" s="12"/>
       <c r="I79" s="9">
-        <v>180.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B80" s="8"/>
       <c r="C80" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D80" s="18"/>
       <c r="E80" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F80" s="18"/>
       <c r="G80" s="13"/>
       <c r="H80" s="21"/>
       <c r="I80" s="9">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D81" s="18"/>
       <c r="E81" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F81" s="18"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="12"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="21"/>
       <c r="I81" s="9">
-        <v>160.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="82">
@@ -2975,17 +2967,17 @@
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D82" s="18"/>
       <c r="E82" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F82" s="22"/>
-      <c r="G82" s="13"/>
+        <v>122</v>
+      </c>
+      <c r="F82" s="18"/>
+      <c r="G82" s="21"/>
       <c r="H82" s="12"/>
       <c r="I82" s="9">
-        <v>130.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="83">
@@ -2994,17 +2986,17 @@
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D83" s="18"/>
       <c r="E83" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F83" s="18"/>
+        <v>124</v>
+      </c>
+      <c r="F83" s="22"/>
       <c r="G83" s="13"/>
       <c r="H83" s="12"/>
       <c r="I83" s="9">
-        <v>150.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="84">
@@ -3013,11 +3005,11 @@
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D84" s="18"/>
       <c r="E84" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F84" s="18"/>
       <c r="G84" s="13"/>
@@ -3032,11 +3024,11 @@
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D85" s="18"/>
       <c r="E85" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F85" s="18"/>
       <c r="G85" s="13"/>
@@ -3051,91 +3043,91 @@
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D86" s="18"/>
       <c r="E86" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F86" s="18"/>
       <c r="G86" s="13"/>
       <c r="H86" s="12"/>
-      <c r="I86" s="10">
-        <v>120.0</v>
+      <c r="I86" s="9">
+        <v>150.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B87" s="8"/>
       <c r="C87" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D87" s="18"/>
       <c r="E87" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F87" s="18"/>
       <c r="G87" s="13"/>
       <c r="H87" s="12"/>
       <c r="I87" s="10">
-        <v>125.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="11" t="s">
-        <v>130</v>
+      <c r="B88" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="D88" s="18"/>
-      <c r="E88" s="11" t="s">
-        <v>130</v>
+      <c r="E88" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="F88" s="18"/>
       <c r="G88" s="13"/>
       <c r="H88" s="12"/>
       <c r="I88" s="10">
-        <v>150.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>131</v>
+      <c r="B89" s="8"/>
+      <c r="C89" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="D89" s="18"/>
-      <c r="E89" s="8" t="s">
-        <v>132</v>
+      <c r="E89" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="F89" s="18"/>
       <c r="G89" s="13"/>
       <c r="H89" s="12"/>
-      <c r="I89" s="9">
-        <v>110.0</v>
+      <c r="I89" s="10">
+        <v>150.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="8"/>
+      <c r="B90" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C90" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F90" s="18"/>
       <c r="G90" s="13"/>
@@ -3149,58 +3141,56 @@
         <v>9</v>
       </c>
       <c r="B91" s="8"/>
-      <c r="C91" s="20" t="s">
-        <v>135</v>
+      <c r="C91" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="D91" s="18"/>
       <c r="E91" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F91" s="18"/>
       <c r="G91" s="13"/>
       <c r="H91" s="12"/>
       <c r="I91" s="9">
-        <v>130.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12" t="s">
-        <v>136</v>
+      <c r="A92" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="8"/>
+      <c r="C92" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="D92" s="18"/>
-      <c r="E92" s="12" t="s">
-        <v>137</v>
+      <c r="E92" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="F92" s="18"/>
       <c r="G92" s="13"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="10">
-        <v>70.0</v>
+      <c r="H92" s="12"/>
+      <c r="I92" s="9">
+        <v>130.0</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B93" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>138</v>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12" t="s">
+        <v>136</v>
       </c>
       <c r="D93" s="18"/>
-      <c r="E93" s="8" t="s">
-        <v>138</v>
+      <c r="E93" s="12" t="s">
+        <v>137</v>
       </c>
       <c r="F93" s="18"/>
       <c r="G93" s="13"/>
-      <c r="H93" s="12"/>
+      <c r="H93" s="9"/>
       <c r="I93" s="10">
-        <v>85.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="94">
@@ -3211,15 +3201,15 @@
         <v>27</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D94" s="18"/>
       <c r="E94" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F94" s="18"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="9"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="12"/>
       <c r="I94" s="10">
         <v>85.0</v>
       </c>
@@ -3232,36 +3222,38 @@
         <v>27</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D95" s="18"/>
       <c r="E95" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F95" s="18"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="9"/>
       <c r="I95" s="10">
-        <v>60.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B96" s="8"/>
+      <c r="B96" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C96" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D96" s="18"/>
       <c r="E96" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F96" s="18"/>
       <c r="G96" s="13"/>
       <c r="H96" s="12"/>
       <c r="I96" s="10">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="97">
@@ -3270,14 +3262,14 @@
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D97" s="18"/>
       <c r="E97" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F97" s="18"/>
-      <c r="G97" s="12"/>
+      <c r="G97" s="13"/>
       <c r="H97" s="12"/>
       <c r="I97" s="10">
         <v>65.0</v>
@@ -3289,17 +3281,17 @@
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D98" s="18"/>
       <c r="E98" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F98" s="18"/>
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
       <c r="I98" s="10">
-        <v>40.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="99">
@@ -3308,51 +3300,51 @@
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D99" s="18"/>
       <c r="E99" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F99" s="6"/>
+        <v>146</v>
+      </c>
+      <c r="F99" s="18"/>
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
       <c r="I99" s="10">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B100" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>149</v>
+      <c r="A100" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="D100" s="18"/>
-      <c r="E100" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F100" s="18"/>
+      <c r="E100" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F100" s="6"/>
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
-      <c r="I100" s="9">
-        <v>185.0</v>
+      <c r="I100" s="10">
+        <v>50.0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B101" s="6"/>
-      <c r="C101" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D101" s="16"/>
-      <c r="E101" s="8" t="s">
-        <v>151</v>
+      <c r="B101" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D101" s="18"/>
+      <c r="E101" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="F101" s="18"/>
       <c r="G101" s="12"/>
@@ -3365,15 +3357,13 @@
       <c r="A102" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B102" s="6"/>
       <c r="C102" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D102" s="18"/>
+        <v>151</v>
+      </c>
+      <c r="D102" s="16"/>
       <c r="E102" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F102" s="18"/>
       <c r="G102" s="12"/>
@@ -3386,13 +3376,15 @@
       <c r="A103" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B103" s="6"/>
+      <c r="B103" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C103" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D103" s="18"/>
       <c r="E103" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F103" s="18"/>
       <c r="G103" s="12"/>
@@ -3407,11 +3399,11 @@
       </c>
       <c r="B104" s="6"/>
       <c r="C104" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D104" s="18"/>
       <c r="E104" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F104" s="18"/>
       <c r="G104" s="12"/>
@@ -3421,22 +3413,22 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="24" t="s">
+      <c r="A105" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B105" s="6"/>
-      <c r="C105" s="11" t="s">
-        <v>157</v>
+      <c r="C105" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="D105" s="18"/>
-      <c r="E105" s="11" t="s">
-        <v>158</v>
+      <c r="E105" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="F105" s="18"/>
       <c r="G105" s="12"/>
       <c r="H105" s="12"/>
       <c r="I105" s="9">
-        <v>220.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="106">
@@ -3445,57 +3437,57 @@
       </c>
       <c r="B106" s="6"/>
       <c r="C106" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D106" s="18"/>
       <c r="E106" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F106" s="18"/>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
       <c r="I106" s="9">
+        <v>220.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" s="6"/>
+      <c r="C107" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D107" s="18"/>
+      <c r="E107" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F107" s="18"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="9">
         <v>240.0</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="23" t="s">
+    <row r="108">
+      <c r="A108" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B107" s="23" t="s">
+      <c r="B108" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="12" t="s">
+      <c r="C108" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D107" s="18"/>
-      <c r="E107" s="8" t="s">
+      <c r="D108" s="18"/>
+      <c r="E108" s="8" t="s">
         <v>162</v>
-      </c>
-      <c r="F107" s="18"/>
-      <c r="G107" s="21"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="10">
-        <v>215.0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B108" s="23"/>
-      <c r="C108" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D108" s="18"/>
-      <c r="E108" s="12" t="s">
-        <v>164</v>
       </c>
       <c r="F108" s="18"/>
       <c r="G108" s="21"/>
       <c r="H108" s="13"/>
       <c r="I108" s="10">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="109">
@@ -3504,11 +3496,11 @@
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D109" s="18"/>
       <c r="E109" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F109" s="18"/>
       <c r="G109" s="21"/>
@@ -3521,19 +3513,19 @@
       <c r="A110" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B110" s="6"/>
-      <c r="C110" s="8" t="s">
-        <v>167</v>
+      <c r="B110" s="23"/>
+      <c r="C110" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="D110" s="18"/>
-      <c r="E110" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F110" s="6"/>
+      <c r="E110" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F110" s="18"/>
       <c r="G110" s="21"/>
       <c r="H110" s="13"/>
       <c r="I110" s="10">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="111">
@@ -3542,11 +3534,11 @@
       </c>
       <c r="B111" s="6"/>
       <c r="C111" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D111" s="18"/>
       <c r="E111" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F111" s="6"/>
       <c r="G111" s="21"/>
@@ -3561,32 +3553,30 @@
       </c>
       <c r="B112" s="6"/>
       <c r="C112" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D112" s="18"/>
       <c r="E112" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F112" s="18"/>
+        <v>169</v>
+      </c>
+      <c r="F112" s="6"/>
       <c r="G112" s="21"/>
       <c r="H112" s="13"/>
       <c r="I112" s="10">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B113" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B113" s="6"/>
       <c r="C113" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D113" s="18"/>
       <c r="E113" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F113" s="18"/>
       <c r="G113" s="21"/>
@@ -3599,15 +3589,17 @@
       <c r="A114" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B114" s="6"/>
+      <c r="B114" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C114" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D114" s="18"/>
       <c r="E114" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F114" s="6"/>
+        <v>173</v>
+      </c>
+      <c r="F114" s="18"/>
       <c r="G114" s="21"/>
       <c r="H114" s="13"/>
       <c r="I114" s="10">
@@ -3618,34 +3610,34 @@
       <c r="A115" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B115" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B115" s="6"/>
       <c r="C115" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D115" s="18"/>
       <c r="E115" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="F115" s="18"/>
+        <v>175</v>
+      </c>
+      <c r="F115" s="6"/>
       <c r="G115" s="21"/>
       <c r="H115" s="13"/>
       <c r="I115" s="10">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B116" s="6"/>
+      <c r="B116" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C116" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D116" s="18"/>
       <c r="E116" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F116" s="18"/>
       <c r="G116" s="21"/>
@@ -3660,11 +3652,11 @@
       </c>
       <c r="B117" s="6"/>
       <c r="C117" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D117" s="18"/>
       <c r="E117" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F117" s="18"/>
       <c r="G117" s="21"/>
@@ -3679,17 +3671,17 @@
       </c>
       <c r="B118" s="6"/>
       <c r="C118" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D118" s="6"/>
+        <v>180</v>
+      </c>
+      <c r="D118" s="18"/>
       <c r="E118" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F118" s="6"/>
+        <v>181</v>
+      </c>
+      <c r="F118" s="18"/>
       <c r="G118" s="21"/>
       <c r="H118" s="13"/>
       <c r="I118" s="10">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="119">
@@ -3698,17 +3690,17 @@
       </c>
       <c r="B119" s="6"/>
       <c r="C119" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F119" s="6"/>
       <c r="G119" s="21"/>
       <c r="H119" s="13"/>
       <c r="I119" s="10">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="120">
@@ -3717,17 +3709,17 @@
       </c>
       <c r="B120" s="6"/>
       <c r="C120" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F120" s="6"/>
       <c r="G120" s="21"/>
       <c r="H120" s="13"/>
       <c r="I120" s="10">
-        <v>215.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="121">
@@ -3736,17 +3728,17 @@
       </c>
       <c r="B121" s="6"/>
       <c r="C121" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F121" s="6"/>
       <c r="G121" s="21"/>
       <c r="H121" s="13"/>
       <c r="I121" s="10">
-        <v>220.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="122">
@@ -3755,17 +3747,17 @@
       </c>
       <c r="B122" s="6"/>
       <c r="C122" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D122" s="6"/>
       <c r="E122" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="21"/>
       <c r="H122" s="13"/>
       <c r="I122" s="10">
-        <v>210.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="123">
@@ -3774,57 +3766,57 @@
       </c>
       <c r="B123" s="6"/>
       <c r="C123" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D123" s="6"/>
       <c r="E123" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F123" s="6"/>
       <c r="G123" s="21"/>
       <c r="H123" s="13"/>
       <c r="I123" s="10">
-        <v>80.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B124" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B124" s="6"/>
       <c r="C124" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D124" s="18"/>
+        <v>192</v>
+      </c>
+      <c r="D124" s="6"/>
       <c r="E124" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="F124" s="18"/>
+        <v>193</v>
+      </c>
+      <c r="F124" s="6"/>
       <c r="G124" s="21"/>
       <c r="H124" s="13"/>
       <c r="I124" s="10">
-        <v>220.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B125" s="6"/>
+      <c r="B125" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C125" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D125" s="6"/>
+        <v>194</v>
+      </c>
+      <c r="D125" s="18"/>
       <c r="E125" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F125" s="6"/>
+        <v>195</v>
+      </c>
+      <c r="F125" s="18"/>
       <c r="G125" s="21"/>
       <c r="H125" s="13"/>
       <c r="I125" s="10">
-        <v>160.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="126">
@@ -3833,51 +3825,51 @@
       </c>
       <c r="B126" s="6"/>
       <c r="C126" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D126" s="6"/>
       <c r="E126" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F126" s="6"/>
       <c r="G126" s="21"/>
       <c r="H126" s="13"/>
       <c r="I126" s="10">
-        <v>70.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B127" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B127" s="6"/>
       <c r="C127" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D127" s="18"/>
-      <c r="E127" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="F127" s="18"/>
+        <v>198</v>
+      </c>
+      <c r="D127" s="6"/>
+      <c r="E127" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F127" s="6"/>
       <c r="G127" s="21"/>
       <c r="H127" s="13"/>
       <c r="I127" s="10">
-        <v>220.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B128" s="6"/>
+      <c r="B128" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C128" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D128" s="18"/>
-      <c r="E128" s="8" t="s">
-        <v>203</v>
+      <c r="E128" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="F128" s="18"/>
       <c r="G128" s="21"/>
@@ -3890,17 +3882,15 @@
       <c r="A129" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B129" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B129" s="6"/>
       <c r="C129" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D129" s="6"/>
+        <v>202</v>
+      </c>
+      <c r="D129" s="18"/>
       <c r="E129" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F129" s="6"/>
+        <v>203</v>
+      </c>
+      <c r="F129" s="18"/>
       <c r="G129" s="21"/>
       <c r="H129" s="13"/>
       <c r="I129" s="10">
@@ -3911,19 +3901,21 @@
       <c r="A130" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B130" s="6"/>
+      <c r="B130" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C130" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D130" s="6"/>
       <c r="E130" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F130" s="6"/>
       <c r="G130" s="21"/>
       <c r="H130" s="13"/>
       <c r="I130" s="10">
-        <v>185.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="131">
@@ -3932,13 +3924,13 @@
       </c>
       <c r="B131" s="6"/>
       <c r="C131" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D131" s="18"/>
+        <v>206</v>
+      </c>
+      <c r="D131" s="6"/>
       <c r="E131" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F131" s="18"/>
+        <v>206</v>
+      </c>
+      <c r="F131" s="6"/>
       <c r="G131" s="21"/>
       <c r="H131" s="13"/>
       <c r="I131" s="10">
@@ -3949,15 +3941,13 @@
       <c r="A132" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B132" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B132" s="6"/>
       <c r="C132" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D132" s="18"/>
       <c r="E132" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F132" s="18"/>
       <c r="G132" s="21"/>
@@ -3970,15 +3960,17 @@
       <c r="A133" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B133" s="6"/>
+      <c r="B133" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C133" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D133" s="6"/>
+        <v>208</v>
+      </c>
+      <c r="D133" s="18"/>
       <c r="E133" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="F133" s="6"/>
+        <v>209</v>
+      </c>
+      <c r="F133" s="18"/>
       <c r="G133" s="21"/>
       <c r="H133" s="13"/>
       <c r="I133" s="10">
@@ -3991,17 +3983,17 @@
       </c>
       <c r="B134" s="6"/>
       <c r="C134" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D134" s="6"/>
       <c r="E134" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="21"/>
       <c r="H134" s="13"/>
       <c r="I134" s="10">
-        <v>200.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="135">
@@ -4010,17 +4002,17 @@
       </c>
       <c r="B135" s="6"/>
       <c r="C135" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D135" s="6"/>
       <c r="E135" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="21"/>
       <c r="H135" s="13"/>
       <c r="I135" s="10">
-        <v>185.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="136">
@@ -4029,76 +4021,76 @@
       </c>
       <c r="B136" s="6"/>
       <c r="C136" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D136" s="6"/>
       <c r="E136" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F136" s="6"/>
       <c r="G136" s="21"/>
       <c r="H136" s="13"/>
       <c r="I136" s="10">
-        <v>80.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B137" s="23"/>
-      <c r="C137" s="12" t="s">
-        <v>218</v>
+      <c r="A137" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" s="6"/>
+      <c r="C137" s="8" t="s">
+        <v>216</v>
       </c>
       <c r="D137" s="6"/>
-      <c r="E137" s="12" t="s">
-        <v>219</v>
+      <c r="E137" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="F137" s="6"/>
       <c r="G137" s="21"/>
       <c r="H137" s="13"/>
       <c r="I137" s="10">
-        <v>120.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="6" t="s">
+      <c r="A138" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B138" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D138" s="18"/>
-      <c r="E138" s="8" t="s">
-        <v>221</v>
+      <c r="B138" s="23"/>
+      <c r="C138" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D138" s="6"/>
+      <c r="E138" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="21"/>
       <c r="H138" s="13"/>
       <c r="I138" s="10">
-        <v>130.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B139" s="6"/>
+      <c r="B139" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C139" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D139" s="18"/>
       <c r="E139" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F139" s="6"/>
       <c r="G139" s="21"/>
       <c r="H139" s="13"/>
       <c r="I139" s="10">
-        <v>140.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="140">
@@ -4107,38 +4099,36 @@
       </c>
       <c r="B140" s="6"/>
       <c r="C140" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D140" s="18"/>
       <c r="E140" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F140" s="6"/>
       <c r="G140" s="21"/>
       <c r="H140" s="13"/>
       <c r="I140" s="10">
-        <v>150.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B141" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B141" s="6"/>
       <c r="C141" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D141" s="18"/>
       <c r="E141" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="F141" s="18"/>
+        <v>225</v>
+      </c>
+      <c r="F141" s="6"/>
       <c r="G141" s="21"/>
       <c r="H141" s="13"/>
       <c r="I141" s="10">
-        <v>180.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="142">
@@ -4149,13 +4139,13 @@
         <v>27</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D142" s="6"/>
+        <v>226</v>
+      </c>
+      <c r="D142" s="18"/>
       <c r="E142" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="F142" s="6"/>
+        <v>227</v>
+      </c>
+      <c r="F142" s="18"/>
       <c r="G142" s="21"/>
       <c r="H142" s="13"/>
       <c r="I142" s="10">
@@ -4166,59 +4156,61 @@
       <c r="A143" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B143" s="6"/>
+      <c r="B143" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C143" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D143" s="6"/>
-      <c r="E143" s="11" t="s">
-        <v>231</v>
+      <c r="E143" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="21"/>
       <c r="H143" s="13"/>
       <c r="I143" s="10">
-        <v>110.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B144" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C144" s="12" t="s">
-        <v>232</v>
+      <c r="A144" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144" s="6"/>
+      <c r="C144" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="D144" s="6"/>
-      <c r="E144" s="12" t="s">
-        <v>233</v>
+      <c r="E144" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="21"/>
       <c r="H144" s="13"/>
       <c r="I144" s="10">
-        <v>130.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="6" t="s">
+      <c r="A145" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B145" s="6"/>
-      <c r="C145" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D145" s="18"/>
-      <c r="E145" s="8" t="s">
-        <v>235</v>
+      <c r="B145" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D145" s="6"/>
+      <c r="E145" s="12" t="s">
+        <v>233</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="21"/>
       <c r="H145" s="13"/>
       <c r="I145" s="10">
-        <v>140.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="146">
@@ -4227,59 +4219,57 @@
       </c>
       <c r="B146" s="6"/>
       <c r="C146" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D146" s="18"/>
       <c r="E146" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="21"/>
       <c r="H146" s="13"/>
       <c r="I146" s="10">
-        <v>70.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B147" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C147" s="12" t="s">
-        <v>238</v>
+      <c r="A147" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B147" s="6"/>
+      <c r="C147" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="D147" s="18"/>
-      <c r="E147" s="9" t="s">
-        <v>239</v>
+      <c r="E147" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="21"/>
       <c r="H147" s="13"/>
       <c r="I147" s="10">
-        <v>260.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="6" t="s">
+      <c r="A148" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C148" s="8" t="s">
-        <v>240</v>
+      <c r="C148" s="12" t="s">
+        <v>238</v>
       </c>
       <c r="D148" s="18"/>
-      <c r="E148" s="11" t="s">
-        <v>241</v>
+      <c r="E148" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="21"/>
       <c r="H148" s="13"/>
       <c r="I148" s="10">
-        <v>210.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="149">
@@ -4290,11 +4280,11 @@
         <v>27</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D149" s="18"/>
       <c r="E149" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F149" s="6"/>
       <c r="G149" s="21"/>
@@ -4311,11 +4301,11 @@
         <v>27</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D150" s="18"/>
-      <c r="E150" s="8" t="s">
-        <v>245</v>
+      <c r="E150" s="11" t="s">
+        <v>243</v>
       </c>
       <c r="F150" s="6"/>
       <c r="G150" s="21"/>
@@ -4325,115 +4315,117 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B151" s="12" t="s">
+      <c r="A151" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B151" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C151" s="12" t="s">
-        <v>246</v>
+      <c r="C151" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="D151" s="18"/>
-      <c r="E151" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="F151" s="18"/>
+      <c r="E151" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F151" s="6"/>
       <c r="G151" s="21"/>
       <c r="H151" s="13"/>
       <c r="I151" s="10">
-        <v>220.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="8" t="s">
+      <c r="A152" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B152" s="8" t="s">
+      <c r="B152" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C152" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="D152" s="6"/>
-      <c r="E152" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="F152" s="6"/>
+      <c r="C152" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D152" s="18"/>
+      <c r="E152" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="F152" s="18"/>
       <c r="G152" s="21"/>
       <c r="H152" s="13"/>
       <c r="I152" s="10">
-        <v>250.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B153" s="23"/>
-      <c r="C153" s="12" t="s">
-        <v>249</v>
+      <c r="A153" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>248</v>
       </c>
       <c r="D153" s="6"/>
-      <c r="E153" s="12" t="s">
-        <v>250</v>
+      <c r="E153" s="8" t="s">
+        <v>248</v>
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="21"/>
       <c r="H153" s="13"/>
-      <c r="I153" s="13">
-        <v>20.0</v>
+      <c r="I153" s="10">
+        <v>250.0</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="6" t="s">
+      <c r="A154" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B154" s="23"/>
-      <c r="C154" s="8" t="s">
-        <v>251</v>
+      <c r="C154" s="12" t="s">
+        <v>249</v>
       </c>
       <c r="D154" s="6"/>
-      <c r="E154" s="8" t="s">
-        <v>252</v>
+      <c r="E154" s="12" t="s">
+        <v>250</v>
       </c>
       <c r="F154" s="6"/>
       <c r="G154" s="21"/>
-      <c r="H154" s="10"/>
-      <c r="I154" s="10">
-        <v>40.0</v>
+      <c r="H154" s="13"/>
+      <c r="I154" s="13">
+        <v>20.0</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="24" t="s">
+      <c r="A155" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B155" s="6"/>
-      <c r="C155" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="D155" s="18"/>
-      <c r="E155" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="F155" s="18"/>
+      <c r="B155" s="23"/>
+      <c r="C155" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D155" s="6"/>
+      <c r="E155" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="F155" s="6"/>
       <c r="G155" s="21"/>
       <c r="H155" s="10"/>
       <c r="I155" s="10">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="6" t="s">
+      <c r="A156" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B156" s="6"/>
-      <c r="C156" s="8" t="s">
-        <v>255</v>
+      <c r="C156" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="D156" s="18"/>
-      <c r="E156" s="8" t="s">
-        <v>256</v>
+      <c r="E156" s="25" t="s">
+        <v>254</v>
       </c>
       <c r="F156" s="18"/>
       <c r="G156" s="21"/>
@@ -4448,17 +4440,17 @@
       </c>
       <c r="B157" s="6"/>
       <c r="C157" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D157" s="18"/>
       <c r="E157" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F157" s="18"/>
       <c r="G157" s="21"/>
-      <c r="H157" s="13"/>
-      <c r="I157" s="13">
-        <v>40.0</v>
+      <c r="H157" s="10"/>
+      <c r="I157" s="10">
+        <v>20.0</v>
       </c>
     </row>
     <row r="158">
@@ -4467,17 +4459,17 @@
       </c>
       <c r="B158" s="6"/>
       <c r="C158" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D158" s="18"/>
       <c r="E158" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F158" s="18"/>
       <c r="G158" s="21"/>
       <c r="H158" s="13"/>
       <c r="I158" s="13">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="159">
@@ -4486,17 +4478,17 @@
       </c>
       <c r="B159" s="6"/>
       <c r="C159" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D159" s="18"/>
       <c r="E159" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F159" s="18"/>
       <c r="G159" s="21"/>
       <c r="H159" s="13"/>
       <c r="I159" s="13">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="160">
@@ -4505,11 +4497,11 @@
       </c>
       <c r="B160" s="6"/>
       <c r="C160" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D160" s="18"/>
       <c r="E160" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F160" s="18"/>
       <c r="G160" s="21"/>
@@ -4523,18 +4515,18 @@
         <v>19</v>
       </c>
       <c r="B161" s="6"/>
-      <c r="C161" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D161" s="6"/>
-      <c r="E161" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="F161" s="6"/>
+      <c r="C161" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D161" s="18"/>
+      <c r="E161" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="F161" s="18"/>
       <c r="G161" s="21"/>
       <c r="H161" s="13"/>
-      <c r="I161" s="10">
-        <v>40.0</v>
+      <c r="I161" s="13">
+        <v>20.0</v>
       </c>
     </row>
     <row r="162">
@@ -4543,55 +4535,55 @@
       </c>
       <c r="B162" s="6"/>
       <c r="C162" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D162" s="6"/>
       <c r="E162" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F162" s="6"/>
       <c r="G162" s="21"/>
       <c r="H162" s="13"/>
       <c r="I162" s="10">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="24" t="s">
+      <c r="A163" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B163" s="6"/>
       <c r="C163" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D163" s="6"/>
       <c r="E163" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F163" s="6"/>
       <c r="G163" s="21"/>
       <c r="H163" s="13"/>
       <c r="I163" s="10">
-        <v>150.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="6" t="s">
+      <c r="A164" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B164" s="6"/>
-      <c r="C164" s="8" t="s">
-        <v>271</v>
+      <c r="C164" s="11" t="s">
+        <v>269</v>
       </c>
       <c r="D164" s="6"/>
-      <c r="E164" s="8" t="s">
-        <v>272</v>
+      <c r="E164" s="11" t="s">
+        <v>270</v>
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="21"/>
       <c r="H164" s="13"/>
-      <c r="I164" s="13">
-        <v>15.0</v>
+      <c r="I164" s="10">
+        <v>150.0</v>
       </c>
     </row>
     <row r="165">
@@ -4599,17 +4591,17 @@
         <v>19</v>
       </c>
       <c r="B165" s="6"/>
-      <c r="C165" s="11" t="s">
-        <v>273</v>
+      <c r="C165" s="8" t="s">
+        <v>271</v>
       </c>
       <c r="D165" s="6"/>
-      <c r="E165" s="11" t="s">
-        <v>274</v>
+      <c r="E165" s="8" t="s">
+        <v>272</v>
       </c>
       <c r="F165" s="6"/>
       <c r="G165" s="21"/>
       <c r="H165" s="13"/>
-      <c r="I165" s="10">
+      <c r="I165" s="13">
         <v>15.0</v>
       </c>
     </row>
@@ -4617,26 +4609,39 @@
       <c r="A166" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B166" s="18"/>
-      <c r="C166" s="8" t="s">
+      <c r="B166" s="6"/>
+      <c r="C166" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D166" s="6"/>
+      <c r="E166" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F166" s="6"/>
+      <c r="G166" s="21"/>
+      <c r="H166" s="13"/>
+      <c r="I166" s="10">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B167" s="18"/>
+      <c r="C167" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="D166" s="6"/>
-      <c r="E166" s="8" t="s">
+      <c r="D167" s="6"/>
+      <c r="E167" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="F166" s="6"/>
-      <c r="G166" s="6"/>
-      <c r="H166" s="13"/>
-      <c r="I166" s="13">
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="13"/>
+      <c r="I167" s="13">
         <v>60.0</v>
       </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="26"/>
-      <c r="B167" s="26"/>
-      <c r="C167" s="26"/>
-      <c r="E167" s="26"/>
     </row>
     <row r="168">
       <c r="A168" s="26"/>
@@ -4671,10 +4676,16 @@
     <row r="173">
       <c r="A173" s="26"/>
       <c r="B173" s="26"/>
+      <c r="C173" s="26"/>
+      <c r="E173" s="26"/>
     </row>
     <row r="174">
       <c r="A174" s="26"/>
       <c r="B174" s="26"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="26"/>
+      <c r="B175" s="26"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="277">
   <si>
     <t>category</t>
   </si>
@@ -1879,7 +1879,9 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="8"/>
+      <c r="A26" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="6"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="278">
   <si>
     <t>category</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Latte Macchiato</t>
+  </si>
+  <si>
+    <t>Latte Caramel Macchiato</t>
   </si>
   <si>
     <t>Mocha</t>
@@ -1879,94 +1882,100 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+      <c r="C26" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="8"/>
+      <c r="E26" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="F26" s="6"/>
       <c r="G26" s="13"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="9"/>
+      <c r="I26" s="9">
+        <v>135.0</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="13"/>
       <c r="H27" s="12"/>
       <c r="I27" s="9">
-        <v>135.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="8"/>
+      <c r="B28" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C28" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="13"/>
       <c r="H28" s="12"/>
       <c r="I28" s="9">
-        <v>150.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="13"/>
+        <v>52</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="15"/>
       <c r="H29" s="12"/>
       <c r="I29" s="9">
-        <v>135.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="8"/>
-      <c r="C30" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15"/>
+      <c r="C30" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="13"/>
       <c r="H30" s="12"/>
       <c r="I30" s="9">
-        <v>140.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="31">
@@ -1975,11 +1984,11 @@
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="13"/>
@@ -1994,11 +2003,11 @@
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="13"/>
@@ -2015,11 +2024,11 @@
         <v>27</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="13"/>
@@ -2034,11 +2043,11 @@
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="13"/>
@@ -2053,11 +2062,11 @@
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="13"/>
@@ -2072,11 +2081,11 @@
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="13"/>
@@ -2091,11 +2100,11 @@
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="12"/>
@@ -2112,11 +2121,11 @@
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="12"/>
@@ -2133,11 +2142,11 @@
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="12"/>
@@ -2156,11 +2165,11 @@
         <v>27</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="12"/>
@@ -2177,11 +2186,11 @@
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="13"/>
@@ -2196,11 +2205,11 @@
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="13"/>
@@ -2215,11 +2224,11 @@
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D43" s="18"/>
       <c r="E43" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F43" s="18"/>
       <c r="G43" s="13"/>
@@ -2234,11 +2243,11 @@
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="13"/>
@@ -2253,11 +2262,11 @@
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F45" s="18"/>
       <c r="G45" s="12"/>
@@ -2272,11 +2281,11 @@
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="13"/>
@@ -2291,11 +2300,11 @@
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="13"/>
@@ -2311,11 +2320,11 @@
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="13"/>
@@ -2333,11 +2342,11 @@
         <v>27</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="13"/>
@@ -2353,11 +2362,11 @@
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="13"/>
@@ -2373,11 +2382,11 @@
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="13"/>
@@ -2393,11 +2402,11 @@
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="13"/>
@@ -2412,11 +2421,11 @@
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D53" s="16"/>
       <c r="E53" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="13"/>
@@ -2431,11 +2440,11 @@
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D54" s="16"/>
       <c r="E54" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="13"/>
@@ -2450,11 +2459,11 @@
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D55" s="16"/>
       <c r="E55" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="13"/>
@@ -2469,11 +2478,11 @@
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D56" s="16"/>
       <c r="E56" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="13"/>
@@ -2488,11 +2497,11 @@
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D57" s="18"/>
       <c r="E57" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="13"/>
@@ -2507,11 +2516,11 @@
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D58" s="18"/>
       <c r="E58" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F58" s="18"/>
       <c r="G58" s="13"/>
@@ -2526,11 +2535,11 @@
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D59" s="18"/>
       <c r="E59" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F59" s="18"/>
       <c r="G59" s="13"/>
@@ -2545,11 +2554,11 @@
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D60" s="18"/>
       <c r="E60" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F60" s="18"/>
       <c r="G60" s="13"/>
@@ -2564,11 +2573,11 @@
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D61" s="18"/>
       <c r="E61" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="13"/>
@@ -2583,11 +2592,11 @@
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D62" s="18"/>
       <c r="E62" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="13"/>
@@ -2602,11 +2611,11 @@
       </c>
       <c r="B63" s="12"/>
       <c r="C63" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D63" s="18"/>
       <c r="E63" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F63" s="18"/>
       <c r="G63" s="13"/>
@@ -2621,11 +2630,11 @@
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D64" s="18"/>
       <c r="E64" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F64" s="18"/>
       <c r="G64" s="13"/>
@@ -2642,11 +2651,11 @@
         <v>27</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D65" s="18"/>
       <c r="E65" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F65" s="18"/>
       <c r="G65" s="21"/>
@@ -2661,11 +2670,11 @@
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D66" s="18"/>
       <c r="E66" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F66" s="18"/>
       <c r="G66" s="21"/>
@@ -2680,11 +2689,11 @@
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D67" s="18"/>
       <c r="E67" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F67" s="18"/>
       <c r="G67" s="21"/>
@@ -2699,11 +2708,11 @@
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D68" s="18"/>
       <c r="E68" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F68" s="18"/>
       <c r="G68" s="21"/>
@@ -2718,11 +2727,11 @@
       </c>
       <c r="B69" s="8"/>
       <c r="C69" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D69" s="18"/>
       <c r="E69" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F69" s="18"/>
       <c r="G69" s="21"/>
@@ -2739,11 +2748,11 @@
         <v>27</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D70" s="18"/>
       <c r="E70" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="21"/>
@@ -2758,11 +2767,11 @@
       </c>
       <c r="B71" s="8"/>
       <c r="C71" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D71" s="18"/>
       <c r="E71" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F71" s="18"/>
       <c r="G71" s="21"/>
@@ -2777,11 +2786,11 @@
       </c>
       <c r="B72" s="8"/>
       <c r="C72" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D72" s="18"/>
       <c r="E72" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F72" s="18"/>
       <c r="G72" s="12"/>
@@ -2796,11 +2805,11 @@
       </c>
       <c r="B73" s="12"/>
       <c r="C73" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="13"/>
@@ -2815,11 +2824,11 @@
       </c>
       <c r="B74" s="12"/>
       <c r="C74" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D74" s="16"/>
       <c r="E74" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="13"/>
@@ -2834,11 +2843,11 @@
       </c>
       <c r="B75" s="12"/>
       <c r="C75" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="13"/>
@@ -2853,11 +2862,11 @@
       </c>
       <c r="B76" s="8"/>
       <c r="C76" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D76" s="16"/>
       <c r="E76" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="13"/>
@@ -2872,11 +2881,11 @@
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D77" s="16"/>
       <c r="E77" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="13"/>
@@ -2891,11 +2900,11 @@
       </c>
       <c r="B78" s="8"/>
       <c r="C78" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="13"/>
@@ -2912,11 +2921,11 @@
         <v>27</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D79" s="16"/>
       <c r="E79" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="13"/>
@@ -2931,11 +2940,11 @@
       </c>
       <c r="B80" s="8"/>
       <c r="C80" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D80" s="18"/>
       <c r="E80" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F80" s="18"/>
       <c r="G80" s="13"/>
@@ -2950,11 +2959,11 @@
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D81" s="18"/>
       <c r="E81" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F81" s="18"/>
       <c r="G81" s="13"/>
@@ -2969,11 +2978,11 @@
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D82" s="18"/>
       <c r="E82" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F82" s="18"/>
       <c r="G82" s="21"/>
@@ -2988,11 +2997,11 @@
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D83" s="18"/>
       <c r="E83" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F83" s="22"/>
       <c r="G83" s="13"/>
@@ -3007,11 +3016,11 @@
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D84" s="18"/>
       <c r="E84" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F84" s="18"/>
       <c r="G84" s="13"/>
@@ -3026,11 +3035,11 @@
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D85" s="18"/>
       <c r="E85" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F85" s="18"/>
       <c r="G85" s="13"/>
@@ -3045,11 +3054,11 @@
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D86" s="18"/>
       <c r="E86" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F86" s="18"/>
       <c r="G86" s="13"/>
@@ -3064,11 +3073,11 @@
       </c>
       <c r="B87" s="8"/>
       <c r="C87" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D87" s="18"/>
       <c r="E87" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F87" s="18"/>
       <c r="G87" s="13"/>
@@ -3085,11 +3094,11 @@
         <v>27</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D88" s="18"/>
       <c r="E88" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F88" s="18"/>
       <c r="G88" s="13"/>
@@ -3104,11 +3113,11 @@
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D89" s="18"/>
       <c r="E89" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F89" s="18"/>
       <c r="G89" s="13"/>
@@ -3125,11 +3134,11 @@
         <v>27</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F90" s="18"/>
       <c r="G90" s="13"/>
@@ -3144,11 +3153,11 @@
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D91" s="18"/>
       <c r="E91" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F91" s="18"/>
       <c r="G91" s="13"/>
@@ -3163,11 +3172,11 @@
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D92" s="18"/>
       <c r="E92" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F92" s="18"/>
       <c r="G92" s="13"/>
@@ -3182,11 +3191,11 @@
       </c>
       <c r="B93" s="12"/>
       <c r="C93" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D93" s="18"/>
       <c r="E93" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F93" s="18"/>
       <c r="G93" s="13"/>
@@ -3203,11 +3212,11 @@
         <v>27</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D94" s="18"/>
       <c r="E94" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F94" s="18"/>
       <c r="G94" s="13"/>
@@ -3224,11 +3233,11 @@
         <v>27</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D95" s="18"/>
       <c r="E95" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F95" s="18"/>
       <c r="G95" s="12"/>
@@ -3245,11 +3254,11 @@
         <v>27</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D96" s="18"/>
       <c r="E96" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F96" s="18"/>
       <c r="G96" s="13"/>
@@ -3264,11 +3273,11 @@
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D97" s="18"/>
       <c r="E97" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F97" s="18"/>
       <c r="G97" s="13"/>
@@ -3283,11 +3292,11 @@
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D98" s="18"/>
       <c r="E98" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F98" s="18"/>
       <c r="G98" s="12"/>
@@ -3302,11 +3311,11 @@
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D99" s="18"/>
       <c r="E99" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F99" s="18"/>
       <c r="G99" s="12"/>
@@ -3321,11 +3330,11 @@
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D100" s="18"/>
       <c r="E100" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F100" s="6"/>
       <c r="G100" s="12"/>
@@ -3342,11 +3351,11 @@
         <v>27</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D101" s="18"/>
       <c r="E101" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F101" s="18"/>
       <c r="G101" s="12"/>
@@ -3361,11 +3370,11 @@
       </c>
       <c r="B102" s="6"/>
       <c r="C102" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D102" s="16"/>
       <c r="E102" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F102" s="18"/>
       <c r="G102" s="12"/>
@@ -3382,11 +3391,11 @@
         <v>27</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D103" s="18"/>
       <c r="E103" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F103" s="18"/>
       <c r="G103" s="12"/>
@@ -3401,11 +3410,11 @@
       </c>
       <c r="B104" s="6"/>
       <c r="C104" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D104" s="18"/>
       <c r="E104" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F104" s="18"/>
       <c r="G104" s="12"/>
@@ -3420,11 +3429,11 @@
       </c>
       <c r="B105" s="6"/>
       <c r="C105" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D105" s="18"/>
       <c r="E105" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F105" s="18"/>
       <c r="G105" s="12"/>
@@ -3439,11 +3448,11 @@
       </c>
       <c r="B106" s="6"/>
       <c r="C106" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D106" s="18"/>
       <c r="E106" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F106" s="18"/>
       <c r="G106" s="12"/>
@@ -3458,11 +3467,11 @@
       </c>
       <c r="B107" s="6"/>
       <c r="C107" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D107" s="18"/>
       <c r="E107" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F107" s="18"/>
       <c r="G107" s="12"/>
@@ -3479,11 +3488,11 @@
         <v>27</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D108" s="18"/>
       <c r="E108" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F108" s="18"/>
       <c r="G108" s="21"/>
@@ -3498,11 +3507,11 @@
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D109" s="18"/>
       <c r="E109" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F109" s="18"/>
       <c r="G109" s="21"/>
@@ -3517,11 +3526,11 @@
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D110" s="18"/>
       <c r="E110" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F110" s="18"/>
       <c r="G110" s="21"/>
@@ -3536,11 +3545,11 @@
       </c>
       <c r="B111" s="6"/>
       <c r="C111" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D111" s="18"/>
       <c r="E111" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F111" s="6"/>
       <c r="G111" s="21"/>
@@ -3555,11 +3564,11 @@
       </c>
       <c r="B112" s="6"/>
       <c r="C112" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D112" s="18"/>
       <c r="E112" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F112" s="6"/>
       <c r="G112" s="21"/>
@@ -3574,11 +3583,11 @@
       </c>
       <c r="B113" s="6"/>
       <c r="C113" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D113" s="18"/>
       <c r="E113" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F113" s="18"/>
       <c r="G113" s="21"/>
@@ -3595,11 +3604,11 @@
         <v>27</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D114" s="18"/>
       <c r="E114" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F114" s="18"/>
       <c r="G114" s="21"/>
@@ -3614,11 +3623,11 @@
       </c>
       <c r="B115" s="6"/>
       <c r="C115" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D115" s="18"/>
       <c r="E115" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F115" s="6"/>
       <c r="G115" s="21"/>
@@ -3635,11 +3644,11 @@
         <v>27</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D116" s="18"/>
       <c r="E116" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F116" s="18"/>
       <c r="G116" s="21"/>
@@ -3654,11 +3663,11 @@
       </c>
       <c r="B117" s="6"/>
       <c r="C117" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D117" s="18"/>
       <c r="E117" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F117" s="18"/>
       <c r="G117" s="21"/>
@@ -3673,11 +3682,11 @@
       </c>
       <c r="B118" s="6"/>
       <c r="C118" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D118" s="18"/>
       <c r="E118" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F118" s="18"/>
       <c r="G118" s="21"/>
@@ -3692,11 +3701,11 @@
       </c>
       <c r="B119" s="6"/>
       <c r="C119" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F119" s="6"/>
       <c r="G119" s="21"/>
@@ -3711,11 +3720,11 @@
       </c>
       <c r="B120" s="6"/>
       <c r="C120" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F120" s="6"/>
       <c r="G120" s="21"/>
@@ -3730,11 +3739,11 @@
       </c>
       <c r="B121" s="6"/>
       <c r="C121" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F121" s="6"/>
       <c r="G121" s="21"/>
@@ -3749,11 +3758,11 @@
       </c>
       <c r="B122" s="6"/>
       <c r="C122" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D122" s="6"/>
       <c r="E122" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="21"/>
@@ -3768,11 +3777,11 @@
       </c>
       <c r="B123" s="6"/>
       <c r="C123" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D123" s="6"/>
       <c r="E123" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F123" s="6"/>
       <c r="G123" s="21"/>
@@ -3787,11 +3796,11 @@
       </c>
       <c r="B124" s="6"/>
       <c r="C124" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D124" s="6"/>
       <c r="E124" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F124" s="6"/>
       <c r="G124" s="21"/>
@@ -3808,11 +3817,11 @@
         <v>27</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D125" s="18"/>
       <c r="E125" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F125" s="18"/>
       <c r="G125" s="21"/>
@@ -3827,11 +3836,11 @@
       </c>
       <c r="B126" s="6"/>
       <c r="C126" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D126" s="6"/>
       <c r="E126" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F126" s="6"/>
       <c r="G126" s="21"/>
@@ -3846,11 +3855,11 @@
       </c>
       <c r="B127" s="6"/>
       <c r="C127" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D127" s="6"/>
       <c r="E127" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F127" s="6"/>
       <c r="G127" s="21"/>
@@ -3867,11 +3876,11 @@
         <v>27</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D128" s="18"/>
       <c r="E128" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F128" s="18"/>
       <c r="G128" s="21"/>
@@ -3886,11 +3895,11 @@
       </c>
       <c r="B129" s="6"/>
       <c r="C129" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D129" s="18"/>
       <c r="E129" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F129" s="18"/>
       <c r="G129" s="21"/>
@@ -3907,11 +3916,11 @@
         <v>27</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D130" s="6"/>
       <c r="E130" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F130" s="6"/>
       <c r="G130" s="21"/>
@@ -3926,11 +3935,11 @@
       </c>
       <c r="B131" s="6"/>
       <c r="C131" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D131" s="6"/>
       <c r="E131" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="21"/>
@@ -3945,11 +3954,11 @@
       </c>
       <c r="B132" s="6"/>
       <c r="C132" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D132" s="18"/>
       <c r="E132" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F132" s="18"/>
       <c r="G132" s="21"/>
@@ -3966,11 +3975,11 @@
         <v>27</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D133" s="18"/>
       <c r="E133" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F133" s="18"/>
       <c r="G133" s="21"/>
@@ -3985,11 +3994,11 @@
       </c>
       <c r="B134" s="6"/>
       <c r="C134" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D134" s="6"/>
       <c r="E134" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="21"/>
@@ -4004,11 +4013,11 @@
       </c>
       <c r="B135" s="6"/>
       <c r="C135" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D135" s="6"/>
       <c r="E135" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="21"/>
@@ -4023,11 +4032,11 @@
       </c>
       <c r="B136" s="6"/>
       <c r="C136" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D136" s="6"/>
       <c r="E136" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F136" s="6"/>
       <c r="G136" s="21"/>
@@ -4042,11 +4051,11 @@
       </c>
       <c r="B137" s="6"/>
       <c r="C137" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D137" s="6"/>
       <c r="E137" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F137" s="6"/>
       <c r="G137" s="21"/>
@@ -4061,11 +4070,11 @@
       </c>
       <c r="B138" s="23"/>
       <c r="C138" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D138" s="6"/>
       <c r="E138" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="21"/>
@@ -4082,11 +4091,11 @@
         <v>27</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D139" s="18"/>
       <c r="E139" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F139" s="6"/>
       <c r="G139" s="21"/>
@@ -4101,11 +4110,11 @@
       </c>
       <c r="B140" s="6"/>
       <c r="C140" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D140" s="18"/>
       <c r="E140" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F140" s="6"/>
       <c r="G140" s="21"/>
@@ -4120,11 +4129,11 @@
       </c>
       <c r="B141" s="6"/>
       <c r="C141" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D141" s="18"/>
       <c r="E141" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F141" s="6"/>
       <c r="G141" s="21"/>
@@ -4141,11 +4150,11 @@
         <v>27</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D142" s="18"/>
       <c r="E142" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F142" s="18"/>
       <c r="G142" s="21"/>
@@ -4162,11 +4171,11 @@
         <v>27</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D143" s="6"/>
       <c r="E143" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="21"/>
@@ -4181,11 +4190,11 @@
       </c>
       <c r="B144" s="6"/>
       <c r="C144" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D144" s="6"/>
       <c r="E144" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="21"/>
@@ -4202,11 +4211,11 @@
         <v>27</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D145" s="6"/>
       <c r="E145" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="21"/>
@@ -4221,11 +4230,11 @@
       </c>
       <c r="B146" s="6"/>
       <c r="C146" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D146" s="18"/>
       <c r="E146" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="21"/>
@@ -4240,11 +4249,11 @@
       </c>
       <c r="B147" s="6"/>
       <c r="C147" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D147" s="18"/>
       <c r="E147" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="21"/>
@@ -4261,11 +4270,11 @@
         <v>27</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D148" s="18"/>
       <c r="E148" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="21"/>
@@ -4282,11 +4291,11 @@
         <v>27</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D149" s="18"/>
       <c r="E149" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F149" s="6"/>
       <c r="G149" s="21"/>
@@ -4303,11 +4312,11 @@
         <v>27</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D150" s="18"/>
       <c r="E150" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F150" s="6"/>
       <c r="G150" s="21"/>
@@ -4324,11 +4333,11 @@
         <v>27</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D151" s="18"/>
       <c r="E151" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F151" s="6"/>
       <c r="G151" s="21"/>
@@ -4345,11 +4354,11 @@
         <v>27</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D152" s="18"/>
       <c r="E152" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F152" s="18"/>
       <c r="G152" s="21"/>
@@ -4366,11 +4375,11 @@
         <v>27</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D153" s="6"/>
       <c r="E153" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="21"/>
@@ -4385,11 +4394,11 @@
       </c>
       <c r="B154" s="23"/>
       <c r="C154" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D154" s="6"/>
       <c r="E154" s="12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F154" s="6"/>
       <c r="G154" s="21"/>
@@ -4404,11 +4413,11 @@
       </c>
       <c r="B155" s="23"/>
       <c r="C155" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D155" s="6"/>
       <c r="E155" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F155" s="6"/>
       <c r="G155" s="21"/>
@@ -4423,11 +4432,11 @@
       </c>
       <c r="B156" s="6"/>
       <c r="C156" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D156" s="18"/>
       <c r="E156" s="25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F156" s="18"/>
       <c r="G156" s="21"/>
@@ -4442,11 +4451,11 @@
       </c>
       <c r="B157" s="6"/>
       <c r="C157" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D157" s="18"/>
       <c r="E157" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F157" s="18"/>
       <c r="G157" s="21"/>
@@ -4461,11 +4470,11 @@
       </c>
       <c r="B158" s="6"/>
       <c r="C158" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D158" s="18"/>
       <c r="E158" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F158" s="18"/>
       <c r="G158" s="21"/>
@@ -4480,11 +4489,11 @@
       </c>
       <c r="B159" s="6"/>
       <c r="C159" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D159" s="18"/>
       <c r="E159" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F159" s="18"/>
       <c r="G159" s="21"/>
@@ -4499,11 +4508,11 @@
       </c>
       <c r="B160" s="6"/>
       <c r="C160" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D160" s="18"/>
       <c r="E160" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F160" s="18"/>
       <c r="G160" s="21"/>
@@ -4518,11 +4527,11 @@
       </c>
       <c r="B161" s="6"/>
       <c r="C161" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D161" s="18"/>
       <c r="E161" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F161" s="18"/>
       <c r="G161" s="21"/>
@@ -4537,11 +4546,11 @@
       </c>
       <c r="B162" s="6"/>
       <c r="C162" s="11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D162" s="6"/>
       <c r="E162" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F162" s="6"/>
       <c r="G162" s="21"/>
@@ -4556,11 +4565,11 @@
       </c>
       <c r="B163" s="6"/>
       <c r="C163" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D163" s="6"/>
       <c r="E163" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F163" s="6"/>
       <c r="G163" s="21"/>
@@ -4575,11 +4584,11 @@
       </c>
       <c r="B164" s="6"/>
       <c r="C164" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D164" s="6"/>
       <c r="E164" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="21"/>
@@ -4594,11 +4603,11 @@
       </c>
       <c r="B165" s="6"/>
       <c r="C165" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D165" s="6"/>
       <c r="E165" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F165" s="6"/>
       <c r="G165" s="21"/>
@@ -4613,11 +4622,11 @@
       </c>
       <c r="B166" s="6"/>
       <c r="C166" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D166" s="6"/>
       <c r="E166" s="11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F166" s="6"/>
       <c r="G166" s="21"/>
@@ -4632,11 +4641,11 @@
       </c>
       <c r="B167" s="18"/>
       <c r="C167" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D167" s="6"/>
       <c r="E167" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="28fRTs9VeopEJQMfWtOv3/HU5UbTF6Dk5qFBc3f/rtM="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="LpOSVwFWQUK8UOw0rC1TimEDtlp3Tl4AUdstOVTmptw="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="277">
   <si>
     <t>category</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t>Filtre Kahve (sade)</t>
-  </si>
-  <si>
-    <t>Red Eye</t>
   </si>
   <si>
     <t>Black Eye</t>
@@ -2085,13 +2082,15 @@
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F36" s="16"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="9">
-        <v>165.0</v>
+      <c r="G36" s="12"/>
+      <c r="H36" s="9">
+        <v>115.0</v>
+      </c>
+      <c r="I36" s="10">
+        <v>125.0</v>
       </c>
     </row>
     <row r="37">
@@ -2100,19 +2099,19 @@
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="12"/>
       <c r="H37" s="9">
-        <v>115.0</v>
+        <v>125.0</v>
       </c>
       <c r="I37" s="10">
-        <v>125.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="38">
@@ -2121,11 +2120,11 @@
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="12"/>
@@ -2137,47 +2136,45 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="8" t="s">
+      <c r="A39" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>66</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="12"/>
       <c r="H39" s="9">
-        <v>125.0</v>
-      </c>
-      <c r="I39" s="10">
-        <v>130.0</v>
+        <v>40.0</v>
+      </c>
+      <c r="I39" s="9">
+        <v>60.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>67</v>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="D40" s="18"/>
-      <c r="E40" s="12" t="s">
-        <v>68</v>
+      <c r="E40" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="F40" s="16"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="9">
-        <v>40.0</v>
-      </c>
-      <c r="I40" s="9">
-        <v>60.0</v>
+      <c r="G40" s="13"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="10">
+        <v>140.0</v>
       </c>
     </row>
     <row r="41">
@@ -2186,11 +2183,11 @@
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="13"/>
@@ -2205,13 +2202,13 @@
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F42" s="16"/>
+        <v>73</v>
+      </c>
+      <c r="F42" s="18"/>
       <c r="G42" s="13"/>
       <c r="H42" s="12"/>
       <c r="I42" s="10">
@@ -2224,17 +2221,17 @@
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D43" s="18"/>
+        <v>74</v>
+      </c>
+      <c r="D43" s="6"/>
       <c r="E43" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F43" s="18"/>
       <c r="G43" s="13"/>
       <c r="H43" s="12"/>
       <c r="I43" s="10">
-        <v>140.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="44">
@@ -2243,14 +2240,14 @@
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F44" s="18"/>
-      <c r="G44" s="13"/>
+      <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="10">
         <v>130.0</v>
@@ -2262,14 +2259,14 @@
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F45" s="18"/>
-      <c r="G45" s="12"/>
+      <c r="G45" s="13"/>
       <c r="H45" s="12"/>
       <c r="I45" s="10">
         <v>130.0</v>
@@ -2281,18 +2278,19 @@
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D46" s="6"/>
-      <c r="E46" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F46" s="18"/>
+      <c r="E46" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" s="16"/>
       <c r="G46" s="13"/>
       <c r="H46" s="12"/>
       <c r="I46" s="10">
         <v>130.0</v>
       </c>
+      <c r="J46" s="19"/>
     </row>
     <row r="47">
       <c r="A47" s="8" t="s">
@@ -2300,13 +2298,13 @@
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" s="6"/>
       <c r="G47" s="13"/>
       <c r="H47" s="12"/>
       <c r="I47" s="10">
@@ -2318,13 +2316,15 @@
       <c r="A48" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="8"/>
+      <c r="B48" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C48" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="13"/>
@@ -2335,57 +2335,55 @@
       <c r="J48" s="19"/>
     </row>
     <row r="49">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>85</v>
+      <c r="B49" s="12"/>
+      <c r="C49" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="D49" s="16"/>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="11" t="s">
         <v>86</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="13"/>
       <c r="H49" s="12"/>
       <c r="I49" s="10">
-        <v>130.0</v>
+        <v>150.0</v>
       </c>
       <c r="J49" s="19"/>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="s">
-        <v>4</v>
+      <c r="A50" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="B50" s="12"/>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="12" t="s">
         <v>87</v>
       </c>
       <c r="D50" s="16"/>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="12" t="s">
         <v>87</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="13"/>
       <c r="H50" s="12"/>
       <c r="I50" s="10">
-        <v>150.0</v>
+        <v>135.0</v>
       </c>
       <c r="J50" s="19"/>
     </row>
     <row r="51">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12" t="s">
+      <c r="B51" s="8"/>
+      <c r="C51" s="8" t="s">
         <v>88</v>
       </c>
       <c r="D51" s="16"/>
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="8" t="s">
         <v>88</v>
       </c>
       <c r="F51" s="6"/>
@@ -2394,7 +2392,6 @@
       <c r="I51" s="10">
         <v>135.0</v>
       </c>
-      <c r="J51" s="19"/>
     </row>
     <row r="52">
       <c r="A52" s="8" t="s">
@@ -2480,11 +2477,11 @@
       <c r="C56" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D56" s="16"/>
+      <c r="D56" s="18"/>
       <c r="E56" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F56" s="6"/>
+      <c r="F56" s="18"/>
       <c r="G56" s="13"/>
       <c r="H56" s="12"/>
       <c r="I56" s="10">
@@ -2515,11 +2512,11 @@
         <v>5</v>
       </c>
       <c r="B58" s="8"/>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="20" t="s">
         <v>95</v>
       </c>
       <c r="D58" s="18"/>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="20" t="s">
         <v>95</v>
       </c>
       <c r="F58" s="18"/>
@@ -2530,34 +2527,34 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="20" t="s">
+      <c r="A59" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12" t="s">
         <v>96</v>
       </c>
       <c r="D59" s="18"/>
-      <c r="E59" s="20" t="s">
-        <v>96</v>
+      <c r="E59" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="F59" s="18"/>
       <c r="G59" s="13"/>
       <c r="H59" s="12"/>
-      <c r="I59" s="10">
-        <v>135.0</v>
+      <c r="I59" s="9">
+        <v>150.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12" t="s">
-        <v>97</v>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="D60" s="18"/>
-      <c r="E60" s="12" t="s">
+      <c r="E60" s="8" t="s">
         <v>98</v>
       </c>
       <c r="F60" s="18"/>
@@ -2583,73 +2580,73 @@
       <c r="G61" s="13"/>
       <c r="H61" s="12"/>
       <c r="I61" s="9">
-        <v>150.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8" t="s">
+      <c r="A62" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D62" s="18"/>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="12" t="s">
         <v>100</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="13"/>
       <c r="H62" s="12"/>
-      <c r="I62" s="9">
-        <v>170.0</v>
+      <c r="I62" s="10">
+        <v>130.0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12" t="s">
+      <c r="B63" s="8"/>
+      <c r="C63" s="8" t="s">
         <v>101</v>
       </c>
       <c r="D63" s="18"/>
-      <c r="E63" s="12" t="s">
-        <v>101</v>
+      <c r="E63" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="F63" s="18"/>
       <c r="G63" s="13"/>
       <c r="H63" s="12"/>
       <c r="I63" s="10">
-        <v>130.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="8"/>
+      <c r="B64" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C64" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D64" s="18"/>
       <c r="E64" s="8" t="s">
         <v>103</v>
       </c>
       <c r="F64" s="18"/>
-      <c r="G64" s="13"/>
+      <c r="G64" s="21"/>
       <c r="H64" s="12"/>
-      <c r="I64" s="10">
-        <v>135.0</v>
+      <c r="I64" s="9">
+        <v>140.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B65" s="8"/>
       <c r="C65" s="8" t="s">
         <v>104</v>
       </c>
@@ -2661,7 +2658,7 @@
       <c r="G65" s="21"/>
       <c r="H65" s="12"/>
       <c r="I65" s="9">
-        <v>140.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="66">
@@ -2680,7 +2677,7 @@
       <c r="G66" s="21"/>
       <c r="H66" s="12"/>
       <c r="I66" s="9">
-        <v>145.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="67">
@@ -2699,7 +2696,7 @@
       <c r="G67" s="21"/>
       <c r="H67" s="12"/>
       <c r="I67" s="9">
-        <v>160.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="68">
@@ -2725,7 +2722,9 @@
       <c r="A69" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="8"/>
+      <c r="B69" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C69" s="8" t="s">
         <v>108</v>
       </c>
@@ -2737,28 +2736,26 @@
       <c r="G69" s="21"/>
       <c r="H69" s="12"/>
       <c r="I69" s="9">
-        <v>170.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C70" s="8" t="s">
+      <c r="B70" s="8"/>
+      <c r="C70" s="20" t="s">
         <v>109</v>
       </c>
       <c r="D70" s="18"/>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="20" t="s">
         <v>109</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="21"/>
       <c r="H70" s="12"/>
       <c r="I70" s="9">
-        <v>145.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="71">
@@ -2774,74 +2771,74 @@
         <v>110</v>
       </c>
       <c r="F71" s="18"/>
-      <c r="G71" s="21"/>
+      <c r="G71" s="12"/>
       <c r="H71" s="12"/>
       <c r="I71" s="9">
         <v>180.0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="20" t="s">
+      <c r="B72" s="12"/>
+      <c r="C72" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D72" s="18"/>
-      <c r="E72" s="20" t="s">
+      <c r="D72" s="16"/>
+      <c r="E72" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F72" s="18"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="21"/>
       <c r="I72" s="9">
-        <v>180.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="11" t="s">
-        <v>8</v>
+      <c r="A73" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="B73" s="12"/>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="12" t="s">
         <v>112</v>
       </c>
       <c r="D73" s="16"/>
-      <c r="E73" s="11" t="s">
-        <v>112</v>
+      <c r="E73" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="13"/>
       <c r="H73" s="21"/>
       <c r="I73" s="9">
-        <v>140.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B74" s="12"/>
-      <c r="C74" s="12" t="s">
-        <v>113</v>
+      <c r="C74" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="D74" s="16"/>
-      <c r="E74" s="12" t="s">
+      <c r="E74" s="8" t="s">
         <v>114</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="13"/>
       <c r="H74" s="21"/>
       <c r="I74" s="9">
-        <v>180.0</v>
+        <v>195.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="12"/>
+      <c r="B75" s="8"/>
       <c r="C75" s="8" t="s">
         <v>115</v>
       </c>
@@ -2853,7 +2850,7 @@
       <c r="G75" s="13"/>
       <c r="H75" s="21"/>
       <c r="I75" s="9">
-        <v>195.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="76">
@@ -2891,51 +2888,51 @@
       <c r="G77" s="13"/>
       <c r="H77" s="21"/>
       <c r="I77" s="9">
-        <v>180.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="8"/>
+      <c r="B78" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C78" s="8" t="s">
         <v>118</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="13"/>
-      <c r="H78" s="21"/>
+      <c r="H78" s="12"/>
       <c r="I78" s="9">
-        <v>170.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B79" s="8"/>
       <c r="C79" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D79" s="16"/>
+        <v>120</v>
+      </c>
+      <c r="D79" s="18"/>
       <c r="E79" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F79" s="6"/>
+      <c r="F79" s="18"/>
       <c r="G79" s="13"/>
-      <c r="H79" s="12"/>
+      <c r="H79" s="21"/>
       <c r="I79" s="9">
-        <v>125.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B80" s="8"/>
@@ -2950,11 +2947,11 @@
       <c r="G80" s="13"/>
       <c r="H80" s="21"/>
       <c r="I80" s="9">
-        <v>180.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B81" s="8"/>
@@ -2966,10 +2963,10 @@
         <v>122</v>
       </c>
       <c r="F81" s="18"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="12"/>
       <c r="I81" s="9">
-        <v>150.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="82">
@@ -2982,13 +2979,13 @@
       </c>
       <c r="D82" s="18"/>
       <c r="E82" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F82" s="18"/>
-      <c r="G82" s="21"/>
+        <v>124</v>
+      </c>
+      <c r="F82" s="22"/>
+      <c r="G82" s="13"/>
       <c r="H82" s="12"/>
       <c r="I82" s="9">
-        <v>160.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="83">
@@ -2997,17 +2994,17 @@
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D83" s="18"/>
       <c r="E83" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F83" s="22"/>
+      <c r="F83" s="18"/>
       <c r="G83" s="13"/>
       <c r="H83" s="12"/>
       <c r="I83" s="9">
-        <v>130.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="84">
@@ -3063,15 +3060,17 @@
       <c r="F86" s="18"/>
       <c r="G86" s="13"/>
       <c r="H86" s="12"/>
-      <c r="I86" s="9">
-        <v>150.0</v>
+      <c r="I86" s="10">
+        <v>120.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="8"/>
+      <c r="B87" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C87" s="8" t="s">
         <v>129</v>
       </c>
@@ -3083,62 +3082,60 @@
       <c r="G87" s="13"/>
       <c r="H87" s="12"/>
       <c r="I87" s="10">
-        <v>120.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C88" s="8" t="s">
+      <c r="B88" s="8"/>
+      <c r="C88" s="11" t="s">
         <v>130</v>
       </c>
       <c r="D88" s="18"/>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="11" t="s">
         <v>130</v>
       </c>
       <c r="F88" s="18"/>
       <c r="G88" s="13"/>
       <c r="H88" s="12"/>
       <c r="I88" s="10">
-        <v>125.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="11" t="s">
+      <c r="B89" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>131</v>
       </c>
       <c r="D89" s="18"/>
-      <c r="E89" s="11" t="s">
-        <v>131</v>
+      <c r="E89" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="F89" s="18"/>
       <c r="G89" s="13"/>
       <c r="H89" s="12"/>
-      <c r="I89" s="10">
-        <v>150.0</v>
+      <c r="I89" s="9">
+        <v>110.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B90" s="8"/>
       <c r="C90" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F90" s="18"/>
       <c r="G90" s="13"/>
@@ -3152,8 +3149,8 @@
         <v>9</v>
       </c>
       <c r="B91" s="8"/>
-      <c r="C91" s="8" t="s">
-        <v>134</v>
+      <c r="C91" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="D91" s="18"/>
       <c r="E91" s="8" t="s">
@@ -3163,45 +3160,47 @@
       <c r="G91" s="13"/>
       <c r="H91" s="12"/>
       <c r="I91" s="9">
-        <v>110.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="20" t="s">
+      <c r="A92" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12" t="s">
         <v>136</v>
       </c>
       <c r="D92" s="18"/>
-      <c r="E92" s="8" t="s">
-        <v>136</v>
+      <c r="E92" s="12" t="s">
+        <v>137</v>
       </c>
       <c r="F92" s="18"/>
       <c r="G92" s="13"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="9">
-        <v>130.0</v>
+      <c r="H92" s="9"/>
+      <c r="I92" s="10">
+        <v>70.0</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12" t="s">
-        <v>137</v>
+      <c r="B93" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="D93" s="18"/>
-      <c r="E93" s="12" t="s">
+      <c r="E93" s="8" t="s">
         <v>138</v>
       </c>
       <c r="F93" s="18"/>
       <c r="G93" s="13"/>
-      <c r="H93" s="9"/>
+      <c r="H93" s="12"/>
       <c r="I93" s="10">
-        <v>70.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="94">
@@ -3219,8 +3218,8 @@
         <v>139</v>
       </c>
       <c r="F94" s="18"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="9"/>
       <c r="I94" s="10">
         <v>85.0</v>
       </c>
@@ -3237,34 +3236,32 @@
       </c>
       <c r="D95" s="18"/>
       <c r="E95" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F95" s="18"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="9"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="12"/>
       <c r="I95" s="10">
-        <v>85.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B96" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B96" s="8"/>
       <c r="C96" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D96" s="18"/>
       <c r="E96" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F96" s="18"/>
       <c r="G96" s="13"/>
       <c r="H96" s="12"/>
       <c r="I96" s="10">
-        <v>60.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="97">
@@ -3273,14 +3270,14 @@
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D97" s="18"/>
       <c r="E97" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F97" s="18"/>
-      <c r="G97" s="13"/>
+      <c r="G97" s="12"/>
       <c r="H97" s="12"/>
       <c r="I97" s="10">
         <v>65.0</v>
@@ -3292,7 +3289,7 @@
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D98" s="18"/>
       <c r="E98" s="8" t="s">
@@ -3302,7 +3299,7 @@
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
       <c r="I98" s="10">
-        <v>65.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="99">
@@ -3315,46 +3312,46 @@
       </c>
       <c r="D99" s="18"/>
       <c r="E99" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F99" s="18"/>
+        <v>148</v>
+      </c>
+      <c r="F99" s="6"/>
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
       <c r="I99" s="10">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8" t="s">
-        <v>148</v>
+      <c r="A100" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D100" s="18"/>
-      <c r="E100" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F100" s="6"/>
+      <c r="E100" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F100" s="18"/>
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
-      <c r="I100" s="10">
-        <v>50.0</v>
+      <c r="I100" s="9">
+        <v>185.0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="23" t="s">
+      <c r="A101" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B101" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D101" s="18"/>
-      <c r="E101" s="12" t="s">
+      <c r="B101" s="6"/>
+      <c r="C101" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D101" s="16"/>
+      <c r="E101" s="8" t="s">
         <v>151</v>
       </c>
       <c r="F101" s="18"/>
@@ -3368,11 +3365,13 @@
       <c r="A102" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B102" s="6"/>
+      <c r="B102" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C102" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D102" s="16"/>
+      <c r="D102" s="18"/>
       <c r="E102" s="8" t="s">
         <v>152</v>
       </c>
@@ -3387,15 +3386,13 @@
       <c r="A103" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B103" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B103" s="6"/>
       <c r="C103" s="8" t="s">
         <v>153</v>
       </c>
       <c r="D103" s="18"/>
       <c r="E103" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F103" s="18"/>
       <c r="G103" s="12"/>
@@ -3410,11 +3407,11 @@
       </c>
       <c r="B104" s="6"/>
       <c r="C104" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D104" s="18"/>
       <c r="E104" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F104" s="18"/>
       <c r="G104" s="12"/>
@@ -3424,22 +3421,22 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="24" t="s">
         <v>12</v>
       </c>
       <c r="B105" s="6"/>
-      <c r="C105" s="8" t="s">
-        <v>156</v>
+      <c r="C105" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="D105" s="18"/>
-      <c r="E105" s="8" t="s">
-        <v>157</v>
+      <c r="E105" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="F105" s="18"/>
       <c r="G105" s="12"/>
       <c r="H105" s="12"/>
       <c r="I105" s="9">
-        <v>185.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="106">
@@ -3448,57 +3445,57 @@
       </c>
       <c r="B106" s="6"/>
       <c r="C106" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D106" s="18"/>
       <c r="E106" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F106" s="18"/>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
       <c r="I106" s="9">
-        <v>220.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B107" s="6"/>
-      <c r="C107" s="11" t="s">
-        <v>160</v>
+      <c r="A107" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="D107" s="18"/>
-      <c r="E107" s="11" t="s">
-        <v>161</v>
+      <c r="E107" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="F107" s="18"/>
-      <c r="G107" s="12"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="9">
-        <v>240.0</v>
+      <c r="G107" s="21"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="10">
+        <v>215.0</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="23" t="s">
+      <c r="A108" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B108" s="23" t="s">
-        <v>27</v>
-      </c>
+      <c r="B108" s="23"/>
       <c r="C108" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D108" s="18"/>
-      <c r="E108" s="8" t="s">
-        <v>163</v>
+      <c r="E108" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="F108" s="18"/>
       <c r="G108" s="21"/>
       <c r="H108" s="13"/>
       <c r="I108" s="10">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="109">
@@ -3507,11 +3504,11 @@
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D109" s="18"/>
       <c r="E109" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F109" s="18"/>
       <c r="G109" s="21"/>
@@ -3524,19 +3521,19 @@
       <c r="A110" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B110" s="23"/>
-      <c r="C110" s="12" t="s">
-        <v>166</v>
+      <c r="B110" s="6"/>
+      <c r="C110" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="D110" s="18"/>
-      <c r="E110" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="F110" s="18"/>
+      <c r="E110" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F110" s="6"/>
       <c r="G110" s="21"/>
       <c r="H110" s="13"/>
       <c r="I110" s="10">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="111">
@@ -3545,7 +3542,7 @@
       </c>
       <c r="B111" s="6"/>
       <c r="C111" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D111" s="18"/>
       <c r="E111" s="8" t="s">
@@ -3568,26 +3565,28 @@
       </c>
       <c r="D112" s="18"/>
       <c r="E112" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F112" s="6"/>
+        <v>171</v>
+      </c>
+      <c r="F112" s="18"/>
       <c r="G112" s="21"/>
       <c r="H112" s="13"/>
       <c r="I112" s="10">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B113" s="6"/>
+      <c r="B113" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C113" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D113" s="18"/>
       <c r="E113" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F113" s="18"/>
       <c r="G113" s="21"/>
@@ -3600,17 +3599,15 @@
       <c r="A114" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B114" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B114" s="6"/>
       <c r="C114" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D114" s="18"/>
       <c r="E114" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F114" s="18"/>
+        <v>175</v>
+      </c>
+      <c r="F114" s="6"/>
       <c r="G114" s="21"/>
       <c r="H114" s="13"/>
       <c r="I114" s="10">
@@ -3621,34 +3618,34 @@
       <c r="A115" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B115" s="6"/>
+      <c r="B115" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C115" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D115" s="18"/>
       <c r="E115" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="F115" s="6"/>
+        <v>177</v>
+      </c>
+      <c r="F115" s="18"/>
       <c r="G115" s="21"/>
       <c r="H115" s="13"/>
       <c r="I115" s="10">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B116" s="6"/>
       <c r="C116" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D116" s="18"/>
       <c r="E116" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F116" s="18"/>
       <c r="G116" s="21"/>
@@ -3663,11 +3660,11 @@
       </c>
       <c r="B117" s="6"/>
       <c r="C117" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D117" s="18"/>
       <c r="E117" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F117" s="18"/>
       <c r="G117" s="21"/>
@@ -3682,17 +3679,17 @@
       </c>
       <c r="B118" s="6"/>
       <c r="C118" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D118" s="18"/>
+        <v>182</v>
+      </c>
+      <c r="D118" s="6"/>
       <c r="E118" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F118" s="18"/>
+        <v>183</v>
+      </c>
+      <c r="F118" s="6"/>
       <c r="G118" s="21"/>
       <c r="H118" s="13"/>
       <c r="I118" s="10">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="119">
@@ -3701,17 +3698,17 @@
       </c>
       <c r="B119" s="6"/>
       <c r="C119" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F119" s="6"/>
       <c r="G119" s="21"/>
       <c r="H119" s="13"/>
       <c r="I119" s="10">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="120">
@@ -3720,17 +3717,17 @@
       </c>
       <c r="B120" s="6"/>
       <c r="C120" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F120" s="6"/>
       <c r="G120" s="21"/>
       <c r="H120" s="13"/>
       <c r="I120" s="10">
-        <v>220.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="121">
@@ -3739,17 +3736,17 @@
       </c>
       <c r="B121" s="6"/>
       <c r="C121" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F121" s="6"/>
       <c r="G121" s="21"/>
       <c r="H121" s="13"/>
       <c r="I121" s="10">
-        <v>215.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="122">
@@ -3758,17 +3755,17 @@
       </c>
       <c r="B122" s="6"/>
       <c r="C122" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D122" s="6"/>
       <c r="E122" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="21"/>
       <c r="H122" s="13"/>
       <c r="I122" s="10">
-        <v>220.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="123">
@@ -3777,57 +3774,57 @@
       </c>
       <c r="B123" s="6"/>
       <c r="C123" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D123" s="6"/>
       <c r="E123" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F123" s="6"/>
       <c r="G123" s="21"/>
       <c r="H123" s="13"/>
       <c r="I123" s="10">
-        <v>210.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B124" s="6"/>
+      <c r="B124" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C124" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D124" s="6"/>
+        <v>194</v>
+      </c>
+      <c r="D124" s="18"/>
       <c r="E124" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="F124" s="6"/>
+        <v>195</v>
+      </c>
+      <c r="F124" s="18"/>
       <c r="G124" s="21"/>
       <c r="H124" s="13"/>
       <c r="I124" s="10">
-        <v>80.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B125" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B125" s="6"/>
       <c r="C125" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D125" s="18"/>
+        <v>196</v>
+      </c>
+      <c r="D125" s="6"/>
       <c r="E125" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="F125" s="18"/>
+        <v>197</v>
+      </c>
+      <c r="F125" s="6"/>
       <c r="G125" s="21"/>
       <c r="H125" s="13"/>
       <c r="I125" s="10">
-        <v>220.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="126">
@@ -3836,51 +3833,51 @@
       </c>
       <c r="B126" s="6"/>
       <c r="C126" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D126" s="6"/>
       <c r="E126" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F126" s="6"/>
       <c r="G126" s="21"/>
       <c r="H126" s="13"/>
       <c r="I126" s="10">
-        <v>160.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B127" s="6"/>
+      <c r="B127" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C127" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D127" s="6"/>
-      <c r="E127" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="F127" s="6"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F127" s="18"/>
       <c r="G127" s="21"/>
       <c r="H127" s="13"/>
       <c r="I127" s="10">
-        <v>70.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B128" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B128" s="6"/>
       <c r="C128" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D128" s="18"/>
-      <c r="E128" s="11" t="s">
-        <v>202</v>
+      <c r="E128" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="F128" s="18"/>
       <c r="G128" s="21"/>
@@ -3893,15 +3890,17 @@
       <c r="A129" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B129" s="6"/>
+      <c r="B129" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C129" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="D129" s="18"/>
+        <v>204</v>
+      </c>
+      <c r="D129" s="6"/>
       <c r="E129" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="F129" s="18"/>
+        <v>205</v>
+      </c>
+      <c r="F129" s="6"/>
       <c r="G129" s="21"/>
       <c r="H129" s="13"/>
       <c r="I129" s="10">
@@ -3912,11 +3911,9 @@
       <c r="A130" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B130" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B130" s="6"/>
       <c r="C130" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D130" s="6"/>
       <c r="E130" s="8" t="s">
@@ -3926,7 +3923,7 @@
       <c r="G130" s="21"/>
       <c r="H130" s="13"/>
       <c r="I130" s="10">
-        <v>220.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="131">
@@ -3937,11 +3934,11 @@
       <c r="C131" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D131" s="6"/>
+      <c r="D131" s="18"/>
       <c r="E131" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F131" s="6"/>
+      <c r="F131" s="18"/>
       <c r="G131" s="21"/>
       <c r="H131" s="13"/>
       <c r="I131" s="10">
@@ -3952,13 +3949,15 @@
       <c r="A132" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B132" s="6"/>
+      <c r="B132" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C132" s="8" t="s">
         <v>208</v>
       </c>
       <c r="D132" s="18"/>
       <c r="E132" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F132" s="18"/>
       <c r="G132" s="21"/>
@@ -3971,17 +3970,15 @@
       <c r="A133" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B133" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B133" s="6"/>
       <c r="C133" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D133" s="18"/>
+        <v>210</v>
+      </c>
+      <c r="D133" s="6"/>
       <c r="E133" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F133" s="18"/>
+        <v>211</v>
+      </c>
+      <c r="F133" s="6"/>
       <c r="G133" s="21"/>
       <c r="H133" s="13"/>
       <c r="I133" s="10">
@@ -3994,17 +3991,17 @@
       </c>
       <c r="B134" s="6"/>
       <c r="C134" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D134" s="6"/>
       <c r="E134" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="21"/>
       <c r="H134" s="13"/>
       <c r="I134" s="10">
-        <v>185.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="135">
@@ -4013,17 +4010,17 @@
       </c>
       <c r="B135" s="6"/>
       <c r="C135" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D135" s="6"/>
       <c r="E135" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="21"/>
       <c r="H135" s="13"/>
       <c r="I135" s="10">
-        <v>200.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="136">
@@ -4032,76 +4029,76 @@
       </c>
       <c r="B136" s="6"/>
       <c r="C136" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D136" s="6"/>
       <c r="E136" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F136" s="6"/>
       <c r="G136" s="21"/>
       <c r="H136" s="13"/>
       <c r="I136" s="10">
-        <v>185.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B137" s="6"/>
-      <c r="C137" s="8" t="s">
-        <v>217</v>
+      <c r="A137" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137" s="23"/>
+      <c r="C137" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="D137" s="6"/>
-      <c r="E137" s="8" t="s">
-        <v>218</v>
+      <c r="E137" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="F137" s="6"/>
       <c r="G137" s="21"/>
       <c r="H137" s="13"/>
       <c r="I137" s="10">
-        <v>80.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="23" t="s">
+      <c r="A138" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B138" s="23"/>
-      <c r="C138" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D138" s="6"/>
-      <c r="E138" s="12" t="s">
+      <c r="B138" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C138" s="8" t="s">
         <v>220</v>
+      </c>
+      <c r="D138" s="18"/>
+      <c r="E138" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="21"/>
       <c r="H138" s="13"/>
       <c r="I138" s="10">
-        <v>120.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B139" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B139" s="6"/>
       <c r="C139" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D139" s="18"/>
       <c r="E139" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F139" s="6"/>
       <c r="G139" s="21"/>
       <c r="H139" s="13"/>
       <c r="I139" s="10">
-        <v>130.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="140">
@@ -4110,36 +4107,38 @@
       </c>
       <c r="B140" s="6"/>
       <c r="C140" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D140" s="18"/>
       <c r="E140" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F140" s="6"/>
       <c r="G140" s="21"/>
       <c r="H140" s="13"/>
       <c r="I140" s="10">
-        <v>140.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B141" s="6"/>
+      <c r="B141" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C141" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D141" s="18"/>
       <c r="E141" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="F141" s="6"/>
+        <v>227</v>
+      </c>
+      <c r="F141" s="18"/>
       <c r="G141" s="21"/>
       <c r="H141" s="13"/>
       <c r="I141" s="10">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="142">
@@ -4150,13 +4149,13 @@
         <v>27</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D142" s="18"/>
+        <v>228</v>
+      </c>
+      <c r="D142" s="6"/>
       <c r="E142" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="F142" s="18"/>
+        <v>229</v>
+      </c>
+      <c r="F142" s="6"/>
       <c r="G142" s="21"/>
       <c r="H142" s="13"/>
       <c r="I142" s="10">
@@ -4167,61 +4166,59 @@
       <c r="A143" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B143" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B143" s="6"/>
       <c r="C143" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D143" s="6"/>
-      <c r="E143" s="8" t="s">
-        <v>230</v>
+      <c r="E143" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="21"/>
       <c r="H143" s="13"/>
       <c r="I143" s="10">
-        <v>180.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B144" s="6"/>
-      <c r="C144" s="8" t="s">
-        <v>231</v>
+      <c r="A144" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B144" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>232</v>
       </c>
       <c r="D144" s="6"/>
-      <c r="E144" s="11" t="s">
-        <v>232</v>
+      <c r="E144" s="12" t="s">
+        <v>233</v>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="21"/>
       <c r="H144" s="13"/>
       <c r="I144" s="10">
-        <v>110.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="23" t="s">
+      <c r="A145" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B145" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C145" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="D145" s="6"/>
-      <c r="E145" s="12" t="s">
+      <c r="B145" s="6"/>
+      <c r="C145" s="8" t="s">
         <v>234</v>
+      </c>
+      <c r="D145" s="18"/>
+      <c r="E145" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="21"/>
       <c r="H145" s="13"/>
       <c r="I145" s="10">
-        <v>130.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="146">
@@ -4230,57 +4227,59 @@
       </c>
       <c r="B146" s="6"/>
       <c r="C146" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D146" s="18"/>
       <c r="E146" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="21"/>
       <c r="H146" s="13"/>
       <c r="I146" s="10">
-        <v>140.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B147" s="6"/>
-      <c r="C147" s="8" t="s">
-        <v>237</v>
+      <c r="A147" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B147" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>238</v>
       </c>
       <c r="D147" s="18"/>
-      <c r="E147" s="8" t="s">
-        <v>238</v>
+      <c r="E147" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="21"/>
       <c r="H147" s="13"/>
       <c r="I147" s="10">
-        <v>70.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="23" t="s">
+      <c r="A148" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B148" s="23" t="s">
+      <c r="B148" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C148" s="12" t="s">
-        <v>239</v>
+      <c r="C148" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D148" s="18"/>
-      <c r="E148" s="9" t="s">
-        <v>240</v>
+      <c r="E148" s="11" t="s">
+        <v>241</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="21"/>
       <c r="H148" s="13"/>
       <c r="I148" s="10">
-        <v>260.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="149">
@@ -4291,11 +4290,11 @@
         <v>27</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D149" s="18"/>
       <c r="E149" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F149" s="6"/>
       <c r="G149" s="21"/>
@@ -4312,11 +4311,11 @@
         <v>27</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D150" s="18"/>
-      <c r="E150" s="11" t="s">
-        <v>244</v>
+      <c r="E150" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="F150" s="6"/>
       <c r="G150" s="21"/>
@@ -4326,117 +4325,115 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B151" s="6" t="s">
+      <c r="A151" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B151" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C151" s="8" t="s">
-        <v>245</v>
+      <c r="C151" s="12" t="s">
+        <v>246</v>
       </c>
       <c r="D151" s="18"/>
-      <c r="E151" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F151" s="6"/>
+      <c r="E151" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="F151" s="18"/>
       <c r="G151" s="21"/>
       <c r="H151" s="13"/>
       <c r="I151" s="10">
-        <v>210.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="12" t="s">
+      <c r="A152" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B152" s="12" t="s">
+      <c r="B152" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C152" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="D152" s="18"/>
-      <c r="E152" s="12" t="s">
+      <c r="C152" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="F152" s="18"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F152" s="6"/>
       <c r="G152" s="21"/>
       <c r="H152" s="13"/>
       <c r="I152" s="10">
-        <v>220.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C153" s="8" t="s">
+      <c r="A153" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B153" s="23"/>
+      <c r="C153" s="12" t="s">
         <v>249</v>
       </c>
       <c r="D153" s="6"/>
-      <c r="E153" s="8" t="s">
-        <v>249</v>
+      <c r="E153" s="12" t="s">
+        <v>250</v>
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="21"/>
       <c r="H153" s="13"/>
-      <c r="I153" s="10">
-        <v>250.0</v>
+      <c r="I153" s="13">
+        <v>20.0</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="23" t="s">
+      <c r="A154" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B154" s="23"/>
-      <c r="C154" s="12" t="s">
-        <v>250</v>
+      <c r="C154" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="D154" s="6"/>
-      <c r="E154" s="12" t="s">
-        <v>251</v>
+      <c r="E154" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="F154" s="6"/>
       <c r="G154" s="21"/>
-      <c r="H154" s="13"/>
-      <c r="I154" s="13">
-        <v>20.0</v>
+      <c r="H154" s="10"/>
+      <c r="I154" s="10">
+        <v>40.0</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="6" t="s">
+      <c r="A155" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B155" s="23"/>
-      <c r="C155" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D155" s="6"/>
-      <c r="E155" s="8" t="s">
+      <c r="B155" s="6"/>
+      <c r="C155" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="F155" s="6"/>
+      <c r="D155" s="18"/>
+      <c r="E155" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F155" s="18"/>
       <c r="G155" s="21"/>
       <c r="H155" s="10"/>
       <c r="I155" s="10">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="24" t="s">
+      <c r="A156" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B156" s="6"/>
-      <c r="C156" s="11" t="s">
-        <v>254</v>
+      <c r="C156" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="D156" s="18"/>
-      <c r="E156" s="25" t="s">
-        <v>255</v>
+      <c r="E156" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="F156" s="18"/>
       <c r="G156" s="21"/>
@@ -4451,17 +4448,17 @@
       </c>
       <c r="B157" s="6"/>
       <c r="C157" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D157" s="18"/>
       <c r="E157" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F157" s="18"/>
       <c r="G157" s="21"/>
-      <c r="H157" s="10"/>
-      <c r="I157" s="10">
-        <v>20.0</v>
+      <c r="H157" s="13"/>
+      <c r="I157" s="13">
+        <v>40.0</v>
       </c>
     </row>
     <row r="158">
@@ -4470,17 +4467,17 @@
       </c>
       <c r="B158" s="6"/>
       <c r="C158" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D158" s="18"/>
       <c r="E158" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F158" s="18"/>
       <c r="G158" s="21"/>
       <c r="H158" s="13"/>
       <c r="I158" s="13">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="159">
@@ -4489,17 +4486,17 @@
       </c>
       <c r="B159" s="6"/>
       <c r="C159" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D159" s="18"/>
       <c r="E159" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F159" s="18"/>
       <c r="G159" s="21"/>
       <c r="H159" s="13"/>
       <c r="I159" s="13">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="160">
@@ -4508,11 +4505,11 @@
       </c>
       <c r="B160" s="6"/>
       <c r="C160" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D160" s="18"/>
       <c r="E160" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F160" s="18"/>
       <c r="G160" s="21"/>
@@ -4526,18 +4523,18 @@
         <v>19</v>
       </c>
       <c r="B161" s="6"/>
-      <c r="C161" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D161" s="18"/>
-      <c r="E161" s="8" t="s">
+      <c r="C161" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="F161" s="18"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F161" s="6"/>
       <c r="G161" s="21"/>
       <c r="H161" s="13"/>
-      <c r="I161" s="13">
-        <v>20.0</v>
+      <c r="I161" s="10">
+        <v>40.0</v>
       </c>
     </row>
     <row r="162">
@@ -4546,55 +4543,55 @@
       </c>
       <c r="B162" s="6"/>
       <c r="C162" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D162" s="6"/>
       <c r="E162" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F162" s="6"/>
       <c r="G162" s="21"/>
       <c r="H162" s="13"/>
       <c r="I162" s="10">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="6" t="s">
+      <c r="A163" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B163" s="6"/>
       <c r="C163" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D163" s="6"/>
       <c r="E163" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F163" s="6"/>
       <c r="G163" s="21"/>
       <c r="H163" s="13"/>
       <c r="I163" s="10">
-        <v>60.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="24" t="s">
+      <c r="A164" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B164" s="6"/>
-      <c r="C164" s="11" t="s">
-        <v>270</v>
+      <c r="C164" s="8" t="s">
+        <v>271</v>
       </c>
       <c r="D164" s="6"/>
-      <c r="E164" s="11" t="s">
-        <v>271</v>
+      <c r="E164" s="8" t="s">
+        <v>272</v>
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="21"/>
       <c r="H164" s="13"/>
-      <c r="I164" s="10">
-        <v>150.0</v>
+      <c r="I164" s="13">
+        <v>15.0</v>
       </c>
     </row>
     <row r="165">
@@ -4602,17 +4599,17 @@
         <v>19</v>
       </c>
       <c r="B165" s="6"/>
-      <c r="C165" s="8" t="s">
-        <v>272</v>
+      <c r="C165" s="11" t="s">
+        <v>273</v>
       </c>
       <c r="D165" s="6"/>
-      <c r="E165" s="8" t="s">
-        <v>273</v>
+      <c r="E165" s="11" t="s">
+        <v>274</v>
       </c>
       <c r="F165" s="6"/>
       <c r="G165" s="21"/>
       <c r="H165" s="13"/>
-      <c r="I165" s="13">
+      <c r="I165" s="10">
         <v>15.0</v>
       </c>
     </row>
@@ -4620,39 +4617,26 @@
       <c r="A166" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B166" s="6"/>
-      <c r="C166" s="11" t="s">
-        <v>274</v>
+      <c r="B166" s="18"/>
+      <c r="C166" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="D166" s="6"/>
-      <c r="E166" s="11" t="s">
-        <v>275</v>
+      <c r="E166" s="8" t="s">
+        <v>276</v>
       </c>
       <c r="F166" s="6"/>
-      <c r="G166" s="21"/>
+      <c r="G166" s="6"/>
       <c r="H166" s="13"/>
-      <c r="I166" s="10">
-        <v>15.0</v>
+      <c r="I166" s="13">
+        <v>60.0</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B167" s="18"/>
-      <c r="C167" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="D167" s="6"/>
-      <c r="E167" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="F167" s="6"/>
-      <c r="G167" s="6"/>
-      <c r="H167" s="13"/>
-      <c r="I167" s="13">
-        <v>60.0</v>
-      </c>
+      <c r="A167" s="26"/>
+      <c r="B167" s="26"/>
+      <c r="C167" s="26"/>
+      <c r="E167" s="26"/>
     </row>
     <row r="168">
       <c r="A168" s="26"/>
@@ -4687,16 +4671,10 @@
     <row r="173">
       <c r="A173" s="26"/>
       <c r="B173" s="26"/>
-      <c r="C173" s="26"/>
-      <c r="E173" s="26"/>
     </row>
     <row r="174">
       <c r="A174" s="26"/>
       <c r="B174" s="26"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="26"/>
-      <c r="B175" s="26"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="LpOSVwFWQUK8UOw0rC1TimEDtlp3Tl4AUdstOVTmptw="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="28fRTs9VeopEJQMfWtOv3/HU5UbTF6Dk5qFBc3f/rtM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="280">
   <si>
     <t>category</t>
   </si>
@@ -364,7 +364,16 @@
     <t>Milkshake (Oreo)</t>
   </si>
   <si>
-    <t>Smoothie</t>
+    <t>Smoothie (Banane/ Strawberry)</t>
+  </si>
+  <si>
+    <t>Smoothie (Muz / Çilek)</t>
+  </si>
+  <si>
+    <t>Smoothie (Edema Reliever- Green Fruit and vegetable)</t>
+  </si>
+  <si>
+    <t>Smoothie ( Ödem Atıcı - Yeşil Meyve ve Sebze)</t>
   </si>
   <si>
     <t>Frappe</t>
@@ -2839,12 +2848,12 @@
         <v>9</v>
       </c>
       <c r="B75" s="8"/>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="11" t="s">
         <v>115</v>
       </c>
       <c r="D75" s="16"/>
-      <c r="E75" s="8" t="s">
-        <v>115</v>
+      <c r="E75" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="13"/>
@@ -2854,23 +2863,21 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B76" s="8"/>
-      <c r="C76" s="8" t="s">
-        <v>116</v>
+      <c r="C76" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="D76" s="16"/>
-      <c r="E76" s="8" t="s">
-        <v>116</v>
+      <c r="E76" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="13"/>
       <c r="H76" s="21"/>
-      <c r="I76" s="9">
-        <v>180.0</v>
-      </c>
+      <c r="I76" s="9"/>
     </row>
     <row r="77">
       <c r="A77" s="8" t="s">
@@ -2878,95 +2885,95 @@
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D77" s="16"/>
       <c r="E77" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="13"/>
       <c r="H77" s="21"/>
       <c r="I77" s="9">
-        <v>170.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B78" s="8"/>
       <c r="C78" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="13"/>
-      <c r="H78" s="12"/>
+      <c r="H78" s="21"/>
       <c r="I78" s="9">
-        <v>125.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B79" s="8"/>
+      <c r="B79" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C79" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D79" s="18"/>
+        <v>121</v>
+      </c>
+      <c r="D79" s="16"/>
       <c r="E79" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F79" s="18"/>
+        <v>122</v>
+      </c>
+      <c r="F79" s="6"/>
       <c r="G79" s="13"/>
-      <c r="H79" s="21"/>
+      <c r="H79" s="12"/>
       <c r="I79" s="9">
-        <v>180.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B80" s="8"/>
       <c r="C80" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D80" s="18"/>
       <c r="E80" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F80" s="18"/>
       <c r="G80" s="13"/>
       <c r="H80" s="21"/>
       <c r="I80" s="9">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D81" s="18"/>
       <c r="E81" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F81" s="18"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="12"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="21"/>
       <c r="I81" s="9">
-        <v>160.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="82">
@@ -2975,17 +2982,17 @@
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D82" s="18"/>
       <c r="E82" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F82" s="22"/>
-      <c r="G82" s="13"/>
+        <v>125</v>
+      </c>
+      <c r="F82" s="18"/>
+      <c r="G82" s="21"/>
       <c r="H82" s="12"/>
       <c r="I82" s="9">
-        <v>130.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="83">
@@ -2994,17 +3001,17 @@
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D83" s="18"/>
       <c r="E83" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F83" s="18"/>
+        <v>127</v>
+      </c>
+      <c r="F83" s="22"/>
       <c r="G83" s="13"/>
       <c r="H83" s="12"/>
       <c r="I83" s="9">
-        <v>150.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="84">
@@ -3013,11 +3020,11 @@
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D84" s="18"/>
       <c r="E84" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F84" s="18"/>
       <c r="G84" s="13"/>
@@ -3032,11 +3039,11 @@
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D85" s="18"/>
       <c r="E85" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F85" s="18"/>
       <c r="G85" s="13"/>
@@ -3051,91 +3058,91 @@
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D86" s="18"/>
       <c r="E86" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F86" s="18"/>
       <c r="G86" s="13"/>
       <c r="H86" s="12"/>
-      <c r="I86" s="10">
-        <v>120.0</v>
+      <c r="I86" s="9">
+        <v>150.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B87" s="8"/>
       <c r="C87" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D87" s="18"/>
       <c r="E87" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F87" s="18"/>
       <c r="G87" s="13"/>
       <c r="H87" s="12"/>
       <c r="I87" s="10">
-        <v>125.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="11" t="s">
-        <v>130</v>
+      <c r="B88" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="D88" s="18"/>
-      <c r="E88" s="11" t="s">
-        <v>130</v>
+      <c r="E88" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="F88" s="18"/>
       <c r="G88" s="13"/>
       <c r="H88" s="12"/>
       <c r="I88" s="10">
-        <v>150.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>131</v>
+      <c r="B89" s="8"/>
+      <c r="C89" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="D89" s="18"/>
-      <c r="E89" s="8" t="s">
-        <v>132</v>
+      <c r="E89" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="F89" s="18"/>
       <c r="G89" s="13"/>
       <c r="H89" s="12"/>
-      <c r="I89" s="9">
-        <v>110.0</v>
+      <c r="I89" s="10">
+        <v>150.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="8"/>
+      <c r="B90" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C90" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F90" s="18"/>
       <c r="G90" s="13"/>
@@ -3149,58 +3156,56 @@
         <v>9</v>
       </c>
       <c r="B91" s="8"/>
-      <c r="C91" s="20" t="s">
-        <v>135</v>
+      <c r="C91" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="D91" s="18"/>
       <c r="E91" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F91" s="18"/>
       <c r="G91" s="13"/>
       <c r="H91" s="12"/>
       <c r="I91" s="9">
-        <v>130.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12" t="s">
-        <v>136</v>
+      <c r="A92" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="8"/>
+      <c r="C92" s="20" t="s">
+        <v>138</v>
       </c>
       <c r="D92" s="18"/>
-      <c r="E92" s="12" t="s">
-        <v>137</v>
+      <c r="E92" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="F92" s="18"/>
       <c r="G92" s="13"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="10">
-        <v>70.0</v>
+      <c r="H92" s="12"/>
+      <c r="I92" s="9">
+        <v>130.0</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B93" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>138</v>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="D93" s="18"/>
-      <c r="E93" s="8" t="s">
-        <v>138</v>
+      <c r="E93" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="F93" s="18"/>
       <c r="G93" s="13"/>
-      <c r="H93" s="12"/>
+      <c r="H93" s="9"/>
       <c r="I93" s="10">
-        <v>85.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="94">
@@ -3211,15 +3216,15 @@
         <v>27</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D94" s="18"/>
       <c r="E94" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F94" s="18"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="9"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="12"/>
       <c r="I94" s="10">
         <v>85.0</v>
       </c>
@@ -3232,36 +3237,38 @@
         <v>27</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D95" s="18"/>
       <c r="E95" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F95" s="18"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="9"/>
       <c r="I95" s="10">
-        <v>60.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B96" s="8"/>
+      <c r="B96" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C96" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D96" s="18"/>
       <c r="E96" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F96" s="18"/>
       <c r="G96" s="13"/>
       <c r="H96" s="12"/>
       <c r="I96" s="10">
-        <v>65.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="97">
@@ -3270,14 +3277,14 @@
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D97" s="18"/>
       <c r="E97" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F97" s="18"/>
-      <c r="G97" s="12"/>
+      <c r="G97" s="13"/>
       <c r="H97" s="12"/>
       <c r="I97" s="10">
         <v>65.0</v>
@@ -3289,17 +3296,17 @@
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D98" s="18"/>
       <c r="E98" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F98" s="18"/>
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
       <c r="I98" s="10">
-        <v>40.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="99">
@@ -3308,51 +3315,51 @@
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D99" s="18"/>
       <c r="E99" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F99" s="6"/>
+        <v>149</v>
+      </c>
+      <c r="F99" s="18"/>
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
       <c r="I99" s="10">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B100" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>149</v>
+      <c r="A100" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="D100" s="18"/>
-      <c r="E100" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F100" s="18"/>
+      <c r="E100" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F100" s="6"/>
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
-      <c r="I100" s="9">
-        <v>185.0</v>
+      <c r="I100" s="10">
+        <v>50.0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B101" s="6"/>
-      <c r="C101" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D101" s="16"/>
-      <c r="E101" s="8" t="s">
-        <v>151</v>
+      <c r="B101" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D101" s="18"/>
+      <c r="E101" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="F101" s="18"/>
       <c r="G101" s="12"/>
@@ -3365,15 +3372,13 @@
       <c r="A102" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B102" s="6"/>
       <c r="C102" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D102" s="18"/>
+        <v>154</v>
+      </c>
+      <c r="D102" s="16"/>
       <c r="E102" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F102" s="18"/>
       <c r="G102" s="12"/>
@@ -3386,13 +3391,15 @@
       <c r="A103" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B103" s="6"/>
+      <c r="B103" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C103" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D103" s="18"/>
       <c r="E103" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F103" s="18"/>
       <c r="G103" s="12"/>
@@ -3407,11 +3414,11 @@
       </c>
       <c r="B104" s="6"/>
       <c r="C104" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D104" s="18"/>
       <c r="E104" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F104" s="18"/>
       <c r="G104" s="12"/>
@@ -3421,22 +3428,22 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="24" t="s">
+      <c r="A105" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B105" s="6"/>
-      <c r="C105" s="11" t="s">
-        <v>157</v>
+      <c r="C105" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="D105" s="18"/>
-      <c r="E105" s="11" t="s">
-        <v>158</v>
+      <c r="E105" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="F105" s="18"/>
       <c r="G105" s="12"/>
       <c r="H105" s="12"/>
       <c r="I105" s="9">
-        <v>220.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="106">
@@ -3445,57 +3452,57 @@
       </c>
       <c r="B106" s="6"/>
       <c r="C106" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D106" s="18"/>
       <c r="E106" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F106" s="18"/>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
       <c r="I106" s="9">
+        <v>220.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" s="6"/>
+      <c r="C107" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D107" s="18"/>
+      <c r="E107" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F107" s="18"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="9">
         <v>240.0</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="23" t="s">
+    <row r="108">
+      <c r="A108" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B107" s="23" t="s">
+      <c r="B108" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D107" s="18"/>
-      <c r="E107" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F107" s="18"/>
-      <c r="G107" s="21"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="10">
-        <v>215.0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B108" s="23"/>
       <c r="C108" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D108" s="18"/>
-      <c r="E108" s="12" t="s">
-        <v>164</v>
+      <c r="E108" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="F108" s="18"/>
       <c r="G108" s="21"/>
       <c r="H108" s="13"/>
       <c r="I108" s="10">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="109">
@@ -3504,11 +3511,11 @@
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D109" s="18"/>
       <c r="E109" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F109" s="18"/>
       <c r="G109" s="21"/>
@@ -3521,19 +3528,19 @@
       <c r="A110" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B110" s="6"/>
-      <c r="C110" s="8" t="s">
-        <v>167</v>
+      <c r="B110" s="23"/>
+      <c r="C110" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="D110" s="18"/>
-      <c r="E110" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F110" s="6"/>
+      <c r="E110" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F110" s="18"/>
       <c r="G110" s="21"/>
       <c r="H110" s="13"/>
       <c r="I110" s="10">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="111">
@@ -3542,11 +3549,11 @@
       </c>
       <c r="B111" s="6"/>
       <c r="C111" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D111" s="18"/>
       <c r="E111" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F111" s="6"/>
       <c r="G111" s="21"/>
@@ -3561,32 +3568,30 @@
       </c>
       <c r="B112" s="6"/>
       <c r="C112" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D112" s="18"/>
       <c r="E112" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F112" s="18"/>
+        <v>172</v>
+      </c>
+      <c r="F112" s="6"/>
       <c r="G112" s="21"/>
       <c r="H112" s="13"/>
       <c r="I112" s="10">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B113" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B113" s="6"/>
       <c r="C113" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D113" s="18"/>
       <c r="E113" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F113" s="18"/>
       <c r="G113" s="21"/>
@@ -3599,15 +3604,17 @@
       <c r="A114" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B114" s="6"/>
+      <c r="B114" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C114" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D114" s="18"/>
       <c r="E114" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F114" s="6"/>
+        <v>176</v>
+      </c>
+      <c r="F114" s="18"/>
       <c r="G114" s="21"/>
       <c r="H114" s="13"/>
       <c r="I114" s="10">
@@ -3618,34 +3625,34 @@
       <c r="A115" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B115" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B115" s="6"/>
       <c r="C115" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D115" s="18"/>
       <c r="E115" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="F115" s="18"/>
+        <v>178</v>
+      </c>
+      <c r="F115" s="6"/>
       <c r="G115" s="21"/>
       <c r="H115" s="13"/>
       <c r="I115" s="10">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B116" s="6"/>
+      <c r="B116" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C116" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D116" s="18"/>
       <c r="E116" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F116" s="18"/>
       <c r="G116" s="21"/>
@@ -3660,11 +3667,11 @@
       </c>
       <c r="B117" s="6"/>
       <c r="C117" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D117" s="18"/>
       <c r="E117" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F117" s="18"/>
       <c r="G117" s="21"/>
@@ -3679,17 +3686,17 @@
       </c>
       <c r="B118" s="6"/>
       <c r="C118" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D118" s="6"/>
+        <v>183</v>
+      </c>
+      <c r="D118" s="18"/>
       <c r="E118" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F118" s="6"/>
+        <v>184</v>
+      </c>
+      <c r="F118" s="18"/>
       <c r="G118" s="21"/>
       <c r="H118" s="13"/>
       <c r="I118" s="10">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="119">
@@ -3698,17 +3705,17 @@
       </c>
       <c r="B119" s="6"/>
       <c r="C119" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F119" s="6"/>
       <c r="G119" s="21"/>
       <c r="H119" s="13"/>
       <c r="I119" s="10">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="120">
@@ -3717,17 +3724,17 @@
       </c>
       <c r="B120" s="6"/>
       <c r="C120" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F120" s="6"/>
       <c r="G120" s="21"/>
       <c r="H120" s="13"/>
       <c r="I120" s="10">
-        <v>215.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="121">
@@ -3736,17 +3743,17 @@
       </c>
       <c r="B121" s="6"/>
       <c r="C121" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F121" s="6"/>
       <c r="G121" s="21"/>
       <c r="H121" s="13"/>
       <c r="I121" s="10">
-        <v>220.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="122">
@@ -3755,17 +3762,17 @@
       </c>
       <c r="B122" s="6"/>
       <c r="C122" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D122" s="6"/>
       <c r="E122" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="21"/>
       <c r="H122" s="13"/>
       <c r="I122" s="10">
-        <v>210.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="123">
@@ -3774,57 +3781,57 @@
       </c>
       <c r="B123" s="6"/>
       <c r="C123" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D123" s="6"/>
       <c r="E123" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F123" s="6"/>
       <c r="G123" s="21"/>
       <c r="H123" s="13"/>
       <c r="I123" s="10">
-        <v>80.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B124" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B124" s="6"/>
       <c r="C124" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D124" s="18"/>
+        <v>195</v>
+      </c>
+      <c r="D124" s="6"/>
       <c r="E124" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="F124" s="18"/>
+        <v>196</v>
+      </c>
+      <c r="F124" s="6"/>
       <c r="G124" s="21"/>
       <c r="H124" s="13"/>
       <c r="I124" s="10">
-        <v>220.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B125" s="6"/>
+      <c r="B125" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C125" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D125" s="6"/>
+        <v>197</v>
+      </c>
+      <c r="D125" s="18"/>
       <c r="E125" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F125" s="6"/>
+        <v>198</v>
+      </c>
+      <c r="F125" s="18"/>
       <c r="G125" s="21"/>
       <c r="H125" s="13"/>
       <c r="I125" s="10">
-        <v>160.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="126">
@@ -3833,51 +3840,51 @@
       </c>
       <c r="B126" s="6"/>
       <c r="C126" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D126" s="6"/>
       <c r="E126" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F126" s="6"/>
       <c r="G126" s="21"/>
       <c r="H126" s="13"/>
       <c r="I126" s="10">
-        <v>70.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B127" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B127" s="6"/>
       <c r="C127" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D127" s="18"/>
-      <c r="E127" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="F127" s="18"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F127" s="6"/>
       <c r="G127" s="21"/>
       <c r="H127" s="13"/>
       <c r="I127" s="10">
-        <v>220.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B128" s="6"/>
+      <c r="B128" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C128" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D128" s="18"/>
-      <c r="E128" s="8" t="s">
-        <v>203</v>
+      <c r="E128" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="F128" s="18"/>
       <c r="G128" s="21"/>
@@ -3890,17 +3897,15 @@
       <c r="A129" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B129" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B129" s="6"/>
       <c r="C129" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D129" s="6"/>
+        <v>205</v>
+      </c>
+      <c r="D129" s="18"/>
       <c r="E129" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F129" s="6"/>
+        <v>206</v>
+      </c>
+      <c r="F129" s="18"/>
       <c r="G129" s="21"/>
       <c r="H129" s="13"/>
       <c r="I129" s="10">
@@ -3911,19 +3916,21 @@
       <c r="A130" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B130" s="6"/>
+      <c r="B130" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C130" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D130" s="6"/>
       <c r="E130" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F130" s="6"/>
       <c r="G130" s="21"/>
       <c r="H130" s="13"/>
       <c r="I130" s="10">
-        <v>185.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="131">
@@ -3932,13 +3939,13 @@
       </c>
       <c r="B131" s="6"/>
       <c r="C131" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D131" s="18"/>
+        <v>209</v>
+      </c>
+      <c r="D131" s="6"/>
       <c r="E131" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F131" s="18"/>
+        <v>209</v>
+      </c>
+      <c r="F131" s="6"/>
       <c r="G131" s="21"/>
       <c r="H131" s="13"/>
       <c r="I131" s="10">
@@ -3949,15 +3956,13 @@
       <c r="A132" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B132" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B132" s="6"/>
       <c r="C132" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D132" s="18"/>
       <c r="E132" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F132" s="18"/>
       <c r="G132" s="21"/>
@@ -3970,15 +3975,17 @@
       <c r="A133" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B133" s="6"/>
+      <c r="B133" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C133" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D133" s="6"/>
+        <v>211</v>
+      </c>
+      <c r="D133" s="18"/>
       <c r="E133" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="F133" s="6"/>
+        <v>212</v>
+      </c>
+      <c r="F133" s="18"/>
       <c r="G133" s="21"/>
       <c r="H133" s="13"/>
       <c r="I133" s="10">
@@ -3991,17 +3998,17 @@
       </c>
       <c r="B134" s="6"/>
       <c r="C134" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D134" s="6"/>
       <c r="E134" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="21"/>
       <c r="H134" s="13"/>
       <c r="I134" s="10">
-        <v>200.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="135">
@@ -4010,17 +4017,17 @@
       </c>
       <c r="B135" s="6"/>
       <c r="C135" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D135" s="6"/>
       <c r="E135" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="21"/>
       <c r="H135" s="13"/>
       <c r="I135" s="10">
-        <v>185.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="136">
@@ -4029,76 +4036,76 @@
       </c>
       <c r="B136" s="6"/>
       <c r="C136" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D136" s="6"/>
       <c r="E136" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F136" s="6"/>
       <c r="G136" s="21"/>
       <c r="H136" s="13"/>
       <c r="I136" s="10">
-        <v>80.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B137" s="23"/>
-      <c r="C137" s="12" t="s">
-        <v>218</v>
+      <c r="A137" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" s="6"/>
+      <c r="C137" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="D137" s="6"/>
-      <c r="E137" s="12" t="s">
-        <v>219</v>
+      <c r="E137" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="F137" s="6"/>
       <c r="G137" s="21"/>
       <c r="H137" s="13"/>
       <c r="I137" s="10">
-        <v>120.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="6" t="s">
+      <c r="A138" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B138" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D138" s="18"/>
-      <c r="E138" s="8" t="s">
+      <c r="B138" s="23"/>
+      <c r="C138" s="12" t="s">
         <v>221</v>
+      </c>
+      <c r="D138" s="6"/>
+      <c r="E138" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="21"/>
       <c r="H138" s="13"/>
       <c r="I138" s="10">
-        <v>130.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B139" s="6"/>
+      <c r="B139" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C139" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D139" s="18"/>
       <c r="E139" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F139" s="6"/>
       <c r="G139" s="21"/>
       <c r="H139" s="13"/>
       <c r="I139" s="10">
-        <v>140.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="140">
@@ -4107,38 +4114,36 @@
       </c>
       <c r="B140" s="6"/>
       <c r="C140" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D140" s="18"/>
       <c r="E140" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F140" s="6"/>
       <c r="G140" s="21"/>
       <c r="H140" s="13"/>
       <c r="I140" s="10">
-        <v>150.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B141" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B141" s="6"/>
       <c r="C141" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D141" s="18"/>
       <c r="E141" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="F141" s="18"/>
+        <v>228</v>
+      </c>
+      <c r="F141" s="6"/>
       <c r="G141" s="21"/>
       <c r="H141" s="13"/>
       <c r="I141" s="10">
-        <v>180.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="142">
@@ -4149,13 +4154,13 @@
         <v>27</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D142" s="6"/>
+        <v>229</v>
+      </c>
+      <c r="D142" s="18"/>
       <c r="E142" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="F142" s="6"/>
+        <v>230</v>
+      </c>
+      <c r="F142" s="18"/>
       <c r="G142" s="21"/>
       <c r="H142" s="13"/>
       <c r="I142" s="10">
@@ -4166,59 +4171,61 @@
       <c r="A143" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B143" s="6"/>
+      <c r="B143" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C143" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D143" s="6"/>
-      <c r="E143" s="11" t="s">
-        <v>231</v>
+      <c r="E143" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="21"/>
       <c r="H143" s="13"/>
       <c r="I143" s="10">
-        <v>110.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B144" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C144" s="12" t="s">
-        <v>232</v>
+      <c r="A144" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144" s="6"/>
+      <c r="C144" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="D144" s="6"/>
-      <c r="E144" s="12" t="s">
-        <v>233</v>
+      <c r="E144" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="21"/>
       <c r="H144" s="13"/>
       <c r="I144" s="10">
-        <v>130.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="6" t="s">
+      <c r="A145" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B145" s="6"/>
-      <c r="C145" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D145" s="18"/>
-      <c r="E145" s="8" t="s">
+      <c r="B145" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C145" s="12" t="s">
         <v>235</v>
+      </c>
+      <c r="D145" s="6"/>
+      <c r="E145" s="12" t="s">
+        <v>236</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="21"/>
       <c r="H145" s="13"/>
       <c r="I145" s="10">
-        <v>140.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="146">
@@ -4227,59 +4234,57 @@
       </c>
       <c r="B146" s="6"/>
       <c r="C146" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D146" s="18"/>
       <c r="E146" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="21"/>
       <c r="H146" s="13"/>
       <c r="I146" s="10">
-        <v>70.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B147" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C147" s="12" t="s">
-        <v>238</v>
+      <c r="A147" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B147" s="6"/>
+      <c r="C147" s="8" t="s">
+        <v>239</v>
       </c>
       <c r="D147" s="18"/>
-      <c r="E147" s="9" t="s">
-        <v>239</v>
+      <c r="E147" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="21"/>
       <c r="H147" s="13"/>
       <c r="I147" s="10">
-        <v>260.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="6" t="s">
+      <c r="A148" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C148" s="8" t="s">
-        <v>240</v>
+      <c r="C148" s="12" t="s">
+        <v>241</v>
       </c>
       <c r="D148" s="18"/>
-      <c r="E148" s="11" t="s">
-        <v>241</v>
+      <c r="E148" s="9" t="s">
+        <v>242</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="21"/>
       <c r="H148" s="13"/>
       <c r="I148" s="10">
-        <v>210.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="149">
@@ -4290,11 +4295,11 @@
         <v>27</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D149" s="18"/>
       <c r="E149" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F149" s="6"/>
       <c r="G149" s="21"/>
@@ -4311,11 +4316,11 @@
         <v>27</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D150" s="18"/>
-      <c r="E150" s="8" t="s">
-        <v>245</v>
+      <c r="E150" s="11" t="s">
+        <v>246</v>
       </c>
       <c r="F150" s="6"/>
       <c r="G150" s="21"/>
@@ -4325,115 +4330,117 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B151" s="12" t="s">
+      <c r="A151" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B151" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C151" s="12" t="s">
-        <v>246</v>
+      <c r="C151" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="D151" s="18"/>
-      <c r="E151" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="F151" s="18"/>
+      <c r="E151" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F151" s="6"/>
       <c r="G151" s="21"/>
       <c r="H151" s="13"/>
       <c r="I151" s="10">
-        <v>220.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="8" t="s">
+      <c r="A152" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B152" s="8" t="s">
+      <c r="B152" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C152" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="D152" s="6"/>
-      <c r="E152" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="F152" s="6"/>
+      <c r="C152" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D152" s="18"/>
+      <c r="E152" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F152" s="18"/>
       <c r="G152" s="21"/>
       <c r="H152" s="13"/>
       <c r="I152" s="10">
-        <v>250.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B153" s="23"/>
-      <c r="C153" s="12" t="s">
-        <v>249</v>
+      <c r="A153" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="D153" s="6"/>
-      <c r="E153" s="12" t="s">
-        <v>250</v>
+      <c r="E153" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="21"/>
       <c r="H153" s="13"/>
-      <c r="I153" s="13">
-        <v>20.0</v>
+      <c r="I153" s="10">
+        <v>250.0</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="6" t="s">
+      <c r="A154" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B154" s="23"/>
-      <c r="C154" s="8" t="s">
-        <v>251</v>
+      <c r="C154" s="12" t="s">
+        <v>252</v>
       </c>
       <c r="D154" s="6"/>
-      <c r="E154" s="8" t="s">
-        <v>252</v>
+      <c r="E154" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="F154" s="6"/>
       <c r="G154" s="21"/>
-      <c r="H154" s="10"/>
-      <c r="I154" s="10">
-        <v>40.0</v>
+      <c r="H154" s="13"/>
+      <c r="I154" s="13">
+        <v>20.0</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="24" t="s">
+      <c r="A155" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B155" s="6"/>
-      <c r="C155" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="D155" s="18"/>
-      <c r="E155" s="25" t="s">
+      <c r="B155" s="23"/>
+      <c r="C155" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="F155" s="18"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F155" s="6"/>
       <c r="G155" s="21"/>
       <c r="H155" s="10"/>
       <c r="I155" s="10">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="6" t="s">
+      <c r="A156" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B156" s="6"/>
-      <c r="C156" s="8" t="s">
-        <v>255</v>
+      <c r="C156" s="11" t="s">
+        <v>256</v>
       </c>
       <c r="D156" s="18"/>
-      <c r="E156" s="8" t="s">
-        <v>256</v>
+      <c r="E156" s="25" t="s">
+        <v>257</v>
       </c>
       <c r="F156" s="18"/>
       <c r="G156" s="21"/>
@@ -4448,17 +4455,17 @@
       </c>
       <c r="B157" s="6"/>
       <c r="C157" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D157" s="18"/>
       <c r="E157" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F157" s="18"/>
       <c r="G157" s="21"/>
-      <c r="H157" s="13"/>
-      <c r="I157" s="13">
-        <v>40.0</v>
+      <c r="H157" s="10"/>
+      <c r="I157" s="10">
+        <v>20.0</v>
       </c>
     </row>
     <row r="158">
@@ -4467,17 +4474,17 @@
       </c>
       <c r="B158" s="6"/>
       <c r="C158" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D158" s="18"/>
       <c r="E158" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F158" s="18"/>
       <c r="G158" s="21"/>
       <c r="H158" s="13"/>
       <c r="I158" s="13">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="159">
@@ -4486,17 +4493,17 @@
       </c>
       <c r="B159" s="6"/>
       <c r="C159" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D159" s="18"/>
       <c r="E159" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F159" s="18"/>
       <c r="G159" s="21"/>
       <c r="H159" s="13"/>
       <c r="I159" s="13">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="160">
@@ -4505,11 +4512,11 @@
       </c>
       <c r="B160" s="6"/>
       <c r="C160" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D160" s="18"/>
       <c r="E160" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F160" s="18"/>
       <c r="G160" s="21"/>
@@ -4523,18 +4530,18 @@
         <v>19</v>
       </c>
       <c r="B161" s="6"/>
-      <c r="C161" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D161" s="6"/>
-      <c r="E161" s="11" t="s">
+      <c r="C161" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="F161" s="6"/>
+      <c r="D161" s="18"/>
+      <c r="E161" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="F161" s="18"/>
       <c r="G161" s="21"/>
       <c r="H161" s="13"/>
-      <c r="I161" s="10">
-        <v>40.0</v>
+      <c r="I161" s="13">
+        <v>20.0</v>
       </c>
     </row>
     <row r="162">
@@ -4543,55 +4550,55 @@
       </c>
       <c r="B162" s="6"/>
       <c r="C162" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D162" s="6"/>
       <c r="E162" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F162" s="6"/>
       <c r="G162" s="21"/>
       <c r="H162" s="13"/>
       <c r="I162" s="10">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="24" t="s">
+      <c r="A163" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B163" s="6"/>
       <c r="C163" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D163" s="6"/>
       <c r="E163" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F163" s="6"/>
       <c r="G163" s="21"/>
       <c r="H163" s="13"/>
       <c r="I163" s="10">
-        <v>150.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="6" t="s">
+      <c r="A164" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B164" s="6"/>
-      <c r="C164" s="8" t="s">
-        <v>271</v>
+      <c r="C164" s="11" t="s">
+        <v>272</v>
       </c>
       <c r="D164" s="6"/>
-      <c r="E164" s="8" t="s">
-        <v>272</v>
+      <c r="E164" s="11" t="s">
+        <v>273</v>
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="21"/>
       <c r="H164" s="13"/>
-      <c r="I164" s="13">
-        <v>15.0</v>
+      <c r="I164" s="10">
+        <v>150.0</v>
       </c>
     </row>
     <row r="165">
@@ -4599,17 +4606,17 @@
         <v>19</v>
       </c>
       <c r="B165" s="6"/>
-      <c r="C165" s="11" t="s">
-        <v>273</v>
+      <c r="C165" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="D165" s="6"/>
-      <c r="E165" s="11" t="s">
-        <v>274</v>
+      <c r="E165" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="F165" s="6"/>
       <c r="G165" s="21"/>
       <c r="H165" s="13"/>
-      <c r="I165" s="10">
+      <c r="I165" s="13">
         <v>15.0</v>
       </c>
     </row>
@@ -4617,26 +4624,39 @@
       <c r="A166" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B166" s="18"/>
-      <c r="C166" s="8" t="s">
-        <v>275</v>
+      <c r="B166" s="6"/>
+      <c r="C166" s="11" t="s">
+        <v>276</v>
       </c>
       <c r="D166" s="6"/>
-      <c r="E166" s="8" t="s">
-        <v>276</v>
+      <c r="E166" s="11" t="s">
+        <v>277</v>
       </c>
       <c r="F166" s="6"/>
-      <c r="G166" s="6"/>
+      <c r="G166" s="21"/>
       <c r="H166" s="13"/>
-      <c r="I166" s="13">
+      <c r="I166" s="10">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B167" s="18"/>
+      <c r="C167" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D167" s="6"/>
+      <c r="E167" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="13"/>
+      <c r="I167" s="13">
         <v>60.0</v>
       </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="26"/>
-      <c r="B167" s="26"/>
-      <c r="C167" s="26"/>
-      <c r="E167" s="26"/>
     </row>
     <row r="168">
       <c r="A168" s="26"/>
@@ -4671,10 +4691,16 @@
     <row r="173">
       <c r="A173" s="26"/>
       <c r="B173" s="26"/>
+      <c r="C173" s="26"/>
+      <c r="E173" s="26"/>
     </row>
     <row r="174">
       <c r="A174" s="26"/>
       <c r="B174" s="26"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="26"/>
+      <c r="B175" s="26"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="281">
   <si>
     <t>category</t>
   </si>
@@ -379,7 +379,10 @@
     <t>Frappe</t>
   </si>
   <si>
-    <t>Frozen</t>
+    <t xml:space="preserve">Frozen ( Banane / Strawberry / Blueberry) </t>
+  </si>
+  <si>
+    <t>Frozen ( Muz  /Çilek / Yaban Mersini)</t>
   </si>
   <si>
     <t>Italyan Sodas</t>
@@ -2877,7 +2880,9 @@
       <c r="F76" s="6"/>
       <c r="G76" s="13"/>
       <c r="H76" s="21"/>
-      <c r="I76" s="9"/>
+      <c r="I76" s="9">
+        <v>180.0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="8" t="s">
@@ -2903,12 +2908,12 @@
         <v>9</v>
       </c>
       <c r="B78" s="8"/>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="11" t="s">
         <v>120</v>
       </c>
       <c r="D78" s="16"/>
-      <c r="E78" s="8" t="s">
-        <v>120</v>
+      <c r="E78" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="13"/>
@@ -2925,11 +2930,11 @@
         <v>27</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D79" s="16"/>
       <c r="E79" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="13"/>
@@ -2944,11 +2949,11 @@
       </c>
       <c r="B80" s="8"/>
       <c r="C80" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D80" s="18"/>
       <c r="E80" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F80" s="18"/>
       <c r="G80" s="13"/>
@@ -2963,11 +2968,11 @@
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D81" s="18"/>
       <c r="E81" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F81" s="18"/>
       <c r="G81" s="13"/>
@@ -2982,11 +2987,11 @@
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D82" s="18"/>
       <c r="E82" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F82" s="18"/>
       <c r="G82" s="21"/>
@@ -3001,11 +3006,11 @@
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D83" s="18"/>
       <c r="E83" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F83" s="22"/>
       <c r="G83" s="13"/>
@@ -3020,11 +3025,11 @@
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D84" s="18"/>
       <c r="E84" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F84" s="18"/>
       <c r="G84" s="13"/>
@@ -3039,11 +3044,11 @@
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D85" s="18"/>
       <c r="E85" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F85" s="18"/>
       <c r="G85" s="13"/>
@@ -3058,11 +3063,11 @@
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D86" s="18"/>
       <c r="E86" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F86" s="18"/>
       <c r="G86" s="13"/>
@@ -3077,11 +3082,11 @@
       </c>
       <c r="B87" s="8"/>
       <c r="C87" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D87" s="18"/>
       <c r="E87" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F87" s="18"/>
       <c r="G87" s="13"/>
@@ -3098,11 +3103,11 @@
         <v>27</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D88" s="18"/>
       <c r="E88" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F88" s="18"/>
       <c r="G88" s="13"/>
@@ -3117,11 +3122,11 @@
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D89" s="18"/>
       <c r="E89" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F89" s="18"/>
       <c r="G89" s="13"/>
@@ -3138,11 +3143,11 @@
         <v>27</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F90" s="18"/>
       <c r="G90" s="13"/>
@@ -3157,11 +3162,11 @@
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D91" s="18"/>
       <c r="E91" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F91" s="18"/>
       <c r="G91" s="13"/>
@@ -3176,11 +3181,11 @@
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D92" s="18"/>
       <c r="E92" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F92" s="18"/>
       <c r="G92" s="13"/>
@@ -3195,17 +3200,17 @@
       </c>
       <c r="B93" s="12"/>
       <c r="C93" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D93" s="18"/>
       <c r="E93" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F93" s="18"/>
       <c r="G93" s="13"/>
       <c r="H93" s="9"/>
       <c r="I93" s="10">
-        <v>70.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="94">
@@ -3216,11 +3221,11 @@
         <v>27</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D94" s="18"/>
       <c r="E94" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F94" s="18"/>
       <c r="G94" s="13"/>
@@ -3237,11 +3242,11 @@
         <v>27</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D95" s="18"/>
       <c r="E95" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F95" s="18"/>
       <c r="G95" s="12"/>
@@ -3258,17 +3263,17 @@
         <v>27</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D96" s="18"/>
       <c r="E96" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F96" s="18"/>
       <c r="G96" s="13"/>
       <c r="H96" s="12"/>
       <c r="I96" s="10">
-        <v>60.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="97">
@@ -3277,17 +3282,17 @@
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D97" s="18"/>
       <c r="E97" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F97" s="18"/>
       <c r="G97" s="13"/>
       <c r="H97" s="12"/>
       <c r="I97" s="10">
-        <v>65.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="98">
@@ -3296,17 +3301,17 @@
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D98" s="18"/>
       <c r="E98" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F98" s="18"/>
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
       <c r="I98" s="10">
-        <v>65.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="99">
@@ -3315,17 +3320,17 @@
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D99" s="18"/>
       <c r="E99" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F99" s="18"/>
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
       <c r="I99" s="10">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="100">
@@ -3334,11 +3339,11 @@
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D100" s="18"/>
       <c r="E100" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F100" s="6"/>
       <c r="G100" s="12"/>
@@ -3355,11 +3360,11 @@
         <v>27</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D101" s="18"/>
       <c r="E101" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F101" s="18"/>
       <c r="G101" s="12"/>
@@ -3374,11 +3379,11 @@
       </c>
       <c r="B102" s="6"/>
       <c r="C102" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D102" s="16"/>
       <c r="E102" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F102" s="18"/>
       <c r="G102" s="12"/>
@@ -3395,11 +3400,11 @@
         <v>27</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D103" s="18"/>
       <c r="E103" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F103" s="18"/>
       <c r="G103" s="12"/>
@@ -3414,11 +3419,11 @@
       </c>
       <c r="B104" s="6"/>
       <c r="C104" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D104" s="18"/>
       <c r="E104" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F104" s="18"/>
       <c r="G104" s="12"/>
@@ -3433,11 +3438,11 @@
       </c>
       <c r="B105" s="6"/>
       <c r="C105" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D105" s="18"/>
       <c r="E105" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F105" s="18"/>
       <c r="G105" s="12"/>
@@ -3452,11 +3457,11 @@
       </c>
       <c r="B106" s="6"/>
       <c r="C106" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D106" s="18"/>
       <c r="E106" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F106" s="18"/>
       <c r="G106" s="12"/>
@@ -3471,11 +3476,11 @@
       </c>
       <c r="B107" s="6"/>
       <c r="C107" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D107" s="18"/>
       <c r="E107" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F107" s="18"/>
       <c r="G107" s="12"/>
@@ -3492,11 +3497,11 @@
         <v>27</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D108" s="18"/>
       <c r="E108" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F108" s="18"/>
       <c r="G108" s="21"/>
@@ -3511,11 +3516,11 @@
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D109" s="18"/>
       <c r="E109" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F109" s="18"/>
       <c r="G109" s="21"/>
@@ -3530,11 +3535,11 @@
       </c>
       <c r="B110" s="23"/>
       <c r="C110" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D110" s="18"/>
       <c r="E110" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F110" s="18"/>
       <c r="G110" s="21"/>
@@ -3549,11 +3554,11 @@
       </c>
       <c r="B111" s="6"/>
       <c r="C111" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D111" s="18"/>
       <c r="E111" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F111" s="6"/>
       <c r="G111" s="21"/>
@@ -3568,11 +3573,11 @@
       </c>
       <c r="B112" s="6"/>
       <c r="C112" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D112" s="18"/>
       <c r="E112" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F112" s="6"/>
       <c r="G112" s="21"/>
@@ -3587,11 +3592,11 @@
       </c>
       <c r="B113" s="6"/>
       <c r="C113" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D113" s="18"/>
       <c r="E113" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F113" s="18"/>
       <c r="G113" s="21"/>
@@ -3608,11 +3613,11 @@
         <v>27</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D114" s="18"/>
       <c r="E114" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F114" s="18"/>
       <c r="G114" s="21"/>
@@ -3627,11 +3632,11 @@
       </c>
       <c r="B115" s="6"/>
       <c r="C115" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D115" s="18"/>
       <c r="E115" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F115" s="6"/>
       <c r="G115" s="21"/>
@@ -3648,11 +3653,11 @@
         <v>27</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D116" s="18"/>
       <c r="E116" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F116" s="18"/>
       <c r="G116" s="21"/>
@@ -3667,11 +3672,11 @@
       </c>
       <c r="B117" s="6"/>
       <c r="C117" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D117" s="18"/>
       <c r="E117" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F117" s="18"/>
       <c r="G117" s="21"/>
@@ -3686,11 +3691,11 @@
       </c>
       <c r="B118" s="6"/>
       <c r="C118" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D118" s="18"/>
       <c r="E118" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F118" s="18"/>
       <c r="G118" s="21"/>
@@ -3705,11 +3710,11 @@
       </c>
       <c r="B119" s="6"/>
       <c r="C119" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F119" s="6"/>
       <c r="G119" s="21"/>
@@ -3724,11 +3729,11 @@
       </c>
       <c r="B120" s="6"/>
       <c r="C120" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F120" s="6"/>
       <c r="G120" s="21"/>
@@ -3743,11 +3748,11 @@
       </c>
       <c r="B121" s="6"/>
       <c r="C121" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F121" s="6"/>
       <c r="G121" s="21"/>
@@ -3762,11 +3767,11 @@
       </c>
       <c r="B122" s="6"/>
       <c r="C122" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D122" s="6"/>
       <c r="E122" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="21"/>
@@ -3781,11 +3786,11 @@
       </c>
       <c r="B123" s="6"/>
       <c r="C123" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D123" s="6"/>
       <c r="E123" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F123" s="6"/>
       <c r="G123" s="21"/>
@@ -3800,11 +3805,11 @@
       </c>
       <c r="B124" s="6"/>
       <c r="C124" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D124" s="6"/>
       <c r="E124" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F124" s="6"/>
       <c r="G124" s="21"/>
@@ -3821,11 +3826,11 @@
         <v>27</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D125" s="18"/>
       <c r="E125" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F125" s="18"/>
       <c r="G125" s="21"/>
@@ -3840,11 +3845,11 @@
       </c>
       <c r="B126" s="6"/>
       <c r="C126" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D126" s="6"/>
       <c r="E126" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F126" s="6"/>
       <c r="G126" s="21"/>
@@ -3859,11 +3864,11 @@
       </c>
       <c r="B127" s="6"/>
       <c r="C127" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D127" s="6"/>
       <c r="E127" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F127" s="6"/>
       <c r="G127" s="21"/>
@@ -3880,11 +3885,11 @@
         <v>27</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D128" s="18"/>
       <c r="E128" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F128" s="18"/>
       <c r="G128" s="21"/>
@@ -3899,11 +3904,11 @@
       </c>
       <c r="B129" s="6"/>
       <c r="C129" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D129" s="18"/>
       <c r="E129" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F129" s="18"/>
       <c r="G129" s="21"/>
@@ -3920,11 +3925,11 @@
         <v>27</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D130" s="6"/>
       <c r="E130" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F130" s="6"/>
       <c r="G130" s="21"/>
@@ -3939,11 +3944,11 @@
       </c>
       <c r="B131" s="6"/>
       <c r="C131" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D131" s="6"/>
       <c r="E131" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="21"/>
@@ -3958,11 +3963,11 @@
       </c>
       <c r="B132" s="6"/>
       <c r="C132" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D132" s="18"/>
       <c r="E132" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F132" s="18"/>
       <c r="G132" s="21"/>
@@ -3979,11 +3984,11 @@
         <v>27</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D133" s="18"/>
       <c r="E133" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F133" s="18"/>
       <c r="G133" s="21"/>
@@ -3998,11 +4003,11 @@
       </c>
       <c r="B134" s="6"/>
       <c r="C134" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D134" s="6"/>
       <c r="E134" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="21"/>
@@ -4017,11 +4022,11 @@
       </c>
       <c r="B135" s="6"/>
       <c r="C135" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D135" s="6"/>
       <c r="E135" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="21"/>
@@ -4036,11 +4041,11 @@
       </c>
       <c r="B136" s="6"/>
       <c r="C136" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D136" s="6"/>
       <c r="E136" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F136" s="6"/>
       <c r="G136" s="21"/>
@@ -4055,11 +4060,11 @@
       </c>
       <c r="B137" s="6"/>
       <c r="C137" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D137" s="6"/>
       <c r="E137" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F137" s="6"/>
       <c r="G137" s="21"/>
@@ -4074,11 +4079,11 @@
       </c>
       <c r="B138" s="23"/>
       <c r="C138" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D138" s="6"/>
       <c r="E138" s="12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="21"/>
@@ -4095,11 +4100,11 @@
         <v>27</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D139" s="18"/>
       <c r="E139" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F139" s="6"/>
       <c r="G139" s="21"/>
@@ -4114,11 +4119,11 @@
       </c>
       <c r="B140" s="6"/>
       <c r="C140" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D140" s="18"/>
       <c r="E140" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F140" s="6"/>
       <c r="G140" s="21"/>
@@ -4133,11 +4138,11 @@
       </c>
       <c r="B141" s="6"/>
       <c r="C141" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D141" s="18"/>
       <c r="E141" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F141" s="6"/>
       <c r="G141" s="21"/>
@@ -4154,11 +4159,11 @@
         <v>27</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D142" s="18"/>
       <c r="E142" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F142" s="18"/>
       <c r="G142" s="21"/>
@@ -4175,11 +4180,11 @@
         <v>27</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D143" s="6"/>
       <c r="E143" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="21"/>
@@ -4194,11 +4199,11 @@
       </c>
       <c r="B144" s="6"/>
       <c r="C144" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D144" s="6"/>
       <c r="E144" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="21"/>
@@ -4215,11 +4220,11 @@
         <v>27</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D145" s="6"/>
       <c r="E145" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="21"/>
@@ -4234,11 +4239,11 @@
       </c>
       <c r="B146" s="6"/>
       <c r="C146" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D146" s="18"/>
       <c r="E146" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="21"/>
@@ -4253,11 +4258,11 @@
       </c>
       <c r="B147" s="6"/>
       <c r="C147" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D147" s="18"/>
       <c r="E147" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="21"/>
@@ -4274,11 +4279,11 @@
         <v>27</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D148" s="18"/>
       <c r="E148" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="21"/>
@@ -4295,11 +4300,11 @@
         <v>27</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D149" s="18"/>
       <c r="E149" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F149" s="6"/>
       <c r="G149" s="21"/>
@@ -4316,11 +4321,11 @@
         <v>27</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D150" s="18"/>
       <c r="E150" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F150" s="6"/>
       <c r="G150" s="21"/>
@@ -4337,11 +4342,11 @@
         <v>27</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D151" s="18"/>
       <c r="E151" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F151" s="6"/>
       <c r="G151" s="21"/>
@@ -4358,11 +4363,11 @@
         <v>27</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D152" s="18"/>
       <c r="E152" s="12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F152" s="18"/>
       <c r="G152" s="21"/>
@@ -4379,11 +4384,11 @@
         <v>27</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D153" s="6"/>
       <c r="E153" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="21"/>
@@ -4398,11 +4403,11 @@
       </c>
       <c r="B154" s="23"/>
       <c r="C154" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D154" s="6"/>
       <c r="E154" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F154" s="6"/>
       <c r="G154" s="21"/>
@@ -4417,11 +4422,11 @@
       </c>
       <c r="B155" s="23"/>
       <c r="C155" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D155" s="6"/>
       <c r="E155" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F155" s="6"/>
       <c r="G155" s="21"/>
@@ -4436,11 +4441,11 @@
       </c>
       <c r="B156" s="6"/>
       <c r="C156" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D156" s="18"/>
       <c r="E156" s="25" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F156" s="18"/>
       <c r="G156" s="21"/>
@@ -4455,11 +4460,11 @@
       </c>
       <c r="B157" s="6"/>
       <c r="C157" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D157" s="18"/>
       <c r="E157" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F157" s="18"/>
       <c r="G157" s="21"/>
@@ -4474,11 +4479,11 @@
       </c>
       <c r="B158" s="6"/>
       <c r="C158" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D158" s="18"/>
       <c r="E158" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F158" s="18"/>
       <c r="G158" s="21"/>
@@ -4493,11 +4498,11 @@
       </c>
       <c r="B159" s="6"/>
       <c r="C159" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D159" s="18"/>
       <c r="E159" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F159" s="18"/>
       <c r="G159" s="21"/>
@@ -4512,11 +4517,11 @@
       </c>
       <c r="B160" s="6"/>
       <c r="C160" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D160" s="18"/>
       <c r="E160" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F160" s="18"/>
       <c r="G160" s="21"/>
@@ -4531,11 +4536,11 @@
       </c>
       <c r="B161" s="6"/>
       <c r="C161" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D161" s="18"/>
       <c r="E161" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F161" s="18"/>
       <c r="G161" s="21"/>
@@ -4550,11 +4555,11 @@
       </c>
       <c r="B162" s="6"/>
       <c r="C162" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D162" s="6"/>
       <c r="E162" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F162" s="6"/>
       <c r="G162" s="21"/>
@@ -4569,11 +4574,11 @@
       </c>
       <c r="B163" s="6"/>
       <c r="C163" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D163" s="6"/>
       <c r="E163" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F163" s="6"/>
       <c r="G163" s="21"/>
@@ -4588,11 +4593,11 @@
       </c>
       <c r="B164" s="6"/>
       <c r="C164" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D164" s="6"/>
       <c r="E164" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="21"/>
@@ -4607,11 +4612,11 @@
       </c>
       <c r="B165" s="6"/>
       <c r="C165" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D165" s="6"/>
       <c r="E165" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F165" s="6"/>
       <c r="G165" s="21"/>
@@ -4626,11 +4631,11 @@
       </c>
       <c r="B166" s="6"/>
       <c r="C166" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D166" s="6"/>
       <c r="E166" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F166" s="6"/>
       <c r="G166" s="21"/>
@@ -4645,11 +4650,11 @@
       </c>
       <c r="B167" s="18"/>
       <c r="C167" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D167" s="6"/>
       <c r="E167" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="28fRTs9VeopEJQMfWtOv3/HU5UbTF6Dk5qFBc3f/rtM="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="gpGawLE8387Rt25jOdgd/3wgB9U/Q4OsCJ59+mqXG4Y="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="277">
   <si>
     <t>category</t>
   </si>
@@ -594,12 +594,6 @@
     <t>San Sebastian (İspanya)</t>
   </si>
   <si>
-    <t>Karpatka (Poland)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karpatka (Polonya) </t>
-  </si>
-  <si>
     <t>Medovik (Russia)</t>
   </si>
   <si>
@@ -736,12 +730,6 @@
   </si>
   <si>
     <t>Kruvasan  (çikolatalı)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croissant BIG (Plain) </t>
-  </si>
-  <si>
-    <t>Kruvasan Jumbo (sade)</t>
   </si>
   <si>
     <t>Croissant BIG (chocolate)</t>
@@ -3630,7 +3618,9 @@
       <c r="A115" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B115" s="6"/>
+      <c r="B115" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C115" s="8" t="s">
         <v>178</v>
       </c>
@@ -3638,20 +3628,18 @@
       <c r="E115" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="F115" s="6"/>
+      <c r="F115" s="18"/>
       <c r="G115" s="21"/>
       <c r="H115" s="13"/>
       <c r="I115" s="10">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B116" s="6"/>
       <c r="C116" s="8" t="s">
         <v>180</v>
       </c>
@@ -3693,15 +3681,15 @@
       <c r="C118" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D118" s="18"/>
+      <c r="D118" s="6"/>
       <c r="E118" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F118" s="18"/>
+      <c r="F118" s="6"/>
       <c r="G118" s="21"/>
       <c r="H118" s="13"/>
       <c r="I118" s="10">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="119">
@@ -3720,7 +3708,7 @@
       <c r="G119" s="21"/>
       <c r="H119" s="13"/>
       <c r="I119" s="10">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="120">
@@ -3739,7 +3727,7 @@
       <c r="G120" s="21"/>
       <c r="H120" s="13"/>
       <c r="I120" s="10">
-        <v>220.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="121">
@@ -3758,7 +3746,7 @@
       <c r="G121" s="21"/>
       <c r="H121" s="13"/>
       <c r="I121" s="10">
-        <v>215.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="122">
@@ -3777,7 +3765,7 @@
       <c r="G122" s="21"/>
       <c r="H122" s="13"/>
       <c r="I122" s="10">
-        <v>220.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="123">
@@ -3796,47 +3784,47 @@
       <c r="G123" s="21"/>
       <c r="H123" s="13"/>
       <c r="I123" s="10">
-        <v>210.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B124" s="6"/>
+      <c r="B124" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C124" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D124" s="6"/>
+      <c r="D124" s="18"/>
       <c r="E124" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F124" s="6"/>
+      <c r="F124" s="18"/>
       <c r="G124" s="21"/>
       <c r="H124" s="13"/>
       <c r="I124" s="10">
-        <v>80.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B125" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B125" s="6"/>
       <c r="C125" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D125" s="18"/>
+      <c r="D125" s="6"/>
       <c r="E125" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F125" s="18"/>
+      <c r="F125" s="6"/>
       <c r="G125" s="21"/>
       <c r="H125" s="13"/>
       <c r="I125" s="10">
-        <v>220.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="126">
@@ -3855,40 +3843,40 @@
       <c r="G126" s="21"/>
       <c r="H126" s="13"/>
       <c r="I126" s="10">
-        <v>160.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B127" s="6"/>
+      <c r="B127" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C127" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D127" s="6"/>
-      <c r="E127" s="8" t="s">
+      <c r="D127" s="18"/>
+      <c r="E127" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="F127" s="6"/>
+      <c r="F127" s="18"/>
       <c r="G127" s="21"/>
       <c r="H127" s="13"/>
       <c r="I127" s="10">
-        <v>70.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B128" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B128" s="6"/>
       <c r="C128" s="8" t="s">
         <v>204</v>
       </c>
       <c r="D128" s="18"/>
-      <c r="E128" s="11" t="s">
+      <c r="E128" s="8" t="s">
         <v>205</v>
       </c>
       <c r="F128" s="18"/>
@@ -3902,15 +3890,17 @@
       <c r="A129" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B129" s="6"/>
+      <c r="B129" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C129" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D129" s="18"/>
+      <c r="D129" s="6"/>
       <c r="E129" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F129" s="18"/>
+      <c r="F129" s="6"/>
       <c r="G129" s="21"/>
       <c r="H129" s="13"/>
       <c r="I129" s="10">
@@ -3921,21 +3911,19 @@
       <c r="A130" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B130" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B130" s="6"/>
       <c r="C130" s="8" t="s">
         <v>208</v>
       </c>
       <c r="D130" s="6"/>
       <c r="E130" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F130" s="6"/>
       <c r="G130" s="21"/>
       <c r="H130" s="13"/>
       <c r="I130" s="10">
-        <v>220.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="131">
@@ -3944,13 +3932,13 @@
       </c>
       <c r="B131" s="6"/>
       <c r="C131" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D131" s="6"/>
+        <v>209</v>
+      </c>
+      <c r="D131" s="18"/>
       <c r="E131" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F131" s="6"/>
+        <v>209</v>
+      </c>
+      <c r="F131" s="18"/>
       <c r="G131" s="21"/>
       <c r="H131" s="13"/>
       <c r="I131" s="10">
@@ -3961,9 +3949,11 @@
       <c r="A132" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B132" s="6"/>
+      <c r="B132" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C132" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D132" s="18"/>
       <c r="E132" s="8" t="s">
@@ -3980,17 +3970,15 @@
       <c r="A133" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B133" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B133" s="6"/>
       <c r="C133" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D133" s="18"/>
+      <c r="D133" s="6"/>
       <c r="E133" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="F133" s="18"/>
+      <c r="F133" s="6"/>
       <c r="G133" s="21"/>
       <c r="H133" s="13"/>
       <c r="I133" s="10">
@@ -4013,7 +4001,7 @@
       <c r="G134" s="21"/>
       <c r="H134" s="13"/>
       <c r="I134" s="10">
-        <v>185.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="135">
@@ -4032,7 +4020,7 @@
       <c r="G135" s="21"/>
       <c r="H135" s="13"/>
       <c r="I135" s="10">
-        <v>200.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="136">
@@ -4051,54 +4039,54 @@
       <c r="G136" s="21"/>
       <c r="H136" s="13"/>
       <c r="I136" s="10">
-        <v>185.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B137" s="6"/>
-      <c r="C137" s="8" t="s">
+      <c r="A137" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137" s="23"/>
+      <c r="C137" s="12" t="s">
         <v>220</v>
       </c>
       <c r="D137" s="6"/>
-      <c r="E137" s="8" t="s">
+      <c r="E137" s="12" t="s">
         <v>221</v>
       </c>
       <c r="F137" s="6"/>
       <c r="G137" s="21"/>
       <c r="H137" s="13"/>
       <c r="I137" s="10">
-        <v>80.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="23" t="s">
+      <c r="A138" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B138" s="23"/>
-      <c r="C138" s="12" t="s">
+      <c r="B138" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C138" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="D138" s="6"/>
-      <c r="E138" s="12" t="s">
+      <c r="D138" s="18"/>
+      <c r="E138" s="8" t="s">
         <v>223</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="21"/>
       <c r="H138" s="13"/>
       <c r="I138" s="10">
-        <v>120.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B139" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B139" s="6"/>
       <c r="C139" s="8" t="s">
         <v>224</v>
       </c>
@@ -4110,14 +4098,16 @@
       <c r="G139" s="21"/>
       <c r="H139" s="13"/>
       <c r="I139" s="10">
-        <v>130.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B140" s="6"/>
+      <c r="B140" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C140" s="8" t="s">
         <v>226</v>
       </c>
@@ -4125,22 +4115,24 @@
       <c r="E140" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="F140" s="6"/>
+      <c r="F140" s="18"/>
       <c r="G140" s="21"/>
       <c r="H140" s="13"/>
       <c r="I140" s="10">
-        <v>140.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B141" s="6"/>
+      <c r="B141" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C141" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D141" s="18"/>
+      <c r="D141" s="6"/>
       <c r="E141" s="8" t="s">
         <v>229</v>
       </c>
@@ -4148,148 +4140,148 @@
       <c r="G141" s="21"/>
       <c r="H141" s="13"/>
       <c r="I141" s="10">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B142" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B142" s="6"/>
       <c r="C142" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="D142" s="18"/>
-      <c r="E142" s="8" t="s">
+      <c r="D142" s="6"/>
+      <c r="E142" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="F142" s="18"/>
+      <c r="F142" s="6"/>
       <c r="G142" s="21"/>
       <c r="H142" s="13"/>
       <c r="I142" s="10">
-        <v>180.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B143" s="6" t="s">
+      <c r="A143" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B143" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C143" s="8" t="s">
+      <c r="C143" s="12" t="s">
         <v>232</v>
       </c>
       <c r="D143" s="6"/>
-      <c r="E143" s="8" t="s">
+      <c r="E143" s="12" t="s">
         <v>233</v>
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="21"/>
       <c r="H143" s="13"/>
       <c r="I143" s="10">
-        <v>180.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B144" s="6"/>
       <c r="C144" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="D144" s="6"/>
-      <c r="E144" s="11" t="s">
+      <c r="D144" s="18"/>
+      <c r="E144" s="8" t="s">
         <v>235</v>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="21"/>
       <c r="H144" s="13"/>
       <c r="I144" s="10">
-        <v>110.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="23" t="s">
+      <c r="A145" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B145" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C145" s="12" t="s">
+      <c r="B145" s="6"/>
+      <c r="C145" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D145" s="6"/>
-      <c r="E145" s="12" t="s">
+      <c r="D145" s="18"/>
+      <c r="E145" s="8" t="s">
         <v>237</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="21"/>
       <c r="H145" s="13"/>
       <c r="I145" s="10">
-        <v>130.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B146" s="6"/>
-      <c r="C146" s="8" t="s">
+      <c r="A146" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B146" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C146" s="12" t="s">
         <v>238</v>
       </c>
       <c r="D146" s="18"/>
-      <c r="E146" s="8" t="s">
+      <c r="E146" s="9" t="s">
         <v>239</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="21"/>
       <c r="H146" s="13"/>
       <c r="I146" s="10">
-        <v>140.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B147" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C147" s="8" t="s">
         <v>240</v>
       </c>
       <c r="D147" s="18"/>
-      <c r="E147" s="8" t="s">
+      <c r="E147" s="11" t="s">
         <v>241</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="21"/>
       <c r="H147" s="13"/>
       <c r="I147" s="10">
-        <v>70.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="23" t="s">
+      <c r="A148" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B148" s="23" t="s">
+      <c r="B148" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C148" s="12" t="s">
+      <c r="C148" s="8" t="s">
         <v>242</v>
       </c>
       <c r="D148" s="18"/>
-      <c r="E148" s="9" t="s">
+      <c r="E148" s="11" t="s">
         <v>243</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="21"/>
       <c r="H148" s="13"/>
       <c r="I148" s="10">
-        <v>260.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="149">
@@ -4303,7 +4295,7 @@
         <v>244</v>
       </c>
       <c r="D149" s="18"/>
-      <c r="E149" s="11" t="s">
+      <c r="E149" s="8" t="s">
         <v>245</v>
       </c>
       <c r="F149" s="6"/>
@@ -4314,77 +4306,73 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B150" s="6" t="s">
+      <c r="A150" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B150" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C150" s="8" t="s">
+      <c r="C150" s="12" t="s">
         <v>246</v>
       </c>
       <c r="D150" s="18"/>
-      <c r="E150" s="11" t="s">
+      <c r="E150" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="F150" s="6"/>
+      <c r="F150" s="18"/>
       <c r="G150" s="21"/>
       <c r="H150" s="13"/>
       <c r="I150" s="10">
-        <v>210.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B151" s="6" t="s">
+      <c r="A151" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B151" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="D151" s="18"/>
+      <c r="D151" s="6"/>
       <c r="E151" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F151" s="6"/>
       <c r="G151" s="21"/>
       <c r="H151" s="13"/>
       <c r="I151" s="10">
-        <v>210.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B152" s="12" t="s">
-        <v>27</v>
-      </c>
+      <c r="A152" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B152" s="23"/>
       <c r="C152" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D152" s="6"/>
+      <c r="E152" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="D152" s="18"/>
-      <c r="E152" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="F152" s="18"/>
+      <c r="F152" s="6"/>
       <c r="G152" s="21"/>
       <c r="H152" s="13"/>
-      <c r="I152" s="10">
-        <v>220.0</v>
+      <c r="I152" s="13">
+        <v>20.0</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="A153" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B153" s="23"/>
       <c r="C153" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D153" s="6"/>
       <c r="E153" s="8" t="s">
@@ -4392,27 +4380,27 @@
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="21"/>
-      <c r="H153" s="13"/>
+      <c r="H153" s="10"/>
       <c r="I153" s="10">
-        <v>250.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="23" t="s">
+      <c r="A154" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B154" s="23"/>
-      <c r="C154" s="12" t="s">
+      <c r="B154" s="6"/>
+      <c r="C154" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="D154" s="6"/>
-      <c r="E154" s="12" t="s">
+      <c r="D154" s="18"/>
+      <c r="E154" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="F154" s="6"/>
+      <c r="F154" s="18"/>
       <c r="G154" s="21"/>
-      <c r="H154" s="13"/>
-      <c r="I154" s="13">
+      <c r="H154" s="10"/>
+      <c r="I154" s="10">
         <v>20.0</v>
       </c>
     </row>
@@ -4420,38 +4408,38 @@
       <c r="A155" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B155" s="23"/>
+      <c r="B155" s="6"/>
       <c r="C155" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="D155" s="6"/>
+      <c r="D155" s="18"/>
       <c r="E155" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="F155" s="6"/>
+      <c r="F155" s="18"/>
       <c r="G155" s="21"/>
       <c r="H155" s="10"/>
       <c r="I155" s="10">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="24" t="s">
+      <c r="A156" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B156" s="6"/>
-      <c r="C156" s="11" t="s">
+      <c r="C156" s="8" t="s">
         <v>257</v>
       </c>
       <c r="D156" s="18"/>
-      <c r="E156" s="25" t="s">
+      <c r="E156" s="8" t="s">
         <v>258</v>
       </c>
       <c r="F156" s="18"/>
       <c r="G156" s="21"/>
-      <c r="H156" s="10"/>
-      <c r="I156" s="10">
-        <v>20.0</v>
+      <c r="H156" s="13"/>
+      <c r="I156" s="13">
+        <v>40.0</v>
       </c>
     </row>
     <row r="157">
@@ -4468,9 +4456,9 @@
       </c>
       <c r="F157" s="18"/>
       <c r="G157" s="21"/>
-      <c r="H157" s="10"/>
-      <c r="I157" s="10">
-        <v>20.0</v>
+      <c r="H157" s="13"/>
+      <c r="I157" s="13">
+        <v>30.0</v>
       </c>
     </row>
     <row r="158">
@@ -4489,7 +4477,7 @@
       <c r="G158" s="21"/>
       <c r="H158" s="13"/>
       <c r="I158" s="13">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="159">
@@ -4508,7 +4496,7 @@
       <c r="G159" s="21"/>
       <c r="H159" s="13"/>
       <c r="I159" s="13">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="160">
@@ -4516,18 +4504,18 @@
         <v>19</v>
       </c>
       <c r="B160" s="6"/>
-      <c r="C160" s="8" t="s">
+      <c r="C160" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="D160" s="18"/>
-      <c r="E160" s="8" t="s">
+      <c r="D160" s="6"/>
+      <c r="E160" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="F160" s="18"/>
+      <c r="F160" s="6"/>
       <c r="G160" s="21"/>
       <c r="H160" s="13"/>
-      <c r="I160" s="13">
-        <v>20.0</v>
+      <c r="I160" s="10">
+        <v>40.0</v>
       </c>
     </row>
     <row r="161">
@@ -4535,22 +4523,22 @@
         <v>19</v>
       </c>
       <c r="B161" s="6"/>
-      <c r="C161" s="8" t="s">
+      <c r="C161" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="D161" s="18"/>
-      <c r="E161" s="8" t="s">
+      <c r="D161" s="6"/>
+      <c r="E161" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="F161" s="18"/>
+      <c r="F161" s="6"/>
       <c r="G161" s="21"/>
       <c r="H161" s="13"/>
-      <c r="I161" s="13">
-        <v>20.0</v>
+      <c r="I161" s="10">
+        <v>60.0</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="6" t="s">
+      <c r="A162" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B162" s="6"/>
@@ -4565,7 +4553,7 @@
       <c r="G162" s="21"/>
       <c r="H162" s="13"/>
       <c r="I162" s="10">
-        <v>40.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="163">
@@ -4573,22 +4561,22 @@
         <v>19</v>
       </c>
       <c r="B163" s="6"/>
-      <c r="C163" s="11" t="s">
+      <c r="C163" s="8" t="s">
         <v>271</v>
       </c>
       <c r="D163" s="6"/>
-      <c r="E163" s="11" t="s">
+      <c r="E163" s="8" t="s">
         <v>272</v>
       </c>
       <c r="F163" s="6"/>
       <c r="G163" s="21"/>
       <c r="H163" s="13"/>
-      <c r="I163" s="10">
-        <v>60.0</v>
+      <c r="I163" s="13">
+        <v>15.0</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="24" t="s">
+      <c r="A164" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B164" s="6"/>
@@ -4603,14 +4591,14 @@
       <c r="G164" s="21"/>
       <c r="H164" s="13"/>
       <c r="I164" s="10">
-        <v>150.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B165" s="6"/>
+      <c r="B165" s="18"/>
       <c r="C165" s="8" t="s">
         <v>275</v>
       </c>
@@ -4619,49 +4607,23 @@
         <v>276</v>
       </c>
       <c r="F165" s="6"/>
-      <c r="G165" s="21"/>
+      <c r="G165" s="6"/>
       <c r="H165" s="13"/>
       <c r="I165" s="13">
-        <v>15.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B166" s="6"/>
-      <c r="C166" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="D166" s="6"/>
-      <c r="E166" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="F166" s="6"/>
-      <c r="G166" s="21"/>
-      <c r="H166" s="13"/>
-      <c r="I166" s="10">
-        <v>15.0</v>
-      </c>
+      <c r="A166" s="26"/>
+      <c r="B166" s="26"/>
+      <c r="C166" s="26"/>
+      <c r="E166" s="26"/>
     </row>
     <row r="167">
-      <c r="A167" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B167" s="18"/>
-      <c r="C167" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D167" s="6"/>
-      <c r="E167" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="F167" s="6"/>
-      <c r="G167" s="6"/>
-      <c r="H167" s="13"/>
-      <c r="I167" s="13">
-        <v>60.0</v>
-      </c>
+      <c r="A167" s="26"/>
+      <c r="B167" s="26"/>
+      <c r="C167" s="26"/>
+      <c r="E167" s="26"/>
     </row>
     <row r="168">
       <c r="A168" s="26"/>
@@ -4690,22 +4652,10 @@
     <row r="172">
       <c r="A172" s="26"/>
       <c r="B172" s="26"/>
-      <c r="C172" s="26"/>
-      <c r="E172" s="26"/>
     </row>
     <row r="173">
       <c r="A173" s="26"/>
       <c r="B173" s="26"/>
-      <c r="C173" s="26"/>
-      <c r="E173" s="26"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="26"/>
-      <c r="B174" s="26"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="26"/>
-      <c r="B175" s="26"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="gpGawLE8387Rt25jOdgd/3wgB9U/Q4OsCJ59+mqXG4Y="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="3Z2GPnSCKyFFbUeIM/Pxjbd/tZtoz7jzV4a2VQ3p6+Y="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="275">
   <si>
     <t>category</t>
   </si>
@@ -603,7 +603,7 @@
     <t>Schwarzwälder Kirschtorte (Germany)</t>
   </si>
   <si>
-    <t>Karaorman Pastası (Almanya)</t>
+    <t>Karaorman Pastası (Schwazwalderckirschtorte)  (Almanya)</t>
   </si>
   <si>
     <t>Käsesahne Torte (Germany)</t>
@@ -615,7 +615,7 @@
     <t>Bienenstich Cake (Germany)</t>
   </si>
   <si>
-    <t>Arı Sokması Pastası (Almanya)</t>
+    <t>Bienenstich (Arı Sokması) Pastası (Almanya)</t>
   </si>
   <si>
     <t>Strawberry and Chocolate  Cake</t>
@@ -730,12 +730,6 @@
   </si>
   <si>
     <t>Kruvasan  (çikolatalı)</t>
-  </si>
-  <si>
-    <t>Croissant BIG (chocolate)</t>
-  </si>
-  <si>
-    <t>Kruvasan Jumbo (Çikolatalı)</t>
   </si>
   <si>
     <t>Croissant three cheese</t>
@@ -3644,7 +3638,7 @@
         <v>180</v>
       </c>
       <c r="D116" s="18"/>
-      <c r="E116" s="8" t="s">
+      <c r="E116" s="11" t="s">
         <v>181</v>
       </c>
       <c r="F116" s="18"/>
@@ -3682,7 +3676,7 @@
         <v>184</v>
       </c>
       <c r="D118" s="6"/>
-      <c r="E118" s="8" t="s">
+      <c r="E118" s="11" t="s">
         <v>185</v>
       </c>
       <c r="F118" s="6"/>
@@ -4086,7 +4080,9 @@
       <c r="A139" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B139" s="6"/>
+      <c r="B139" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C139" s="8" t="s">
         <v>224</v>
       </c>
@@ -4094,11 +4090,11 @@
       <c r="E139" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="F139" s="6"/>
+      <c r="F139" s="18"/>
       <c r="G139" s="21"/>
       <c r="H139" s="13"/>
       <c r="I139" s="10">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="140">
@@ -4111,11 +4107,11 @@
       <c r="C140" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="D140" s="18"/>
+      <c r="D140" s="6"/>
       <c r="E140" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="F140" s="18"/>
+      <c r="F140" s="6"/>
       <c r="G140" s="21"/>
       <c r="H140" s="13"/>
       <c r="I140" s="10">
@@ -4126,61 +4122,59 @@
       <c r="A141" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B141" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B141" s="6"/>
       <c r="C141" s="8" t="s">
         <v>228</v>
       </c>
       <c r="D141" s="6"/>
-      <c r="E141" s="8" t="s">
+      <c r="E141" s="11" t="s">
         <v>229</v>
       </c>
       <c r="F141" s="6"/>
       <c r="G141" s="21"/>
       <c r="H141" s="13"/>
       <c r="I141" s="10">
-        <v>180.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B142" s="6"/>
-      <c r="C142" s="8" t="s">
+      <c r="A142" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B142" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C142" s="12" t="s">
         <v>230</v>
       </c>
       <c r="D142" s="6"/>
-      <c r="E142" s="11" t="s">
+      <c r="E142" s="12" t="s">
         <v>231</v>
       </c>
       <c r="F142" s="6"/>
       <c r="G142" s="21"/>
       <c r="H142" s="13"/>
       <c r="I142" s="10">
-        <v>110.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="23" t="s">
+      <c r="A143" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B143" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C143" s="12" t="s">
+      <c r="B143" s="6"/>
+      <c r="C143" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D143" s="6"/>
-      <c r="E143" s="12" t="s">
+      <c r="D143" s="18"/>
+      <c r="E143" s="8" t="s">
         <v>233</v>
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="21"/>
       <c r="H143" s="13"/>
       <c r="I143" s="10">
-        <v>130.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="144">
@@ -4199,47 +4193,49 @@
       <c r="G144" s="21"/>
       <c r="H144" s="13"/>
       <c r="I144" s="10">
-        <v>140.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B145" s="6"/>
-      <c r="C145" s="8" t="s">
+      <c r="A145" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B145" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C145" s="12" t="s">
         <v>236</v>
       </c>
       <c r="D145" s="18"/>
-      <c r="E145" s="8" t="s">
+      <c r="E145" s="9" t="s">
         <v>237</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="21"/>
       <c r="H145" s="13"/>
       <c r="I145" s="10">
-        <v>70.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="23" t="s">
+      <c r="A146" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B146" s="23" t="s">
+      <c r="B146" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C146" s="12" t="s">
+      <c r="C146" s="8" t="s">
         <v>238</v>
       </c>
       <c r="D146" s="18"/>
-      <c r="E146" s="9" t="s">
+      <c r="E146" s="11" t="s">
         <v>239</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="21"/>
       <c r="H146" s="13"/>
       <c r="I146" s="10">
-        <v>260.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="147">
@@ -4274,7 +4270,7 @@
         <v>242</v>
       </c>
       <c r="D148" s="18"/>
-      <c r="E148" s="11" t="s">
+      <c r="E148" s="8" t="s">
         <v>243</v>
       </c>
       <c r="F148" s="6"/>
@@ -4285,116 +4281,114 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B149" s="6" t="s">
+      <c r="A149" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B149" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C149" s="8" t="s">
+      <c r="C149" s="12" t="s">
         <v>244</v>
       </c>
       <c r="D149" s="18"/>
-      <c r="E149" s="8" t="s">
+      <c r="E149" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="F149" s="6"/>
+      <c r="F149" s="18"/>
       <c r="G149" s="21"/>
       <c r="H149" s="13"/>
       <c r="I149" s="10">
-        <v>210.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="12" t="s">
+      <c r="A150" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B150" s="12" t="s">
+      <c r="B150" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C150" s="12" t="s">
+      <c r="C150" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D150" s="18"/>
-      <c r="E150" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="F150" s="18"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F150" s="6"/>
       <c r="G150" s="21"/>
       <c r="H150" s="13"/>
       <c r="I150" s="10">
-        <v>220.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>248</v>
+      <c r="A151" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B151" s="23"/>
+      <c r="C151" s="12" t="s">
+        <v>247</v>
       </c>
       <c r="D151" s="6"/>
-      <c r="E151" s="8" t="s">
+      <c r="E151" s="12" t="s">
         <v>248</v>
       </c>
       <c r="F151" s="6"/>
       <c r="G151" s="21"/>
       <c r="H151" s="13"/>
-      <c r="I151" s="10">
-        <v>250.0</v>
+      <c r="I151" s="13">
+        <v>20.0</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="23" t="s">
+      <c r="A152" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B152" s="23"/>
-      <c r="C152" s="12" t="s">
+      <c r="C152" s="8" t="s">
         <v>249</v>
       </c>
       <c r="D152" s="6"/>
-      <c r="E152" s="12" t="s">
+      <c r="E152" s="8" t="s">
         <v>250</v>
       </c>
       <c r="F152" s="6"/>
       <c r="G152" s="21"/>
-      <c r="H152" s="13"/>
-      <c r="I152" s="13">
-        <v>20.0</v>
+      <c r="H152" s="10"/>
+      <c r="I152" s="10">
+        <v>40.0</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="6" t="s">
+      <c r="A153" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B153" s="23"/>
-      <c r="C153" s="8" t="s">
+      <c r="B153" s="6"/>
+      <c r="C153" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="D153" s="6"/>
-      <c r="E153" s="8" t="s">
+      <c r="D153" s="18"/>
+      <c r="E153" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="F153" s="6"/>
+      <c r="F153" s="18"/>
       <c r="G153" s="21"/>
       <c r="H153" s="10"/>
       <c r="I153" s="10">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="24" t="s">
+      <c r="A154" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B154" s="6"/>
-      <c r="C154" s="11" t="s">
+      <c r="C154" s="8" t="s">
         <v>253</v>
       </c>
       <c r="D154" s="18"/>
-      <c r="E154" s="25" t="s">
+      <c r="E154" s="8" t="s">
         <v>254</v>
       </c>
       <c r="F154" s="18"/>
@@ -4418,9 +4412,9 @@
       </c>
       <c r="F155" s="18"/>
       <c r="G155" s="21"/>
-      <c r="H155" s="10"/>
-      <c r="I155" s="10">
-        <v>20.0</v>
+      <c r="H155" s="13"/>
+      <c r="I155" s="13">
+        <v>40.0</v>
       </c>
     </row>
     <row r="156">
@@ -4439,7 +4433,7 @@
       <c r="G156" s="21"/>
       <c r="H156" s="13"/>
       <c r="I156" s="13">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="157">
@@ -4458,7 +4452,7 @@
       <c r="G157" s="21"/>
       <c r="H157" s="13"/>
       <c r="I157" s="13">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="158">
@@ -4485,18 +4479,18 @@
         <v>19</v>
       </c>
       <c r="B159" s="6"/>
-      <c r="C159" s="8" t="s">
+      <c r="C159" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="D159" s="18"/>
-      <c r="E159" s="8" t="s">
+      <c r="D159" s="6"/>
+      <c r="E159" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="F159" s="18"/>
+      <c r="F159" s="6"/>
       <c r="G159" s="21"/>
       <c r="H159" s="13"/>
-      <c r="I159" s="13">
-        <v>20.0</v>
+      <c r="I159" s="10">
+        <v>40.0</v>
       </c>
     </row>
     <row r="160">
@@ -4515,11 +4509,11 @@
       <c r="G160" s="21"/>
       <c r="H160" s="13"/>
       <c r="I160" s="10">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="6" t="s">
+      <c r="A161" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B161" s="6"/>
@@ -4534,26 +4528,26 @@
       <c r="G161" s="21"/>
       <c r="H161" s="13"/>
       <c r="I161" s="10">
-        <v>60.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="24" t="s">
+      <c r="A162" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B162" s="6"/>
-      <c r="C162" s="11" t="s">
+      <c r="C162" s="8" t="s">
         <v>269</v>
       </c>
       <c r="D162" s="6"/>
-      <c r="E162" s="11" t="s">
+      <c r="E162" s="8" t="s">
         <v>270</v>
       </c>
       <c r="F162" s="6"/>
       <c r="G162" s="21"/>
       <c r="H162" s="13"/>
-      <c r="I162" s="10">
-        <v>150.0</v>
+      <c r="I162" s="13">
+        <v>15.0</v>
       </c>
     </row>
     <row r="163">
@@ -4561,17 +4555,17 @@
         <v>19</v>
       </c>
       <c r="B163" s="6"/>
-      <c r="C163" s="8" t="s">
+      <c r="C163" s="11" t="s">
         <v>271</v>
       </c>
       <c r="D163" s="6"/>
-      <c r="E163" s="8" t="s">
+      <c r="E163" s="11" t="s">
         <v>272</v>
       </c>
       <c r="F163" s="6"/>
       <c r="G163" s="21"/>
       <c r="H163" s="13"/>
-      <c r="I163" s="13">
+      <c r="I163" s="10">
         <v>15.0</v>
       </c>
     </row>
@@ -4579,39 +4573,26 @@
       <c r="A164" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B164" s="6"/>
-      <c r="C164" s="11" t="s">
+      <c r="B164" s="18"/>
+      <c r="C164" s="8" t="s">
         <v>273</v>
       </c>
       <c r="D164" s="6"/>
-      <c r="E164" s="11" t="s">
+      <c r="E164" s="8" t="s">
         <v>274</v>
       </c>
       <c r="F164" s="6"/>
-      <c r="G164" s="21"/>
+      <c r="G164" s="6"/>
       <c r="H164" s="13"/>
-      <c r="I164" s="10">
-        <v>15.0</v>
+      <c r="I164" s="13">
+        <v>60.0</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B165" s="18"/>
-      <c r="C165" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D165" s="6"/>
-      <c r="E165" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="F165" s="6"/>
-      <c r="G165" s="6"/>
-      <c r="H165" s="13"/>
-      <c r="I165" s="13">
-        <v>60.0</v>
-      </c>
+      <c r="A165" s="26"/>
+      <c r="B165" s="26"/>
+      <c r="C165" s="26"/>
+      <c r="E165" s="26"/>
     </row>
     <row r="166">
       <c r="A166" s="26"/>
@@ -4646,16 +4627,10 @@
     <row r="171">
       <c r="A171" s="26"/>
       <c r="B171" s="26"/>
-      <c r="C171" s="26"/>
-      <c r="E171" s="26"/>
     </row>
     <row r="172">
       <c r="A172" s="26"/>
       <c r="B172" s="26"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="26"/>
-      <c r="B173" s="26"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="276">
   <si>
     <t>category</t>
   </si>
@@ -582,16 +582,19 @@
     <t>Browni</t>
   </si>
   <si>
+    <t xml:space="preserve">Browni ( Italya ) </t>
+  </si>
+  <si>
     <t>Magnolia Cake</t>
   </si>
   <si>
-    <t>Magnolia Pasta</t>
+    <t>Magnolia Pasta (ABD)</t>
   </si>
   <si>
     <t>San Sebastian (Spain)</t>
   </si>
   <si>
-    <t>San Sebastian (İspanya)</t>
+    <t>San Sebastian ( İspanya )</t>
   </si>
   <si>
     <t>Medovik (Russia)</t>
@@ -603,19 +606,19 @@
     <t>Schwarzwälder Kirschtorte (Germany)</t>
   </si>
   <si>
-    <t>Karaorman Pastası (Schwazwalderckirschtorte)  (Almanya)</t>
+    <t>Karaorman Pastası (Schwazwalderckirschtorte -Almanya )</t>
   </si>
   <si>
     <t>Käsesahne Torte (Germany)</t>
   </si>
   <si>
-    <t>Peynir Kreması Pastası (Almanya)</t>
+    <t>Peynir Kremalı Pasta ( Kasesahne Kuche - Almanya)</t>
   </si>
   <si>
     <t>Bienenstich Cake (Germany)</t>
   </si>
   <si>
-    <t>Bienenstich (Arı Sokması) Pastası (Almanya)</t>
+    <t>Arı Sokması Pastası  ( Bienenstich -Almanya)</t>
   </si>
   <si>
     <t>Strawberry and Chocolate  Cake</t>
@@ -639,13 +642,13 @@
     <t>Trifle (England)</t>
   </si>
   <si>
-    <t>Trifle (İngiltere)</t>
+    <t>Trifle ( İngiltere )</t>
   </si>
   <si>
     <t>Pastel de Nata (Portugal)</t>
   </si>
   <si>
-    <t>Pastel de Nata (Portekiz)</t>
+    <t>Pastel de Nata ( Portekiz )</t>
   </si>
   <si>
     <t>Fruit Cakes</t>
@@ -1449,7 +1452,7 @@
     <col customWidth="1" min="2" max="2" width="12.44"/>
     <col customWidth="1" min="3" max="3" width="52.56"/>
     <col customWidth="1" min="4" max="4" width="23.44"/>
-    <col customWidth="1" min="5" max="5" width="44.67"/>
+    <col customWidth="1" min="5" max="5" width="51.11"/>
     <col customWidth="1" min="6" max="6" width="13.56"/>
     <col customWidth="1" min="7" max="7" width="7.0"/>
     <col customWidth="1" min="8" max="26" width="11.11"/>
@@ -3558,8 +3561,8 @@
         <v>173</v>
       </c>
       <c r="D112" s="18"/>
-      <c r="E112" s="8" t="s">
-        <v>173</v>
+      <c r="E112" s="11" t="s">
+        <v>174</v>
       </c>
       <c r="F112" s="6"/>
       <c r="G112" s="21"/>
@@ -3574,11 +3577,11 @@
       </c>
       <c r="B113" s="6"/>
       <c r="C113" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D113" s="18"/>
-      <c r="E113" s="8" t="s">
-        <v>175</v>
+      <c r="E113" s="11" t="s">
+        <v>176</v>
       </c>
       <c r="F113" s="18"/>
       <c r="G113" s="21"/>
@@ -3595,11 +3598,11 @@
         <v>27</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D114" s="18"/>
-      <c r="E114" s="8" t="s">
-        <v>177</v>
+      <c r="E114" s="11" t="s">
+        <v>178</v>
       </c>
       <c r="F114" s="18"/>
       <c r="G114" s="21"/>
@@ -3616,11 +3619,11 @@
         <v>27</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D115" s="18"/>
       <c r="E115" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F115" s="18"/>
       <c r="G115" s="21"/>
@@ -3635,11 +3638,11 @@
       </c>
       <c r="B116" s="6"/>
       <c r="C116" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D116" s="18"/>
       <c r="E116" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F116" s="18"/>
       <c r="G116" s="21"/>
@@ -3654,11 +3657,11 @@
       </c>
       <c r="B117" s="6"/>
       <c r="C117" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D117" s="18"/>
-      <c r="E117" s="8" t="s">
-        <v>183</v>
+      <c r="E117" s="11" t="s">
+        <v>184</v>
       </c>
       <c r="F117" s="18"/>
       <c r="G117" s="21"/>
@@ -3673,11 +3676,11 @@
       </c>
       <c r="B118" s="6"/>
       <c r="C118" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D118" s="6"/>
       <c r="E118" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F118" s="6"/>
       <c r="G118" s="21"/>
@@ -3692,11 +3695,11 @@
       </c>
       <c r="B119" s="6"/>
       <c r="C119" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F119" s="6"/>
       <c r="G119" s="21"/>
@@ -3711,11 +3714,11 @@
       </c>
       <c r="B120" s="6"/>
       <c r="C120" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F120" s="6"/>
       <c r="G120" s="21"/>
@@ -3730,11 +3733,11 @@
       </c>
       <c r="B121" s="6"/>
       <c r="C121" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F121" s="6"/>
       <c r="G121" s="21"/>
@@ -3749,11 +3752,11 @@
       </c>
       <c r="B122" s="6"/>
       <c r="C122" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D122" s="6"/>
-      <c r="E122" s="8" t="s">
-        <v>193</v>
+      <c r="E122" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="21"/>
@@ -3768,11 +3771,11 @@
       </c>
       <c r="B123" s="6"/>
       <c r="C123" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D123" s="6"/>
-      <c r="E123" s="8" t="s">
-        <v>195</v>
+      <c r="E123" s="11" t="s">
+        <v>196</v>
       </c>
       <c r="F123" s="6"/>
       <c r="G123" s="21"/>
@@ -3789,11 +3792,11 @@
         <v>27</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D124" s="18"/>
       <c r="E124" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F124" s="18"/>
       <c r="G124" s="21"/>
@@ -3808,11 +3811,11 @@
       </c>
       <c r="B125" s="6"/>
       <c r="C125" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D125" s="6"/>
       <c r="E125" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F125" s="6"/>
       <c r="G125" s="21"/>
@@ -3827,11 +3830,11 @@
       </c>
       <c r="B126" s="6"/>
       <c r="C126" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D126" s="6"/>
       <c r="E126" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F126" s="6"/>
       <c r="G126" s="21"/>
@@ -3848,11 +3851,11 @@
         <v>27</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D127" s="18"/>
       <c r="E127" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F127" s="18"/>
       <c r="G127" s="21"/>
@@ -3867,11 +3870,11 @@
       </c>
       <c r="B128" s="6"/>
       <c r="C128" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D128" s="18"/>
       <c r="E128" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F128" s="18"/>
       <c r="G128" s="21"/>
@@ -3888,11 +3891,11 @@
         <v>27</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D129" s="6"/>
       <c r="E129" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F129" s="6"/>
       <c r="G129" s="21"/>
@@ -3907,11 +3910,11 @@
       </c>
       <c r="B130" s="6"/>
       <c r="C130" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D130" s="6"/>
       <c r="E130" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F130" s="6"/>
       <c r="G130" s="21"/>
@@ -3926,11 +3929,11 @@
       </c>
       <c r="B131" s="6"/>
       <c r="C131" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D131" s="18"/>
       <c r="E131" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F131" s="18"/>
       <c r="G131" s="21"/>
@@ -3947,11 +3950,11 @@
         <v>27</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D132" s="18"/>
       <c r="E132" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F132" s="18"/>
       <c r="G132" s="21"/>
@@ -3966,11 +3969,11 @@
       </c>
       <c r="B133" s="6"/>
       <c r="C133" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D133" s="6"/>
       <c r="E133" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F133" s="6"/>
       <c r="G133" s="21"/>
@@ -3985,11 +3988,11 @@
       </c>
       <c r="B134" s="6"/>
       <c r="C134" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D134" s="6"/>
       <c r="E134" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="21"/>
@@ -4004,11 +4007,11 @@
       </c>
       <c r="B135" s="6"/>
       <c r="C135" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D135" s="6"/>
       <c r="E135" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="21"/>
@@ -4023,11 +4026,11 @@
       </c>
       <c r="B136" s="6"/>
       <c r="C136" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D136" s="6"/>
       <c r="E136" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F136" s="6"/>
       <c r="G136" s="21"/>
@@ -4042,11 +4045,11 @@
       </c>
       <c r="B137" s="23"/>
       <c r="C137" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D137" s="6"/>
       <c r="E137" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F137" s="6"/>
       <c r="G137" s="21"/>
@@ -4063,11 +4066,11 @@
         <v>27</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D138" s="18"/>
       <c r="E138" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="21"/>
@@ -4084,11 +4087,11 @@
         <v>27</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D139" s="18"/>
       <c r="E139" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F139" s="18"/>
       <c r="G139" s="21"/>
@@ -4105,11 +4108,11 @@
         <v>27</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D140" s="6"/>
       <c r="E140" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F140" s="6"/>
       <c r="G140" s="21"/>
@@ -4124,11 +4127,11 @@
       </c>
       <c r="B141" s="6"/>
       <c r="C141" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D141" s="6"/>
       <c r="E141" s="11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F141" s="6"/>
       <c r="G141" s="21"/>
@@ -4145,11 +4148,11 @@
         <v>27</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D142" s="6"/>
       <c r="E142" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F142" s="6"/>
       <c r="G142" s="21"/>
@@ -4164,11 +4167,11 @@
       </c>
       <c r="B143" s="6"/>
       <c r="C143" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D143" s="18"/>
       <c r="E143" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="21"/>
@@ -4183,11 +4186,11 @@
       </c>
       <c r="B144" s="6"/>
       <c r="C144" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D144" s="18"/>
       <c r="E144" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="21"/>
@@ -4204,11 +4207,11 @@
         <v>27</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D145" s="18"/>
       <c r="E145" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="21"/>
@@ -4225,11 +4228,11 @@
         <v>27</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D146" s="18"/>
       <c r="E146" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="21"/>
@@ -4246,11 +4249,11 @@
         <v>27</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D147" s="18"/>
       <c r="E147" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="21"/>
@@ -4267,11 +4270,11 @@
         <v>27</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D148" s="18"/>
       <c r="E148" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="21"/>
@@ -4288,11 +4291,11 @@
         <v>27</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D149" s="18"/>
       <c r="E149" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F149" s="18"/>
       <c r="G149" s="21"/>
@@ -4309,11 +4312,11 @@
         <v>27</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D150" s="6"/>
       <c r="E150" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F150" s="6"/>
       <c r="G150" s="21"/>
@@ -4328,11 +4331,11 @@
       </c>
       <c r="B151" s="23"/>
       <c r="C151" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D151" s="6"/>
       <c r="E151" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F151" s="6"/>
       <c r="G151" s="21"/>
@@ -4347,11 +4350,11 @@
       </c>
       <c r="B152" s="23"/>
       <c r="C152" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D152" s="6"/>
       <c r="E152" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F152" s="6"/>
       <c r="G152" s="21"/>
@@ -4366,11 +4369,11 @@
       </c>
       <c r="B153" s="6"/>
       <c r="C153" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D153" s="18"/>
       <c r="E153" s="25" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F153" s="18"/>
       <c r="G153" s="21"/>
@@ -4385,11 +4388,11 @@
       </c>
       <c r="B154" s="6"/>
       <c r="C154" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D154" s="18"/>
       <c r="E154" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F154" s="18"/>
       <c r="G154" s="21"/>
@@ -4404,11 +4407,11 @@
       </c>
       <c r="B155" s="6"/>
       <c r="C155" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D155" s="18"/>
       <c r="E155" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F155" s="18"/>
       <c r="G155" s="21"/>
@@ -4423,11 +4426,11 @@
       </c>
       <c r="B156" s="6"/>
       <c r="C156" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D156" s="18"/>
       <c r="E156" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F156" s="18"/>
       <c r="G156" s="21"/>
@@ -4442,11 +4445,11 @@
       </c>
       <c r="B157" s="6"/>
       <c r="C157" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D157" s="18"/>
       <c r="E157" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F157" s="18"/>
       <c r="G157" s="21"/>
@@ -4461,11 +4464,11 @@
       </c>
       <c r="B158" s="6"/>
       <c r="C158" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D158" s="18"/>
       <c r="E158" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F158" s="18"/>
       <c r="G158" s="21"/>
@@ -4480,11 +4483,11 @@
       </c>
       <c r="B159" s="6"/>
       <c r="C159" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D159" s="6"/>
       <c r="E159" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F159" s="6"/>
       <c r="G159" s="21"/>
@@ -4499,11 +4502,11 @@
       </c>
       <c r="B160" s="6"/>
       <c r="C160" s="11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D160" s="6"/>
       <c r="E160" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F160" s="6"/>
       <c r="G160" s="21"/>
@@ -4518,11 +4521,11 @@
       </c>
       <c r="B161" s="6"/>
       <c r="C161" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D161" s="6"/>
       <c r="E161" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F161" s="6"/>
       <c r="G161" s="21"/>
@@ -4537,11 +4540,11 @@
       </c>
       <c r="B162" s="6"/>
       <c r="C162" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D162" s="6"/>
       <c r="E162" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F162" s="6"/>
       <c r="G162" s="21"/>
@@ -4556,11 +4559,11 @@
       </c>
       <c r="B163" s="6"/>
       <c r="C163" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D163" s="6"/>
       <c r="E163" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F163" s="6"/>
       <c r="G163" s="21"/>
@@ -4575,11 +4578,11 @@
       </c>
       <c r="B164" s="18"/>
       <c r="C164" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D164" s="6"/>
       <c r="E164" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -4416,8 +4416,8 @@
       <c r="F155" s="18"/>
       <c r="G155" s="21"/>
       <c r="H155" s="13"/>
-      <c r="I155" s="13">
-        <v>40.0</v>
+      <c r="I155" s="10">
+        <v>50.0</v>
       </c>
     </row>
     <row r="156">

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -3077,7 +3077,7 @@
       <c r="G87" s="13"/>
       <c r="H87" s="12"/>
       <c r="I87" s="10">
-        <v>120.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="88">

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="3Z2GPnSCKyFFbUeIM/Pxjbd/tZtoz7jzV4a2VQ3p6+Y="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="LpOSVwFWQUK8UOw0rC1TimEDtlp3Tl4AUdstOVTmptw="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="280">
   <si>
     <t>category</t>
   </si>
@@ -512,6 +512,18 @@
   </si>
   <si>
     <t>Glutensiz ve Vegan EKLER</t>
+  </si>
+  <si>
+    <t>Donut Pink</t>
+  </si>
+  <si>
+    <t>Donut Pembe</t>
+  </si>
+  <si>
+    <t>Donut  Chocolate</t>
+  </si>
+  <si>
+    <t>Donut Çikolatalı</t>
   </si>
   <si>
     <r>
@@ -3176,7 +3188,7 @@
       <c r="G92" s="13"/>
       <c r="H92" s="12"/>
       <c r="I92" s="9">
-        <v>130.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="93">
@@ -3475,100 +3487,100 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="23" t="s">
+      <c r="A108" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" s="6"/>
+      <c r="C108" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D108" s="18"/>
+      <c r="E108" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F108" s="18"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="9">
+        <v>170.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" s="6"/>
+      <c r="C109" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D109" s="18"/>
+      <c r="E109" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F109" s="18"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="9">
+        <v>185.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B108" s="23" t="s">
+      <c r="B110" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C108" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D108" s="18"/>
-      <c r="E108" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="F108" s="18"/>
-      <c r="G108" s="21"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="10">
-        <v>215.0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" s="23"/>
-      <c r="C109" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D109" s="18"/>
-      <c r="E109" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F109" s="18"/>
-      <c r="G109" s="21"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="10">
-        <v>230.0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B110" s="23"/>
       <c r="C110" s="12" t="s">
         <v>169</v>
       </c>
       <c r="D110" s="18"/>
-      <c r="E110" s="12" t="s">
+      <c r="E110" s="8" t="s">
         <v>170</v>
       </c>
       <c r="F110" s="18"/>
       <c r="G110" s="21"/>
       <c r="H110" s="13"/>
       <c r="I110" s="10">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B111" s="6"/>
-      <c r="C111" s="8" t="s">
+      <c r="B111" s="23"/>
+      <c r="C111" s="12" t="s">
         <v>171</v>
       </c>
       <c r="D111" s="18"/>
-      <c r="E111" s="8" t="s">
+      <c r="E111" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="F111" s="6"/>
+      <c r="F111" s="18"/>
       <c r="G111" s="21"/>
       <c r="H111" s="13"/>
       <c r="I111" s="10">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B112" s="6"/>
-      <c r="C112" s="8" t="s">
+      <c r="B112" s="23"/>
+      <c r="C112" s="12" t="s">
         <v>173</v>
       </c>
       <c r="D112" s="18"/>
-      <c r="E112" s="11" t="s">
+      <c r="E112" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="F112" s="6"/>
+      <c r="F112" s="18"/>
       <c r="G112" s="21"/>
       <c r="H112" s="13"/>
       <c r="I112" s="10">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="113">
@@ -3580,23 +3592,21 @@
         <v>175</v>
       </c>
       <c r="D113" s="18"/>
-      <c r="E113" s="11" t="s">
+      <c r="E113" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="F113" s="18"/>
+      <c r="F113" s="6"/>
       <c r="G113" s="21"/>
       <c r="H113" s="13"/>
       <c r="I113" s="10">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B114" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B114" s="6"/>
       <c r="C114" s="8" t="s">
         <v>177</v>
       </c>
@@ -3604,39 +3614,39 @@
       <c r="E114" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="F114" s="18"/>
+      <c r="F114" s="6"/>
       <c r="G114" s="21"/>
       <c r="H114" s="13"/>
       <c r="I114" s="10">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B115" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B115" s="6"/>
       <c r="C115" s="8" t="s">
         <v>179</v>
       </c>
       <c r="D115" s="18"/>
-      <c r="E115" s="8" t="s">
+      <c r="E115" s="11" t="s">
         <v>180</v>
       </c>
       <c r="F115" s="18"/>
       <c r="G115" s="21"/>
       <c r="H115" s="13"/>
       <c r="I115" s="10">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B116" s="6"/>
+      <c r="B116" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C116" s="8" t="s">
         <v>181</v>
       </c>
@@ -3648,19 +3658,21 @@
       <c r="G116" s="21"/>
       <c r="H116" s="13"/>
       <c r="I116" s="10">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B117" s="6"/>
+      <c r="B117" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C117" s="8" t="s">
         <v>183</v>
       </c>
       <c r="D117" s="18"/>
-      <c r="E117" s="11" t="s">
+      <c r="E117" s="8" t="s">
         <v>184</v>
       </c>
       <c r="F117" s="18"/>
@@ -3678,15 +3690,15 @@
       <c r="C118" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D118" s="6"/>
+      <c r="D118" s="18"/>
       <c r="E118" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="F118" s="6"/>
+      <c r="F118" s="18"/>
       <c r="G118" s="21"/>
       <c r="H118" s="13"/>
       <c r="I118" s="10">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="119">
@@ -3697,11 +3709,11 @@
       <c r="C119" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D119" s="6"/>
-      <c r="E119" s="8" t="s">
+      <c r="D119" s="18"/>
+      <c r="E119" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="F119" s="6"/>
+      <c r="F119" s="18"/>
       <c r="G119" s="21"/>
       <c r="H119" s="13"/>
       <c r="I119" s="10">
@@ -3717,14 +3729,14 @@
         <v>189</v>
       </c>
       <c r="D120" s="6"/>
-      <c r="E120" s="8" t="s">
+      <c r="E120" s="11" t="s">
         <v>190</v>
       </c>
       <c r="F120" s="6"/>
       <c r="G120" s="21"/>
       <c r="H120" s="13"/>
       <c r="I120" s="10">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="121">
@@ -3755,14 +3767,14 @@
         <v>193</v>
       </c>
       <c r="D122" s="6"/>
-      <c r="E122" s="11" t="s">
+      <c r="E122" s="8" t="s">
         <v>194</v>
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="21"/>
       <c r="H122" s="13"/>
       <c r="I122" s="10">
-        <v>210.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="123">
@@ -3774,35 +3786,33 @@
         <v>195</v>
       </c>
       <c r="D123" s="6"/>
-      <c r="E123" s="11" t="s">
+      <c r="E123" s="8" t="s">
         <v>196</v>
       </c>
       <c r="F123" s="6"/>
       <c r="G123" s="21"/>
       <c r="H123" s="13"/>
       <c r="I123" s="10">
-        <v>80.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B124" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B124" s="6"/>
       <c r="C124" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D124" s="18"/>
-      <c r="E124" s="8" t="s">
+      <c r="D124" s="6"/>
+      <c r="E124" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="F124" s="18"/>
+      <c r="F124" s="6"/>
       <c r="G124" s="21"/>
       <c r="H124" s="13"/>
       <c r="I124" s="10">
-        <v>220.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="125">
@@ -3814,54 +3824,54 @@
         <v>199</v>
       </c>
       <c r="D125" s="6"/>
-      <c r="E125" s="8" t="s">
+      <c r="E125" s="11" t="s">
         <v>200</v>
       </c>
       <c r="F125" s="6"/>
       <c r="G125" s="21"/>
       <c r="H125" s="13"/>
       <c r="I125" s="10">
-        <v>160.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B126" s="6"/>
+      <c r="B126" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C126" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="D126" s="6"/>
+      <c r="D126" s="18"/>
       <c r="E126" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F126" s="6"/>
+      <c r="F126" s="18"/>
       <c r="G126" s="21"/>
       <c r="H126" s="13"/>
       <c r="I126" s="10">
-        <v>70.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B127" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B127" s="6"/>
       <c r="C127" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D127" s="18"/>
-      <c r="E127" s="11" t="s">
+      <c r="D127" s="6"/>
+      <c r="E127" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="F127" s="18"/>
+      <c r="F127" s="6"/>
       <c r="G127" s="21"/>
       <c r="H127" s="13"/>
       <c r="I127" s="10">
-        <v>220.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="128">
@@ -3872,15 +3882,15 @@
       <c r="C128" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="D128" s="18"/>
+      <c r="D128" s="6"/>
       <c r="E128" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="F128" s="18"/>
+      <c r="F128" s="6"/>
       <c r="G128" s="21"/>
       <c r="H128" s="13"/>
       <c r="I128" s="10">
-        <v>220.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="129">
@@ -3893,11 +3903,11 @@
       <c r="C129" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D129" s="6"/>
-      <c r="E129" s="8" t="s">
+      <c r="D129" s="18"/>
+      <c r="E129" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="F129" s="6"/>
+      <c r="F129" s="18"/>
       <c r="G129" s="21"/>
       <c r="H129" s="13"/>
       <c r="I129" s="10">
@@ -3912,51 +3922,51 @@
       <c r="C130" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D130" s="6"/>
+      <c r="D130" s="18"/>
       <c r="E130" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="F130" s="6"/>
+        <v>210</v>
+      </c>
+      <c r="F130" s="18"/>
       <c r="G130" s="21"/>
       <c r="H130" s="13"/>
       <c r="I130" s="10">
-        <v>185.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B131" s="6"/>
+      <c r="B131" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C131" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D131" s="18"/>
+        <v>211</v>
+      </c>
+      <c r="D131" s="6"/>
       <c r="E131" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F131" s="18"/>
+        <v>212</v>
+      </c>
+      <c r="F131" s="6"/>
       <c r="G131" s="21"/>
       <c r="H131" s="13"/>
       <c r="I131" s="10">
-        <v>185.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B132" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B132" s="6"/>
       <c r="C132" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D132" s="18"/>
+        <v>213</v>
+      </c>
+      <c r="D132" s="6"/>
       <c r="E132" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="F132" s="18"/>
+        <v>213</v>
+      </c>
+      <c r="F132" s="6"/>
       <c r="G132" s="21"/>
       <c r="H132" s="13"/>
       <c r="I132" s="10">
@@ -3969,13 +3979,13 @@
       </c>
       <c r="B133" s="6"/>
       <c r="C133" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D133" s="6"/>
+        <v>214</v>
+      </c>
+      <c r="D133" s="18"/>
       <c r="E133" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="F133" s="6"/>
+      <c r="F133" s="18"/>
       <c r="G133" s="21"/>
       <c r="H133" s="13"/>
       <c r="I133" s="10">
@@ -3986,19 +3996,21 @@
       <c r="A134" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B134" s="6"/>
+      <c r="B134" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C134" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D134" s="6"/>
+      <c r="D134" s="18"/>
       <c r="E134" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="F134" s="6"/>
+      <c r="F134" s="18"/>
       <c r="G134" s="21"/>
       <c r="H134" s="13"/>
       <c r="I134" s="10">
-        <v>200.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="135">
@@ -4036,39 +4048,37 @@
       <c r="G136" s="21"/>
       <c r="H136" s="13"/>
       <c r="I136" s="10">
-        <v>80.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B137" s="23"/>
-      <c r="C137" s="12" t="s">
+      <c r="A137" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" s="6"/>
+      <c r="C137" s="8" t="s">
         <v>221</v>
       </c>
       <c r="D137" s="6"/>
-      <c r="E137" s="12" t="s">
+      <c r="E137" s="8" t="s">
         <v>222</v>
       </c>
       <c r="F137" s="6"/>
       <c r="G137" s="21"/>
       <c r="H137" s="13"/>
       <c r="I137" s="10">
-        <v>120.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B138" s="6"/>
       <c r="C138" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="D138" s="18"/>
+      <c r="D138" s="6"/>
       <c r="E138" s="8" t="s">
         <v>224</v>
       </c>
@@ -4076,28 +4086,26 @@
       <c r="G138" s="21"/>
       <c r="H138" s="13"/>
       <c r="I138" s="10">
-        <v>130.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="6" t="s">
+      <c r="A139" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B139" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C139" s="8" t="s">
+      <c r="B139" s="23"/>
+      <c r="C139" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="D139" s="18"/>
-      <c r="E139" s="8" t="s">
+      <c r="D139" s="6"/>
+      <c r="E139" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="F139" s="18"/>
+      <c r="F139" s="6"/>
       <c r="G139" s="21"/>
       <c r="H139" s="13"/>
       <c r="I139" s="10">
-        <v>180.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="140">
@@ -4110,7 +4118,7 @@
       <c r="C140" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D140" s="6"/>
+      <c r="D140" s="18"/>
       <c r="E140" s="8" t="s">
         <v>228</v>
       </c>
@@ -4118,148 +4126,148 @@
       <c r="G140" s="21"/>
       <c r="H140" s="13"/>
       <c r="I140" s="10">
-        <v>180.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B141" s="6"/>
+      <c r="B141" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C141" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="D141" s="6"/>
-      <c r="E141" s="11" t="s">
+      <c r="D141" s="18"/>
+      <c r="E141" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="F141" s="6"/>
+      <c r="F141" s="18"/>
       <c r="G141" s="21"/>
       <c r="H141" s="13"/>
       <c r="I141" s="10">
-        <v>110.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B142" s="23" t="s">
+      <c r="A142" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C142" s="12" t="s">
+      <c r="C142" s="8" t="s">
         <v>231</v>
       </c>
       <c r="D142" s="6"/>
-      <c r="E142" s="12" t="s">
+      <c r="E142" s="8" t="s">
         <v>232</v>
       </c>
       <c r="F142" s="6"/>
       <c r="G142" s="21"/>
       <c r="H142" s="13"/>
       <c r="I142" s="10">
-        <v>130.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B143" s="6"/>
       <c r="C143" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="D143" s="18"/>
-      <c r="E143" s="8" t="s">
+      <c r="D143" s="6"/>
+      <c r="E143" s="11" t="s">
         <v>234</v>
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="21"/>
       <c r="H143" s="13"/>
       <c r="I143" s="10">
-        <v>140.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="6" t="s">
+      <c r="A144" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B144" s="6"/>
-      <c r="C144" s="8" t="s">
+      <c r="B144" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C144" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="D144" s="18"/>
-      <c r="E144" s="8" t="s">
+      <c r="D144" s="6"/>
+      <c r="E144" s="12" t="s">
         <v>236</v>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="21"/>
       <c r="H144" s="13"/>
       <c r="I144" s="10">
-        <v>70.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B145" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C145" s="12" t="s">
+      <c r="A145" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B145" s="6"/>
+      <c r="C145" s="8" t="s">
         <v>237</v>
       </c>
       <c r="D145" s="18"/>
-      <c r="E145" s="9" t="s">
+      <c r="E145" s="8" t="s">
         <v>238</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="21"/>
       <c r="H145" s="13"/>
       <c r="I145" s="10">
-        <v>260.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B146" s="6"/>
       <c r="C146" s="8" t="s">
         <v>239</v>
       </c>
       <c r="D146" s="18"/>
-      <c r="E146" s="11" t="s">
+      <c r="E146" s="8" t="s">
         <v>240</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="21"/>
       <c r="H146" s="13"/>
       <c r="I146" s="10">
-        <v>210.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="6" t="s">
+      <c r="A147" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C147" s="8" t="s">
+      <c r="C147" s="12" t="s">
         <v>241</v>
       </c>
       <c r="D147" s="18"/>
-      <c r="E147" s="11" t="s">
+      <c r="E147" s="9" t="s">
         <v>242</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="21"/>
       <c r="H147" s="13"/>
       <c r="I147" s="10">
-        <v>210.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="148">
@@ -4273,7 +4281,7 @@
         <v>243</v>
       </c>
       <c r="D148" s="18"/>
-      <c r="E148" s="8" t="s">
+      <c r="E148" s="11" t="s">
         <v>244</v>
       </c>
       <c r="F148" s="6"/>
@@ -4284,73 +4292,77 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B149" s="12" t="s">
+      <c r="A149" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B149" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C149" s="12" t="s">
+      <c r="C149" s="8" t="s">
         <v>245</v>
       </c>
       <c r="D149" s="18"/>
-      <c r="E149" s="12" t="s">
+      <c r="E149" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="F149" s="18"/>
+      <c r="F149" s="6"/>
       <c r="G149" s="21"/>
       <c r="H149" s="13"/>
       <c r="I149" s="10">
-        <v>220.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B150" s="8" t="s">
+      <c r="A150" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B150" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="D150" s="6"/>
+      <c r="D150" s="18"/>
       <c r="E150" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F150" s="6"/>
       <c r="G150" s="21"/>
       <c r="H150" s="13"/>
       <c r="I150" s="10">
-        <v>250.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B151" s="23"/>
+      <c r="A151" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="C151" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="D151" s="6"/>
+        <v>249</v>
+      </c>
+      <c r="D151" s="18"/>
       <c r="E151" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="F151" s="6"/>
+        <v>250</v>
+      </c>
+      <c r="F151" s="18"/>
       <c r="G151" s="21"/>
       <c r="H151" s="13"/>
-      <c r="I151" s="13">
-        <v>20.0</v>
+      <c r="I151" s="10">
+        <v>220.0</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B152" s="23"/>
+      <c r="A152" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C152" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D152" s="6"/>
       <c r="E152" s="8" t="s">
@@ -4358,27 +4370,27 @@
       </c>
       <c r="F152" s="6"/>
       <c r="G152" s="21"/>
-      <c r="H152" s="10"/>
+      <c r="H152" s="13"/>
       <c r="I152" s="10">
-        <v>40.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="24" t="s">
+      <c r="A153" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B153" s="6"/>
-      <c r="C153" s="11" t="s">
+      <c r="B153" s="23"/>
+      <c r="C153" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D153" s="18"/>
-      <c r="E153" s="25" t="s">
+      <c r="D153" s="6"/>
+      <c r="E153" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="F153" s="18"/>
+      <c r="F153" s="6"/>
       <c r="G153" s="21"/>
-      <c r="H153" s="10"/>
-      <c r="I153" s="10">
+      <c r="H153" s="13"/>
+      <c r="I153" s="13">
         <v>20.0</v>
       </c>
     </row>
@@ -4386,38 +4398,38 @@
       <c r="A154" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B154" s="6"/>
+      <c r="B154" s="23"/>
       <c r="C154" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D154" s="18"/>
+      <c r="D154" s="6"/>
       <c r="E154" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="F154" s="18"/>
+      <c r="F154" s="6"/>
       <c r="G154" s="21"/>
       <c r="H154" s="10"/>
       <c r="I154" s="10">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="6" t="s">
+      <c r="A155" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B155" s="6"/>
-      <c r="C155" s="8" t="s">
+      <c r="C155" s="11" t="s">
         <v>256</v>
       </c>
       <c r="D155" s="18"/>
-      <c r="E155" s="8" t="s">
+      <c r="E155" s="25" t="s">
         <v>257</v>
       </c>
       <c r="F155" s="18"/>
       <c r="G155" s="21"/>
-      <c r="H155" s="13"/>
+      <c r="H155" s="10"/>
       <c r="I155" s="10">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="156">
@@ -4434,9 +4446,9 @@
       </c>
       <c r="F156" s="18"/>
       <c r="G156" s="21"/>
-      <c r="H156" s="13"/>
-      <c r="I156" s="13">
-        <v>30.0</v>
+      <c r="H156" s="10"/>
+      <c r="I156" s="10">
+        <v>20.0</v>
       </c>
     </row>
     <row r="157">
@@ -4454,8 +4466,8 @@
       <c r="F157" s="18"/>
       <c r="G157" s="21"/>
       <c r="H157" s="13"/>
-      <c r="I157" s="13">
-        <v>20.0</v>
+      <c r="I157" s="10">
+        <v>50.0</v>
       </c>
     </row>
     <row r="158">
@@ -4474,7 +4486,7 @@
       <c r="G158" s="21"/>
       <c r="H158" s="13"/>
       <c r="I158" s="13">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="159">
@@ -4482,18 +4494,18 @@
         <v>19</v>
       </c>
       <c r="B159" s="6"/>
-      <c r="C159" s="11" t="s">
+      <c r="C159" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="D159" s="6"/>
-      <c r="E159" s="11" t="s">
+      <c r="D159" s="18"/>
+      <c r="E159" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="F159" s="6"/>
+      <c r="F159" s="18"/>
       <c r="G159" s="21"/>
       <c r="H159" s="13"/>
-      <c r="I159" s="10">
-        <v>40.0</v>
+      <c r="I159" s="13">
+        <v>20.0</v>
       </c>
     </row>
     <row r="160">
@@ -4501,22 +4513,22 @@
         <v>19</v>
       </c>
       <c r="B160" s="6"/>
-      <c r="C160" s="11" t="s">
+      <c r="C160" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D160" s="6"/>
-      <c r="E160" s="11" t="s">
+      <c r="D160" s="18"/>
+      <c r="E160" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="F160" s="6"/>
+      <c r="F160" s="18"/>
       <c r="G160" s="21"/>
       <c r="H160" s="13"/>
       <c r="I160" s="10">
-        <v>60.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="24" t="s">
+      <c r="A161" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B161" s="6"/>
@@ -4531,7 +4543,7 @@
       <c r="G161" s="21"/>
       <c r="H161" s="13"/>
       <c r="I161" s="10">
-        <v>150.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="162">
@@ -4539,22 +4551,22 @@
         <v>19</v>
       </c>
       <c r="B162" s="6"/>
-      <c r="C162" s="8" t="s">
+      <c r="C162" s="11" t="s">
         <v>270</v>
       </c>
       <c r="D162" s="6"/>
-      <c r="E162" s="8" t="s">
+      <c r="E162" s="11" t="s">
         <v>271</v>
       </c>
       <c r="F162" s="6"/>
       <c r="G162" s="21"/>
       <c r="H162" s="13"/>
-      <c r="I162" s="13">
-        <v>15.0</v>
+      <c r="I162" s="10">
+        <v>60.0</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="6" t="s">
+      <c r="A163" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B163" s="6"/>
@@ -4569,14 +4581,14 @@
       <c r="G163" s="21"/>
       <c r="H163" s="13"/>
       <c r="I163" s="10">
-        <v>15.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B164" s="18"/>
+      <c r="B164" s="6"/>
       <c r="C164" s="8" t="s">
         <v>274</v>
       </c>
@@ -4585,23 +4597,49 @@
         <v>275</v>
       </c>
       <c r="F164" s="6"/>
-      <c r="G164" s="6"/>
+      <c r="G164" s="21"/>
       <c r="H164" s="13"/>
       <c r="I164" s="13">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B165" s="6"/>
+      <c r="C165" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="D165" s="6"/>
+      <c r="E165" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="F165" s="6"/>
+      <c r="G165" s="21"/>
+      <c r="H165" s="13"/>
+      <c r="I165" s="10">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B166" s="18"/>
+      <c r="C166" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D166" s="6"/>
+      <c r="E166" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="13"/>
+      <c r="I166" s="13">
         <v>60.0</v>
       </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="26"/>
-      <c r="B165" s="26"/>
-      <c r="C165" s="26"/>
-      <c r="E165" s="26"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="26"/>
-      <c r="B166" s="26"/>
-      <c r="C166" s="26"/>
-      <c r="E166" s="26"/>
     </row>
     <row r="167">
       <c r="A167" s="26"/>
@@ -4630,10 +4668,22 @@
     <row r="171">
       <c r="A171" s="26"/>
       <c r="B171" s="26"/>
+      <c r="C171" s="26"/>
+      <c r="E171" s="26"/>
     </row>
     <row r="172">
       <c r="A172" s="26"/>
       <c r="B172" s="26"/>
+      <c r="C172" s="26"/>
+      <c r="E172" s="26"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="26"/>
+      <c r="B173" s="26"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="26"/>
+      <c r="B174" s="26"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="LpOSVwFWQUK8UOw0rC1TimEDtlp3Tl4AUdstOVTmptw="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="HzO0Fg93vMmzV50RzkVvBi9N5a/l/IdM3dwp0IPGhDo="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="283">
   <si>
     <t>category</t>
   </si>
@@ -406,13 +406,16 @@
     <t>Buzlu Çay / Iced Tea</t>
   </si>
   <si>
+    <t>Blue Lagon</t>
+  </si>
+  <si>
+    <t>Color Mix</t>
+  </si>
+  <si>
     <t>Island Rush Cooler</t>
   </si>
   <si>
-    <t>Pina Colada</t>
-  </si>
-  <si>
-    <t>Color Mix</t>
+    <t>Mor Zest</t>
   </si>
   <si>
     <t>Churchill</t>
@@ -524,6 +527,12 @@
   </si>
   <si>
     <t>Donut Çikolatalı</t>
+  </si>
+  <si>
+    <t>Raisin muffin</t>
+  </si>
+  <si>
+    <t>Üzümlü Çöre</t>
   </si>
   <si>
     <r>
@@ -3017,54 +3026,46 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B84" s="8"/>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="11" t="s">
         <v>129</v>
       </c>
       <c r="D84" s="18"/>
-      <c r="E84" s="8" t="s">
-        <v>129</v>
-      </c>
+      <c r="E84" s="8"/>
       <c r="F84" s="18"/>
       <c r="G84" s="13"/>
       <c r="H84" s="12"/>
-      <c r="I84" s="9">
-        <v>150.0</v>
-      </c>
+      <c r="I84" s="9"/>
     </row>
     <row r="85">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B85" s="8"/>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="11" t="s">
         <v>130</v>
       </c>
       <c r="D85" s="18"/>
-      <c r="E85" s="8" t="s">
-        <v>130</v>
-      </c>
+      <c r="E85" s="8"/>
       <c r="F85" s="18"/>
       <c r="G85" s="13"/>
       <c r="H85" s="12"/>
-      <c r="I85" s="9">
-        <v>150.0</v>
-      </c>
+      <c r="I85" s="9"/>
     </row>
     <row r="86">
       <c r="A86" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B86" s="8"/>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="11" t="s">
         <v>131</v>
       </c>
       <c r="D86" s="18"/>
       <c r="E86" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F86" s="18"/>
       <c r="G86" s="13"/>
@@ -3074,56 +3075,44 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B87" s="8"/>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="11" t="s">
         <v>132</v>
       </c>
       <c r="D87" s="18"/>
-      <c r="E87" s="8" t="s">
-        <v>132</v>
-      </c>
+      <c r="E87" s="8"/>
       <c r="F87" s="18"/>
       <c r="G87" s="13"/>
       <c r="H87" s="12"/>
-      <c r="I87" s="10">
-        <v>150.0</v>
-      </c>
+      <c r="I87" s="10"/>
     </row>
     <row r="88">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>133</v>
-      </c>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
       <c r="D88" s="18"/>
-      <c r="E88" s="8" t="s">
-        <v>133</v>
-      </c>
+      <c r="E88" s="8"/>
       <c r="F88" s="18"/>
       <c r="G88" s="13"/>
       <c r="H88" s="12"/>
-      <c r="I88" s="10">
-        <v>125.0</v>
-      </c>
+      <c r="I88" s="10"/>
     </row>
     <row r="89">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B89" s="8"/>
-      <c r="C89" s="11" t="s">
-        <v>134</v>
+      <c r="C89" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="D89" s="18"/>
-      <c r="E89" s="11" t="s">
-        <v>134</v>
+      <c r="E89" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="F89" s="18"/>
       <c r="G89" s="13"/>
@@ -3140,116 +3129,114 @@
         <v>27</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F90" s="18"/>
       <c r="G90" s="13"/>
       <c r="H90" s="12"/>
-      <c r="I90" s="9">
-        <v>110.0</v>
+      <c r="I90" s="10">
+        <v>125.0</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B91" s="8"/>
-      <c r="C91" s="8" t="s">
-        <v>137</v>
+      <c r="C91" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="D91" s="18"/>
-      <c r="E91" s="8" t="s">
-        <v>138</v>
+      <c r="E91" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="F91" s="18"/>
       <c r="G91" s="13"/>
       <c r="H91" s="12"/>
-      <c r="I91" s="9">
-        <v>110.0</v>
+      <c r="I91" s="10">
+        <v>150.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="20" t="s">
-        <v>139</v>
+      <c r="B92" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="D92" s="18"/>
       <c r="E92" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F92" s="18"/>
       <c r="G92" s="13"/>
       <c r="H92" s="12"/>
       <c r="I92" s="9">
-        <v>150.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12" t="s">
-        <v>140</v>
+      <c r="A93" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="D93" s="18"/>
-      <c r="E93" s="12" t="s">
-        <v>141</v>
+      <c r="E93" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="F93" s="18"/>
       <c r="G93" s="13"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="10">
-        <v>80.0</v>
+      <c r="H93" s="12"/>
+      <c r="I93" s="9">
+        <v>110.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>142</v>
+        <v>9</v>
+      </c>
+      <c r="B94" s="8"/>
+      <c r="C94" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="D94" s="18"/>
       <c r="E94" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F94" s="18"/>
       <c r="G94" s="13"/>
       <c r="H94" s="12"/>
-      <c r="I94" s="10">
-        <v>85.0</v>
+      <c r="I94" s="9">
+        <v>150.0</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B95" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>143</v>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="D95" s="18"/>
-      <c r="E95" s="8" t="s">
-        <v>143</v>
+      <c r="E95" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="F95" s="18"/>
-      <c r="G95" s="12"/>
+      <c r="G95" s="13"/>
       <c r="H95" s="9"/>
       <c r="I95" s="10">
-        <v>85.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="96">
@@ -3260,52 +3247,56 @@
         <v>27</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D96" s="18"/>
       <c r="E96" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F96" s="18"/>
       <c r="G96" s="13"/>
       <c r="H96" s="12"/>
       <c r="I96" s="10">
-        <v>70.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="8"/>
+      <c r="B97" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C97" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D97" s="18"/>
       <c r="E97" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F97" s="18"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="9"/>
       <c r="I97" s="10">
-        <v>70.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="8"/>
+      <c r="B98" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C98" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D98" s="18"/>
       <c r="E98" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F98" s="18"/>
-      <c r="G98" s="12"/>
+      <c r="G98" s="13"/>
       <c r="H98" s="12"/>
       <c r="I98" s="10">
         <v>70.0</v>
@@ -3317,17 +3308,17 @@
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D99" s="18"/>
       <c r="E99" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F99" s="18"/>
-      <c r="G99" s="12"/>
+      <c r="G99" s="13"/>
       <c r="H99" s="12"/>
       <c r="I99" s="10">
-        <v>60.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="100">
@@ -3336,72 +3327,70 @@
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D100" s="18"/>
       <c r="E100" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F100" s="6"/>
+        <v>150</v>
+      </c>
+      <c r="F100" s="18"/>
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
       <c r="I100" s="10">
-        <v>50.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B101" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>153</v>
+      <c r="A101" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="D101" s="18"/>
-      <c r="E101" s="12" t="s">
-        <v>154</v>
+      <c r="E101" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="F101" s="18"/>
       <c r="G101" s="12"/>
       <c r="H101" s="12"/>
-      <c r="I101" s="9">
-        <v>185.0</v>
+      <c r="I101" s="10">
+        <v>60.0</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B102" s="6"/>
+      <c r="A102" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="8"/>
       <c r="C102" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D102" s="16"/>
+        <v>152</v>
+      </c>
+      <c r="D102" s="18"/>
       <c r="E102" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="F102" s="18"/>
+        <v>153</v>
+      </c>
+      <c r="F102" s="6"/>
       <c r="G102" s="12"/>
       <c r="H102" s="12"/>
-      <c r="I102" s="9">
-        <v>185.0</v>
+      <c r="I102" s="10">
+        <v>50.0</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C103" s="8" t="s">
-        <v>156</v>
+      <c r="C103" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="D103" s="18"/>
-      <c r="E103" s="8" t="s">
-        <v>156</v>
+      <c r="E103" s="12" t="s">
+        <v>155</v>
       </c>
       <c r="F103" s="18"/>
       <c r="G103" s="12"/>
@@ -3416,11 +3405,11 @@
       </c>
       <c r="B104" s="6"/>
       <c r="C104" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D104" s="18"/>
+        <v>156</v>
+      </c>
+      <c r="D104" s="16"/>
       <c r="E104" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F104" s="18"/>
       <c r="G104" s="12"/>
@@ -3433,13 +3422,15 @@
       <c r="A105" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="6"/>
+      <c r="B105" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C105" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D105" s="18"/>
       <c r="E105" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F105" s="18"/>
       <c r="G105" s="12"/>
@@ -3449,41 +3440,41 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="24" t="s">
+      <c r="A106" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B106" s="6"/>
-      <c r="C106" s="11" t="s">
-        <v>161</v>
+      <c r="C106" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="D106" s="18"/>
-      <c r="E106" s="11" t="s">
-        <v>162</v>
+      <c r="E106" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="F106" s="18"/>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
       <c r="I106" s="9">
-        <v>220.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="24" t="s">
+      <c r="A107" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B107" s="6"/>
-      <c r="C107" s="11" t="s">
-        <v>163</v>
+      <c r="C107" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="D107" s="18"/>
-      <c r="E107" s="11" t="s">
-        <v>164</v>
+      <c r="E107" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="F107" s="18"/>
       <c r="G107" s="12"/>
       <c r="H107" s="12"/>
       <c r="I107" s="9">
-        <v>240.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="108">
@@ -3492,17 +3483,17 @@
       </c>
       <c r="B108" s="6"/>
       <c r="C108" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D108" s="18"/>
       <c r="E108" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F108" s="18"/>
       <c r="G108" s="12"/>
       <c r="H108" s="12"/>
       <c r="I108" s="9">
-        <v>170.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="109">
@@ -3511,91 +3502,91 @@
       </c>
       <c r="B109" s="6"/>
       <c r="C109" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D109" s="18"/>
       <c r="E109" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F109" s="18"/>
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
       <c r="I109" s="9">
+        <v>240.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" s="6"/>
+      <c r="C110" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D110" s="18"/>
+      <c r="E110" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F110" s="18"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="9">
+        <v>170.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" s="6"/>
+      <c r="C111" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D111" s="18"/>
+      <c r="E111" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F111" s="18"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="9">
         <v>185.0</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="23" t="s">
+    <row r="112">
+      <c r="A112" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" s="6"/>
+      <c r="C112" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D112" s="18"/>
+      <c r="E112" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F112" s="18"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="9">
+        <v>110.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B110" s="23" t="s">
+      <c r="B113" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C110" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D110" s="18"/>
-      <c r="E110" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F110" s="18"/>
-      <c r="G110" s="21"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="10">
-        <v>215.0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B111" s="23"/>
-      <c r="C111" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D111" s="18"/>
-      <c r="E111" s="12" t="s">
+      <c r="C113" s="12" t="s">
         <v>172</v>
-      </c>
-      <c r="F111" s="18"/>
-      <c r="G111" s="21"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="10">
-        <v>230.0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B112" s="23"/>
-      <c r="C112" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D112" s="18"/>
-      <c r="E112" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="F112" s="18"/>
-      <c r="G112" s="21"/>
-      <c r="H112" s="13"/>
-      <c r="I112" s="10">
-        <v>230.0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B113" s="6"/>
-      <c r="C113" s="8" t="s">
-        <v>175</v>
       </c>
       <c r="D113" s="18"/>
       <c r="E113" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="F113" s="6"/>
+        <v>173</v>
+      </c>
+      <c r="F113" s="18"/>
       <c r="G113" s="21"/>
       <c r="H113" s="13"/>
       <c r="I113" s="10">
@@ -3606,32 +3597,32 @@
       <c r="A114" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B114" s="6"/>
-      <c r="C114" s="8" t="s">
-        <v>177</v>
+      <c r="B114" s="23"/>
+      <c r="C114" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="D114" s="18"/>
-      <c r="E114" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="F114" s="6"/>
+      <c r="E114" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F114" s="18"/>
       <c r="G114" s="21"/>
       <c r="H114" s="13"/>
       <c r="I114" s="10">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B115" s="6"/>
-      <c r="C115" s="8" t="s">
-        <v>179</v>
+      <c r="B115" s="23"/>
+      <c r="C115" s="12" t="s">
+        <v>176</v>
       </c>
       <c r="D115" s="18"/>
-      <c r="E115" s="11" t="s">
-        <v>180</v>
+      <c r="E115" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="F115" s="18"/>
       <c r="G115" s="21"/>
@@ -3644,42 +3635,38 @@
       <c r="A116" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B116" s="6"/>
       <c r="C116" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D116" s="18"/>
-      <c r="E116" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="F116" s="18"/>
+      <c r="E116" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F116" s="6"/>
       <c r="G116" s="21"/>
       <c r="H116" s="13"/>
       <c r="I116" s="10">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B117" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B117" s="6"/>
       <c r="C117" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D117" s="18"/>
-      <c r="E117" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="F117" s="18"/>
+      <c r="E117" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F117" s="6"/>
       <c r="G117" s="21"/>
       <c r="H117" s="13"/>
       <c r="I117" s="10">
-        <v>220.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="118">
@@ -3688,55 +3675,59 @@
       </c>
       <c r="B118" s="6"/>
       <c r="C118" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D118" s="18"/>
       <c r="E118" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F118" s="18"/>
       <c r="G118" s="21"/>
       <c r="H118" s="13"/>
       <c r="I118" s="10">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B119" s="6"/>
+      <c r="B119" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C119" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D119" s="18"/>
       <c r="E119" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F119" s="18"/>
       <c r="G119" s="21"/>
       <c r="H119" s="13"/>
       <c r="I119" s="10">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B120" s="6"/>
+      <c r="B120" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C120" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D120" s="6"/>
-      <c r="E120" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="F120" s="6"/>
+        <v>186</v>
+      </c>
+      <c r="D120" s="18"/>
+      <c r="E120" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F120" s="18"/>
       <c r="G120" s="21"/>
       <c r="H120" s="13"/>
       <c r="I120" s="10">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="121">
@@ -3745,13 +3736,13 @@
       </c>
       <c r="B121" s="6"/>
       <c r="C121" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D121" s="6"/>
-      <c r="E121" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="F121" s="6"/>
+        <v>188</v>
+      </c>
+      <c r="D121" s="18"/>
+      <c r="E121" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F121" s="18"/>
       <c r="G121" s="21"/>
       <c r="H121" s="13"/>
       <c r="I121" s="10">
@@ -3764,17 +3755,17 @@
       </c>
       <c r="B122" s="6"/>
       <c r="C122" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D122" s="6"/>
-      <c r="E122" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="F122" s="6"/>
+        <v>190</v>
+      </c>
+      <c r="D122" s="18"/>
+      <c r="E122" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F122" s="18"/>
       <c r="G122" s="21"/>
       <c r="H122" s="13"/>
       <c r="I122" s="10">
-        <v>215.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="123">
@@ -3783,17 +3774,17 @@
       </c>
       <c r="B123" s="6"/>
       <c r="C123" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D123" s="6"/>
-      <c r="E123" s="8" t="s">
-        <v>196</v>
+      <c r="E123" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="F123" s="6"/>
       <c r="G123" s="21"/>
       <c r="H123" s="13"/>
       <c r="I123" s="10">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="124">
@@ -3802,17 +3793,17 @@
       </c>
       <c r="B124" s="6"/>
       <c r="C124" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D124" s="6"/>
-      <c r="E124" s="11" t="s">
-        <v>198</v>
+      <c r="E124" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="F124" s="6"/>
       <c r="G124" s="21"/>
       <c r="H124" s="13"/>
       <c r="I124" s="10">
-        <v>210.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="125">
@@ -3821,34 +3812,32 @@
       </c>
       <c r="B125" s="6"/>
       <c r="C125" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D125" s="6"/>
-      <c r="E125" s="11" t="s">
-        <v>200</v>
+      <c r="E125" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="F125" s="6"/>
       <c r="G125" s="21"/>
       <c r="H125" s="13"/>
       <c r="I125" s="10">
-        <v>80.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B126" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B126" s="6"/>
       <c r="C126" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D126" s="18"/>
+        <v>198</v>
+      </c>
+      <c r="D126" s="6"/>
       <c r="E126" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="F126" s="18"/>
+        <v>199</v>
+      </c>
+      <c r="F126" s="6"/>
       <c r="G126" s="21"/>
       <c r="H126" s="13"/>
       <c r="I126" s="10">
@@ -3861,17 +3850,17 @@
       </c>
       <c r="B127" s="6"/>
       <c r="C127" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D127" s="6"/>
-      <c r="E127" s="8" t="s">
-        <v>204</v>
+      <c r="E127" s="11" t="s">
+        <v>201</v>
       </c>
       <c r="F127" s="6"/>
       <c r="G127" s="21"/>
       <c r="H127" s="13"/>
       <c r="I127" s="10">
-        <v>160.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="128">
@@ -3880,17 +3869,17 @@
       </c>
       <c r="B128" s="6"/>
       <c r="C128" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D128" s="6"/>
-      <c r="E128" s="8" t="s">
-        <v>206</v>
+      <c r="E128" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="F128" s="6"/>
       <c r="G128" s="21"/>
       <c r="H128" s="13"/>
       <c r="I128" s="10">
-        <v>70.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="129">
@@ -3901,11 +3890,11 @@
         <v>27</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D129" s="18"/>
-      <c r="E129" s="11" t="s">
-        <v>208</v>
+      <c r="E129" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="F129" s="18"/>
       <c r="G129" s="21"/>
@@ -3920,57 +3909,57 @@
       </c>
       <c r="B130" s="6"/>
       <c r="C130" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D130" s="18"/>
+        <v>206</v>
+      </c>
+      <c r="D130" s="6"/>
       <c r="E130" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F130" s="18"/>
+        <v>207</v>
+      </c>
+      <c r="F130" s="6"/>
       <c r="G130" s="21"/>
       <c r="H130" s="13"/>
       <c r="I130" s="10">
-        <v>220.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B131" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B131" s="6"/>
       <c r="C131" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D131" s="6"/>
       <c r="E131" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="21"/>
       <c r="H131" s="13"/>
       <c r="I131" s="10">
-        <v>220.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B132" s="6"/>
+      <c r="B132" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C132" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D132" s="6"/>
-      <c r="E132" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="F132" s="6"/>
+        <v>210</v>
+      </c>
+      <c r="D132" s="18"/>
+      <c r="E132" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="F132" s="18"/>
       <c r="G132" s="21"/>
       <c r="H132" s="13"/>
       <c r="I132" s="10">
-        <v>185.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="133">
@@ -3979,17 +3968,17 @@
       </c>
       <c r="B133" s="6"/>
       <c r="C133" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D133" s="18"/>
       <c r="E133" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F133" s="18"/>
       <c r="G133" s="21"/>
       <c r="H133" s="13"/>
       <c r="I133" s="10">
-        <v>185.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="134">
@@ -4000,17 +3989,17 @@
         <v>27</v>
       </c>
       <c r="C134" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D134" s="6"/>
+      <c r="E134" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D134" s="18"/>
-      <c r="E134" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="F134" s="18"/>
+      <c r="F134" s="6"/>
       <c r="G134" s="21"/>
       <c r="H134" s="13"/>
       <c r="I134" s="10">
-        <v>185.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="135">
@@ -4019,11 +4008,11 @@
       </c>
       <c r="B135" s="6"/>
       <c r="C135" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D135" s="6"/>
       <c r="E135" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="21"/>
@@ -4038,32 +4027,34 @@
       </c>
       <c r="B136" s="6"/>
       <c r="C136" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D136" s="6"/>
+        <v>217</v>
+      </c>
+      <c r="D136" s="18"/>
       <c r="E136" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="F136" s="6"/>
+        <v>217</v>
+      </c>
+      <c r="F136" s="18"/>
       <c r="G136" s="21"/>
       <c r="H136" s="13"/>
       <c r="I136" s="10">
-        <v>200.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B137" s="6"/>
+      <c r="B137" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C137" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D137" s="6"/>
+        <v>218</v>
+      </c>
+      <c r="D137" s="18"/>
       <c r="E137" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="F137" s="6"/>
+        <v>219</v>
+      </c>
+      <c r="F137" s="18"/>
       <c r="G137" s="21"/>
       <c r="H137" s="13"/>
       <c r="I137" s="10">
@@ -4076,378 +4067,378 @@
       </c>
       <c r="B138" s="6"/>
       <c r="C138" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D138" s="6"/>
       <c r="E138" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="21"/>
       <c r="H138" s="13"/>
       <c r="I138" s="10">
-        <v>80.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="12" t="s">
-        <v>225</v>
+      <c r="A139" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" s="6"/>
+      <c r="C139" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="D139" s="6"/>
-      <c r="E139" s="12" t="s">
-        <v>226</v>
+      <c r="E139" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="F139" s="6"/>
       <c r="G139" s="21"/>
       <c r="H139" s="13"/>
       <c r="I139" s="10">
-        <v>120.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B140" s="6"/>
       <c r="C140" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D140" s="18"/>
+        <v>224</v>
+      </c>
+      <c r="D140" s="6"/>
       <c r="E140" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F140" s="6"/>
       <c r="G140" s="21"/>
       <c r="H140" s="13"/>
       <c r="I140" s="10">
-        <v>130.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B141" s="6"/>
       <c r="C141" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D141" s="18"/>
+        <v>226</v>
+      </c>
+      <c r="D141" s="6"/>
       <c r="E141" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="F141" s="18"/>
+        <v>227</v>
+      </c>
+      <c r="F141" s="6"/>
       <c r="G141" s="21"/>
       <c r="H141" s="13"/>
       <c r="I141" s="10">
-        <v>180.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="6" t="s">
+      <c r="A142" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B142" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>231</v>
+      <c r="B142" s="23"/>
+      <c r="C142" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="D142" s="6"/>
-      <c r="E142" s="8" t="s">
-        <v>232</v>
+      <c r="E142" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="F142" s="6"/>
       <c r="G142" s="21"/>
       <c r="H142" s="13"/>
       <c r="I142" s="10">
-        <v>180.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B143" s="6"/>
+      <c r="B143" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C143" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D143" s="6"/>
-      <c r="E143" s="11" t="s">
-        <v>234</v>
+        <v>230</v>
+      </c>
+      <c r="D143" s="18"/>
+      <c r="E143" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="21"/>
       <c r="H143" s="13"/>
       <c r="I143" s="10">
-        <v>110.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B144" s="23" t="s">
+      <c r="A144" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C144" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="D144" s="6"/>
-      <c r="E144" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="F144" s="6"/>
+      <c r="C144" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D144" s="18"/>
+      <c r="E144" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F144" s="18"/>
       <c r="G144" s="21"/>
       <c r="H144" s="13"/>
       <c r="I144" s="10">
-        <v>130.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B145" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C145" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D145" s="18"/>
+        <v>234</v>
+      </c>
+      <c r="D145" s="6"/>
       <c r="E145" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="21"/>
       <c r="H145" s="13"/>
       <c r="I145" s="10">
-        <v>140.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B146" s="6"/>
       <c r="C146" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D146" s="18"/>
-      <c r="E146" s="8" t="s">
-        <v>240</v>
+        <v>236</v>
+      </c>
+      <c r="D146" s="6"/>
+      <c r="E146" s="11" t="s">
+        <v>237</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="21"/>
       <c r="H146" s="13"/>
       <c r="I146" s="10">
-        <v>70.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B147" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="D147" s="18"/>
-      <c r="E147" s="9" t="s">
-        <v>242</v>
+        <v>238</v>
+      </c>
+      <c r="D147" s="6"/>
+      <c r="E147" s="12" t="s">
+        <v>239</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="21"/>
       <c r="H147" s="13"/>
       <c r="I147" s="10">
-        <v>260.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B148" s="6"/>
       <c r="C148" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D148" s="18"/>
-      <c r="E148" s="11" t="s">
-        <v>244</v>
+      <c r="E148" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="21"/>
       <c r="H148" s="13"/>
       <c r="I148" s="10">
-        <v>210.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B149" s="6"/>
       <c r="C149" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D149" s="18"/>
-      <c r="E149" s="11" t="s">
-        <v>246</v>
+      <c r="E149" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="F149" s="6"/>
       <c r="G149" s="21"/>
       <c r="H149" s="13"/>
       <c r="I149" s="10">
-        <v>210.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="6" t="s">
+      <c r="A150" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C150" s="8" t="s">
-        <v>247</v>
+      <c r="C150" s="12" t="s">
+        <v>244</v>
       </c>
       <c r="D150" s="18"/>
-      <c r="E150" s="8" t="s">
-        <v>248</v>
+      <c r="E150" s="9" t="s">
+        <v>245</v>
       </c>
       <c r="F150" s="6"/>
       <c r="G150" s="21"/>
       <c r="H150" s="13"/>
       <c r="I150" s="10">
-        <v>210.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B151" s="12" t="s">
+      <c r="A151" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B151" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C151" s="12" t="s">
-        <v>249</v>
+      <c r="C151" s="8" t="s">
+        <v>246</v>
       </c>
       <c r="D151" s="18"/>
-      <c r="E151" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="F151" s="18"/>
+      <c r="E151" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F151" s="6"/>
       <c r="G151" s="21"/>
       <c r="H151" s="13"/>
       <c r="I151" s="10">
-        <v>220.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B152" s="8" t="s">
+      <c r="A152" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B152" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="D152" s="6"/>
-      <c r="E152" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
+      </c>
+      <c r="D152" s="18"/>
+      <c r="E152" s="11" t="s">
+        <v>249</v>
       </c>
       <c r="F152" s="6"/>
       <c r="G152" s="21"/>
       <c r="H152" s="13"/>
       <c r="I152" s="10">
-        <v>250.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B153" s="23"/>
-      <c r="C153" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="D153" s="6"/>
-      <c r="E153" s="12" t="s">
-        <v>253</v>
+      <c r="A153" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D153" s="18"/>
+      <c r="E153" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="21"/>
       <c r="H153" s="13"/>
-      <c r="I153" s="13">
-        <v>20.0</v>
+      <c r="I153" s="10">
+        <v>210.0</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="6" t="s">
+      <c r="A154" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D154" s="18"/>
+      <c r="E154" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="F154" s="18"/>
+      <c r="G154" s="21"/>
+      <c r="H154" s="13"/>
+      <c r="I154" s="10">
+        <v>220.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D155" s="6"/>
+      <c r="E155" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="F155" s="6"/>
+      <c r="G155" s="21"/>
+      <c r="H155" s="13"/>
+      <c r="I155" s="10">
+        <v>250.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B154" s="23"/>
-      <c r="C154" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D154" s="6"/>
-      <c r="E154" s="8" t="s">
+      <c r="B156" s="23"/>
+      <c r="C156" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="F154" s="6"/>
-      <c r="G154" s="21"/>
-      <c r="H154" s="10"/>
-      <c r="I154" s="10">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B155" s="6"/>
-      <c r="C155" s="11" t="s">
+      <c r="D156" s="6"/>
+      <c r="E156" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="D155" s="18"/>
-      <c r="E155" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="F155" s="18"/>
-      <c r="G155" s="21"/>
-      <c r="H155" s="10"/>
-      <c r="I155" s="10">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B156" s="6"/>
-      <c r="C156" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="D156" s="18"/>
-      <c r="E156" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="F156" s="18"/>
+      <c r="F156" s="6"/>
       <c r="G156" s="21"/>
-      <c r="H156" s="10"/>
-      <c r="I156" s="10">
+      <c r="H156" s="13"/>
+      <c r="I156" s="13">
         <v>20.0</v>
       </c>
     </row>
@@ -4455,38 +4446,38 @@
       <c r="A157" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B157" s="6"/>
+      <c r="B157" s="23"/>
       <c r="C157" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D157" s="6"/>
+      <c r="E157" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="F157" s="6"/>
+      <c r="G157" s="21"/>
+      <c r="H157" s="10"/>
+      <c r="I157" s="10">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B158" s="6"/>
+      <c r="C158" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D158" s="18"/>
+      <c r="E158" s="25" t="s">
         <v>260</v>
-      </c>
-      <c r="D157" s="18"/>
-      <c r="E157" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="F157" s="18"/>
-      <c r="G157" s="21"/>
-      <c r="H157" s="13"/>
-      <c r="I157" s="10">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B158" s="6"/>
-      <c r="C158" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="D158" s="18"/>
-      <c r="E158" s="8" t="s">
-        <v>263</v>
       </c>
       <c r="F158" s="18"/>
       <c r="G158" s="21"/>
-      <c r="H158" s="13"/>
-      <c r="I158" s="13">
-        <v>30.0</v>
+      <c r="H158" s="10"/>
+      <c r="I158" s="10">
+        <v>20.0</v>
       </c>
     </row>
     <row r="159">
@@ -4495,16 +4486,16 @@
       </c>
       <c r="B159" s="6"/>
       <c r="C159" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D159" s="18"/>
       <c r="E159" s="8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F159" s="18"/>
       <c r="G159" s="21"/>
-      <c r="H159" s="13"/>
-      <c r="I159" s="13">
+      <c r="H159" s="10"/>
+      <c r="I159" s="10">
         <v>20.0</v>
       </c>
     </row>
@@ -4514,17 +4505,17 @@
       </c>
       <c r="B160" s="6"/>
       <c r="C160" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D160" s="18"/>
       <c r="E160" s="8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F160" s="18"/>
       <c r="G160" s="21"/>
       <c r="H160" s="13"/>
       <c r="I160" s="10">
-        <v>25.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="161">
@@ -4532,18 +4523,18 @@
         <v>19</v>
       </c>
       <c r="B161" s="6"/>
-      <c r="C161" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="D161" s="6"/>
-      <c r="E161" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="F161" s="6"/>
+      <c r="C161" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D161" s="18"/>
+      <c r="E161" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="F161" s="18"/>
       <c r="G161" s="21"/>
       <c r="H161" s="13"/>
-      <c r="I161" s="10">
-        <v>40.0</v>
+      <c r="I161" s="13">
+        <v>30.0</v>
       </c>
     </row>
     <row r="162">
@@ -4551,37 +4542,37 @@
         <v>19</v>
       </c>
       <c r="B162" s="6"/>
-      <c r="C162" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="D162" s="6"/>
-      <c r="E162" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="F162" s="6"/>
+      <c r="C162" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D162" s="18"/>
+      <c r="E162" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="F162" s="18"/>
       <c r="G162" s="21"/>
       <c r="H162" s="13"/>
-      <c r="I162" s="10">
-        <v>60.0</v>
+      <c r="I162" s="13">
+        <v>20.0</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="24" t="s">
+      <c r="A163" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B163" s="6"/>
-      <c r="C163" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="D163" s="6"/>
-      <c r="E163" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="F163" s="6"/>
+      <c r="C163" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D163" s="18"/>
+      <c r="E163" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F163" s="18"/>
       <c r="G163" s="21"/>
       <c r="H163" s="13"/>
       <c r="I163" s="10">
-        <v>150.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="164">
@@ -4589,18 +4580,18 @@
         <v>19</v>
       </c>
       <c r="B164" s="6"/>
-      <c r="C164" s="8" t="s">
-        <v>274</v>
+      <c r="C164" s="11" t="s">
+        <v>271</v>
       </c>
       <c r="D164" s="6"/>
-      <c r="E164" s="8" t="s">
-        <v>275</v>
+      <c r="E164" s="11" t="s">
+        <v>272</v>
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="21"/>
       <c r="H164" s="13"/>
-      <c r="I164" s="13">
-        <v>15.0</v>
+      <c r="I164" s="10">
+        <v>40.0</v>
       </c>
     </row>
     <row r="165">
@@ -4609,55 +4600,94 @@
       </c>
       <c r="B165" s="6"/>
       <c r="C165" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D165" s="6"/>
       <c r="E165" s="11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F165" s="6"/>
       <c r="G165" s="21"/>
       <c r="H165" s="13"/>
       <c r="I165" s="10">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B166" s="6"/>
+      <c r="C166" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D166" s="6"/>
+      <c r="E166" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="F166" s="6"/>
+      <c r="G166" s="21"/>
+      <c r="H166" s="13"/>
+      <c r="I166" s="10">
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B167" s="6"/>
+      <c r="C167" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D167" s="6"/>
+      <c r="E167" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="F167" s="6"/>
+      <c r="G167" s="21"/>
+      <c r="H167" s="13"/>
+      <c r="I167" s="13">
         <v>15.0</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="6" t="s">
+    <row r="168">
+      <c r="A168" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B166" s="18"/>
-      <c r="C166" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="D166" s="6"/>
-      <c r="E166" s="8" t="s">
+      <c r="B168" s="6"/>
+      <c r="C168" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="F166" s="6"/>
-      <c r="G166" s="6"/>
-      <c r="H166" s="13"/>
-      <c r="I166" s="13">
+      <c r="D168" s="6"/>
+      <c r="E168" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F168" s="6"/>
+      <c r="G168" s="21"/>
+      <c r="H168" s="13"/>
+      <c r="I168" s="10">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B169" s="18"/>
+      <c r="C169" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D169" s="6"/>
+      <c r="E169" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="13"/>
+      <c r="I169" s="13">
         <v>60.0</v>
       </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="26"/>
-      <c r="B167" s="26"/>
-      <c r="C167" s="26"/>
-      <c r="E167" s="26"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="26"/>
-      <c r="B168" s="26"/>
-      <c r="C168" s="26"/>
-      <c r="E168" s="26"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="26"/>
-      <c r="B169" s="26"/>
-      <c r="C169" s="26"/>
-      <c r="E169" s="26"/>
     </row>
     <row r="170">
       <c r="A170" s="26"/>
@@ -4680,10 +4710,28 @@
     <row r="173">
       <c r="A173" s="26"/>
       <c r="B173" s="26"/>
+      <c r="C173" s="26"/>
+      <c r="E173" s="26"/>
     </row>
     <row r="174">
       <c r="A174" s="26"/>
       <c r="B174" s="26"/>
+      <c r="C174" s="26"/>
+      <c r="E174" s="26"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="26"/>
+      <c r="B175" s="26"/>
+      <c r="C175" s="26"/>
+      <c r="E175" s="26"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="26"/>
+      <c r="B176" s="26"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="26"/>
+      <c r="B177" s="26"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="HzO0Fg93vMmzV50RzkVvBi9N5a/l/IdM3dwp0IPGhDo="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="5xs8Rz7+mh7IcYVRrrplF1xtBoFDSgPevrNaSYUUFqE="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="289">
   <si>
     <t>category</t>
   </si>
@@ -418,13 +418,31 @@
     <t>Mor Zest</t>
   </si>
   <si>
+    <t>Night &amp; Green</t>
+  </si>
+  <si>
+    <t>Pina Colada</t>
+  </si>
+  <si>
+    <t>Summer Brezze</t>
+  </si>
+  <si>
+    <t>Velvet Dream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iced Tea -Hibiskus Cold </t>
+  </si>
+  <si>
+    <t>Iced Tea- Blue  Butterfly Orange</t>
+  </si>
+  <si>
+    <t>Iced Tea- Mango Orange</t>
+  </si>
+  <si>
     <t>Churchill</t>
   </si>
   <si>
     <t>Bubble Tea</t>
-  </si>
-  <si>
-    <t>Summer Brezze</t>
   </si>
   <si>
     <t>Lemonade (HOMEMADE)</t>
@@ -3094,7 +3112,9 @@
         <v>9</v>
       </c>
       <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
+      <c r="C88" s="11" t="s">
+        <v>133</v>
+      </c>
       <c r="D88" s="18"/>
       <c r="E88" s="8"/>
       <c r="F88" s="18"/>
@@ -3103,44 +3123,34 @@
       <c r="I88" s="10"/>
     </row>
     <row r="89">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B89" s="8"/>
-      <c r="C89" s="8" t="s">
-        <v>133</v>
+      <c r="C89" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="D89" s="18"/>
-      <c r="E89" s="8" t="s">
-        <v>133</v>
-      </c>
+      <c r="E89" s="8"/>
       <c r="F89" s="18"/>
       <c r="G89" s="13"/>
       <c r="H89" s="12"/>
-      <c r="I89" s="10">
-        <v>150.0</v>
-      </c>
+      <c r="I89" s="10"/>
     </row>
     <row r="90">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>134</v>
+      <c r="B90" s="8"/>
+      <c r="C90" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="D90" s="18"/>
-      <c r="E90" s="8" t="s">
-        <v>134</v>
-      </c>
+      <c r="E90" s="8"/>
       <c r="F90" s="18"/>
       <c r="G90" s="13"/>
       <c r="H90" s="12"/>
-      <c r="I90" s="10">
-        <v>125.0</v>
-      </c>
+      <c r="I90" s="10"/>
     </row>
     <row r="91">
       <c r="A91" s="11" t="s">
@@ -3148,403 +3158,389 @@
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D91" s="18"/>
-      <c r="E91" s="11" t="s">
-        <v>135</v>
-      </c>
+      <c r="E91" s="8"/>
       <c r="F91" s="18"/>
       <c r="G91" s="13"/>
       <c r="H91" s="12"/>
-      <c r="I91" s="10">
-        <v>150.0</v>
-      </c>
+      <c r="I91" s="10"/>
     </row>
     <row r="92">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B92" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>136</v>
+      <c r="B92" s="8"/>
+      <c r="C92" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="D92" s="18"/>
-      <c r="E92" s="8" t="s">
-        <v>137</v>
-      </c>
+      <c r="E92" s="8"/>
       <c r="F92" s="18"/>
       <c r="G92" s="13"/>
       <c r="H92" s="12"/>
-      <c r="I92" s="9">
-        <v>110.0</v>
-      </c>
+      <c r="I92" s="10"/>
     </row>
     <row r="93">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B93" s="8"/>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="11" t="s">
         <v>138</v>
       </c>
       <c r="D93" s="18"/>
-      <c r="E93" s="8" t="s">
-        <v>139</v>
-      </c>
+      <c r="E93" s="8"/>
       <c r="F93" s="18"/>
       <c r="G93" s="13"/>
       <c r="H93" s="12"/>
-      <c r="I93" s="9">
-        <v>110.0</v>
-      </c>
+      <c r="I93" s="10"/>
     </row>
     <row r="94">
-      <c r="A94" s="8" t="s">
+      <c r="A94" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B94" s="8"/>
-      <c r="C94" s="20" t="s">
-        <v>140</v>
+      <c r="C94" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="D94" s="18"/>
-      <c r="E94" s="8" t="s">
-        <v>140</v>
-      </c>
+      <c r="E94" s="8"/>
       <c r="F94" s="18"/>
       <c r="G94" s="13"/>
       <c r="H94" s="12"/>
-      <c r="I94" s="9">
-        <v>150.0</v>
-      </c>
+      <c r="I94" s="10"/>
     </row>
     <row r="95">
-      <c r="A95" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12" t="s">
-        <v>141</v>
+      <c r="A95" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="D95" s="18"/>
-      <c r="E95" s="12" t="s">
-        <v>142</v>
+      <c r="E95" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="F95" s="18"/>
       <c r="G95" s="13"/>
-      <c r="H95" s="9"/>
+      <c r="H95" s="12"/>
       <c r="I95" s="10">
-        <v>80.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D96" s="18"/>
       <c r="E96" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F96" s="18"/>
       <c r="G96" s="13"/>
       <c r="H96" s="12"/>
       <c r="I96" s="10">
-        <v>85.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D97" s="18"/>
       <c r="E97" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F97" s="18"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="10">
-        <v>85.0</v>
+      <c r="G97" s="13"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="9">
+        <v>110.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B98" s="8"/>
       <c r="C98" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D98" s="18"/>
       <c r="E98" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F98" s="18"/>
       <c r="G98" s="13"/>
       <c r="H98" s="12"/>
-      <c r="I98" s="10">
-        <v>70.0</v>
+      <c r="I98" s="9">
+        <v>110.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B99" s="8"/>
-      <c r="C99" s="8" t="s">
-        <v>147</v>
+      <c r="C99" s="20" t="s">
+        <v>146</v>
       </c>
       <c r="D99" s="18"/>
       <c r="E99" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F99" s="18"/>
       <c r="G99" s="13"/>
       <c r="H99" s="12"/>
-      <c r="I99" s="10">
-        <v>70.0</v>
+      <c r="I99" s="9">
+        <v>150.0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8" t="s">
-        <v>149</v>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="D100" s="18"/>
-      <c r="E100" s="8" t="s">
-        <v>150</v>
+      <c r="E100" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="F100" s="18"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="9"/>
       <c r="I100" s="10">
-        <v>70.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="8"/>
+      <c r="B101" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C101" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D101" s="18"/>
       <c r="E101" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F101" s="18"/>
-      <c r="G101" s="12"/>
+      <c r="G101" s="13"/>
       <c r="H101" s="12"/>
       <c r="I101" s="10">
-        <v>60.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B102" s="8"/>
+      <c r="B102" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C102" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D102" s="18"/>
       <c r="E102" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F102" s="18"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="10">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D103" s="18"/>
+      <c r="E103" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F103" s="18"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="10">
+        <v>70.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F102" s="6"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="10">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B103" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C103" s="12" t="s">
+      <c r="D104" s="18"/>
+      <c r="E104" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D103" s="18"/>
-      <c r="E103" s="12" t="s">
+      <c r="F104" s="18"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="10">
+        <v>70.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="F103" s="18"/>
-      <c r="G103" s="12"/>
-      <c r="H103" s="12"/>
-      <c r="I103" s="9">
-        <v>185.0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B104" s="6"/>
-      <c r="C104" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D104" s="16"/>
-      <c r="E104" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F104" s="18"/>
-      <c r="G104" s="12"/>
-      <c r="H104" s="12"/>
-      <c r="I104" s="9">
-        <v>185.0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="D105" s="18"/>
       <c r="E105" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F105" s="18"/>
       <c r="G105" s="12"/>
       <c r="H105" s="12"/>
-      <c r="I105" s="9">
-        <v>185.0</v>
+      <c r="I105" s="10">
+        <v>70.0</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B106" s="6"/>
+      <c r="A106" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" s="8"/>
       <c r="C106" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D106" s="18"/>
       <c r="E106" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F106" s="18"/>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
-      <c r="I106" s="9">
-        <v>185.0</v>
+      <c r="I106" s="10">
+        <v>60.0</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B107" s="6"/>
+      <c r="A107" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" s="8"/>
       <c r="C107" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D107" s="18"/>
       <c r="E107" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F107" s="18"/>
+        <v>159</v>
+      </c>
+      <c r="F107" s="6"/>
       <c r="G107" s="12"/>
       <c r="H107" s="12"/>
-      <c r="I107" s="9">
-        <v>185.0</v>
+      <c r="I107" s="10">
+        <v>50.0</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="24" t="s">
+      <c r="A108" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="11" t="s">
-        <v>162</v>
+      <c r="B108" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="D108" s="18"/>
-      <c r="E108" s="11" t="s">
-        <v>163</v>
+      <c r="E108" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="F108" s="18"/>
       <c r="G108" s="12"/>
       <c r="H108" s="12"/>
       <c r="I108" s="9">
-        <v>220.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="24" t="s">
+      <c r="A109" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B109" s="6"/>
-      <c r="C109" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D109" s="18"/>
-      <c r="E109" s="11" t="s">
-        <v>165</v>
+      <c r="C109" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D109" s="16"/>
+      <c r="E109" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="F109" s="18"/>
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
       <c r="I109" s="9">
-        <v>240.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="24" t="s">
+      <c r="A110" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B110" s="6"/>
-      <c r="C110" s="11" t="s">
-        <v>166</v>
+      <c r="B110" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="D110" s="18"/>
-      <c r="E110" s="11" t="s">
-        <v>167</v>
+      <c r="E110" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="F110" s="18"/>
       <c r="G110" s="12"/>
       <c r="H110" s="12"/>
       <c r="I110" s="9">
-        <v>170.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="24" t="s">
+      <c r="A111" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B111" s="6"/>
-      <c r="C111" s="11" t="s">
-        <v>168</v>
+      <c r="C111" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="D111" s="18"/>
-      <c r="E111" s="11" t="s">
-        <v>169</v>
+      <c r="E111" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="F111" s="18"/>
       <c r="G111" s="12"/>
@@ -3554,153 +3550,151 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="24" t="s">
+      <c r="A112" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B112" s="6"/>
-      <c r="C112" s="11" t="s">
-        <v>170</v>
+      <c r="C112" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="D112" s="18"/>
-      <c r="E112" s="11" t="s">
-        <v>171</v>
+      <c r="E112" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="F112" s="18"/>
       <c r="G112" s="12"/>
       <c r="H112" s="12"/>
       <c r="I112" s="9">
-        <v>110.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B113" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C113" s="12" t="s">
+      <c r="A113" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113" s="6"/>
+      <c r="C113" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D113" s="18"/>
+      <c r="E113" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F113" s="18"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="9">
+        <v>220.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" s="6"/>
+      <c r="C114" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D114" s="18"/>
+      <c r="E114" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F114" s="18"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="9">
+        <v>240.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115" s="6"/>
+      <c r="C115" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D113" s="18"/>
-      <c r="E113" s="8" t="s">
+      <c r="D115" s="18"/>
+      <c r="E115" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="F113" s="18"/>
-      <c r="G113" s="21"/>
-      <c r="H113" s="13"/>
-      <c r="I113" s="10">
-        <v>215.0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B114" s="23"/>
-      <c r="C114" s="12" t="s">
+      <c r="F115" s="18"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="9">
+        <v>170.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116" s="6"/>
+      <c r="C116" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D114" s="18"/>
-      <c r="E114" s="12" t="s">
+      <c r="D116" s="18"/>
+      <c r="E116" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="F114" s="18"/>
-      <c r="G114" s="21"/>
-      <c r="H114" s="13"/>
-      <c r="I114" s="10">
-        <v>230.0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B115" s="23"/>
-      <c r="C115" s="12" t="s">
+      <c r="F116" s="18"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="9">
+        <v>185.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" s="6"/>
+      <c r="C117" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="D115" s="18"/>
-      <c r="E115" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F115" s="18"/>
-      <c r="G115" s="21"/>
-      <c r="H115" s="13"/>
-      <c r="I115" s="10">
-        <v>230.0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B116" s="6"/>
-      <c r="C116" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D116" s="18"/>
-      <c r="E116" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="F116" s="6"/>
-      <c r="G116" s="21"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="10">
-        <v>215.0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B117" s="6"/>
-      <c r="C117" s="8" t="s">
-        <v>180</v>
       </c>
       <c r="D117" s="18"/>
       <c r="E117" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="F117" s="6"/>
-      <c r="G117" s="21"/>
-      <c r="H117" s="13"/>
-      <c r="I117" s="10">
-        <v>215.0</v>
+        <v>177</v>
+      </c>
+      <c r="F117" s="18"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="9">
+        <v>110.0</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="6" t="s">
+      <c r="A118" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B118" s="6"/>
-      <c r="C118" s="8" t="s">
-        <v>182</v>
+      <c r="B118" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="D118" s="18"/>
-      <c r="E118" s="11" t="s">
-        <v>183</v>
+      <c r="E118" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="F118" s="18"/>
       <c r="G118" s="21"/>
       <c r="H118" s="13"/>
       <c r="I118" s="10">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B119" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>184</v>
+      <c r="B119" s="23"/>
+      <c r="C119" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="D119" s="18"/>
-      <c r="E119" s="11" t="s">
-        <v>185</v>
+      <c r="E119" s="12" t="s">
+        <v>181</v>
       </c>
       <c r="F119" s="18"/>
       <c r="G119" s="21"/>
@@ -3713,21 +3707,19 @@
       <c r="A120" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B120" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>186</v>
+      <c r="B120" s="23"/>
+      <c r="C120" s="12" t="s">
+        <v>182</v>
       </c>
       <c r="D120" s="18"/>
-      <c r="E120" s="8" t="s">
-        <v>187</v>
+      <c r="E120" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="F120" s="18"/>
       <c r="G120" s="21"/>
       <c r="H120" s="13"/>
       <c r="I120" s="10">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="121">
@@ -3736,17 +3728,17 @@
       </c>
       <c r="B121" s="6"/>
       <c r="C121" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D121" s="18"/>
-      <c r="E121" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="F121" s="18"/>
+      <c r="E121" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F121" s="6"/>
       <c r="G121" s="21"/>
       <c r="H121" s="13"/>
       <c r="I121" s="10">
-        <v>220.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="122">
@@ -3755,17 +3747,17 @@
       </c>
       <c r="B122" s="6"/>
       <c r="C122" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D122" s="18"/>
       <c r="E122" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="F122" s="18"/>
+        <v>187</v>
+      </c>
+      <c r="F122" s="6"/>
       <c r="G122" s="21"/>
       <c r="H122" s="13"/>
       <c r="I122" s="10">
-        <v>220.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="123">
@@ -3774,13 +3766,13 @@
       </c>
       <c r="B123" s="6"/>
       <c r="C123" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D123" s="6"/>
+        <v>188</v>
+      </c>
+      <c r="D123" s="18"/>
       <c r="E123" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="F123" s="6"/>
+        <v>189</v>
+      </c>
+      <c r="F123" s="18"/>
       <c r="G123" s="21"/>
       <c r="H123" s="13"/>
       <c r="I123" s="10">
@@ -3791,38 +3783,42 @@
       <c r="A124" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B124" s="6"/>
+      <c r="B124" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C124" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D124" s="6"/>
-      <c r="E124" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="F124" s="6"/>
+        <v>190</v>
+      </c>
+      <c r="D124" s="18"/>
+      <c r="E124" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F124" s="18"/>
       <c r="G124" s="21"/>
       <c r="H124" s="13"/>
       <c r="I124" s="10">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B125" s="6"/>
+      <c r="B125" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C125" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D125" s="6"/>
+        <v>192</v>
+      </c>
+      <c r="D125" s="18"/>
       <c r="E125" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F125" s="6"/>
+        <v>193</v>
+      </c>
+      <c r="F125" s="18"/>
       <c r="G125" s="21"/>
       <c r="H125" s="13"/>
       <c r="I125" s="10">
-        <v>215.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="126">
@@ -3831,13 +3827,13 @@
       </c>
       <c r="B126" s="6"/>
       <c r="C126" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D126" s="6"/>
-      <c r="E126" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="F126" s="6"/>
+        <v>194</v>
+      </c>
+      <c r="D126" s="18"/>
+      <c r="E126" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F126" s="18"/>
       <c r="G126" s="21"/>
       <c r="H126" s="13"/>
       <c r="I126" s="10">
@@ -3850,17 +3846,17 @@
       </c>
       <c r="B127" s="6"/>
       <c r="C127" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D127" s="6"/>
+        <v>196</v>
+      </c>
+      <c r="D127" s="18"/>
       <c r="E127" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="F127" s="6"/>
+        <v>197</v>
+      </c>
+      <c r="F127" s="18"/>
       <c r="G127" s="21"/>
       <c r="H127" s="13"/>
       <c r="I127" s="10">
-        <v>210.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="128">
@@ -3869,34 +3865,32 @@
       </c>
       <c r="B128" s="6"/>
       <c r="C128" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D128" s="6"/>
       <c r="E128" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F128" s="6"/>
       <c r="G128" s="21"/>
       <c r="H128" s="13"/>
       <c r="I128" s="10">
-        <v>80.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B129" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B129" s="6"/>
       <c r="C129" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D129" s="18"/>
+        <v>200</v>
+      </c>
+      <c r="D129" s="6"/>
       <c r="E129" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F129" s="18"/>
+        <v>201</v>
+      </c>
+      <c r="F129" s="6"/>
       <c r="G129" s="21"/>
       <c r="H129" s="13"/>
       <c r="I129" s="10">
@@ -3909,17 +3903,17 @@
       </c>
       <c r="B130" s="6"/>
       <c r="C130" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D130" s="6"/>
       <c r="E130" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F130" s="6"/>
       <c r="G130" s="21"/>
       <c r="H130" s="13"/>
       <c r="I130" s="10">
-        <v>160.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="131">
@@ -3928,38 +3922,36 @@
       </c>
       <c r="B131" s="6"/>
       <c r="C131" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D131" s="6"/>
       <c r="E131" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="21"/>
       <c r="H131" s="13"/>
       <c r="I131" s="10">
-        <v>70.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B132" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B132" s="6"/>
       <c r="C132" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D132" s="18"/>
+        <v>206</v>
+      </c>
+      <c r="D132" s="6"/>
       <c r="E132" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="F132" s="18"/>
+        <v>207</v>
+      </c>
+      <c r="F132" s="6"/>
       <c r="G132" s="21"/>
       <c r="H132" s="13"/>
       <c r="I132" s="10">
-        <v>220.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="133">
@@ -3968,17 +3960,17 @@
       </c>
       <c r="B133" s="6"/>
       <c r="C133" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D133" s="18"/>
-      <c r="E133" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="F133" s="18"/>
+        <v>208</v>
+      </c>
+      <c r="D133" s="6"/>
+      <c r="E133" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="F133" s="6"/>
       <c r="G133" s="21"/>
       <c r="H133" s="13"/>
       <c r="I133" s="10">
-        <v>220.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="134">
@@ -3989,13 +3981,13 @@
         <v>27</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D134" s="6"/>
+        <v>210</v>
+      </c>
+      <c r="D134" s="18"/>
       <c r="E134" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="F134" s="6"/>
+        <v>211</v>
+      </c>
+      <c r="F134" s="18"/>
       <c r="G134" s="21"/>
       <c r="H134" s="13"/>
       <c r="I134" s="10">
@@ -4008,17 +4000,17 @@
       </c>
       <c r="B135" s="6"/>
       <c r="C135" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D135" s="6"/>
       <c r="E135" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="21"/>
       <c r="H135" s="13"/>
       <c r="I135" s="10">
-        <v>185.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="136">
@@ -4027,17 +4019,17 @@
       </c>
       <c r="B136" s="6"/>
       <c r="C136" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D136" s="18"/>
+        <v>214</v>
+      </c>
+      <c r="D136" s="6"/>
       <c r="E136" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="F136" s="18"/>
+        <v>215</v>
+      </c>
+      <c r="F136" s="6"/>
       <c r="G136" s="21"/>
       <c r="H136" s="13"/>
       <c r="I136" s="10">
-        <v>185.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="137">
@@ -4048,17 +4040,17 @@
         <v>27</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D137" s="18"/>
-      <c r="E137" s="8" t="s">
-        <v>219</v>
+      <c r="E137" s="11" t="s">
+        <v>217</v>
       </c>
       <c r="F137" s="18"/>
       <c r="G137" s="21"/>
       <c r="H137" s="13"/>
       <c r="I137" s="10">
-        <v>185.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="138">
@@ -4067,36 +4059,38 @@
       </c>
       <c r="B138" s="6"/>
       <c r="C138" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D138" s="6"/>
+        <v>218</v>
+      </c>
+      <c r="D138" s="18"/>
       <c r="E138" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F138" s="6"/>
+        <v>219</v>
+      </c>
+      <c r="F138" s="18"/>
       <c r="G138" s="21"/>
       <c r="H138" s="13"/>
       <c r="I138" s="10">
-        <v>185.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B139" s="6"/>
+      <c r="B139" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C139" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D139" s="6"/>
       <c r="E139" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F139" s="6"/>
       <c r="G139" s="21"/>
       <c r="H139" s="13"/>
       <c r="I139" s="10">
-        <v>200.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="140">
@@ -4105,11 +4099,11 @@
       </c>
       <c r="B140" s="6"/>
       <c r="C140" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D140" s="6"/>
       <c r="E140" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F140" s="6"/>
       <c r="G140" s="21"/>
@@ -4124,455 +4118,457 @@
       </c>
       <c r="B141" s="6"/>
       <c r="C141" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D141" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="D141" s="18"/>
       <c r="E141" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="F141" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="F141" s="18"/>
       <c r="G141" s="21"/>
       <c r="H141" s="13"/>
       <c r="I141" s="10">
-        <v>80.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B142" s="23"/>
-      <c r="C142" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D142" s="6"/>
-      <c r="E142" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="F142" s="6"/>
+      <c r="A142" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D142" s="18"/>
+      <c r="E142" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F142" s="18"/>
       <c r="G142" s="21"/>
       <c r="H142" s="13"/>
       <c r="I142" s="10">
-        <v>120.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B143" s="6"/>
       <c r="C143" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D143" s="18"/>
+        <v>226</v>
+      </c>
+      <c r="D143" s="6"/>
       <c r="E143" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="21"/>
       <c r="H143" s="13"/>
       <c r="I143" s="10">
-        <v>130.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B144" s="6"/>
       <c r="C144" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D144" s="18"/>
+        <v>228</v>
+      </c>
+      <c r="D144" s="6"/>
       <c r="E144" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F144" s="18"/>
+        <v>229</v>
+      </c>
+      <c r="F144" s="6"/>
       <c r="G144" s="21"/>
       <c r="H144" s="13"/>
       <c r="I144" s="10">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B145" s="6"/>
       <c r="C145" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D145" s="6"/>
       <c r="E145" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="21"/>
       <c r="H145" s="13"/>
       <c r="I145" s="10">
-        <v>180.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B146" s="6"/>
       <c r="C146" s="8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D146" s="6"/>
-      <c r="E146" s="11" t="s">
-        <v>237</v>
+      <c r="E146" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="21"/>
       <c r="H146" s="13"/>
       <c r="I146" s="10">
-        <v>110.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B147" s="23" t="s">
-        <v>27</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B147" s="23"/>
       <c r="C147" s="12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D147" s="6"/>
       <c r="E147" s="12" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="21"/>
       <c r="H147" s="13"/>
       <c r="I147" s="10">
-        <v>130.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B148" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C148" s="8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D148" s="18"/>
       <c r="E148" s="8" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="21"/>
       <c r="H148" s="13"/>
       <c r="I148" s="10">
-        <v>140.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B149" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C149" s="8" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D149" s="18"/>
       <c r="E149" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="F149" s="6"/>
+        <v>239</v>
+      </c>
+      <c r="F149" s="18"/>
       <c r="G149" s="21"/>
       <c r="H149" s="13"/>
       <c r="I149" s="10">
-        <v>70.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B150" s="23" t="s">
+      <c r="A150" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B150" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C150" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="D150" s="18"/>
-      <c r="E150" s="9" t="s">
-        <v>245</v>
+      <c r="C150" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D150" s="6"/>
+      <c r="E150" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="F150" s="6"/>
       <c r="G150" s="21"/>
       <c r="H150" s="13"/>
       <c r="I150" s="10">
-        <v>260.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B151" s="6"/>
       <c r="C151" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D151" s="18"/>
+        <v>242</v>
+      </c>
+      <c r="D151" s="6"/>
       <c r="E151" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F151" s="6"/>
       <c r="G151" s="21"/>
       <c r="H151" s="13"/>
       <c r="I151" s="10">
-        <v>210.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B152" s="6" t="s">
+      <c r="A152" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B152" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C152" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="D152" s="18"/>
-      <c r="E152" s="11" t="s">
-        <v>249</v>
+      <c r="C152" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D152" s="6"/>
+      <c r="E152" s="12" t="s">
+        <v>245</v>
       </c>
       <c r="F152" s="6"/>
       <c r="G152" s="21"/>
       <c r="H152" s="13"/>
       <c r="I152" s="10">
-        <v>210.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B153" s="6"/>
       <c r="C153" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D153" s="18"/>
       <c r="E153" s="8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="21"/>
       <c r="H153" s="13"/>
       <c r="I153" s="10">
-        <v>210.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B154" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C154" s="12" t="s">
-        <v>252</v>
+      <c r="A154" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B154" s="6"/>
+      <c r="C154" s="8" t="s">
+        <v>248</v>
       </c>
       <c r="D154" s="18"/>
-      <c r="E154" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="F154" s="18"/>
+      <c r="E154" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F154" s="6"/>
       <c r="G154" s="21"/>
       <c r="H154" s="13"/>
       <c r="I154" s="10">
-        <v>220.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B155" s="8" t="s">
+      <c r="A155" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B155" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C155" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D155" s="6"/>
-      <c r="E155" s="8" t="s">
-        <v>254</v>
+      <c r="C155" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D155" s="18"/>
+      <c r="E155" s="9" t="s">
+        <v>251</v>
       </c>
       <c r="F155" s="6"/>
       <c r="G155" s="21"/>
       <c r="H155" s="13"/>
       <c r="I155" s="10">
-        <v>250.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B156" s="23"/>
-      <c r="C156" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D156" s="6"/>
-      <c r="E156" s="12" t="s">
-        <v>256</v>
+      <c r="A156" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D156" s="18"/>
+      <c r="E156" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="F156" s="6"/>
       <c r="G156" s="21"/>
       <c r="H156" s="13"/>
-      <c r="I156" s="13">
-        <v>20.0</v>
+      <c r="I156" s="10">
+        <v>210.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B157" s="23"/>
+        <v>17</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C157" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="D157" s="6"/>
-      <c r="E157" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
+      </c>
+      <c r="D157" s="18"/>
+      <c r="E157" s="11" t="s">
+        <v>255</v>
       </c>
       <c r="F157" s="6"/>
       <c r="G157" s="21"/>
-      <c r="H157" s="10"/>
+      <c r="H157" s="13"/>
       <c r="I157" s="10">
-        <v>40.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B158" s="6"/>
-      <c r="C158" s="11" t="s">
+      <c r="A158" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D158" s="18"/>
+      <c r="E158" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="F158" s="6"/>
+      <c r="G158" s="21"/>
+      <c r="H158" s="13"/>
+      <c r="I158" s="10">
+        <v>210.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D159" s="18"/>
+      <c r="E159" s="12" t="s">
         <v>259</v>
-      </c>
-      <c r="D158" s="18"/>
-      <c r="E158" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="F158" s="18"/>
-      <c r="G158" s="21"/>
-      <c r="H158" s="10"/>
-      <c r="I158" s="10">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B159" s="6"/>
-      <c r="C159" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D159" s="18"/>
-      <c r="E159" s="8" t="s">
-        <v>262</v>
       </c>
       <c r="F159" s="18"/>
       <c r="G159" s="21"/>
-      <c r="H159" s="10"/>
+      <c r="H159" s="13"/>
       <c r="I159" s="10">
-        <v>20.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B160" s="6"/>
+      <c r="A160" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C160" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="D160" s="18"/>
+        <v>260</v>
+      </c>
+      <c r="D160" s="6"/>
       <c r="E160" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F160" s="18"/>
+        <v>260</v>
+      </c>
+      <c r="F160" s="6"/>
       <c r="G160" s="21"/>
       <c r="H160" s="13"/>
       <c r="I160" s="10">
-        <v>50.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="6" t="s">
+      <c r="A161" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B161" s="6"/>
-      <c r="C161" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D161" s="18"/>
-      <c r="E161" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F161" s="18"/>
+      <c r="B161" s="23"/>
+      <c r="C161" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D161" s="6"/>
+      <c r="E161" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F161" s="6"/>
       <c r="G161" s="21"/>
       <c r="H161" s="13"/>
       <c r="I161" s="13">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B162" s="6"/>
+      <c r="B162" s="23"/>
       <c r="C162" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="D162" s="18"/>
+        <v>263</v>
+      </c>
+      <c r="D162" s="6"/>
       <c r="E162" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="F162" s="18"/>
+        <v>264</v>
+      </c>
+      <c r="F162" s="6"/>
       <c r="G162" s="21"/>
-      <c r="H162" s="13"/>
-      <c r="I162" s="13">
-        <v>20.0</v>
+      <c r="H162" s="10"/>
+      <c r="I162" s="10">
+        <v>40.0</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="6" t="s">
+      <c r="A163" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B163" s="6"/>
-      <c r="C163" s="8" t="s">
-        <v>269</v>
+      <c r="C163" s="11" t="s">
+        <v>265</v>
       </c>
       <c r="D163" s="18"/>
-      <c r="E163" s="8" t="s">
-        <v>270</v>
+      <c r="E163" s="25" t="s">
+        <v>266</v>
       </c>
       <c r="F163" s="18"/>
       <c r="G163" s="21"/>
-      <c r="H163" s="13"/>
+      <c r="H163" s="10"/>
       <c r="I163" s="10">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="164">
@@ -4580,18 +4576,18 @@
         <v>19</v>
       </c>
       <c r="B164" s="6"/>
-      <c r="C164" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="D164" s="6"/>
-      <c r="E164" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="F164" s="6"/>
+      <c r="C164" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D164" s="18"/>
+      <c r="E164" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="F164" s="18"/>
       <c r="G164" s="21"/>
-      <c r="H164" s="13"/>
+      <c r="H164" s="10"/>
       <c r="I164" s="10">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="165">
@@ -4599,37 +4595,37 @@
         <v>19</v>
       </c>
       <c r="B165" s="6"/>
-      <c r="C165" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="D165" s="6"/>
-      <c r="E165" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="F165" s="6"/>
+      <c r="C165" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D165" s="18"/>
+      <c r="E165" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F165" s="18"/>
       <c r="G165" s="21"/>
       <c r="H165" s="13"/>
       <c r="I165" s="10">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="24" t="s">
+      <c r="A166" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B166" s="6"/>
-      <c r="C166" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="D166" s="6"/>
-      <c r="E166" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="F166" s="6"/>
+      <c r="C166" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D166" s="18"/>
+      <c r="E166" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F166" s="18"/>
       <c r="G166" s="21"/>
       <c r="H166" s="13"/>
-      <c r="I166" s="10">
-        <v>150.0</v>
+      <c r="I166" s="13">
+        <v>30.0</v>
       </c>
     </row>
     <row r="167">
@@ -4638,17 +4634,17 @@
       </c>
       <c r="B167" s="6"/>
       <c r="C167" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="D167" s="6"/>
+        <v>273</v>
+      </c>
+      <c r="D167" s="18"/>
       <c r="E167" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="F167" s="6"/>
+        <v>274</v>
+      </c>
+      <c r="F167" s="18"/>
       <c r="G167" s="21"/>
       <c r="H167" s="13"/>
       <c r="I167" s="13">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="168">
@@ -4656,68 +4652,133 @@
         <v>19</v>
       </c>
       <c r="B168" s="6"/>
-      <c r="C168" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="D168" s="6"/>
-      <c r="E168" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="F168" s="6"/>
+      <c r="C168" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D168" s="18"/>
+      <c r="E168" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="F168" s="18"/>
       <c r="G168" s="21"/>
       <c r="H168" s="13"/>
       <c r="I168" s="10">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B169" s="18"/>
-      <c r="C169" s="8" t="s">
+      <c r="B169" s="6"/>
+      <c r="C169" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D169" s="6"/>
+      <c r="E169" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="F169" s="6"/>
+      <c r="G169" s="21"/>
+      <c r="H169" s="13"/>
+      <c r="I169" s="10">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B170" s="6"/>
+      <c r="C170" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D170" s="6"/>
+      <c r="E170" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F170" s="6"/>
+      <c r="G170" s="21"/>
+      <c r="H170" s="13"/>
+      <c r="I170" s="10">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B171" s="6"/>
+      <c r="C171" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="D169" s="6"/>
-      <c r="E169" s="8" t="s">
+      <c r="D171" s="6"/>
+      <c r="E171" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="F169" s="6"/>
-      <c r="G169" s="6"/>
-      <c r="H169" s="13"/>
-      <c r="I169" s="13">
+      <c r="F171" s="6"/>
+      <c r="G171" s="21"/>
+      <c r="H171" s="13"/>
+      <c r="I171" s="10">
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B172" s="6"/>
+      <c r="C172" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D172" s="6"/>
+      <c r="E172" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="F172" s="6"/>
+      <c r="G172" s="21"/>
+      <c r="H172" s="13"/>
+      <c r="I172" s="13">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B173" s="6"/>
+      <c r="C173" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D173" s="6"/>
+      <c r="E173" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="F173" s="6"/>
+      <c r="G173" s="21"/>
+      <c r="H173" s="13"/>
+      <c r="I173" s="10">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B174" s="18"/>
+      <c r="C174" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D174" s="6"/>
+      <c r="E174" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="13"/>
+      <c r="I174" s="13">
         <v>60.0</v>
       </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="26"/>
-      <c r="B170" s="26"/>
-      <c r="C170" s="26"/>
-      <c r="E170" s="26"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="26"/>
-      <c r="B171" s="26"/>
-      <c r="C171" s="26"/>
-      <c r="E171" s="26"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="26"/>
-      <c r="B172" s="26"/>
-      <c r="C172" s="26"/>
-      <c r="E172" s="26"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="26"/>
-      <c r="B173" s="26"/>
-      <c r="C173" s="26"/>
-      <c r="E173" s="26"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="26"/>
-      <c r="B174" s="26"/>
-      <c r="C174" s="26"/>
-      <c r="E174" s="26"/>
     </row>
     <row r="175">
       <c r="A175" s="26"/>
@@ -4728,10 +4789,40 @@
     <row r="176">
       <c r="A176" s="26"/>
       <c r="B176" s="26"/>
+      <c r="C176" s="26"/>
+      <c r="E176" s="26"/>
     </row>
     <row r="177">
       <c r="A177" s="26"/>
       <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
+      <c r="E177" s="26"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="26"/>
+      <c r="B178" s="26"/>
+      <c r="C178" s="26"/>
+      <c r="E178" s="26"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="26"/>
+      <c r="B179" s="26"/>
+      <c r="C179" s="26"/>
+      <c r="E179" s="26"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="26"/>
+      <c r="B180" s="26"/>
+      <c r="C180" s="26"/>
+      <c r="E180" s="26"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="26"/>
+      <c r="B181" s="26"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="26"/>
+      <c r="B182" s="26"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="5xs8Rz7+mh7IcYVRrrplF1xtBoFDSgPevrNaSYUUFqE="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="MDVK09b4RjR3a92pCIBCSnQ/2SqoeIyTwC5qL+axLHw="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="278">
   <si>
     <t>category</t>
   </si>
@@ -400,15 +400,12 @@
     <t>Iced Chocolate</t>
   </si>
   <si>
-    <t>Iced Tea</t>
-  </si>
-  <si>
-    <t>Buzlu Çay / Iced Tea</t>
-  </si>
-  <si>
     <t>Blue Lagon</t>
   </si>
   <si>
+    <t>Bule Lagon</t>
+  </si>
+  <si>
     <t>Color Mix</t>
   </si>
   <si>
@@ -451,19 +448,13 @@
     <t>Limonata (EV YAPIMI)</t>
   </si>
   <si>
-    <t>Black Mulberry  (HOMEMADE)</t>
-  </si>
-  <si>
-    <t>Karadut (EV YAPIMI)</t>
-  </si>
-  <si>
     <t>Cool Lime</t>
   </si>
   <si>
-    <t>Coca Cola, Zero, Pepsi, Fanta, Sprite</t>
-  </si>
-  <si>
-    <t>Coca Kola, Zero, Pepsi, Fanta, Sprite</t>
+    <t>Coca Cola, Coca Cola Zero,  Fanta, Sprite</t>
+  </si>
+  <si>
+    <t>Coca Kola, Coca Cola Zero,  Fanta, Sprite</t>
   </si>
   <si>
     <t>Naren (Katkısız Meyve Suları)</t>
@@ -774,40 +765,16 @@
     <t>Kruvasan  (çikolatalı)</t>
   </si>
   <si>
-    <t>Croissant three cheese</t>
-  </si>
-  <si>
-    <t>Kruvasan Jumbo Üç Peynirli</t>
-  </si>
-  <si>
-    <t>Croissant with veal ham</t>
-  </si>
-  <si>
-    <t>Kruvasan  Peynir ve Dana Jambonlu</t>
-  </si>
-  <si>
-    <t>Cheese Pastry (piece)</t>
-  </si>
-  <si>
-    <t>Peynirli Börek (uzun-adet)</t>
+    <t>Cheese Pastry (short)</t>
+  </si>
+  <si>
+    <t>Peynirli Börek (kısa -adet)</t>
   </si>
   <si>
     <t>World of Roll Pastry (spinach+cheese / Three cheese / patato)</t>
   </si>
   <si>
     <t>Rulo Börek Dünyası (Ispanaklı+3 Peynirli / 3 Peynirli / Patatesli)</t>
-  </si>
-  <si>
-    <t>Meat and Pea Pastry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talaş  Böreği </t>
-  </si>
-  <si>
-    <t>Cheese and Dill Pastry (piece)</t>
-  </si>
-  <si>
-    <t>Peynirli Dereotlu Poğaça (adet)</t>
   </si>
   <si>
     <t>Breakfast Plate</t>
@@ -948,7 +915,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -1006,11 +973,6 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
@@ -1076,7 +1038,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1116,11 +1078,10 @@
     <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
@@ -1490,7 +1451,7 @@
     <col customWidth="1" min="1" max="1" width="51.11"/>
     <col customWidth="1" min="2" max="2" width="12.44"/>
     <col customWidth="1" min="3" max="3" width="52.56"/>
-    <col customWidth="1" min="4" max="4" width="23.44"/>
+    <col customWidth="1" min="4" max="4" width="12.56"/>
     <col customWidth="1" min="5" max="5" width="51.11"/>
     <col customWidth="1" min="6" max="6" width="13.56"/>
     <col customWidth="1" min="7" max="7" width="7.0"/>
@@ -3025,22 +2986,22 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B83" s="8"/>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="11" t="s">
         <v>127</v>
       </c>
       <c r="D83" s="18"/>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F83" s="22"/>
+      <c r="F83" s="18"/>
       <c r="G83" s="13"/>
       <c r="H83" s="12"/>
       <c r="I83" s="9">
-        <v>130.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="84">
@@ -3052,14 +3013,18 @@
         <v>129</v>
       </c>
       <c r="D84" s="18"/>
-      <c r="E84" s="8"/>
+      <c r="E84" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="F84" s="18"/>
       <c r="G84" s="13"/>
       <c r="H84" s="12"/>
-      <c r="I84" s="9"/>
+      <c r="I84" s="9">
+        <v>150.0</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B85" s="8"/>
@@ -3067,14 +3032,18 @@
         <v>130</v>
       </c>
       <c r="D85" s="18"/>
-      <c r="E85" s="8"/>
+      <c r="E85" s="11" t="s">
+        <v>130</v>
+      </c>
       <c r="F85" s="18"/>
       <c r="G85" s="13"/>
       <c r="H85" s="12"/>
-      <c r="I85" s="9"/>
+      <c r="I85" s="9">
+        <v>150.0</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B86" s="8"/>
@@ -3082,13 +3051,13 @@
         <v>131</v>
       </c>
       <c r="D86" s="18"/>
-      <c r="E86" s="8" t="s">
-        <v>130</v>
+      <c r="E86" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="F86" s="18"/>
       <c r="G86" s="13"/>
       <c r="H86" s="12"/>
-      <c r="I86" s="9">
+      <c r="I86" s="10">
         <v>150.0</v>
       </c>
     </row>
@@ -3101,11 +3070,15 @@
         <v>132</v>
       </c>
       <c r="D87" s="18"/>
-      <c r="E87" s="8"/>
+      <c r="E87" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="F87" s="18"/>
       <c r="G87" s="13"/>
       <c r="H87" s="12"/>
-      <c r="I87" s="10"/>
+      <c r="I87" s="10">
+        <v>150.0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="11" t="s">
@@ -3116,11 +3089,15 @@
         <v>133</v>
       </c>
       <c r="D88" s="18"/>
-      <c r="E88" s="8"/>
+      <c r="E88" s="11" t="s">
+        <v>133</v>
+      </c>
       <c r="F88" s="18"/>
       <c r="G88" s="13"/>
       <c r="H88" s="12"/>
-      <c r="I88" s="10"/>
+      <c r="I88" s="10">
+        <v>150.0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="11" t="s">
@@ -3131,11 +3108,15 @@
         <v>134</v>
       </c>
       <c r="D89" s="18"/>
-      <c r="E89" s="8"/>
+      <c r="E89" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="F89" s="18"/>
       <c r="G89" s="13"/>
       <c r="H89" s="12"/>
-      <c r="I89" s="10"/>
+      <c r="I89" s="10">
+        <v>150.0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="11" t="s">
@@ -3146,11 +3127,15 @@
         <v>135</v>
       </c>
       <c r="D90" s="18"/>
-      <c r="E90" s="8"/>
+      <c r="E90" s="11" t="s">
+        <v>135</v>
+      </c>
       <c r="F90" s="18"/>
       <c r="G90" s="13"/>
       <c r="H90" s="12"/>
-      <c r="I90" s="10"/>
+      <c r="I90" s="10">
+        <v>150.0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="11" t="s">
@@ -3161,11 +3146,15 @@
         <v>136</v>
       </c>
       <c r="D91" s="18"/>
-      <c r="E91" s="8"/>
+      <c r="E91" s="11" t="s">
+        <v>136</v>
+      </c>
       <c r="F91" s="18"/>
       <c r="G91" s="13"/>
       <c r="H91" s="12"/>
-      <c r="I91" s="10"/>
+      <c r="I91" s="10">
+        <v>130.0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="11" t="s">
@@ -3176,11 +3165,15 @@
         <v>137</v>
       </c>
       <c r="D92" s="18"/>
-      <c r="E92" s="8"/>
+      <c r="E92" s="11" t="s">
+        <v>137</v>
+      </c>
       <c r="F92" s="18"/>
       <c r="G92" s="13"/>
       <c r="H92" s="12"/>
-      <c r="I92" s="10"/>
+      <c r="I92" s="10">
+        <v>130.0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="11" t="s">
@@ -3191,32 +3184,42 @@
         <v>138</v>
       </c>
       <c r="D93" s="18"/>
-      <c r="E93" s="8"/>
+      <c r="E93" s="11" t="s">
+        <v>138</v>
+      </c>
       <c r="F93" s="18"/>
       <c r="G93" s="13"/>
       <c r="H93" s="12"/>
-      <c r="I93" s="10"/>
+      <c r="I93" s="10">
+        <v>130.0</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" s="11" t="s">
+      <c r="A94" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B94" s="8"/>
-      <c r="C94" s="11" t="s">
+      <c r="C94" s="8" t="s">
         <v>139</v>
       </c>
       <c r="D94" s="18"/>
-      <c r="E94" s="8"/>
+      <c r="E94" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="F94" s="18"/>
       <c r="G94" s="13"/>
       <c r="H94" s="12"/>
-      <c r="I94" s="10"/>
+      <c r="I94" s="10">
+        <v>150.0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="8"/>
+      <c r="B95" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C95" s="8" t="s">
         <v>140</v>
       </c>
@@ -3228,7 +3231,7 @@
       <c r="G95" s="13"/>
       <c r="H95" s="12"/>
       <c r="I95" s="10">
-        <v>150.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="96">
@@ -3243,24 +3246,22 @@
       </c>
       <c r="D96" s="18"/>
       <c r="E96" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F96" s="18"/>
       <c r="G96" s="13"/>
       <c r="H96" s="12"/>
-      <c r="I96" s="10">
-        <v>125.0</v>
+      <c r="I96" s="9">
+        <v>110.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B97" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>142</v>
+      <c r="B97" s="8"/>
+      <c r="C97" s="20" t="s">
+        <v>143</v>
       </c>
       <c r="D97" s="18"/>
       <c r="E97" s="8" t="s">
@@ -3270,34 +3271,36 @@
       <c r="G97" s="13"/>
       <c r="H97" s="12"/>
       <c r="I97" s="9">
-        <v>110.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8" t="s">
+      <c r="A98" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" s="12"/>
+      <c r="C98" s="9" t="s">
         <v>144</v>
       </c>
       <c r="D98" s="18"/>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="9" t="s">
         <v>145</v>
       </c>
       <c r="F98" s="18"/>
       <c r="G98" s="13"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="9">
-        <v>110.0</v>
+      <c r="H98" s="9"/>
+      <c r="I98" s="10">
+        <v>80.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B99" s="8"/>
-      <c r="C99" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99" s="8" t="s">
         <v>146</v>
       </c>
       <c r="D99" s="18"/>
@@ -3307,27 +3310,29 @@
       <c r="F99" s="18"/>
       <c r="G99" s="13"/>
       <c r="H99" s="12"/>
-      <c r="I99" s="9">
-        <v>150.0</v>
+      <c r="I99" s="10">
+        <v>85.0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="12" t="s">
+      <c r="A100" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12" t="s">
+      <c r="B100" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C100" s="8" t="s">
         <v>147</v>
       </c>
       <c r="D100" s="18"/>
-      <c r="E100" s="12" t="s">
-        <v>148</v>
+      <c r="E100" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="F100" s="18"/>
-      <c r="G100" s="13"/>
+      <c r="G100" s="12"/>
       <c r="H100" s="9"/>
       <c r="I100" s="10">
-        <v>80.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="101">
@@ -3338,7 +3343,7 @@
         <v>27</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D101" s="18"/>
       <c r="E101" s="8" t="s">
@@ -3348,46 +3353,42 @@
       <c r="G101" s="13"/>
       <c r="H101" s="12"/>
       <c r="I101" s="10">
-        <v>85.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B102" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B102" s="8"/>
       <c r="C102" s="8" t="s">
         <v>150</v>
       </c>
       <c r="D102" s="18"/>
       <c r="E102" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F102" s="18"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="9"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="12"/>
       <c r="I102" s="10">
-        <v>85.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B103" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B103" s="8"/>
       <c r="C103" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D103" s="18"/>
       <c r="E103" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F103" s="18"/>
-      <c r="G103" s="13"/>
+      <c r="G103" s="12"/>
       <c r="H103" s="12"/>
       <c r="I103" s="10">
         <v>70.0</v>
@@ -3399,17 +3400,17 @@
       </c>
       <c r="B104" s="8"/>
       <c r="C104" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D104" s="18"/>
       <c r="E104" s="8" t="s">
         <v>154</v>
       </c>
       <c r="F104" s="18"/>
-      <c r="G104" s="13"/>
+      <c r="G104" s="12"/>
       <c r="H104" s="12"/>
       <c r="I104" s="10">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="105">
@@ -3424,64 +3425,66 @@
       <c r="E105" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F105" s="18"/>
+      <c r="F105" s="6"/>
       <c r="G105" s="12"/>
       <c r="H105" s="12"/>
       <c r="I105" s="10">
-        <v>70.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8" t="s">
+      <c r="A106" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C106" s="12" t="s">
         <v>157</v>
       </c>
       <c r="D106" s="18"/>
-      <c r="E106" s="8" t="s">
-        <v>157</v>
+      <c r="E106" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="F106" s="18"/>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
-      <c r="I106" s="10">
-        <v>60.0</v>
+      <c r="I106" s="9">
+        <v>185.0</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B107" s="8"/>
+      <c r="A107" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" s="6"/>
       <c r="C107" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D107" s="18"/>
+        <v>159</v>
+      </c>
+      <c r="D107" s="16"/>
       <c r="E107" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F107" s="6"/>
+      <c r="F107" s="18"/>
       <c r="G107" s="12"/>
       <c r="H107" s="12"/>
-      <c r="I107" s="10">
-        <v>50.0</v>
+      <c r="I107" s="9">
+        <v>185.0</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="23" t="s">
+      <c r="A108" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="23" t="s">
+      <c r="B108" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C108" s="12" t="s">
+      <c r="C108" s="8" t="s">
         <v>160</v>
       </c>
       <c r="D108" s="18"/>
-      <c r="E108" s="12" t="s">
-        <v>161</v>
+      <c r="E108" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="F108" s="18"/>
       <c r="G108" s="12"/>
@@ -3496,9 +3499,9 @@
       </c>
       <c r="B109" s="6"/>
       <c r="C109" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D109" s="16"/>
+        <v>161</v>
+      </c>
+      <c r="D109" s="18"/>
       <c r="E109" s="8" t="s">
         <v>162</v>
       </c>
@@ -3513,15 +3516,13 @@
       <c r="A110" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B110" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B110" s="6"/>
       <c r="C110" s="8" t="s">
         <v>163</v>
       </c>
       <c r="D110" s="18"/>
       <c r="E110" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F110" s="18"/>
       <c r="G110" s="12"/>
@@ -3531,195 +3532,195 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="6" t="s">
+      <c r="A111" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B111" s="6"/>
-      <c r="C111" s="8" t="s">
-        <v>164</v>
+      <c r="C111" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="D111" s="18"/>
-      <c r="E111" s="8" t="s">
-        <v>165</v>
+      <c r="E111" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="F111" s="18"/>
       <c r="G111" s="12"/>
       <c r="H111" s="12"/>
       <c r="I111" s="9">
-        <v>185.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="6" t="s">
+      <c r="A112" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B112" s="6"/>
-      <c r="C112" s="8" t="s">
-        <v>166</v>
+      <c r="C112" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="D112" s="18"/>
-      <c r="E112" s="8" t="s">
-        <v>167</v>
+      <c r="E112" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="F112" s="18"/>
       <c r="G112" s="12"/>
       <c r="H112" s="12"/>
       <c r="I112" s="9">
-        <v>185.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="24" t="s">
+      <c r="A113" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B113" s="6"/>
       <c r="C113" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D113" s="18"/>
       <c r="E113" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F113" s="18"/>
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
       <c r="I113" s="9">
-        <v>220.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="24" t="s">
+      <c r="A114" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B114" s="6"/>
       <c r="C114" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D114" s="18"/>
       <c r="E114" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F114" s="18"/>
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
       <c r="I114" s="9">
-        <v>240.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="24" t="s">
+      <c r="A115" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B115" s="6"/>
       <c r="C115" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D115" s="18"/>
       <c r="E115" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F115" s="18"/>
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
       <c r="I115" s="9">
-        <v>170.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B116" s="6"/>
-      <c r="C116" s="11" t="s">
-        <v>174</v>
+      <c r="A116" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="D116" s="18"/>
-      <c r="E116" s="11" t="s">
-        <v>175</v>
+      <c r="E116" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="F116" s="18"/>
-      <c r="G116" s="12"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="9">
-        <v>185.0</v>
+      <c r="G116" s="21"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="10">
+        <v>215.0</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B117" s="6"/>
-      <c r="C117" s="11" t="s">
-        <v>176</v>
+      <c r="A117" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" s="22"/>
+      <c r="C117" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="D117" s="18"/>
-      <c r="E117" s="11" t="s">
-        <v>177</v>
+      <c r="E117" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="F117" s="18"/>
-      <c r="G117" s="12"/>
-      <c r="H117" s="12"/>
-      <c r="I117" s="9">
-        <v>110.0</v>
+      <c r="G117" s="21"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="10">
+        <v>230.0</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="23" t="s">
+      <c r="A118" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B118" s="23" t="s">
-        <v>27</v>
-      </c>
+      <c r="B118" s="22"/>
       <c r="C118" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D118" s="18"/>
-      <c r="E118" s="8" t="s">
-        <v>179</v>
+      <c r="E118" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="F118" s="18"/>
       <c r="G118" s="21"/>
       <c r="H118" s="13"/>
       <c r="I118" s="10">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B119" s="23"/>
-      <c r="C119" s="12" t="s">
-        <v>180</v>
+      <c r="B119" s="6"/>
+      <c r="C119" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="D119" s="18"/>
-      <c r="E119" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="F119" s="18"/>
+      <c r="E119" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F119" s="6"/>
       <c r="G119" s="21"/>
       <c r="H119" s="13"/>
       <c r="I119" s="10">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B120" s="23"/>
-      <c r="C120" s="12" t="s">
-        <v>182</v>
+      <c r="B120" s="6"/>
+      <c r="C120" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="D120" s="18"/>
-      <c r="E120" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="F120" s="18"/>
+      <c r="E120" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F120" s="6"/>
       <c r="G120" s="21"/>
       <c r="H120" s="13"/>
       <c r="I120" s="10">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="121">
@@ -3728,91 +3729,91 @@
       </c>
       <c r="B121" s="6"/>
       <c r="C121" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D121" s="18"/>
-      <c r="E121" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="F121" s="6"/>
+      <c r="E121" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F121" s="18"/>
       <c r="G121" s="21"/>
       <c r="H121" s="13"/>
       <c r="I121" s="10">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B122" s="6"/>
+      <c r="B122" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C122" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D122" s="18"/>
       <c r="E122" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F122" s="6"/>
+        <v>188</v>
+      </c>
+      <c r="F122" s="18"/>
       <c r="G122" s="21"/>
       <c r="H122" s="13"/>
       <c r="I122" s="10">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B123" s="6"/>
+      <c r="B123" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C123" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D123" s="18"/>
-      <c r="E123" s="11" t="s">
-        <v>189</v>
+      <c r="E123" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="F123" s="18"/>
       <c r="G123" s="21"/>
       <c r="H123" s="13"/>
       <c r="I123" s="10">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B124" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B124" s="6"/>
       <c r="C124" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D124" s="18"/>
       <c r="E124" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F124" s="18"/>
       <c r="G124" s="21"/>
       <c r="H124" s="13"/>
       <c r="I124" s="10">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B125" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B125" s="6"/>
       <c r="C125" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D125" s="18"/>
-      <c r="E125" s="8" t="s">
-        <v>193</v>
+      <c r="E125" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="F125" s="18"/>
       <c r="G125" s="21"/>
@@ -3827,17 +3828,17 @@
       </c>
       <c r="B126" s="6"/>
       <c r="C126" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D126" s="18"/>
+        <v>195</v>
+      </c>
+      <c r="D126" s="6"/>
       <c r="E126" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F126" s="18"/>
+        <v>196</v>
+      </c>
+      <c r="F126" s="6"/>
       <c r="G126" s="21"/>
       <c r="H126" s="13"/>
       <c r="I126" s="10">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="127">
@@ -3846,13 +3847,13 @@
       </c>
       <c r="B127" s="6"/>
       <c r="C127" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D127" s="18"/>
-      <c r="E127" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="F127" s="18"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F127" s="6"/>
       <c r="G127" s="21"/>
       <c r="H127" s="13"/>
       <c r="I127" s="10">
@@ -3865,17 +3866,17 @@
       </c>
       <c r="B128" s="6"/>
       <c r="C128" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D128" s="6"/>
-      <c r="E128" s="11" t="s">
-        <v>199</v>
+      <c r="E128" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="F128" s="6"/>
       <c r="G128" s="21"/>
       <c r="H128" s="13"/>
       <c r="I128" s="10">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="129">
@@ -3884,11 +3885,11 @@
       </c>
       <c r="B129" s="6"/>
       <c r="C129" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D129" s="6"/>
       <c r="E129" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F129" s="6"/>
       <c r="G129" s="21"/>
@@ -3903,17 +3904,17 @@
       </c>
       <c r="B130" s="6"/>
       <c r="C130" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D130" s="6"/>
-      <c r="E130" s="8" t="s">
-        <v>203</v>
+      <c r="E130" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="F130" s="6"/>
       <c r="G130" s="21"/>
       <c r="H130" s="13"/>
       <c r="I130" s="10">
-        <v>215.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="131">
@@ -3922,36 +3923,38 @@
       </c>
       <c r="B131" s="6"/>
       <c r="C131" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D131" s="6"/>
-      <c r="E131" s="8" t="s">
-        <v>205</v>
+      <c r="E131" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="21"/>
       <c r="H131" s="13"/>
       <c r="I131" s="10">
-        <v>220.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B132" s="6"/>
+      <c r="B132" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C132" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D132" s="6"/>
-      <c r="E132" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F132" s="6"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F132" s="18"/>
       <c r="G132" s="21"/>
       <c r="H132" s="13"/>
       <c r="I132" s="10">
-        <v>210.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="133">
@@ -3960,57 +3963,57 @@
       </c>
       <c r="B133" s="6"/>
       <c r="C133" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D133" s="6"/>
-      <c r="E133" s="11" t="s">
-        <v>209</v>
+      <c r="E133" s="8" t="s">
+        <v>210</v>
       </c>
       <c r="F133" s="6"/>
       <c r="G133" s="21"/>
       <c r="H133" s="13"/>
       <c r="I133" s="10">
-        <v>80.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B134" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B134" s="6"/>
       <c r="C134" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D134" s="18"/>
+        <v>211</v>
+      </c>
+      <c r="D134" s="6"/>
       <c r="E134" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="F134" s="18"/>
+        <v>212</v>
+      </c>
+      <c r="F134" s="6"/>
       <c r="G134" s="21"/>
       <c r="H134" s="13"/>
       <c r="I134" s="10">
-        <v>220.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B135" s="6"/>
+      <c r="B135" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C135" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D135" s="6"/>
-      <c r="E135" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="F135" s="6"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="F135" s="18"/>
       <c r="G135" s="21"/>
       <c r="H135" s="13"/>
       <c r="I135" s="10">
-        <v>160.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="136">
@@ -4019,17 +4022,17 @@
       </c>
       <c r="B136" s="6"/>
       <c r="C136" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D136" s="6"/>
+        <v>215</v>
+      </c>
+      <c r="D136" s="18"/>
       <c r="E136" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="F136" s="6"/>
+        <v>216</v>
+      </c>
+      <c r="F136" s="18"/>
       <c r="G136" s="21"/>
       <c r="H136" s="13"/>
       <c r="I136" s="10">
-        <v>70.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="137">
@@ -4040,13 +4043,13 @@
         <v>27</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D137" s="18"/>
-      <c r="E137" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="F137" s="18"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F137" s="6"/>
       <c r="G137" s="21"/>
       <c r="H137" s="13"/>
       <c r="I137" s="10">
@@ -4059,53 +4062,53 @@
       </c>
       <c r="B138" s="6"/>
       <c r="C138" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D138" s="18"/>
+        <v>219</v>
+      </c>
+      <c r="D138" s="6"/>
       <c r="E138" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="F138" s="18"/>
+      <c r="F138" s="6"/>
       <c r="G138" s="21"/>
       <c r="H138" s="13"/>
       <c r="I138" s="10">
-        <v>220.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B139" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B139" s="6"/>
       <c r="C139" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="D139" s="6"/>
+      <c r="D139" s="18"/>
       <c r="E139" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F139" s="6"/>
+        <v>220</v>
+      </c>
+      <c r="F139" s="18"/>
       <c r="G139" s="21"/>
       <c r="H139" s="13"/>
       <c r="I139" s="10">
-        <v>220.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B140" s="6"/>
+      <c r="B140" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C140" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D140" s="6"/>
+        <v>221</v>
+      </c>
+      <c r="D140" s="18"/>
       <c r="E140" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="F140" s="6"/>
+      <c r="F140" s="18"/>
       <c r="G140" s="21"/>
       <c r="H140" s="13"/>
       <c r="I140" s="10">
@@ -4120,11 +4123,11 @@
       <c r="C141" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="D141" s="18"/>
+      <c r="D141" s="6"/>
       <c r="E141" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="F141" s="18"/>
+        <v>224</v>
+      </c>
+      <c r="F141" s="6"/>
       <c r="G141" s="21"/>
       <c r="H141" s="13"/>
       <c r="I141" s="10">
@@ -4135,21 +4138,19 @@
       <c r="A142" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B142" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B142" s="6"/>
       <c r="C142" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D142" s="18"/>
+        <v>225</v>
+      </c>
+      <c r="D142" s="6"/>
       <c r="E142" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="F142" s="18"/>
+        <v>226</v>
+      </c>
+      <c r="F142" s="6"/>
       <c r="G142" s="21"/>
       <c r="H142" s="13"/>
       <c r="I142" s="10">
-        <v>185.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="143">
@@ -4158,11 +4159,11 @@
       </c>
       <c r="B143" s="6"/>
       <c r="C143" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D143" s="6"/>
       <c r="E143" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="21"/>
@@ -4177,89 +4178,91 @@
       </c>
       <c r="B144" s="6"/>
       <c r="C144" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D144" s="6"/>
       <c r="E144" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="21"/>
       <c r="H144" s="13"/>
       <c r="I144" s="10">
-        <v>200.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B145" s="6"/>
-      <c r="C145" s="8" t="s">
-        <v>230</v>
+      <c r="A145" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B145" s="22"/>
+      <c r="C145" s="12" t="s">
+        <v>231</v>
       </c>
       <c r="D145" s="6"/>
-      <c r="E145" s="8" t="s">
-        <v>231</v>
+      <c r="E145" s="12" t="s">
+        <v>232</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="21"/>
       <c r="H145" s="13"/>
       <c r="I145" s="10">
-        <v>185.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B146" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C146" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D146" s="6"/>
+        <v>233</v>
+      </c>
+      <c r="D146" s="18"/>
       <c r="E146" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="21"/>
       <c r="H146" s="13"/>
       <c r="I146" s="10">
-        <v>80.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="23" t="s">
+      <c r="A147" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B147" s="23"/>
-      <c r="C147" s="12" t="s">
-        <v>234</v>
+      <c r="B147" s="6"/>
+      <c r="C147" s="11" t="s">
+        <v>235</v>
       </c>
       <c r="D147" s="6"/>
-      <c r="E147" s="12" t="s">
-        <v>235</v>
+      <c r="E147" s="11" t="s">
+        <v>236</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="21"/>
       <c r="H147" s="13"/>
       <c r="I147" s="10">
-        <v>120.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B148" s="6" t="s">
+      <c r="A148" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B148" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C148" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D148" s="18"/>
-      <c r="E148" s="8" t="s">
+      <c r="C148" s="12" t="s">
         <v>237</v>
+      </c>
+      <c r="D148" s="6"/>
+      <c r="E148" s="12" t="s">
+        <v>238</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="21"/>
@@ -4269,115 +4272,121 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B149" s="6" t="s">
+      <c r="A149" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B149" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C149" s="8" t="s">
-        <v>238</v>
+      <c r="C149" s="12" t="s">
+        <v>239</v>
       </c>
       <c r="D149" s="18"/>
-      <c r="E149" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="F149" s="18"/>
+      <c r="E149" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F149" s="6"/>
       <c r="G149" s="21"/>
       <c r="H149" s="13"/>
       <c r="I149" s="10">
-        <v>180.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D150" s="6"/>
-      <c r="E150" s="8" t="s">
         <v>241</v>
+      </c>
+      <c r="D150" s="18"/>
+      <c r="E150" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="F150" s="6"/>
       <c r="G150" s="21"/>
       <c r="H150" s="13"/>
       <c r="I150" s="10">
-        <v>180.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B151" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C151" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D151" s="6"/>
+        <v>243</v>
+      </c>
+      <c r="D151" s="18"/>
       <c r="E151" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F151" s="6"/>
       <c r="G151" s="21"/>
       <c r="H151" s="13"/>
       <c r="I151" s="10">
-        <v>110.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B152" s="23" t="s">
+      <c r="A152" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B152" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C152" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="D152" s="6"/>
-      <c r="E152" s="12" t="s">
+      <c r="C152" s="8" t="s">
         <v>245</v>
+      </c>
+      <c r="D152" s="18"/>
+      <c r="E152" s="8" t="s">
+        <v>246</v>
       </c>
       <c r="F152" s="6"/>
       <c r="G152" s="21"/>
       <c r="H152" s="13"/>
       <c r="I152" s="10">
-        <v>130.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B153" s="6"/>
-      <c r="C153" s="8" t="s">
-        <v>246</v>
+      <c r="A153" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>247</v>
       </c>
       <c r="D153" s="18"/>
-      <c r="E153" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="F153" s="6"/>
+      <c r="E153" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="F153" s="18"/>
       <c r="G153" s="21"/>
       <c r="H153" s="13"/>
       <c r="I153" s="10">
-        <v>140.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B154" s="6"/>
+      <c r="A154" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C154" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="D154" s="18"/>
+        <v>249</v>
+      </c>
+      <c r="D154" s="6"/>
       <c r="E154" s="8" t="s">
         <v>249</v>
       </c>
@@ -4385,79 +4394,71 @@
       <c r="G154" s="21"/>
       <c r="H154" s="13"/>
       <c r="I154" s="10">
-        <v>70.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B155" s="23" t="s">
-        <v>27</v>
-      </c>
+      <c r="A155" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B155" s="22"/>
       <c r="C155" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="D155" s="18"/>
-      <c r="E155" s="9" t="s">
+      <c r="D155" s="6"/>
+      <c r="E155" s="12" t="s">
         <v>251</v>
       </c>
       <c r="F155" s="6"/>
       <c r="G155" s="21"/>
       <c r="H155" s="13"/>
-      <c r="I155" s="10">
-        <v>260.0</v>
+      <c r="I155" s="13">
+        <v>20.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B156" s="22"/>
       <c r="C156" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="D156" s="18"/>
-      <c r="E156" s="11" t="s">
+      <c r="D156" s="6"/>
+      <c r="E156" s="8" t="s">
         <v>253</v>
       </c>
       <c r="F156" s="6"/>
       <c r="G156" s="21"/>
-      <c r="H156" s="13"/>
+      <c r="H156" s="10"/>
       <c r="I156" s="10">
-        <v>210.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C157" s="8" t="s">
+      <c r="A157" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B157" s="6"/>
+      <c r="C157" s="11" t="s">
         <v>254</v>
       </c>
       <c r="D157" s="18"/>
-      <c r="E157" s="11" t="s">
+      <c r="E157" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="F157" s="6"/>
+      <c r="F157" s="18"/>
       <c r="G157" s="21"/>
-      <c r="H157" s="13"/>
+      <c r="H157" s="10"/>
       <c r="I157" s="10">
-        <v>210.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B158" s="6"/>
       <c r="C158" s="8" t="s">
         <v>256</v>
       </c>
@@ -4465,68 +4466,64 @@
       <c r="E158" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="F158" s="6"/>
+      <c r="F158" s="18"/>
       <c r="G158" s="21"/>
-      <c r="H158" s="13"/>
+      <c r="H158" s="10"/>
       <c r="I158" s="10">
-        <v>210.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B159" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C159" s="12" t="s">
+      <c r="A159" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B159" s="6"/>
+      <c r="C159" s="8" t="s">
         <v>258</v>
       </c>
       <c r="D159" s="18"/>
-      <c r="E159" s="12" t="s">
+      <c r="E159" s="8" t="s">
         <v>259</v>
       </c>
       <c r="F159" s="18"/>
       <c r="G159" s="21"/>
       <c r="H159" s="13"/>
       <c r="I159" s="10">
-        <v>220.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="A160" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B160" s="6"/>
       <c r="C160" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D160" s="6"/>
+      <c r="D160" s="18"/>
       <c r="E160" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="F160" s="6"/>
+        <v>261</v>
+      </c>
+      <c r="F160" s="18"/>
       <c r="G160" s="21"/>
       <c r="H160" s="13"/>
-      <c r="I160" s="10">
-        <v>250.0</v>
+      <c r="I160" s="13">
+        <v>30.0</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="23" t="s">
+      <c r="A161" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B161" s="23"/>
-      <c r="C161" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="D161" s="6"/>
-      <c r="E161" s="12" t="s">
+      <c r="B161" s="6"/>
+      <c r="C161" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="F161" s="6"/>
+      <c r="D161" s="18"/>
+      <c r="E161" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F161" s="18"/>
       <c r="G161" s="21"/>
       <c r="H161" s="13"/>
       <c r="I161" s="13">
@@ -4537,38 +4534,38 @@
       <c r="A162" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B162" s="23"/>
+      <c r="B162" s="6"/>
       <c r="C162" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="D162" s="6"/>
+        <v>264</v>
+      </c>
+      <c r="D162" s="18"/>
       <c r="E162" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F162" s="6"/>
+        <v>265</v>
+      </c>
+      <c r="F162" s="18"/>
       <c r="G162" s="21"/>
-      <c r="H162" s="10"/>
+      <c r="H162" s="13"/>
       <c r="I162" s="10">
-        <v>40.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="24" t="s">
+      <c r="A163" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B163" s="6"/>
       <c r="C163" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D163" s="18"/>
-      <c r="E163" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="F163" s="18"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="F163" s="6"/>
       <c r="G163" s="21"/>
-      <c r="H163" s="10"/>
+      <c r="H163" s="13"/>
       <c r="I163" s="10">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="164">
@@ -4576,37 +4573,37 @@
         <v>19</v>
       </c>
       <c r="B164" s="6"/>
-      <c r="C164" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="D164" s="18"/>
-      <c r="E164" s="8" t="s">
+      <c r="C164" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="F164" s="18"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="F164" s="6"/>
       <c r="G164" s="21"/>
-      <c r="H164" s="10"/>
+      <c r="H164" s="13"/>
       <c r="I164" s="10">
-        <v>20.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="6" t="s">
+      <c r="A165" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B165" s="6"/>
-      <c r="C165" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="D165" s="18"/>
-      <c r="E165" s="8" t="s">
+      <c r="C165" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="F165" s="18"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="F165" s="6"/>
       <c r="G165" s="21"/>
       <c r="H165" s="13"/>
       <c r="I165" s="10">
-        <v>50.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="166">
@@ -4615,17 +4612,17 @@
       </c>
       <c r="B166" s="6"/>
       <c r="C166" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D166" s="18"/>
+        <v>272</v>
+      </c>
+      <c r="D166" s="6"/>
       <c r="E166" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F166" s="18"/>
+        <v>273</v>
+      </c>
+      <c r="F166" s="6"/>
       <c r="G166" s="21"/>
       <c r="H166" s="13"/>
       <c r="I166" s="13">
-        <v>30.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="167">
@@ -4633,196 +4630,82 @@
         <v>19</v>
       </c>
       <c r="B167" s="6"/>
-      <c r="C167" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="D167" s="18"/>
-      <c r="E167" s="8" t="s">
+      <c r="C167" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="F167" s="18"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="F167" s="6"/>
       <c r="G167" s="21"/>
       <c r="H167" s="13"/>
-      <c r="I167" s="13">
-        <v>20.0</v>
+      <c r="I167" s="10">
+        <v>15.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B168" s="6"/>
+      <c r="B168" s="18"/>
       <c r="C168" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D168" s="18"/>
+        <v>276</v>
+      </c>
+      <c r="D168" s="6"/>
       <c r="E168" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="F168" s="18"/>
-      <c r="G168" s="21"/>
+        <v>277</v>
+      </c>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
       <c r="H168" s="13"/>
-      <c r="I168" s="10">
-        <v>25.0</v>
+      <c r="I168" s="13">
+        <v>60.0</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B169" s="6"/>
-      <c r="C169" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="D169" s="6"/>
-      <c r="E169" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="F169" s="6"/>
-      <c r="G169" s="21"/>
-      <c r="H169" s="13"/>
-      <c r="I169" s="10">
-        <v>40.0</v>
-      </c>
+      <c r="A169" s="25"/>
+      <c r="B169" s="25"/>
+      <c r="C169" s="25"/>
+      <c r="E169" s="25"/>
     </row>
     <row r="170">
-      <c r="A170" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B170" s="6"/>
-      <c r="C170" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="D170" s="6"/>
-      <c r="E170" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="F170" s="6"/>
-      <c r="G170" s="21"/>
-      <c r="H170" s="13"/>
-      <c r="I170" s="10">
-        <v>60.0</v>
-      </c>
+      <c r="A170" s="25"/>
+      <c r="B170" s="25"/>
+      <c r="C170" s="25"/>
+      <c r="E170" s="25"/>
     </row>
     <row r="171">
-      <c r="A171" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B171" s="6"/>
-      <c r="C171" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="D171" s="6"/>
-      <c r="E171" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="F171" s="6"/>
-      <c r="G171" s="21"/>
-      <c r="H171" s="13"/>
-      <c r="I171" s="10">
-        <v>150.0</v>
-      </c>
+      <c r="A171" s="25"/>
+      <c r="B171" s="25"/>
+      <c r="C171" s="25"/>
+      <c r="E171" s="25"/>
     </row>
     <row r="172">
-      <c r="A172" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B172" s="6"/>
-      <c r="C172" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="D172" s="6"/>
-      <c r="E172" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="F172" s="6"/>
-      <c r="G172" s="21"/>
-      <c r="H172" s="13"/>
-      <c r="I172" s="13">
-        <v>15.0</v>
-      </c>
+      <c r="A172" s="25"/>
+      <c r="B172" s="25"/>
+      <c r="C172" s="25"/>
+      <c r="E172" s="25"/>
     </row>
     <row r="173">
-      <c r="A173" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B173" s="6"/>
-      <c r="C173" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="D173" s="6"/>
-      <c r="E173" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="F173" s="6"/>
-      <c r="G173" s="21"/>
-      <c r="H173" s="13"/>
-      <c r="I173" s="10">
-        <v>15.0</v>
-      </c>
+      <c r="A173" s="25"/>
+      <c r="B173" s="25"/>
+      <c r="C173" s="25"/>
+      <c r="E173" s="25"/>
     </row>
     <row r="174">
-      <c r="A174" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B174" s="18"/>
-      <c r="C174" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="D174" s="6"/>
-      <c r="E174" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F174" s="6"/>
-      <c r="G174" s="6"/>
-      <c r="H174" s="13"/>
-      <c r="I174" s="13">
-        <v>60.0</v>
-      </c>
+      <c r="A174" s="25"/>
+      <c r="B174" s="25"/>
+      <c r="C174" s="25"/>
+      <c r="E174" s="25"/>
     </row>
     <row r="175">
-      <c r="A175" s="26"/>
-      <c r="B175" s="26"/>
-      <c r="C175" s="26"/>
-      <c r="E175" s="26"/>
+      <c r="A175" s="25"/>
+      <c r="B175" s="25"/>
     </row>
     <row r="176">
-      <c r="A176" s="26"/>
-      <c r="B176" s="26"/>
-      <c r="C176" s="26"/>
-      <c r="E176" s="26"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="26"/>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
-      <c r="E177" s="26"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="26"/>
-      <c r="B178" s="26"/>
-      <c r="C178" s="26"/>
-      <c r="E178" s="26"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="26"/>
-      <c r="B179" s="26"/>
-      <c r="C179" s="26"/>
-      <c r="E179" s="26"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="26"/>
-      <c r="B180" s="26"/>
-      <c r="C180" s="26"/>
-      <c r="E180" s="26"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="26"/>
-      <c r="B181" s="26"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="26"/>
-      <c r="B182" s="26"/>
+      <c r="A176" s="25"/>
+      <c r="B176" s="25"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -4451,7 +4451,7 @@
       <c r="G157" s="21"/>
       <c r="H157" s="10"/>
       <c r="I157" s="10">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="158">

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -10,7 +10,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="MDVK09b4RjR3a92pCIBCSnQ/2SqoeIyTwC5qL+axLHw="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="HzO0Fg93vMmzV50RzkVvBi9N5a/l/IdM3dwp0IPGhDo="/>
     </ext>
   </extLst>
 </workbook>
@@ -3336,37 +3336,29 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>148</v>
-      </c>
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
       <c r="D101" s="18"/>
-      <c r="E101" s="8" t="s">
-        <v>149</v>
-      </c>
+      <c r="E101" s="8"/>
       <c r="F101" s="18"/>
       <c r="G101" s="13"/>
       <c r="H101" s="12"/>
-      <c r="I101" s="10">
-        <v>70.0</v>
-      </c>
+      <c r="I101" s="10"/>
     </row>
     <row r="102">
       <c r="A102" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B102" s="8"/>
+      <c r="B102" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C102" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D102" s="18"/>
       <c r="E102" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F102" s="18"/>
       <c r="G102" s="13"/>
@@ -3381,14 +3373,14 @@
       </c>
       <c r="B103" s="8"/>
       <c r="C103" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D103" s="18"/>
       <c r="E103" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F103" s="18"/>
-      <c r="G103" s="12"/>
+      <c r="G103" s="13"/>
       <c r="H103" s="12"/>
       <c r="I103" s="10">
         <v>70.0</v>
@@ -3400,17 +3392,17 @@
       </c>
       <c r="B104" s="8"/>
       <c r="C104" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D104" s="18"/>
       <c r="E104" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F104" s="18"/>
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
       <c r="I104" s="10">
-        <v>60.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="105">
@@ -3419,51 +3411,51 @@
       </c>
       <c r="B105" s="8"/>
       <c r="C105" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D105" s="18"/>
       <c r="E105" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F105" s="6"/>
+        <v>154</v>
+      </c>
+      <c r="F105" s="18"/>
       <c r="G105" s="12"/>
       <c r="H105" s="12"/>
       <c r="I105" s="10">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B106" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>157</v>
+      <c r="A106" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="D106" s="18"/>
-      <c r="E106" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="F106" s="18"/>
+      <c r="E106" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F106" s="6"/>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
-      <c r="I106" s="9">
-        <v>185.0</v>
+      <c r="I106" s="10">
+        <v>50.0</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B107" s="6"/>
-      <c r="C107" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D107" s="16"/>
-      <c r="E107" s="8" t="s">
-        <v>159</v>
+      <c r="B107" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D107" s="18"/>
+      <c r="E107" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="F107" s="18"/>
       <c r="G107" s="12"/>
@@ -3476,15 +3468,13 @@
       <c r="A108" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B108" s="6"/>
       <c r="C108" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D108" s="18"/>
+        <v>159</v>
+      </c>
+      <c r="D108" s="16"/>
       <c r="E108" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F108" s="18"/>
       <c r="G108" s="12"/>
@@ -3497,13 +3487,15 @@
       <c r="A109" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B109" s="6"/>
+      <c r="B109" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C109" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D109" s="18"/>
       <c r="E109" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F109" s="18"/>
       <c r="G109" s="12"/>
@@ -3518,11 +3510,11 @@
       </c>
       <c r="B110" s="6"/>
       <c r="C110" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D110" s="18"/>
       <c r="E110" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F110" s="18"/>
       <c r="G110" s="12"/>
@@ -3532,22 +3524,22 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="23" t="s">
+      <c r="A111" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B111" s="6"/>
-      <c r="C111" s="11" t="s">
-        <v>165</v>
+      <c r="C111" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="D111" s="18"/>
-      <c r="E111" s="11" t="s">
-        <v>166</v>
+      <c r="E111" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="F111" s="18"/>
       <c r="G111" s="12"/>
       <c r="H111" s="12"/>
       <c r="I111" s="9">
-        <v>220.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="112">
@@ -3556,17 +3548,17 @@
       </c>
       <c r="B112" s="6"/>
       <c r="C112" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D112" s="18"/>
       <c r="E112" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F112" s="18"/>
       <c r="G112" s="12"/>
       <c r="H112" s="12"/>
       <c r="I112" s="9">
-        <v>240.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="113">
@@ -3575,17 +3567,17 @@
       </c>
       <c r="B113" s="6"/>
       <c r="C113" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D113" s="18"/>
       <c r="E113" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F113" s="18"/>
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
       <c r="I113" s="9">
-        <v>170.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="114">
@@ -3594,17 +3586,17 @@
       </c>
       <c r="B114" s="6"/>
       <c r="C114" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D114" s="18"/>
       <c r="E114" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F114" s="18"/>
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
       <c r="I114" s="9">
-        <v>185.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="115">
@@ -3613,57 +3605,57 @@
       </c>
       <c r="B115" s="6"/>
       <c r="C115" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D115" s="18"/>
       <c r="E115" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F115" s="18"/>
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
       <c r="I115" s="9">
+        <v>185.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116" s="6"/>
+      <c r="C116" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D116" s="18"/>
+      <c r="E116" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F116" s="18"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="9">
         <v>110.0</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="22" t="s">
+    <row r="117">
+      <c r="A117" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B116" s="22" t="s">
+      <c r="B117" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C116" s="12" t="s">
+      <c r="C117" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D116" s="18"/>
-      <c r="E116" s="8" t="s">
+      <c r="D117" s="18"/>
+      <c r="E117" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="F116" s="18"/>
-      <c r="G116" s="21"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="10">
-        <v>215.0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B117" s="22"/>
-      <c r="C117" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D117" s="18"/>
-      <c r="E117" s="12" t="s">
-        <v>178</v>
       </c>
       <c r="F117" s="18"/>
       <c r="G117" s="21"/>
       <c r="H117" s="13"/>
       <c r="I117" s="10">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="118">
@@ -3672,11 +3664,11 @@
       </c>
       <c r="B118" s="22"/>
       <c r="C118" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D118" s="18"/>
       <c r="E118" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F118" s="18"/>
       <c r="G118" s="21"/>
@@ -3689,19 +3681,19 @@
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B119" s="6"/>
-      <c r="C119" s="8" t="s">
-        <v>181</v>
+      <c r="B119" s="22"/>
+      <c r="C119" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="D119" s="18"/>
-      <c r="E119" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F119" s="6"/>
+      <c r="E119" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F119" s="18"/>
       <c r="G119" s="21"/>
       <c r="H119" s="13"/>
       <c r="I119" s="10">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="120">
@@ -3710,11 +3702,11 @@
       </c>
       <c r="B120" s="6"/>
       <c r="C120" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D120" s="18"/>
-      <c r="E120" s="11" t="s">
-        <v>184</v>
+      <c r="E120" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="F120" s="6"/>
       <c r="G120" s="21"/>
@@ -3729,32 +3721,30 @@
       </c>
       <c r="B121" s="6"/>
       <c r="C121" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D121" s="18"/>
       <c r="E121" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="F121" s="18"/>
+        <v>184</v>
+      </c>
+      <c r="F121" s="6"/>
       <c r="G121" s="21"/>
       <c r="H121" s="13"/>
       <c r="I121" s="10">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B122" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B122" s="6"/>
       <c r="C122" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D122" s="18"/>
       <c r="E122" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F122" s="18"/>
       <c r="G122" s="21"/>
@@ -3771,30 +3761,32 @@
         <v>27</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D123" s="18"/>
-      <c r="E123" s="8" t="s">
-        <v>190</v>
+      <c r="E123" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="F123" s="18"/>
       <c r="G123" s="21"/>
       <c r="H123" s="13"/>
       <c r="I123" s="10">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B124" s="6"/>
+      <c r="B124" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C124" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D124" s="18"/>
-      <c r="E124" s="11" t="s">
-        <v>192</v>
+      <c r="E124" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="F124" s="18"/>
       <c r="G124" s="21"/>
@@ -3809,11 +3801,11 @@
       </c>
       <c r="B125" s="6"/>
       <c r="C125" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D125" s="18"/>
       <c r="E125" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F125" s="18"/>
       <c r="G125" s="21"/>
@@ -3828,17 +3820,17 @@
       </c>
       <c r="B126" s="6"/>
       <c r="C126" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D126" s="6"/>
+        <v>193</v>
+      </c>
+      <c r="D126" s="18"/>
       <c r="E126" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="F126" s="6"/>
+        <v>194</v>
+      </c>
+      <c r="F126" s="18"/>
       <c r="G126" s="21"/>
       <c r="H126" s="13"/>
       <c r="I126" s="10">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="127">
@@ -3847,17 +3839,17 @@
       </c>
       <c r="B127" s="6"/>
       <c r="C127" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D127" s="6"/>
-      <c r="E127" s="8" t="s">
-        <v>198</v>
+      <c r="E127" s="11" t="s">
+        <v>196</v>
       </c>
       <c r="F127" s="6"/>
       <c r="G127" s="21"/>
       <c r="H127" s="13"/>
       <c r="I127" s="10">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="128">
@@ -3866,17 +3858,17 @@
       </c>
       <c r="B128" s="6"/>
       <c r="C128" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D128" s="6"/>
       <c r="E128" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F128" s="6"/>
       <c r="G128" s="21"/>
       <c r="H128" s="13"/>
       <c r="I128" s="10">
-        <v>215.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="129">
@@ -3885,17 +3877,17 @@
       </c>
       <c r="B129" s="6"/>
       <c r="C129" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D129" s="6"/>
       <c r="E129" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F129" s="6"/>
       <c r="G129" s="21"/>
       <c r="H129" s="13"/>
       <c r="I129" s="10">
-        <v>220.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="130">
@@ -3904,17 +3896,17 @@
       </c>
       <c r="B130" s="6"/>
       <c r="C130" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D130" s="6"/>
-      <c r="E130" s="11" t="s">
-        <v>204</v>
+      <c r="E130" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="F130" s="6"/>
       <c r="G130" s="21"/>
       <c r="H130" s="13"/>
       <c r="I130" s="10">
-        <v>210.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="131">
@@ -3923,57 +3915,57 @@
       </c>
       <c r="B131" s="6"/>
       <c r="C131" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D131" s="6"/>
       <c r="E131" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="21"/>
       <c r="H131" s="13"/>
       <c r="I131" s="10">
-        <v>80.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B132" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B132" s="6"/>
       <c r="C132" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D132" s="18"/>
-      <c r="E132" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="F132" s="18"/>
+        <v>205</v>
+      </c>
+      <c r="D132" s="6"/>
+      <c r="E132" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F132" s="6"/>
       <c r="G132" s="21"/>
       <c r="H132" s="13"/>
       <c r="I132" s="10">
-        <v>220.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B133" s="6"/>
+      <c r="B133" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C133" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D133" s="6"/>
+        <v>207</v>
+      </c>
+      <c r="D133" s="18"/>
       <c r="E133" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F133" s="6"/>
+        <v>208</v>
+      </c>
+      <c r="F133" s="18"/>
       <c r="G133" s="21"/>
       <c r="H133" s="13"/>
       <c r="I133" s="10">
-        <v>160.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="134">
@@ -3982,51 +3974,51 @@
       </c>
       <c r="B134" s="6"/>
       <c r="C134" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D134" s="6"/>
       <c r="E134" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="21"/>
       <c r="H134" s="13"/>
       <c r="I134" s="10">
-        <v>70.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B135" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B135" s="6"/>
       <c r="C135" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D135" s="18"/>
-      <c r="E135" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="F135" s="18"/>
+        <v>211</v>
+      </c>
+      <c r="D135" s="6"/>
+      <c r="E135" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F135" s="6"/>
       <c r="G135" s="21"/>
       <c r="H135" s="13"/>
       <c r="I135" s="10">
-        <v>220.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B136" s="6"/>
+      <c r="B136" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C136" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D136" s="18"/>
-      <c r="E136" s="8" t="s">
-        <v>216</v>
+      <c r="E136" s="11" t="s">
+        <v>214</v>
       </c>
       <c r="F136" s="18"/>
       <c r="G136" s="21"/>
@@ -4039,17 +4031,15 @@
       <c r="A137" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B137" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B137" s="6"/>
       <c r="C137" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D137" s="6"/>
+        <v>215</v>
+      </c>
+      <c r="D137" s="18"/>
       <c r="E137" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="F137" s="6"/>
+        <v>216</v>
+      </c>
+      <c r="F137" s="18"/>
       <c r="G137" s="21"/>
       <c r="H137" s="13"/>
       <c r="I137" s="10">
@@ -4060,19 +4050,21 @@
       <c r="A138" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B138" s="6"/>
+      <c r="B138" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C138" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D138" s="6"/>
       <c r="E138" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="21"/>
       <c r="H138" s="13"/>
       <c r="I138" s="10">
-        <v>185.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="139">
@@ -4081,13 +4073,13 @@
       </c>
       <c r="B139" s="6"/>
       <c r="C139" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D139" s="18"/>
+        <v>219</v>
+      </c>
+      <c r="D139" s="6"/>
       <c r="E139" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="F139" s="18"/>
+        <v>219</v>
+      </c>
+      <c r="F139" s="6"/>
       <c r="G139" s="21"/>
       <c r="H139" s="13"/>
       <c r="I139" s="10">
@@ -4098,15 +4090,13 @@
       <c r="A140" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B140" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B140" s="6"/>
       <c r="C140" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D140" s="18"/>
       <c r="E140" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F140" s="18"/>
       <c r="G140" s="21"/>
@@ -4119,15 +4109,17 @@
       <c r="A141" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B141" s="6"/>
+      <c r="B141" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C141" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D141" s="6"/>
+        <v>221</v>
+      </c>
+      <c r="D141" s="18"/>
       <c r="E141" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="F141" s="6"/>
+        <v>222</v>
+      </c>
+      <c r="F141" s="18"/>
       <c r="G141" s="21"/>
       <c r="H141" s="13"/>
       <c r="I141" s="10">
@@ -4140,17 +4132,17 @@
       </c>
       <c r="B142" s="6"/>
       <c r="C142" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D142" s="6"/>
       <c r="E142" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F142" s="6"/>
       <c r="G142" s="21"/>
       <c r="H142" s="13"/>
       <c r="I142" s="10">
-        <v>200.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="143">
@@ -4159,17 +4151,17 @@
       </c>
       <c r="B143" s="6"/>
       <c r="C143" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D143" s="6"/>
       <c r="E143" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="21"/>
       <c r="H143" s="13"/>
       <c r="I143" s="10">
-        <v>185.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="144">
@@ -4178,139 +4170,137 @@
       </c>
       <c r="B144" s="6"/>
       <c r="C144" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D144" s="6"/>
       <c r="E144" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="21"/>
       <c r="H144" s="13"/>
       <c r="I144" s="10">
-        <v>80.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B145" s="22"/>
-      <c r="C145" s="12" t="s">
-        <v>231</v>
+      <c r="A145" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B145" s="6"/>
+      <c r="C145" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="D145" s="6"/>
-      <c r="E145" s="12" t="s">
-        <v>232</v>
+      <c r="E145" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="21"/>
       <c r="H145" s="13"/>
       <c r="I145" s="10">
-        <v>120.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="6" t="s">
+      <c r="A146" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B146" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D146" s="18"/>
-      <c r="E146" s="8" t="s">
-        <v>234</v>
+      <c r="B146" s="22"/>
+      <c r="C146" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D146" s="6"/>
+      <c r="E146" s="12" t="s">
+        <v>232</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="21"/>
       <c r="H146" s="13"/>
       <c r="I146" s="10">
-        <v>130.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B147" s="6"/>
-      <c r="C147" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="D147" s="6"/>
-      <c r="E147" s="11" t="s">
-        <v>236</v>
+      <c r="B147" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D147" s="18"/>
+      <c r="E147" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="21"/>
       <c r="H147" s="13"/>
       <c r="I147" s="10">
-        <v>110.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B148" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C148" s="12" t="s">
-        <v>237</v>
+      <c r="A148" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B148" s="6"/>
+      <c r="C148" s="11" t="s">
+        <v>235</v>
       </c>
       <c r="D148" s="6"/>
-      <c r="E148" s="12" t="s">
-        <v>238</v>
+      <c r="E148" s="11" t="s">
+        <v>236</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="21"/>
       <c r="H148" s="13"/>
       <c r="I148" s="10">
-        <v>130.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B149" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="D149" s="18"/>
-      <c r="E149" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
+      </c>
+      <c r="D149" s="6"/>
+      <c r="E149" s="12" t="s">
+        <v>238</v>
       </c>
       <c r="F149" s="6"/>
       <c r="G149" s="21"/>
       <c r="H149" s="13"/>
       <c r="I149" s="10">
-        <v>260.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="6" t="s">
+      <c r="A150" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C150" s="8" t="s">
-        <v>241</v>
+      <c r="C150" s="12" t="s">
+        <v>239</v>
       </c>
       <c r="D150" s="18"/>
-      <c r="E150" s="11" t="s">
-        <v>242</v>
+      <c r="E150" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="F150" s="6"/>
       <c r="G150" s="21"/>
       <c r="H150" s="13"/>
       <c r="I150" s="10">
-        <v>210.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="151">
@@ -4321,11 +4311,11 @@
         <v>27</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D151" s="18"/>
       <c r="E151" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F151" s="6"/>
       <c r="G151" s="21"/>
@@ -4342,11 +4332,11 @@
         <v>27</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D152" s="18"/>
-      <c r="E152" s="8" t="s">
-        <v>246</v>
+      <c r="E152" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="F152" s="6"/>
       <c r="G152" s="21"/>
@@ -4356,121 +4346,123 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B153" s="12" t="s">
+      <c r="A153" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B153" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C153" s="12" t="s">
-        <v>247</v>
+      <c r="C153" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="D153" s="18"/>
-      <c r="E153" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="F153" s="18"/>
+      <c r="E153" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F153" s="6"/>
       <c r="G153" s="21"/>
       <c r="H153" s="13"/>
       <c r="I153" s="10">
-        <v>220.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="8" t="s">
+      <c r="A154" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B154" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C154" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="D154" s="6"/>
-      <c r="E154" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="F154" s="6"/>
+      <c r="C154" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D154" s="18"/>
+      <c r="E154" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="F154" s="18"/>
       <c r="G154" s="21"/>
       <c r="H154" s="13"/>
       <c r="I154" s="10">
-        <v>250.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B155" s="22"/>
-      <c r="C155" s="12" t="s">
-        <v>250</v>
+      <c r="A155" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="D155" s="6"/>
-      <c r="E155" s="12" t="s">
-        <v>251</v>
+      <c r="E155" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="F155" s="6"/>
       <c r="G155" s="21"/>
       <c r="H155" s="13"/>
-      <c r="I155" s="13">
-        <v>20.0</v>
+      <c r="I155" s="10">
+        <v>250.0</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="6" t="s">
+      <c r="A156" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B156" s="22"/>
-      <c r="C156" s="8" t="s">
-        <v>252</v>
+      <c r="C156" s="12" t="s">
+        <v>250</v>
       </c>
       <c r="D156" s="6"/>
-      <c r="E156" s="8" t="s">
-        <v>253</v>
+      <c r="E156" s="12" t="s">
+        <v>251</v>
       </c>
       <c r="F156" s="6"/>
       <c r="G156" s="21"/>
-      <c r="H156" s="10"/>
-      <c r="I156" s="10">
-        <v>40.0</v>
+      <c r="H156" s="13"/>
+      <c r="I156" s="13">
+        <v>20.0</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="23" t="s">
+      <c r="A157" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B157" s="6"/>
-      <c r="C157" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="D157" s="18"/>
-      <c r="E157" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="F157" s="18"/>
+      <c r="B157" s="22"/>
+      <c r="C157" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D157" s="6"/>
+      <c r="E157" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F157" s="6"/>
       <c r="G157" s="21"/>
       <c r="H157" s="10"/>
       <c r="I157" s="10">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="6" t="s">
+      <c r="A158" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B158" s="6"/>
-      <c r="C158" s="8" t="s">
-        <v>256</v>
+      <c r="C158" s="11" t="s">
+        <v>254</v>
       </c>
       <c r="D158" s="18"/>
-      <c r="E158" s="8" t="s">
-        <v>257</v>
+      <c r="E158" s="24" t="s">
+        <v>255</v>
       </c>
       <c r="F158" s="18"/>
       <c r="G158" s="21"/>
       <c r="H158" s="10"/>
       <c r="I158" s="10">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="159">
@@ -4479,17 +4471,17 @@
       </c>
       <c r="B159" s="6"/>
       <c r="C159" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D159" s="18"/>
       <c r="E159" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F159" s="18"/>
       <c r="G159" s="21"/>
-      <c r="H159" s="13"/>
+      <c r="H159" s="10"/>
       <c r="I159" s="10">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="160">
@@ -4498,17 +4490,17 @@
       </c>
       <c r="B160" s="6"/>
       <c r="C160" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D160" s="18"/>
       <c r="E160" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F160" s="18"/>
       <c r="G160" s="21"/>
       <c r="H160" s="13"/>
-      <c r="I160" s="13">
-        <v>30.0</v>
+      <c r="I160" s="10">
+        <v>50.0</v>
       </c>
     </row>
     <row r="161">
@@ -4517,17 +4509,17 @@
       </c>
       <c r="B161" s="6"/>
       <c r="C161" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D161" s="18"/>
       <c r="E161" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F161" s="18"/>
       <c r="G161" s="21"/>
       <c r="H161" s="13"/>
       <c r="I161" s="13">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="162">
@@ -4536,17 +4528,17 @@
       </c>
       <c r="B162" s="6"/>
       <c r="C162" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D162" s="18"/>
       <c r="E162" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F162" s="18"/>
       <c r="G162" s="21"/>
       <c r="H162" s="13"/>
-      <c r="I162" s="10">
-        <v>25.0</v>
+      <c r="I162" s="13">
+        <v>20.0</v>
       </c>
     </row>
     <row r="163">
@@ -4554,18 +4546,18 @@
         <v>19</v>
       </c>
       <c r="B163" s="6"/>
-      <c r="C163" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="D163" s="6"/>
-      <c r="E163" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="F163" s="6"/>
+      <c r="C163" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D163" s="18"/>
+      <c r="E163" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F163" s="18"/>
       <c r="G163" s="21"/>
       <c r="H163" s="13"/>
       <c r="I163" s="10">
-        <v>40.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="164">
@@ -4574,55 +4566,55 @@
       </c>
       <c r="B164" s="6"/>
       <c r="C164" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D164" s="6"/>
       <c r="E164" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="21"/>
       <c r="H164" s="13"/>
       <c r="I164" s="10">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="23" t="s">
+      <c r="A165" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B165" s="6"/>
       <c r="C165" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D165" s="6"/>
       <c r="E165" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F165" s="6"/>
       <c r="G165" s="21"/>
       <c r="H165" s="13"/>
       <c r="I165" s="10">
-        <v>150.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="6" t="s">
+      <c r="A166" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B166" s="6"/>
-      <c r="C166" s="8" t="s">
-        <v>272</v>
+      <c r="C166" s="11" t="s">
+        <v>270</v>
       </c>
       <c r="D166" s="6"/>
-      <c r="E166" s="8" t="s">
-        <v>273</v>
+      <c r="E166" s="11" t="s">
+        <v>271</v>
       </c>
       <c r="F166" s="6"/>
       <c r="G166" s="21"/>
       <c r="H166" s="13"/>
-      <c r="I166" s="13">
-        <v>15.0</v>
+      <c r="I166" s="10">
+        <v>150.0</v>
       </c>
     </row>
     <row r="167">
@@ -4630,17 +4622,17 @@
         <v>19</v>
       </c>
       <c r="B167" s="6"/>
-      <c r="C167" s="11" t="s">
-        <v>274</v>
+      <c r="C167" s="8" t="s">
+        <v>272</v>
       </c>
       <c r="D167" s="6"/>
-      <c r="E167" s="11" t="s">
-        <v>275</v>
+      <c r="E167" s="8" t="s">
+        <v>273</v>
       </c>
       <c r="F167" s="6"/>
       <c r="G167" s="21"/>
       <c r="H167" s="13"/>
-      <c r="I167" s="10">
+      <c r="I167" s="13">
         <v>15.0</v>
       </c>
     </row>
@@ -4648,26 +4640,39 @@
       <c r="A168" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B168" s="18"/>
-      <c r="C168" s="8" t="s">
+      <c r="B168" s="6"/>
+      <c r="C168" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D168" s="6"/>
+      <c r="E168" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="F168" s="6"/>
+      <c r="G168" s="21"/>
+      <c r="H168" s="13"/>
+      <c r="I168" s="10">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B169" s="18"/>
+      <c r="C169" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="D168" s="6"/>
-      <c r="E168" s="8" t="s">
+      <c r="D169" s="6"/>
+      <c r="E169" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="F168" s="6"/>
-      <c r="G168" s="6"/>
-      <c r="H168" s="13"/>
-      <c r="I168" s="13">
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="13"/>
+      <c r="I169" s="13">
         <v>60.0</v>
       </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="25"/>
-      <c r="B169" s="25"/>
-      <c r="C169" s="25"/>
-      <c r="E169" s="25"/>
     </row>
     <row r="170">
       <c r="A170" s="25"/>
@@ -4702,10 +4707,16 @@
     <row r="175">
       <c r="A175" s="25"/>
       <c r="B175" s="25"/>
+      <c r="C175" s="25"/>
+      <c r="E175" s="25"/>
     </row>
     <row r="176">
       <c r="A176" s="25"/>
       <c r="B176" s="25"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="25"/>
+      <c r="B177" s="25"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="HzO0Fg93vMmzV50RzkVvBi9N5a/l/IdM3dwp0IPGhDo="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="WW0QicYcZqQBGZ64XNXZ7mV9NFdvVEvqxXr8sb5p8ck="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="281">
   <si>
     <t>category</t>
   </si>
@@ -461,6 +461,9 @@
   </si>
   <si>
     <t>Naren Fruizy (Katkısız Meyve Suları)</t>
+  </si>
+  <si>
+    <t>Cappy</t>
   </si>
   <si>
     <t>Soda Types</t>
@@ -825,6 +828,12 @@
   </si>
   <si>
     <t>Bowl</t>
+  </si>
+  <si>
+    <t>Fig Dessert ( sugar-free)</t>
+  </si>
+  <si>
+    <t>İncir Uyutması (Şekersiz)</t>
   </si>
   <si>
     <t xml:space="preserve">Decaffeinated Coffee price difference </t>
@@ -3336,15 +3345,23 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="8"/>
+      <c r="A101" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
+      <c r="C101" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="D101" s="18"/>
-      <c r="E101" s="8"/>
+      <c r="E101" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="F101" s="18"/>
       <c r="G101" s="13"/>
       <c r="H101" s="12"/>
-      <c r="I101" s="10"/>
+      <c r="I101" s="10">
+        <v>75.0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="8" t="s">
@@ -3354,11 +3371,11 @@
         <v>27</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D102" s="18"/>
       <c r="E102" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F102" s="18"/>
       <c r="G102" s="13"/>
@@ -3373,11 +3390,11 @@
       </c>
       <c r="B103" s="8"/>
       <c r="C103" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D103" s="18"/>
       <c r="E103" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F103" s="18"/>
       <c r="G103" s="13"/>
@@ -3392,11 +3409,11 @@
       </c>
       <c r="B104" s="8"/>
       <c r="C104" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D104" s="18"/>
       <c r="E104" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F104" s="18"/>
       <c r="G104" s="12"/>
@@ -3411,11 +3428,11 @@
       </c>
       <c r="B105" s="8"/>
       <c r="C105" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D105" s="18"/>
       <c r="E105" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F105" s="18"/>
       <c r="G105" s="12"/>
@@ -3430,11 +3447,11 @@
       </c>
       <c r="B106" s="8"/>
       <c r="C106" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D106" s="18"/>
       <c r="E106" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F106" s="6"/>
       <c r="G106" s="12"/>
@@ -3451,11 +3468,11 @@
         <v>27</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D107" s="18"/>
       <c r="E107" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F107" s="18"/>
       <c r="G107" s="12"/>
@@ -3470,11 +3487,11 @@
       </c>
       <c r="B108" s="6"/>
       <c r="C108" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D108" s="16"/>
       <c r="E108" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F108" s="18"/>
       <c r="G108" s="12"/>
@@ -3491,11 +3508,11 @@
         <v>27</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D109" s="18"/>
       <c r="E109" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F109" s="18"/>
       <c r="G109" s="12"/>
@@ -3510,11 +3527,11 @@
       </c>
       <c r="B110" s="6"/>
       <c r="C110" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D110" s="18"/>
       <c r="E110" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F110" s="18"/>
       <c r="G110" s="12"/>
@@ -3529,11 +3546,11 @@
       </c>
       <c r="B111" s="6"/>
       <c r="C111" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D111" s="18"/>
       <c r="E111" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F111" s="18"/>
       <c r="G111" s="12"/>
@@ -3548,11 +3565,11 @@
       </c>
       <c r="B112" s="6"/>
       <c r="C112" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D112" s="18"/>
       <c r="E112" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F112" s="18"/>
       <c r="G112" s="12"/>
@@ -3567,11 +3584,11 @@
       </c>
       <c r="B113" s="6"/>
       <c r="C113" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D113" s="18"/>
       <c r="E113" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F113" s="18"/>
       <c r="G113" s="12"/>
@@ -3586,11 +3603,11 @@
       </c>
       <c r="B114" s="6"/>
       <c r="C114" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D114" s="18"/>
       <c r="E114" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F114" s="18"/>
       <c r="G114" s="12"/>
@@ -3605,11 +3622,11 @@
       </c>
       <c r="B115" s="6"/>
       <c r="C115" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D115" s="18"/>
       <c r="E115" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F115" s="18"/>
       <c r="G115" s="12"/>
@@ -3624,11 +3641,11 @@
       </c>
       <c r="B116" s="6"/>
       <c r="C116" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D116" s="18"/>
       <c r="E116" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F116" s="18"/>
       <c r="G116" s="12"/>
@@ -3645,11 +3662,11 @@
         <v>27</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D117" s="18"/>
       <c r="E117" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F117" s="18"/>
       <c r="G117" s="21"/>
@@ -3664,11 +3681,11 @@
       </c>
       <c r="B118" s="22"/>
       <c r="C118" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D118" s="18"/>
       <c r="E118" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F118" s="18"/>
       <c r="G118" s="21"/>
@@ -3683,11 +3700,11 @@
       </c>
       <c r="B119" s="22"/>
       <c r="C119" s="12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D119" s="18"/>
       <c r="E119" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F119" s="18"/>
       <c r="G119" s="21"/>
@@ -3702,11 +3719,11 @@
       </c>
       <c r="B120" s="6"/>
       <c r="C120" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D120" s="18"/>
       <c r="E120" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F120" s="6"/>
       <c r="G120" s="21"/>
@@ -3721,11 +3738,11 @@
       </c>
       <c r="B121" s="6"/>
       <c r="C121" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D121" s="18"/>
       <c r="E121" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F121" s="6"/>
       <c r="G121" s="21"/>
@@ -3740,11 +3757,11 @@
       </c>
       <c r="B122" s="6"/>
       <c r="C122" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D122" s="18"/>
       <c r="E122" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F122" s="18"/>
       <c r="G122" s="21"/>
@@ -3761,11 +3778,11 @@
         <v>27</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D123" s="18"/>
       <c r="E123" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F123" s="18"/>
       <c r="G123" s="21"/>
@@ -3782,11 +3799,11 @@
         <v>27</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D124" s="18"/>
       <c r="E124" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F124" s="18"/>
       <c r="G124" s="21"/>
@@ -3801,11 +3818,11 @@
       </c>
       <c r="B125" s="6"/>
       <c r="C125" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D125" s="18"/>
       <c r="E125" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F125" s="18"/>
       <c r="G125" s="21"/>
@@ -3820,11 +3837,11 @@
       </c>
       <c r="B126" s="6"/>
       <c r="C126" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D126" s="18"/>
       <c r="E126" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F126" s="18"/>
       <c r="G126" s="21"/>
@@ -3839,11 +3856,11 @@
       </c>
       <c r="B127" s="6"/>
       <c r="C127" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D127" s="6"/>
       <c r="E127" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F127" s="6"/>
       <c r="G127" s="21"/>
@@ -3858,11 +3875,11 @@
       </c>
       <c r="B128" s="6"/>
       <c r="C128" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D128" s="6"/>
       <c r="E128" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F128" s="6"/>
       <c r="G128" s="21"/>
@@ -3877,11 +3894,11 @@
       </c>
       <c r="B129" s="6"/>
       <c r="C129" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D129" s="6"/>
       <c r="E129" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F129" s="6"/>
       <c r="G129" s="21"/>
@@ -3896,11 +3913,11 @@
       </c>
       <c r="B130" s="6"/>
       <c r="C130" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D130" s="6"/>
       <c r="E130" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F130" s="6"/>
       <c r="G130" s="21"/>
@@ -3915,11 +3932,11 @@
       </c>
       <c r="B131" s="6"/>
       <c r="C131" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D131" s="6"/>
       <c r="E131" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="21"/>
@@ -3934,11 +3951,11 @@
       </c>
       <c r="B132" s="6"/>
       <c r="C132" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D132" s="6"/>
       <c r="E132" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F132" s="6"/>
       <c r="G132" s="21"/>
@@ -3955,11 +3972,11 @@
         <v>27</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D133" s="18"/>
       <c r="E133" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F133" s="18"/>
       <c r="G133" s="21"/>
@@ -3974,11 +3991,11 @@
       </c>
       <c r="B134" s="6"/>
       <c r="C134" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D134" s="6"/>
       <c r="E134" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="21"/>
@@ -3993,11 +4010,11 @@
       </c>
       <c r="B135" s="6"/>
       <c r="C135" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D135" s="6"/>
       <c r="E135" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="21"/>
@@ -4014,11 +4031,11 @@
         <v>27</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D136" s="18"/>
       <c r="E136" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F136" s="18"/>
       <c r="G136" s="21"/>
@@ -4033,11 +4050,11 @@
       </c>
       <c r="B137" s="6"/>
       <c r="C137" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D137" s="18"/>
       <c r="E137" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F137" s="18"/>
       <c r="G137" s="21"/>
@@ -4054,11 +4071,11 @@
         <v>27</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D138" s="6"/>
       <c r="E138" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="21"/>
@@ -4073,11 +4090,11 @@
       </c>
       <c r="B139" s="6"/>
       <c r="C139" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D139" s="6"/>
       <c r="E139" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F139" s="6"/>
       <c r="G139" s="21"/>
@@ -4092,11 +4109,11 @@
       </c>
       <c r="B140" s="6"/>
       <c r="C140" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D140" s="18"/>
       <c r="E140" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F140" s="18"/>
       <c r="G140" s="21"/>
@@ -4113,11 +4130,11 @@
         <v>27</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D141" s="18"/>
       <c r="E141" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F141" s="18"/>
       <c r="G141" s="21"/>
@@ -4132,11 +4149,11 @@
       </c>
       <c r="B142" s="6"/>
       <c r="C142" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D142" s="6"/>
       <c r="E142" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F142" s="6"/>
       <c r="G142" s="21"/>
@@ -4151,11 +4168,11 @@
       </c>
       <c r="B143" s="6"/>
       <c r="C143" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D143" s="6"/>
       <c r="E143" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="21"/>
@@ -4170,11 +4187,11 @@
       </c>
       <c r="B144" s="6"/>
       <c r="C144" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D144" s="6"/>
       <c r="E144" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="21"/>
@@ -4189,11 +4206,11 @@
       </c>
       <c r="B145" s="6"/>
       <c r="C145" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D145" s="6"/>
       <c r="E145" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="21"/>
@@ -4208,11 +4225,11 @@
       </c>
       <c r="B146" s="22"/>
       <c r="C146" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D146" s="6"/>
       <c r="E146" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="21"/>
@@ -4229,11 +4246,11 @@
         <v>27</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D147" s="18"/>
       <c r="E147" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="21"/>
@@ -4248,11 +4265,11 @@
       </c>
       <c r="B148" s="6"/>
       <c r="C148" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D148" s="6"/>
       <c r="E148" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="21"/>
@@ -4269,11 +4286,11 @@
         <v>27</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D149" s="6"/>
       <c r="E149" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F149" s="6"/>
       <c r="G149" s="21"/>
@@ -4290,11 +4307,11 @@
         <v>27</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D150" s="18"/>
       <c r="E150" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F150" s="6"/>
       <c r="G150" s="21"/>
@@ -4311,11 +4328,11 @@
         <v>27</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D151" s="18"/>
       <c r="E151" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F151" s="6"/>
       <c r="G151" s="21"/>
@@ -4332,11 +4349,11 @@
         <v>27</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D152" s="18"/>
       <c r="E152" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F152" s="6"/>
       <c r="G152" s="21"/>
@@ -4353,11 +4370,11 @@
         <v>27</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D153" s="18"/>
       <c r="E153" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="21"/>
@@ -4374,11 +4391,11 @@
         <v>27</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D154" s="18"/>
       <c r="E154" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F154" s="18"/>
       <c r="G154" s="21"/>
@@ -4395,11 +4412,11 @@
         <v>27</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D155" s="6"/>
       <c r="E155" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F155" s="6"/>
       <c r="G155" s="21"/>
@@ -4409,79 +4426,79 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B156" s="22"/>
-      <c r="C156" s="12" t="s">
-        <v>250</v>
+      <c r="A156" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B156" s="8"/>
+      <c r="C156" s="11" t="s">
+        <v>251</v>
       </c>
       <c r="D156" s="6"/>
-      <c r="E156" s="12" t="s">
-        <v>251</v>
+      <c r="E156" s="11" t="s">
+        <v>252</v>
       </c>
       <c r="F156" s="6"/>
       <c r="G156" s="21"/>
       <c r="H156" s="13"/>
-      <c r="I156" s="13">
-        <v>20.0</v>
+      <c r="I156" s="10">
+        <v>155.0</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="6" t="s">
+      <c r="A157" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B157" s="22"/>
-      <c r="C157" s="8" t="s">
-        <v>252</v>
+      <c r="C157" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="D157" s="6"/>
-      <c r="E157" s="8" t="s">
-        <v>253</v>
+      <c r="E157" s="12" t="s">
+        <v>254</v>
       </c>
       <c r="F157" s="6"/>
       <c r="G157" s="21"/>
-      <c r="H157" s="10"/>
-      <c r="I157" s="10">
-        <v>40.0</v>
+      <c r="H157" s="13"/>
+      <c r="I157" s="13">
+        <v>20.0</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="23" t="s">
+      <c r="A158" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B158" s="6"/>
-      <c r="C158" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="D158" s="18"/>
-      <c r="E158" s="24" t="s">
+      <c r="B158" s="22"/>
+      <c r="C158" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="F158" s="18"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F158" s="6"/>
       <c r="G158" s="21"/>
       <c r="H158" s="10"/>
       <c r="I158" s="10">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="6" t="s">
+      <c r="A159" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B159" s="6"/>
-      <c r="C159" s="8" t="s">
-        <v>256</v>
+      <c r="C159" s="11" t="s">
+        <v>257</v>
       </c>
       <c r="D159" s="18"/>
-      <c r="E159" s="8" t="s">
-        <v>257</v>
+      <c r="E159" s="24" t="s">
+        <v>258</v>
       </c>
       <c r="F159" s="18"/>
       <c r="G159" s="21"/>
       <c r="H159" s="10"/>
       <c r="I159" s="10">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="160">
@@ -4490,17 +4507,17 @@
       </c>
       <c r="B160" s="6"/>
       <c r="C160" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D160" s="18"/>
       <c r="E160" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F160" s="18"/>
       <c r="G160" s="21"/>
-      <c r="H160" s="13"/>
+      <c r="H160" s="10"/>
       <c r="I160" s="10">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="161">
@@ -4509,17 +4526,17 @@
       </c>
       <c r="B161" s="6"/>
       <c r="C161" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D161" s="18"/>
       <c r="E161" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F161" s="18"/>
       <c r="G161" s="21"/>
       <c r="H161" s="13"/>
-      <c r="I161" s="13">
-        <v>30.0</v>
+      <c r="I161" s="10">
+        <v>50.0</v>
       </c>
     </row>
     <row r="162">
@@ -4528,17 +4545,17 @@
       </c>
       <c r="B162" s="6"/>
       <c r="C162" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D162" s="18"/>
       <c r="E162" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F162" s="18"/>
       <c r="G162" s="21"/>
       <c r="H162" s="13"/>
       <c r="I162" s="13">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="163">
@@ -4547,17 +4564,17 @@
       </c>
       <c r="B163" s="6"/>
       <c r="C163" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D163" s="18"/>
       <c r="E163" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F163" s="18"/>
       <c r="G163" s="21"/>
       <c r="H163" s="13"/>
-      <c r="I163" s="10">
-        <v>25.0</v>
+      <c r="I163" s="13">
+        <v>20.0</v>
       </c>
     </row>
     <row r="164">
@@ -4565,18 +4582,18 @@
         <v>19</v>
       </c>
       <c r="B164" s="6"/>
-      <c r="C164" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="D164" s="6"/>
-      <c r="E164" s="11" t="s">
+      <c r="C164" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="F164" s="6"/>
+      <c r="D164" s="18"/>
+      <c r="E164" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="F164" s="18"/>
       <c r="G164" s="21"/>
       <c r="H164" s="13"/>
       <c r="I164" s="10">
-        <v>40.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="165">
@@ -4585,55 +4602,55 @@
       </c>
       <c r="B165" s="6"/>
       <c r="C165" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D165" s="6"/>
       <c r="E165" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F165" s="6"/>
       <c r="G165" s="21"/>
       <c r="H165" s="13"/>
       <c r="I165" s="10">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="23" t="s">
+      <c r="A166" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B166" s="6"/>
       <c r="C166" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D166" s="6"/>
       <c r="E166" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F166" s="6"/>
       <c r="G166" s="21"/>
       <c r="H166" s="13"/>
       <c r="I166" s="10">
-        <v>150.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="6" t="s">
+      <c r="A167" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B167" s="6"/>
-      <c r="C167" s="8" t="s">
-        <v>272</v>
+      <c r="C167" s="11" t="s">
+        <v>273</v>
       </c>
       <c r="D167" s="6"/>
-      <c r="E167" s="8" t="s">
-        <v>273</v>
+      <c r="E167" s="11" t="s">
+        <v>274</v>
       </c>
       <c r="F167" s="6"/>
       <c r="G167" s="21"/>
       <c r="H167" s="13"/>
-      <c r="I167" s="13">
-        <v>15.0</v>
+      <c r="I167" s="10">
+        <v>150.0</v>
       </c>
     </row>
     <row r="168">
@@ -4641,17 +4658,17 @@
         <v>19</v>
       </c>
       <c r="B168" s="6"/>
-      <c r="C168" s="11" t="s">
-        <v>274</v>
+      <c r="C168" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="D168" s="6"/>
-      <c r="E168" s="11" t="s">
-        <v>275</v>
+      <c r="E168" s="8" t="s">
+        <v>276</v>
       </c>
       <c r="F168" s="6"/>
       <c r="G168" s="21"/>
       <c r="H168" s="13"/>
-      <c r="I168" s="10">
+      <c r="I168" s="13">
         <v>15.0</v>
       </c>
     </row>
@@ -4659,26 +4676,39 @@
       <c r="A169" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B169" s="18"/>
-      <c r="C169" s="8" t="s">
-        <v>276</v>
+      <c r="B169" s="6"/>
+      <c r="C169" s="11" t="s">
+        <v>277</v>
       </c>
       <c r="D169" s="6"/>
-      <c r="E169" s="8" t="s">
-        <v>277</v>
+      <c r="E169" s="11" t="s">
+        <v>278</v>
       </c>
       <c r="F169" s="6"/>
-      <c r="G169" s="6"/>
+      <c r="G169" s="21"/>
       <c r="H169" s="13"/>
-      <c r="I169" s="13">
+      <c r="I169" s="10">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B170" s="18"/>
+      <c r="C170" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D170" s="6"/>
+      <c r="E170" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="13"/>
+      <c r="I170" s="13">
         <v>60.0</v>
       </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="25"/>
-      <c r="B170" s="25"/>
-      <c r="C170" s="25"/>
-      <c r="E170" s="25"/>
     </row>
     <row r="171">
       <c r="A171" s="25"/>
@@ -4713,10 +4743,16 @@
     <row r="176">
       <c r="A176" s="25"/>
       <c r="B176" s="25"/>
+      <c r="C176" s="25"/>
+      <c r="E176" s="25"/>
     </row>
     <row r="177">
       <c r="A177" s="25"/>
       <c r="B177" s="25"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="25"/>
+      <c r="B178" s="25"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -10,7 +10,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="WW0QicYcZqQBGZ64XNXZ7mV9NFdvVEvqxXr8sb5p8ck="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="FKmOTYdGV6rnEkPo3D9zw8ShqHBZdMxmExfgUxk//3Q="/>
     </ext>
   </extLst>
 </workbook>
@@ -4384,140 +4384,132 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B154" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C154" s="12" t="s">
-        <v>248</v>
-      </c>
+      <c r="A154" s="12"/>
+      <c r="B154" s="12"/>
+      <c r="C154" s="12"/>
       <c r="D154" s="18"/>
-      <c r="E154" s="12" t="s">
-        <v>249</v>
-      </c>
+      <c r="E154" s="12"/>
       <c r="F154" s="18"/>
       <c r="G154" s="21"/>
       <c r="H154" s="13"/>
-      <c r="I154" s="10">
-        <v>220.0</v>
-      </c>
+      <c r="I154" s="10"/>
     </row>
     <row r="155">
-      <c r="A155" s="8" t="s">
+      <c r="A155" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="B155" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C155" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D155" s="6"/>
-      <c r="E155" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="F155" s="6"/>
+      <c r="C155" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D155" s="18"/>
+      <c r="E155" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="F155" s="18"/>
       <c r="G155" s="21"/>
       <c r="H155" s="13"/>
       <c r="I155" s="10">
-        <v>250.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="11" t="s">
+      <c r="A156" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B156" s="8"/>
-      <c r="C156" s="11" t="s">
-        <v>251</v>
+      <c r="B156" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="D156" s="6"/>
-      <c r="E156" s="11" t="s">
-        <v>252</v>
+      <c r="E156" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="F156" s="6"/>
       <c r="G156" s="21"/>
       <c r="H156" s="13"/>
       <c r="I156" s="10">
-        <v>155.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B157" s="22"/>
-      <c r="C157" s="12" t="s">
-        <v>253</v>
+      <c r="A157" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B157" s="8"/>
+      <c r="C157" s="11" t="s">
+        <v>251</v>
       </c>
       <c r="D157" s="6"/>
-      <c r="E157" s="12" t="s">
-        <v>254</v>
+      <c r="E157" s="11" t="s">
+        <v>252</v>
       </c>
       <c r="F157" s="6"/>
       <c r="G157" s="21"/>
       <c r="H157" s="13"/>
-      <c r="I157" s="13">
-        <v>20.0</v>
+      <c r="I157" s="10">
+        <v>155.0</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="6" t="s">
+      <c r="A158" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B158" s="22"/>
-      <c r="C158" s="8" t="s">
-        <v>255</v>
+      <c r="C158" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="D158" s="6"/>
-      <c r="E158" s="8" t="s">
-        <v>256</v>
+      <c r="E158" s="12" t="s">
+        <v>254</v>
       </c>
       <c r="F158" s="6"/>
       <c r="G158" s="21"/>
-      <c r="H158" s="10"/>
-      <c r="I158" s="10">
-        <v>40.0</v>
+      <c r="H158" s="13"/>
+      <c r="I158" s="13">
+        <v>20.0</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="23" t="s">
+      <c r="A159" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B159" s="6"/>
-      <c r="C159" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="D159" s="18"/>
-      <c r="E159" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="F159" s="18"/>
+      <c r="B159" s="22"/>
+      <c r="C159" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D159" s="6"/>
+      <c r="E159" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F159" s="6"/>
       <c r="G159" s="21"/>
       <c r="H159" s="10"/>
       <c r="I159" s="10">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="6" t="s">
+      <c r="A160" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B160" s="6"/>
-      <c r="C160" s="8" t="s">
-        <v>259</v>
+      <c r="C160" s="11" t="s">
+        <v>257</v>
       </c>
       <c r="D160" s="18"/>
-      <c r="E160" s="8" t="s">
-        <v>260</v>
+      <c r="E160" s="24" t="s">
+        <v>258</v>
       </c>
       <c r="F160" s="18"/>
       <c r="G160" s="21"/>
       <c r="H160" s="10"/>
       <c r="I160" s="10">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="161">
@@ -4526,17 +4518,17 @@
       </c>
       <c r="B161" s="6"/>
       <c r="C161" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D161" s="18"/>
       <c r="E161" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F161" s="18"/>
       <c r="G161" s="21"/>
-      <c r="H161" s="13"/>
+      <c r="H161" s="10"/>
       <c r="I161" s="10">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="162">
@@ -4545,17 +4537,17 @@
       </c>
       <c r="B162" s="6"/>
       <c r="C162" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D162" s="18"/>
       <c r="E162" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F162" s="18"/>
       <c r="G162" s="21"/>
       <c r="H162" s="13"/>
-      <c r="I162" s="13">
-        <v>30.0</v>
+      <c r="I162" s="10">
+        <v>50.0</v>
       </c>
     </row>
     <row r="163">
@@ -4564,17 +4556,17 @@
       </c>
       <c r="B163" s="6"/>
       <c r="C163" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D163" s="18"/>
       <c r="E163" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F163" s="18"/>
       <c r="G163" s="21"/>
       <c r="H163" s="13"/>
       <c r="I163" s="13">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="164">
@@ -4583,17 +4575,17 @@
       </c>
       <c r="B164" s="6"/>
       <c r="C164" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D164" s="18"/>
       <c r="E164" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F164" s="18"/>
       <c r="G164" s="21"/>
       <c r="H164" s="13"/>
-      <c r="I164" s="10">
-        <v>25.0</v>
+      <c r="I164" s="13">
+        <v>20.0</v>
       </c>
     </row>
     <row r="165">
@@ -4601,18 +4593,18 @@
         <v>19</v>
       </c>
       <c r="B165" s="6"/>
-      <c r="C165" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="D165" s="6"/>
-      <c r="E165" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="F165" s="6"/>
+      <c r="C165" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D165" s="18"/>
+      <c r="E165" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="F165" s="18"/>
       <c r="G165" s="21"/>
       <c r="H165" s="13"/>
       <c r="I165" s="10">
-        <v>40.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="166">
@@ -4621,55 +4613,55 @@
       </c>
       <c r="B166" s="6"/>
       <c r="C166" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D166" s="6"/>
       <c r="E166" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F166" s="6"/>
       <c r="G166" s="21"/>
       <c r="H166" s="13"/>
       <c r="I166" s="10">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="23" t="s">
+      <c r="A167" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B167" s="6"/>
       <c r="C167" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D167" s="6"/>
       <c r="E167" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F167" s="6"/>
       <c r="G167" s="21"/>
       <c r="H167" s="13"/>
       <c r="I167" s="10">
-        <v>150.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="6" t="s">
+      <c r="A168" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B168" s="6"/>
-      <c r="C168" s="8" t="s">
-        <v>275</v>
+      <c r="C168" s="11" t="s">
+        <v>273</v>
       </c>
       <c r="D168" s="6"/>
-      <c r="E168" s="8" t="s">
-        <v>276</v>
+      <c r="E168" s="11" t="s">
+        <v>274</v>
       </c>
       <c r="F168" s="6"/>
       <c r="G168" s="21"/>
       <c r="H168" s="13"/>
-      <c r="I168" s="13">
-        <v>15.0</v>
+      <c r="I168" s="10">
+        <v>150.0</v>
       </c>
     </row>
     <row r="169">
@@ -4677,17 +4669,17 @@
         <v>19</v>
       </c>
       <c r="B169" s="6"/>
-      <c r="C169" s="11" t="s">
-        <v>277</v>
+      <c r="C169" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="D169" s="6"/>
-      <c r="E169" s="11" t="s">
-        <v>278</v>
+      <c r="E169" s="8" t="s">
+        <v>276</v>
       </c>
       <c r="F169" s="6"/>
       <c r="G169" s="21"/>
       <c r="H169" s="13"/>
-      <c r="I169" s="10">
+      <c r="I169" s="13">
         <v>15.0</v>
       </c>
     </row>
@@ -4695,26 +4687,39 @@
       <c r="A170" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B170" s="18"/>
-      <c r="C170" s="8" t="s">
+      <c r="B170" s="6"/>
+      <c r="C170" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D170" s="6"/>
+      <c r="E170" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="F170" s="6"/>
+      <c r="G170" s="21"/>
+      <c r="H170" s="13"/>
+      <c r="I170" s="10">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B171" s="18"/>
+      <c r="C171" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="D170" s="6"/>
-      <c r="E170" s="8" t="s">
+      <c r="D171" s="6"/>
+      <c r="E171" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="F170" s="6"/>
-      <c r="G170" s="6"/>
-      <c r="H170" s="13"/>
-      <c r="I170" s="13">
+      <c r="F171" s="6"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="13"/>
+      <c r="I171" s="13">
         <v>60.0</v>
       </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="25"/>
-      <c r="B171" s="25"/>
-      <c r="C171" s="25"/>
-      <c r="E171" s="25"/>
     </row>
     <row r="172">
       <c r="A172" s="25"/>
@@ -4749,10 +4754,16 @@
     <row r="177">
       <c r="A177" s="25"/>
       <c r="B177" s="25"/>
+      <c r="C177" s="25"/>
+      <c r="E177" s="25"/>
     </row>
     <row r="178">
       <c r="A178" s="25"/>
       <c r="B178" s="25"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="25"/>
+      <c r="B179" s="25"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="FKmOTYdGV6rnEkPo3D9zw8ShqHBZdMxmExfgUxk//3Q="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="rLhLhsUxs7TySeIqbggw80Y/mJSBCmFVPi99WoZsPvc="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="284">
   <si>
     <t>category</t>
   </si>
@@ -821,6 +821,15 @@
     <t>Sandeviç (Kaşar Peyniri+Chedar+Salam)</t>
   </si>
   <si>
+    <t>VEGAN - GLUTEIN FREE</t>
+  </si>
+  <si>
+    <t>Glutein Free Cake</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gluteinsiz Ekler</t>
+  </si>
+  <si>
     <t>Fruit Salad</t>
   </si>
   <si>
@@ -924,7 +933,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -990,6 +999,23 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF1F1F1F"/>
       <name val="Helvetica Neue"/>
@@ -1047,7 +1073,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1090,7 +1116,23 @@
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
@@ -4384,170 +4426,200 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="12"/>
+      <c r="A154" s="24" t="s">
+        <v>248</v>
+      </c>
       <c r="B154" s="12"/>
-      <c r="C154" s="12"/>
+      <c r="C154" s="25" t="s">
+        <v>249</v>
+      </c>
       <c r="D154" s="18"/>
-      <c r="E154" s="12"/>
+      <c r="E154" s="25" t="s">
+        <v>250</v>
+      </c>
       <c r="F154" s="18"/>
       <c r="G154" s="21"/>
       <c r="H154" s="13"/>
-      <c r="I154" s="10"/>
+      <c r="I154" s="10">
+        <v>165.0</v>
+      </c>
     </row>
     <row r="155">
-      <c r="A155" s="12" t="s">
+      <c r="A155" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B155" s="27"/>
+      <c r="C155" s="27"/>
+      <c r="D155" s="28"/>
+      <c r="E155" s="27"/>
+      <c r="F155" s="28"/>
+      <c r="G155" s="22"/>
+      <c r="H155" s="29"/>
+      <c r="I155" s="30"/>
+      <c r="J155" s="31"/>
+      <c r="K155" s="31"/>
+      <c r="L155" s="31"/>
+      <c r="M155" s="31"/>
+      <c r="N155" s="31"/>
+      <c r="O155" s="31"/>
+      <c r="P155" s="31"/>
+      <c r="Q155" s="31"/>
+      <c r="R155" s="31"/>
+      <c r="S155" s="31"/>
+      <c r="T155" s="31"/>
+      <c r="U155" s="31"/>
+      <c r="V155" s="31"/>
+      <c r="W155" s="31"/>
+      <c r="X155" s="31"/>
+      <c r="Y155" s="31"/>
+      <c r="Z155" s="31"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B156" s="27"/>
+      <c r="C156" s="27"/>
+      <c r="D156" s="28"/>
+      <c r="E156" s="27"/>
+      <c r="F156" s="28"/>
+      <c r="G156" s="22"/>
+      <c r="H156" s="29"/>
+      <c r="I156" s="30"/>
+      <c r="J156" s="31"/>
+      <c r="K156" s="31"/>
+      <c r="L156" s="31"/>
+      <c r="M156" s="31"/>
+      <c r="N156" s="31"/>
+      <c r="O156" s="31"/>
+      <c r="P156" s="31"/>
+      <c r="Q156" s="31"/>
+      <c r="R156" s="31"/>
+      <c r="S156" s="31"/>
+      <c r="T156" s="31"/>
+      <c r="U156" s="31"/>
+      <c r="V156" s="31"/>
+      <c r="W156" s="31"/>
+      <c r="X156" s="31"/>
+      <c r="Y156" s="31"/>
+      <c r="Z156" s="31"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B155" s="12" t="s">
+      <c r="B157" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C155" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="D155" s="18"/>
-      <c r="E155" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="F155" s="18"/>
-      <c r="G155" s="21"/>
-      <c r="H155" s="13"/>
-      <c r="I155" s="10">
-        <v>220.0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D156" s="6"/>
-      <c r="E156" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="F156" s="6"/>
-      <c r="G156" s="21"/>
-      <c r="H156" s="13"/>
-      <c r="I156" s="10">
-        <v>250.0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B157" s="8"/>
-      <c r="C157" s="11" t="s">
+      <c r="C157" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="D157" s="6"/>
-      <c r="E157" s="11" t="s">
+      <c r="D157" s="18"/>
+      <c r="E157" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="F157" s="6"/>
+      <c r="F157" s="18"/>
       <c r="G157" s="21"/>
       <c r="H157" s="13"/>
       <c r="I157" s="10">
-        <v>155.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B158" s="22"/>
-      <c r="C158" s="12" t="s">
+      <c r="A158" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C158" s="8" t="s">
         <v>253</v>
       </c>
       <c r="D158" s="6"/>
-      <c r="E158" s="12" t="s">
-        <v>254</v>
+      <c r="E158" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="F158" s="6"/>
       <c r="G158" s="21"/>
       <c r="H158" s="13"/>
-      <c r="I158" s="13">
-        <v>20.0</v>
+      <c r="I158" s="10">
+        <v>250.0</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B159" s="22"/>
-      <c r="C159" s="8" t="s">
+      <c r="A159" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B159" s="8"/>
+      <c r="C159" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="D159" s="6"/>
+      <c r="E159" s="11" t="s">
         <v>255</v>
-      </c>
-      <c r="D159" s="6"/>
-      <c r="E159" s="8" t="s">
-        <v>256</v>
       </c>
       <c r="F159" s="6"/>
       <c r="G159" s="21"/>
-      <c r="H159" s="10"/>
+      <c r="H159" s="13"/>
       <c r="I159" s="10">
-        <v>40.0</v>
+        <v>155.0</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="23" t="s">
+      <c r="A160" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="11" t="s">
+      <c r="B160" s="22"/>
+      <c r="C160" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D160" s="6"/>
+      <c r="E160" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="D160" s="18"/>
-      <c r="E160" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="F160" s="18"/>
+      <c r="F160" s="6"/>
       <c r="G160" s="21"/>
-      <c r="H160" s="10"/>
-      <c r="I160" s="10">
-        <v>30.0</v>
+      <c r="H160" s="13"/>
+      <c r="I160" s="13">
+        <v>20.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B161" s="6"/>
+      <c r="B161" s="22"/>
       <c r="C161" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D161" s="6"/>
+      <c r="E161" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D161" s="18"/>
-      <c r="E161" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="F161" s="18"/>
+      <c r="F161" s="6"/>
       <c r="G161" s="21"/>
       <c r="H161" s="10"/>
       <c r="I161" s="10">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="6" t="s">
+      <c r="A162" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B162" s="6"/>
-      <c r="C162" s="8" t="s">
+      <c r="C162" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D162" s="18"/>
+      <c r="E162" s="32" t="s">
         <v>261</v>
-      </c>
-      <c r="D162" s="18"/>
-      <c r="E162" s="8" t="s">
-        <v>262</v>
       </c>
       <c r="F162" s="18"/>
       <c r="G162" s="21"/>
-      <c r="H162" s="13"/>
+      <c r="H162" s="10"/>
       <c r="I162" s="10">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="163">
@@ -4556,17 +4628,17 @@
       </c>
       <c r="B163" s="6"/>
       <c r="C163" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D163" s="18"/>
       <c r="E163" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F163" s="18"/>
       <c r="G163" s="21"/>
-      <c r="H163" s="13"/>
-      <c r="I163" s="13">
-        <v>30.0</v>
+      <c r="H163" s="10"/>
+      <c r="I163" s="10">
+        <v>20.0</v>
       </c>
     </row>
     <row r="164">
@@ -4575,17 +4647,17 @@
       </c>
       <c r="B164" s="6"/>
       <c r="C164" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D164" s="18"/>
       <c r="E164" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F164" s="18"/>
       <c r="G164" s="21"/>
       <c r="H164" s="13"/>
-      <c r="I164" s="13">
-        <v>20.0</v>
+      <c r="I164" s="10">
+        <v>50.0</v>
       </c>
     </row>
     <row r="165">
@@ -4594,17 +4666,17 @@
       </c>
       <c r="B165" s="6"/>
       <c r="C165" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D165" s="18"/>
       <c r="E165" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F165" s="18"/>
       <c r="G165" s="21"/>
       <c r="H165" s="13"/>
-      <c r="I165" s="10">
-        <v>25.0</v>
+      <c r="I165" s="13">
+        <v>30.0</v>
       </c>
     </row>
     <row r="166">
@@ -4612,18 +4684,18 @@
         <v>19</v>
       </c>
       <c r="B166" s="6"/>
-      <c r="C166" s="11" t="s">
+      <c r="C166" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D166" s="18"/>
+      <c r="E166" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="D166" s="6"/>
-      <c r="E166" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="F166" s="6"/>
+      <c r="F166" s="18"/>
       <c r="G166" s="21"/>
       <c r="H166" s="13"/>
-      <c r="I166" s="10">
-        <v>40.0</v>
+      <c r="I166" s="13">
+        <v>20.0</v>
       </c>
     </row>
     <row r="167">
@@ -4631,37 +4703,37 @@
         <v>19</v>
       </c>
       <c r="B167" s="6"/>
-      <c r="C167" s="11" t="s">
+      <c r="C167" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D167" s="18"/>
+      <c r="E167" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="D167" s="6"/>
-      <c r="E167" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="F167" s="6"/>
+      <c r="F167" s="18"/>
       <c r="G167" s="21"/>
       <c r="H167" s="13"/>
       <c r="I167" s="10">
-        <v>60.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="23" t="s">
+      <c r="A168" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B168" s="6"/>
       <c r="C168" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D168" s="6"/>
       <c r="E168" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F168" s="6"/>
       <c r="G168" s="21"/>
       <c r="H168" s="13"/>
       <c r="I168" s="10">
-        <v>150.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="169">
@@ -4669,101 +4741,139 @@
         <v>19</v>
       </c>
       <c r="B169" s="6"/>
-      <c r="C169" s="8" t="s">
+      <c r="C169" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D169" s="6"/>
+      <c r="E169" s="11" t="s">
         <v>275</v>
-      </c>
-      <c r="D169" s="6"/>
-      <c r="E169" s="8" t="s">
-        <v>276</v>
       </c>
       <c r="F169" s="6"/>
       <c r="G169" s="21"/>
       <c r="H169" s="13"/>
-      <c r="I169" s="13">
-        <v>15.0</v>
+      <c r="I169" s="10">
+        <v>60.0</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="6" t="s">
+      <c r="A170" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B170" s="6"/>
       <c r="C170" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D170" s="6"/>
       <c r="E170" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F170" s="6"/>
       <c r="G170" s="21"/>
       <c r="H170" s="13"/>
       <c r="I170" s="10">
-        <v>15.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B171" s="18"/>
+      <c r="B171" s="6"/>
       <c r="C171" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D171" s="6"/>
       <c r="E171" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F171" s="6"/>
-      <c r="G171" s="6"/>
+      <c r="G171" s="21"/>
       <c r="H171" s="13"/>
       <c r="I171" s="13">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B172" s="6"/>
+      <c r="C172" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D172" s="6"/>
+      <c r="E172" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="F172" s="6"/>
+      <c r="G172" s="21"/>
+      <c r="H172" s="13"/>
+      <c r="I172" s="10">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B173" s="18"/>
+      <c r="C173" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D173" s="6"/>
+      <c r="E173" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="13"/>
+      <c r="I173" s="13">
         <v>60.0</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="25"/>
-      <c r="B172" s="25"/>
-      <c r="C172" s="25"/>
-      <c r="E172" s="25"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="25"/>
-      <c r="B173" s="25"/>
-      <c r="C173" s="25"/>
-      <c r="E173" s="25"/>
-    </row>
     <row r="174">
-      <c r="A174" s="25"/>
-      <c r="B174" s="25"/>
-      <c r="C174" s="25"/>
-      <c r="E174" s="25"/>
+      <c r="A174" s="33"/>
+      <c r="B174" s="33"/>
+      <c r="C174" s="33"/>
+      <c r="E174" s="33"/>
     </row>
     <row r="175">
-      <c r="A175" s="25"/>
-      <c r="B175" s="25"/>
-      <c r="C175" s="25"/>
-      <c r="E175" s="25"/>
+      <c r="A175" s="33"/>
+      <c r="B175" s="33"/>
+      <c r="C175" s="33"/>
+      <c r="E175" s="33"/>
     </row>
     <row r="176">
-      <c r="A176" s="25"/>
-      <c r="B176" s="25"/>
-      <c r="C176" s="25"/>
-      <c r="E176" s="25"/>
+      <c r="A176" s="33"/>
+      <c r="B176" s="33"/>
+      <c r="C176" s="33"/>
+      <c r="E176" s="33"/>
     </row>
     <row r="177">
-      <c r="A177" s="25"/>
-      <c r="B177" s="25"/>
-      <c r="C177" s="25"/>
-      <c r="E177" s="25"/>
+      <c r="A177" s="33"/>
+      <c r="B177" s="33"/>
+      <c r="C177" s="33"/>
+      <c r="E177" s="33"/>
     </row>
     <row r="178">
-      <c r="A178" s="25"/>
-      <c r="B178" s="25"/>
+      <c r="A178" s="33"/>
+      <c r="B178" s="33"/>
+      <c r="C178" s="33"/>
+      <c r="E178" s="33"/>
     </row>
     <row r="179">
-      <c r="A179" s="25"/>
-      <c r="B179" s="25"/>
+      <c r="A179" s="33"/>
+      <c r="B179" s="33"/>
+      <c r="C179" s="33"/>
+      <c r="E179" s="33"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="33"/>
+      <c r="B180" s="33"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="33"/>
+      <c r="B181" s="33"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="rLhLhsUxs7TySeIqbggw80Y/mJSBCmFVPi99WoZsPvc="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="y4vu/6RgnAd+2Nm4PagwkTqpfoTlliVjUJURSUMmJCc="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="286">
   <si>
     <t>category</t>
   </si>
@@ -827,7 +827,13 @@
     <t>Glutein Free Cake</t>
   </si>
   <si>
-    <t xml:space="preserve"> Gluteinsiz Ekler</t>
+    <t>Gluteinsiz Ekler</t>
+  </si>
+  <si>
+    <t>Glutein Free Cookie</t>
+  </si>
+  <si>
+    <t>Gluteinsiz Kurabiye</t>
   </si>
   <si>
     <t>Fruit Salad</t>
@@ -933,7 +939,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -1002,18 +1008,32 @@
       <b/>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -1073,7 +1093,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1119,20 +1139,22 @@
     <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
@@ -4429,197 +4451,209 @@
       <c r="A154" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="B154" s="12"/>
-      <c r="C154" s="25" t="s">
+      <c r="B154" s="25"/>
+      <c r="C154" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="D154" s="18"/>
-      <c r="E154" s="25" t="s">
+      <c r="D154" s="27"/>
+      <c r="E154" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="F154" s="18"/>
+      <c r="F154" s="27"/>
       <c r="G154" s="21"/>
-      <c r="H154" s="13"/>
+      <c r="H154" s="21"/>
       <c r="I154" s="10">
         <v>165.0</v>
       </c>
+      <c r="J154" s="29"/>
+      <c r="K154" s="29"/>
+      <c r="L154" s="29"/>
+      <c r="M154" s="29"/>
+      <c r="N154" s="29"/>
+      <c r="O154" s="29"/>
+      <c r="P154" s="29"/>
+      <c r="Q154" s="29"/>
+      <c r="R154" s="29"/>
+      <c r="S154" s="29"/>
+      <c r="T154" s="29"/>
+      <c r="U154" s="29"/>
+      <c r="V154" s="29"/>
+      <c r="W154" s="29"/>
+      <c r="X154" s="29"/>
+      <c r="Y154" s="29"/>
+      <c r="Z154" s="29"/>
     </row>
     <row r="155">
-      <c r="A155" s="26" t="s">
+      <c r="A155" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="B155" s="27"/>
-      <c r="C155" s="27"/>
-      <c r="D155" s="28"/>
-      <c r="E155" s="27"/>
-      <c r="F155" s="28"/>
+      <c r="B155" s="31"/>
+      <c r="C155" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="D155" s="32"/>
+      <c r="E155" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F155" s="32"/>
       <c r="G155" s="22"/>
-      <c r="H155" s="29"/>
-      <c r="I155" s="30"/>
-      <c r="J155" s="31"/>
-      <c r="K155" s="31"/>
-      <c r="L155" s="31"/>
-      <c r="M155" s="31"/>
-      <c r="N155" s="31"/>
-      <c r="O155" s="31"/>
-      <c r="P155" s="31"/>
-      <c r="Q155" s="31"/>
-      <c r="R155" s="31"/>
-      <c r="S155" s="31"/>
-      <c r="T155" s="31"/>
-      <c r="U155" s="31"/>
-      <c r="V155" s="31"/>
-      <c r="W155" s="31"/>
-      <c r="X155" s="31"/>
-      <c r="Y155" s="31"/>
-      <c r="Z155" s="31"/>
+      <c r="H155" s="22"/>
+      <c r="I155" s="10">
+        <v>165.0</v>
+      </c>
+      <c r="J155" s="33"/>
+      <c r="K155" s="33"/>
+      <c r="L155" s="33"/>
+      <c r="M155" s="33"/>
+      <c r="N155" s="33"/>
+      <c r="O155" s="33"/>
+      <c r="P155" s="33"/>
+      <c r="Q155" s="33"/>
+      <c r="R155" s="33"/>
+      <c r="S155" s="33"/>
+      <c r="T155" s="33"/>
+      <c r="U155" s="33"/>
+      <c r="V155" s="33"/>
+      <c r="W155" s="33"/>
+      <c r="X155" s="33"/>
+      <c r="Y155" s="33"/>
+      <c r="Z155" s="33"/>
     </row>
     <row r="156">
-      <c r="A156" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="B156" s="27"/>
-      <c r="C156" s="27"/>
-      <c r="D156" s="28"/>
-      <c r="E156" s="27"/>
-      <c r="F156" s="28"/>
-      <c r="G156" s="22"/>
-      <c r="H156" s="29"/>
-      <c r="I156" s="30"/>
-      <c r="J156" s="31"/>
-      <c r="K156" s="31"/>
-      <c r="L156" s="31"/>
-      <c r="M156" s="31"/>
-      <c r="N156" s="31"/>
-      <c r="O156" s="31"/>
-      <c r="P156" s="31"/>
-      <c r="Q156" s="31"/>
-      <c r="R156" s="31"/>
-      <c r="S156" s="31"/>
-      <c r="T156" s="31"/>
-      <c r="U156" s="31"/>
-      <c r="V156" s="31"/>
-      <c r="W156" s="31"/>
-      <c r="X156" s="31"/>
-      <c r="Y156" s="31"/>
-      <c r="Z156" s="31"/>
+      <c r="A156" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D156" s="18"/>
+      <c r="E156" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F156" s="18"/>
+      <c r="G156" s="21"/>
+      <c r="H156" s="13"/>
+      <c r="I156" s="10">
+        <v>220.0</v>
+      </c>
     </row>
     <row r="157">
-      <c r="A157" s="12" t="s">
+      <c r="A157" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B157" s="12" t="s">
+      <c r="B157" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C157" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="D157" s="18"/>
-      <c r="E157" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="F157" s="18"/>
+      <c r="C157" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D157" s="6"/>
+      <c r="E157" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F157" s="6"/>
       <c r="G157" s="21"/>
       <c r="H157" s="13"/>
       <c r="I157" s="10">
-        <v>220.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="8" t="s">
+      <c r="A158" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B158" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>253</v>
+      <c r="B158" s="8"/>
+      <c r="C158" s="11" t="s">
+        <v>256</v>
       </c>
       <c r="D158" s="6"/>
-      <c r="E158" s="8" t="s">
-        <v>253</v>
+      <c r="E158" s="11" t="s">
+        <v>257</v>
       </c>
       <c r="F158" s="6"/>
       <c r="G158" s="21"/>
       <c r="H158" s="13"/>
       <c r="I158" s="10">
-        <v>250.0</v>
+        <v>155.0</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B159" s="8"/>
-      <c r="C159" s="11" t="s">
-        <v>254</v>
+      <c r="A159" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B159" s="22"/>
+      <c r="C159" s="12" t="s">
+        <v>258</v>
       </c>
       <c r="D159" s="6"/>
-      <c r="E159" s="11" t="s">
-        <v>255</v>
+      <c r="E159" s="12" t="s">
+        <v>259</v>
       </c>
       <c r="F159" s="6"/>
       <c r="G159" s="21"/>
       <c r="H159" s="13"/>
-      <c r="I159" s="10">
-        <v>155.0</v>
+      <c r="I159" s="13">
+        <v>20.0</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="22" t="s">
+      <c r="A160" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B160" s="22"/>
-      <c r="C160" s="12" t="s">
-        <v>256</v>
+      <c r="C160" s="8" t="s">
+        <v>260</v>
       </c>
       <c r="D160" s="6"/>
-      <c r="E160" s="12" t="s">
-        <v>257</v>
+      <c r="E160" s="8" t="s">
+        <v>261</v>
       </c>
       <c r="F160" s="6"/>
       <c r="G160" s="21"/>
-      <c r="H160" s="13"/>
-      <c r="I160" s="13">
-        <v>20.0</v>
+      <c r="H160" s="10"/>
+      <c r="I160" s="10">
+        <v>40.0</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="6" t="s">
+      <c r="A161" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B161" s="22"/>
-      <c r="C161" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="D161" s="6"/>
-      <c r="E161" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="F161" s="6"/>
+      <c r="B161" s="6"/>
+      <c r="C161" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D161" s="18"/>
+      <c r="E161" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="F161" s="18"/>
       <c r="G161" s="21"/>
       <c r="H161" s="10"/>
       <c r="I161" s="10">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="23" t="s">
+      <c r="A162" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B162" s="6"/>
-      <c r="C162" s="11" t="s">
-        <v>260</v>
+      <c r="C162" s="8" t="s">
+        <v>264</v>
       </c>
       <c r="D162" s="18"/>
-      <c r="E162" s="32" t="s">
-        <v>261</v>
+      <c r="E162" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="F162" s="18"/>
       <c r="G162" s="21"/>
       <c r="H162" s="10"/>
       <c r="I162" s="10">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="163">
@@ -4628,17 +4662,17 @@
       </c>
       <c r="B163" s="6"/>
       <c r="C163" s="8" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D163" s="18"/>
       <c r="E163" s="8" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F163" s="18"/>
       <c r="G163" s="21"/>
-      <c r="H163" s="10"/>
+      <c r="H163" s="13"/>
       <c r="I163" s="10">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="164">
@@ -4647,17 +4681,17 @@
       </c>
       <c r="B164" s="6"/>
       <c r="C164" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D164" s="18"/>
       <c r="E164" s="8" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F164" s="18"/>
       <c r="G164" s="21"/>
       <c r="H164" s="13"/>
-      <c r="I164" s="10">
-        <v>50.0</v>
+      <c r="I164" s="13">
+        <v>30.0</v>
       </c>
     </row>
     <row r="165">
@@ -4666,17 +4700,17 @@
       </c>
       <c r="B165" s="6"/>
       <c r="C165" s="8" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D165" s="18"/>
       <c r="E165" s="8" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F165" s="18"/>
       <c r="G165" s="21"/>
       <c r="H165" s="13"/>
       <c r="I165" s="13">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="166">
@@ -4685,17 +4719,17 @@
       </c>
       <c r="B166" s="6"/>
       <c r="C166" s="8" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D166" s="18"/>
       <c r="E166" s="8" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F166" s="18"/>
       <c r="G166" s="21"/>
       <c r="H166" s="13"/>
-      <c r="I166" s="13">
-        <v>20.0</v>
+      <c r="I166" s="10">
+        <v>25.0</v>
       </c>
     </row>
     <row r="167">
@@ -4703,18 +4737,18 @@
         <v>19</v>
       </c>
       <c r="B167" s="6"/>
-      <c r="C167" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="D167" s="18"/>
-      <c r="E167" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="F167" s="18"/>
+      <c r="C167" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D167" s="6"/>
+      <c r="E167" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="F167" s="6"/>
       <c r="G167" s="21"/>
       <c r="H167" s="13"/>
       <c r="I167" s="10">
-        <v>25.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="168">
@@ -4723,55 +4757,55 @@
       </c>
       <c r="B168" s="6"/>
       <c r="C168" s="11" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D168" s="6"/>
       <c r="E168" s="11" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F168" s="6"/>
       <c r="G168" s="21"/>
       <c r="H168" s="13"/>
       <c r="I168" s="10">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="6" t="s">
+      <c r="A169" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B169" s="6"/>
       <c r="C169" s="11" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D169" s="6"/>
       <c r="E169" s="11" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F169" s="6"/>
       <c r="G169" s="21"/>
       <c r="H169" s="13"/>
       <c r="I169" s="10">
-        <v>60.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="23" t="s">
+      <c r="A170" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B170" s="6"/>
-      <c r="C170" s="11" t="s">
-        <v>276</v>
+      <c r="C170" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="D170" s="6"/>
-      <c r="E170" s="11" t="s">
-        <v>277</v>
+      <c r="E170" s="8" t="s">
+        <v>281</v>
       </c>
       <c r="F170" s="6"/>
       <c r="G170" s="21"/>
       <c r="H170" s="13"/>
-      <c r="I170" s="10">
-        <v>150.0</v>
+      <c r="I170" s="13">
+        <v>15.0</v>
       </c>
     </row>
     <row r="171">
@@ -4779,17 +4813,17 @@
         <v>19</v>
       </c>
       <c r="B171" s="6"/>
-      <c r="C171" s="8" t="s">
-        <v>278</v>
+      <c r="C171" s="11" t="s">
+        <v>282</v>
       </c>
       <c r="D171" s="6"/>
-      <c r="E171" s="8" t="s">
-        <v>279</v>
+      <c r="E171" s="11" t="s">
+        <v>283</v>
       </c>
       <c r="F171" s="6"/>
       <c r="G171" s="21"/>
       <c r="H171" s="13"/>
-      <c r="I171" s="13">
+      <c r="I171" s="10">
         <v>15.0</v>
       </c>
     </row>
@@ -4797,83 +4831,64 @@
       <c r="A172" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B172" s="6"/>
-      <c r="C172" s="11" t="s">
-        <v>280</v>
+      <c r="B172" s="18"/>
+      <c r="C172" s="8" t="s">
+        <v>284</v>
       </c>
       <c r="D172" s="6"/>
-      <c r="E172" s="11" t="s">
-        <v>281</v>
+      <c r="E172" s="8" t="s">
+        <v>285</v>
       </c>
       <c r="F172" s="6"/>
-      <c r="G172" s="21"/>
+      <c r="G172" s="6"/>
       <c r="H172" s="13"/>
-      <c r="I172" s="10">
-        <v>15.0</v>
+      <c r="I172" s="13">
+        <v>60.0</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B173" s="18"/>
-      <c r="C173" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="D173" s="6"/>
-      <c r="E173" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="F173" s="6"/>
-      <c r="G173" s="6"/>
-      <c r="H173" s="13"/>
-      <c r="I173" s="13">
-        <v>60.0</v>
-      </c>
+      <c r="A173" s="35"/>
+      <c r="B173" s="35"/>
+      <c r="C173" s="35"/>
+      <c r="E173" s="35"/>
     </row>
     <row r="174">
-      <c r="A174" s="33"/>
-      <c r="B174" s="33"/>
-      <c r="C174" s="33"/>
-      <c r="E174" s="33"/>
+      <c r="A174" s="35"/>
+      <c r="B174" s="35"/>
+      <c r="C174" s="35"/>
+      <c r="E174" s="35"/>
     </row>
     <row r="175">
-      <c r="A175" s="33"/>
-      <c r="B175" s="33"/>
-      <c r="C175" s="33"/>
-      <c r="E175" s="33"/>
+      <c r="A175" s="35"/>
+      <c r="B175" s="35"/>
+      <c r="C175" s="35"/>
+      <c r="E175" s="35"/>
     </row>
     <row r="176">
-      <c r="A176" s="33"/>
-      <c r="B176" s="33"/>
-      <c r="C176" s="33"/>
-      <c r="E176" s="33"/>
+      <c r="A176" s="35"/>
+      <c r="B176" s="35"/>
+      <c r="C176" s="35"/>
+      <c r="E176" s="35"/>
     </row>
     <row r="177">
-      <c r="A177" s="33"/>
-      <c r="B177" s="33"/>
-      <c r="C177" s="33"/>
-      <c r="E177" s="33"/>
+      <c r="A177" s="35"/>
+      <c r="B177" s="35"/>
+      <c r="C177" s="35"/>
+      <c r="E177" s="35"/>
     </row>
     <row r="178">
-      <c r="A178" s="33"/>
-      <c r="B178" s="33"/>
-      <c r="C178" s="33"/>
-      <c r="E178" s="33"/>
+      <c r="A178" s="35"/>
+      <c r="B178" s="35"/>
+      <c r="C178" s="35"/>
+      <c r="E178" s="35"/>
     </row>
     <row r="179">
-      <c r="A179" s="33"/>
-      <c r="B179" s="33"/>
-      <c r="C179" s="33"/>
-      <c r="E179" s="33"/>
+      <c r="A179" s="35"/>
+      <c r="B179" s="35"/>
     </row>
     <row r="180">
-      <c r="A180" s="33"/>
-      <c r="B180" s="33"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="33"/>
-      <c r="B181" s="33"/>
+      <c r="A180" s="35"/>
+      <c r="B180" s="35"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -4690,8 +4690,8 @@
       <c r="F164" s="18"/>
       <c r="G164" s="21"/>
       <c r="H164" s="13"/>
-      <c r="I164" s="13">
-        <v>30.0</v>
+      <c r="I164" s="10">
+        <v>20.0</v>
       </c>
     </row>
     <row r="165">

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -10,7 +10,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="y4vu/6RgnAd+2Nm4PagwkTqpfoTlliVjUJURSUMmJCc="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="rLhLhsUxs7TySeIqbggw80Y/mJSBCmFVPi99WoZsPvc="/>
     </ext>
   </extLst>
 </workbook>
@@ -2789,43 +2789,35 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>108</v>
-      </c>
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
       <c r="D69" s="18"/>
-      <c r="E69" s="8" t="s">
-        <v>108</v>
-      </c>
+      <c r="E69" s="8"/>
       <c r="F69" s="18"/>
       <c r="G69" s="21"/>
       <c r="H69" s="12"/>
-      <c r="I69" s="9">
-        <v>145.0</v>
-      </c>
+      <c r="I69" s="9"/>
     </row>
     <row r="70">
       <c r="A70" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="20" t="s">
-        <v>109</v>
+      <c r="B70" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="D70" s="18"/>
-      <c r="E70" s="20" t="s">
-        <v>109</v>
+      <c r="E70" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="21"/>
       <c r="H70" s="12"/>
       <c r="I70" s="9">
-        <v>180.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="71">
@@ -2834,106 +2826,106 @@
       </c>
       <c r="B71" s="8"/>
       <c r="C71" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D71" s="18"/>
       <c r="E71" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F71" s="18"/>
-      <c r="G71" s="12"/>
+      <c r="G71" s="21"/>
       <c r="H71" s="12"/>
       <c r="I71" s="9">
         <v>180.0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="12"/>
-      <c r="C72" s="11" t="s">
+      <c r="B72" s="8"/>
+      <c r="C72" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" s="18"/>
+      <c r="E72" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F72" s="18"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="9">
+        <v>180.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="12"/>
+      <c r="C73" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D72" s="16"/>
-      <c r="E72" s="11" t="s">
+      <c r="D73" s="16"/>
+      <c r="E73" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="F72" s="6"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="9">
-        <v>140.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D73" s="16"/>
-      <c r="E73" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="13"/>
       <c r="H73" s="21"/>
       <c r="I73" s="9">
-        <v>180.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B74" s="12"/>
-      <c r="C74" s="8" t="s">
-        <v>114</v>
+      <c r="C74" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="D74" s="16"/>
-      <c r="E74" s="8" t="s">
-        <v>114</v>
+      <c r="E74" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="13"/>
       <c r="H74" s="21"/>
       <c r="I74" s="9">
-        <v>195.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="11" t="s">
-        <v>115</v>
+      <c r="B75" s="12"/>
+      <c r="C75" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="D75" s="16"/>
-      <c r="E75" s="11" t="s">
-        <v>116</v>
+      <c r="E75" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="13"/>
       <c r="H75" s="21"/>
       <c r="I75" s="9">
-        <v>180.0</v>
+        <v>195.0</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B76" s="8"/>
       <c r="C76" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D76" s="16"/>
       <c r="E76" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="13"/>
@@ -2943,16 +2935,16 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B77" s="8"/>
-      <c r="C77" s="8" t="s">
-        <v>119</v>
+      <c r="C77" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="D77" s="16"/>
-      <c r="E77" s="8" t="s">
-        <v>119</v>
+      <c r="E77" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="13"/>
@@ -2966,115 +2958,115 @@
         <v>9</v>
       </c>
       <c r="B78" s="8"/>
-      <c r="C78" s="11" t="s">
-        <v>120</v>
+      <c r="C78" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="D78" s="16"/>
-      <c r="E78" s="11" t="s">
-        <v>121</v>
+      <c r="E78" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="13"/>
       <c r="H78" s="21"/>
       <c r="I78" s="9">
-        <v>170.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>122</v>
+      <c r="B79" s="8"/>
+      <c r="C79" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="D79" s="16"/>
-      <c r="E79" s="8" t="s">
-        <v>123</v>
+      <c r="E79" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="13"/>
-      <c r="H79" s="12"/>
+      <c r="H79" s="21"/>
       <c r="I79" s="9">
-        <v>125.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="8"/>
+      <c r="B80" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C80" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D80" s="18"/>
+        <v>122</v>
+      </c>
+      <c r="D80" s="16"/>
       <c r="E80" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F80" s="18"/>
+        <v>123</v>
+      </c>
+      <c r="F80" s="6"/>
       <c r="G80" s="13"/>
-      <c r="H80" s="21"/>
+      <c r="H80" s="12"/>
       <c r="I80" s="9">
-        <v>180.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D81" s="18"/>
       <c r="E81" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F81" s="18"/>
       <c r="G81" s="13"/>
       <c r="H81" s="21"/>
       <c r="I81" s="9">
-        <v>150.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D82" s="18"/>
       <c r="E82" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F82" s="18"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="9">
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F82" s="18"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="9">
-        <v>160.0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="11" t="s">
-        <v>127</v>
-      </c>
       <c r="D83" s="18"/>
-      <c r="E83" s="11" t="s">
-        <v>128</v>
+      <c r="E83" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="F83" s="18"/>
-      <c r="G83" s="13"/>
+      <c r="G83" s="21"/>
       <c r="H83" s="12"/>
       <c r="I83" s="9">
-        <v>150.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="84">
@@ -3083,11 +3075,11 @@
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D84" s="18"/>
       <c r="E84" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F84" s="18"/>
       <c r="G84" s="13"/>
@@ -3097,16 +3089,16 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D85" s="18"/>
       <c r="E85" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F85" s="18"/>
       <c r="G85" s="13"/>
@@ -3116,21 +3108,21 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D86" s="18"/>
       <c r="E86" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F86" s="18"/>
       <c r="G86" s="13"/>
       <c r="H86" s="12"/>
-      <c r="I86" s="10">
+      <c r="I86" s="9">
         <v>150.0</v>
       </c>
     </row>
@@ -3140,11 +3132,11 @@
       </c>
       <c r="B87" s="8"/>
       <c r="C87" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D87" s="18"/>
       <c r="E87" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F87" s="18"/>
       <c r="G87" s="13"/>
@@ -3159,11 +3151,11 @@
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D88" s="18"/>
       <c r="E88" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F88" s="18"/>
       <c r="G88" s="13"/>
@@ -3178,11 +3170,11 @@
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D89" s="18"/>
       <c r="E89" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F89" s="18"/>
       <c r="G89" s="13"/>
@@ -3197,11 +3189,11 @@
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F90" s="18"/>
       <c r="G90" s="13"/>
@@ -3216,17 +3208,17 @@
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D91" s="18"/>
       <c r="E91" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F91" s="18"/>
       <c r="G91" s="13"/>
       <c r="H91" s="12"/>
       <c r="I91" s="10">
-        <v>130.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="92">
@@ -3235,11 +3227,11 @@
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D92" s="18"/>
       <c r="E92" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F92" s="18"/>
       <c r="G92" s="13"/>
@@ -3254,11 +3246,11 @@
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D93" s="18"/>
       <c r="E93" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F93" s="18"/>
       <c r="G93" s="13"/>
@@ -3268,43 +3260,41 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="8" t="s">
+      <c r="A94" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B94" s="8"/>
-      <c r="C94" s="8" t="s">
-        <v>139</v>
+      <c r="C94" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="D94" s="18"/>
-      <c r="E94" s="8" t="s">
-        <v>139</v>
+      <c r="E94" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="F94" s="18"/>
       <c r="G94" s="13"/>
       <c r="H94" s="12"/>
       <c r="I94" s="10">
-        <v>150.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B95" s="8"/>
       <c r="C95" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D95" s="18"/>
       <c r="E95" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F95" s="18"/>
       <c r="G95" s="13"/>
       <c r="H95" s="12"/>
       <c r="I95" s="10">
-        <v>125.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="96">
@@ -3315,76 +3305,76 @@
         <v>27</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D96" s="18"/>
       <c r="E96" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F96" s="18"/>
       <c r="G96" s="13"/>
       <c r="H96" s="12"/>
-      <c r="I96" s="9">
-        <v>110.0</v>
+      <c r="I96" s="10">
+        <v>125.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B97" s="8"/>
-      <c r="C97" s="20" t="s">
-        <v>143</v>
+      <c r="B97" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="D97" s="18"/>
       <c r="E97" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F97" s="18"/>
       <c r="G97" s="13"/>
       <c r="H97" s="12"/>
       <c r="I97" s="9">
-        <v>150.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B98" s="12"/>
-      <c r="C98" s="9" t="s">
-        <v>144</v>
+      <c r="A98" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="8"/>
+      <c r="C98" s="20" t="s">
+        <v>143</v>
       </c>
       <c r="D98" s="18"/>
-      <c r="E98" s="9" t="s">
-        <v>145</v>
+      <c r="E98" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="F98" s="18"/>
       <c r="G98" s="13"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="10">
-        <v>80.0</v>
+      <c r="H98" s="12"/>
+      <c r="I98" s="9">
+        <v>150.0</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="8" t="s">
+      <c r="A99" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B99" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>146</v>
+      <c r="B99" s="12"/>
+      <c r="C99" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D99" s="18"/>
-      <c r="E99" s="8" t="s">
-        <v>146</v>
+      <c r="E99" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="F99" s="18"/>
       <c r="G99" s="13"/>
-      <c r="H99" s="12"/>
+      <c r="H99" s="9"/>
       <c r="I99" s="10">
-        <v>85.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="100">
@@ -3395,70 +3385,72 @@
         <v>27</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D100" s="18"/>
       <c r="E100" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F100" s="18"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="9"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="12"/>
       <c r="I100" s="10">
         <v>85.0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="8"/>
-      <c r="C101" s="11" t="s">
+      <c r="B101" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D101" s="18"/>
+      <c r="E101" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F101" s="18"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="10">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="8"/>
+      <c r="C102" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D101" s="18"/>
-      <c r="E101" s="11" t="s">
+      <c r="D102" s="18"/>
+      <c r="E102" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="F101" s="18"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="12"/>
-      <c r="I101" s="10">
-        <v>75.0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D102" s="18"/>
-      <c r="E102" s="8" t="s">
-        <v>150</v>
       </c>
       <c r="F102" s="18"/>
       <c r="G102" s="13"/>
       <c r="H102" s="12"/>
       <c r="I102" s="10">
-        <v>70.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B103" s="8"/>
+      <c r="B103" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C103" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D103" s="18"/>
       <c r="E103" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F103" s="18"/>
       <c r="G103" s="13"/>
@@ -3473,14 +3465,14 @@
       </c>
       <c r="B104" s="8"/>
       <c r="C104" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D104" s="18"/>
       <c r="E104" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F104" s="18"/>
-      <c r="G104" s="12"/>
+      <c r="G104" s="13"/>
       <c r="H104" s="12"/>
       <c r="I104" s="10">
         <v>70.0</v>
@@ -3492,17 +3484,17 @@
       </c>
       <c r="B105" s="8"/>
       <c r="C105" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D105" s="18"/>
       <c r="E105" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F105" s="18"/>
       <c r="G105" s="12"/>
       <c r="H105" s="12"/>
       <c r="I105" s="10">
-        <v>60.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="106">
@@ -3511,51 +3503,51 @@
       </c>
       <c r="B106" s="8"/>
       <c r="C106" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D106" s="18"/>
       <c r="E106" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="F106" s="6"/>
+        <v>155</v>
+      </c>
+      <c r="F106" s="18"/>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
       <c r="I106" s="10">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B107" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C107" s="12" t="s">
-        <v>158</v>
+      <c r="A107" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="D107" s="18"/>
-      <c r="E107" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="F107" s="18"/>
+      <c r="E107" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F107" s="6"/>
       <c r="G107" s="12"/>
       <c r="H107" s="12"/>
-      <c r="I107" s="9">
-        <v>185.0</v>
+      <c r="I107" s="10">
+        <v>50.0</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="6" t="s">
+      <c r="A108" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D108" s="16"/>
-      <c r="E108" s="8" t="s">
-        <v>160</v>
+      <c r="B108" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D108" s="18"/>
+      <c r="E108" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="F108" s="18"/>
       <c r="G108" s="12"/>
@@ -3568,15 +3560,13 @@
       <c r="A109" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B109" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B109" s="6"/>
       <c r="C109" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D109" s="18"/>
+        <v>160</v>
+      </c>
+      <c r="D109" s="16"/>
       <c r="E109" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F109" s="18"/>
       <c r="G109" s="12"/>
@@ -3589,13 +3579,15 @@
       <c r="A110" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B110" s="6"/>
+      <c r="B110" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C110" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D110" s="18"/>
       <c r="E110" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F110" s="18"/>
       <c r="G110" s="12"/>
@@ -3610,11 +3602,11 @@
       </c>
       <c r="B111" s="6"/>
       <c r="C111" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D111" s="18"/>
       <c r="E111" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F111" s="18"/>
       <c r="G111" s="12"/>
@@ -3624,22 +3616,22 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="23" t="s">
+      <c r="A112" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B112" s="6"/>
-      <c r="C112" s="11" t="s">
-        <v>166</v>
+      <c r="C112" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="D112" s="18"/>
-      <c r="E112" s="11" t="s">
-        <v>167</v>
+      <c r="E112" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="F112" s="18"/>
       <c r="G112" s="12"/>
       <c r="H112" s="12"/>
       <c r="I112" s="9">
-        <v>220.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="113">
@@ -3648,17 +3640,17 @@
       </c>
       <c r="B113" s="6"/>
       <c r="C113" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D113" s="18"/>
       <c r="E113" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F113" s="18"/>
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
       <c r="I113" s="9">
-        <v>240.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="114">
@@ -3667,17 +3659,17 @@
       </c>
       <c r="B114" s="6"/>
       <c r="C114" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D114" s="18"/>
       <c r="E114" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F114" s="18"/>
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
       <c r="I114" s="9">
-        <v>170.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="115">
@@ -3686,17 +3678,17 @@
       </c>
       <c r="B115" s="6"/>
       <c r="C115" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D115" s="18"/>
       <c r="E115" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F115" s="18"/>
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
       <c r="I115" s="9">
-        <v>185.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="116">
@@ -3705,57 +3697,57 @@
       </c>
       <c r="B116" s="6"/>
       <c r="C116" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D116" s="18"/>
       <c r="E116" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F116" s="18"/>
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
       <c r="I116" s="9">
+        <v>185.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" s="6"/>
+      <c r="C117" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D117" s="18"/>
+      <c r="E117" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F117" s="18"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="9">
         <v>110.0</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="22" t="s">
+    <row r="118">
+      <c r="A118" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B117" s="22" t="s">
+      <c r="B118" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C117" s="12" t="s">
+      <c r="C118" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D117" s="18"/>
-      <c r="E117" s="8" t="s">
+      <c r="D118" s="18"/>
+      <c r="E118" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="F117" s="18"/>
-      <c r="G117" s="21"/>
-      <c r="H117" s="13"/>
-      <c r="I117" s="10">
-        <v>215.0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B118" s="22"/>
-      <c r="C118" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="D118" s="18"/>
-      <c r="E118" s="12" t="s">
-        <v>179</v>
       </c>
       <c r="F118" s="18"/>
       <c r="G118" s="21"/>
       <c r="H118" s="13"/>
       <c r="I118" s="10">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="119">
@@ -3764,11 +3756,11 @@
       </c>
       <c r="B119" s="22"/>
       <c r="C119" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D119" s="18"/>
       <c r="E119" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F119" s="18"/>
       <c r="G119" s="21"/>
@@ -3781,19 +3773,19 @@
       <c r="A120" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B120" s="6"/>
-      <c r="C120" s="8" t="s">
-        <v>182</v>
+      <c r="B120" s="22"/>
+      <c r="C120" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="D120" s="18"/>
-      <c r="E120" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F120" s="6"/>
+      <c r="E120" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F120" s="18"/>
       <c r="G120" s="21"/>
       <c r="H120" s="13"/>
       <c r="I120" s="10">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="121">
@@ -3802,11 +3794,11 @@
       </c>
       <c r="B121" s="6"/>
       <c r="C121" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D121" s="18"/>
-      <c r="E121" s="11" t="s">
-        <v>185</v>
+      <c r="E121" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="F121" s="6"/>
       <c r="G121" s="21"/>
@@ -3821,32 +3813,30 @@
       </c>
       <c r="B122" s="6"/>
       <c r="C122" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D122" s="18"/>
       <c r="E122" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F122" s="18"/>
+        <v>185</v>
+      </c>
+      <c r="F122" s="6"/>
       <c r="G122" s="21"/>
       <c r="H122" s="13"/>
       <c r="I122" s="10">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B123" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B123" s="6"/>
       <c r="C123" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D123" s="18"/>
       <c r="E123" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F123" s="18"/>
       <c r="G123" s="21"/>
@@ -3863,30 +3853,32 @@
         <v>27</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D124" s="18"/>
-      <c r="E124" s="8" t="s">
-        <v>191</v>
+      <c r="E124" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="F124" s="18"/>
       <c r="G124" s="21"/>
       <c r="H124" s="13"/>
       <c r="I124" s="10">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B125" s="6"/>
+      <c r="B125" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C125" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D125" s="18"/>
-      <c r="E125" s="11" t="s">
-        <v>193</v>
+      <c r="E125" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="F125" s="18"/>
       <c r="G125" s="21"/>
@@ -3901,11 +3893,11 @@
       </c>
       <c r="B126" s="6"/>
       <c r="C126" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D126" s="18"/>
       <c r="E126" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F126" s="18"/>
       <c r="G126" s="21"/>
@@ -3920,17 +3912,17 @@
       </c>
       <c r="B127" s="6"/>
       <c r="C127" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D127" s="6"/>
+        <v>194</v>
+      </c>
+      <c r="D127" s="18"/>
       <c r="E127" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="F127" s="6"/>
+        <v>195</v>
+      </c>
+      <c r="F127" s="18"/>
       <c r="G127" s="21"/>
       <c r="H127" s="13"/>
       <c r="I127" s="10">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="128">
@@ -3939,17 +3931,17 @@
       </c>
       <c r="B128" s="6"/>
       <c r="C128" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D128" s="6"/>
-      <c r="E128" s="8" t="s">
-        <v>199</v>
+      <c r="E128" s="11" t="s">
+        <v>197</v>
       </c>
       <c r="F128" s="6"/>
       <c r="G128" s="21"/>
       <c r="H128" s="13"/>
       <c r="I128" s="10">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="129">
@@ -3958,17 +3950,17 @@
       </c>
       <c r="B129" s="6"/>
       <c r="C129" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D129" s="6"/>
       <c r="E129" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F129" s="6"/>
       <c r="G129" s="21"/>
       <c r="H129" s="13"/>
       <c r="I129" s="10">
-        <v>215.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="130">
@@ -3977,17 +3969,17 @@
       </c>
       <c r="B130" s="6"/>
       <c r="C130" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D130" s="6"/>
       <c r="E130" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F130" s="6"/>
       <c r="G130" s="21"/>
       <c r="H130" s="13"/>
       <c r="I130" s="10">
-        <v>220.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="131">
@@ -3996,17 +3988,17 @@
       </c>
       <c r="B131" s="6"/>
       <c r="C131" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D131" s="6"/>
-      <c r="E131" s="11" t="s">
-        <v>205</v>
+      <c r="E131" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="21"/>
       <c r="H131" s="13"/>
       <c r="I131" s="10">
-        <v>210.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="132">
@@ -4015,57 +4007,57 @@
       </c>
       <c r="B132" s="6"/>
       <c r="C132" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D132" s="6"/>
       <c r="E132" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F132" s="6"/>
       <c r="G132" s="21"/>
       <c r="H132" s="13"/>
       <c r="I132" s="10">
-        <v>80.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B133" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B133" s="6"/>
       <c r="C133" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D133" s="18"/>
-      <c r="E133" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="F133" s="18"/>
+        <v>206</v>
+      </c>
+      <c r="D133" s="6"/>
+      <c r="E133" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="F133" s="6"/>
       <c r="G133" s="21"/>
       <c r="H133" s="13"/>
       <c r="I133" s="10">
-        <v>220.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B134" s="6"/>
+      <c r="B134" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C134" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D134" s="6"/>
+        <v>208</v>
+      </c>
+      <c r="D134" s="18"/>
       <c r="E134" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="F134" s="6"/>
+        <v>209</v>
+      </c>
+      <c r="F134" s="18"/>
       <c r="G134" s="21"/>
       <c r="H134" s="13"/>
       <c r="I134" s="10">
-        <v>160.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="135">
@@ -4074,51 +4066,51 @@
       </c>
       <c r="B135" s="6"/>
       <c r="C135" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D135" s="6"/>
       <c r="E135" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="21"/>
       <c r="H135" s="13"/>
       <c r="I135" s="10">
-        <v>70.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B136" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B136" s="6"/>
       <c r="C136" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D136" s="18"/>
-      <c r="E136" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="F136" s="18"/>
+        <v>212</v>
+      </c>
+      <c r="D136" s="6"/>
+      <c r="E136" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F136" s="6"/>
       <c r="G136" s="21"/>
       <c r="H136" s="13"/>
       <c r="I136" s="10">
-        <v>220.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B137" s="6"/>
+      <c r="B137" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C137" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D137" s="18"/>
-      <c r="E137" s="8" t="s">
-        <v>217</v>
+      <c r="E137" s="11" t="s">
+        <v>215</v>
       </c>
       <c r="F137" s="18"/>
       <c r="G137" s="21"/>
@@ -4131,17 +4123,15 @@
       <c r="A138" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B138" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B138" s="6"/>
       <c r="C138" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D138" s="6"/>
+        <v>216</v>
+      </c>
+      <c r="D138" s="18"/>
       <c r="E138" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="F138" s="6"/>
+        <v>217</v>
+      </c>
+      <c r="F138" s="18"/>
       <c r="G138" s="21"/>
       <c r="H138" s="13"/>
       <c r="I138" s="10">
@@ -4152,19 +4142,21 @@
       <c r="A139" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B139" s="6"/>
+      <c r="B139" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C139" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D139" s="6"/>
       <c r="E139" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F139" s="6"/>
       <c r="G139" s="21"/>
       <c r="H139" s="13"/>
       <c r="I139" s="10">
-        <v>185.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="140">
@@ -4173,13 +4165,13 @@
       </c>
       <c r="B140" s="6"/>
       <c r="C140" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D140" s="18"/>
+        <v>220</v>
+      </c>
+      <c r="D140" s="6"/>
       <c r="E140" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F140" s="18"/>
+        <v>220</v>
+      </c>
+      <c r="F140" s="6"/>
       <c r="G140" s="21"/>
       <c r="H140" s="13"/>
       <c r="I140" s="10">
@@ -4190,15 +4182,13 @@
       <c r="A141" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B141" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B141" s="6"/>
       <c r="C141" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D141" s="18"/>
       <c r="E141" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F141" s="18"/>
       <c r="G141" s="21"/>
@@ -4211,15 +4201,17 @@
       <c r="A142" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B142" s="6"/>
+      <c r="B142" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C142" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D142" s="6"/>
+        <v>222</v>
+      </c>
+      <c r="D142" s="18"/>
       <c r="E142" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="F142" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="F142" s="18"/>
       <c r="G142" s="21"/>
       <c r="H142" s="13"/>
       <c r="I142" s="10">
@@ -4232,17 +4224,17 @@
       </c>
       <c r="B143" s="6"/>
       <c r="C143" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D143" s="6"/>
       <c r="E143" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="21"/>
       <c r="H143" s="13"/>
       <c r="I143" s="10">
-        <v>200.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="144">
@@ -4251,17 +4243,17 @@
       </c>
       <c r="B144" s="6"/>
       <c r="C144" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D144" s="6"/>
       <c r="E144" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="21"/>
       <c r="H144" s="13"/>
       <c r="I144" s="10">
-        <v>185.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="145">
@@ -4270,139 +4262,137 @@
       </c>
       <c r="B145" s="6"/>
       <c r="C145" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D145" s="6"/>
       <c r="E145" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="21"/>
       <c r="H145" s="13"/>
       <c r="I145" s="10">
-        <v>80.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B146" s="22"/>
-      <c r="C146" s="12" t="s">
-        <v>232</v>
+      <c r="A146" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" s="6"/>
+      <c r="C146" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="D146" s="6"/>
-      <c r="E146" s="12" t="s">
-        <v>233</v>
+      <c r="E146" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="21"/>
       <c r="H146" s="13"/>
       <c r="I146" s="10">
-        <v>120.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="6" t="s">
+      <c r="A147" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B147" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D147" s="18"/>
-      <c r="E147" s="8" t="s">
-        <v>235</v>
+      <c r="B147" s="22"/>
+      <c r="C147" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D147" s="6"/>
+      <c r="E147" s="12" t="s">
+        <v>233</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="21"/>
       <c r="H147" s="13"/>
       <c r="I147" s="10">
-        <v>130.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B148" s="6"/>
-      <c r="C148" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D148" s="6"/>
-      <c r="E148" s="11" t="s">
-        <v>237</v>
+      <c r="B148" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D148" s="18"/>
+      <c r="E148" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="21"/>
       <c r="H148" s="13"/>
       <c r="I148" s="10">
-        <v>30.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B149" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C149" s="12" t="s">
-        <v>238</v>
+      <c r="A149" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B149" s="6"/>
+      <c r="C149" s="11" t="s">
+        <v>236</v>
       </c>
       <c r="D149" s="6"/>
-      <c r="E149" s="12" t="s">
-        <v>239</v>
+      <c r="E149" s="11" t="s">
+        <v>237</v>
       </c>
       <c r="F149" s="6"/>
       <c r="G149" s="21"/>
       <c r="H149" s="13"/>
       <c r="I149" s="10">
-        <v>130.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B150" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="D150" s="18"/>
-      <c r="E150" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
+      </c>
+      <c r="D150" s="6"/>
+      <c r="E150" s="12" t="s">
+        <v>239</v>
       </c>
       <c r="F150" s="6"/>
       <c r="G150" s="21"/>
       <c r="H150" s="13"/>
       <c r="I150" s="10">
-        <v>260.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="6" t="s">
+      <c r="A151" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C151" s="8" t="s">
-        <v>242</v>
+      <c r="C151" s="12" t="s">
+        <v>240</v>
       </c>
       <c r="D151" s="18"/>
-      <c r="E151" s="11" t="s">
-        <v>243</v>
+      <c r="E151" s="9" t="s">
+        <v>241</v>
       </c>
       <c r="F151" s="6"/>
       <c r="G151" s="21"/>
       <c r="H151" s="13"/>
       <c r="I151" s="10">
-        <v>210.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="152">
@@ -4413,11 +4403,11 @@
         <v>27</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D152" s="18"/>
       <c r="E152" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F152" s="6"/>
       <c r="G152" s="21"/>
@@ -4434,11 +4424,11 @@
         <v>27</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D153" s="18"/>
-      <c r="E153" s="8" t="s">
-        <v>247</v>
+      <c r="E153" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="21"/>
@@ -4448,212 +4438,214 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="24" t="s">
+      <c r="A154" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D154" s="18"/>
+      <c r="E154" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F154" s="6"/>
+      <c r="G154" s="21"/>
+      <c r="H154" s="13"/>
+      <c r="I154" s="10">
+        <v>210.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="B154" s="25"/>
-      <c r="C154" s="26" t="s">
+      <c r="B155" s="25"/>
+      <c r="C155" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="D154" s="27"/>
-      <c r="E154" s="28" t="s">
+      <c r="D155" s="27"/>
+      <c r="E155" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="F154" s="27"/>
-      <c r="G154" s="21"/>
-      <c r="H154" s="21"/>
-      <c r="I154" s="10">
-        <v>165.0</v>
-      </c>
-      <c r="J154" s="29"/>
-      <c r="K154" s="29"/>
-      <c r="L154" s="29"/>
-      <c r="M154" s="29"/>
-      <c r="N154" s="29"/>
-      <c r="O154" s="29"/>
-      <c r="P154" s="29"/>
-      <c r="Q154" s="29"/>
-      <c r="R154" s="29"/>
-      <c r="S154" s="29"/>
-      <c r="T154" s="29"/>
-      <c r="U154" s="29"/>
-      <c r="V154" s="29"/>
-      <c r="W154" s="29"/>
-      <c r="X154" s="29"/>
-      <c r="Y154" s="29"/>
-      <c r="Z154" s="29"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="B155" s="31"/>
-      <c r="C155" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="D155" s="32"/>
-      <c r="E155" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="F155" s="32"/>
-      <c r="G155" s="22"/>
-      <c r="H155" s="22"/>
+      <c r="F155" s="27"/>
+      <c r="G155" s="21"/>
+      <c r="H155" s="21"/>
       <c r="I155" s="10">
         <v>165.0</v>
       </c>
-      <c r="J155" s="33"/>
-      <c r="K155" s="33"/>
-      <c r="L155" s="33"/>
-      <c r="M155" s="33"/>
-      <c r="N155" s="33"/>
-      <c r="O155" s="33"/>
-      <c r="P155" s="33"/>
-      <c r="Q155" s="33"/>
-      <c r="R155" s="33"/>
-      <c r="S155" s="33"/>
-      <c r="T155" s="33"/>
-      <c r="U155" s="33"/>
-      <c r="V155" s="33"/>
-      <c r="W155" s="33"/>
-      <c r="X155" s="33"/>
-      <c r="Y155" s="33"/>
-      <c r="Z155" s="33"/>
+      <c r="J155" s="29"/>
+      <c r="K155" s="29"/>
+      <c r="L155" s="29"/>
+      <c r="M155" s="29"/>
+      <c r="N155" s="29"/>
+      <c r="O155" s="29"/>
+      <c r="P155" s="29"/>
+      <c r="Q155" s="29"/>
+      <c r="R155" s="29"/>
+      <c r="S155" s="29"/>
+      <c r="T155" s="29"/>
+      <c r="U155" s="29"/>
+      <c r="V155" s="29"/>
+      <c r="W155" s="29"/>
+      <c r="X155" s="29"/>
+      <c r="Y155" s="29"/>
+      <c r="Z155" s="29"/>
     </row>
     <row r="156">
-      <c r="A156" s="12" t="s">
+      <c r="A156" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="B156" s="31"/>
+      <c r="C156" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="D156" s="32"/>
+      <c r="E156" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F156" s="32"/>
+      <c r="G156" s="22"/>
+      <c r="H156" s="22"/>
+      <c r="I156" s="10">
+        <v>165.0</v>
+      </c>
+      <c r="J156" s="33"/>
+      <c r="K156" s="33"/>
+      <c r="L156" s="33"/>
+      <c r="M156" s="33"/>
+      <c r="N156" s="33"/>
+      <c r="O156" s="33"/>
+      <c r="P156" s="33"/>
+      <c r="Q156" s="33"/>
+      <c r="R156" s="33"/>
+      <c r="S156" s="33"/>
+      <c r="T156" s="33"/>
+      <c r="U156" s="33"/>
+      <c r="V156" s="33"/>
+      <c r="W156" s="33"/>
+      <c r="X156" s="33"/>
+      <c r="Y156" s="33"/>
+      <c r="Z156" s="33"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B156" s="12" t="s">
+      <c r="B157" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C156" s="12" t="s">
+      <c r="C157" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="D156" s="18"/>
-      <c r="E156" s="12" t="s">
+      <c r="D157" s="18"/>
+      <c r="E157" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="F156" s="18"/>
-      <c r="G156" s="21"/>
-      <c r="H156" s="13"/>
-      <c r="I156" s="10">
-        <v>220.0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="D157" s="6"/>
-      <c r="E157" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="F157" s="6"/>
+      <c r="F157" s="18"/>
       <c r="G157" s="21"/>
       <c r="H157" s="13"/>
       <c r="I157" s="10">
-        <v>250.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="11" t="s">
+      <c r="A158" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B158" s="8"/>
-      <c r="C158" s="11" t="s">
-        <v>256</v>
+      <c r="B158" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="D158" s="6"/>
-      <c r="E158" s="11" t="s">
-        <v>257</v>
+      <c r="E158" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="F158" s="6"/>
       <c r="G158" s="21"/>
       <c r="H158" s="13"/>
       <c r="I158" s="10">
-        <v>155.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B159" s="22"/>
-      <c r="C159" s="12" t="s">
-        <v>258</v>
+      <c r="A159" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B159" s="8"/>
+      <c r="C159" s="11" t="s">
+        <v>256</v>
       </c>
       <c r="D159" s="6"/>
-      <c r="E159" s="12" t="s">
-        <v>259</v>
+      <c r="E159" s="11" t="s">
+        <v>257</v>
       </c>
       <c r="F159" s="6"/>
       <c r="G159" s="21"/>
       <c r="H159" s="13"/>
-      <c r="I159" s="13">
-        <v>20.0</v>
+      <c r="I159" s="10">
+        <v>155.0</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="6" t="s">
+      <c r="A160" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B160" s="22"/>
-      <c r="C160" s="8" t="s">
-        <v>260</v>
+      <c r="C160" s="12" t="s">
+        <v>258</v>
       </c>
       <c r="D160" s="6"/>
-      <c r="E160" s="8" t="s">
-        <v>261</v>
+      <c r="E160" s="12" t="s">
+        <v>259</v>
       </c>
       <c r="F160" s="6"/>
       <c r="G160" s="21"/>
-      <c r="H160" s="10"/>
-      <c r="I160" s="10">
-        <v>40.0</v>
+      <c r="H160" s="13"/>
+      <c r="I160" s="13">
+        <v>20.0</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="23" t="s">
+      <c r="A161" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B161" s="6"/>
-      <c r="C161" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D161" s="18"/>
-      <c r="E161" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="F161" s="18"/>
+      <c r="B161" s="22"/>
+      <c r="C161" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D161" s="6"/>
+      <c r="E161" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="F161" s="6"/>
       <c r="G161" s="21"/>
       <c r="H161" s="10"/>
       <c r="I161" s="10">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="6" t="s">
+      <c r="A162" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B162" s="6"/>
-      <c r="C162" s="8" t="s">
-        <v>264</v>
+      <c r="C162" s="11" t="s">
+        <v>262</v>
       </c>
       <c r="D162" s="18"/>
-      <c r="E162" s="8" t="s">
-        <v>265</v>
+      <c r="E162" s="34" t="s">
+        <v>263</v>
       </c>
       <c r="F162" s="18"/>
       <c r="G162" s="21"/>
       <c r="H162" s="10"/>
       <c r="I162" s="10">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="163">
@@ -4662,17 +4654,17 @@
       </c>
       <c r="B163" s="6"/>
       <c r="C163" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D163" s="18"/>
       <c r="E163" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F163" s="18"/>
       <c r="G163" s="21"/>
-      <c r="H163" s="13"/>
+      <c r="H163" s="10"/>
       <c r="I163" s="10">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="164">
@@ -4681,17 +4673,17 @@
       </c>
       <c r="B164" s="6"/>
       <c r="C164" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D164" s="18"/>
       <c r="E164" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F164" s="18"/>
       <c r="G164" s="21"/>
       <c r="H164" s="13"/>
       <c r="I164" s="10">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="165">
@@ -4700,16 +4692,16 @@
       </c>
       <c r="B165" s="6"/>
       <c r="C165" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D165" s="18"/>
       <c r="E165" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F165" s="18"/>
       <c r="G165" s="21"/>
       <c r="H165" s="13"/>
-      <c r="I165" s="13">
+      <c r="I165" s="10">
         <v>20.0</v>
       </c>
     </row>
@@ -4719,17 +4711,17 @@
       </c>
       <c r="B166" s="6"/>
       <c r="C166" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D166" s="18"/>
       <c r="E166" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F166" s="18"/>
       <c r="G166" s="21"/>
       <c r="H166" s="13"/>
-      <c r="I166" s="10">
-        <v>25.0</v>
+      <c r="I166" s="13">
+        <v>20.0</v>
       </c>
     </row>
     <row r="167">
@@ -4737,18 +4729,18 @@
         <v>19</v>
       </c>
       <c r="B167" s="6"/>
-      <c r="C167" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="D167" s="6"/>
-      <c r="E167" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="F167" s="6"/>
+      <c r="C167" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D167" s="18"/>
+      <c r="E167" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F167" s="18"/>
       <c r="G167" s="21"/>
       <c r="H167" s="13"/>
       <c r="I167" s="10">
-        <v>40.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="168">
@@ -4757,55 +4749,55 @@
       </c>
       <c r="B168" s="6"/>
       <c r="C168" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D168" s="6"/>
       <c r="E168" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F168" s="6"/>
       <c r="G168" s="21"/>
       <c r="H168" s="13"/>
       <c r="I168" s="10">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="23" t="s">
+      <c r="A169" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B169" s="6"/>
       <c r="C169" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D169" s="6"/>
       <c r="E169" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F169" s="6"/>
       <c r="G169" s="21"/>
       <c r="H169" s="13"/>
       <c r="I169" s="10">
-        <v>150.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="6" t="s">
+      <c r="A170" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B170" s="6"/>
-      <c r="C170" s="8" t="s">
-        <v>280</v>
+      <c r="C170" s="11" t="s">
+        <v>278</v>
       </c>
       <c r="D170" s="6"/>
-      <c r="E170" s="8" t="s">
-        <v>281</v>
+      <c r="E170" s="11" t="s">
+        <v>279</v>
       </c>
       <c r="F170" s="6"/>
       <c r="G170" s="21"/>
       <c r="H170" s="13"/>
-      <c r="I170" s="13">
-        <v>15.0</v>
+      <c r="I170" s="10">
+        <v>150.0</v>
       </c>
     </row>
     <row r="171">
@@ -4813,17 +4805,17 @@
         <v>19</v>
       </c>
       <c r="B171" s="6"/>
-      <c r="C171" s="11" t="s">
-        <v>282</v>
+      <c r="C171" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="D171" s="6"/>
-      <c r="E171" s="11" t="s">
-        <v>283</v>
+      <c r="E171" s="8" t="s">
+        <v>281</v>
       </c>
       <c r="F171" s="6"/>
       <c r="G171" s="21"/>
       <c r="H171" s="13"/>
-      <c r="I171" s="10">
+      <c r="I171" s="13">
         <v>15.0</v>
       </c>
     </row>
@@ -4831,26 +4823,39 @@
       <c r="A172" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B172" s="18"/>
-      <c r="C172" s="8" t="s">
+      <c r="B172" s="6"/>
+      <c r="C172" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="D172" s="6"/>
+      <c r="E172" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="F172" s="6"/>
+      <c r="G172" s="21"/>
+      <c r="H172" s="13"/>
+      <c r="I172" s="10">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B173" s="18"/>
+      <c r="C173" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="D172" s="6"/>
-      <c r="E172" s="8" t="s">
+      <c r="D173" s="6"/>
+      <c r="E173" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="F172" s="6"/>
-      <c r="G172" s="6"/>
-      <c r="H172" s="13"/>
-      <c r="I172" s="13">
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="13"/>
+      <c r="I173" s="13">
         <v>60.0</v>
       </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="35"/>
-      <c r="B173" s="35"/>
-      <c r="C173" s="35"/>
-      <c r="E173" s="35"/>
     </row>
     <row r="174">
       <c r="A174" s="35"/>
@@ -4885,10 +4890,16 @@
     <row r="179">
       <c r="A179" s="35"/>
       <c r="B179" s="35"/>
+      <c r="C179" s="35"/>
+      <c r="E179" s="35"/>
     </row>
     <row r="180">
       <c r="A180" s="35"/>
       <c r="B180" s="35"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="35"/>
+      <c r="B181" s="35"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="289">
   <si>
     <t>category</t>
   </si>
@@ -341,6 +341,15 @@
   </si>
   <si>
     <t>Iced White Chocolate Mocha</t>
+  </si>
+  <si>
+    <t>cOLD COFFEES</t>
+  </si>
+  <si>
+    <t>Iced  Macchiato</t>
+  </si>
+  <si>
+    <t>Iced Macchiato</t>
   </si>
   <si>
     <t>Iced Latte</t>
@@ -2789,15 +2798,23 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="8"/>
+      <c r="A69" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
+      <c r="C69" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="D69" s="18"/>
-      <c r="E69" s="8"/>
+      <c r="E69" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="F69" s="18"/>
       <c r="G69" s="21"/>
       <c r="H69" s="12"/>
-      <c r="I69" s="9"/>
+      <c r="I69" s="9">
+        <v>145.0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="8" t="s">
@@ -2807,11 +2824,11 @@
         <v>27</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D70" s="18"/>
       <c r="E70" s="8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="21"/>
@@ -2826,11 +2843,11 @@
       </c>
       <c r="B71" s="8"/>
       <c r="C71" s="20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D71" s="18"/>
       <c r="E71" s="20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F71" s="18"/>
       <c r="G71" s="21"/>
@@ -2845,11 +2862,11 @@
       </c>
       <c r="B72" s="8"/>
       <c r="C72" s="20" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D72" s="18"/>
       <c r="E72" s="20" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F72" s="18"/>
       <c r="G72" s="12"/>
@@ -2864,11 +2881,11 @@
       </c>
       <c r="B73" s="12"/>
       <c r="C73" s="11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="13"/>
@@ -2883,11 +2900,11 @@
       </c>
       <c r="B74" s="12"/>
       <c r="C74" s="12" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D74" s="16"/>
       <c r="E74" s="12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="13"/>
@@ -2902,11 +2919,11 @@
       </c>
       <c r="B75" s="12"/>
       <c r="C75" s="8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="13"/>
@@ -2921,11 +2938,11 @@
       </c>
       <c r="B76" s="8"/>
       <c r="C76" s="11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D76" s="16"/>
       <c r="E76" s="11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="13"/>
@@ -2940,11 +2957,11 @@
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D77" s="16"/>
       <c r="E77" s="11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="13"/>
@@ -2959,11 +2976,11 @@
       </c>
       <c r="B78" s="8"/>
       <c r="C78" s="8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="13"/>
@@ -2978,11 +2995,11 @@
       </c>
       <c r="B79" s="8"/>
       <c r="C79" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D79" s="16"/>
       <c r="E79" s="11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="13"/>
@@ -2999,11 +3016,11 @@
         <v>27</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="13"/>
@@ -3018,11 +3035,11 @@
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D81" s="18"/>
       <c r="E81" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F81" s="18"/>
       <c r="G81" s="13"/>
@@ -3037,11 +3054,11 @@
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D82" s="18"/>
       <c r="E82" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F82" s="18"/>
       <c r="G82" s="13"/>
@@ -3056,11 +3073,11 @@
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D83" s="18"/>
       <c r="E83" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F83" s="18"/>
       <c r="G83" s="21"/>
@@ -3075,11 +3092,11 @@
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D84" s="18"/>
       <c r="E84" s="11" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F84" s="18"/>
       <c r="G84" s="13"/>
@@ -3094,11 +3111,11 @@
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D85" s="18"/>
       <c r="E85" s="11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F85" s="18"/>
       <c r="G85" s="13"/>
@@ -3113,11 +3130,11 @@
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D86" s="18"/>
       <c r="E86" s="11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F86" s="18"/>
       <c r="G86" s="13"/>
@@ -3132,11 +3149,11 @@
       </c>
       <c r="B87" s="8"/>
       <c r="C87" s="11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D87" s="18"/>
       <c r="E87" s="11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F87" s="18"/>
       <c r="G87" s="13"/>
@@ -3151,11 +3168,11 @@
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D88" s="18"/>
       <c r="E88" s="11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F88" s="18"/>
       <c r="G88" s="13"/>
@@ -3170,11 +3187,11 @@
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D89" s="18"/>
       <c r="E89" s="11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F89" s="18"/>
       <c r="G89" s="13"/>
@@ -3189,11 +3206,11 @@
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F90" s="18"/>
       <c r="G90" s="13"/>
@@ -3208,11 +3225,11 @@
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D91" s="18"/>
       <c r="E91" s="11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F91" s="18"/>
       <c r="G91" s="13"/>
@@ -3227,11 +3244,11 @@
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D92" s="18"/>
       <c r="E92" s="11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F92" s="18"/>
       <c r="G92" s="13"/>
@@ -3246,11 +3263,11 @@
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D93" s="18"/>
       <c r="E93" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F93" s="18"/>
       <c r="G93" s="13"/>
@@ -3265,11 +3282,11 @@
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="11" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D94" s="18"/>
       <c r="E94" s="11" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F94" s="18"/>
       <c r="G94" s="13"/>
@@ -3284,11 +3301,11 @@
       </c>
       <c r="B95" s="8"/>
       <c r="C95" s="8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D95" s="18"/>
       <c r="E95" s="8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F95" s="18"/>
       <c r="G95" s="13"/>
@@ -3305,11 +3322,11 @@
         <v>27</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D96" s="18"/>
       <c r="E96" s="8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F96" s="18"/>
       <c r="G96" s="13"/>
@@ -3326,11 +3343,11 @@
         <v>27</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D97" s="18"/>
       <c r="E97" s="8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F97" s="18"/>
       <c r="G97" s="13"/>
@@ -3345,11 +3362,11 @@
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="20" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D98" s="18"/>
       <c r="E98" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F98" s="18"/>
       <c r="G98" s="13"/>
@@ -3364,11 +3381,11 @@
       </c>
       <c r="B99" s="12"/>
       <c r="C99" s="9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D99" s="18"/>
       <c r="E99" s="9" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F99" s="18"/>
       <c r="G99" s="13"/>
@@ -3385,11 +3402,11 @@
         <v>27</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D100" s="18"/>
       <c r="E100" s="8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F100" s="18"/>
       <c r="G100" s="13"/>
@@ -3406,11 +3423,11 @@
         <v>27</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D101" s="18"/>
       <c r="E101" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F101" s="18"/>
       <c r="G101" s="12"/>
@@ -3425,11 +3442,11 @@
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D102" s="18"/>
       <c r="E102" s="11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F102" s="18"/>
       <c r="G102" s="13"/>
@@ -3446,11 +3463,11 @@
         <v>27</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D103" s="18"/>
       <c r="E103" s="8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F103" s="18"/>
       <c r="G103" s="13"/>
@@ -3465,11 +3482,11 @@
       </c>
       <c r="B104" s="8"/>
       <c r="C104" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D104" s="18"/>
       <c r="E104" s="8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F104" s="18"/>
       <c r="G104" s="13"/>
@@ -3484,11 +3501,11 @@
       </c>
       <c r="B105" s="8"/>
       <c r="C105" s="8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D105" s="18"/>
       <c r="E105" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F105" s="18"/>
       <c r="G105" s="12"/>
@@ -3503,11 +3520,11 @@
       </c>
       <c r="B106" s="8"/>
       <c r="C106" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D106" s="18"/>
       <c r="E106" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F106" s="18"/>
       <c r="G106" s="12"/>
@@ -3522,11 +3539,11 @@
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D107" s="18"/>
       <c r="E107" s="8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F107" s="6"/>
       <c r="G107" s="12"/>
@@ -3543,11 +3560,11 @@
         <v>27</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D108" s="18"/>
       <c r="E108" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F108" s="18"/>
       <c r="G108" s="12"/>
@@ -3562,11 +3579,11 @@
       </c>
       <c r="B109" s="6"/>
       <c r="C109" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D109" s="16"/>
       <c r="E109" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F109" s="18"/>
       <c r="G109" s="12"/>
@@ -3583,11 +3600,11 @@
         <v>27</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D110" s="18"/>
       <c r="E110" s="8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F110" s="18"/>
       <c r="G110" s="12"/>
@@ -3602,11 +3619,11 @@
       </c>
       <c r="B111" s="6"/>
       <c r="C111" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D111" s="18"/>
       <c r="E111" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F111" s="18"/>
       <c r="G111" s="12"/>
@@ -3621,11 +3638,11 @@
       </c>
       <c r="B112" s="6"/>
       <c r="C112" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D112" s="18"/>
       <c r="E112" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F112" s="18"/>
       <c r="G112" s="12"/>
@@ -3640,11 +3657,11 @@
       </c>
       <c r="B113" s="6"/>
       <c r="C113" s="11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D113" s="18"/>
       <c r="E113" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F113" s="18"/>
       <c r="G113" s="12"/>
@@ -3659,11 +3676,11 @@
       </c>
       <c r="B114" s="6"/>
       <c r="C114" s="11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D114" s="18"/>
       <c r="E114" s="11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F114" s="18"/>
       <c r="G114" s="12"/>
@@ -3678,11 +3695,11 @@
       </c>
       <c r="B115" s="6"/>
       <c r="C115" s="11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D115" s="18"/>
       <c r="E115" s="11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F115" s="18"/>
       <c r="G115" s="12"/>
@@ -3697,11 +3714,11 @@
       </c>
       <c r="B116" s="6"/>
       <c r="C116" s="11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D116" s="18"/>
       <c r="E116" s="11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F116" s="18"/>
       <c r="G116" s="12"/>
@@ -3716,11 +3733,11 @@
       </c>
       <c r="B117" s="6"/>
       <c r="C117" s="11" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D117" s="18"/>
       <c r="E117" s="11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F117" s="18"/>
       <c r="G117" s="12"/>
@@ -3737,11 +3754,11 @@
         <v>27</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D118" s="18"/>
       <c r="E118" s="8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F118" s="18"/>
       <c r="G118" s="21"/>
@@ -3756,11 +3773,11 @@
       </c>
       <c r="B119" s="22"/>
       <c r="C119" s="12" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D119" s="18"/>
       <c r="E119" s="12" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F119" s="18"/>
       <c r="G119" s="21"/>
@@ -3775,11 +3792,11 @@
       </c>
       <c r="B120" s="22"/>
       <c r="C120" s="12" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D120" s="18"/>
       <c r="E120" s="12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F120" s="18"/>
       <c r="G120" s="21"/>
@@ -3794,11 +3811,11 @@
       </c>
       <c r="B121" s="6"/>
       <c r="C121" s="8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D121" s="18"/>
       <c r="E121" s="8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F121" s="6"/>
       <c r="G121" s="21"/>
@@ -3813,11 +3830,11 @@
       </c>
       <c r="B122" s="6"/>
       <c r="C122" s="8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D122" s="18"/>
       <c r="E122" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="21"/>
@@ -3832,11 +3849,11 @@
       </c>
       <c r="B123" s="6"/>
       <c r="C123" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D123" s="18"/>
       <c r="E123" s="11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F123" s="18"/>
       <c r="G123" s="21"/>
@@ -3853,11 +3870,11 @@
         <v>27</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D124" s="18"/>
       <c r="E124" s="11" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F124" s="18"/>
       <c r="G124" s="21"/>
@@ -3874,11 +3891,11 @@
         <v>27</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D125" s="18"/>
       <c r="E125" s="8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F125" s="18"/>
       <c r="G125" s="21"/>
@@ -3893,11 +3910,11 @@
       </c>
       <c r="B126" s="6"/>
       <c r="C126" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D126" s="18"/>
       <c r="E126" s="11" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F126" s="18"/>
       <c r="G126" s="21"/>
@@ -3912,11 +3929,11 @@
       </c>
       <c r="B127" s="6"/>
       <c r="C127" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D127" s="18"/>
       <c r="E127" s="11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F127" s="18"/>
       <c r="G127" s="21"/>
@@ -3931,11 +3948,11 @@
       </c>
       <c r="B128" s="6"/>
       <c r="C128" s="8" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D128" s="6"/>
       <c r="E128" s="11" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F128" s="6"/>
       <c r="G128" s="21"/>
@@ -3950,11 +3967,11 @@
       </c>
       <c r="B129" s="6"/>
       <c r="C129" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D129" s="6"/>
       <c r="E129" s="8" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F129" s="6"/>
       <c r="G129" s="21"/>
@@ -3969,11 +3986,11 @@
       </c>
       <c r="B130" s="6"/>
       <c r="C130" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D130" s="6"/>
       <c r="E130" s="8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F130" s="6"/>
       <c r="G130" s="21"/>
@@ -3988,11 +4005,11 @@
       </c>
       <c r="B131" s="6"/>
       <c r="C131" s="8" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D131" s="6"/>
       <c r="E131" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="21"/>
@@ -4007,11 +4024,11 @@
       </c>
       <c r="B132" s="6"/>
       <c r="C132" s="8" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D132" s="6"/>
       <c r="E132" s="11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F132" s="6"/>
       <c r="G132" s="21"/>
@@ -4026,11 +4043,11 @@
       </c>
       <c r="B133" s="6"/>
       <c r="C133" s="8" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D133" s="6"/>
       <c r="E133" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F133" s="6"/>
       <c r="G133" s="21"/>
@@ -4047,11 +4064,11 @@
         <v>27</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D134" s="18"/>
       <c r="E134" s="8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F134" s="18"/>
       <c r="G134" s="21"/>
@@ -4066,11 +4083,11 @@
       </c>
       <c r="B135" s="6"/>
       <c r="C135" s="8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D135" s="6"/>
       <c r="E135" s="8" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="21"/>
@@ -4085,11 +4102,11 @@
       </c>
       <c r="B136" s="6"/>
       <c r="C136" s="8" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D136" s="6"/>
       <c r="E136" s="8" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F136" s="6"/>
       <c r="G136" s="21"/>
@@ -4106,11 +4123,11 @@
         <v>27</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D137" s="18"/>
       <c r="E137" s="11" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F137" s="18"/>
       <c r="G137" s="21"/>
@@ -4125,11 +4142,11 @@
       </c>
       <c r="B138" s="6"/>
       <c r="C138" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D138" s="18"/>
       <c r="E138" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F138" s="18"/>
       <c r="G138" s="21"/>
@@ -4146,11 +4163,11 @@
         <v>27</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D139" s="6"/>
       <c r="E139" s="8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F139" s="6"/>
       <c r="G139" s="21"/>
@@ -4165,11 +4182,11 @@
       </c>
       <c r="B140" s="6"/>
       <c r="C140" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D140" s="6"/>
       <c r="E140" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F140" s="6"/>
       <c r="G140" s="21"/>
@@ -4184,11 +4201,11 @@
       </c>
       <c r="B141" s="6"/>
       <c r="C141" s="8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D141" s="18"/>
       <c r="E141" s="8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F141" s="18"/>
       <c r="G141" s="21"/>
@@ -4205,11 +4222,11 @@
         <v>27</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D142" s="18"/>
       <c r="E142" s="8" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F142" s="18"/>
       <c r="G142" s="21"/>
@@ -4224,11 +4241,11 @@
       </c>
       <c r="B143" s="6"/>
       <c r="C143" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D143" s="6"/>
       <c r="E143" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="21"/>
@@ -4243,11 +4260,11 @@
       </c>
       <c r="B144" s="6"/>
       <c r="C144" s="8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D144" s="6"/>
       <c r="E144" s="8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="21"/>
@@ -4262,11 +4279,11 @@
       </c>
       <c r="B145" s="6"/>
       <c r="C145" s="8" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D145" s="6"/>
       <c r="E145" s="8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="21"/>
@@ -4281,11 +4298,11 @@
       </c>
       <c r="B146" s="6"/>
       <c r="C146" s="8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D146" s="6"/>
       <c r="E146" s="8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="21"/>
@@ -4300,11 +4317,11 @@
       </c>
       <c r="B147" s="22"/>
       <c r="C147" s="12" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D147" s="6"/>
       <c r="E147" s="12" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="21"/>
@@ -4321,11 +4338,11 @@
         <v>27</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D148" s="18"/>
       <c r="E148" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="21"/>
@@ -4340,11 +4357,11 @@
       </c>
       <c r="B149" s="6"/>
       <c r="C149" s="11" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D149" s="6"/>
       <c r="E149" s="11" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F149" s="6"/>
       <c r="G149" s="21"/>
@@ -4361,11 +4378,11 @@
         <v>27</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D150" s="6"/>
       <c r="E150" s="12" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F150" s="6"/>
       <c r="G150" s="21"/>
@@ -4382,11 +4399,11 @@
         <v>27</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D151" s="18"/>
       <c r="E151" s="9" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F151" s="6"/>
       <c r="G151" s="21"/>
@@ -4403,11 +4420,11 @@
         <v>27</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D152" s="18"/>
       <c r="E152" s="11" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F152" s="6"/>
       <c r="G152" s="21"/>
@@ -4424,11 +4441,11 @@
         <v>27</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D153" s="18"/>
       <c r="E153" s="11" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="21"/>
@@ -4445,11 +4462,11 @@
         <v>27</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D154" s="18"/>
       <c r="E154" s="8" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F154" s="6"/>
       <c r="G154" s="21"/>
@@ -4460,15 +4477,15 @@
     </row>
     <row r="155">
       <c r="A155" s="24" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B155" s="25"/>
       <c r="C155" s="26" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D155" s="27"/>
       <c r="E155" s="28" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F155" s="27"/>
       <c r="G155" s="21"/>
@@ -4496,15 +4513,15 @@
     </row>
     <row r="156">
       <c r="A156" s="30" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B156" s="31"/>
       <c r="C156" s="26" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D156" s="32"/>
       <c r="E156" s="26" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F156" s="32"/>
       <c r="G156" s="22"/>
@@ -4538,11 +4555,11 @@
         <v>27</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D157" s="18"/>
       <c r="E157" s="12" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F157" s="18"/>
       <c r="G157" s="21"/>
@@ -4559,11 +4576,11 @@
         <v>27</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D158" s="6"/>
       <c r="E158" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F158" s="6"/>
       <c r="G158" s="21"/>
@@ -4578,11 +4595,11 @@
       </c>
       <c r="B159" s="8"/>
       <c r="C159" s="11" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D159" s="6"/>
       <c r="E159" s="11" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F159" s="6"/>
       <c r="G159" s="21"/>
@@ -4597,11 +4614,11 @@
       </c>
       <c r="B160" s="22"/>
       <c r="C160" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D160" s="6"/>
       <c r="E160" s="12" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F160" s="6"/>
       <c r="G160" s="21"/>
@@ -4616,11 +4633,11 @@
       </c>
       <c r="B161" s="22"/>
       <c r="C161" s="8" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D161" s="6"/>
       <c r="E161" s="8" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F161" s="6"/>
       <c r="G161" s="21"/>
@@ -4635,11 +4652,11 @@
       </c>
       <c r="B162" s="6"/>
       <c r="C162" s="11" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D162" s="18"/>
       <c r="E162" s="34" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F162" s="18"/>
       <c r="G162" s="21"/>
@@ -4654,11 +4671,11 @@
       </c>
       <c r="B163" s="6"/>
       <c r="C163" s="8" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D163" s="18"/>
       <c r="E163" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F163" s="18"/>
       <c r="G163" s="21"/>
@@ -4673,11 +4690,11 @@
       </c>
       <c r="B164" s="6"/>
       <c r="C164" s="8" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D164" s="18"/>
       <c r="E164" s="8" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F164" s="18"/>
       <c r="G164" s="21"/>
@@ -4692,11 +4709,11 @@
       </c>
       <c r="B165" s="6"/>
       <c r="C165" s="8" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D165" s="18"/>
       <c r="E165" s="8" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F165" s="18"/>
       <c r="G165" s="21"/>
@@ -4711,11 +4728,11 @@
       </c>
       <c r="B166" s="6"/>
       <c r="C166" s="8" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D166" s="18"/>
       <c r="E166" s="8" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F166" s="18"/>
       <c r="G166" s="21"/>
@@ -4730,11 +4747,11 @@
       </c>
       <c r="B167" s="6"/>
       <c r="C167" s="8" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D167" s="18"/>
       <c r="E167" s="8" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F167" s="18"/>
       <c r="G167" s="21"/>
@@ -4749,11 +4766,11 @@
       </c>
       <c r="B168" s="6"/>
       <c r="C168" s="11" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D168" s="6"/>
       <c r="E168" s="11" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F168" s="6"/>
       <c r="G168" s="21"/>
@@ -4768,11 +4785,11 @@
       </c>
       <c r="B169" s="6"/>
       <c r="C169" s="11" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D169" s="6"/>
       <c r="E169" s="11" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F169" s="6"/>
       <c r="G169" s="21"/>
@@ -4787,11 +4804,11 @@
       </c>
       <c r="B170" s="6"/>
       <c r="C170" s="11" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D170" s="6"/>
       <c r="E170" s="11" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F170" s="6"/>
       <c r="G170" s="21"/>
@@ -4806,11 +4823,11 @@
       </c>
       <c r="B171" s="6"/>
       <c r="C171" s="8" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D171" s="6"/>
       <c r="E171" s="8" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F171" s="6"/>
       <c r="G171" s="21"/>
@@ -4825,11 +4842,11 @@
       </c>
       <c r="B172" s="6"/>
       <c r="C172" s="11" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D172" s="6"/>
       <c r="E172" s="11" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F172" s="6"/>
       <c r="G172" s="21"/>
@@ -4844,11 +4861,11 @@
       </c>
       <c r="B173" s="18"/>
       <c r="C173" s="8" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D173" s="6"/>
       <c r="E173" s="8" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="rLhLhsUxs7TySeIqbggw80Y/mJSBCmFVPi99WoZsPvc="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="5xs8Rz7+mh7IcYVRrrplF1xtBoFDSgPevrNaSYUUFqE="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="291">
   <si>
     <t>category</t>
   </si>
@@ -828,6 +828,12 @@
   </si>
   <si>
     <t>Sandeviç (Kaşar Peyniri+Chedar+Salam)</t>
+  </si>
+  <si>
+    <t>Mini Sandwich</t>
+  </si>
+  <si>
+    <t>Mini Sandeviç</t>
   </si>
   <si>
     <t>VEGAN - GLUTEIN FREE</t>
@@ -3705,7 +3711,7 @@
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
       <c r="I115" s="9">
-        <v>170.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="116">
@@ -4388,7 +4394,7 @@
       <c r="G150" s="21"/>
       <c r="H150" s="13"/>
       <c r="I150" s="10">
-        <v>130.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="151">
@@ -4477,21 +4483,21 @@
     </row>
     <row r="155">
       <c r="A155" s="24" t="s">
-        <v>251</v>
+        <v>17</v>
       </c>
       <c r="B155" s="25"/>
       <c r="C155" s="26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D155" s="27"/>
       <c r="E155" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F155" s="27"/>
       <c r="G155" s="21"/>
       <c r="H155" s="21"/>
       <c r="I155" s="10">
-        <v>165.0</v>
+        <v>50.0</v>
       </c>
       <c r="J155" s="29"/>
       <c r="K155" s="29"/>
@@ -4512,176 +4518,193 @@
       <c r="Z155" s="29"/>
     </row>
     <row r="156">
-      <c r="A156" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="B156" s="31"/>
+      <c r="A156" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="B156" s="25"/>
       <c r="C156" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="D156" s="32"/>
-      <c r="E156" s="26" t="s">
+      <c r="D156" s="27"/>
+      <c r="E156" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="F156" s="32"/>
-      <c r="G156" s="22"/>
-      <c r="H156" s="22"/>
+      <c r="F156" s="27"/>
+      <c r="G156" s="21"/>
+      <c r="H156" s="21"/>
       <c r="I156" s="10">
         <v>165.0</v>
       </c>
-      <c r="J156" s="33"/>
-      <c r="K156" s="33"/>
-      <c r="L156" s="33"/>
-      <c r="M156" s="33"/>
-      <c r="N156" s="33"/>
-      <c r="O156" s="33"/>
-      <c r="P156" s="33"/>
-      <c r="Q156" s="33"/>
-      <c r="R156" s="33"/>
-      <c r="S156" s="33"/>
-      <c r="T156" s="33"/>
-      <c r="U156" s="33"/>
-      <c r="V156" s="33"/>
-      <c r="W156" s="33"/>
-      <c r="X156" s="33"/>
-      <c r="Y156" s="33"/>
-      <c r="Z156" s="33"/>
+      <c r="J156" s="29"/>
+      <c r="K156" s="29"/>
+      <c r="L156" s="29"/>
+      <c r="M156" s="29"/>
+      <c r="N156" s="29"/>
+      <c r="O156" s="29"/>
+      <c r="P156" s="29"/>
+      <c r="Q156" s="29"/>
+      <c r="R156" s="29"/>
+      <c r="S156" s="29"/>
+      <c r="T156" s="29"/>
+      <c r="U156" s="29"/>
+      <c r="V156" s="29"/>
+      <c r="W156" s="29"/>
+      <c r="X156" s="29"/>
+      <c r="Y156" s="29"/>
+      <c r="Z156" s="29"/>
     </row>
     <row r="157">
-      <c r="A157" s="12" t="s">
+      <c r="A157" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="B157" s="31"/>
+      <c r="C157" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="D157" s="32"/>
+      <c r="E157" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="F157" s="32"/>
+      <c r="G157" s="22"/>
+      <c r="H157" s="22"/>
+      <c r="I157" s="10">
+        <v>165.0</v>
+      </c>
+      <c r="J157" s="33"/>
+      <c r="K157" s="33"/>
+      <c r="L157" s="33"/>
+      <c r="M157" s="33"/>
+      <c r="N157" s="33"/>
+      <c r="O157" s="33"/>
+      <c r="P157" s="33"/>
+      <c r="Q157" s="33"/>
+      <c r="R157" s="33"/>
+      <c r="S157" s="33"/>
+      <c r="T157" s="33"/>
+      <c r="U157" s="33"/>
+      <c r="V157" s="33"/>
+      <c r="W157" s="33"/>
+      <c r="X157" s="33"/>
+      <c r="Y157" s="33"/>
+      <c r="Z157" s="33"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B157" s="12" t="s">
+      <c r="B158" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C157" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="D157" s="18"/>
-      <c r="E157" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="F157" s="18"/>
-      <c r="G157" s="21"/>
-      <c r="H157" s="13"/>
-      <c r="I157" s="10">
-        <v>220.0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C158" s="8" t="s">
+      <c r="C158" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="D158" s="6"/>
-      <c r="E158" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="F158" s="6"/>
+      <c r="D158" s="18"/>
+      <c r="E158" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="F158" s="18"/>
       <c r="G158" s="21"/>
       <c r="H158" s="13"/>
       <c r="I158" s="10">
-        <v>250.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="11" t="s">
+      <c r="A159" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B159" s="8"/>
-      <c r="C159" s="11" t="s">
-        <v>259</v>
+      <c r="B159" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>260</v>
       </c>
       <c r="D159" s="6"/>
-      <c r="E159" s="11" t="s">
+      <c r="E159" s="8" t="s">
         <v>260</v>
       </c>
       <c r="F159" s="6"/>
       <c r="G159" s="21"/>
       <c r="H159" s="13"/>
       <c r="I159" s="10">
-        <v>155.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B160" s="22"/>
-      <c r="C160" s="12" t="s">
+      <c r="A160" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B160" s="8"/>
+      <c r="C160" s="11" t="s">
         <v>261</v>
       </c>
       <c r="D160" s="6"/>
-      <c r="E160" s="12" t="s">
+      <c r="E160" s="11" t="s">
         <v>262</v>
       </c>
       <c r="F160" s="6"/>
       <c r="G160" s="21"/>
       <c r="H160" s="13"/>
-      <c r="I160" s="13">
-        <v>20.0</v>
+      <c r="I160" s="10">
+        <v>155.0</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="6" t="s">
+      <c r="A161" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B161" s="22"/>
-      <c r="C161" s="8" t="s">
+      <c r="C161" s="12" t="s">
         <v>263</v>
       </c>
       <c r="D161" s="6"/>
-      <c r="E161" s="8" t="s">
+      <c r="E161" s="12" t="s">
         <v>264</v>
       </c>
       <c r="F161" s="6"/>
       <c r="G161" s="21"/>
-      <c r="H161" s="10"/>
-      <c r="I161" s="10">
-        <v>40.0</v>
+      <c r="H161" s="13"/>
+      <c r="I161" s="13">
+        <v>20.0</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="23" t="s">
+      <c r="A162" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B162" s="6"/>
-      <c r="C162" s="11" t="s">
+      <c r="B162" s="22"/>
+      <c r="C162" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="D162" s="18"/>
-      <c r="E162" s="34" t="s">
+      <c r="D162" s="6"/>
+      <c r="E162" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="F162" s="18"/>
+      <c r="F162" s="6"/>
       <c r="G162" s="21"/>
       <c r="H162" s="10"/>
       <c r="I162" s="10">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="6" t="s">
+      <c r="A163" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B163" s="6"/>
-      <c r="C163" s="8" t="s">
+      <c r="C163" s="11" t="s">
         <v>267</v>
       </c>
       <c r="D163" s="18"/>
-      <c r="E163" s="8" t="s">
+      <c r="E163" s="34" t="s">
         <v>268</v>
       </c>
       <c r="F163" s="18"/>
       <c r="G163" s="21"/>
       <c r="H163" s="10"/>
       <c r="I163" s="10">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="164">
@@ -4698,9 +4721,9 @@
       </c>
       <c r="F164" s="18"/>
       <c r="G164" s="21"/>
-      <c r="H164" s="13"/>
+      <c r="H164" s="10"/>
       <c r="I164" s="10">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="165">
@@ -4719,7 +4742,7 @@
       <c r="G165" s="21"/>
       <c r="H165" s="13"/>
       <c r="I165" s="10">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="166">
@@ -4737,7 +4760,7 @@
       <c r="F166" s="18"/>
       <c r="G166" s="21"/>
       <c r="H166" s="13"/>
-      <c r="I166" s="13">
+      <c r="I166" s="10">
         <v>20.0</v>
       </c>
     </row>
@@ -4756,8 +4779,8 @@
       <c r="F167" s="18"/>
       <c r="G167" s="21"/>
       <c r="H167" s="13"/>
-      <c r="I167" s="10">
-        <v>25.0</v>
+      <c r="I167" s="13">
+        <v>20.0</v>
       </c>
     </row>
     <row r="168">
@@ -4765,18 +4788,18 @@
         <v>19</v>
       </c>
       <c r="B168" s="6"/>
-      <c r="C168" s="11" t="s">
+      <c r="C168" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="D168" s="6"/>
-      <c r="E168" s="11" t="s">
+      <c r="D168" s="18"/>
+      <c r="E168" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="F168" s="6"/>
+      <c r="F168" s="18"/>
       <c r="G168" s="21"/>
       <c r="H168" s="13"/>
       <c r="I168" s="10">
-        <v>40.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="169">
@@ -4795,11 +4818,11 @@
       <c r="G169" s="21"/>
       <c r="H169" s="13"/>
       <c r="I169" s="10">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="23" t="s">
+      <c r="A170" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B170" s="6"/>
@@ -4814,26 +4837,26 @@
       <c r="G170" s="21"/>
       <c r="H170" s="13"/>
       <c r="I170" s="10">
-        <v>150.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="6" t="s">
+      <c r="A171" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B171" s="6"/>
-      <c r="C171" s="8" t="s">
+      <c r="C171" s="11" t="s">
         <v>283</v>
       </c>
       <c r="D171" s="6"/>
-      <c r="E171" s="8" t="s">
+      <c r="E171" s="11" t="s">
         <v>284</v>
       </c>
       <c r="F171" s="6"/>
       <c r="G171" s="21"/>
       <c r="H171" s="13"/>
-      <c r="I171" s="13">
-        <v>15.0</v>
+      <c r="I171" s="10">
+        <v>150.0</v>
       </c>
     </row>
     <row r="172">
@@ -4841,17 +4864,17 @@
         <v>19</v>
       </c>
       <c r="B172" s="6"/>
-      <c r="C172" s="11" t="s">
+      <c r="C172" s="8" t="s">
         <v>285</v>
       </c>
       <c r="D172" s="6"/>
-      <c r="E172" s="11" t="s">
+      <c r="E172" s="8" t="s">
         <v>286</v>
       </c>
       <c r="F172" s="6"/>
       <c r="G172" s="21"/>
       <c r="H172" s="13"/>
-      <c r="I172" s="10">
+      <c r="I172" s="13">
         <v>15.0</v>
       </c>
     </row>
@@ -4859,26 +4882,39 @@
       <c r="A173" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B173" s="18"/>
-      <c r="C173" s="8" t="s">
+      <c r="B173" s="6"/>
+      <c r="C173" s="11" t="s">
         <v>287</v>
       </c>
       <c r="D173" s="6"/>
-      <c r="E173" s="8" t="s">
+      <c r="E173" s="11" t="s">
         <v>288</v>
       </c>
       <c r="F173" s="6"/>
-      <c r="G173" s="6"/>
+      <c r="G173" s="21"/>
       <c r="H173" s="13"/>
-      <c r="I173" s="13">
+      <c r="I173" s="10">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B174" s="18"/>
+      <c r="C174" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D174" s="6"/>
+      <c r="E174" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="13"/>
+      <c r="I174" s="13">
         <v>60.0</v>
       </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="35"/>
-      <c r="B174" s="35"/>
-      <c r="C174" s="35"/>
-      <c r="E174" s="35"/>
     </row>
     <row r="175">
       <c r="A175" s="35"/>
@@ -4913,10 +4949,16 @@
     <row r="180">
       <c r="A180" s="35"/>
       <c r="B180" s="35"/>
+      <c r="C180" s="35"/>
+      <c r="E180" s="35"/>
     </row>
     <row r="181">
       <c r="A181" s="35"/>
       <c r="B181" s="35"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="35"/>
+      <c r="B182" s="35"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -1020,7 +1020,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1046,6 +1045,7 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1166,8 +1166,8 @@
     <xf borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -4518,7 +4518,7 @@
       <c r="Z155" s="29"/>
     </row>
     <row r="156">
-      <c r="A156" s="24" t="s">
+      <c r="A156" s="30" t="s">
         <v>253</v>
       </c>
       <c r="B156" s="25"/>
@@ -4554,7 +4554,7 @@
       <c r="Z156" s="29"/>
     </row>
     <row r="157">
-      <c r="A157" s="30" t="s">
+      <c r="A157" s="24" t="s">
         <v>253</v>
       </c>
       <c r="B157" s="31"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="fM6xYdvyhg+hNg84nk6G0GD5eeaPuagvC8Oi4FgZbQw="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="JM/qfoY1LsMWpxFmz954Tm3KDck8eiFEEGa/4i10aHE="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="292">
   <si>
     <t>category</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Espresso</t>
+  </si>
+  <si>
+    <t>Espresso Macchiato</t>
   </si>
   <si>
     <t>Lungo</t>
@@ -1871,10 +1874,10 @@
       <c r="F20" s="7"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10">
-        <v>110.0</v>
+        <v>140.0</v>
       </c>
       <c r="I20" s="11">
-        <v>140.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="21">
@@ -1893,11 +1896,11 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="11">
-        <v>125.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="9"/>
@@ -1906,13 +1909,13 @@
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
-      <c r="I22" s="10">
-        <v>120.0</v>
+      <c r="I22" s="11">
+        <v>150.0</v>
       </c>
     </row>
     <row r="23">
@@ -1920,57 +1923,49 @@
         <v>3</v>
       </c>
       <c r="B23" s="9"/>
-      <c r="C23" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="C23" s="12"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="12" t="s">
-        <v>47</v>
-      </c>
+      <c r="E23" s="12"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="14"/>
+      <c r="G23" s="13"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="11">
-        <v>130.0</v>
-      </c>
+      <c r="I23" s="10"/>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="B24" s="9"/>
       <c r="C24" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="G24" s="14"/>
+      <c r="G24" s="13"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="11">
-        <v>140.0</v>
+      <c r="I24" s="10">
+        <v>120.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="7"/>
-      <c r="E25" s="9" t="s">
-        <v>49</v>
+      <c r="E25" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="14"/>
       <c r="H25" s="13"/>
-      <c r="I25" s="10">
+      <c r="I25" s="11">
         <v>130.0</v>
       </c>
     </row>
@@ -1978,53 +1973,53 @@
       <c r="A26" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9" t="s">
-        <v>50</v>
+      <c r="B26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="D26" s="7"/>
-      <c r="E26" s="9" t="s">
-        <v>50</v>
+      <c r="E26" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="14"/>
       <c r="H26" s="13"/>
-      <c r="I26" s="10">
-        <v>135.0</v>
+      <c r="I26" s="11">
+        <v>140.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="14"/>
       <c r="H27" s="13"/>
       <c r="I27" s="10">
-        <v>150.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="B28" s="9"/>
       <c r="C28" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="14"/>
@@ -2034,41 +2029,43 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16"/>
+        <v>52</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="14"/>
       <c r="H29" s="13"/>
       <c r="I29" s="10">
-        <v>140.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="12" t="s">
-        <v>54</v>
+      <c r="B30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="14"/>
       <c r="H30" s="13"/>
       <c r="I30" s="10">
-        <v>160.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="31">
@@ -2077,30 +2074,30 @@
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="17"/>
+        <v>54</v>
+      </c>
+      <c r="D31" s="7"/>
       <c r="E31" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="14"/>
+        <v>54</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="16"/>
       <c r="H31" s="13"/>
       <c r="I31" s="10">
-        <v>160.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="14"/>
@@ -2113,21 +2110,19 @@
       <c r="A33" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>57</v>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="D33" s="17"/>
-      <c r="E33" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="17"/>
+      <c r="E33" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="7"/>
       <c r="G33" s="14"/>
       <c r="H33" s="13"/>
       <c r="I33" s="10">
-        <v>125.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="34">
@@ -2135,37 +2130,39 @@
         <v>3</v>
       </c>
       <c r="B34" s="9"/>
-      <c r="C34" s="9" t="s">
-        <v>58</v>
+      <c r="C34" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="D34" s="17"/>
-      <c r="E34" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34" s="17"/>
+      <c r="E34" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="7"/>
       <c r="G34" s="14"/>
       <c r="H34" s="13"/>
       <c r="I34" s="10">
-        <v>125.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9" t="s">
-        <v>60</v>
+      <c r="B35" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="D35" s="17"/>
-      <c r="E35" s="9" t="s">
-        <v>60</v>
+      <c r="E35" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="14"/>
       <c r="H35" s="13"/>
       <c r="I35" s="10">
-        <v>165.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="36">
@@ -2174,18 +2171,16 @@
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F36" s="17"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="10">
-        <v>115.0</v>
-      </c>
-      <c r="I36" s="11">
+      <c r="G36" s="14"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="10">
         <v>125.0</v>
       </c>
     </row>
@@ -2195,19 +2190,17 @@
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F37" s="17"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="10">
-        <v>125.0</v>
-      </c>
-      <c r="I37" s="11">
-        <v>130.0</v>
+      <c r="G37" s="14"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="10">
+        <v>165.0</v>
       </c>
     </row>
     <row r="38">
@@ -2216,80 +2209,84 @@
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="13"/>
       <c r="H38" s="10">
+        <v>115.0</v>
+      </c>
+      <c r="I38" s="11">
         <v>125.0</v>
       </c>
-      <c r="I38" s="11">
-        <v>130.0</v>
-      </c>
     </row>
     <row r="39">
-      <c r="A39" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="13" t="s">
-        <v>68</v>
+      <c r="A39" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="13"/>
       <c r="H39" s="10">
-        <v>40.0</v>
-      </c>
-      <c r="I39" s="10">
-        <v>60.0</v>
+        <v>125.0</v>
+      </c>
+      <c r="I39" s="11">
+        <v>130.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="17"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="10">
+        <v>125.0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>130.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="11">
-        <v>140.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="9" t="s">
-        <v>72</v>
-      </c>
       <c r="F41" s="17"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="11">
-        <v>140.0</v>
+      <c r="G41" s="13"/>
+      <c r="H41" s="10">
+        <v>40.0</v>
+      </c>
+      <c r="I41" s="10">
+        <v>60.0</v>
       </c>
     </row>
     <row r="42">
@@ -2298,13 +2295,13 @@
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F42" s="19"/>
+        <v>71</v>
+      </c>
+      <c r="F42" s="17"/>
       <c r="G42" s="14"/>
       <c r="H42" s="13"/>
       <c r="I42" s="11">
@@ -2317,17 +2314,17 @@
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="D43" s="19"/>
       <c r="E43" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F43" s="19"/>
+        <v>73</v>
+      </c>
+      <c r="F43" s="17"/>
       <c r="G43" s="14"/>
       <c r="H43" s="13"/>
       <c r="I43" s="11">
-        <v>130.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="44">
@@ -2336,17 +2333,17 @@
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="D44" s="19"/>
       <c r="E44" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F44" s="19"/>
-      <c r="G44" s="13"/>
+      <c r="G44" s="14"/>
       <c r="H44" s="13"/>
       <c r="I44" s="11">
-        <v>130.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="45">
@@ -2355,11 +2352,11 @@
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F45" s="19"/>
       <c r="G45" s="14"/>
@@ -2374,19 +2371,18 @@
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D46" s="7"/>
-      <c r="E46" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="14"/>
+      <c r="E46" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="19"/>
+      <c r="G46" s="13"/>
       <c r="H46" s="13"/>
       <c r="I46" s="11">
         <v>130.0</v>
       </c>
-      <c r="J46" s="20"/>
     </row>
     <row r="47">
       <c r="A47" s="9" t="s">
@@ -2394,35 +2390,32 @@
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" s="17"/>
+        <v>80</v>
+      </c>
+      <c r="D47" s="7"/>
       <c r="E47" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F47" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="F47" s="19"/>
       <c r="G47" s="14"/>
       <c r="H47" s="13"/>
       <c r="I47" s="11">
         <v>130.0</v>
       </c>
-      <c r="J47" s="20"/>
     </row>
     <row r="48">
       <c r="A48" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="B48" s="9"/>
       <c r="C48" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F48" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" s="17"/>
       <c r="G48" s="14"/>
       <c r="H48" s="13"/>
       <c r="I48" s="11">
@@ -2431,75 +2424,78 @@
       <c r="J48" s="20"/>
     </row>
     <row r="49">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="12" t="s">
-        <v>87</v>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="D49" s="17"/>
-      <c r="E49" s="12" t="s">
-        <v>87</v>
+      <c r="E49" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="14"/>
       <c r="H49" s="13"/>
       <c r="I49" s="11">
-        <v>150.0</v>
+        <v>130.0</v>
       </c>
       <c r="J49" s="20"/>
     </row>
     <row r="50">
-      <c r="A50" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13" t="s">
-        <v>88</v>
+      <c r="A50" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="D50" s="17"/>
-      <c r="E50" s="13" t="s">
-        <v>88</v>
+      <c r="E50" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="14"/>
       <c r="H50" s="13"/>
       <c r="I50" s="11">
-        <v>135.0</v>
+        <v>130.0</v>
       </c>
       <c r="J50" s="20"/>
     </row>
     <row r="51">
-      <c r="A51" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9" t="s">
-        <v>89</v>
+      <c r="A51" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="D51" s="17"/>
-      <c r="E51" s="9" t="s">
-        <v>89</v>
+      <c r="E51" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="14"/>
       <c r="H51" s="13"/>
       <c r="I51" s="11">
-        <v>135.0</v>
-      </c>
+        <v>150.0</v>
+      </c>
+      <c r="J51" s="20"/>
     </row>
     <row r="52">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9" t="s">
-        <v>90</v>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="D52" s="17"/>
-      <c r="E52" s="9" t="s">
-        <v>90</v>
+      <c r="E52" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="14"/>
@@ -2507,6 +2503,7 @@
       <c r="I52" s="11">
         <v>135.0</v>
       </c>
+      <c r="J52" s="20"/>
     </row>
     <row r="53">
       <c r="A53" s="9" t="s">
@@ -2514,11 +2511,11 @@
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="14"/>
@@ -2533,11 +2530,11 @@
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="14"/>
@@ -2552,11 +2549,11 @@
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="14"/>
@@ -2571,13 +2568,13 @@
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D56" s="19"/>
+        <v>93</v>
+      </c>
+      <c r="D56" s="17"/>
       <c r="E56" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F56" s="19"/>
+        <v>93</v>
+      </c>
+      <c r="F56" s="7"/>
       <c r="G56" s="14"/>
       <c r="H56" s="13"/>
       <c r="I56" s="11">
@@ -2590,13 +2587,13 @@
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D57" s="19"/>
+        <v>94</v>
+      </c>
+      <c r="D57" s="17"/>
       <c r="E57" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F57" s="19"/>
+        <v>94</v>
+      </c>
+      <c r="F57" s="7"/>
       <c r="G57" s="14"/>
       <c r="H57" s="13"/>
       <c r="I57" s="11">
@@ -2608,12 +2605,12 @@
         <v>5</v>
       </c>
       <c r="B58" s="9"/>
-      <c r="C58" s="21" t="s">
-        <v>96</v>
+      <c r="C58" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="D58" s="19"/>
-      <c r="E58" s="21" t="s">
-        <v>96</v>
+      <c r="E58" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="F58" s="19"/>
       <c r="G58" s="14"/>
@@ -2623,119 +2620,117 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13" t="s">
-        <v>97</v>
+      <c r="A59" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="D59" s="19"/>
-      <c r="E59" s="13" t="s">
-        <v>98</v>
+      <c r="E59" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="F59" s="19"/>
       <c r="G59" s="14"/>
       <c r="H59" s="13"/>
-      <c r="I59" s="10">
-        <v>150.0</v>
+      <c r="I59" s="11">
+        <v>135.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B60" s="9"/>
-      <c r="C60" s="9" t="s">
-        <v>99</v>
+      <c r="C60" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="D60" s="19"/>
-      <c r="E60" s="9" t="s">
-        <v>99</v>
+      <c r="E60" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="F60" s="19"/>
       <c r="G60" s="14"/>
       <c r="H60" s="13"/>
-      <c r="I60" s="10">
-        <v>150.0</v>
+      <c r="I60" s="11">
+        <v>135.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9" t="s">
-        <v>100</v>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="D61" s="19"/>
-      <c r="E61" s="9" t="s">
-        <v>100</v>
+      <c r="E61" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="F61" s="19"/>
       <c r="G61" s="14"/>
       <c r="H61" s="13"/>
       <c r="I61" s="10">
-        <v>170.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13" t="s">
-        <v>101</v>
+      <c r="A62" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="D62" s="19"/>
-      <c r="E62" s="13" t="s">
-        <v>101</v>
+      <c r="E62" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="F62" s="19"/>
       <c r="G62" s="14"/>
       <c r="H62" s="13"/>
-      <c r="I62" s="11">
-        <v>130.0</v>
+      <c r="I62" s="10">
+        <v>150.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F63" s="19"/>
       <c r="G63" s="14"/>
       <c r="H63" s="13"/>
-      <c r="I63" s="11">
-        <v>135.0</v>
+      <c r="I63" s="10">
+        <v>170.0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>104</v>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="D64" s="19"/>
-      <c r="E64" s="9" t="s">
-        <v>104</v>
+      <c r="E64" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="F64" s="19"/>
-      <c r="G64" s="22"/>
+      <c r="G64" s="14"/>
       <c r="H64" s="13"/>
-      <c r="I64" s="10">
-        <v>140.0</v>
+      <c r="I64" s="11">
+        <v>130.0</v>
       </c>
     </row>
     <row r="65">
@@ -2744,36 +2739,38 @@
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D65" s="19"/>
       <c r="E65" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F65" s="19"/>
-      <c r="G65" s="22"/>
+      <c r="G65" s="14"/>
       <c r="H65" s="13"/>
-      <c r="I65" s="10">
-        <v>145.0</v>
+      <c r="I65" s="11">
+        <v>135.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="9"/>
+      <c r="B66" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="C66" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D66" s="19"/>
       <c r="E66" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F66" s="19"/>
       <c r="G66" s="22"/>
       <c r="H66" s="13"/>
       <c r="I66" s="10">
-        <v>160.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="67">
@@ -2782,17 +2779,17 @@
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D67" s="19"/>
       <c r="E67" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F67" s="19"/>
       <c r="G67" s="22"/>
       <c r="H67" s="13"/>
       <c r="I67" s="10">
-        <v>170.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="68">
@@ -2801,165 +2798,165 @@
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D68" s="19"/>
       <c r="E68" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F68" s="19"/>
       <c r="G68" s="22"/>
       <c r="H68" s="13"/>
       <c r="I68" s="10">
-        <v>170.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="12" t="s">
-        <v>109</v>
+      <c r="A69" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="B69" s="9"/>
-      <c r="C69" s="12" t="s">
-        <v>110</v>
+      <c r="C69" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="D69" s="19"/>
-      <c r="E69" s="12" t="s">
-        <v>111</v>
+      <c r="E69" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="F69" s="19"/>
       <c r="G69" s="22"/>
       <c r="H69" s="13"/>
       <c r="I69" s="10">
-        <v>145.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="B70" s="9"/>
       <c r="C70" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D70" s="19"/>
       <c r="E70" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F70" s="19"/>
       <c r="G70" s="22"/>
       <c r="H70" s="13"/>
       <c r="I70" s="10">
-        <v>145.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="9" t="s">
-        <v>8</v>
+      <c r="A71" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="B71" s="9"/>
-      <c r="C71" s="21" t="s">
-        <v>113</v>
+      <c r="C71" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="D71" s="19"/>
-      <c r="E71" s="21" t="s">
-        <v>113</v>
+      <c r="E71" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="F71" s="19"/>
       <c r="G71" s="22"/>
       <c r="H71" s="13"/>
       <c r="I71" s="10">
-        <v>180.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="21" t="s">
-        <v>114</v>
+      <c r="B72" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="D72" s="19"/>
-      <c r="E72" s="21" t="s">
-        <v>114</v>
+      <c r="E72" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="F72" s="19"/>
-      <c r="G72" s="13"/>
+      <c r="G72" s="22"/>
       <c r="H72" s="13"/>
       <c r="I72" s="10">
+        <v>145.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="9"/>
+      <c r="C73" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D73" s="19"/>
+      <c r="E73" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F73" s="19"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="10">
         <v>180.0</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="12" t="s">
+    <row r="74">
+      <c r="A74" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="13"/>
-      <c r="C73" s="12" t="s">
+      <c r="B74" s="9"/>
+      <c r="C74" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D73" s="17"/>
-      <c r="E73" s="12" t="s">
+      <c r="D74" s="19"/>
+      <c r="E74" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="F73" s="7"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="10">
-        <v>140.0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D74" s="17"/>
-      <c r="E74" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="F74" s="7"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="22"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
       <c r="I74" s="10">
         <v>180.0</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="9" t="s">
-        <v>9</v>
+      <c r="A75" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="B75" s="13"/>
-      <c r="C75" s="9" t="s">
-        <v>118</v>
+      <c r="C75" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="D75" s="17"/>
-      <c r="E75" s="9" t="s">
-        <v>118</v>
+      <c r="E75" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="14"/>
       <c r="H75" s="22"/>
       <c r="I75" s="10">
-        <v>195.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="9"/>
-      <c r="C76" s="12" t="s">
-        <v>119</v>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="D76" s="17"/>
-      <c r="E76" s="12" t="s">
-        <v>120</v>
+      <c r="E76" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="14"/>
@@ -2969,22 +2966,22 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="9"/>
-      <c r="C77" s="12" t="s">
-        <v>121</v>
+      <c r="B77" s="13"/>
+      <c r="C77" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="D77" s="17"/>
-      <c r="E77" s="12" t="s">
-        <v>122</v>
+      <c r="E77" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="14"/>
       <c r="H77" s="22"/>
       <c r="I77" s="10">
-        <v>180.0</v>
+        <v>195.0</v>
       </c>
     </row>
     <row r="78">
@@ -2992,12 +2989,12 @@
         <v>9</v>
       </c>
       <c r="B78" s="9"/>
-      <c r="C78" s="9" t="s">
-        <v>123</v>
+      <c r="C78" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="D78" s="17"/>
-      <c r="E78" s="9" t="s">
-        <v>123</v>
+      <c r="E78" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="14"/>
@@ -3007,43 +3004,41 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="14"/>
       <c r="H79" s="22"/>
       <c r="I79" s="10">
-        <v>170.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="B80" s="9"/>
       <c r="C80" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="14"/>
-      <c r="H80" s="13"/>
+      <c r="H80" s="22"/>
       <c r="I80" s="10">
-        <v>125.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="81">
@@ -3051,37 +3046,39 @@
         <v>9</v>
       </c>
       <c r="B81" s="9"/>
-      <c r="C81" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D81" s="19"/>
-      <c r="E81" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F81" s="19"/>
+      <c r="C81" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D81" s="17"/>
+      <c r="E81" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F81" s="7"/>
       <c r="G81" s="14"/>
       <c r="H81" s="22"/>
       <c r="I81" s="10">
-        <v>180.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B82" s="9"/>
+      <c r="B82" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="C82" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D82" s="19"/>
+        <v>127</v>
+      </c>
+      <c r="D82" s="17"/>
       <c r="E82" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F82" s="19"/>
+        <v>128</v>
+      </c>
+      <c r="F82" s="7"/>
       <c r="G82" s="14"/>
-      <c r="H82" s="22"/>
+      <c r="H82" s="13"/>
       <c r="I82" s="10">
-        <v>150.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="83">
@@ -3090,17 +3087,17 @@
       </c>
       <c r="B83" s="9"/>
       <c r="C83" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D83" s="19"/>
       <c r="E83" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F83" s="19"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="13"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="22"/>
       <c r="I83" s="10">
-        <v>160.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="84">
@@ -3108,50 +3105,50 @@
         <v>9</v>
       </c>
       <c r="B84" s="9"/>
-      <c r="C84" s="12" t="s">
-        <v>131</v>
+      <c r="C84" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="D84" s="19"/>
-      <c r="E84" s="12" t="s">
-        <v>132</v>
+      <c r="E84" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="F84" s="19"/>
       <c r="G84" s="14"/>
-      <c r="H84" s="13"/>
+      <c r="H84" s="22"/>
       <c r="I84" s="10">
         <v>150.0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B85" s="9"/>
-      <c r="C85" s="12" t="s">
-        <v>133</v>
+      <c r="C85" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="D85" s="19"/>
-      <c r="E85" s="12" t="s">
-        <v>133</v>
+      <c r="E85" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="F85" s="19"/>
-      <c r="G85" s="14"/>
+      <c r="G85" s="22"/>
       <c r="H85" s="13"/>
       <c r="I85" s="10">
-        <v>150.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B86" s="9"/>
       <c r="C86" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F86" s="19"/>
       <c r="G86" s="14"/>
@@ -3166,35 +3163,35 @@
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D87" s="19"/>
       <c r="E87" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F87" s="19"/>
       <c r="G87" s="14"/>
       <c r="H87" s="13"/>
-      <c r="I87" s="11">
+      <c r="I87" s="10">
         <v>150.0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="12" t="s">
+      <c r="A88" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D88" s="19"/>
       <c r="E88" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F88" s="19"/>
       <c r="G88" s="14"/>
       <c r="H88" s="13"/>
-      <c r="I88" s="11">
+      <c r="I88" s="10">
         <v>150.0</v>
       </c>
     </row>
@@ -3204,11 +3201,11 @@
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D89" s="19"/>
       <c r="E89" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F89" s="19"/>
       <c r="G89" s="14"/>
@@ -3223,11 +3220,11 @@
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D90" s="19"/>
       <c r="E90" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F90" s="19"/>
       <c r="G90" s="14"/>
@@ -3242,11 +3239,11 @@
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D91" s="19"/>
       <c r="E91" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F91" s="19"/>
       <c r="G91" s="14"/>
@@ -3261,17 +3258,17 @@
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D92" s="19"/>
       <c r="E92" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F92" s="19"/>
       <c r="G92" s="14"/>
       <c r="H92" s="13"/>
       <c r="I92" s="11">
-        <v>130.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="93">
@@ -3280,17 +3277,17 @@
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D93" s="19"/>
       <c r="E93" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F93" s="19"/>
       <c r="G93" s="14"/>
       <c r="H93" s="13"/>
       <c r="I93" s="11">
-        <v>130.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="94">
@@ -3299,11 +3296,11 @@
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D94" s="19"/>
       <c r="E94" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F94" s="19"/>
       <c r="G94" s="14"/>
@@ -3313,163 +3310,161 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B95" s="9"/>
-      <c r="C95" s="9" t="s">
-        <v>143</v>
+      <c r="C95" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="D95" s="19"/>
-      <c r="E95" s="9" t="s">
-        <v>143</v>
+      <c r="E95" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="F95" s="19"/>
       <c r="G95" s="14"/>
       <c r="H95" s="13"/>
       <c r="I95" s="11">
-        <v>150.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B96" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>144</v>
+      <c r="B96" s="9"/>
+      <c r="C96" s="12" t="s">
+        <v>143</v>
       </c>
       <c r="D96" s="19"/>
-      <c r="E96" s="9" t="s">
-        <v>144</v>
+      <c r="E96" s="12" t="s">
+        <v>143</v>
       </c>
       <c r="F96" s="19"/>
       <c r="G96" s="14"/>
       <c r="H96" s="13"/>
       <c r="I96" s="11">
-        <v>125.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B97" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="B97" s="9"/>
       <c r="C97" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D97" s="19"/>
       <c r="E97" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F97" s="19"/>
       <c r="G97" s="14"/>
       <c r="H97" s="13"/>
-      <c r="I97" s="10">
-        <v>110.0</v>
+      <c r="I97" s="11">
+        <v>150.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B98" s="9"/>
-      <c r="C98" s="21" t="s">
-        <v>147</v>
+      <c r="B98" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="D98" s="19"/>
       <c r="E98" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F98" s="19"/>
       <c r="G98" s="14"/>
       <c r="H98" s="13"/>
-      <c r="I98" s="10">
-        <v>150.0</v>
+      <c r="I98" s="11">
+        <v>125.0</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B99" s="13"/>
-      <c r="C99" s="10" t="s">
-        <v>148</v>
+      <c r="A99" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="D99" s="19"/>
-      <c r="E99" s="10" t="s">
-        <v>149</v>
+      <c r="E99" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="F99" s="19"/>
       <c r="G99" s="14"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="11">
-        <v>80.0</v>
+      <c r="H99" s="13"/>
+      <c r="I99" s="10">
+        <v>110.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>150</v>
+        <v>9</v>
+      </c>
+      <c r="B100" s="9"/>
+      <c r="C100" s="21" t="s">
+        <v>148</v>
       </c>
       <c r="D100" s="19"/>
       <c r="E100" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F100" s="19"/>
       <c r="G100" s="14"/>
       <c r="H100" s="13"/>
-      <c r="I100" s="11">
-        <v>85.0</v>
+      <c r="I100" s="10">
+        <v>150.0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>151</v>
+      <c r="B101" s="13"/>
+      <c r="C101" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="D101" s="19"/>
-      <c r="E101" s="9" t="s">
-        <v>151</v>
+      <c r="E101" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="F101" s="19"/>
-      <c r="G101" s="13"/>
+      <c r="G101" s="14"/>
       <c r="H101" s="10"/>
       <c r="I101" s="11">
-        <v>85.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="12" t="s">
+      <c r="A102" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B102" s="9"/>
-      <c r="C102" s="12" t="s">
-        <v>152</v>
+      <c r="B102" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="D102" s="19"/>
-      <c r="E102" s="12" t="s">
-        <v>152</v>
+      <c r="E102" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="F102" s="19"/>
       <c r="G102" s="14"/>
       <c r="H102" s="13"/>
       <c r="I102" s="11">
-        <v>75.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="103">
@@ -3480,52 +3475,54 @@
         <v>28</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D103" s="19"/>
       <c r="E103" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F103" s="19"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="10"/>
       <c r="I103" s="11">
-        <v>70.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B104" s="9"/>
-      <c r="C104" s="9" t="s">
-        <v>155</v>
+      <c r="C104" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="D104" s="19"/>
-      <c r="E104" s="9" t="s">
-        <v>156</v>
+      <c r="E104" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="F104" s="19"/>
       <c r="G104" s="14"/>
       <c r="H104" s="13"/>
       <c r="I104" s="11">
-        <v>70.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B105" s="9"/>
+      <c r="B105" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="C105" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D105" s="19"/>
       <c r="E105" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F105" s="19"/>
-      <c r="G105" s="13"/>
+      <c r="G105" s="14"/>
       <c r="H105" s="13"/>
       <c r="I105" s="11">
         <v>70.0</v>
@@ -3537,17 +3534,17 @@
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D106" s="19"/>
       <c r="E106" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F106" s="19"/>
-      <c r="G106" s="13"/>
+      <c r="G106" s="14"/>
       <c r="H106" s="13"/>
       <c r="I106" s="11">
-        <v>60.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="107">
@@ -3556,72 +3553,70 @@
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D107" s="19"/>
       <c r="E107" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="F107" s="7"/>
+        <v>159</v>
+      </c>
+      <c r="F107" s="19"/>
       <c r="G107" s="13"/>
       <c r="H107" s="13"/>
       <c r="I107" s="11">
-        <v>50.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B108" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C108" s="13" t="s">
-        <v>162</v>
+      <c r="A108" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="D108" s="19"/>
-      <c r="E108" s="13" t="s">
-        <v>163</v>
+      <c r="E108" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="F108" s="19"/>
       <c r="G108" s="13"/>
       <c r="H108" s="13"/>
-      <c r="I108" s="10">
-        <v>185.0</v>
+      <c r="I108" s="11">
+        <v>60.0</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B109" s="7"/>
+      <c r="A109" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" s="9"/>
       <c r="C109" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D109" s="17"/>
+        <v>161</v>
+      </c>
+      <c r="D109" s="19"/>
       <c r="E109" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="F109" s="19"/>
+        <v>162</v>
+      </c>
+      <c r="F109" s="7"/>
       <c r="G109" s="13"/>
       <c r="H109" s="13"/>
-      <c r="I109" s="10">
-        <v>185.0</v>
+      <c r="I109" s="11">
+        <v>50.0</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C110" s="9" t="s">
-        <v>165</v>
+      <c r="C110" s="13" t="s">
+        <v>163</v>
       </c>
       <c r="D110" s="19"/>
-      <c r="E110" s="9" t="s">
-        <v>165</v>
+      <c r="E110" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="F110" s="19"/>
       <c r="G110" s="13"/>
@@ -3636,11 +3631,11 @@
       </c>
       <c r="B111" s="7"/>
       <c r="C111" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="D111" s="19"/>
+        <v>165</v>
+      </c>
+      <c r="D111" s="17"/>
       <c r="E111" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F111" s="19"/>
       <c r="G111" s="13"/>
@@ -3653,13 +3648,15 @@
       <c r="A112" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B112" s="7"/>
+      <c r="B112" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C112" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D112" s="19"/>
       <c r="E112" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F112" s="19"/>
       <c r="G112" s="13"/>
@@ -3669,41 +3666,41 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="24" t="s">
+      <c r="A113" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B113" s="7"/>
-      <c r="C113" s="12" t="s">
-        <v>170</v>
+      <c r="C113" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="D113" s="19"/>
-      <c r="E113" s="12" t="s">
-        <v>171</v>
+      <c r="E113" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="F113" s="19"/>
       <c r="G113" s="13"/>
       <c r="H113" s="13"/>
       <c r="I113" s="10">
-        <v>220.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="24" t="s">
+      <c r="A114" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B114" s="7"/>
-      <c r="C114" s="12" t="s">
-        <v>172</v>
+      <c r="C114" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="D114" s="19"/>
-      <c r="E114" s="12" t="s">
-        <v>173</v>
+      <c r="E114" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="F114" s="19"/>
       <c r="G114" s="13"/>
       <c r="H114" s="13"/>
       <c r="I114" s="10">
-        <v>240.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="115">
@@ -3712,17 +3709,17 @@
       </c>
       <c r="B115" s="7"/>
       <c r="C115" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D115" s="19"/>
       <c r="E115" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F115" s="19"/>
       <c r="G115" s="13"/>
       <c r="H115" s="13"/>
       <c r="I115" s="10">
-        <v>185.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="116">
@@ -3731,17 +3728,17 @@
       </c>
       <c r="B116" s="7"/>
       <c r="C116" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D116" s="19"/>
       <c r="E116" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F116" s="19"/>
       <c r="G116" s="13"/>
       <c r="H116" s="13"/>
       <c r="I116" s="10">
-        <v>185.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="117">
@@ -3750,114 +3747,114 @@
       </c>
       <c r="B117" s="7"/>
       <c r="C117" s="12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D117" s="19"/>
       <c r="E117" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F117" s="19"/>
       <c r="G117" s="13"/>
       <c r="H117" s="13"/>
       <c r="I117" s="10">
+        <v>185.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c r="C118" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D118" s="19"/>
+      <c r="E118" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F118" s="19"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="10">
+        <v>185.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c r="C119" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D119" s="19"/>
+      <c r="E119" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F119" s="19"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="10">
         <v>110.0</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="23" t="s">
+    <row r="120">
+      <c r="A120" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B118" s="23" t="s">
+      <c r="B120" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C118" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="D118" s="19"/>
-      <c r="E118" s="9" t="s">
+      <c r="C120" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="F118" s="19"/>
-      <c r="G118" s="22"/>
-      <c r="H118" s="14"/>
-      <c r="I118" s="11">
-        <v>215.0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B119" s="23"/>
-      <c r="C119" s="13" t="s">
+      <c r="D120" s="19"/>
+      <c r="E120" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="D119" s="19"/>
-      <c r="E119" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="F119" s="19"/>
-      <c r="G119" s="22"/>
-      <c r="H119" s="14"/>
-      <c r="I119" s="11">
-        <v>230.0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B120" s="23"/>
-      <c r="C120" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D120" s="19"/>
-      <c r="E120" s="13" t="s">
-        <v>185</v>
       </c>
       <c r="F120" s="19"/>
       <c r="G120" s="22"/>
       <c r="H120" s="14"/>
       <c r="I120" s="11">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B121" s="7"/>
-      <c r="C121" s="9" t="s">
-        <v>186</v>
+      <c r="B121" s="23"/>
+      <c r="C121" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="D121" s="19"/>
-      <c r="E121" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="F121" s="7"/>
+      <c r="E121" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F121" s="19"/>
       <c r="G121" s="22"/>
       <c r="H121" s="14"/>
       <c r="I121" s="11">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B122" s="7"/>
-      <c r="C122" s="9" t="s">
-        <v>188</v>
+      <c r="B122" s="23"/>
+      <c r="C122" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="D122" s="19"/>
-      <c r="E122" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="F122" s="7"/>
+      <c r="E122" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F122" s="19"/>
       <c r="G122" s="22"/>
       <c r="H122" s="14"/>
       <c r="I122" s="11">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="123">
@@ -3866,91 +3863,91 @@
       </c>
       <c r="B123" s="7"/>
       <c r="C123" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D123" s="19"/>
-      <c r="E123" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="F123" s="19"/>
+      <c r="E123" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F123" s="7"/>
       <c r="G123" s="22"/>
       <c r="H123" s="14"/>
       <c r="I123" s="11">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B124" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B124" s="7"/>
       <c r="C124" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D124" s="19"/>
       <c r="E124" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="F124" s="19"/>
+        <v>190</v>
+      </c>
+      <c r="F124" s="7"/>
       <c r="G124" s="22"/>
       <c r="H124" s="14"/>
       <c r="I124" s="11">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B125" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B125" s="7"/>
       <c r="C125" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D125" s="19"/>
-      <c r="E125" s="9" t="s">
-        <v>195</v>
+      <c r="E125" s="12" t="s">
+        <v>192</v>
       </c>
       <c r="F125" s="19"/>
       <c r="G125" s="22"/>
       <c r="H125" s="14"/>
       <c r="I125" s="11">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B126" s="7"/>
+      <c r="B126" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C126" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D126" s="19"/>
       <c r="E126" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F126" s="19"/>
       <c r="G126" s="22"/>
       <c r="H126" s="14"/>
       <c r="I126" s="11">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B127" s="7"/>
+      <c r="B127" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C127" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D127" s="19"/>
-      <c r="E127" s="12" t="s">
-        <v>199</v>
+      <c r="E127" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="F127" s="19"/>
       <c r="G127" s="22"/>
@@ -3965,17 +3962,17 @@
       </c>
       <c r="B128" s="7"/>
       <c r="C128" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D128" s="7"/>
+        <v>197</v>
+      </c>
+      <c r="D128" s="19"/>
       <c r="E128" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="F128" s="7"/>
+        <v>198</v>
+      </c>
+      <c r="F128" s="19"/>
       <c r="G128" s="22"/>
       <c r="H128" s="14"/>
       <c r="I128" s="11">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="129">
@@ -3984,13 +3981,13 @@
       </c>
       <c r="B129" s="7"/>
       <c r="C129" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D129" s="7"/>
-      <c r="E129" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="F129" s="7"/>
+        <v>199</v>
+      </c>
+      <c r="D129" s="19"/>
+      <c r="E129" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F129" s="19"/>
       <c r="G129" s="22"/>
       <c r="H129" s="14"/>
       <c r="I129" s="11">
@@ -4003,17 +4000,17 @@
       </c>
       <c r="B130" s="7"/>
       <c r="C130" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D130" s="7"/>
-      <c r="E130" s="9" t="s">
-        <v>205</v>
+      <c r="E130" s="12" t="s">
+        <v>202</v>
       </c>
       <c r="F130" s="7"/>
       <c r="G130" s="22"/>
       <c r="H130" s="14"/>
       <c r="I130" s="11">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="131">
@@ -4022,11 +4019,11 @@
       </c>
       <c r="B131" s="7"/>
       <c r="C131" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D131" s="7"/>
       <c r="E131" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F131" s="7"/>
       <c r="G131" s="22"/>
@@ -4041,17 +4038,17 @@
       </c>
       <c r="B132" s="7"/>
       <c r="C132" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D132" s="7"/>
-      <c r="E132" s="12" t="s">
-        <v>209</v>
+      <c r="E132" s="9" t="s">
+        <v>206</v>
       </c>
       <c r="F132" s="7"/>
       <c r="G132" s="22"/>
       <c r="H132" s="14"/>
       <c r="I132" s="11">
-        <v>210.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="133">
@@ -4060,38 +4057,36 @@
       </c>
       <c r="B133" s="7"/>
       <c r="C133" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D133" s="7"/>
-      <c r="E133" s="12" t="s">
-        <v>211</v>
+      <c r="E133" s="9" t="s">
+        <v>208</v>
       </c>
       <c r="F133" s="7"/>
       <c r="G133" s="22"/>
       <c r="H133" s="14"/>
       <c r="I133" s="11">
-        <v>80.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B134" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B134" s="7"/>
       <c r="C134" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="D134" s="19"/>
-      <c r="E134" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="F134" s="19"/>
+        <v>209</v>
+      </c>
+      <c r="D134" s="7"/>
+      <c r="E134" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="F134" s="7"/>
       <c r="G134" s="22"/>
       <c r="H134" s="14"/>
       <c r="I134" s="11">
-        <v>220.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="135">
@@ -4100,57 +4095,57 @@
       </c>
       <c r="B135" s="7"/>
       <c r="C135" s="9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D135" s="7"/>
-      <c r="E135" s="9" t="s">
-        <v>215</v>
+      <c r="E135" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="F135" s="7"/>
       <c r="G135" s="22"/>
       <c r="H135" s="14"/>
       <c r="I135" s="11">
-        <v>160.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B136" s="7"/>
+      <c r="B136" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C136" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="D136" s="7"/>
+        <v>213</v>
+      </c>
+      <c r="D136" s="19"/>
       <c r="E136" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="F136" s="7"/>
+        <v>214</v>
+      </c>
+      <c r="F136" s="19"/>
       <c r="G136" s="22"/>
       <c r="H136" s="14"/>
       <c r="I136" s="11">
-        <v>70.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B137" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B137" s="7"/>
       <c r="C137" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="D137" s="19"/>
-      <c r="E137" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="F137" s="19"/>
+        <v>215</v>
+      </c>
+      <c r="D137" s="7"/>
+      <c r="E137" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="F137" s="7"/>
       <c r="G137" s="22"/>
       <c r="H137" s="14"/>
       <c r="I137" s="11">
-        <v>220.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="138">
@@ -4159,17 +4154,17 @@
       </c>
       <c r="B138" s="7"/>
       <c r="C138" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="D138" s="19"/>
+        <v>217</v>
+      </c>
+      <c r="D138" s="7"/>
       <c r="E138" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="F138" s="19"/>
+        <v>218</v>
+      </c>
+      <c r="F138" s="7"/>
       <c r="G138" s="22"/>
       <c r="H138" s="14"/>
       <c r="I138" s="11">
-        <v>220.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="139">
@@ -4180,13 +4175,13 @@
         <v>28</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D139" s="7"/>
-      <c r="E139" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="F139" s="7"/>
+        <v>219</v>
+      </c>
+      <c r="D139" s="19"/>
+      <c r="E139" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="F139" s="19"/>
       <c r="G139" s="22"/>
       <c r="H139" s="14"/>
       <c r="I139" s="11">
@@ -4199,53 +4194,53 @@
       </c>
       <c r="B140" s="7"/>
       <c r="C140" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="D140" s="7"/>
+        <v>221</v>
+      </c>
+      <c r="D140" s="19"/>
       <c r="E140" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="F140" s="7"/>
+        <v>222</v>
+      </c>
+      <c r="F140" s="19"/>
       <c r="G140" s="22"/>
       <c r="H140" s="14"/>
       <c r="I140" s="11">
-        <v>185.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B141" s="7"/>
+      <c r="B141" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C141" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D141" s="19"/>
+        <v>223</v>
+      </c>
+      <c r="D141" s="7"/>
       <c r="E141" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="F141" s="19"/>
+        <v>224</v>
+      </c>
+      <c r="F141" s="7"/>
       <c r="G141" s="22"/>
       <c r="H141" s="14"/>
       <c r="I141" s="11">
-        <v>185.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B142" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B142" s="7"/>
       <c r="C142" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D142" s="19"/>
+        <v>225</v>
+      </c>
+      <c r="D142" s="7"/>
       <c r="E142" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="F142" s="19"/>
+        <v>225</v>
+      </c>
+      <c r="F142" s="7"/>
       <c r="G142" s="22"/>
       <c r="H142" s="14"/>
       <c r="I142" s="11">
@@ -4258,13 +4253,13 @@
       </c>
       <c r="B143" s="7"/>
       <c r="C143" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D143" s="7"/>
+        <v>226</v>
+      </c>
+      <c r="D143" s="19"/>
       <c r="E143" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="F143" s="7"/>
+        <v>226</v>
+      </c>
+      <c r="F143" s="19"/>
       <c r="G143" s="22"/>
       <c r="H143" s="14"/>
       <c r="I143" s="11">
@@ -4275,19 +4270,21 @@
       <c r="A144" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B144" s="7"/>
+      <c r="B144" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C144" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="D144" s="7"/>
+        <v>227</v>
+      </c>
+      <c r="D144" s="19"/>
       <c r="E144" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="F144" s="7"/>
+        <v>228</v>
+      </c>
+      <c r="F144" s="19"/>
       <c r="G144" s="22"/>
       <c r="H144" s="14"/>
       <c r="I144" s="11">
-        <v>200.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="145">
@@ -4296,11 +4293,11 @@
       </c>
       <c r="B145" s="7"/>
       <c r="C145" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D145" s="7"/>
       <c r="E145" s="9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F145" s="7"/>
       <c r="G145" s="22"/>
@@ -4315,160 +4312,156 @@
       </c>
       <c r="B146" s="7"/>
       <c r="C146" s="9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D146" s="7"/>
       <c r="E146" s="9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F146" s="7"/>
       <c r="G146" s="22"/>
       <c r="H146" s="14"/>
       <c r="I146" s="11">
-        <v>80.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B147" s="23"/>
-      <c r="C147" s="13" t="s">
-        <v>236</v>
+      <c r="A147" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" s="7"/>
+      <c r="C147" s="9" t="s">
+        <v>233</v>
       </c>
       <c r="D147" s="7"/>
-      <c r="E147" s="13" t="s">
-        <v>237</v>
+      <c r="E147" s="9" t="s">
+        <v>234</v>
       </c>
       <c r="F147" s="7"/>
       <c r="G147" s="22"/>
       <c r="H147" s="14"/>
       <c r="I147" s="11">
-        <v>120.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B148" s="7"/>
       <c r="C148" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="D148" s="19"/>
+        <v>235</v>
+      </c>
+      <c r="D148" s="7"/>
       <c r="E148" s="9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F148" s="7"/>
       <c r="G148" s="22"/>
       <c r="H148" s="14"/>
       <c r="I148" s="11">
-        <v>130.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="7" t="s">
+      <c r="A149" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B149" s="7"/>
-      <c r="C149" s="12" t="s">
-        <v>240</v>
+      <c r="B149" s="23"/>
+      <c r="C149" s="13" t="s">
+        <v>237</v>
       </c>
       <c r="D149" s="7"/>
-      <c r="E149" s="12" t="s">
-        <v>241</v>
+      <c r="E149" s="13" t="s">
+        <v>238</v>
       </c>
       <c r="F149" s="7"/>
       <c r="G149" s="22"/>
       <c r="H149" s="14"/>
       <c r="I149" s="11">
-        <v>30.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B150" s="23" t="s">
+      <c r="A150" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B150" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C150" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="D150" s="7"/>
-      <c r="E150" s="13" t="s">
-        <v>243</v>
+      <c r="C150" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D150" s="19"/>
+      <c r="E150" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="F150" s="7"/>
       <c r="G150" s="22"/>
       <c r="H150" s="14"/>
       <c r="I150" s="11">
-        <v>150.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B151" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C151" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="D151" s="19"/>
-      <c r="E151" s="10" t="s">
-        <v>245</v>
+      <c r="A151" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B151" s="7"/>
+      <c r="C151" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D151" s="7"/>
+      <c r="E151" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="F151" s="7"/>
       <c r="G151" s="22"/>
       <c r="H151" s="14"/>
       <c r="I151" s="11">
-        <v>260.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B152" s="7" t="s">
+      <c r="A152" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B152" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C152" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D152" s="19"/>
-      <c r="E152" s="12" t="s">
-        <v>247</v>
+      <c r="C152" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D152" s="7"/>
+      <c r="E152" s="13" t="s">
+        <v>244</v>
       </c>
       <c r="F152" s="7"/>
       <c r="G152" s="22"/>
       <c r="H152" s="14"/>
       <c r="I152" s="11">
-        <v>210.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="7" t="s">
+      <c r="A153" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="B153" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C153" s="9" t="s">
-        <v>248</v>
+      <c r="C153" s="13" t="s">
+        <v>245</v>
       </c>
       <c r="D153" s="19"/>
-      <c r="E153" s="12" t="s">
-        <v>249</v>
+      <c r="E153" s="10" t="s">
+        <v>246</v>
       </c>
       <c r="F153" s="7"/>
       <c r="G153" s="22"/>
       <c r="H153" s="14"/>
       <c r="I153" s="11">
-        <v>210.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="154">
@@ -4479,11 +4472,11 @@
         <v>28</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D154" s="19"/>
-      <c r="E154" s="9" t="s">
-        <v>251</v>
+      <c r="E154" s="12" t="s">
+        <v>248</v>
       </c>
       <c r="F154" s="7"/>
       <c r="G154" s="22"/>
@@ -4493,267 +4486,271 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="25" t="s">
+      <c r="A155" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B155" s="26"/>
-      <c r="C155" s="27" t="s">
+      <c r="B155" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D155" s="19"/>
+      <c r="E155" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F155" s="7"/>
+      <c r="G155" s="22"/>
+      <c r="H155" s="14"/>
+      <c r="I155" s="11">
+        <v>210.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D156" s="19"/>
+      <c r="E156" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="D155" s="28"/>
-      <c r="E155" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="F155" s="28"/>
-      <c r="G155" s="22"/>
-      <c r="H155" s="22"/>
-      <c r="I155" s="11">
-        <v>50.0</v>
-      </c>
-      <c r="J155" s="30"/>
-      <c r="K155" s="30"/>
-      <c r="L155" s="30"/>
-      <c r="M155" s="30"/>
-      <c r="N155" s="30"/>
-      <c r="O155" s="30"/>
-      <c r="P155" s="30"/>
-      <c r="Q155" s="30"/>
-      <c r="R155" s="30"/>
-      <c r="S155" s="30"/>
-      <c r="T155" s="30"/>
-      <c r="U155" s="30"/>
-      <c r="V155" s="30"/>
-      <c r="W155" s="30"/>
-      <c r="X155" s="30"/>
-      <c r="Y155" s="30"/>
-      <c r="Z155" s="30"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B156" s="26"/>
-      <c r="C156" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="D156" s="28"/>
-      <c r="E156" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="F156" s="28"/>
+      <c r="F156" s="7"/>
       <c r="G156" s="22"/>
-      <c r="H156" s="22"/>
+      <c r="H156" s="14"/>
       <c r="I156" s="11">
-        <v>165.0</v>
-      </c>
-      <c r="J156" s="30"/>
-      <c r="K156" s="30"/>
-      <c r="L156" s="30"/>
-      <c r="M156" s="30"/>
-      <c r="N156" s="30"/>
-      <c r="O156" s="30"/>
-      <c r="P156" s="30"/>
-      <c r="Q156" s="30"/>
-      <c r="R156" s="30"/>
-      <c r="S156" s="30"/>
-      <c r="T156" s="30"/>
-      <c r="U156" s="30"/>
-      <c r="V156" s="30"/>
-      <c r="W156" s="30"/>
-      <c r="X156" s="30"/>
-      <c r="Y156" s="30"/>
-      <c r="Z156" s="30"/>
+        <v>210.0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B157" s="26"/>
+      <c r="C157" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="D157" s="28"/>
+      <c r="E157" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="F157" s="28"/>
+      <c r="G157" s="22"/>
+      <c r="H157" s="22"/>
+      <c r="I157" s="11">
+        <v>50.0</v>
+      </c>
+      <c r="J157" s="30"/>
+      <c r="K157" s="30"/>
+      <c r="L157" s="30"/>
+      <c r="M157" s="30"/>
+      <c r="N157" s="30"/>
+      <c r="O157" s="30"/>
+      <c r="P157" s="30"/>
+      <c r="Q157" s="30"/>
+      <c r="R157" s="30"/>
+      <c r="S157" s="30"/>
+      <c r="T157" s="30"/>
+      <c r="U157" s="30"/>
+      <c r="V157" s="30"/>
+      <c r="W157" s="30"/>
+      <c r="X157" s="30"/>
+      <c r="Y157" s="30"/>
+      <c r="Z157" s="30"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B157" s="32"/>
-      <c r="C157" s="27" t="s">
+      <c r="B158" s="26"/>
+      <c r="C158" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="D158" s="28"/>
+      <c r="E158" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="D157" s="33"/>
-      <c r="E157" s="27" t="s">
+      <c r="F158" s="28"/>
+      <c r="G158" s="22"/>
+      <c r="H158" s="22"/>
+      <c r="I158" s="11">
+        <v>165.0</v>
+      </c>
+      <c r="J158" s="30"/>
+      <c r="K158" s="30"/>
+      <c r="L158" s="30"/>
+      <c r="M158" s="30"/>
+      <c r="N158" s="30"/>
+      <c r="O158" s="30"/>
+      <c r="P158" s="30"/>
+      <c r="Q158" s="30"/>
+      <c r="R158" s="30"/>
+      <c r="S158" s="30"/>
+      <c r="T158" s="30"/>
+      <c r="U158" s="30"/>
+      <c r="V158" s="30"/>
+      <c r="W158" s="30"/>
+      <c r="X158" s="30"/>
+      <c r="Y158" s="30"/>
+      <c r="Z158" s="30"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B159" s="32"/>
+      <c r="C159" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="F157" s="33"/>
-      <c r="G157" s="23"/>
-      <c r="H157" s="23"/>
-      <c r="I157" s="11">
+      <c r="D159" s="33"/>
+      <c r="E159" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="F159" s="33"/>
+      <c r="G159" s="23"/>
+      <c r="H159" s="23"/>
+      <c r="I159" s="11">
         <v>165.0</v>
       </c>
-      <c r="J157" s="34"/>
-      <c r="K157" s="34"/>
-      <c r="L157" s="34"/>
-      <c r="M157" s="34"/>
-      <c r="N157" s="34"/>
-      <c r="O157" s="34"/>
-      <c r="P157" s="34"/>
-      <c r="Q157" s="34"/>
-      <c r="R157" s="34"/>
-      <c r="S157" s="34"/>
-      <c r="T157" s="34"/>
-      <c r="U157" s="34"/>
-      <c r="V157" s="34"/>
-      <c r="W157" s="34"/>
-      <c r="X157" s="34"/>
-      <c r="Y157" s="34"/>
-      <c r="Z157" s="34"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="13" t="s">
+      <c r="J159" s="34"/>
+      <c r="K159" s="34"/>
+      <c r="L159" s="34"/>
+      <c r="M159" s="34"/>
+      <c r="N159" s="34"/>
+      <c r="O159" s="34"/>
+      <c r="P159" s="34"/>
+      <c r="Q159" s="34"/>
+      <c r="R159" s="34"/>
+      <c r="S159" s="34"/>
+      <c r="T159" s="34"/>
+      <c r="U159" s="34"/>
+      <c r="V159" s="34"/>
+      <c r="W159" s="34"/>
+      <c r="X159" s="34"/>
+      <c r="Y159" s="34"/>
+      <c r="Z159" s="34"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B158" s="13" t="s">
+      <c r="B160" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C158" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="D158" s="19"/>
-      <c r="E158" s="13" t="s">
+      <c r="C160" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="F158" s="19"/>
-      <c r="G158" s="22"/>
-      <c r="H158" s="14"/>
-      <c r="I158" s="11">
-        <v>220.0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C159" s="9" t="s">
+      <c r="D160" s="19"/>
+      <c r="E160" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="D159" s="7"/>
-      <c r="E159" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="F159" s="7"/>
-      <c r="G159" s="22"/>
-      <c r="H159" s="14"/>
-      <c r="I159" s="11">
-        <v>250.0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B160" s="9"/>
-      <c r="C160" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="D160" s="7"/>
-      <c r="E160" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="F160" s="7"/>
+      <c r="F160" s="19"/>
       <c r="G160" s="22"/>
       <c r="H160" s="14"/>
       <c r="I160" s="11">
-        <v>155.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B161" s="23"/>
-      <c r="C161" s="13" t="s">
-        <v>263</v>
+      <c r="A161" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>261</v>
       </c>
       <c r="D161" s="7"/>
-      <c r="E161" s="13" t="s">
-        <v>264</v>
+      <c r="E161" s="9" t="s">
+        <v>261</v>
       </c>
       <c r="F161" s="7"/>
       <c r="G161" s="22"/>
       <c r="H161" s="14"/>
-      <c r="I161" s="14">
-        <v>20.0</v>
+      <c r="I161" s="11">
+        <v>250.0</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B162" s="23"/>
-      <c r="C162" s="9" t="s">
-        <v>265</v>
+      <c r="A162" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B162" s="9"/>
+      <c r="C162" s="12" t="s">
+        <v>262</v>
       </c>
       <c r="D162" s="7"/>
-      <c r="E162" s="9" t="s">
-        <v>266</v>
+      <c r="E162" s="12" t="s">
+        <v>263</v>
       </c>
       <c r="F162" s="7"/>
       <c r="G162" s="22"/>
-      <c r="H162" s="11"/>
+      <c r="H162" s="14"/>
       <c r="I162" s="11">
-        <v>40.0</v>
+        <v>155.0</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="24" t="s">
+      <c r="A163" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B163" s="7"/>
-      <c r="C163" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D163" s="19"/>
-      <c r="E163" s="35" t="s">
-        <v>268</v>
-      </c>
-      <c r="F163" s="19"/>
+      <c r="B163" s="23"/>
+      <c r="C163" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D163" s="7"/>
+      <c r="E163" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="F163" s="7"/>
       <c r="G163" s="22"/>
-      <c r="H163" s="11"/>
-      <c r="I163" s="11">
-        <v>30.0</v>
+      <c r="H163" s="14"/>
+      <c r="I163" s="14">
+        <v>20.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B164" s="7"/>
+      <c r="B164" s="23"/>
       <c r="C164" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="D164" s="19"/>
+        <v>266</v>
+      </c>
+      <c r="D164" s="7"/>
       <c r="E164" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="F164" s="19"/>
+        <v>267</v>
+      </c>
+      <c r="F164" s="7"/>
       <c r="G164" s="22"/>
       <c r="H164" s="11"/>
       <c r="I164" s="11">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="7" t="s">
+      <c r="A165" s="24" t="s">
         <v>20</v>
       </c>
       <c r="B165" s="7"/>
-      <c r="C165" s="9" t="s">
-        <v>271</v>
+      <c r="C165" s="12" t="s">
+        <v>268</v>
       </c>
       <c r="D165" s="19"/>
-      <c r="E165" s="9" t="s">
-        <v>272</v>
+      <c r="E165" s="35" t="s">
+        <v>269</v>
       </c>
       <c r="F165" s="19"/>
       <c r="G165" s="22"/>
-      <c r="H165" s="14"/>
+      <c r="H165" s="11"/>
       <c r="I165" s="11">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="166">
@@ -4762,15 +4759,15 @@
       </c>
       <c r="B166" s="7"/>
       <c r="C166" s="9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D166" s="19"/>
       <c r="E166" s="9" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F166" s="19"/>
       <c r="G166" s="22"/>
-      <c r="H166" s="14"/>
+      <c r="H166" s="11"/>
       <c r="I166" s="11">
         <v>20.0</v>
       </c>
@@ -4781,17 +4778,17 @@
       </c>
       <c r="B167" s="7"/>
       <c r="C167" s="9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D167" s="19"/>
       <c r="E167" s="9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F167" s="19"/>
       <c r="G167" s="22"/>
       <c r="H167" s="14"/>
-      <c r="I167" s="14">
-        <v>20.0</v>
+      <c r="I167" s="11">
+        <v>50.0</v>
       </c>
     </row>
     <row r="168">
@@ -4800,17 +4797,17 @@
       </c>
       <c r="B168" s="7"/>
       <c r="C168" s="9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D168" s="19"/>
       <c r="E168" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F168" s="19"/>
       <c r="G168" s="22"/>
       <c r="H168" s="14"/>
       <c r="I168" s="11">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="169">
@@ -4818,18 +4815,18 @@
         <v>20</v>
       </c>
       <c r="B169" s="7"/>
-      <c r="C169" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="D169" s="7"/>
-      <c r="E169" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F169" s="7"/>
+      <c r="C169" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D169" s="19"/>
+      <c r="E169" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F169" s="19"/>
       <c r="G169" s="22"/>
       <c r="H169" s="14"/>
-      <c r="I169" s="11">
-        <v>40.0</v>
+      <c r="I169" s="14">
+        <v>20.0</v>
       </c>
     </row>
     <row r="170">
@@ -4837,37 +4834,37 @@
         <v>20</v>
       </c>
       <c r="B170" s="7"/>
-      <c r="C170" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="D170" s="7"/>
-      <c r="E170" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="F170" s="7"/>
+      <c r="C170" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D170" s="19"/>
+      <c r="E170" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="F170" s="19"/>
       <c r="G170" s="22"/>
       <c r="H170" s="14"/>
       <c r="I170" s="11">
-        <v>60.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="24" t="s">
+      <c r="A171" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B171" s="7"/>
       <c r="C171" s="12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D171" s="7"/>
       <c r="E171" s="12" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F171" s="7"/>
       <c r="G171" s="22"/>
       <c r="H171" s="14"/>
       <c r="I171" s="11">
-        <v>150.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="172">
@@ -4875,69 +4872,95 @@
         <v>20</v>
       </c>
       <c r="B172" s="7"/>
-      <c r="C172" s="9" t="s">
-        <v>285</v>
+      <c r="C172" s="12" t="s">
+        <v>282</v>
       </c>
       <c r="D172" s="7"/>
-      <c r="E172" s="9" t="s">
-        <v>286</v>
+      <c r="E172" s="12" t="s">
+        <v>283</v>
       </c>
       <c r="F172" s="7"/>
       <c r="G172" s="22"/>
       <c r="H172" s="14"/>
-      <c r="I172" s="14">
-        <v>15.0</v>
+      <c r="I172" s="11">
+        <v>60.0</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="7" t="s">
+      <c r="A173" s="24" t="s">
         <v>20</v>
       </c>
       <c r="B173" s="7"/>
       <c r="C173" s="12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D173" s="7"/>
       <c r="E173" s="12" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F173" s="7"/>
       <c r="G173" s="22"/>
       <c r="H173" s="14"/>
       <c r="I173" s="11">
-        <v>15.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B174" s="19"/>
+      <c r="B174" s="7"/>
       <c r="C174" s="9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D174" s="7"/>
       <c r="E174" s="9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F174" s="7"/>
-      <c r="G174" s="7"/>
+      <c r="G174" s="22"/>
       <c r="H174" s="14"/>
       <c r="I174" s="14">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B175" s="7"/>
+      <c r="C175" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D175" s="7"/>
+      <c r="E175" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="F175" s="7"/>
+      <c r="G175" s="22"/>
+      <c r="H175" s="14"/>
+      <c r="I175" s="11">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B176" s="19"/>
+      <c r="C176" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D176" s="7"/>
+      <c r="E176" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="14"/>
+      <c r="I176" s="14">
         <v>60.0</v>
       </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="36"/>
-      <c r="B175" s="36"/>
-      <c r="C175" s="36"/>
-      <c r="E175" s="36"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="36"/>
-      <c r="B176" s="36"/>
-      <c r="C176" s="36"/>
-      <c r="E176" s="36"/>
     </row>
     <row r="177">
       <c r="A177" s="36"/>
@@ -4966,10 +4989,22 @@
     <row r="181">
       <c r="A181" s="36"/>
       <c r="B181" s="36"/>
+      <c r="C181" s="36"/>
+      <c r="E181" s="36"/>
     </row>
     <row r="182">
       <c r="A182" s="36"/>
       <c r="B182" s="36"/>
+      <c r="C182" s="36"/>
+      <c r="E182" s="36"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="36"/>
+      <c r="B183" s="36"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="36"/>
+      <c r="B184" s="36"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="JM/qfoY1LsMWpxFmz954Tm3KDck8eiFEEGa/4i10aHE="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="uO1Omat3fECjqtbmiXjYmoope32/n5+J6pMIfrw2hdA="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="292">
   <si>
     <t>category</t>
   </si>
@@ -157,6 +157,18 @@
     <t>Lungo</t>
   </si>
   <si>
+    <t>Cortado</t>
+  </si>
+  <si>
+    <t>Cafe Bombom</t>
+  </si>
+  <si>
+    <t>Filter Coffee</t>
+  </si>
+  <si>
+    <t>Filtre Kahve (sade)</t>
+  </si>
+  <si>
     <t>Con Panne</t>
   </si>
   <si>
@@ -169,9 +181,6 @@
     <t>Dark Americano</t>
   </si>
   <si>
-    <t>Cortado</t>
-  </si>
-  <si>
     <t>Cappuccino</t>
   </si>
   <si>
@@ -191,15 +200,6 @@
   </si>
   <si>
     <t>White Mocha</t>
-  </si>
-  <si>
-    <t>Cafe Bombom</t>
-  </si>
-  <si>
-    <t>Filter Coffee</t>
-  </si>
-  <si>
-    <t>Filtre Kahve (sade)</t>
   </si>
   <si>
     <t>Black Eye</t>
@@ -1923,21 +1923,27 @@
         <v>3</v>
       </c>
       <c r="B23" s="9"/>
-      <c r="C23" s="12"/>
+      <c r="C23" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="D23" s="7"/>
-      <c r="E23" s="12"/>
+      <c r="E23" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="F23" s="7"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="10"/>
+      <c r="I23" s="10">
+        <v>150.0</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="12" t="s">
@@ -1947,7 +1953,7 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="10">
-        <v>120.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="25">
@@ -1955,17 +1961,17 @@
         <v>3</v>
       </c>
       <c r="B25" s="9"/>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F25" s="7"/>
-      <c r="G25" s="14"/>
+      <c r="G25" s="13"/>
       <c r="H25" s="13"/>
-      <c r="I25" s="11">
+      <c r="I25" s="10">
         <v>130.0</v>
       </c>
     </row>
@@ -1973,39 +1979,37 @@
       <c r="A26" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="B26" s="9"/>
       <c r="C26" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F26" s="7"/>
-      <c r="G26" s="14"/>
+      <c r="G26" s="13"/>
       <c r="H26" s="13"/>
-      <c r="I26" s="11">
-        <v>140.0</v>
+      <c r="I26" s="10">
+        <v>120.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="9" t="s">
-        <v>50</v>
+      <c r="E27" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="14"/>
       <c r="H27" s="13"/>
-      <c r="I27" s="10">
+      <c r="I27" s="11">
         <v>130.0</v>
       </c>
     </row>
@@ -2013,53 +2017,53 @@
       <c r="A28" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9" t="s">
-        <v>51</v>
+      <c r="B28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="9" t="s">
-        <v>51</v>
+      <c r="E28" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="14"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="10">
-        <v>135.0</v>
+      <c r="I28" s="11">
+        <v>140.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="14"/>
       <c r="H29" s="13"/>
       <c r="I29" s="10">
-        <v>150.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="B30" s="9"/>
       <c r="C30" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="14"/>
@@ -2069,41 +2073,43 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="16"/>
+        <v>55</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="14"/>
       <c r="H31" s="13"/>
       <c r="I31" s="10">
-        <v>140.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="12" t="s">
-        <v>55</v>
+      <c r="B32" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="14"/>
       <c r="H32" s="13"/>
       <c r="I32" s="10">
-        <v>160.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="33">
@@ -2112,30 +2118,30 @@
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="17"/>
+        <v>57</v>
+      </c>
+      <c r="D33" s="7"/>
       <c r="E33" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="14"/>
+        <v>57</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="16"/>
       <c r="H33" s="13"/>
       <c r="I33" s="10">
-        <v>160.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="14"/>
@@ -2148,21 +2154,19 @@
       <c r="A35" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>58</v>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="D35" s="17"/>
-      <c r="E35" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" s="17"/>
+      <c r="E35" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="7"/>
       <c r="G35" s="14"/>
       <c r="H35" s="13"/>
       <c r="I35" s="10">
-        <v>125.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="36">
@@ -2170,37 +2174,39 @@
         <v>3</v>
       </c>
       <c r="B36" s="9"/>
-      <c r="C36" s="9" t="s">
-        <v>59</v>
+      <c r="C36" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="D36" s="17"/>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="17"/>
+      <c r="F36" s="7"/>
       <c r="G36" s="14"/>
       <c r="H36" s="13"/>
       <c r="I36" s="10">
-        <v>125.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9" t="s">
-        <v>61</v>
+      <c r="B37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="D37" s="17"/>
-      <c r="E37" s="9" t="s">
-        <v>61</v>
+      <c r="E37" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="14"/>
       <c r="H37" s="13"/>
       <c r="I37" s="10">
-        <v>165.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="38">
@@ -2209,18 +2215,16 @@
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="9" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F38" s="17"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="10">
-        <v>115.0</v>
-      </c>
-      <c r="I38" s="11">
+      <c r="G38" s="14"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="10">
         <v>125.0</v>
       </c>
     </row>
@@ -2230,19 +2234,17 @@
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F39" s="17"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="10">
-        <v>125.0</v>
-      </c>
-      <c r="I39" s="11">
-        <v>130.0</v>
+      <c r="G39" s="14"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="10">
+        <v>165.0</v>
       </c>
     </row>
     <row r="40">
@@ -2251,80 +2253,84 @@
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="13"/>
       <c r="H40" s="10">
+        <v>115.0</v>
+      </c>
+      <c r="I40" s="11">
         <v>125.0</v>
       </c>
-      <c r="I40" s="11">
-        <v>130.0</v>
-      </c>
     </row>
     <row r="41">
-      <c r="A41" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="13" t="s">
-        <v>69</v>
+      <c r="A41" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="E41" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="F41" s="17"/>
       <c r="G41" s="13"/>
       <c r="H41" s="10">
-        <v>40.0</v>
-      </c>
-      <c r="I41" s="10">
-        <v>60.0</v>
+        <v>125.0</v>
+      </c>
+      <c r="I41" s="11">
+        <v>130.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="19"/>
+        <v>66</v>
+      </c>
+      <c r="D42" s="17"/>
       <c r="E42" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F42" s="17"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="10">
+        <v>125.0</v>
+      </c>
       <c r="I42" s="11">
-        <v>140.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9" t="s">
-        <v>72</v>
+      <c r="B43" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="D43" s="19"/>
-      <c r="E43" s="9" t="s">
-        <v>73</v>
+      <c r="E43" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="F43" s="17"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="11">
-        <v>140.0</v>
+      <c r="G43" s="13"/>
+      <c r="H43" s="10">
+        <v>40.0</v>
+      </c>
+      <c r="I43" s="10">
+        <v>60.0</v>
       </c>
     </row>
     <row r="44">
@@ -2333,13 +2339,13 @@
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F44" s="19"/>
+        <v>71</v>
+      </c>
+      <c r="F44" s="17"/>
       <c r="G44" s="14"/>
       <c r="H44" s="13"/>
       <c r="I44" s="11">
@@ -2352,17 +2358,17 @@
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="D45" s="19"/>
       <c r="E45" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F45" s="19"/>
+        <v>73</v>
+      </c>
+      <c r="F45" s="17"/>
       <c r="G45" s="14"/>
       <c r="H45" s="13"/>
       <c r="I45" s="11">
-        <v>130.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="46">
@@ -2371,17 +2377,17 @@
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="D46" s="19"/>
       <c r="E46" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F46" s="19"/>
-      <c r="G46" s="13"/>
+      <c r="G46" s="14"/>
       <c r="H46" s="13"/>
       <c r="I46" s="11">
-        <v>130.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="47">
@@ -2390,11 +2396,11 @@
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F47" s="19"/>
       <c r="G47" s="14"/>
@@ -2409,19 +2415,18 @@
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D48" s="7"/>
-      <c r="E48" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F48" s="17"/>
-      <c r="G48" s="14"/>
+      <c r="E48" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="19"/>
+      <c r="G48" s="13"/>
       <c r="H48" s="13"/>
       <c r="I48" s="11">
         <v>130.0</v>
       </c>
-      <c r="J48" s="20"/>
     </row>
     <row r="49">
       <c r="A49" s="9" t="s">
@@ -2429,35 +2434,32 @@
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" s="17"/>
+        <v>80</v>
+      </c>
+      <c r="D49" s="7"/>
       <c r="E49" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F49" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="F49" s="19"/>
       <c r="G49" s="14"/>
       <c r="H49" s="13"/>
       <c r="I49" s="11">
         <v>130.0</v>
       </c>
-      <c r="J49" s="20"/>
     </row>
     <row r="50">
       <c r="A50" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="B50" s="9"/>
       <c r="C50" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F50" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F50" s="17"/>
       <c r="G50" s="14"/>
       <c r="H50" s="13"/>
       <c r="I50" s="11">
@@ -2466,75 +2468,78 @@
       <c r="J50" s="20"/>
     </row>
     <row r="51">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="12" t="s">
-        <v>88</v>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="D51" s="17"/>
-      <c r="E51" s="12" t="s">
-        <v>88</v>
+      <c r="E51" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="14"/>
       <c r="H51" s="13"/>
       <c r="I51" s="11">
-        <v>150.0</v>
+        <v>130.0</v>
       </c>
       <c r="J51" s="20"/>
     </row>
     <row r="52">
-      <c r="A52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13" t="s">
-        <v>89</v>
+      <c r="A52" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="D52" s="17"/>
-      <c r="E52" s="13" t="s">
-        <v>89</v>
+      <c r="E52" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="14"/>
       <c r="H52" s="13"/>
       <c r="I52" s="11">
-        <v>135.0</v>
+        <v>130.0</v>
       </c>
       <c r="J52" s="20"/>
     </row>
     <row r="53">
-      <c r="A53" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9" t="s">
-        <v>90</v>
+      <c r="A53" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="D53" s="17"/>
-      <c r="E53" s="9" t="s">
-        <v>90</v>
+      <c r="E53" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="14"/>
       <c r="H53" s="13"/>
       <c r="I53" s="11">
-        <v>135.0</v>
-      </c>
+        <v>150.0</v>
+      </c>
+      <c r="J53" s="20"/>
     </row>
     <row r="54">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9" t="s">
-        <v>91</v>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="D54" s="17"/>
-      <c r="E54" s="9" t="s">
-        <v>91</v>
+      <c r="E54" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="14"/>
@@ -2542,6 +2547,7 @@
       <c r="I54" s="11">
         <v>135.0</v>
       </c>
+      <c r="J54" s="20"/>
     </row>
     <row r="55">
       <c r="A55" s="9" t="s">
@@ -2549,11 +2555,11 @@
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="14"/>
@@ -2568,11 +2574,11 @@
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="14"/>
@@ -2587,11 +2593,11 @@
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="14"/>
@@ -2606,13 +2612,13 @@
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" s="19"/>
+        <v>93</v>
+      </c>
+      <c r="D58" s="17"/>
       <c r="E58" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F58" s="19"/>
+        <v>93</v>
+      </c>
+      <c r="F58" s="7"/>
       <c r="G58" s="14"/>
       <c r="H58" s="13"/>
       <c r="I58" s="11">
@@ -2625,13 +2631,13 @@
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D59" s="19"/>
+        <v>94</v>
+      </c>
+      <c r="D59" s="17"/>
       <c r="E59" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F59" s="19"/>
+        <v>94</v>
+      </c>
+      <c r="F59" s="7"/>
       <c r="G59" s="14"/>
       <c r="H59" s="13"/>
       <c r="I59" s="11">
@@ -2643,12 +2649,12 @@
         <v>5</v>
       </c>
       <c r="B60" s="9"/>
-      <c r="C60" s="21" t="s">
-        <v>97</v>
+      <c r="C60" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="D60" s="19"/>
-      <c r="E60" s="21" t="s">
-        <v>97</v>
+      <c r="E60" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="F60" s="19"/>
       <c r="G60" s="14"/>
@@ -2658,119 +2664,117 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13" t="s">
-        <v>98</v>
+      <c r="A61" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="D61" s="19"/>
-      <c r="E61" s="13" t="s">
-        <v>99</v>
+      <c r="E61" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="F61" s="19"/>
       <c r="G61" s="14"/>
       <c r="H61" s="13"/>
-      <c r="I61" s="10">
-        <v>150.0</v>
+      <c r="I61" s="11">
+        <v>135.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B62" s="9"/>
-      <c r="C62" s="9" t="s">
-        <v>100</v>
+      <c r="C62" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="D62" s="19"/>
-      <c r="E62" s="9" t="s">
-        <v>100</v>
+      <c r="E62" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="F62" s="19"/>
       <c r="G62" s="14"/>
       <c r="H62" s="13"/>
-      <c r="I62" s="10">
-        <v>150.0</v>
+      <c r="I62" s="11">
+        <v>135.0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9" t="s">
-        <v>101</v>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="D63" s="19"/>
-      <c r="E63" s="9" t="s">
-        <v>101</v>
+      <c r="E63" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="F63" s="19"/>
       <c r="G63" s="14"/>
       <c r="H63" s="13"/>
       <c r="I63" s="10">
-        <v>170.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13" t="s">
-        <v>102</v>
+      <c r="A64" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="D64" s="19"/>
-      <c r="E64" s="13" t="s">
-        <v>102</v>
+      <c r="E64" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="F64" s="19"/>
       <c r="G64" s="14"/>
       <c r="H64" s="13"/>
-      <c r="I64" s="11">
-        <v>130.0</v>
+      <c r="I64" s="10">
+        <v>150.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D65" s="19"/>
       <c r="E65" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F65" s="19"/>
       <c r="G65" s="14"/>
       <c r="H65" s="13"/>
-      <c r="I65" s="11">
-        <v>135.0</v>
+      <c r="I65" s="10">
+        <v>170.0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>105</v>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="D66" s="19"/>
-      <c r="E66" s="9" t="s">
-        <v>105</v>
+      <c r="E66" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="F66" s="19"/>
-      <c r="G66" s="22"/>
+      <c r="G66" s="14"/>
       <c r="H66" s="13"/>
-      <c r="I66" s="10">
-        <v>140.0</v>
+      <c r="I66" s="11">
+        <v>130.0</v>
       </c>
     </row>
     <row r="67">
@@ -2779,36 +2783,38 @@
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D67" s="19"/>
       <c r="E67" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F67" s="19"/>
-      <c r="G67" s="22"/>
+      <c r="G67" s="14"/>
       <c r="H67" s="13"/>
-      <c r="I67" s="10">
-        <v>145.0</v>
+      <c r="I67" s="11">
+        <v>135.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="9"/>
+      <c r="B68" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="C68" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D68" s="19"/>
       <c r="E68" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F68" s="19"/>
       <c r="G68" s="22"/>
       <c r="H68" s="13"/>
       <c r="I68" s="10">
-        <v>160.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="69">
@@ -2817,17 +2823,17 @@
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D69" s="19"/>
       <c r="E69" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F69" s="19"/>
       <c r="G69" s="22"/>
       <c r="H69" s="13"/>
       <c r="I69" s="10">
-        <v>170.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="70">
@@ -2836,165 +2842,165 @@
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D70" s="19"/>
       <c r="E70" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F70" s="19"/>
       <c r="G70" s="22"/>
       <c r="H70" s="13"/>
       <c r="I70" s="10">
-        <v>170.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="12" t="s">
-        <v>110</v>
+      <c r="A71" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="B71" s="9"/>
-      <c r="C71" s="12" t="s">
-        <v>111</v>
+      <c r="C71" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="D71" s="19"/>
-      <c r="E71" s="12" t="s">
-        <v>112</v>
+      <c r="E71" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="F71" s="19"/>
       <c r="G71" s="22"/>
       <c r="H71" s="13"/>
       <c r="I71" s="10">
-        <v>145.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="B72" s="9"/>
       <c r="C72" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D72" s="19"/>
       <c r="E72" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F72" s="19"/>
       <c r="G72" s="22"/>
       <c r="H72" s="13"/>
       <c r="I72" s="10">
-        <v>145.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="9" t="s">
-        <v>8</v>
+      <c r="A73" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="B73" s="9"/>
-      <c r="C73" s="21" t="s">
-        <v>114</v>
+      <c r="C73" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="D73" s="19"/>
-      <c r="E73" s="21" t="s">
-        <v>114</v>
+      <c r="E73" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="F73" s="19"/>
       <c r="G73" s="22"/>
       <c r="H73" s="13"/>
       <c r="I73" s="10">
-        <v>180.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B74" s="9"/>
-      <c r="C74" s="21" t="s">
-        <v>115</v>
+      <c r="B74" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="D74" s="19"/>
-      <c r="E74" s="21" t="s">
-        <v>115</v>
+      <c r="E74" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="F74" s="19"/>
-      <c r="G74" s="13"/>
+      <c r="G74" s="22"/>
       <c r="H74" s="13"/>
       <c r="I74" s="10">
+        <v>145.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="9"/>
+      <c r="C75" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D75" s="19"/>
+      <c r="E75" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F75" s="19"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="10">
         <v>180.0</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="12" t="s">
+    <row r="76">
+      <c r="A76" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D75" s="17"/>
-      <c r="E75" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F75" s="7"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="10">
-        <v>140.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D76" s="17"/>
-      <c r="E76" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="F76" s="7"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="22"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D76" s="19"/>
+      <c r="E76" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F76" s="19"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
       <c r="I76" s="10">
         <v>180.0</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="9" t="s">
-        <v>9</v>
+      <c r="A77" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="B77" s="13"/>
-      <c r="C77" s="9" t="s">
-        <v>119</v>
+      <c r="C77" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="D77" s="17"/>
-      <c r="E77" s="9" t="s">
-        <v>119</v>
+      <c r="E77" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="14"/>
       <c r="H77" s="22"/>
       <c r="I77" s="10">
-        <v>195.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="9"/>
-      <c r="C78" s="12" t="s">
-        <v>120</v>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="D78" s="17"/>
-      <c r="E78" s="12" t="s">
-        <v>121</v>
+      <c r="E78" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="14"/>
@@ -3004,22 +3010,22 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B79" s="9"/>
-      <c r="C79" s="12" t="s">
-        <v>122</v>
+      <c r="B79" s="13"/>
+      <c r="C79" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="D79" s="17"/>
-      <c r="E79" s="12" t="s">
-        <v>123</v>
+      <c r="E79" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="14"/>
       <c r="H79" s="22"/>
       <c r="I79" s="10">
-        <v>180.0</v>
+        <v>195.0</v>
       </c>
     </row>
     <row r="80">
@@ -3027,12 +3033,12 @@
         <v>9</v>
       </c>
       <c r="B80" s="9"/>
-      <c r="C80" s="9" t="s">
-        <v>124</v>
+      <c r="C80" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="D80" s="17"/>
-      <c r="E80" s="9" t="s">
-        <v>124</v>
+      <c r="E80" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="14"/>
@@ -3042,43 +3048,41 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D81" s="17"/>
       <c r="E81" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F81" s="7"/>
       <c r="G81" s="14"/>
       <c r="H81" s="22"/>
       <c r="I81" s="10">
-        <v>170.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B82" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="B82" s="9"/>
       <c r="C82" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="14"/>
-      <c r="H82" s="13"/>
+      <c r="H82" s="22"/>
       <c r="I82" s="10">
-        <v>125.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="83">
@@ -3086,37 +3090,39 @@
         <v>9</v>
       </c>
       <c r="B83" s="9"/>
-      <c r="C83" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D83" s="19"/>
-      <c r="E83" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F83" s="19"/>
+      <c r="C83" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D83" s="17"/>
+      <c r="E83" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F83" s="7"/>
       <c r="G83" s="14"/>
       <c r="H83" s="22"/>
       <c r="I83" s="10">
-        <v>180.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="9"/>
+      <c r="B84" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="C84" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D84" s="19"/>
+        <v>127</v>
+      </c>
+      <c r="D84" s="17"/>
       <c r="E84" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F84" s="19"/>
+        <v>128</v>
+      </c>
+      <c r="F84" s="7"/>
       <c r="G84" s="14"/>
-      <c r="H84" s="22"/>
+      <c r="H84" s="13"/>
       <c r="I84" s="10">
-        <v>150.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="85">
@@ -3125,17 +3131,17 @@
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D85" s="19"/>
       <c r="E85" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F85" s="19"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="13"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="22"/>
       <c r="I85" s="10">
-        <v>160.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="86">
@@ -3143,50 +3149,50 @@
         <v>9</v>
       </c>
       <c r="B86" s="9"/>
-      <c r="C86" s="12" t="s">
-        <v>132</v>
+      <c r="C86" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="D86" s="19"/>
-      <c r="E86" s="12" t="s">
-        <v>133</v>
+      <c r="E86" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="F86" s="19"/>
       <c r="G86" s="14"/>
-      <c r="H86" s="13"/>
+      <c r="H86" s="22"/>
       <c r="I86" s="10">
         <v>150.0</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B87" s="9"/>
-      <c r="C87" s="12" t="s">
-        <v>134</v>
+      <c r="C87" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="D87" s="19"/>
-      <c r="E87" s="12" t="s">
-        <v>134</v>
+      <c r="E87" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="F87" s="19"/>
-      <c r="G87" s="14"/>
+      <c r="G87" s="22"/>
       <c r="H87" s="13"/>
       <c r="I87" s="10">
-        <v>150.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D88" s="19"/>
       <c r="E88" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F88" s="19"/>
       <c r="G88" s="14"/>
@@ -3201,35 +3207,35 @@
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D89" s="19"/>
       <c r="E89" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F89" s="19"/>
       <c r="G89" s="14"/>
       <c r="H89" s="13"/>
-      <c r="I89" s="11">
+      <c r="I89" s="10">
         <v>150.0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D90" s="19"/>
       <c r="E90" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F90" s="19"/>
       <c r="G90" s="14"/>
       <c r="H90" s="13"/>
-      <c r="I90" s="11">
+      <c r="I90" s="10">
         <v>150.0</v>
       </c>
     </row>
@@ -3239,11 +3245,11 @@
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D91" s="19"/>
       <c r="E91" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F91" s="19"/>
       <c r="G91" s="14"/>
@@ -3258,11 +3264,11 @@
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D92" s="19"/>
       <c r="E92" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F92" s="19"/>
       <c r="G92" s="14"/>
@@ -3277,11 +3283,11 @@
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D93" s="19"/>
       <c r="E93" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F93" s="19"/>
       <c r="G93" s="14"/>
@@ -3296,17 +3302,17 @@
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D94" s="19"/>
       <c r="E94" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F94" s="19"/>
       <c r="G94" s="14"/>
       <c r="H94" s="13"/>
       <c r="I94" s="11">
-        <v>130.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="95">
@@ -3315,17 +3321,17 @@
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D95" s="19"/>
       <c r="E95" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F95" s="19"/>
       <c r="G95" s="14"/>
       <c r="H95" s="13"/>
       <c r="I95" s="11">
-        <v>130.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="96">
@@ -3334,11 +3340,11 @@
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D96" s="19"/>
       <c r="E96" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F96" s="19"/>
       <c r="G96" s="14"/>
@@ -3348,163 +3354,161 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B97" s="9"/>
-      <c r="C97" s="9" t="s">
-        <v>144</v>
+      <c r="C97" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="D97" s="19"/>
-      <c r="E97" s="9" t="s">
-        <v>144</v>
+      <c r="E97" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="F97" s="19"/>
       <c r="G97" s="14"/>
       <c r="H97" s="13"/>
       <c r="I97" s="11">
-        <v>150.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B98" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>145</v>
+      <c r="B98" s="9"/>
+      <c r="C98" s="12" t="s">
+        <v>143</v>
       </c>
       <c r="D98" s="19"/>
-      <c r="E98" s="9" t="s">
-        <v>145</v>
+      <c r="E98" s="12" t="s">
+        <v>143</v>
       </c>
       <c r="F98" s="19"/>
       <c r="G98" s="14"/>
       <c r="H98" s="13"/>
       <c r="I98" s="11">
-        <v>125.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B99" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="B99" s="9"/>
       <c r="C99" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D99" s="19"/>
       <c r="E99" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F99" s="19"/>
       <c r="G99" s="14"/>
       <c r="H99" s="13"/>
-      <c r="I99" s="10">
-        <v>110.0</v>
+      <c r="I99" s="11">
+        <v>150.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B100" s="9"/>
-      <c r="C100" s="21" t="s">
-        <v>148</v>
+      <c r="B100" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="D100" s="19"/>
       <c r="E100" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F100" s="19"/>
       <c r="G100" s="14"/>
       <c r="H100" s="13"/>
-      <c r="I100" s="10">
-        <v>150.0</v>
+      <c r="I100" s="11">
+        <v>125.0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B101" s="13"/>
-      <c r="C101" s="10" t="s">
-        <v>149</v>
+      <c r="A101" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="D101" s="19"/>
-      <c r="E101" s="10" t="s">
-        <v>150</v>
+      <c r="E101" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="F101" s="19"/>
       <c r="G101" s="14"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="11">
-        <v>80.0</v>
+      <c r="H101" s="13"/>
+      <c r="I101" s="10">
+        <v>110.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>151</v>
+        <v>9</v>
+      </c>
+      <c r="B102" s="9"/>
+      <c r="C102" s="21" t="s">
+        <v>148</v>
       </c>
       <c r="D102" s="19"/>
       <c r="E102" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F102" s="19"/>
       <c r="G102" s="14"/>
       <c r="H102" s="13"/>
-      <c r="I102" s="11">
-        <v>85.0</v>
+      <c r="I102" s="10">
+        <v>150.0</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B103" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>152</v>
+      <c r="B103" s="13"/>
+      <c r="C103" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="D103" s="19"/>
-      <c r="E103" s="9" t="s">
-        <v>152</v>
+      <c r="E103" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="F103" s="19"/>
-      <c r="G103" s="13"/>
+      <c r="G103" s="14"/>
       <c r="H103" s="10"/>
       <c r="I103" s="11">
-        <v>85.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="12" t="s">
+      <c r="A104" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B104" s="9"/>
-      <c r="C104" s="12" t="s">
-        <v>153</v>
+      <c r="B104" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="D104" s="19"/>
-      <c r="E104" s="12" t="s">
-        <v>153</v>
+      <c r="E104" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="F104" s="19"/>
       <c r="G104" s="14"/>
       <c r="H104" s="13"/>
       <c r="I104" s="11">
-        <v>75.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="105">
@@ -3515,52 +3519,54 @@
         <v>28</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D105" s="19"/>
       <c r="E105" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F105" s="19"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="10"/>
       <c r="I105" s="11">
-        <v>70.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B106" s="9"/>
-      <c r="C106" s="9" t="s">
-        <v>156</v>
+      <c r="C106" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="D106" s="19"/>
-      <c r="E106" s="9" t="s">
-        <v>157</v>
+      <c r="E106" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="F106" s="19"/>
       <c r="G106" s="14"/>
       <c r="H106" s="13"/>
       <c r="I106" s="11">
-        <v>70.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B107" s="9"/>
+      <c r="B107" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="C107" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D107" s="19"/>
       <c r="E107" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F107" s="19"/>
-      <c r="G107" s="13"/>
+      <c r="G107" s="14"/>
       <c r="H107" s="13"/>
       <c r="I107" s="11">
         <v>70.0</v>
@@ -3572,17 +3578,17 @@
       </c>
       <c r="B108" s="9"/>
       <c r="C108" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D108" s="19"/>
       <c r="E108" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F108" s="19"/>
-      <c r="G108" s="13"/>
+      <c r="G108" s="14"/>
       <c r="H108" s="13"/>
       <c r="I108" s="11">
-        <v>60.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="109">
@@ -3591,72 +3597,70 @@
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D109" s="19"/>
       <c r="E109" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F109" s="7"/>
+        <v>159</v>
+      </c>
+      <c r="F109" s="19"/>
       <c r="G109" s="13"/>
       <c r="H109" s="13"/>
       <c r="I109" s="11">
-        <v>50.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B110" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>163</v>
+      <c r="A110" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="D110" s="19"/>
-      <c r="E110" s="13" t="s">
-        <v>164</v>
+      <c r="E110" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="F110" s="19"/>
       <c r="G110" s="13"/>
       <c r="H110" s="13"/>
-      <c r="I110" s="10">
-        <v>185.0</v>
+      <c r="I110" s="11">
+        <v>60.0</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B111" s="7"/>
+      <c r="A111" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" s="9"/>
       <c r="C111" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D111" s="17"/>
+        <v>161</v>
+      </c>
+      <c r="D111" s="19"/>
       <c r="E111" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="F111" s="19"/>
+        <v>162</v>
+      </c>
+      <c r="F111" s="7"/>
       <c r="G111" s="13"/>
       <c r="H111" s="13"/>
-      <c r="I111" s="10">
-        <v>185.0</v>
+      <c r="I111" s="11">
+        <v>50.0</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C112" s="9" t="s">
-        <v>166</v>
+      <c r="C112" s="13" t="s">
+        <v>163</v>
       </c>
       <c r="D112" s="19"/>
-      <c r="E112" s="9" t="s">
-        <v>166</v>
+      <c r="E112" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="F112" s="19"/>
       <c r="G112" s="13"/>
@@ -3671,11 +3675,11 @@
       </c>
       <c r="B113" s="7"/>
       <c r="C113" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D113" s="19"/>
+        <v>165</v>
+      </c>
+      <c r="D113" s="17"/>
       <c r="E113" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F113" s="19"/>
       <c r="G113" s="13"/>
@@ -3688,13 +3692,15 @@
       <c r="A114" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B114" s="7"/>
+      <c r="B114" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C114" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D114" s="19"/>
       <c r="E114" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F114" s="19"/>
       <c r="G114" s="13"/>
@@ -3704,41 +3710,41 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="24" t="s">
+      <c r="A115" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B115" s="7"/>
-      <c r="C115" s="12" t="s">
-        <v>171</v>
+      <c r="C115" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="D115" s="19"/>
-      <c r="E115" s="12" t="s">
-        <v>172</v>
+      <c r="E115" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="F115" s="19"/>
       <c r="G115" s="13"/>
       <c r="H115" s="13"/>
       <c r="I115" s="10">
-        <v>220.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="24" t="s">
+      <c r="A116" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B116" s="7"/>
-      <c r="C116" s="12" t="s">
-        <v>173</v>
+      <c r="C116" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="D116" s="19"/>
-      <c r="E116" s="12" t="s">
-        <v>174</v>
+      <c r="E116" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="F116" s="19"/>
       <c r="G116" s="13"/>
       <c r="H116" s="13"/>
       <c r="I116" s="10">
-        <v>240.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="117">
@@ -3747,17 +3753,17 @@
       </c>
       <c r="B117" s="7"/>
       <c r="C117" s="12" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D117" s="19"/>
       <c r="E117" s="12" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F117" s="19"/>
       <c r="G117" s="13"/>
       <c r="H117" s="13"/>
       <c r="I117" s="10">
-        <v>185.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="118">
@@ -3766,17 +3772,17 @@
       </c>
       <c r="B118" s="7"/>
       <c r="C118" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D118" s="19"/>
       <c r="E118" s="12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F118" s="19"/>
       <c r="G118" s="13"/>
       <c r="H118" s="13"/>
       <c r="I118" s="10">
-        <v>185.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="119">
@@ -3785,114 +3791,114 @@
       </c>
       <c r="B119" s="7"/>
       <c r="C119" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D119" s="19"/>
       <c r="E119" s="12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F119" s="19"/>
       <c r="G119" s="13"/>
       <c r="H119" s="13"/>
       <c r="I119" s="10">
+        <v>185.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c r="C120" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D120" s="19"/>
+      <c r="E120" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F120" s="19"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="10">
+        <v>185.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c r="C121" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D121" s="19"/>
+      <c r="E121" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F121" s="19"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="13"/>
+      <c r="I121" s="10">
         <v>110.0</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="23" t="s">
+    <row r="122">
+      <c r="A122" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B120" s="23" t="s">
+      <c r="B122" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C120" s="13" t="s">
+      <c r="C122" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D120" s="19"/>
-      <c r="E120" s="9" t="s">
+      <c r="D122" s="19"/>
+      <c r="E122" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="F120" s="19"/>
-      <c r="G120" s="22"/>
-      <c r="H120" s="14"/>
-      <c r="I120" s="11">
-        <v>215.0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B121" s="23"/>
-      <c r="C121" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D121" s="19"/>
-      <c r="E121" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="F121" s="19"/>
-      <c r="G121" s="22"/>
-      <c r="H121" s="14"/>
-      <c r="I121" s="11">
-        <v>230.0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B122" s="23"/>
-      <c r="C122" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D122" s="19"/>
-      <c r="E122" s="13" t="s">
-        <v>186</v>
       </c>
       <c r="F122" s="19"/>
       <c r="G122" s="22"/>
       <c r="H122" s="14"/>
       <c r="I122" s="11">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B123" s="7"/>
-      <c r="C123" s="9" t="s">
-        <v>187</v>
+      <c r="B123" s="23"/>
+      <c r="C123" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="D123" s="19"/>
-      <c r="E123" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="F123" s="7"/>
+      <c r="E123" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F123" s="19"/>
       <c r="G123" s="22"/>
       <c r="H123" s="14"/>
       <c r="I123" s="11">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B124" s="7"/>
-      <c r="C124" s="9" t="s">
-        <v>189</v>
+      <c r="B124" s="23"/>
+      <c r="C124" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="D124" s="19"/>
-      <c r="E124" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="F124" s="7"/>
+      <c r="E124" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F124" s="19"/>
       <c r="G124" s="22"/>
       <c r="H124" s="14"/>
       <c r="I124" s="11">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="125">
@@ -3901,91 +3907,91 @@
       </c>
       <c r="B125" s="7"/>
       <c r="C125" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D125" s="19"/>
-      <c r="E125" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="F125" s="19"/>
+      <c r="E125" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F125" s="7"/>
       <c r="G125" s="22"/>
       <c r="H125" s="14"/>
       <c r="I125" s="11">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B126" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B126" s="7"/>
       <c r="C126" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D126" s="19"/>
       <c r="E126" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="F126" s="19"/>
+        <v>190</v>
+      </c>
+      <c r="F126" s="7"/>
       <c r="G126" s="22"/>
       <c r="H126" s="14"/>
       <c r="I126" s="11">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B127" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B127" s="7"/>
       <c r="C127" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D127" s="19"/>
-      <c r="E127" s="9" t="s">
-        <v>196</v>
+      <c r="E127" s="12" t="s">
+        <v>192</v>
       </c>
       <c r="F127" s="19"/>
       <c r="G127" s="22"/>
       <c r="H127" s="14"/>
       <c r="I127" s="11">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B128" s="7"/>
+      <c r="B128" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C128" s="9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D128" s="19"/>
       <c r="E128" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F128" s="19"/>
       <c r="G128" s="22"/>
       <c r="H128" s="14"/>
       <c r="I128" s="11">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B129" s="7"/>
+      <c r="B129" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C129" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D129" s="19"/>
-      <c r="E129" s="12" t="s">
-        <v>200</v>
+      <c r="E129" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="F129" s="19"/>
       <c r="G129" s="22"/>
@@ -4000,17 +4006,17 @@
       </c>
       <c r="B130" s="7"/>
       <c r="C130" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D130" s="7"/>
+        <v>197</v>
+      </c>
+      <c r="D130" s="19"/>
       <c r="E130" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="F130" s="7"/>
+        <v>198</v>
+      </c>
+      <c r="F130" s="19"/>
       <c r="G130" s="22"/>
       <c r="H130" s="14"/>
       <c r="I130" s="11">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="131">
@@ -4019,13 +4025,13 @@
       </c>
       <c r="B131" s="7"/>
       <c r="C131" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D131" s="7"/>
-      <c r="E131" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="F131" s="7"/>
+        <v>199</v>
+      </c>
+      <c r="D131" s="19"/>
+      <c r="E131" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F131" s="19"/>
       <c r="G131" s="22"/>
       <c r="H131" s="14"/>
       <c r="I131" s="11">
@@ -4038,17 +4044,17 @@
       </c>
       <c r="B132" s="7"/>
       <c r="C132" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D132" s="7"/>
-      <c r="E132" s="9" t="s">
-        <v>206</v>
+      <c r="E132" s="12" t="s">
+        <v>202</v>
       </c>
       <c r="F132" s="7"/>
       <c r="G132" s="22"/>
       <c r="H132" s="14"/>
       <c r="I132" s="11">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="133">
@@ -4057,11 +4063,11 @@
       </c>
       <c r="B133" s="7"/>
       <c r="C133" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D133" s="7"/>
       <c r="E133" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F133" s="7"/>
       <c r="G133" s="22"/>
@@ -4076,17 +4082,17 @@
       </c>
       <c r="B134" s="7"/>
       <c r="C134" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D134" s="7"/>
-      <c r="E134" s="12" t="s">
-        <v>210</v>
+      <c r="E134" s="9" t="s">
+        <v>206</v>
       </c>
       <c r="F134" s="7"/>
       <c r="G134" s="22"/>
       <c r="H134" s="14"/>
       <c r="I134" s="11">
-        <v>210.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="135">
@@ -4095,38 +4101,36 @@
       </c>
       <c r="B135" s="7"/>
       <c r="C135" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D135" s="7"/>
-      <c r="E135" s="12" t="s">
-        <v>212</v>
+      <c r="E135" s="9" t="s">
+        <v>208</v>
       </c>
       <c r="F135" s="7"/>
       <c r="G135" s="22"/>
       <c r="H135" s="14"/>
       <c r="I135" s="11">
-        <v>80.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B136" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B136" s="7"/>
       <c r="C136" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="D136" s="19"/>
-      <c r="E136" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="F136" s="19"/>
+        <v>209</v>
+      </c>
+      <c r="D136" s="7"/>
+      <c r="E136" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="F136" s="7"/>
       <c r="G136" s="22"/>
       <c r="H136" s="14"/>
       <c r="I136" s="11">
-        <v>220.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="137">
@@ -4135,57 +4139,57 @@
       </c>
       <c r="B137" s="7"/>
       <c r="C137" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D137" s="7"/>
-      <c r="E137" s="9" t="s">
-        <v>216</v>
+      <c r="E137" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="F137" s="7"/>
       <c r="G137" s="22"/>
       <c r="H137" s="14"/>
       <c r="I137" s="11">
-        <v>160.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B138" s="7"/>
+      <c r="B138" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C138" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="D138" s="7"/>
+        <v>213</v>
+      </c>
+      <c r="D138" s="19"/>
       <c r="E138" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="F138" s="7"/>
+        <v>214</v>
+      </c>
+      <c r="F138" s="19"/>
       <c r="G138" s="22"/>
       <c r="H138" s="14"/>
       <c r="I138" s="11">
-        <v>70.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B139" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B139" s="7"/>
       <c r="C139" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="D139" s="19"/>
-      <c r="E139" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="F139" s="19"/>
+        <v>215</v>
+      </c>
+      <c r="D139" s="7"/>
+      <c r="E139" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="F139" s="7"/>
       <c r="G139" s="22"/>
       <c r="H139" s="14"/>
       <c r="I139" s="11">
-        <v>220.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="140">
@@ -4194,17 +4198,17 @@
       </c>
       <c r="B140" s="7"/>
       <c r="C140" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="D140" s="19"/>
+        <v>217</v>
+      </c>
+      <c r="D140" s="7"/>
       <c r="E140" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="F140" s="19"/>
+        <v>218</v>
+      </c>
+      <c r="F140" s="7"/>
       <c r="G140" s="22"/>
       <c r="H140" s="14"/>
       <c r="I140" s="11">
-        <v>220.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="141">
@@ -4215,13 +4219,13 @@
         <v>28</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="D141" s="7"/>
-      <c r="E141" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="F141" s="7"/>
+        <v>219</v>
+      </c>
+      <c r="D141" s="19"/>
+      <c r="E141" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="F141" s="19"/>
       <c r="G141" s="22"/>
       <c r="H141" s="14"/>
       <c r="I141" s="11">
@@ -4234,53 +4238,53 @@
       </c>
       <c r="B142" s="7"/>
       <c r="C142" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D142" s="7"/>
+        <v>221</v>
+      </c>
+      <c r="D142" s="19"/>
       <c r="E142" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="F142" s="7"/>
+        <v>222</v>
+      </c>
+      <c r="F142" s="19"/>
       <c r="G142" s="22"/>
       <c r="H142" s="14"/>
       <c r="I142" s="11">
-        <v>185.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B143" s="7"/>
+      <c r="B143" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C143" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D143" s="19"/>
+        <v>223</v>
+      </c>
+      <c r="D143" s="7"/>
       <c r="E143" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F143" s="19"/>
+        <v>224</v>
+      </c>
+      <c r="F143" s="7"/>
       <c r="G143" s="22"/>
       <c r="H143" s="14"/>
       <c r="I143" s="11">
-        <v>185.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B144" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B144" s="7"/>
       <c r="C144" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="D144" s="19"/>
+        <v>225</v>
+      </c>
+      <c r="D144" s="7"/>
       <c r="E144" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="F144" s="19"/>
+        <v>225</v>
+      </c>
+      <c r="F144" s="7"/>
       <c r="G144" s="22"/>
       <c r="H144" s="14"/>
       <c r="I144" s="11">
@@ -4293,13 +4297,13 @@
       </c>
       <c r="B145" s="7"/>
       <c r="C145" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="D145" s="7"/>
+        <v>226</v>
+      </c>
+      <c r="D145" s="19"/>
       <c r="E145" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="F145" s="7"/>
+        <v>226</v>
+      </c>
+      <c r="F145" s="19"/>
       <c r="G145" s="22"/>
       <c r="H145" s="14"/>
       <c r="I145" s="11">
@@ -4310,19 +4314,21 @@
       <c r="A146" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B146" s="7"/>
+      <c r="B146" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C146" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="D146" s="7"/>
+        <v>227</v>
+      </c>
+      <c r="D146" s="19"/>
       <c r="E146" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="F146" s="7"/>
+        <v>228</v>
+      </c>
+      <c r="F146" s="19"/>
       <c r="G146" s="22"/>
       <c r="H146" s="14"/>
       <c r="I146" s="11">
-        <v>200.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="147">
@@ -4331,11 +4337,11 @@
       </c>
       <c r="B147" s="7"/>
       <c r="C147" s="9" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D147" s="7"/>
       <c r="E147" s="9" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F147" s="7"/>
       <c r="G147" s="22"/>
@@ -4350,160 +4356,156 @@
       </c>
       <c r="B148" s="7"/>
       <c r="C148" s="9" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D148" s="7"/>
       <c r="E148" s="9" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F148" s="7"/>
       <c r="G148" s="22"/>
       <c r="H148" s="14"/>
       <c r="I148" s="11">
-        <v>80.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B149" s="23"/>
-      <c r="C149" s="13" t="s">
-        <v>237</v>
+      <c r="A149" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="7"/>
+      <c r="C149" s="9" t="s">
+        <v>233</v>
       </c>
       <c r="D149" s="7"/>
-      <c r="E149" s="13" t="s">
-        <v>238</v>
+      <c r="E149" s="9" t="s">
+        <v>234</v>
       </c>
       <c r="F149" s="7"/>
       <c r="G149" s="22"/>
       <c r="H149" s="14"/>
       <c r="I149" s="11">
-        <v>120.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B150" s="7"/>
       <c r="C150" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="D150" s="19"/>
+        <v>235</v>
+      </c>
+      <c r="D150" s="7"/>
       <c r="E150" s="9" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F150" s="7"/>
       <c r="G150" s="22"/>
       <c r="H150" s="14"/>
       <c r="I150" s="11">
-        <v>130.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="7" t="s">
+      <c r="A151" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B151" s="7"/>
-      <c r="C151" s="12" t="s">
-        <v>241</v>
+      <c r="B151" s="23"/>
+      <c r="C151" s="13" t="s">
+        <v>237</v>
       </c>
       <c r="D151" s="7"/>
-      <c r="E151" s="12" t="s">
-        <v>242</v>
+      <c r="E151" s="13" t="s">
+        <v>238</v>
       </c>
       <c r="F151" s="7"/>
       <c r="G151" s="22"/>
       <c r="H151" s="14"/>
       <c r="I151" s="11">
-        <v>30.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B152" s="23" t="s">
+      <c r="A152" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B152" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C152" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="D152" s="7"/>
-      <c r="E152" s="13" t="s">
-        <v>244</v>
+      <c r="C152" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D152" s="19"/>
+      <c r="E152" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="F152" s="7"/>
       <c r="G152" s="22"/>
       <c r="H152" s="14"/>
       <c r="I152" s="11">
-        <v>150.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B153" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C153" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="D153" s="19"/>
-      <c r="E153" s="10" t="s">
-        <v>246</v>
+      <c r="A153" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B153" s="7"/>
+      <c r="C153" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D153" s="7"/>
+      <c r="E153" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="F153" s="7"/>
       <c r="G153" s="22"/>
       <c r="H153" s="14"/>
       <c r="I153" s="11">
-        <v>260.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B154" s="7" t="s">
+      <c r="A154" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B154" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C154" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="D154" s="19"/>
-      <c r="E154" s="12" t="s">
-        <v>248</v>
+      <c r="C154" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D154" s="7"/>
+      <c r="E154" s="13" t="s">
+        <v>244</v>
       </c>
       <c r="F154" s="7"/>
       <c r="G154" s="22"/>
       <c r="H154" s="14"/>
       <c r="I154" s="11">
-        <v>210.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="7" t="s">
+      <c r="A155" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B155" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C155" s="9" t="s">
-        <v>249</v>
+      <c r="C155" s="13" t="s">
+        <v>245</v>
       </c>
       <c r="D155" s="19"/>
-      <c r="E155" s="12" t="s">
-        <v>250</v>
+      <c r="E155" s="10" t="s">
+        <v>246</v>
       </c>
       <c r="F155" s="7"/>
       <c r="G155" s="22"/>
       <c r="H155" s="14"/>
       <c r="I155" s="11">
-        <v>210.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="156">
@@ -4514,11 +4516,11 @@
         <v>28</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D156" s="19"/>
-      <c r="E156" s="9" t="s">
-        <v>252</v>
+      <c r="E156" s="12" t="s">
+        <v>248</v>
       </c>
       <c r="F156" s="7"/>
       <c r="G156" s="22"/>
@@ -4528,267 +4530,271 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="25" t="s">
+      <c r="A157" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B157" s="26"/>
-      <c r="C157" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="D157" s="28"/>
-      <c r="E157" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="F157" s="28"/>
+      <c r="B157" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D157" s="19"/>
+      <c r="E157" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F157" s="7"/>
       <c r="G157" s="22"/>
-      <c r="H157" s="22"/>
+      <c r="H157" s="14"/>
       <c r="I157" s="11">
-        <v>50.0</v>
-      </c>
-      <c r="J157" s="30"/>
-      <c r="K157" s="30"/>
-      <c r="L157" s="30"/>
-      <c r="M157" s="30"/>
-      <c r="N157" s="30"/>
-      <c r="O157" s="30"/>
-      <c r="P157" s="30"/>
-      <c r="Q157" s="30"/>
-      <c r="R157" s="30"/>
-      <c r="S157" s="30"/>
-      <c r="T157" s="30"/>
-      <c r="U157" s="30"/>
-      <c r="V157" s="30"/>
-      <c r="W157" s="30"/>
-      <c r="X157" s="30"/>
-      <c r="Y157" s="30"/>
-      <c r="Z157" s="30"/>
+        <v>210.0</v>
+      </c>
     </row>
     <row r="158">
-      <c r="A158" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B158" s="26"/>
-      <c r="C158" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="D158" s="28"/>
-      <c r="E158" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="F158" s="28"/>
+      <c r="A158" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D158" s="19"/>
+      <c r="E158" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F158" s="7"/>
       <c r="G158" s="22"/>
-      <c r="H158" s="22"/>
+      <c r="H158" s="14"/>
       <c r="I158" s="11">
-        <v>165.0</v>
-      </c>
-      <c r="J158" s="30"/>
-      <c r="K158" s="30"/>
-      <c r="L158" s="30"/>
-      <c r="M158" s="30"/>
-      <c r="N158" s="30"/>
-      <c r="O158" s="30"/>
-      <c r="P158" s="30"/>
-      <c r="Q158" s="30"/>
-      <c r="R158" s="30"/>
-      <c r="S158" s="30"/>
-      <c r="T158" s="30"/>
-      <c r="U158" s="30"/>
-      <c r="V158" s="30"/>
-      <c r="W158" s="30"/>
-      <c r="X158" s="30"/>
-      <c r="Y158" s="30"/>
-      <c r="Z158" s="30"/>
+        <v>210.0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B159" s="26"/>
+      <c r="C159" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="D159" s="28"/>
+      <c r="E159" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="F159" s="28"/>
+      <c r="G159" s="22"/>
+      <c r="H159" s="22"/>
+      <c r="I159" s="11">
+        <v>50.0</v>
+      </c>
+      <c r="J159" s="30"/>
+      <c r="K159" s="30"/>
+      <c r="L159" s="30"/>
+      <c r="M159" s="30"/>
+      <c r="N159" s="30"/>
+      <c r="O159" s="30"/>
+      <c r="P159" s="30"/>
+      <c r="Q159" s="30"/>
+      <c r="R159" s="30"/>
+      <c r="S159" s="30"/>
+      <c r="T159" s="30"/>
+      <c r="U159" s="30"/>
+      <c r="V159" s="30"/>
+      <c r="W159" s="30"/>
+      <c r="X159" s="30"/>
+      <c r="Y159" s="30"/>
+      <c r="Z159" s="30"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B159" s="32"/>
-      <c r="C159" s="27" t="s">
+      <c r="B160" s="26"/>
+      <c r="C160" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="D160" s="28"/>
+      <c r="E160" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="F160" s="28"/>
+      <c r="G160" s="22"/>
+      <c r="H160" s="22"/>
+      <c r="I160" s="11">
+        <v>165.0</v>
+      </c>
+      <c r="J160" s="30"/>
+      <c r="K160" s="30"/>
+      <c r="L160" s="30"/>
+      <c r="M160" s="30"/>
+      <c r="N160" s="30"/>
+      <c r="O160" s="30"/>
+      <c r="P160" s="30"/>
+      <c r="Q160" s="30"/>
+      <c r="R160" s="30"/>
+      <c r="S160" s="30"/>
+      <c r="T160" s="30"/>
+      <c r="U160" s="30"/>
+      <c r="V160" s="30"/>
+      <c r="W160" s="30"/>
+      <c r="X160" s="30"/>
+      <c r="Y160" s="30"/>
+      <c r="Z160" s="30"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B161" s="32"/>
+      <c r="C161" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="D159" s="33"/>
-      <c r="E159" s="27" t="s">
+      <c r="D161" s="33"/>
+      <c r="E161" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="F159" s="33"/>
-      <c r="G159" s="23"/>
-      <c r="H159" s="23"/>
-      <c r="I159" s="11">
+      <c r="F161" s="33"/>
+      <c r="G161" s="23"/>
+      <c r="H161" s="23"/>
+      <c r="I161" s="11">
         <v>165.0</v>
       </c>
-      <c r="J159" s="34"/>
-      <c r="K159" s="34"/>
-      <c r="L159" s="34"/>
-      <c r="M159" s="34"/>
-      <c r="N159" s="34"/>
-      <c r="O159" s="34"/>
-      <c r="P159" s="34"/>
-      <c r="Q159" s="34"/>
-      <c r="R159" s="34"/>
-      <c r="S159" s="34"/>
-      <c r="T159" s="34"/>
-      <c r="U159" s="34"/>
-      <c r="V159" s="34"/>
-      <c r="W159" s="34"/>
-      <c r="X159" s="34"/>
-      <c r="Y159" s="34"/>
-      <c r="Z159" s="34"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="13" t="s">
+      <c r="J161" s="34"/>
+      <c r="K161" s="34"/>
+      <c r="L161" s="34"/>
+      <c r="M161" s="34"/>
+      <c r="N161" s="34"/>
+      <c r="O161" s="34"/>
+      <c r="P161" s="34"/>
+      <c r="Q161" s="34"/>
+      <c r="R161" s="34"/>
+      <c r="S161" s="34"/>
+      <c r="T161" s="34"/>
+      <c r="U161" s="34"/>
+      <c r="V161" s="34"/>
+      <c r="W161" s="34"/>
+      <c r="X161" s="34"/>
+      <c r="Y161" s="34"/>
+      <c r="Z161" s="34"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B160" s="13" t="s">
+      <c r="B162" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C160" s="13" t="s">
+      <c r="C162" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="D160" s="19"/>
-      <c r="E160" s="13" t="s">
+      <c r="D162" s="19"/>
+      <c r="E162" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="F160" s="19"/>
-      <c r="G160" s="22"/>
-      <c r="H160" s="14"/>
-      <c r="I160" s="11">
-        <v>220.0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="D161" s="7"/>
-      <c r="E161" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="F161" s="7"/>
-      <c r="G161" s="22"/>
-      <c r="H161" s="14"/>
-      <c r="I161" s="11">
-        <v>250.0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B162" s="9"/>
-      <c r="C162" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="D162" s="7"/>
-      <c r="E162" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="F162" s="7"/>
+      <c r="F162" s="19"/>
       <c r="G162" s="22"/>
       <c r="H162" s="14"/>
       <c r="I162" s="11">
-        <v>155.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B163" s="23"/>
-      <c r="C163" s="13" t="s">
-        <v>264</v>
+      <c r="A163" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>261</v>
       </c>
       <c r="D163" s="7"/>
-      <c r="E163" s="13" t="s">
-        <v>265</v>
+      <c r="E163" s="9" t="s">
+        <v>261</v>
       </c>
       <c r="F163" s="7"/>
       <c r="G163" s="22"/>
       <c r="H163" s="14"/>
-      <c r="I163" s="14">
-        <v>20.0</v>
+      <c r="I163" s="11">
+        <v>250.0</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B164" s="23"/>
-      <c r="C164" s="9" t="s">
-        <v>266</v>
+      <c r="A164" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B164" s="9"/>
+      <c r="C164" s="12" t="s">
+        <v>262</v>
       </c>
       <c r="D164" s="7"/>
-      <c r="E164" s="9" t="s">
-        <v>267</v>
+      <c r="E164" s="12" t="s">
+        <v>263</v>
       </c>
       <c r="F164" s="7"/>
       <c r="G164" s="22"/>
-      <c r="H164" s="11"/>
+      <c r="H164" s="14"/>
       <c r="I164" s="11">
-        <v>40.0</v>
+        <v>155.0</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="24" t="s">
+      <c r="A165" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B165" s="7"/>
-      <c r="C165" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="D165" s="19"/>
-      <c r="E165" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="F165" s="19"/>
+      <c r="B165" s="23"/>
+      <c r="C165" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D165" s="7"/>
+      <c r="E165" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="F165" s="7"/>
       <c r="G165" s="22"/>
-      <c r="H165" s="11"/>
-      <c r="I165" s="11">
-        <v>30.0</v>
+      <c r="H165" s="14"/>
+      <c r="I165" s="14">
+        <v>20.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B166" s="7"/>
+      <c r="B166" s="23"/>
       <c r="C166" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="D166" s="19"/>
+        <v>266</v>
+      </c>
+      <c r="D166" s="7"/>
       <c r="E166" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="F166" s="19"/>
+        <v>267</v>
+      </c>
+      <c r="F166" s="7"/>
       <c r="G166" s="22"/>
       <c r="H166" s="11"/>
       <c r="I166" s="11">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="7" t="s">
+      <c r="A167" s="24" t="s">
         <v>20</v>
       </c>
       <c r="B167" s="7"/>
-      <c r="C167" s="9" t="s">
-        <v>272</v>
+      <c r="C167" s="12" t="s">
+        <v>268</v>
       </c>
       <c r="D167" s="19"/>
-      <c r="E167" s="9" t="s">
-        <v>273</v>
+      <c r="E167" s="35" t="s">
+        <v>269</v>
       </c>
       <c r="F167" s="19"/>
       <c r="G167" s="22"/>
-      <c r="H167" s="14"/>
+      <c r="H167" s="11"/>
       <c r="I167" s="11">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="168">
@@ -4797,15 +4803,15 @@
       </c>
       <c r="B168" s="7"/>
       <c r="C168" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D168" s="19"/>
       <c r="E168" s="9" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F168" s="19"/>
       <c r="G168" s="22"/>
-      <c r="H168" s="14"/>
+      <c r="H168" s="11"/>
       <c r="I168" s="11">
         <v>20.0</v>
       </c>
@@ -4816,17 +4822,17 @@
       </c>
       <c r="B169" s="7"/>
       <c r="C169" s="9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D169" s="19"/>
       <c r="E169" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F169" s="19"/>
       <c r="G169" s="22"/>
       <c r="H169" s="14"/>
-      <c r="I169" s="14">
-        <v>20.0</v>
+      <c r="I169" s="11">
+        <v>50.0</v>
       </c>
     </row>
     <row r="170">
@@ -4835,17 +4841,17 @@
       </c>
       <c r="B170" s="7"/>
       <c r="C170" s="9" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D170" s="19"/>
       <c r="E170" s="9" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F170" s="19"/>
       <c r="G170" s="22"/>
       <c r="H170" s="14"/>
       <c r="I170" s="11">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="171">
@@ -4853,18 +4859,18 @@
         <v>20</v>
       </c>
       <c r="B171" s="7"/>
-      <c r="C171" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="D171" s="7"/>
-      <c r="E171" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="F171" s="7"/>
+      <c r="C171" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D171" s="19"/>
+      <c r="E171" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F171" s="19"/>
       <c r="G171" s="22"/>
       <c r="H171" s="14"/>
-      <c r="I171" s="11">
-        <v>40.0</v>
+      <c r="I171" s="14">
+        <v>20.0</v>
       </c>
     </row>
     <row r="172">
@@ -4872,37 +4878,37 @@
         <v>20</v>
       </c>
       <c r="B172" s="7"/>
-      <c r="C172" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="D172" s="7"/>
-      <c r="E172" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="F172" s="7"/>
+      <c r="C172" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D172" s="19"/>
+      <c r="E172" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="F172" s="19"/>
       <c r="G172" s="22"/>
       <c r="H172" s="14"/>
       <c r="I172" s="11">
-        <v>60.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="24" t="s">
+      <c r="A173" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B173" s="7"/>
       <c r="C173" s="12" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D173" s="7"/>
       <c r="E173" s="12" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F173" s="7"/>
       <c r="G173" s="22"/>
       <c r="H173" s="14"/>
       <c r="I173" s="11">
-        <v>150.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="174">
@@ -4910,69 +4916,95 @@
         <v>20</v>
       </c>
       <c r="B174" s="7"/>
-      <c r="C174" s="9" t="s">
-        <v>286</v>
+      <c r="C174" s="12" t="s">
+        <v>282</v>
       </c>
       <c r="D174" s="7"/>
-      <c r="E174" s="9" t="s">
-        <v>287</v>
+      <c r="E174" s="12" t="s">
+        <v>283</v>
       </c>
       <c r="F174" s="7"/>
       <c r="G174" s="22"/>
       <c r="H174" s="14"/>
-      <c r="I174" s="14">
-        <v>15.0</v>
+      <c r="I174" s="11">
+        <v>60.0</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="7" t="s">
+      <c r="A175" s="24" t="s">
         <v>20</v>
       </c>
       <c r="B175" s="7"/>
       <c r="C175" s="12" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D175" s="7"/>
       <c r="E175" s="12" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F175" s="7"/>
       <c r="G175" s="22"/>
       <c r="H175" s="14"/>
       <c r="I175" s="11">
-        <v>15.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B176" s="19"/>
+      <c r="B176" s="7"/>
       <c r="C176" s="9" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D176" s="7"/>
       <c r="E176" s="9" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F176" s="7"/>
-      <c r="G176" s="7"/>
+      <c r="G176" s="22"/>
       <c r="H176" s="14"/>
       <c r="I176" s="14">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B177" s="7"/>
+      <c r="C177" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D177" s="7"/>
+      <c r="E177" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="F177" s="7"/>
+      <c r="G177" s="22"/>
+      <c r="H177" s="14"/>
+      <c r="I177" s="11">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B178" s="19"/>
+      <c r="C178" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D178" s="7"/>
+      <c r="E178" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="14"/>
+      <c r="I178" s="14">
         <v>60.0</v>
       </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="36"/>
-      <c r="B177" s="36"/>
-      <c r="C177" s="36"/>
-      <c r="E177" s="36"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="36"/>
-      <c r="B178" s="36"/>
-      <c r="C178" s="36"/>
-      <c r="E178" s="36"/>
     </row>
     <row r="179">
       <c r="A179" s="36"/>
@@ -5001,10 +5033,22 @@
     <row r="183">
       <c r="A183" s="36"/>
       <c r="B183" s="36"/>
+      <c r="C183" s="36"/>
+      <c r="E183" s="36"/>
     </row>
     <row r="184">
       <c r="A184" s="36"/>
       <c r="B184" s="36"/>
+      <c r="C184" s="36"/>
+      <c r="E184" s="36"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="36"/>
+      <c r="B185" s="36"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="36"/>
+      <c r="B186" s="36"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="uO1Omat3fECjqtbmiXjYmoope32/n5+J6pMIfrw2hdA="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="fM6xYdvyhg+hNg84nk6G0GD5eeaPuagvC8Oi4FgZbQw="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="291">
   <si>
     <t>category</t>
   </si>
@@ -176,9 +176,6 @@
   </si>
   <si>
     <t>Americano</t>
-  </si>
-  <si>
-    <t>Dark Americano</t>
   </si>
   <si>
     <t>Cappuccino</t>
@@ -957,7 +954,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -990,11 +987,6 @@
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -1111,7 +1103,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1146,39 +1138,36 @@
     <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1991,7 +1980,7 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="10">
-        <v>120.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="27">
@@ -2010,106 +1999,104 @@
       <c r="G27" s="14"/>
       <c r="H27" s="13"/>
       <c r="I27" s="11">
-        <v>130.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="12" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="14"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="11">
-        <v>140.0</v>
+      <c r="I28" s="10">
+        <v>165.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="9" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="14"/>
       <c r="H29" s="13"/>
       <c r="I29" s="10">
-        <v>130.0</v>
+        <v>175.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="9"/>
+      <c r="B30" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="C30" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="14"/>
       <c r="H30" s="13"/>
       <c r="I30" s="10">
-        <v>135.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="14"/>
+        <v>56</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="16"/>
       <c r="H31" s="13"/>
       <c r="I31" s="10">
-        <v>150.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="9" t="s">
-        <v>56</v>
+      <c r="B32" s="9"/>
+      <c r="C32" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="14"/>
       <c r="H32" s="13"/>
       <c r="I32" s="10">
-        <v>135.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="33">
@@ -2118,36 +2105,36 @@
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="D33" s="17"/>
       <c r="E33" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="16"/>
+        <v>58</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="14"/>
       <c r="H33" s="13"/>
       <c r="I33" s="10">
-        <v>140.0</v>
+        <v>175.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="14"/>
       <c r="H34" s="13"/>
       <c r="I34" s="10">
-        <v>160.0</v>
+        <v>175.0</v>
       </c>
     </row>
     <row r="35">
@@ -2156,17 +2143,17 @@
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="F35" s="17"/>
       <c r="G35" s="14"/>
       <c r="H35" s="13"/>
       <c r="I35" s="10">
-        <v>160.0</v>
+        <v>190.0</v>
       </c>
     </row>
     <row r="36">
@@ -2174,39 +2161,41 @@
         <v>3</v>
       </c>
       <c r="B36" s="9"/>
-      <c r="C36" s="12" t="s">
-        <v>60</v>
+      <c r="C36" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="D36" s="17"/>
-      <c r="E36" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="10">
-        <v>160.0</v>
+      <c r="E36" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="10">
+        <v>140.0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>150.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>47</v>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="D37" s="17"/>
-      <c r="E37" s="18" t="s">
-        <v>47</v>
+      <c r="E37" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="F37" s="17"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="10">
-        <v>125.0</v>
+      <c r="G37" s="13"/>
+      <c r="H37" s="10">
+        <v>150.0</v>
+      </c>
+      <c r="I37" s="11">
+        <v>160.0</v>
       </c>
     </row>
     <row r="38">
@@ -2215,122 +2204,118 @@
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="9" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F38" s="17"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="10">
-        <v>125.0</v>
+      <c r="G38" s="13"/>
+      <c r="H38" s="10">
+        <v>150.0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>160.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="9" t="s">
-        <v>61</v>
+      <c r="A39" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="F39" s="17"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="10">
+        <v>60.0</v>
+      </c>
       <c r="I39" s="10">
-        <v>165.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="17"/>
+        <v>69</v>
+      </c>
+      <c r="D40" s="18"/>
       <c r="E40" s="9" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F40" s="17"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="10">
-        <v>115.0</v>
-      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="13"/>
       <c r="I40" s="11">
-        <v>125.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" s="17"/>
+        <v>71</v>
+      </c>
+      <c r="D41" s="18"/>
       <c r="E41" s="9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F41" s="17"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="10">
-        <v>125.0</v>
-      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="13"/>
       <c r="I41" s="11">
-        <v>130.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="17"/>
+        <v>73</v>
+      </c>
+      <c r="D42" s="18"/>
       <c r="E42" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="10">
-        <v>125.0</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="F42" s="18"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="13"/>
       <c r="I42" s="11">
-        <v>130.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="10">
-        <v>40.0</v>
-      </c>
-      <c r="I43" s="10">
-        <v>60.0</v>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="18"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="11">
+        <v>150.0</v>
       </c>
     </row>
     <row r="44">
@@ -2339,17 +2324,17 @@
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="19"/>
+        <v>77</v>
+      </c>
+      <c r="D44" s="7"/>
       <c r="E44" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="14"/>
+        <v>78</v>
+      </c>
+      <c r="F44" s="18"/>
+      <c r="G44" s="13"/>
       <c r="H44" s="13"/>
       <c r="I44" s="11">
-        <v>140.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="45">
@@ -2358,17 +2343,17 @@
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="19"/>
+        <v>79</v>
+      </c>
+      <c r="D45" s="7"/>
       <c r="E45" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F45" s="17"/>
+        <v>80</v>
+      </c>
+      <c r="F45" s="18"/>
       <c r="G45" s="14"/>
       <c r="H45" s="13"/>
       <c r="I45" s="11">
-        <v>140.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="46">
@@ -2377,18 +2362,19 @@
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F46" s="19"/>
+        <v>81</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" s="17"/>
       <c r="G46" s="14"/>
       <c r="H46" s="13"/>
       <c r="I46" s="11">
-        <v>140.0</v>
-      </c>
+        <v>130.0</v>
+      </c>
+      <c r="J46" s="19"/>
     </row>
     <row r="47">
       <c r="A47" s="9" t="s">
@@ -2396,150 +2382,150 @@
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D47" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="D47" s="17"/>
       <c r="E47" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F47" s="19"/>
+        <v>84</v>
+      </c>
+      <c r="F47" s="7"/>
       <c r="G47" s="14"/>
       <c r="H47" s="13"/>
       <c r="I47" s="11">
         <v>130.0</v>
       </c>
+      <c r="J47" s="19"/>
     </row>
     <row r="48">
       <c r="A48" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="9"/>
+      <c r="B48" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="C48" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="D48" s="17"/>
       <c r="E48" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F48" s="19"/>
-      <c r="G48" s="13"/>
+        <v>86</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="14"/>
       <c r="H48" s="13"/>
       <c r="I48" s="11">
         <v>130.0</v>
       </c>
+      <c r="J48" s="19"/>
     </row>
     <row r="49">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F49" s="19"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F49" s="7"/>
       <c r="G49" s="14"/>
       <c r="H49" s="13"/>
       <c r="I49" s="11">
-        <v>130.0</v>
-      </c>
+        <v>150.0</v>
+      </c>
+      <c r="J49" s="19"/>
     </row>
     <row r="50">
-      <c r="A50" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F50" s="17"/>
+      <c r="A50" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="17"/>
+      <c r="E50" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="7"/>
       <c r="G50" s="14"/>
       <c r="H50" s="13"/>
       <c r="I50" s="11">
-        <v>130.0</v>
-      </c>
-      <c r="J50" s="20"/>
+        <v>135.0</v>
+      </c>
+      <c r="J50" s="19"/>
     </row>
     <row r="51">
       <c r="A51" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="14"/>
       <c r="H51" s="13"/>
       <c r="I51" s="11">
-        <v>130.0</v>
-      </c>
-      <c r="J51" s="20"/>
+        <v>135.0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>28</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B52" s="9"/>
       <c r="C52" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="14"/>
       <c r="H52" s="13"/>
       <c r="I52" s="11">
-        <v>130.0</v>
-      </c>
-      <c r="J52" s="20"/>
+        <v>135.0</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="12" t="s">
-        <v>88</v>
+      <c r="A53" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="D53" s="17"/>
-      <c r="E53" s="12" t="s">
-        <v>88</v>
+      <c r="E53" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="14"/>
       <c r="H53" s="13"/>
       <c r="I53" s="11">
-        <v>150.0</v>
-      </c>
-      <c r="J53" s="20"/>
+        <v>135.0</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13" t="s">
-        <v>89</v>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="D54" s="17"/>
-      <c r="E54" s="13" t="s">
-        <v>89</v>
+      <c r="E54" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="14"/>
@@ -2547,7 +2533,6 @@
       <c r="I54" s="11">
         <v>135.0</v>
       </c>
-      <c r="J54" s="20"/>
     </row>
     <row r="55">
       <c r="A55" s="9" t="s">
@@ -2555,11 +2540,11 @@
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="14"/>
@@ -2574,13 +2559,13 @@
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D56" s="17"/>
+        <v>94</v>
+      </c>
+      <c r="D56" s="18"/>
       <c r="E56" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F56" s="7"/>
+        <v>94</v>
+      </c>
+      <c r="F56" s="18"/>
       <c r="G56" s="14"/>
       <c r="H56" s="13"/>
       <c r="I56" s="11">
@@ -2593,13 +2578,13 @@
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57" s="17"/>
+        <v>95</v>
+      </c>
+      <c r="D57" s="18"/>
       <c r="E57" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F57" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="F57" s="18"/>
       <c r="G57" s="14"/>
       <c r="H57" s="13"/>
       <c r="I57" s="11">
@@ -2611,14 +2596,14 @@
         <v>5</v>
       </c>
       <c r="B58" s="9"/>
-      <c r="C58" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F58" s="7"/>
+      <c r="C58" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" s="18"/>
+      <c r="E58" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F58" s="18"/>
       <c r="G58" s="14"/>
       <c r="H58" s="13"/>
       <c r="I58" s="11">
@@ -2626,155 +2611,157 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D59" s="17"/>
-      <c r="E59" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F59" s="7"/>
+      <c r="A59" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" s="18"/>
+      <c r="E59" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="18"/>
       <c r="G59" s="14"/>
       <c r="H59" s="13"/>
-      <c r="I59" s="11">
-        <v>135.0</v>
+      <c r="I59" s="10">
+        <v>150.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D60" s="19"/>
+        <v>99</v>
+      </c>
+      <c r="D60" s="18"/>
       <c r="E60" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F60" s="19"/>
+        <v>99</v>
+      </c>
+      <c r="F60" s="18"/>
       <c r="G60" s="14"/>
       <c r="H60" s="13"/>
-      <c r="I60" s="11">
-        <v>135.0</v>
+      <c r="I60" s="10">
+        <v>150.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D61" s="19"/>
+        <v>100</v>
+      </c>
+      <c r="D61" s="18"/>
       <c r="E61" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F61" s="19"/>
+        <v>100</v>
+      </c>
+      <c r="F61" s="18"/>
       <c r="G61" s="14"/>
       <c r="H61" s="13"/>
-      <c r="I61" s="11">
-        <v>135.0</v>
+      <c r="I61" s="10">
+        <v>170.0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D62" s="19"/>
-      <c r="E62" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F62" s="19"/>
+      <c r="A62" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D62" s="18"/>
+      <c r="E62" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F62" s="18"/>
       <c r="G62" s="14"/>
       <c r="H62" s="13"/>
       <c r="I62" s="11">
-        <v>135.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F63" s="19"/>
+      <c r="A63" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D63" s="18"/>
+      <c r="E63" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F63" s="18"/>
       <c r="G63" s="14"/>
       <c r="H63" s="13"/>
-      <c r="I63" s="10">
-        <v>150.0</v>
+      <c r="I63" s="11">
+        <v>135.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="C64" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D64" s="19"/>
+        <v>104</v>
+      </c>
+      <c r="D64" s="18"/>
       <c r="E64" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F64" s="19"/>
-      <c r="G64" s="14"/>
+        <v>104</v>
+      </c>
+      <c r="F64" s="18"/>
+      <c r="G64" s="21"/>
       <c r="H64" s="13"/>
       <c r="I64" s="10">
-        <v>150.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D65" s="19"/>
+        <v>105</v>
+      </c>
+      <c r="D65" s="18"/>
       <c r="E65" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F65" s="19"/>
-      <c r="G65" s="14"/>
+        <v>105</v>
+      </c>
+      <c r="F65" s="18"/>
+      <c r="G65" s="21"/>
       <c r="H65" s="13"/>
       <c r="I65" s="10">
-        <v>170.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D66" s="19"/>
-      <c r="E66" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F66" s="19"/>
-      <c r="G66" s="14"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D66" s="18"/>
+      <c r="E66" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F66" s="18"/>
+      <c r="G66" s="21"/>
       <c r="H66" s="13"/>
-      <c r="I66" s="11">
-        <v>130.0</v>
+      <c r="I66" s="10">
+        <v>160.0</v>
       </c>
     </row>
     <row r="67">
@@ -2783,54 +2770,52 @@
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D67" s="19"/>
+        <v>107</v>
+      </c>
+      <c r="D67" s="18"/>
       <c r="E67" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F67" s="19"/>
-      <c r="G67" s="14"/>
+        <v>107</v>
+      </c>
+      <c r="F67" s="18"/>
+      <c r="G67" s="21"/>
       <c r="H67" s="13"/>
-      <c r="I67" s="11">
-        <v>135.0</v>
+      <c r="I67" s="10">
+        <v>170.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="B68" s="9"/>
       <c r="C68" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D68" s="19"/>
+        <v>108</v>
+      </c>
+      <c r="D68" s="18"/>
       <c r="E68" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F68" s="19"/>
-      <c r="G68" s="22"/>
+        <v>108</v>
+      </c>
+      <c r="F68" s="18"/>
+      <c r="G68" s="21"/>
       <c r="H68" s="13"/>
       <c r="I68" s="10">
-        <v>140.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="9" t="s">
-        <v>8</v>
+      <c r="A69" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="B69" s="9"/>
-      <c r="C69" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D69" s="19"/>
-      <c r="E69" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F69" s="19"/>
-      <c r="G69" s="22"/>
+      <c r="C69" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D69" s="18"/>
+      <c r="E69" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F69" s="18"/>
+      <c r="G69" s="21"/>
       <c r="H69" s="13"/>
       <c r="I69" s="10">
         <v>145.0</v>
@@ -2840,19 +2825,21 @@
       <c r="A70" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="9"/>
+      <c r="B70" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="C70" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D70" s="19"/>
+        <v>112</v>
+      </c>
+      <c r="D70" s="18"/>
       <c r="E70" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F70" s="19"/>
-      <c r="G70" s="22"/>
+        <v>112</v>
+      </c>
+      <c r="F70" s="18"/>
+      <c r="G70" s="21"/>
       <c r="H70" s="13"/>
       <c r="I70" s="10">
-        <v>160.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="71">
@@ -2860,18 +2847,18 @@
         <v>8</v>
       </c>
       <c r="B71" s="9"/>
-      <c r="C71" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D71" s="19"/>
-      <c r="E71" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F71" s="19"/>
-      <c r="G71" s="22"/>
+      <c r="C71" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D71" s="18"/>
+      <c r="E71" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F71" s="18"/>
+      <c r="G71" s="21"/>
       <c r="H71" s="13"/>
       <c r="I71" s="10">
-        <v>170.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="72">
@@ -2879,132 +2866,130 @@
         <v>8</v>
       </c>
       <c r="B72" s="9"/>
-      <c r="C72" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D72" s="19"/>
-      <c r="E72" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F72" s="19"/>
-      <c r="G72" s="22"/>
+      <c r="C72" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D72" s="18"/>
+      <c r="E72" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F72" s="18"/>
+      <c r="G72" s="13"/>
       <c r="H72" s="13"/>
       <c r="I72" s="10">
-        <v>170.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B73" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="B73" s="13"/>
       <c r="C73" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D73" s="19"/>
+        <v>115</v>
+      </c>
+      <c r="D73" s="17"/>
       <c r="E73" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="F73" s="19"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="13"/>
+        <v>115</v>
+      </c>
+      <c r="F73" s="7"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="21"/>
       <c r="I73" s="10">
-        <v>145.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D74" s="19"/>
-      <c r="E74" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F74" s="19"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="13"/>
+      <c r="A74" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D74" s="17"/>
+      <c r="E74" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F74" s="7"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="21"/>
       <c r="I74" s="10">
-        <v>145.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75" s="9"/>
-      <c r="C75" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D75" s="19"/>
-      <c r="E75" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="F75" s="19"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="13"/>
+        <v>9</v>
+      </c>
+      <c r="B75" s="13"/>
+      <c r="C75" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D75" s="17"/>
+      <c r="E75" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F75" s="7"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="21"/>
       <c r="I75" s="10">
-        <v>180.0</v>
+        <v>195.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B76" s="9"/>
-      <c r="C76" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D76" s="19"/>
-      <c r="E76" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="F76" s="19"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
+      <c r="C76" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D76" s="17"/>
+      <c r="E76" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F76" s="7"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="21"/>
       <c r="I76" s="10">
         <v>180.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" s="13"/>
+        <v>9</v>
+      </c>
+      <c r="B77" s="9"/>
       <c r="C77" s="12" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D77" s="17"/>
       <c r="E77" s="12" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="14"/>
-      <c r="H77" s="22"/>
+      <c r="H77" s="21"/>
       <c r="I77" s="10">
-        <v>140.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13" t="s">
-        <v>117</v>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="D78" s="17"/>
-      <c r="E78" s="13" t="s">
-        <v>118</v>
+      <c r="E78" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="14"/>
-      <c r="H78" s="22"/>
+      <c r="H78" s="21"/>
       <c r="I78" s="10">
         <v>180.0</v>
       </c>
@@ -3013,76 +2998,78 @@
       <c r="A79" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B79" s="13"/>
-      <c r="C79" s="9" t="s">
-        <v>119</v>
+      <c r="B79" s="9"/>
+      <c r="C79" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="D79" s="17"/>
-      <c r="E79" s="9" t="s">
-        <v>119</v>
+      <c r="E79" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="14"/>
-      <c r="H79" s="22"/>
+      <c r="H79" s="21"/>
       <c r="I79" s="10">
-        <v>195.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="9"/>
-      <c r="C80" s="12" t="s">
-        <v>120</v>
+      <c r="B80" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="D80" s="17"/>
-      <c r="E80" s="12" t="s">
-        <v>121</v>
+      <c r="E80" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="14"/>
-      <c r="H80" s="22"/>
+      <c r="H80" s="13"/>
       <c r="I80" s="10">
-        <v>180.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B81" s="9"/>
-      <c r="C81" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D81" s="17"/>
-      <c r="E81" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F81" s="7"/>
+      <c r="C81" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D81" s="18"/>
+      <c r="E81" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F81" s="18"/>
       <c r="G81" s="14"/>
-      <c r="H81" s="22"/>
+      <c r="H81" s="21"/>
       <c r="I81" s="10">
         <v>180.0</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D82" s="17"/>
+        <v>129</v>
+      </c>
+      <c r="D82" s="18"/>
       <c r="E82" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F82" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="F82" s="18"/>
       <c r="G82" s="14"/>
-      <c r="H82" s="22"/>
+      <c r="H82" s="21"/>
       <c r="I82" s="10">
-        <v>180.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="83">
@@ -3090,96 +3077,94 @@
         <v>9</v>
       </c>
       <c r="B83" s="9"/>
-      <c r="C83" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D83" s="17"/>
-      <c r="E83" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F83" s="7"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="22"/>
+      <c r="C83" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D83" s="18"/>
+      <c r="E83" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F83" s="18"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="13"/>
       <c r="I83" s="10">
-        <v>170.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D84" s="17"/>
-      <c r="E84" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F84" s="7"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D84" s="18"/>
+      <c r="E84" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F84" s="18"/>
       <c r="G84" s="14"/>
       <c r="H84" s="13"/>
       <c r="I84" s="10">
-        <v>125.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B85" s="9"/>
-      <c r="C85" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D85" s="19"/>
-      <c r="E85" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F85" s="19"/>
+      <c r="C85" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D85" s="18"/>
+      <c r="E85" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F85" s="18"/>
       <c r="G85" s="14"/>
-      <c r="H85" s="22"/>
+      <c r="H85" s="13"/>
       <c r="I85" s="10">
-        <v>180.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B86" s="9"/>
-      <c r="C86" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D86" s="19"/>
-      <c r="E86" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F86" s="19"/>
+      <c r="C86" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D86" s="18"/>
+      <c r="E86" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F86" s="18"/>
       <c r="G86" s="14"/>
-      <c r="H86" s="22"/>
+      <c r="H86" s="13"/>
       <c r="I86" s="10">
         <v>150.0</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B87" s="9"/>
-      <c r="C87" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D87" s="19"/>
-      <c r="E87" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F87" s="19"/>
-      <c r="G87" s="22"/>
+      <c r="C87" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D87" s="18"/>
+      <c r="E87" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F87" s="18"/>
+      <c r="G87" s="14"/>
       <c r="H87" s="13"/>
-      <c r="I87" s="10">
-        <v>160.0</v>
+      <c r="I87" s="11">
+        <v>150.0</v>
       </c>
     </row>
     <row r="88">
@@ -3188,16 +3173,16 @@
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D88" s="19"/>
+        <v>136</v>
+      </c>
+      <c r="D88" s="18"/>
       <c r="E88" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="F88" s="19"/>
+        <v>136</v>
+      </c>
+      <c r="F88" s="18"/>
       <c r="G88" s="14"/>
       <c r="H88" s="13"/>
-      <c r="I88" s="10">
+      <c r="I88" s="11">
         <v>150.0</v>
       </c>
     </row>
@@ -3207,35 +3192,35 @@
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D89" s="19"/>
+        <v>137</v>
+      </c>
+      <c r="D89" s="18"/>
       <c r="E89" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F89" s="19"/>
+        <v>137</v>
+      </c>
+      <c r="F89" s="18"/>
       <c r="G89" s="14"/>
       <c r="H89" s="13"/>
-      <c r="I89" s="10">
+      <c r="I89" s="11">
         <v>150.0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D90" s="19"/>
+        <v>138</v>
+      </c>
+      <c r="D90" s="18"/>
       <c r="E90" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="F90" s="19"/>
+        <v>138</v>
+      </c>
+      <c r="F90" s="18"/>
       <c r="G90" s="14"/>
       <c r="H90" s="13"/>
-      <c r="I90" s="10">
+      <c r="I90" s="11">
         <v>150.0</v>
       </c>
     </row>
@@ -3245,13 +3230,13 @@
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D91" s="19"/>
+        <v>139</v>
+      </c>
+      <c r="D91" s="18"/>
       <c r="E91" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="F91" s="19"/>
+        <v>139</v>
+      </c>
+      <c r="F91" s="18"/>
       <c r="G91" s="14"/>
       <c r="H91" s="13"/>
       <c r="I91" s="11">
@@ -3264,17 +3249,17 @@
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D92" s="19"/>
+        <v>140</v>
+      </c>
+      <c r="D92" s="18"/>
       <c r="E92" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F92" s="19"/>
+        <v>140</v>
+      </c>
+      <c r="F92" s="18"/>
       <c r="G92" s="14"/>
       <c r="H92" s="13"/>
       <c r="I92" s="11">
-        <v>150.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="93">
@@ -3283,17 +3268,17 @@
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D93" s="19"/>
+        <v>141</v>
+      </c>
+      <c r="D93" s="18"/>
       <c r="E93" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="F93" s="19"/>
+        <v>141</v>
+      </c>
+      <c r="F93" s="18"/>
       <c r="G93" s="14"/>
       <c r="H93" s="13"/>
       <c r="I93" s="11">
-        <v>150.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="94">
@@ -3302,32 +3287,32 @@
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D94" s="19"/>
+        <v>142</v>
+      </c>
+      <c r="D94" s="18"/>
       <c r="E94" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F94" s="19"/>
+        <v>142</v>
+      </c>
+      <c r="F94" s="18"/>
       <c r="G94" s="14"/>
       <c r="H94" s="13"/>
       <c r="I94" s="11">
-        <v>150.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="12" t="s">
+      <c r="A95" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B95" s="9"/>
-      <c r="C95" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D95" s="19"/>
-      <c r="E95" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="F95" s="19"/>
+      <c r="C95" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D95" s="18"/>
+      <c r="E95" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F95" s="18"/>
       <c r="G95" s="14"/>
       <c r="H95" s="13"/>
       <c r="I95" s="11">
@@ -3335,334 +3320,336 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="12" t="s">
+      <c r="A96" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B96" s="9"/>
-      <c r="C96" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D96" s="19"/>
-      <c r="E96" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F96" s="19"/>
+      <c r="B96" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D96" s="18"/>
+      <c r="E96" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F96" s="18"/>
       <c r="G96" s="14"/>
       <c r="H96" s="13"/>
       <c r="I96" s="11">
-        <v>130.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="12" t="s">
+      <c r="A97" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B97" s="9"/>
-      <c r="C97" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D97" s="19"/>
-      <c r="E97" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F97" s="19"/>
+      <c r="B97" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D97" s="18"/>
+      <c r="E97" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F97" s="18"/>
       <c r="G97" s="14"/>
       <c r="H97" s="13"/>
-      <c r="I97" s="11">
-        <v>130.0</v>
+      <c r="I97" s="10">
+        <v>110.0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="12" t="s">
+      <c r="A98" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B98" s="9"/>
-      <c r="C98" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D98" s="19"/>
-      <c r="E98" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="F98" s="19"/>
+      <c r="C98" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D98" s="18"/>
+      <c r="E98" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F98" s="18"/>
       <c r="G98" s="14"/>
       <c r="H98" s="13"/>
-      <c r="I98" s="11">
-        <v>130.0</v>
+      <c r="I98" s="10">
+        <v>150.0</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D99" s="19"/>
-      <c r="E99" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="F99" s="19"/>
+      <c r="A99" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="13"/>
+      <c r="C99" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D99" s="18"/>
+      <c r="E99" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F99" s="18"/>
       <c r="G99" s="14"/>
-      <c r="H99" s="13"/>
+      <c r="H99" s="10"/>
       <c r="I99" s="11">
-        <v>150.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D100" s="19"/>
+        <v>150</v>
+      </c>
+      <c r="D100" s="18"/>
       <c r="E100" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F100" s="19"/>
+        <v>150</v>
+      </c>
+      <c r="F100" s="18"/>
       <c r="G100" s="14"/>
       <c r="H100" s="13"/>
       <c r="I100" s="11">
-        <v>125.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D101" s="19"/>
+        <v>151</v>
+      </c>
+      <c r="D101" s="18"/>
       <c r="E101" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F101" s="19"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="10">
-        <v>110.0</v>
+        <v>151</v>
+      </c>
+      <c r="F101" s="18"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="11">
+        <v>85.0</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="9" t="s">
-        <v>9</v>
+      <c r="A102" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="B102" s="9"/>
-      <c r="C102" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D102" s="19"/>
-      <c r="E102" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F102" s="19"/>
+      <c r="C102" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D102" s="18"/>
+      <c r="E102" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F102" s="18"/>
       <c r="G102" s="14"/>
       <c r="H102" s="13"/>
-      <c r="I102" s="10">
-        <v>150.0</v>
+      <c r="I102" s="11">
+        <v>75.0</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="13" t="s">
+      <c r="A103" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B103" s="13"/>
-      <c r="C103" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D103" s="19"/>
-      <c r="E103" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F103" s="19"/>
+      <c r="B103" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D103" s="18"/>
+      <c r="E103" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F103" s="18"/>
       <c r="G103" s="14"/>
-      <c r="H103" s="10"/>
+      <c r="H103" s="13"/>
       <c r="I103" s="11">
-        <v>80.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B104" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="B104" s="9"/>
       <c r="C104" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D104" s="19"/>
+        <v>155</v>
+      </c>
+      <c r="D104" s="18"/>
       <c r="E104" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F104" s="19"/>
+        <v>156</v>
+      </c>
+      <c r="F104" s="18"/>
       <c r="G104" s="14"/>
       <c r="H104" s="13"/>
       <c r="I104" s="11">
-        <v>85.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B105" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="B105" s="9"/>
       <c r="C105" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D105" s="19"/>
+        <v>157</v>
+      </c>
+      <c r="D105" s="18"/>
       <c r="E105" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F105" s="19"/>
+        <v>158</v>
+      </c>
+      <c r="F105" s="18"/>
       <c r="G105" s="13"/>
-      <c r="H105" s="10"/>
+      <c r="H105" s="13"/>
       <c r="I105" s="11">
-        <v>85.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="12" t="s">
+      <c r="A106" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B106" s="9"/>
-      <c r="C106" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D106" s="19"/>
-      <c r="E106" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="F106" s="19"/>
-      <c r="G106" s="14"/>
+      <c r="C106" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D106" s="18"/>
+      <c r="E106" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F106" s="18"/>
+      <c r="G106" s="13"/>
       <c r="H106" s="13"/>
       <c r="I106" s="11">
-        <v>75.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B107" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="B107" s="9"/>
       <c r="C107" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D107" s="19"/>
+        <v>160</v>
+      </c>
+      <c r="D107" s="18"/>
       <c r="E107" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F107" s="19"/>
-      <c r="G107" s="14"/>
+        <v>161</v>
+      </c>
+      <c r="F107" s="7"/>
+      <c r="G107" s="13"/>
       <c r="H107" s="13"/>
       <c r="I107" s="11">
-        <v>70.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D108" s="19"/>
-      <c r="E108" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F108" s="19"/>
-      <c r="G108" s="14"/>
+      <c r="A108" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D108" s="18"/>
+      <c r="E108" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F108" s="18"/>
+      <c r="G108" s="13"/>
       <c r="H108" s="13"/>
-      <c r="I108" s="11">
-        <v>70.0</v>
+      <c r="I108" s="10">
+        <v>185.0</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B109" s="9"/>
+      <c r="A109" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" s="7"/>
       <c r="C109" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D109" s="19"/>
+        <v>164</v>
+      </c>
+      <c r="D109" s="17"/>
       <c r="E109" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F109" s="19"/>
+        <v>164</v>
+      </c>
+      <c r="F109" s="18"/>
       <c r="G109" s="13"/>
       <c r="H109" s="13"/>
-      <c r="I109" s="11">
-        <v>70.0</v>
+      <c r="I109" s="10">
+        <v>185.0</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B110" s="9"/>
+      <c r="A110" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C110" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D110" s="19"/>
+        <v>165</v>
+      </c>
+      <c r="D110" s="18"/>
       <c r="E110" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="F110" s="19"/>
+        <v>165</v>
+      </c>
+      <c r="F110" s="18"/>
       <c r="G110" s="13"/>
       <c r="H110" s="13"/>
-      <c r="I110" s="11">
-        <v>60.0</v>
+      <c r="I110" s="10">
+        <v>185.0</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B111" s="9"/>
+      <c r="A111" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" s="7"/>
       <c r="C111" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D111" s="19"/>
+        <v>166</v>
+      </c>
+      <c r="D111" s="18"/>
       <c r="E111" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F111" s="7"/>
+        <v>167</v>
+      </c>
+      <c r="F111" s="18"/>
       <c r="G111" s="13"/>
       <c r="H111" s="13"/>
-      <c r="I111" s="11">
-        <v>50.0</v>
+      <c r="I111" s="10">
+        <v>185.0</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="23" t="s">
+      <c r="A112" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B112" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D112" s="19"/>
-      <c r="E112" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="F112" s="19"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D112" s="18"/>
+      <c r="E112" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F112" s="18"/>
       <c r="G112" s="13"/>
       <c r="H112" s="13"/>
       <c r="I112" s="10">
@@ -3670,58 +3657,56 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B113" s="7"/>
-      <c r="C113" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D113" s="17"/>
-      <c r="E113" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="F113" s="19"/>
+      <c r="C113" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D113" s="18"/>
+      <c r="E113" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F113" s="18"/>
       <c r="G113" s="13"/>
       <c r="H113" s="13"/>
       <c r="I113" s="10">
-        <v>185.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B114" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="D114" s="19"/>
-      <c r="E114" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F114" s="19"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D114" s="18"/>
+      <c r="E114" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F114" s="18"/>
       <c r="G114" s="13"/>
       <c r="H114" s="13"/>
       <c r="I114" s="10">
-        <v>185.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B115" s="7"/>
-      <c r="C115" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D115" s="19"/>
-      <c r="E115" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="F115" s="19"/>
+      <c r="C115" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D115" s="18"/>
+      <c r="E115" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F115" s="18"/>
       <c r="G115" s="13"/>
       <c r="H115" s="13"/>
       <c r="I115" s="10">
@@ -3729,18 +3714,18 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="7" t="s">
+      <c r="A116" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B116" s="7"/>
-      <c r="C116" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D116" s="19"/>
-      <c r="E116" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F116" s="19"/>
+      <c r="C116" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D116" s="18"/>
+      <c r="E116" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F116" s="18"/>
       <c r="G116" s="13"/>
       <c r="H116" s="13"/>
       <c r="I116" s="10">
@@ -3748,116 +3733,116 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="24" t="s">
+      <c r="A117" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B117" s="7"/>
       <c r="C117" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D117" s="19"/>
+        <v>178</v>
+      </c>
+      <c r="D117" s="18"/>
       <c r="E117" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="F117" s="19"/>
+        <v>179</v>
+      </c>
+      <c r="F117" s="18"/>
       <c r="G117" s="13"/>
       <c r="H117" s="13"/>
       <c r="I117" s="10">
-        <v>220.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B118" s="7"/>
-      <c r="C118" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D118" s="19"/>
-      <c r="E118" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="F118" s="19"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="13"/>
-      <c r="I118" s="10">
-        <v>240.0</v>
+      <c r="A118" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D118" s="18"/>
+      <c r="E118" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F118" s="18"/>
+      <c r="G118" s="21"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="11">
+        <v>215.0</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B119" s="7"/>
-      <c r="C119" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D119" s="19"/>
-      <c r="E119" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="F119" s="19"/>
-      <c r="G119" s="13"/>
-      <c r="H119" s="13"/>
-      <c r="I119" s="10">
-        <v>185.0</v>
+      <c r="A119" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119" s="22"/>
+      <c r="C119" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D119" s="18"/>
+      <c r="E119" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F119" s="18"/>
+      <c r="G119" s="21"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="11">
+        <v>230.0</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B120" s="7"/>
-      <c r="C120" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D120" s="19"/>
-      <c r="E120" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F120" s="19"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="10">
-        <v>185.0</v>
+      <c r="A120" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" s="22"/>
+      <c r="C120" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D120" s="18"/>
+      <c r="E120" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F120" s="18"/>
+      <c r="G120" s="21"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="11">
+        <v>230.0</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="24" t="s">
-        <v>12</v>
+      <c r="A121" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="B121" s="7"/>
-      <c r="C121" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="D121" s="19"/>
-      <c r="E121" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="F121" s="19"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="10">
-        <v>110.0</v>
+      <c r="C121" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D121" s="18"/>
+      <c r="E121" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F121" s="7"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="11">
+        <v>215.0</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="23" t="s">
+      <c r="A122" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B122" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C122" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="D122" s="19"/>
-      <c r="E122" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="F122" s="19"/>
-      <c r="G122" s="22"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D122" s="18"/>
+      <c r="E122" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F122" s="7"/>
+      <c r="G122" s="21"/>
       <c r="H122" s="14"/>
       <c r="I122" s="11">
         <v>215.0</v>
@@ -3867,16 +3852,16 @@
       <c r="A123" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B123" s="23"/>
-      <c r="C123" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D123" s="19"/>
-      <c r="E123" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="F123" s="19"/>
-      <c r="G123" s="22"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D123" s="18"/>
+      <c r="E123" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="F123" s="18"/>
+      <c r="G123" s="21"/>
       <c r="H123" s="14"/>
       <c r="I123" s="11">
         <v>230.0</v>
@@ -3886,16 +3871,18 @@
       <c r="A124" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B124" s="23"/>
-      <c r="C124" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D124" s="19"/>
-      <c r="E124" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="F124" s="19"/>
-      <c r="G124" s="22"/>
+      <c r="B124" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D124" s="18"/>
+      <c r="E124" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F124" s="18"/>
+      <c r="G124" s="21"/>
       <c r="H124" s="14"/>
       <c r="I124" s="11">
         <v>230.0</v>
@@ -3905,19 +3892,21 @@
       <c r="A125" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B125" s="7"/>
+      <c r="B125" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C125" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="D125" s="19"/>
+        <v>194</v>
+      </c>
+      <c r="D125" s="18"/>
       <c r="E125" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="F125" s="7"/>
-      <c r="G125" s="22"/>
+        <v>195</v>
+      </c>
+      <c r="F125" s="18"/>
+      <c r="G125" s="21"/>
       <c r="H125" s="14"/>
       <c r="I125" s="11">
-        <v>215.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="126">
@@ -3926,17 +3915,17 @@
       </c>
       <c r="B126" s="7"/>
       <c r="C126" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D126" s="19"/>
+        <v>196</v>
+      </c>
+      <c r="D126" s="18"/>
       <c r="E126" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="F126" s="7"/>
-      <c r="G126" s="22"/>
+        <v>197</v>
+      </c>
+      <c r="F126" s="18"/>
+      <c r="G126" s="21"/>
       <c r="H126" s="14"/>
       <c r="I126" s="11">
-        <v>215.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="127">
@@ -3945,35 +3934,33 @@
       </c>
       <c r="B127" s="7"/>
       <c r="C127" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D127" s="19"/>
+        <v>198</v>
+      </c>
+      <c r="D127" s="18"/>
       <c r="E127" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="F127" s="19"/>
-      <c r="G127" s="22"/>
+        <v>199</v>
+      </c>
+      <c r="F127" s="18"/>
+      <c r="G127" s="21"/>
       <c r="H127" s="14"/>
       <c r="I127" s="11">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B128" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B128" s="7"/>
       <c r="C128" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D128" s="19"/>
+        <v>200</v>
+      </c>
+      <c r="D128" s="7"/>
       <c r="E128" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="F128" s="19"/>
-      <c r="G128" s="22"/>
+        <v>201</v>
+      </c>
+      <c r="F128" s="7"/>
+      <c r="G128" s="21"/>
       <c r="H128" s="14"/>
       <c r="I128" s="11">
         <v>230.0</v>
@@ -3983,18 +3970,16 @@
       <c r="A129" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B129" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B129" s="7"/>
       <c r="C129" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D129" s="19"/>
+        <v>202</v>
+      </c>
+      <c r="D129" s="7"/>
       <c r="E129" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="F129" s="19"/>
-      <c r="G129" s="22"/>
+        <v>203</v>
+      </c>
+      <c r="F129" s="7"/>
+      <c r="G129" s="21"/>
       <c r="H129" s="14"/>
       <c r="I129" s="11">
         <v>220.0</v>
@@ -4006,17 +3991,17 @@
       </c>
       <c r="B130" s="7"/>
       <c r="C130" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D130" s="19"/>
-      <c r="E130" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="F130" s="19"/>
-      <c r="G130" s="22"/>
+        <v>204</v>
+      </c>
+      <c r="D130" s="7"/>
+      <c r="E130" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F130" s="7"/>
+      <c r="G130" s="21"/>
       <c r="H130" s="14"/>
       <c r="I130" s="11">
-        <v>220.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="131">
@@ -4025,14 +4010,14 @@
       </c>
       <c r="B131" s="7"/>
       <c r="C131" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D131" s="19"/>
-      <c r="E131" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="F131" s="19"/>
-      <c r="G131" s="22"/>
+        <v>206</v>
+      </c>
+      <c r="D131" s="7"/>
+      <c r="E131" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F131" s="7"/>
+      <c r="G131" s="21"/>
       <c r="H131" s="14"/>
       <c r="I131" s="11">
         <v>220.0</v>
@@ -4044,17 +4029,17 @@
       </c>
       <c r="B132" s="7"/>
       <c r="C132" s="9" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D132" s="7"/>
       <c r="E132" s="12" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F132" s="7"/>
-      <c r="G132" s="22"/>
+      <c r="G132" s="21"/>
       <c r="H132" s="14"/>
       <c r="I132" s="11">
-        <v>230.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="133">
@@ -4063,36 +4048,38 @@
       </c>
       <c r="B133" s="7"/>
       <c r="C133" s="9" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D133" s="7"/>
-      <c r="E133" s="9" t="s">
-        <v>204</v>
+      <c r="E133" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="F133" s="7"/>
-      <c r="G133" s="22"/>
+      <c r="G133" s="21"/>
       <c r="H133" s="14"/>
       <c r="I133" s="11">
-        <v>220.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B134" s="7"/>
+      <c r="B134" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C134" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D134" s="7"/>
+        <v>212</v>
+      </c>
+      <c r="D134" s="18"/>
       <c r="E134" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="F134" s="7"/>
-      <c r="G134" s="22"/>
+        <v>213</v>
+      </c>
+      <c r="F134" s="18"/>
+      <c r="G134" s="21"/>
       <c r="H134" s="14"/>
       <c r="I134" s="11">
-        <v>215.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="135">
@@ -4101,17 +4088,17 @@
       </c>
       <c r="B135" s="7"/>
       <c r="C135" s="9" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D135" s="7"/>
       <c r="E135" s="9" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F135" s="7"/>
-      <c r="G135" s="22"/>
+      <c r="G135" s="21"/>
       <c r="H135" s="14"/>
       <c r="I135" s="11">
-        <v>220.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="136">
@@ -4120,54 +4107,54 @@
       </c>
       <c r="B136" s="7"/>
       <c r="C136" s="9" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D136" s="7"/>
-      <c r="E136" s="12" t="s">
-        <v>210</v>
+      <c r="E136" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="F136" s="7"/>
-      <c r="G136" s="22"/>
+      <c r="G136" s="21"/>
       <c r="H136" s="14"/>
       <c r="I136" s="11">
-        <v>210.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B137" s="7"/>
+      <c r="B137" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C137" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="D137" s="7"/>
+        <v>218</v>
+      </c>
+      <c r="D137" s="18"/>
       <c r="E137" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="F137" s="7"/>
-      <c r="G137" s="22"/>
+        <v>219</v>
+      </c>
+      <c r="F137" s="18"/>
+      <c r="G137" s="21"/>
       <c r="H137" s="14"/>
       <c r="I137" s="11">
-        <v>80.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B138" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B138" s="7"/>
       <c r="C138" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="D138" s="19"/>
+        <v>220</v>
+      </c>
+      <c r="D138" s="18"/>
       <c r="E138" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="F138" s="19"/>
-      <c r="G138" s="22"/>
+        <v>221</v>
+      </c>
+      <c r="F138" s="18"/>
+      <c r="G138" s="21"/>
       <c r="H138" s="14"/>
       <c r="I138" s="11">
         <v>220.0</v>
@@ -4177,19 +4164,21 @@
       <c r="A139" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B139" s="7"/>
+      <c r="B139" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C139" s="9" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="9" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F139" s="7"/>
-      <c r="G139" s="22"/>
+      <c r="G139" s="21"/>
       <c r="H139" s="14"/>
       <c r="I139" s="11">
-        <v>160.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="140">
@@ -4198,78 +4187,76 @@
       </c>
       <c r="B140" s="7"/>
       <c r="C140" s="9" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D140" s="7"/>
       <c r="E140" s="9" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F140" s="7"/>
-      <c r="G140" s="22"/>
+      <c r="G140" s="21"/>
       <c r="H140" s="14"/>
       <c r="I140" s="11">
-        <v>70.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B141" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B141" s="7"/>
       <c r="C141" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="D141" s="19"/>
-      <c r="E141" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="F141" s="19"/>
-      <c r="G141" s="22"/>
+        <v>225</v>
+      </c>
+      <c r="D141" s="18"/>
+      <c r="E141" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="F141" s="18"/>
+      <c r="G141" s="21"/>
       <c r="H141" s="14"/>
       <c r="I141" s="11">
-        <v>220.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B142" s="7"/>
+      <c r="B142" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C142" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="D142" s="19"/>
+        <v>226</v>
+      </c>
+      <c r="D142" s="18"/>
       <c r="E142" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="F142" s="19"/>
-      <c r="G142" s="22"/>
+        <v>227</v>
+      </c>
+      <c r="F142" s="18"/>
+      <c r="G142" s="21"/>
       <c r="H142" s="14"/>
       <c r="I142" s="11">
-        <v>220.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B143" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B143" s="7"/>
       <c r="C143" s="9" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D143" s="7"/>
       <c r="E143" s="9" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F143" s="7"/>
-      <c r="G143" s="22"/>
+      <c r="G143" s="21"/>
       <c r="H143" s="14"/>
       <c r="I143" s="11">
-        <v>220.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="144">
@@ -4278,17 +4265,17 @@
       </c>
       <c r="B144" s="7"/>
       <c r="C144" s="9" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D144" s="7"/>
       <c r="E144" s="9" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F144" s="7"/>
-      <c r="G144" s="22"/>
+      <c r="G144" s="21"/>
       <c r="H144" s="14"/>
       <c r="I144" s="11">
-        <v>185.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="145">
@@ -4297,14 +4284,14 @@
       </c>
       <c r="B145" s="7"/>
       <c r="C145" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D145" s="19"/>
+        <v>232</v>
+      </c>
+      <c r="D145" s="7"/>
       <c r="E145" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F145" s="19"/>
-      <c r="G145" s="22"/>
+        <v>233</v>
+      </c>
+      <c r="F145" s="7"/>
+      <c r="G145" s="21"/>
       <c r="H145" s="14"/>
       <c r="I145" s="11">
         <v>185.0</v>
@@ -4314,487 +4301,485 @@
       <c r="A146" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B146" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B146" s="7"/>
       <c r="C146" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="D146" s="19"/>
+        <v>234</v>
+      </c>
+      <c r="D146" s="7"/>
       <c r="E146" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="F146" s="19"/>
-      <c r="G146" s="22"/>
+        <v>235</v>
+      </c>
+      <c r="F146" s="7"/>
+      <c r="G146" s="21"/>
       <c r="H146" s="14"/>
       <c r="I146" s="11">
-        <v>185.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B147" s="7"/>
-      <c r="C147" s="9" t="s">
-        <v>229</v>
+      <c r="A147" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B147" s="22"/>
+      <c r="C147" s="13" t="s">
+        <v>236</v>
       </c>
       <c r="D147" s="7"/>
-      <c r="E147" s="9" t="s">
-        <v>230</v>
+      <c r="E147" s="13" t="s">
+        <v>237</v>
       </c>
       <c r="F147" s="7"/>
-      <c r="G147" s="22"/>
+      <c r="G147" s="21"/>
       <c r="H147" s="14"/>
       <c r="I147" s="11">
-        <v>185.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B148" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C148" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="D148" s="7"/>
+        <v>238</v>
+      </c>
+      <c r="D148" s="18"/>
       <c r="E148" s="9" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F148" s="7"/>
-      <c r="G148" s="22"/>
+      <c r="G148" s="21"/>
       <c r="H148" s="14"/>
       <c r="I148" s="11">
-        <v>200.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B149" s="7"/>
-      <c r="C149" s="9" t="s">
-        <v>233</v>
+      <c r="C149" s="12" t="s">
+        <v>240</v>
       </c>
       <c r="D149" s="7"/>
-      <c r="E149" s="9" t="s">
-        <v>234</v>
+      <c r="E149" s="12" t="s">
+        <v>241</v>
       </c>
       <c r="F149" s="7"/>
-      <c r="G149" s="22"/>
+      <c r="G149" s="21"/>
       <c r="H149" s="14"/>
       <c r="I149" s="11">
-        <v>185.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B150" s="7"/>
-      <c r="C150" s="9" t="s">
-        <v>235</v>
+      <c r="A150" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B150" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>242</v>
       </c>
       <c r="D150" s="7"/>
-      <c r="E150" s="9" t="s">
-        <v>236</v>
+      <c r="E150" s="13" t="s">
+        <v>243</v>
       </c>
       <c r="F150" s="7"/>
-      <c r="G150" s="22"/>
+      <c r="G150" s="21"/>
       <c r="H150" s="14"/>
       <c r="I150" s="11">
-        <v>80.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B151" s="23"/>
+      <c r="A151" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B151" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="C151" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="D151" s="7"/>
-      <c r="E151" s="13" t="s">
-        <v>238</v>
+        <v>244</v>
+      </c>
+      <c r="D151" s="18"/>
+      <c r="E151" s="10" t="s">
+        <v>245</v>
       </c>
       <c r="F151" s="7"/>
-      <c r="G151" s="22"/>
+      <c r="G151" s="21"/>
       <c r="H151" s="14"/>
       <c r="I151" s="11">
-        <v>120.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="D152" s="19"/>
-      <c r="E152" s="9" t="s">
-        <v>240</v>
+        <v>246</v>
+      </c>
+      <c r="D152" s="18"/>
+      <c r="E152" s="12" t="s">
+        <v>247</v>
       </c>
       <c r="F152" s="7"/>
-      <c r="G152" s="22"/>
+      <c r="G152" s="21"/>
       <c r="H152" s="14"/>
       <c r="I152" s="11">
-        <v>130.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B153" s="7"/>
-      <c r="C153" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="D153" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D153" s="18"/>
       <c r="E153" s="12" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F153" s="7"/>
-      <c r="G153" s="22"/>
+      <c r="G153" s="21"/>
       <c r="H153" s="14"/>
       <c r="I153" s="11">
-        <v>30.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B154" s="23" t="s">
+      <c r="A154" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B154" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C154" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="D154" s="7"/>
-      <c r="E154" s="13" t="s">
-        <v>244</v>
+      <c r="C154" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D154" s="18"/>
+      <c r="E154" s="9" t="s">
+        <v>251</v>
       </c>
       <c r="F154" s="7"/>
-      <c r="G154" s="22"/>
+      <c r="G154" s="21"/>
       <c r="H154" s="14"/>
       <c r="I154" s="11">
-        <v>150.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="23" t="s">
+      <c r="A155" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B155" s="23" t="s">
+      <c r="B155" s="25"/>
+      <c r="C155" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="D155" s="27"/>
+      <c r="E155" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="F155" s="27"/>
+      <c r="G155" s="21"/>
+      <c r="H155" s="21"/>
+      <c r="I155" s="11">
+        <v>50.0</v>
+      </c>
+      <c r="J155" s="29"/>
+      <c r="K155" s="29"/>
+      <c r="L155" s="29"/>
+      <c r="M155" s="29"/>
+      <c r="N155" s="29"/>
+      <c r="O155" s="29"/>
+      <c r="P155" s="29"/>
+      <c r="Q155" s="29"/>
+      <c r="R155" s="29"/>
+      <c r="S155" s="29"/>
+      <c r="T155" s="29"/>
+      <c r="U155" s="29"/>
+      <c r="V155" s="29"/>
+      <c r="W155" s="29"/>
+      <c r="X155" s="29"/>
+      <c r="Y155" s="29"/>
+      <c r="Z155" s="29"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B156" s="25"/>
+      <c r="C156" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="D156" s="27"/>
+      <c r="E156" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="F156" s="27"/>
+      <c r="G156" s="21"/>
+      <c r="H156" s="21"/>
+      <c r="I156" s="11">
+        <v>165.0</v>
+      </c>
+      <c r="J156" s="29"/>
+      <c r="K156" s="29"/>
+      <c r="L156" s="29"/>
+      <c r="M156" s="29"/>
+      <c r="N156" s="29"/>
+      <c r="O156" s="29"/>
+      <c r="P156" s="29"/>
+      <c r="Q156" s="29"/>
+      <c r="R156" s="29"/>
+      <c r="S156" s="29"/>
+      <c r="T156" s="29"/>
+      <c r="U156" s="29"/>
+      <c r="V156" s="29"/>
+      <c r="W156" s="29"/>
+      <c r="X156" s="29"/>
+      <c r="Y156" s="29"/>
+      <c r="Z156" s="29"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B157" s="31"/>
+      <c r="C157" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="D157" s="32"/>
+      <c r="E157" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="F157" s="32"/>
+      <c r="G157" s="22"/>
+      <c r="H157" s="22"/>
+      <c r="I157" s="11">
+        <v>165.0</v>
+      </c>
+      <c r="J157" s="33"/>
+      <c r="K157" s="33"/>
+      <c r="L157" s="33"/>
+      <c r="M157" s="33"/>
+      <c r="N157" s="33"/>
+      <c r="O157" s="33"/>
+      <c r="P157" s="33"/>
+      <c r="Q157" s="33"/>
+      <c r="R157" s="33"/>
+      <c r="S157" s="33"/>
+      <c r="T157" s="33"/>
+      <c r="U157" s="33"/>
+      <c r="V157" s="33"/>
+      <c r="W157" s="33"/>
+      <c r="X157" s="33"/>
+      <c r="Y157" s="33"/>
+      <c r="Z157" s="33"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B158" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C155" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="D155" s="19"/>
-      <c r="E155" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="F155" s="7"/>
-      <c r="G155" s="22"/>
-      <c r="H155" s="14"/>
-      <c r="I155" s="11">
-        <v>260.0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C156" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="D156" s="19"/>
-      <c r="E156" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="F156" s="7"/>
-      <c r="G156" s="22"/>
-      <c r="H156" s="14"/>
-      <c r="I156" s="11">
-        <v>210.0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C157" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D157" s="19"/>
-      <c r="E157" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="F157" s="7"/>
-      <c r="G157" s="22"/>
-      <c r="H157" s="14"/>
-      <c r="I157" s="11">
-        <v>210.0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C158" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="D158" s="19"/>
-      <c r="E158" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="F158" s="7"/>
-      <c r="G158" s="22"/>
+      <c r="C158" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D158" s="18"/>
+      <c r="E158" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="F158" s="18"/>
+      <c r="G158" s="21"/>
       <c r="H158" s="14"/>
       <c r="I158" s="11">
-        <v>210.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B159" s="26"/>
-      <c r="C159" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="D159" s="28"/>
-      <c r="E159" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="F159" s="28"/>
-      <c r="G159" s="22"/>
-      <c r="H159" s="22"/>
+      <c r="A159" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D159" s="7"/>
+      <c r="E159" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F159" s="7"/>
+      <c r="G159" s="21"/>
+      <c r="H159" s="14"/>
       <c r="I159" s="11">
+        <v>250.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B160" s="9"/>
+      <c r="C160" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D160" s="7"/>
+      <c r="E160" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F160" s="7"/>
+      <c r="G160" s="21"/>
+      <c r="H160" s="14"/>
+      <c r="I160" s="11">
+        <v>155.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B161" s="22"/>
+      <c r="C161" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D161" s="7"/>
+      <c r="E161" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="F161" s="7"/>
+      <c r="G161" s="21"/>
+      <c r="H161" s="14"/>
+      <c r="I161" s="14">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B162" s="22"/>
+      <c r="C162" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D162" s="7"/>
+      <c r="E162" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="F162" s="7"/>
+      <c r="G162" s="21"/>
+      <c r="H162" s="11"/>
+      <c r="I162" s="11">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B163" s="7"/>
+      <c r="C163" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D163" s="18"/>
+      <c r="E163" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="F163" s="18"/>
+      <c r="G163" s="21"/>
+      <c r="H163" s="11"/>
+      <c r="I163" s="11">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B164" s="7"/>
+      <c r="C164" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D164" s="18"/>
+      <c r="E164" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F164" s="18"/>
+      <c r="G164" s="21"/>
+      <c r="H164" s="11"/>
+      <c r="I164" s="11">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B165" s="7"/>
+      <c r="C165" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D165" s="18"/>
+      <c r="E165" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F165" s="18"/>
+      <c r="G165" s="21"/>
+      <c r="H165" s="14"/>
+      <c r="I165" s="11">
         <v>50.0</v>
-      </c>
-      <c r="J159" s="30"/>
-      <c r="K159" s="30"/>
-      <c r="L159" s="30"/>
-      <c r="M159" s="30"/>
-      <c r="N159" s="30"/>
-      <c r="O159" s="30"/>
-      <c r="P159" s="30"/>
-      <c r="Q159" s="30"/>
-      <c r="R159" s="30"/>
-      <c r="S159" s="30"/>
-      <c r="T159" s="30"/>
-      <c r="U159" s="30"/>
-      <c r="V159" s="30"/>
-      <c r="W159" s="30"/>
-      <c r="X159" s="30"/>
-      <c r="Y159" s="30"/>
-      <c r="Z159" s="30"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B160" s="26"/>
-      <c r="C160" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="D160" s="28"/>
-      <c r="E160" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="F160" s="28"/>
-      <c r="G160" s="22"/>
-      <c r="H160" s="22"/>
-      <c r="I160" s="11">
-        <v>165.0</v>
-      </c>
-      <c r="J160" s="30"/>
-      <c r="K160" s="30"/>
-      <c r="L160" s="30"/>
-      <c r="M160" s="30"/>
-      <c r="N160" s="30"/>
-      <c r="O160" s="30"/>
-      <c r="P160" s="30"/>
-      <c r="Q160" s="30"/>
-      <c r="R160" s="30"/>
-      <c r="S160" s="30"/>
-      <c r="T160" s="30"/>
-      <c r="U160" s="30"/>
-      <c r="V160" s="30"/>
-      <c r="W160" s="30"/>
-      <c r="X160" s="30"/>
-      <c r="Y160" s="30"/>
-      <c r="Z160" s="30"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B161" s="32"/>
-      <c r="C161" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="D161" s="33"/>
-      <c r="E161" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="F161" s="33"/>
-      <c r="G161" s="23"/>
-      <c r="H161" s="23"/>
-      <c r="I161" s="11">
-        <v>165.0</v>
-      </c>
-      <c r="J161" s="34"/>
-      <c r="K161" s="34"/>
-      <c r="L161" s="34"/>
-      <c r="M161" s="34"/>
-      <c r="N161" s="34"/>
-      <c r="O161" s="34"/>
-      <c r="P161" s="34"/>
-      <c r="Q161" s="34"/>
-      <c r="R161" s="34"/>
-      <c r="S161" s="34"/>
-      <c r="T161" s="34"/>
-      <c r="U161" s="34"/>
-      <c r="V161" s="34"/>
-      <c r="W161" s="34"/>
-      <c r="X161" s="34"/>
-      <c r="Y161" s="34"/>
-      <c r="Z161" s="34"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B162" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C162" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="D162" s="19"/>
-      <c r="E162" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="F162" s="19"/>
-      <c r="G162" s="22"/>
-      <c r="H162" s="14"/>
-      <c r="I162" s="11">
-        <v>220.0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C163" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="D163" s="7"/>
-      <c r="E163" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="F163" s="7"/>
-      <c r="G163" s="22"/>
-      <c r="H163" s="14"/>
-      <c r="I163" s="11">
-        <v>250.0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B164" s="9"/>
-      <c r="C164" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="D164" s="7"/>
-      <c r="E164" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="F164" s="7"/>
-      <c r="G164" s="22"/>
-      <c r="H164" s="14"/>
-      <c r="I164" s="11">
-        <v>155.0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B165" s="23"/>
-      <c r="C165" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="D165" s="7"/>
-      <c r="E165" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="F165" s="7"/>
-      <c r="G165" s="22"/>
-      <c r="H165" s="14"/>
-      <c r="I165" s="14">
-        <v>20.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B166" s="23"/>
+      <c r="B166" s="7"/>
       <c r="C166" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D166" s="7"/>
+        <v>273</v>
+      </c>
+      <c r="D166" s="18"/>
       <c r="E166" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="F166" s="7"/>
-      <c r="G166" s="22"/>
-      <c r="H166" s="11"/>
+        <v>274</v>
+      </c>
+      <c r="F166" s="18"/>
+      <c r="G166" s="21"/>
+      <c r="H166" s="14"/>
       <c r="I166" s="11">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="24" t="s">
+      <c r="A167" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B167" s="7"/>
-      <c r="C167" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="D167" s="19"/>
-      <c r="E167" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="F167" s="19"/>
-      <c r="G167" s="22"/>
-      <c r="H167" s="11"/>
-      <c r="I167" s="11">
-        <v>30.0</v>
+      <c r="C167" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D167" s="18"/>
+      <c r="E167" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="F167" s="18"/>
+      <c r="G167" s="21"/>
+      <c r="H167" s="14"/>
+      <c r="I167" s="14">
+        <v>20.0</v>
       </c>
     </row>
     <row r="168">
@@ -4803,17 +4788,17 @@
       </c>
       <c r="B168" s="7"/>
       <c r="C168" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="D168" s="19"/>
+        <v>277</v>
+      </c>
+      <c r="D168" s="18"/>
       <c r="E168" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="F168" s="19"/>
-      <c r="G168" s="22"/>
-      <c r="H168" s="11"/>
+        <v>278</v>
+      </c>
+      <c r="F168" s="18"/>
+      <c r="G168" s="21"/>
+      <c r="H168" s="14"/>
       <c r="I168" s="11">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="169">
@@ -4821,18 +4806,18 @@
         <v>20</v>
       </c>
       <c r="B169" s="7"/>
-      <c r="C169" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="D169" s="19"/>
-      <c r="E169" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="F169" s="19"/>
-      <c r="G169" s="22"/>
+      <c r="C169" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D169" s="7"/>
+      <c r="E169" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F169" s="7"/>
+      <c r="G169" s="21"/>
       <c r="H169" s="14"/>
       <c r="I169" s="11">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="170">
@@ -4840,37 +4825,37 @@
         <v>20</v>
       </c>
       <c r="B170" s="7"/>
-      <c r="C170" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="D170" s="19"/>
-      <c r="E170" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="F170" s="19"/>
-      <c r="G170" s="22"/>
+      <c r="C170" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D170" s="7"/>
+      <c r="E170" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="F170" s="7"/>
+      <c r="G170" s="21"/>
       <c r="H170" s="14"/>
       <c r="I170" s="11">
-        <v>20.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="7" t="s">
+      <c r="A171" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B171" s="7"/>
-      <c r="C171" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="D171" s="19"/>
-      <c r="E171" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="F171" s="19"/>
-      <c r="G171" s="22"/>
+      <c r="C171" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="D171" s="7"/>
+      <c r="E171" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="F171" s="7"/>
+      <c r="G171" s="21"/>
       <c r="H171" s="14"/>
-      <c r="I171" s="14">
-        <v>20.0</v>
+      <c r="I171" s="11">
+        <v>150.0</v>
       </c>
     </row>
     <row r="172">
@@ -4879,17 +4864,17 @@
       </c>
       <c r="B172" s="7"/>
       <c r="C172" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="D172" s="19"/>
+        <v>285</v>
+      </c>
+      <c r="D172" s="7"/>
       <c r="E172" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="F172" s="19"/>
-      <c r="G172" s="22"/>
+        <v>286</v>
+      </c>
+      <c r="F172" s="7"/>
+      <c r="G172" s="21"/>
       <c r="H172" s="14"/>
-      <c r="I172" s="11">
-        <v>25.0</v>
+      <c r="I172" s="14">
+        <v>15.0</v>
       </c>
     </row>
     <row r="173">
@@ -4898,157 +4883,81 @@
       </c>
       <c r="B173" s="7"/>
       <c r="C173" s="12" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D173" s="7"/>
       <c r="E173" s="12" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="F173" s="7"/>
-      <c r="G173" s="22"/>
+      <c r="G173" s="21"/>
       <c r="H173" s="14"/>
       <c r="I173" s="11">
-        <v>40.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B174" s="7"/>
-      <c r="C174" s="12" t="s">
-        <v>282</v>
+      <c r="B174" s="18"/>
+      <c r="C174" s="9" t="s">
+        <v>289</v>
       </c>
       <c r="D174" s="7"/>
-      <c r="E174" s="12" t="s">
-        <v>283</v>
+      <c r="E174" s="9" t="s">
+        <v>290</v>
       </c>
       <c r="F174" s="7"/>
-      <c r="G174" s="22"/>
+      <c r="G174" s="7"/>
       <c r="H174" s="14"/>
-      <c r="I174" s="11">
+      <c r="I174" s="14">
         <v>60.0</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B175" s="7"/>
-      <c r="C175" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="D175" s="7"/>
-      <c r="E175" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="F175" s="7"/>
-      <c r="G175" s="22"/>
-      <c r="H175" s="14"/>
-      <c r="I175" s="11">
-        <v>150.0</v>
-      </c>
+      <c r="A175" s="35"/>
+      <c r="B175" s="35"/>
+      <c r="C175" s="35"/>
+      <c r="E175" s="35"/>
     </row>
     <row r="176">
-      <c r="A176" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B176" s="7"/>
-      <c r="C176" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D176" s="7"/>
-      <c r="E176" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="F176" s="7"/>
-      <c r="G176" s="22"/>
-      <c r="H176" s="14"/>
-      <c r="I176" s="14">
-        <v>15.0</v>
-      </c>
+      <c r="A176" s="35"/>
+      <c r="B176" s="35"/>
+      <c r="C176" s="35"/>
+      <c r="E176" s="35"/>
     </row>
     <row r="177">
-      <c r="A177" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B177" s="7"/>
-      <c r="C177" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="D177" s="7"/>
-      <c r="E177" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="F177" s="7"/>
-      <c r="G177" s="22"/>
-      <c r="H177" s="14"/>
-      <c r="I177" s="11">
-        <v>15.0</v>
-      </c>
+      <c r="A177" s="35"/>
+      <c r="B177" s="35"/>
+      <c r="C177" s="35"/>
+      <c r="E177" s="35"/>
     </row>
     <row r="178">
-      <c r="A178" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B178" s="19"/>
-      <c r="C178" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="D178" s="7"/>
-      <c r="E178" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="F178" s="7"/>
-      <c r="G178" s="7"/>
-      <c r="H178" s="14"/>
-      <c r="I178" s="14">
-        <v>60.0</v>
-      </c>
+      <c r="A178" s="35"/>
+      <c r="B178" s="35"/>
+      <c r="C178" s="35"/>
+      <c r="E178" s="35"/>
     </row>
     <row r="179">
-      <c r="A179" s="36"/>
-      <c r="B179" s="36"/>
-      <c r="C179" s="36"/>
-      <c r="E179" s="36"/>
+      <c r="A179" s="35"/>
+      <c r="B179" s="35"/>
+      <c r="C179" s="35"/>
+      <c r="E179" s="35"/>
     </row>
     <row r="180">
-      <c r="A180" s="36"/>
-      <c r="B180" s="36"/>
-      <c r="C180" s="36"/>
-      <c r="E180" s="36"/>
+      <c r="A180" s="35"/>
+      <c r="B180" s="35"/>
+      <c r="C180" s="35"/>
+      <c r="E180" s="35"/>
     </row>
     <row r="181">
-      <c r="A181" s="36"/>
-      <c r="B181" s="36"/>
-      <c r="C181" s="36"/>
-      <c r="E181" s="36"/>
+      <c r="A181" s="35"/>
+      <c r="B181" s="35"/>
     </row>
     <row r="182">
-      <c r="A182" s="36"/>
-      <c r="B182" s="36"/>
-      <c r="C182" s="36"/>
-      <c r="E182" s="36"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="36"/>
-      <c r="B183" s="36"/>
-      <c r="C183" s="36"/>
-      <c r="E183" s="36"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="36"/>
-      <c r="B184" s="36"/>
-      <c r="C184" s="36"/>
-      <c r="E184" s="36"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="36"/>
-      <c r="B185" s="36"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="36"/>
-      <c r="B186" s="36"/>
+      <c r="A182" s="35"/>
+      <c r="B182" s="35"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="fM6xYdvyhg+hNg84nk6G0GD5eeaPuagvC8Oi4FgZbQw="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="aWBPnmtSZK9KIg2OuIJ91/FUn/JfKJsiLdCdpMkA2X4="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="289">
   <si>
     <t>category</t>
   </si>
@@ -272,12 +272,6 @@
   </si>
   <si>
     <t>Rüya Çayı</t>
-  </si>
-  <si>
-    <t>Blue Butterfly Tea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mavi Kelebek Çayı </t>
   </si>
   <si>
     <t>Chai Tea Latte</t>
@@ -954,7 +948,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -1001,6 +995,22 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF00FF00"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF00FF00"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <color rgb="FF00FF00"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1103,7 +1113,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1143,28 +1153,34 @@
     <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
@@ -2353,7 +2369,7 @@
       <c r="G45" s="14"/>
       <c r="H45" s="13"/>
       <c r="I45" s="11">
-        <v>130.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="46">
@@ -2372,7 +2388,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="13"/>
       <c r="I46" s="11">
-        <v>130.0</v>
+        <v>150.0</v>
       </c>
       <c r="J46" s="19"/>
     </row>
@@ -2392,71 +2408,68 @@
       <c r="G47" s="14"/>
       <c r="H47" s="13"/>
       <c r="I47" s="11">
-        <v>130.0</v>
+        <v>150.0</v>
       </c>
       <c r="J47" s="19"/>
     </row>
     <row r="48">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="9" t="s">
+      <c r="B48" s="13"/>
+      <c r="C48" s="12" t="s">
         <v>85</v>
       </c>
       <c r="D48" s="17"/>
-      <c r="E48" s="9" t="s">
-        <v>86</v>
+      <c r="E48" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="14"/>
       <c r="H48" s="13"/>
       <c r="I48" s="11">
-        <v>130.0</v>
+        <v>165.0</v>
       </c>
       <c r="J48" s="19"/>
     </row>
     <row r="49">
-      <c r="A49" s="12" t="s">
-        <v>4</v>
+      <c r="A49" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="B49" s="13"/>
-      <c r="C49" s="12" t="s">
-        <v>87</v>
+      <c r="C49" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="D49" s="17"/>
-      <c r="E49" s="12" t="s">
-        <v>87</v>
+      <c r="E49" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="14"/>
       <c r="H49" s="13"/>
       <c r="I49" s="11">
-        <v>150.0</v>
+        <v>165.0</v>
       </c>
       <c r="J49" s="19"/>
     </row>
     <row r="50">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13" t="s">
-        <v>88</v>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="D50" s="17"/>
-      <c r="E50" s="13" t="s">
-        <v>88</v>
+      <c r="E50" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="14"/>
       <c r="H50" s="13"/>
       <c r="I50" s="11">
-        <v>135.0</v>
-      </c>
-      <c r="J50" s="19"/>
+        <v>165.0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="9" t="s">
@@ -2464,17 +2477,17 @@
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="14"/>
       <c r="H51" s="13"/>
       <c r="I51" s="11">
-        <v>135.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="52">
@@ -2483,17 +2496,17 @@
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="14"/>
       <c r="H52" s="13"/>
       <c r="I52" s="11">
-        <v>135.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="53">
@@ -2502,17 +2515,17 @@
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="14"/>
       <c r="H53" s="13"/>
       <c r="I53" s="11">
-        <v>135.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="54">
@@ -2521,17 +2534,17 @@
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="14"/>
       <c r="H54" s="13"/>
       <c r="I54" s="11">
-        <v>135.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="55">
@@ -2540,17 +2553,17 @@
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D55" s="17"/>
+        <v>92</v>
+      </c>
+      <c r="D55" s="18"/>
       <c r="E55" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F55" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="F55" s="18"/>
       <c r="G55" s="14"/>
       <c r="H55" s="13"/>
       <c r="I55" s="11">
-        <v>135.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="56">
@@ -2559,17 +2572,17 @@
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D56" s="18"/>
       <c r="E56" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="14"/>
       <c r="H56" s="13"/>
       <c r="I56" s="11">
-        <v>135.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="57">
@@ -2577,50 +2590,67 @@
         <v>5</v>
       </c>
       <c r="B57" s="9"/>
-      <c r="C57" s="9" t="s">
-        <v>95</v>
+      <c r="C57" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="D57" s="18"/>
-      <c r="E57" s="9" t="s">
-        <v>95</v>
+      <c r="E57" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="14"/>
       <c r="H57" s="13"/>
       <c r="I57" s="11">
-        <v>135.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="20" t="s">
+      <c r="A58" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58" s="22"/>
+      <c r="E58" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F58" s="18"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="11">
-        <v>135.0</v>
-      </c>
+      <c r="F58" s="22"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="23">
+        <v>150.0</v>
+      </c>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="24"/>
+      <c r="S58" s="24"/>
+      <c r="T58" s="24"/>
+      <c r="U58" s="24"/>
+      <c r="V58" s="24"/>
+      <c r="W58" s="24"/>
+      <c r="X58" s="24"/>
+      <c r="Y58" s="24"/>
+      <c r="Z58" s="24"/>
     </row>
     <row r="59">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13" t="s">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D59" s="18"/>
-      <c r="E59" s="13" t="s">
-        <v>98</v>
+      <c r="E59" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="F59" s="18"/>
       <c r="G59" s="14"/>
@@ -2635,95 +2665,95 @@
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D60" s="18"/>
       <c r="E60" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F60" s="18"/>
       <c r="G60" s="14"/>
       <c r="H60" s="13"/>
       <c r="I60" s="10">
-        <v>150.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9" t="s">
-        <v>100</v>
+      <c r="A61" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="D61" s="18"/>
-      <c r="E61" s="9" t="s">
-        <v>100</v>
+      <c r="E61" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="14"/>
       <c r="H61" s="13"/>
-      <c r="I61" s="10">
-        <v>170.0</v>
+      <c r="I61" s="11">
+        <v>130.0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13" t="s">
-        <v>101</v>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="D62" s="18"/>
-      <c r="E62" s="13" t="s">
+      <c r="E62" s="9" t="s">
         <v>101</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="14"/>
       <c r="H62" s="13"/>
       <c r="I62" s="11">
-        <v>130.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="9"/>
+      <c r="B63" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="C63" s="9" t="s">
         <v>102</v>
       </c>
       <c r="D63" s="18"/>
       <c r="E63" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F63" s="18"/>
-      <c r="G63" s="14"/>
+      <c r="G63" s="25"/>
       <c r="H63" s="13"/>
-      <c r="I63" s="11">
-        <v>135.0</v>
+      <c r="I63" s="10">
+        <v>140.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="B64" s="9"/>
       <c r="C64" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D64" s="18"/>
       <c r="E64" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F64" s="18"/>
-      <c r="G64" s="21"/>
+      <c r="G64" s="25"/>
       <c r="H64" s="13"/>
       <c r="I64" s="10">
-        <v>140.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="65">
@@ -2732,17 +2762,17 @@
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D65" s="18"/>
       <c r="E65" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F65" s="18"/>
-      <c r="G65" s="21"/>
+      <c r="G65" s="25"/>
       <c r="H65" s="13"/>
       <c r="I65" s="10">
-        <v>145.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="66">
@@ -2751,17 +2781,17 @@
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D66" s="18"/>
       <c r="E66" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F66" s="18"/>
-      <c r="G66" s="21"/>
+      <c r="G66" s="25"/>
       <c r="H66" s="13"/>
       <c r="I66" s="10">
-        <v>160.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="67">
@@ -2770,52 +2800,54 @@
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D67" s="18"/>
       <c r="E67" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F67" s="18"/>
-      <c r="G67" s="21"/>
+      <c r="G67" s="25"/>
       <c r="H67" s="13"/>
       <c r="I67" s="10">
         <v>170.0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="9" t="s">
-        <v>8</v>
+      <c r="A68" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="B68" s="9"/>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="12" t="s">
         <v>108</v>
       </c>
       <c r="D68" s="18"/>
-      <c r="E68" s="9" t="s">
-        <v>108</v>
+      <c r="E68" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="F68" s="18"/>
-      <c r="G68" s="21"/>
+      <c r="G68" s="25"/>
       <c r="H68" s="13"/>
       <c r="I68" s="10">
-        <v>170.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="12" t="s">
+      <c r="A69" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>110</v>
       </c>
       <c r="D69" s="18"/>
-      <c r="E69" s="12" t="s">
-        <v>111</v>
+      <c r="E69" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="F69" s="18"/>
-      <c r="G69" s="21"/>
+      <c r="G69" s="25"/>
       <c r="H69" s="13"/>
       <c r="I69" s="10">
         <v>145.0</v>
@@ -2825,21 +2857,19 @@
       <c r="A70" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>112</v>
+      <c r="B70" s="9"/>
+      <c r="C70" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="D70" s="18"/>
-      <c r="E70" s="9" t="s">
-        <v>112</v>
+      <c r="E70" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="F70" s="18"/>
-      <c r="G70" s="21"/>
+      <c r="G70" s="25"/>
       <c r="H70" s="13"/>
       <c r="I70" s="10">
-        <v>145.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="71">
@@ -2848,97 +2878,97 @@
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D71" s="18"/>
       <c r="E71" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F71" s="18"/>
-      <c r="G71" s="21"/>
+      <c r="G71" s="13"/>
       <c r="H71" s="13"/>
       <c r="I71" s="10">
         <v>180.0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="20" t="s">
+      <c r="B72" s="13"/>
+      <c r="C72" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D72" s="17"/>
+      <c r="E72" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F72" s="7"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="10">
+        <v>140.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D72" s="18"/>
-      <c r="E72" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="F72" s="18"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="10">
-        <v>180.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" s="13"/>
-      <c r="C73" s="12" t="s">
-        <v>115</v>
-      </c>
       <c r="D73" s="17"/>
-      <c r="E73" s="12" t="s">
+      <c r="E73" s="13" t="s">
         <v>115</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="14"/>
-      <c r="H73" s="21"/>
+      <c r="H73" s="25"/>
       <c r="I73" s="10">
-        <v>140.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B74" s="13"/>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="9" t="s">
         <v>116</v>
       </c>
       <c r="D74" s="17"/>
-      <c r="E74" s="13" t="s">
-        <v>117</v>
+      <c r="E74" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="14"/>
-      <c r="H74" s="21"/>
+      <c r="H74" s="25"/>
       <c r="I74" s="10">
-        <v>180.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="9" t="s">
-        <v>118</v>
+      <c r="B75" s="9"/>
+      <c r="C75" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="D75" s="17"/>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="12" t="s">
         <v>118</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="14"/>
-      <c r="H75" s="21"/>
+      <c r="H75" s="25"/>
       <c r="I75" s="10">
-        <v>195.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B76" s="9"/>
@@ -2951,28 +2981,28 @@
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="14"/>
-      <c r="H76" s="21"/>
+      <c r="H76" s="25"/>
       <c r="I76" s="10">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B77" s="9"/>
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="9" t="s">
         <v>121</v>
       </c>
       <c r="D77" s="17"/>
-      <c r="E77" s="12" t="s">
-        <v>122</v>
+      <c r="E77" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="14"/>
-      <c r="H77" s="21"/>
+      <c r="H77" s="25"/>
       <c r="I77" s="10">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="78">
@@ -2980,115 +3010,115 @@
         <v>9</v>
       </c>
       <c r="B78" s="9"/>
-      <c r="C78" s="9" t="s">
-        <v>123</v>
+      <c r="C78" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="D78" s="17"/>
-      <c r="E78" s="9" t="s">
+      <c r="E78" s="12" t="s">
         <v>123</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="14"/>
-      <c r="H78" s="21"/>
+      <c r="H78" s="25"/>
       <c r="I78" s="10">
-        <v>180.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B79" s="9"/>
-      <c r="C79" s="12" t="s">
+      <c r="B79" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="9" t="s">
         <v>124</v>
       </c>
       <c r="D79" s="17"/>
-      <c r="E79" s="12" t="s">
+      <c r="E79" s="9" t="s">
         <v>125</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="14"/>
-      <c r="H79" s="21"/>
+      <c r="H79" s="13"/>
       <c r="I79" s="10">
-        <v>170.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="B80" s="9"/>
       <c r="C80" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D80" s="17"/>
+      <c r="D80" s="18"/>
       <c r="E80" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F80" s="7"/>
+        <v>126</v>
+      </c>
+      <c r="F80" s="18"/>
       <c r="G80" s="14"/>
-      <c r="H80" s="13"/>
+      <c r="H80" s="25"/>
       <c r="I80" s="10">
-        <v>125.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D81" s="18"/>
       <c r="E81" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F81" s="18"/>
       <c r="G81" s="14"/>
-      <c r="H81" s="21"/>
+      <c r="H81" s="25"/>
       <c r="I81" s="10">
-        <v>180.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D82" s="18"/>
       <c r="E82" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F82" s="18"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="10">
+        <v>160.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="9"/>
+      <c r="C83" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="F82" s="18"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="10">
-        <v>150.0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9" t="s">
+      <c r="D83" s="18"/>
+      <c r="E83" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D83" s="18"/>
-      <c r="E83" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="F83" s="18"/>
-      <c r="G83" s="21"/>
+      <c r="G83" s="14"/>
       <c r="H83" s="13"/>
       <c r="I83" s="10">
-        <v>160.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="84">
@@ -3101,7 +3131,7 @@
       </c>
       <c r="D84" s="18"/>
       <c r="E84" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F84" s="18"/>
       <c r="G84" s="14"/>
@@ -3111,16 +3141,16 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D85" s="18"/>
       <c r="E85" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F85" s="18"/>
       <c r="G85" s="14"/>
@@ -3130,21 +3160,21 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B86" s="9"/>
       <c r="C86" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D86" s="18"/>
       <c r="E86" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F86" s="18"/>
       <c r="G86" s="14"/>
       <c r="H86" s="13"/>
-      <c r="I86" s="10">
+      <c r="I86" s="11">
         <v>150.0</v>
       </c>
     </row>
@@ -3154,11 +3184,11 @@
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D87" s="18"/>
       <c r="E87" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F87" s="18"/>
       <c r="G87" s="14"/>
@@ -3173,11 +3203,11 @@
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D88" s="18"/>
       <c r="E88" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F88" s="18"/>
       <c r="G88" s="14"/>
@@ -3192,11 +3222,11 @@
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D89" s="18"/>
       <c r="E89" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F89" s="18"/>
       <c r="G89" s="14"/>
@@ -3211,11 +3241,11 @@
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F90" s="18"/>
       <c r="G90" s="14"/>
@@ -3230,17 +3260,17 @@
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D91" s="18"/>
       <c r="E91" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F91" s="18"/>
       <c r="G91" s="14"/>
       <c r="H91" s="13"/>
       <c r="I91" s="11">
-        <v>150.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="92">
@@ -3249,11 +3279,11 @@
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D92" s="18"/>
       <c r="E92" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F92" s="18"/>
       <c r="G92" s="14"/>
@@ -3268,11 +3298,11 @@
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D93" s="18"/>
       <c r="E93" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F93" s="18"/>
       <c r="G93" s="14"/>
@@ -3282,35 +3312,37 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="12" t="s">
+      <c r="A94" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B94" s="9"/>
-      <c r="C94" s="12" t="s">
-        <v>142</v>
+      <c r="C94" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="D94" s="18"/>
-      <c r="E94" s="12" t="s">
-        <v>142</v>
+      <c r="E94" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="F94" s="18"/>
       <c r="G94" s="14"/>
       <c r="H94" s="13"/>
       <c r="I94" s="11">
-        <v>130.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="9"/>
+      <c r="B95" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="C95" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D95" s="18"/>
       <c r="E95" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F95" s="18"/>
       <c r="G95" s="14"/>
@@ -3327,7 +3359,7 @@
         <v>28</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D96" s="18"/>
       <c r="E96" s="9" t="s">
@@ -3336,67 +3368,67 @@
       <c r="F96" s="18"/>
       <c r="G96" s="14"/>
       <c r="H96" s="13"/>
-      <c r="I96" s="11">
-        <v>125.0</v>
+      <c r="I96" s="10">
+        <v>130.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B97" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C97" s="9" t="s">
+      <c r="B97" s="9"/>
+      <c r="C97" s="20" t="s">
         <v>145</v>
       </c>
       <c r="D97" s="18"/>
       <c r="E97" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F97" s="18"/>
       <c r="G97" s="14"/>
       <c r="H97" s="13"/>
       <c r="I97" s="10">
-        <v>110.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B98" s="9"/>
-      <c r="C98" s="20" t="s">
-        <v>147</v>
+      <c r="A98" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" s="13"/>
+      <c r="C98" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="D98" s="18"/>
-      <c r="E98" s="9" t="s">
+      <c r="E98" s="10" t="s">
         <v>147</v>
       </c>
       <c r="F98" s="18"/>
       <c r="G98" s="14"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="10">
-        <v>150.0</v>
+      <c r="H98" s="10"/>
+      <c r="I98" s="11">
+        <v>80.0</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="13" t="s">
+      <c r="A99" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B99" s="13"/>
-      <c r="C99" s="10" t="s">
+      <c r="B99" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" s="9" t="s">
         <v>148</v>
       </c>
       <c r="D99" s="18"/>
-      <c r="E99" s="10" t="s">
-        <v>149</v>
+      <c r="E99" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="F99" s="18"/>
       <c r="G99" s="14"/>
-      <c r="H99" s="10"/>
+      <c r="H99" s="13"/>
       <c r="I99" s="11">
-        <v>80.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="100">
@@ -3407,66 +3439,64 @@
         <v>28</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D100" s="18"/>
       <c r="E100" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F100" s="18"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="10"/>
       <c r="I100" s="11">
         <v>85.0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="9"/>
+      <c r="C101" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D101" s="18"/>
+      <c r="E101" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F101" s="18"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="11">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C102" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D101" s="18"/>
-      <c r="E101" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F101" s="18"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="11">
-        <v>85.0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B102" s="9"/>
-      <c r="C102" s="12" t="s">
-        <v>152</v>
-      </c>
       <c r="D102" s="18"/>
-      <c r="E102" s="12" t="s">
+      <c r="E102" s="9" t="s">
         <v>152</v>
       </c>
       <c r="F102" s="18"/>
       <c r="G102" s="14"/>
       <c r="H102" s="13"/>
       <c r="I102" s="11">
-        <v>75.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B103" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="B103" s="9"/>
       <c r="C103" s="9" t="s">
         <v>153</v>
       </c>
@@ -3494,7 +3524,7 @@
         <v>156</v>
       </c>
       <c r="F104" s="18"/>
-      <c r="G104" s="14"/>
+      <c r="G104" s="13"/>
       <c r="H104" s="13"/>
       <c r="I104" s="11">
         <v>70.0</v>
@@ -3510,13 +3540,13 @@
       </c>
       <c r="D105" s="18"/>
       <c r="E105" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F105" s="18"/>
       <c r="G105" s="13"/>
       <c r="H105" s="13"/>
       <c r="I105" s="11">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="106">
@@ -3525,51 +3555,51 @@
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D106" s="18"/>
       <c r="E106" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="F106" s="18"/>
+      <c r="F106" s="7"/>
       <c r="G106" s="13"/>
       <c r="H106" s="13"/>
       <c r="I106" s="11">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B107" s="9"/>
-      <c r="C107" s="9" t="s">
+      <c r="A107" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D107" s="18"/>
-      <c r="E107" s="9" t="s">
+      <c r="E107" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="F107" s="7"/>
+      <c r="F107" s="18"/>
       <c r="G107" s="13"/>
       <c r="H107" s="13"/>
-      <c r="I107" s="11">
-        <v>50.0</v>
+      <c r="I107" s="10">
+        <v>185.0</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="22" t="s">
+      <c r="A108" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C108" s="13" t="s">
+      <c r="B108" s="7"/>
+      <c r="C108" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D108" s="18"/>
-      <c r="E108" s="13" t="s">
-        <v>163</v>
+      <c r="D108" s="17"/>
+      <c r="E108" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="F108" s="18"/>
       <c r="G108" s="13"/>
@@ -3582,13 +3612,15 @@
       <c r="A109" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B109" s="7"/>
+      <c r="B109" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C109" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D109" s="17"/>
+        <v>163</v>
+      </c>
+      <c r="D109" s="18"/>
       <c r="E109" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F109" s="18"/>
       <c r="G109" s="13"/>
@@ -3601,11 +3633,9 @@
       <c r="A110" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B110" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B110" s="7"/>
       <c r="C110" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D110" s="18"/>
       <c r="E110" s="9" t="s">
@@ -3638,26 +3668,26 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B112" s="7"/>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="12" t="s">
         <v>168</v>
       </c>
       <c r="D112" s="18"/>
-      <c r="E112" s="9" t="s">
+      <c r="E112" s="12" t="s">
         <v>169</v>
       </c>
       <c r="F112" s="18"/>
       <c r="G112" s="13"/>
       <c r="H112" s="13"/>
       <c r="I112" s="10">
-        <v>185.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="23" t="s">
+      <c r="A113" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B113" s="7"/>
@@ -3672,11 +3702,11 @@
       <c r="G113" s="13"/>
       <c r="H113" s="13"/>
       <c r="I113" s="10">
-        <v>220.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="23" t="s">
+      <c r="A114" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B114" s="7"/>
@@ -3691,11 +3721,11 @@
       <c r="G114" s="13"/>
       <c r="H114" s="13"/>
       <c r="I114" s="10">
-        <v>240.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="23" t="s">
+      <c r="A115" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B115" s="7"/>
@@ -3714,7 +3744,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="23" t="s">
+      <c r="A116" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B116" s="7"/>
@@ -3729,54 +3759,54 @@
       <c r="G116" s="13"/>
       <c r="H116" s="13"/>
       <c r="I116" s="10">
-        <v>185.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B117" s="7"/>
-      <c r="C117" s="12" t="s">
+      <c r="A117" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" s="13" t="s">
         <v>178</v>
       </c>
       <c r="D117" s="18"/>
-      <c r="E117" s="12" t="s">
+      <c r="E117" s="9" t="s">
         <v>179</v>
       </c>
       <c r="F117" s="18"/>
-      <c r="G117" s="13"/>
-      <c r="H117" s="13"/>
-      <c r="I117" s="10">
-        <v>110.0</v>
+      <c r="G117" s="25"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="11">
+        <v>215.0</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="22" t="s">
+      <c r="A118" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B118" s="22" t="s">
-        <v>28</v>
-      </c>
+      <c r="B118" s="26"/>
       <c r="C118" s="13" t="s">
         <v>180</v>
       </c>
       <c r="D118" s="18"/>
-      <c r="E118" s="9" t="s">
+      <c r="E118" s="13" t="s">
         <v>181</v>
       </c>
       <c r="F118" s="18"/>
-      <c r="G118" s="21"/>
+      <c r="G118" s="25"/>
       <c r="H118" s="14"/>
       <c r="I118" s="11">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B119" s="22"/>
+      <c r="B119" s="26"/>
       <c r="C119" s="13" t="s">
         <v>182</v>
       </c>
@@ -3785,7 +3815,7 @@
         <v>183</v>
       </c>
       <c r="F119" s="18"/>
-      <c r="G119" s="21"/>
+      <c r="G119" s="25"/>
       <c r="H119" s="14"/>
       <c r="I119" s="11">
         <v>230.0</v>
@@ -3795,19 +3825,19 @@
       <c r="A120" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B120" s="22"/>
-      <c r="C120" s="13" t="s">
+      <c r="B120" s="7"/>
+      <c r="C120" s="9" t="s">
         <v>184</v>
       </c>
       <c r="D120" s="18"/>
-      <c r="E120" s="13" t="s">
+      <c r="E120" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="F120" s="18"/>
-      <c r="G120" s="21"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="25"/>
       <c r="H120" s="14"/>
       <c r="I120" s="11">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="121">
@@ -3819,11 +3849,11 @@
         <v>186</v>
       </c>
       <c r="D121" s="18"/>
-      <c r="E121" s="9" t="s">
+      <c r="E121" s="12" t="s">
         <v>187</v>
       </c>
       <c r="F121" s="7"/>
-      <c r="G121" s="21"/>
+      <c r="G121" s="25"/>
       <c r="H121" s="14"/>
       <c r="I121" s="11">
         <v>215.0</v>
@@ -3841,18 +3871,20 @@
       <c r="E122" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="F122" s="7"/>
-      <c r="G122" s="21"/>
+      <c r="F122" s="18"/>
+      <c r="G122" s="25"/>
       <c r="H122" s="14"/>
       <c r="I122" s="11">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B123" s="7"/>
+      <c r="B123" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C123" s="9" t="s">
         <v>190</v>
       </c>
@@ -3861,7 +3893,7 @@
         <v>191</v>
       </c>
       <c r="F123" s="18"/>
-      <c r="G123" s="21"/>
+      <c r="G123" s="25"/>
       <c r="H123" s="14"/>
       <c r="I123" s="11">
         <v>230.0</v>
@@ -3878,32 +3910,30 @@
         <v>192</v>
       </c>
       <c r="D124" s="18"/>
-      <c r="E124" s="12" t="s">
+      <c r="E124" s="9" t="s">
         <v>193</v>
       </c>
       <c r="F124" s="18"/>
-      <c r="G124" s="21"/>
+      <c r="G124" s="25"/>
       <c r="H124" s="14"/>
       <c r="I124" s="11">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B125" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B125" s="7"/>
       <c r="C125" s="9" t="s">
         <v>194</v>
       </c>
       <c r="D125" s="18"/>
-      <c r="E125" s="9" t="s">
+      <c r="E125" s="12" t="s">
         <v>195</v>
       </c>
       <c r="F125" s="18"/>
-      <c r="G125" s="21"/>
+      <c r="G125" s="25"/>
       <c r="H125" s="14"/>
       <c r="I125" s="11">
         <v>220.0</v>
@@ -3922,7 +3952,7 @@
         <v>197</v>
       </c>
       <c r="F126" s="18"/>
-      <c r="G126" s="21"/>
+      <c r="G126" s="25"/>
       <c r="H126" s="14"/>
       <c r="I126" s="11">
         <v>220.0</v>
@@ -3936,15 +3966,15 @@
       <c r="C127" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D127" s="18"/>
+      <c r="D127" s="7"/>
       <c r="E127" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="F127" s="18"/>
-      <c r="G127" s="21"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="25"/>
       <c r="H127" s="14"/>
       <c r="I127" s="11">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="128">
@@ -3956,14 +3986,14 @@
         <v>200</v>
       </c>
       <c r="D128" s="7"/>
-      <c r="E128" s="12" t="s">
+      <c r="E128" s="9" t="s">
         <v>201</v>
       </c>
       <c r="F128" s="7"/>
-      <c r="G128" s="21"/>
+      <c r="G128" s="25"/>
       <c r="H128" s="14"/>
       <c r="I128" s="11">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="129">
@@ -3979,10 +4009,10 @@
         <v>203</v>
       </c>
       <c r="F129" s="7"/>
-      <c r="G129" s="21"/>
+      <c r="G129" s="25"/>
       <c r="H129" s="14"/>
       <c r="I129" s="11">
-        <v>220.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="130">
@@ -3998,10 +4028,10 @@
         <v>205</v>
       </c>
       <c r="F130" s="7"/>
-      <c r="G130" s="21"/>
+      <c r="G130" s="25"/>
       <c r="H130" s="14"/>
       <c r="I130" s="11">
-        <v>215.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="131">
@@ -4013,14 +4043,14 @@
         <v>206</v>
       </c>
       <c r="D131" s="7"/>
-      <c r="E131" s="9" t="s">
+      <c r="E131" s="12" t="s">
         <v>207</v>
       </c>
       <c r="F131" s="7"/>
-      <c r="G131" s="21"/>
+      <c r="G131" s="25"/>
       <c r="H131" s="14"/>
       <c r="I131" s="11">
-        <v>220.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="132">
@@ -4036,50 +4066,50 @@
         <v>209</v>
       </c>
       <c r="F132" s="7"/>
-      <c r="G132" s="21"/>
+      <c r="G132" s="25"/>
       <c r="H132" s="14"/>
       <c r="I132" s="11">
-        <v>210.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B133" s="7"/>
+      <c r="B133" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C133" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D133" s="7"/>
-      <c r="E133" s="12" t="s">
+      <c r="D133" s="18"/>
+      <c r="E133" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F133" s="7"/>
-      <c r="G133" s="21"/>
+      <c r="F133" s="18"/>
+      <c r="G133" s="25"/>
       <c r="H133" s="14"/>
       <c r="I133" s="11">
-        <v>80.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B134" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B134" s="7"/>
       <c r="C134" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D134" s="18"/>
+      <c r="D134" s="7"/>
       <c r="E134" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="F134" s="18"/>
-      <c r="G134" s="21"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="25"/>
       <c r="H134" s="14"/>
       <c r="I134" s="11">
-        <v>220.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="135">
@@ -4095,47 +4125,47 @@
         <v>215</v>
       </c>
       <c r="F135" s="7"/>
-      <c r="G135" s="21"/>
+      <c r="G135" s="25"/>
       <c r="H135" s="14"/>
       <c r="I135" s="11">
-        <v>160.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B136" s="7"/>
+      <c r="B136" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C136" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="D136" s="7"/>
-      <c r="E136" s="9" t="s">
+      <c r="D136" s="18"/>
+      <c r="E136" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="F136" s="7"/>
-      <c r="G136" s="21"/>
+      <c r="F136" s="18"/>
+      <c r="G136" s="25"/>
       <c r="H136" s="14"/>
       <c r="I136" s="11">
-        <v>70.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B137" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B137" s="7"/>
       <c r="C137" s="9" t="s">
         <v>218</v>
       </c>
       <c r="D137" s="18"/>
-      <c r="E137" s="12" t="s">
+      <c r="E137" s="9" t="s">
         <v>219</v>
       </c>
       <c r="F137" s="18"/>
-      <c r="G137" s="21"/>
+      <c r="G137" s="25"/>
       <c r="H137" s="14"/>
       <c r="I137" s="11">
         <v>220.0</v>
@@ -4145,16 +4175,18 @@
       <c r="A138" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B138" s="7"/>
+      <c r="B138" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C138" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D138" s="18"/>
+      <c r="D138" s="7"/>
       <c r="E138" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="F138" s="18"/>
-      <c r="G138" s="21"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="25"/>
       <c r="H138" s="14"/>
       <c r="I138" s="11">
         <v>220.0</v>
@@ -4164,21 +4196,19 @@
       <c r="A139" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B139" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B139" s="7"/>
       <c r="C139" s="9" t="s">
         <v>222</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F139" s="7"/>
-      <c r="G139" s="21"/>
+      <c r="G139" s="25"/>
       <c r="H139" s="14"/>
       <c r="I139" s="11">
-        <v>220.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="140">
@@ -4187,14 +4217,14 @@
       </c>
       <c r="B140" s="7"/>
       <c r="C140" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="D140" s="7"/>
+        <v>223</v>
+      </c>
+      <c r="D140" s="18"/>
       <c r="E140" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="F140" s="7"/>
-      <c r="G140" s="21"/>
+        <v>223</v>
+      </c>
+      <c r="F140" s="18"/>
+      <c r="G140" s="25"/>
       <c r="H140" s="14"/>
       <c r="I140" s="11">
         <v>185.0</v>
@@ -4204,16 +4234,18 @@
       <c r="A141" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B141" s="7"/>
+      <c r="B141" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C141" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D141" s="18"/>
       <c r="E141" s="9" t="s">
         <v>225</v>
       </c>
       <c r="F141" s="18"/>
-      <c r="G141" s="21"/>
+      <c r="G141" s="25"/>
       <c r="H141" s="14"/>
       <c r="I141" s="11">
         <v>185.0</v>
@@ -4223,18 +4255,16 @@
       <c r="A142" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B142" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B142" s="7"/>
       <c r="C142" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="D142" s="18"/>
+      <c r="D142" s="7"/>
       <c r="E142" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="F142" s="18"/>
-      <c r="G142" s="21"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="25"/>
       <c r="H142" s="14"/>
       <c r="I142" s="11">
         <v>185.0</v>
@@ -4253,10 +4283,10 @@
         <v>229</v>
       </c>
       <c r="F143" s="7"/>
-      <c r="G143" s="21"/>
+      <c r="G143" s="25"/>
       <c r="H143" s="14"/>
       <c r="I143" s="11">
-        <v>185.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="144">
@@ -4272,10 +4302,10 @@
         <v>231</v>
       </c>
       <c r="F144" s="7"/>
-      <c r="G144" s="21"/>
+      <c r="G144" s="25"/>
       <c r="H144" s="14"/>
       <c r="I144" s="11">
-        <v>200.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="145">
@@ -4291,130 +4321,132 @@
         <v>233</v>
       </c>
       <c r="F145" s="7"/>
-      <c r="G145" s="21"/>
+      <c r="G145" s="25"/>
       <c r="H145" s="14"/>
       <c r="I145" s="11">
-        <v>185.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B146" s="7"/>
-      <c r="C146" s="9" t="s">
+      <c r="A146" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B146" s="26"/>
+      <c r="C146" s="13" t="s">
         <v>234</v>
       </c>
       <c r="D146" s="7"/>
-      <c r="E146" s="9" t="s">
+      <c r="E146" s="13" t="s">
         <v>235</v>
       </c>
       <c r="F146" s="7"/>
-      <c r="G146" s="21"/>
+      <c r="G146" s="25"/>
       <c r="H146" s="14"/>
       <c r="I146" s="11">
-        <v>80.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="22" t="s">
+      <c r="A147" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B147" s="22"/>
-      <c r="C147" s="13" t="s">
+      <c r="B147" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C147" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="D147" s="7"/>
-      <c r="E147" s="13" t="s">
+      <c r="D147" s="18"/>
+      <c r="E147" s="9" t="s">
         <v>237</v>
       </c>
       <c r="F147" s="7"/>
-      <c r="G147" s="21"/>
+      <c r="G147" s="25"/>
       <c r="H147" s="14"/>
       <c r="I147" s="11">
-        <v>120.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B148" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C148" s="9" t="s">
+      <c r="B148" s="7"/>
+      <c r="C148" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="D148" s="18"/>
-      <c r="E148" s="9" t="s">
+      <c r="D148" s="7"/>
+      <c r="E148" s="12" t="s">
         <v>239</v>
       </c>
       <c r="F148" s="7"/>
-      <c r="G148" s="21"/>
+      <c r="G148" s="25"/>
       <c r="H148" s="14"/>
       <c r="I148" s="11">
-        <v>130.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B149" s="7"/>
-      <c r="C149" s="12" t="s">
+      <c r="A149" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B149" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C149" s="13" t="s">
         <v>240</v>
       </c>
       <c r="D149" s="7"/>
-      <c r="E149" s="12" t="s">
+      <c r="E149" s="13" t="s">
         <v>241</v>
       </c>
       <c r="F149" s="7"/>
-      <c r="G149" s="21"/>
+      <c r="G149" s="25"/>
       <c r="H149" s="14"/>
       <c r="I149" s="11">
-        <v>30.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B150" s="22" t="s">
+      <c r="A150" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B150" s="26" t="s">
         <v>28</v>
       </c>
       <c r="C150" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="D150" s="7"/>
-      <c r="E150" s="13" t="s">
+      <c r="D150" s="18"/>
+      <c r="E150" s="10" t="s">
         <v>243</v>
       </c>
       <c r="F150" s="7"/>
-      <c r="G150" s="21"/>
+      <c r="G150" s="25"/>
       <c r="H150" s="14"/>
       <c r="I150" s="11">
-        <v>150.0</v>
+        <v>310.0</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="22" t="s">
+      <c r="A151" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B151" s="22" t="s">
+      <c r="B151" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C151" s="13" t="s">
+      <c r="C151" s="9" t="s">
         <v>244</v>
       </c>
       <c r="D151" s="18"/>
-      <c r="E151" s="10" t="s">
+      <c r="E151" s="12" t="s">
         <v>245</v>
       </c>
       <c r="F151" s="7"/>
-      <c r="G151" s="21"/>
+      <c r="G151" s="25"/>
       <c r="H151" s="14"/>
       <c r="I151" s="11">
-        <v>260.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="152">
@@ -4432,10 +4464,10 @@
         <v>247</v>
       </c>
       <c r="F152" s="7"/>
-      <c r="G152" s="21"/>
+      <c r="G152" s="25"/>
       <c r="H152" s="14"/>
       <c r="I152" s="11">
-        <v>210.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="153">
@@ -4449,261 +4481,259 @@
         <v>248</v>
       </c>
       <c r="D153" s="18"/>
-      <c r="E153" s="12" t="s">
+      <c r="E153" s="9" t="s">
         <v>249</v>
       </c>
       <c r="F153" s="7"/>
-      <c r="G153" s="21"/>
+      <c r="G153" s="25"/>
       <c r="H153" s="14"/>
       <c r="I153" s="11">
         <v>210.0</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="7" t="s">
+      <c r="A154" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B154" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C154" s="9" t="s">
+      <c r="B154" s="29"/>
+      <c r="C154" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="D154" s="18"/>
-      <c r="E154" s="9" t="s">
+      <c r="D154" s="31"/>
+      <c r="E154" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="F154" s="7"/>
-      <c r="G154" s="21"/>
-      <c r="H154" s="14"/>
+      <c r="F154" s="31"/>
+      <c r="G154" s="25"/>
+      <c r="H154" s="25"/>
       <c r="I154" s="11">
-        <v>210.0</v>
-      </c>
+        <v>50.0</v>
+      </c>
+      <c r="J154" s="33"/>
+      <c r="K154" s="33"/>
+      <c r="L154" s="33"/>
+      <c r="M154" s="33"/>
+      <c r="N154" s="33"/>
+      <c r="O154" s="33"/>
+      <c r="P154" s="33"/>
+      <c r="Q154" s="33"/>
+      <c r="R154" s="33"/>
+      <c r="S154" s="33"/>
+      <c r="T154" s="33"/>
+      <c r="U154" s="33"/>
+      <c r="V154" s="33"/>
+      <c r="W154" s="33"/>
+      <c r="X154" s="33"/>
+      <c r="Y154" s="33"/>
+      <c r="Z154" s="33"/>
     </row>
     <row r="155">
-      <c r="A155" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B155" s="25"/>
-      <c r="C155" s="26" t="s">
+      <c r="A155" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B155" s="29"/>
+      <c r="C155" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="D155" s="27"/>
-      <c r="E155" s="28" t="s">
+      <c r="D155" s="31"/>
+      <c r="E155" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="F155" s="27"/>
-      <c r="G155" s="21"/>
-      <c r="H155" s="21"/>
+      <c r="F155" s="31"/>
+      <c r="G155" s="25"/>
+      <c r="H155" s="25"/>
       <c r="I155" s="11">
-        <v>50.0</v>
-      </c>
-      <c r="J155" s="29"/>
-      <c r="K155" s="29"/>
-      <c r="L155" s="29"/>
-      <c r="M155" s="29"/>
-      <c r="N155" s="29"/>
-      <c r="O155" s="29"/>
-      <c r="P155" s="29"/>
-      <c r="Q155" s="29"/>
-      <c r="R155" s="29"/>
-      <c r="S155" s="29"/>
-      <c r="T155" s="29"/>
-      <c r="U155" s="29"/>
-      <c r="V155" s="29"/>
-      <c r="W155" s="29"/>
-      <c r="X155" s="29"/>
-      <c r="Y155" s="29"/>
-      <c r="Z155" s="29"/>
+        <v>165.0</v>
+      </c>
+      <c r="J155" s="33"/>
+      <c r="K155" s="33"/>
+      <c r="L155" s="33"/>
+      <c r="M155" s="33"/>
+      <c r="N155" s="33"/>
+      <c r="O155" s="33"/>
+      <c r="P155" s="33"/>
+      <c r="Q155" s="33"/>
+      <c r="R155" s="33"/>
+      <c r="S155" s="33"/>
+      <c r="T155" s="33"/>
+      <c r="U155" s="33"/>
+      <c r="V155" s="33"/>
+      <c r="W155" s="33"/>
+      <c r="X155" s="33"/>
+      <c r="Y155" s="33"/>
+      <c r="Z155" s="33"/>
     </row>
     <row r="156">
-      <c r="A156" s="30" t="s">
+      <c r="A156" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B156" s="25"/>
-      <c r="C156" s="26" t="s">
+      <c r="B156" s="35"/>
+      <c r="C156" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="D156" s="27"/>
-      <c r="E156" s="28" t="s">
+      <c r="D156" s="36"/>
+      <c r="E156" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="F156" s="27"/>
-      <c r="G156" s="21"/>
-      <c r="H156" s="21"/>
+      <c r="F156" s="36"/>
+      <c r="G156" s="26"/>
+      <c r="H156" s="26"/>
       <c r="I156" s="11">
         <v>165.0</v>
       </c>
-      <c r="J156" s="29"/>
-      <c r="K156" s="29"/>
-      <c r="L156" s="29"/>
-      <c r="M156" s="29"/>
-      <c r="N156" s="29"/>
-      <c r="O156" s="29"/>
-      <c r="P156" s="29"/>
-      <c r="Q156" s="29"/>
-      <c r="R156" s="29"/>
-      <c r="S156" s="29"/>
-      <c r="T156" s="29"/>
-      <c r="U156" s="29"/>
-      <c r="V156" s="29"/>
-      <c r="W156" s="29"/>
-      <c r="X156" s="29"/>
-      <c r="Y156" s="29"/>
-      <c r="Z156" s="29"/>
+      <c r="J156" s="37"/>
+      <c r="K156" s="37"/>
+      <c r="L156" s="37"/>
+      <c r="M156" s="37"/>
+      <c r="N156" s="37"/>
+      <c r="O156" s="37"/>
+      <c r="P156" s="37"/>
+      <c r="Q156" s="37"/>
+      <c r="R156" s="37"/>
+      <c r="S156" s="37"/>
+      <c r="T156" s="37"/>
+      <c r="U156" s="37"/>
+      <c r="V156" s="37"/>
+      <c r="W156" s="37"/>
+      <c r="X156" s="37"/>
+      <c r="Y156" s="37"/>
+      <c r="Z156" s="37"/>
     </row>
     <row r="157">
-      <c r="A157" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B157" s="31"/>
-      <c r="C157" s="26" t="s">
+      <c r="A157" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B157" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C157" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D157" s="32"/>
-      <c r="E157" s="26" t="s">
+      <c r="D157" s="18"/>
+      <c r="E157" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="F157" s="32"/>
-      <c r="G157" s="22"/>
-      <c r="H157" s="22"/>
+      <c r="F157" s="18"/>
+      <c r="G157" s="25"/>
+      <c r="H157" s="14"/>
       <c r="I157" s="11">
-        <v>165.0</v>
-      </c>
-      <c r="J157" s="33"/>
-      <c r="K157" s="33"/>
-      <c r="L157" s="33"/>
-      <c r="M157" s="33"/>
-      <c r="N157" s="33"/>
-      <c r="O157" s="33"/>
-      <c r="P157" s="33"/>
-      <c r="Q157" s="33"/>
-      <c r="R157" s="33"/>
-      <c r="S157" s="33"/>
-      <c r="T157" s="33"/>
-      <c r="U157" s="33"/>
-      <c r="V157" s="33"/>
-      <c r="W157" s="33"/>
-      <c r="X157" s="33"/>
-      <c r="Y157" s="33"/>
-      <c r="Z157" s="33"/>
+        <v>220.0</v>
+      </c>
     </row>
     <row r="158">
-      <c r="A158" s="13" t="s">
+      <c r="A158" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B158" s="13" t="s">
+      <c r="B158" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C158" s="13" t="s">
+      <c r="C158" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="D158" s="18"/>
-      <c r="E158" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="F158" s="18"/>
-      <c r="G158" s="21"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F158" s="7"/>
+      <c r="G158" s="25"/>
       <c r="H158" s="14"/>
       <c r="I158" s="11">
-        <v>220.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="9" t="s">
+      <c r="A159" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B159" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C159" s="9" t="s">
+      <c r="B159" s="9"/>
+      <c r="C159" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D159" s="7"/>
+      <c r="E159" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="D159" s="7"/>
-      <c r="E159" s="9" t="s">
-        <v>260</v>
-      </c>
       <c r="F159" s="7"/>
-      <c r="G159" s="21"/>
+      <c r="G159" s="25"/>
       <c r="H159" s="14"/>
       <c r="I159" s="11">
-        <v>250.0</v>
+        <v>155.0</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B160" s="9"/>
-      <c r="C160" s="12" t="s">
+      <c r="A160" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B160" s="26"/>
+      <c r="C160" s="13" t="s">
         <v>261</v>
       </c>
       <c r="D160" s="7"/>
-      <c r="E160" s="12" t="s">
+      <c r="E160" s="13" t="s">
         <v>262</v>
       </c>
       <c r="F160" s="7"/>
-      <c r="G160" s="21"/>
+      <c r="G160" s="25"/>
       <c r="H160" s="14"/>
-      <c r="I160" s="11">
-        <v>155.0</v>
+      <c r="I160" s="14">
+        <v>20.0</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="22" t="s">
+      <c r="A161" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B161" s="22"/>
-      <c r="C161" s="13" t="s">
+      <c r="B161" s="26"/>
+      <c r="C161" s="9" t="s">
         <v>263</v>
       </c>
       <c r="D161" s="7"/>
-      <c r="E161" s="13" t="s">
+      <c r="E161" s="9" t="s">
         <v>264</v>
       </c>
       <c r="F161" s="7"/>
-      <c r="G161" s="21"/>
-      <c r="H161" s="14"/>
-      <c r="I161" s="14">
-        <v>20.0</v>
+      <c r="G161" s="25"/>
+      <c r="H161" s="11"/>
+      <c r="I161" s="11">
+        <v>40.0</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="7" t="s">
+      <c r="A162" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B162" s="22"/>
-      <c r="C162" s="9" t="s">
+      <c r="B162" s="7"/>
+      <c r="C162" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="D162" s="7"/>
-      <c r="E162" s="9" t="s">
+      <c r="D162" s="18"/>
+      <c r="E162" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="F162" s="7"/>
-      <c r="G162" s="21"/>
+      <c r="F162" s="18"/>
+      <c r="G162" s="25"/>
       <c r="H162" s="11"/>
       <c r="I162" s="11">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="23" t="s">
+      <c r="A163" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B163" s="7"/>
-      <c r="C163" s="12" t="s">
+      <c r="C163" s="9" t="s">
         <v>267</v>
       </c>
       <c r="D163" s="18"/>
-      <c r="E163" s="34" t="s">
+      <c r="E163" s="9" t="s">
         <v>268</v>
       </c>
       <c r="F163" s="18"/>
-      <c r="G163" s="21"/>
+      <c r="G163" s="25"/>
       <c r="H163" s="11"/>
       <c r="I163" s="11">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="164">
@@ -4719,10 +4749,10 @@
         <v>270</v>
       </c>
       <c r="F164" s="18"/>
-      <c r="G164" s="21"/>
-      <c r="H164" s="11"/>
+      <c r="G164" s="25"/>
+      <c r="H164" s="14"/>
       <c r="I164" s="11">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="165">
@@ -4738,10 +4768,10 @@
         <v>272</v>
       </c>
       <c r="F165" s="18"/>
-      <c r="G165" s="21"/>
+      <c r="G165" s="25"/>
       <c r="H165" s="14"/>
       <c r="I165" s="11">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="166">
@@ -4757,9 +4787,9 @@
         <v>274</v>
       </c>
       <c r="F166" s="18"/>
-      <c r="G166" s="21"/>
+      <c r="G166" s="25"/>
       <c r="H166" s="14"/>
-      <c r="I166" s="11">
+      <c r="I166" s="14">
         <v>20.0</v>
       </c>
     </row>
@@ -4776,10 +4806,10 @@
         <v>276</v>
       </c>
       <c r="F167" s="18"/>
-      <c r="G167" s="21"/>
+      <c r="G167" s="25"/>
       <c r="H167" s="14"/>
-      <c r="I167" s="14">
-        <v>20.0</v>
+      <c r="I167" s="11">
+        <v>25.0</v>
       </c>
     </row>
     <row r="168">
@@ -4787,18 +4817,18 @@
         <v>20</v>
       </c>
       <c r="B168" s="7"/>
-      <c r="C168" s="9" t="s">
+      <c r="C168" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="D168" s="18"/>
-      <c r="E168" s="9" t="s">
+      <c r="D168" s="7"/>
+      <c r="E168" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="F168" s="18"/>
-      <c r="G168" s="21"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="25"/>
       <c r="H168" s="14"/>
       <c r="I168" s="11">
-        <v>25.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="169">
@@ -4814,14 +4844,14 @@
         <v>280</v>
       </c>
       <c r="F169" s="7"/>
-      <c r="G169" s="21"/>
+      <c r="G169" s="25"/>
       <c r="H169" s="14"/>
       <c r="I169" s="11">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="7" t="s">
+      <c r="A170" s="27" t="s">
         <v>20</v>
       </c>
       <c r="B170" s="7"/>
@@ -4833,29 +4863,29 @@
         <v>282</v>
       </c>
       <c r="F170" s="7"/>
-      <c r="G170" s="21"/>
+      <c r="G170" s="25"/>
       <c r="H170" s="14"/>
       <c r="I170" s="11">
-        <v>60.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="23" t="s">
+      <c r="A171" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B171" s="7"/>
-      <c r="C171" s="12" t="s">
+      <c r="C171" s="9" t="s">
         <v>283</v>
       </c>
       <c r="D171" s="7"/>
-      <c r="E171" s="12" t="s">
+      <c r="E171" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F171" s="7"/>
-      <c r="G171" s="21"/>
+      <c r="G171" s="25"/>
       <c r="H171" s="14"/>
-      <c r="I171" s="11">
-        <v>150.0</v>
+      <c r="I171" s="14">
+        <v>15.0</v>
       </c>
     </row>
     <row r="172">
@@ -4863,17 +4893,17 @@
         <v>20</v>
       </c>
       <c r="B172" s="7"/>
-      <c r="C172" s="9" t="s">
+      <c r="C172" s="12" t="s">
         <v>285</v>
       </c>
       <c r="D172" s="7"/>
-      <c r="E172" s="9" t="s">
+      <c r="E172" s="12" t="s">
         <v>286</v>
       </c>
       <c r="F172" s="7"/>
-      <c r="G172" s="21"/>
+      <c r="G172" s="25"/>
       <c r="H172" s="14"/>
-      <c r="I172" s="14">
+      <c r="I172" s="11">
         <v>15.0</v>
       </c>
     </row>
@@ -4881,83 +4911,64 @@
       <c r="A173" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B173" s="7"/>
-      <c r="C173" s="12" t="s">
+      <c r="B173" s="18"/>
+      <c r="C173" s="9" t="s">
         <v>287</v>
       </c>
       <c r="D173" s="7"/>
-      <c r="E173" s="12" t="s">
+      <c r="E173" s="9" t="s">
         <v>288</v>
       </c>
       <c r="F173" s="7"/>
-      <c r="G173" s="21"/>
+      <c r="G173" s="7"/>
       <c r="H173" s="14"/>
-      <c r="I173" s="11">
-        <v>15.0</v>
+      <c r="I173" s="14">
+        <v>60.0</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B174" s="18"/>
-      <c r="C174" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="D174" s="7"/>
-      <c r="E174" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="F174" s="7"/>
-      <c r="G174" s="7"/>
-      <c r="H174" s="14"/>
-      <c r="I174" s="14">
-        <v>60.0</v>
-      </c>
+      <c r="A174" s="39"/>
+      <c r="B174" s="39"/>
+      <c r="C174" s="39"/>
+      <c r="E174" s="39"/>
     </row>
     <row r="175">
-      <c r="A175" s="35"/>
-      <c r="B175" s="35"/>
-      <c r="C175" s="35"/>
-      <c r="E175" s="35"/>
+      <c r="A175" s="39"/>
+      <c r="B175" s="39"/>
+      <c r="C175" s="39"/>
+      <c r="E175" s="39"/>
     </row>
     <row r="176">
-      <c r="A176" s="35"/>
-      <c r="B176" s="35"/>
-      <c r="C176" s="35"/>
-      <c r="E176" s="35"/>
+      <c r="A176" s="39"/>
+      <c r="B176" s="39"/>
+      <c r="C176" s="39"/>
+      <c r="E176" s="39"/>
     </row>
     <row r="177">
-      <c r="A177" s="35"/>
-      <c r="B177" s="35"/>
-      <c r="C177" s="35"/>
-      <c r="E177" s="35"/>
+      <c r="A177" s="39"/>
+      <c r="B177" s="39"/>
+      <c r="C177" s="39"/>
+      <c r="E177" s="39"/>
     </row>
     <row r="178">
-      <c r="A178" s="35"/>
-      <c r="B178" s="35"/>
-      <c r="C178" s="35"/>
-      <c r="E178" s="35"/>
+      <c r="A178" s="39"/>
+      <c r="B178" s="39"/>
+      <c r="C178" s="39"/>
+      <c r="E178" s="39"/>
     </row>
     <row r="179">
-      <c r="A179" s="35"/>
-      <c r="B179" s="35"/>
-      <c r="C179" s="35"/>
-      <c r="E179" s="35"/>
+      <c r="A179" s="39"/>
+      <c r="B179" s="39"/>
+      <c r="C179" s="39"/>
+      <c r="E179" s="39"/>
     </row>
     <row r="180">
-      <c r="A180" s="35"/>
-      <c r="B180" s="35"/>
-      <c r="C180" s="35"/>
-      <c r="E180" s="35"/>
+      <c r="A180" s="39"/>
+      <c r="B180" s="39"/>
     </row>
     <row r="181">
-      <c r="A181" s="35"/>
-      <c r="B181" s="35"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="35"/>
-      <c r="B182" s="35"/>
+      <c r="A181" s="39"/>
+      <c r="B181" s="39"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="aWBPnmtSZK9KIg2OuIJ91/FUn/JfKJsiLdCdpMkA2X4="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="A91aSOgLPuBm89P+KphzjT5XeFTg1aEXkcrJKFw9OlU="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="287">
   <si>
     <t>category</t>
   </si>
@@ -406,22 +406,13 @@
     <t>Iced Chocolate</t>
   </si>
   <si>
-    <t>Blue Lagon</t>
-  </si>
-  <si>
-    <t>Bule Lagon</t>
-  </si>
-  <si>
     <t>Color Mix</t>
   </si>
   <si>
     <t>Island Rush Cooler</t>
   </si>
   <si>
-    <t>Mor Zest</t>
-  </si>
-  <si>
-    <t>Night &amp; Green</t>
+    <t>Blu Lagon</t>
   </si>
   <si>
     <t>Pina Colada</t>
@@ -431,6 +422,9 @@
   </si>
   <si>
     <t>Velvet Dream</t>
+  </si>
+  <si>
+    <t>Green Benefi</t>
   </si>
   <si>
     <t xml:space="preserve">Iced Tea -Hibiskus Cold </t>
@@ -3042,7 +3036,7 @@
       <c r="G79" s="14"/>
       <c r="H79" s="13"/>
       <c r="I79" s="10">
-        <v>125.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="80">
@@ -3112,51 +3106,51 @@
       </c>
       <c r="D83" s="18"/>
       <c r="E83" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F83" s="18"/>
       <c r="G83" s="14"/>
       <c r="H83" s="13"/>
       <c r="I83" s="10">
-        <v>150.0</v>
+        <v>175.0</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D84" s="18"/>
       <c r="E84" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F84" s="18"/>
       <c r="G84" s="14"/>
       <c r="H84" s="13"/>
       <c r="I84" s="10">
-        <v>150.0</v>
+        <v>175.0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D85" s="18"/>
       <c r="E85" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F85" s="18"/>
       <c r="G85" s="14"/>
       <c r="H85" s="13"/>
-      <c r="I85" s="10">
-        <v>150.0</v>
+      <c r="I85" s="11">
+        <v>175.0</v>
       </c>
     </row>
     <row r="86">
@@ -3165,17 +3159,17 @@
       </c>
       <c r="B86" s="9"/>
       <c r="C86" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D86" s="18"/>
       <c r="E86" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F86" s="18"/>
       <c r="G86" s="14"/>
       <c r="H86" s="13"/>
       <c r="I86" s="11">
-        <v>150.0</v>
+        <v>175.0</v>
       </c>
     </row>
     <row r="87">
@@ -3184,17 +3178,17 @@
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D87" s="18"/>
       <c r="E87" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F87" s="18"/>
       <c r="G87" s="14"/>
       <c r="H87" s="13"/>
       <c r="I87" s="11">
-        <v>150.0</v>
+        <v>175.0</v>
       </c>
     </row>
     <row r="88">
@@ -3203,17 +3197,17 @@
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D88" s="18"/>
       <c r="E88" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F88" s="18"/>
       <c r="G88" s="14"/>
       <c r="H88" s="13"/>
       <c r="I88" s="11">
-        <v>150.0</v>
+        <v>175.0</v>
       </c>
     </row>
     <row r="89">
@@ -3222,17 +3216,17 @@
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D89" s="18"/>
       <c r="E89" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F89" s="18"/>
       <c r="G89" s="14"/>
       <c r="H89" s="13"/>
       <c r="I89" s="11">
-        <v>150.0</v>
+        <v>175.0</v>
       </c>
     </row>
     <row r="90">
@@ -3241,17 +3235,17 @@
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F90" s="18"/>
       <c r="G90" s="14"/>
       <c r="H90" s="13"/>
       <c r="I90" s="11">
-        <v>150.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="91">
@@ -3260,11 +3254,11 @@
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D91" s="18"/>
       <c r="E91" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F91" s="18"/>
       <c r="G91" s="14"/>
@@ -3279,11 +3273,11 @@
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D92" s="18"/>
       <c r="E92" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F92" s="18"/>
       <c r="G92" s="14"/>
@@ -3293,35 +3287,37 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B93" s="9"/>
-      <c r="C93" s="12" t="s">
-        <v>140</v>
+      <c r="C93" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="D93" s="18"/>
-      <c r="E93" s="12" t="s">
-        <v>140</v>
+      <c r="E93" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="F93" s="18"/>
       <c r="G93" s="14"/>
       <c r="H93" s="13"/>
       <c r="I93" s="11">
-        <v>130.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B94" s="9"/>
+      <c r="B94" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="C94" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D94" s="18"/>
       <c r="E94" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F94" s="18"/>
       <c r="G94" s="14"/>
@@ -3338,7 +3334,7 @@
         <v>28</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D95" s="18"/>
       <c r="E95" s="9" t="s">
@@ -3347,67 +3343,67 @@
       <c r="F95" s="18"/>
       <c r="G95" s="14"/>
       <c r="H95" s="13"/>
-      <c r="I95" s="11">
-        <v>150.0</v>
+      <c r="I95" s="10">
+        <v>130.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B96" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C96" s="9" t="s">
+      <c r="B96" s="9"/>
+      <c r="C96" s="20" t="s">
         <v>143</v>
       </c>
       <c r="D96" s="18"/>
       <c r="E96" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F96" s="18"/>
       <c r="G96" s="14"/>
       <c r="H96" s="13"/>
       <c r="I96" s="10">
-        <v>130.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B97" s="9"/>
-      <c r="C97" s="20" t="s">
-        <v>145</v>
+      <c r="A97" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" s="13"/>
+      <c r="C97" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="D97" s="18"/>
-      <c r="E97" s="9" t="s">
+      <c r="E97" s="10" t="s">
         <v>145</v>
       </c>
       <c r="F97" s="18"/>
       <c r="G97" s="14"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="10">
-        <v>150.0</v>
+      <c r="H97" s="10"/>
+      <c r="I97" s="11">
+        <v>80.0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="13" t="s">
+      <c r="A98" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="13"/>
-      <c r="C98" s="10" t="s">
+      <c r="B98" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" s="9" t="s">
         <v>146</v>
       </c>
       <c r="D98" s="18"/>
-      <c r="E98" s="10" t="s">
-        <v>147</v>
+      <c r="E98" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="F98" s="18"/>
       <c r="G98" s="14"/>
-      <c r="H98" s="10"/>
+      <c r="H98" s="13"/>
       <c r="I98" s="11">
-        <v>80.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="99">
@@ -3418,66 +3414,64 @@
         <v>28</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D99" s="18"/>
       <c r="E99" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F99" s="18"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="10"/>
       <c r="I99" s="11">
         <v>85.0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="9"/>
+      <c r="C100" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D100" s="18"/>
+      <c r="E100" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F100" s="18"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="11">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C101" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D100" s="18"/>
-      <c r="E100" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F100" s="18"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="11">
-        <v>85.0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B101" s="9"/>
-      <c r="C101" s="12" t="s">
-        <v>150</v>
-      </c>
       <c r="D101" s="18"/>
-      <c r="E101" s="12" t="s">
+      <c r="E101" s="9" t="s">
         <v>150</v>
       </c>
       <c r="F101" s="18"/>
       <c r="G101" s="14"/>
       <c r="H101" s="13"/>
       <c r="I101" s="11">
-        <v>75.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B102" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="B102" s="9"/>
       <c r="C102" s="9" t="s">
         <v>151</v>
       </c>
@@ -3505,7 +3499,7 @@
         <v>154</v>
       </c>
       <c r="F103" s="18"/>
-      <c r="G103" s="14"/>
+      <c r="G103" s="13"/>
       <c r="H103" s="13"/>
       <c r="I103" s="11">
         <v>70.0</v>
@@ -3521,13 +3515,13 @@
       </c>
       <c r="D104" s="18"/>
       <c r="E104" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F104" s="18"/>
       <c r="G104" s="13"/>
       <c r="H104" s="13"/>
       <c r="I104" s="11">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="105">
@@ -3536,51 +3530,51 @@
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D105" s="18"/>
       <c r="E105" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F105" s="18"/>
+      <c r="F105" s="7"/>
       <c r="G105" s="13"/>
       <c r="H105" s="13"/>
       <c r="I105" s="11">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B106" s="9"/>
-      <c r="C106" s="9" t="s">
+      <c r="A106" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D106" s="18"/>
-      <c r="E106" s="9" t="s">
+      <c r="E106" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="F106" s="7"/>
+      <c r="F106" s="18"/>
       <c r="G106" s="13"/>
       <c r="H106" s="13"/>
-      <c r="I106" s="11">
-        <v>50.0</v>
+      <c r="I106" s="10">
+        <v>185.0</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="26" t="s">
+      <c r="A107" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B107" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C107" s="13" t="s">
+      <c r="B107" s="7"/>
+      <c r="C107" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D107" s="18"/>
-      <c r="E107" s="13" t="s">
-        <v>161</v>
+      <c r="D107" s="17"/>
+      <c r="E107" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="F107" s="18"/>
       <c r="G107" s="13"/>
@@ -3593,13 +3587,15 @@
       <c r="A108" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="7"/>
+      <c r="B108" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C108" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D108" s="17"/>
+        <v>161</v>
+      </c>
+      <c r="D108" s="18"/>
       <c r="E108" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F108" s="18"/>
       <c r="G108" s="13"/>
@@ -3612,11 +3608,9 @@
       <c r="A109" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B109" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B109" s="7"/>
       <c r="C109" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D109" s="18"/>
       <c r="E109" s="9" t="s">
@@ -3649,22 +3643,22 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B111" s="7"/>
-      <c r="C111" s="9" t="s">
+      <c r="C111" s="12" t="s">
         <v>166</v>
       </c>
       <c r="D111" s="18"/>
-      <c r="E111" s="9" t="s">
+      <c r="E111" s="12" t="s">
         <v>167</v>
       </c>
       <c r="F111" s="18"/>
       <c r="G111" s="13"/>
       <c r="H111" s="13"/>
       <c r="I111" s="10">
-        <v>185.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="112">
@@ -3683,7 +3677,7 @@
       <c r="G112" s="13"/>
       <c r="H112" s="13"/>
       <c r="I112" s="10">
-        <v>220.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="113">
@@ -3702,7 +3696,7 @@
       <c r="G113" s="13"/>
       <c r="H113" s="13"/>
       <c r="I113" s="10">
-        <v>240.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="114">
@@ -3740,47 +3734,47 @@
       <c r="G115" s="13"/>
       <c r="H115" s="13"/>
       <c r="I115" s="10">
-        <v>185.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B116" s="7"/>
-      <c r="C116" s="12" t="s">
+      <c r="A116" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C116" s="13" t="s">
         <v>176</v>
       </c>
       <c r="D116" s="18"/>
-      <c r="E116" s="12" t="s">
+      <c r="E116" s="9" t="s">
         <v>177</v>
       </c>
       <c r="F116" s="18"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="10">
-        <v>110.0</v>
+      <c r="G116" s="25"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="11">
+        <v>215.0</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="26" t="s">
+      <c r="A117" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B117" s="26" t="s">
-        <v>28</v>
-      </c>
+      <c r="B117" s="26"/>
       <c r="C117" s="13" t="s">
         <v>178</v>
       </c>
       <c r="D117" s="18"/>
-      <c r="E117" s="9" t="s">
+      <c r="E117" s="13" t="s">
         <v>179</v>
       </c>
       <c r="F117" s="18"/>
       <c r="G117" s="25"/>
       <c r="H117" s="14"/>
       <c r="I117" s="11">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="118">
@@ -3806,19 +3800,19 @@
       <c r="A119" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B119" s="26"/>
-      <c r="C119" s="13" t="s">
+      <c r="B119" s="7"/>
+      <c r="C119" s="9" t="s">
         <v>182</v>
       </c>
       <c r="D119" s="18"/>
-      <c r="E119" s="13" t="s">
+      <c r="E119" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="F119" s="18"/>
+      <c r="F119" s="7"/>
       <c r="G119" s="25"/>
       <c r="H119" s="14"/>
       <c r="I119" s="11">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="120">
@@ -3830,7 +3824,7 @@
         <v>184</v>
       </c>
       <c r="D120" s="18"/>
-      <c r="E120" s="9" t="s">
+      <c r="E120" s="12" t="s">
         <v>185</v>
       </c>
       <c r="F120" s="7"/>
@@ -3852,18 +3846,20 @@
       <c r="E121" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="F121" s="7"/>
+      <c r="F121" s="18"/>
       <c r="G121" s="25"/>
       <c r="H121" s="14"/>
       <c r="I121" s="11">
-        <v>215.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B122" s="7"/>
+      <c r="B122" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C122" s="9" t="s">
         <v>188</v>
       </c>
@@ -3889,28 +3885,26 @@
         <v>190</v>
       </c>
       <c r="D123" s="18"/>
-      <c r="E123" s="12" t="s">
+      <c r="E123" s="9" t="s">
         <v>191</v>
       </c>
       <c r="F123" s="18"/>
       <c r="G123" s="25"/>
       <c r="H123" s="14"/>
       <c r="I123" s="11">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B124" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B124" s="7"/>
       <c r="C124" s="9" t="s">
         <v>192</v>
       </c>
       <c r="D124" s="18"/>
-      <c r="E124" s="9" t="s">
+      <c r="E124" s="12" t="s">
         <v>193</v>
       </c>
       <c r="F124" s="18"/>
@@ -3947,15 +3941,15 @@
       <c r="C126" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D126" s="18"/>
+      <c r="D126" s="7"/>
       <c r="E126" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="F126" s="18"/>
+      <c r="F126" s="7"/>
       <c r="G126" s="25"/>
       <c r="H126" s="14"/>
       <c r="I126" s="11">
-        <v>220.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="127">
@@ -3967,14 +3961,14 @@
         <v>198</v>
       </c>
       <c r="D127" s="7"/>
-      <c r="E127" s="12" t="s">
+      <c r="E127" s="9" t="s">
         <v>199</v>
       </c>
       <c r="F127" s="7"/>
       <c r="G127" s="25"/>
       <c r="H127" s="14"/>
       <c r="I127" s="11">
-        <v>230.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="128">
@@ -3993,7 +3987,7 @@
       <c r="G128" s="25"/>
       <c r="H128" s="14"/>
       <c r="I128" s="11">
-        <v>220.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="129">
@@ -4012,7 +4006,7 @@
       <c r="G129" s="25"/>
       <c r="H129" s="14"/>
       <c r="I129" s="11">
-        <v>215.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="130">
@@ -4024,14 +4018,14 @@
         <v>204</v>
       </c>
       <c r="D130" s="7"/>
-      <c r="E130" s="9" t="s">
+      <c r="E130" s="12" t="s">
         <v>205</v>
       </c>
       <c r="F130" s="7"/>
       <c r="G130" s="25"/>
       <c r="H130" s="14"/>
       <c r="I130" s="11">
-        <v>220.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="131">
@@ -4050,47 +4044,47 @@
       <c r="G131" s="25"/>
       <c r="H131" s="14"/>
       <c r="I131" s="11">
-        <v>210.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B132" s="7"/>
+      <c r="B132" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C132" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="D132" s="7"/>
-      <c r="E132" s="12" t="s">
+      <c r="D132" s="18"/>
+      <c r="E132" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="F132" s="7"/>
+      <c r="F132" s="18"/>
       <c r="G132" s="25"/>
       <c r="H132" s="14"/>
       <c r="I132" s="11">
-        <v>80.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B133" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B133" s="7"/>
       <c r="C133" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D133" s="18"/>
+      <c r="D133" s="7"/>
       <c r="E133" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F133" s="18"/>
+      <c r="F133" s="7"/>
       <c r="G133" s="25"/>
       <c r="H133" s="14"/>
       <c r="I133" s="11">
-        <v>220.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="134">
@@ -4109,40 +4103,40 @@
       <c r="G134" s="25"/>
       <c r="H134" s="14"/>
       <c r="I134" s="11">
-        <v>160.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B135" s="7"/>
+      <c r="B135" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C135" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D135" s="7"/>
-      <c r="E135" s="9" t="s">
+      <c r="D135" s="18"/>
+      <c r="E135" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="F135" s="7"/>
+      <c r="F135" s="18"/>
       <c r="G135" s="25"/>
       <c r="H135" s="14"/>
       <c r="I135" s="11">
-        <v>70.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B136" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B136" s="7"/>
       <c r="C136" s="9" t="s">
         <v>216</v>
       </c>
       <c r="D136" s="18"/>
-      <c r="E136" s="12" t="s">
+      <c r="E136" s="9" t="s">
         <v>217</v>
       </c>
       <c r="F136" s="18"/>
@@ -4156,15 +4150,17 @@
       <c r="A137" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B137" s="7"/>
+      <c r="B137" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C137" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="D137" s="18"/>
+      <c r="D137" s="7"/>
       <c r="E137" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="F137" s="18"/>
+      <c r="F137" s="7"/>
       <c r="G137" s="25"/>
       <c r="H137" s="14"/>
       <c r="I137" s="11">
@@ -4175,21 +4171,19 @@
       <c r="A138" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B138" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B138" s="7"/>
       <c r="C138" s="9" t="s">
         <v>220</v>
       </c>
       <c r="D138" s="7"/>
       <c r="E138" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F138" s="7"/>
       <c r="G138" s="25"/>
       <c r="H138" s="14"/>
       <c r="I138" s="11">
-        <v>220.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="139">
@@ -4198,13 +4192,13 @@
       </c>
       <c r="B139" s="7"/>
       <c r="C139" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D139" s="7"/>
+        <v>221</v>
+      </c>
+      <c r="D139" s="18"/>
       <c r="E139" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="F139" s="7"/>
+        <v>221</v>
+      </c>
+      <c r="F139" s="18"/>
       <c r="G139" s="25"/>
       <c r="H139" s="14"/>
       <c r="I139" s="11">
@@ -4215,9 +4209,11 @@
       <c r="A140" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B140" s="7"/>
+      <c r="B140" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C140" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D140" s="18"/>
       <c r="E140" s="9" t="s">
@@ -4234,17 +4230,15 @@
       <c r="A141" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B141" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="B141" s="7"/>
       <c r="C141" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D141" s="18"/>
+      <c r="D141" s="7"/>
       <c r="E141" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="F141" s="18"/>
+      <c r="F141" s="7"/>
       <c r="G141" s="25"/>
       <c r="H141" s="14"/>
       <c r="I141" s="11">
@@ -4267,7 +4261,7 @@
       <c r="G142" s="25"/>
       <c r="H142" s="14"/>
       <c r="I142" s="11">
-        <v>185.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="143">
@@ -4286,7 +4280,7 @@
       <c r="G143" s="25"/>
       <c r="H143" s="14"/>
       <c r="I143" s="11">
-        <v>200.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="144">
@@ -4305,90 +4299,92 @@
       <c r="G144" s="25"/>
       <c r="H144" s="14"/>
       <c r="I144" s="11">
-        <v>185.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B145" s="7"/>
-      <c r="C145" s="9" t="s">
+      <c r="A145" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B145" s="26"/>
+      <c r="C145" s="13" t="s">
         <v>232</v>
       </c>
       <c r="D145" s="7"/>
-      <c r="E145" s="9" t="s">
+      <c r="E145" s="13" t="s">
         <v>233</v>
       </c>
       <c r="F145" s="7"/>
       <c r="G145" s="25"/>
       <c r="H145" s="14"/>
       <c r="I145" s="11">
-        <v>80.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="26" t="s">
+      <c r="A146" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B146" s="26"/>
-      <c r="C146" s="13" t="s">
+      <c r="B146" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C146" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="D146" s="7"/>
-      <c r="E146" s="13" t="s">
+      <c r="D146" s="18"/>
+      <c r="E146" s="9" t="s">
         <v>235</v>
       </c>
       <c r="F146" s="7"/>
       <c r="G146" s="25"/>
       <c r="H146" s="14"/>
       <c r="I146" s="11">
-        <v>120.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B147" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C147" s="9" t="s">
+      <c r="B147" s="7"/>
+      <c r="C147" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="D147" s="18"/>
-      <c r="E147" s="9" t="s">
+      <c r="D147" s="7"/>
+      <c r="E147" s="12" t="s">
         <v>237</v>
       </c>
       <c r="F147" s="7"/>
       <c r="G147" s="25"/>
       <c r="H147" s="14"/>
       <c r="I147" s="11">
-        <v>130.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B148" s="7"/>
-      <c r="C148" s="12" t="s">
+      <c r="A148" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B148" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C148" s="13" t="s">
         <v>238</v>
       </c>
       <c r="D148" s="7"/>
-      <c r="E148" s="12" t="s">
+      <c r="E148" s="13" t="s">
         <v>239</v>
       </c>
       <c r="F148" s="7"/>
       <c r="G148" s="25"/>
       <c r="H148" s="14"/>
       <c r="I148" s="11">
-        <v>30.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B149" s="26" t="s">
         <v>28</v>
@@ -4396,36 +4392,36 @@
       <c r="C149" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="D149" s="7"/>
-      <c r="E149" s="13" t="s">
+      <c r="D149" s="18"/>
+      <c r="E149" s="10" t="s">
         <v>241</v>
       </c>
       <c r="F149" s="7"/>
       <c r="G149" s="25"/>
       <c r="H149" s="14"/>
       <c r="I149" s="11">
-        <v>150.0</v>
+        <v>310.0</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="26" t="s">
+      <c r="A150" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B150" s="26" t="s">
+      <c r="B150" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C150" s="13" t="s">
+      <c r="C150" s="9" t="s">
         <v>242</v>
       </c>
       <c r="D150" s="18"/>
-      <c r="E150" s="10" t="s">
+      <c r="E150" s="12" t="s">
         <v>243</v>
       </c>
       <c r="F150" s="7"/>
       <c r="G150" s="25"/>
       <c r="H150" s="14"/>
       <c r="I150" s="11">
-        <v>310.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="151">
@@ -4460,40 +4456,55 @@
         <v>246</v>
       </c>
       <c r="D152" s="18"/>
-      <c r="E152" s="12" t="s">
+      <c r="E152" s="9" t="s">
         <v>247</v>
       </c>
       <c r="F152" s="7"/>
       <c r="G152" s="25"/>
       <c r="H152" s="14"/>
       <c r="I152" s="11">
-        <v>250.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="7" t="s">
+      <c r="A153" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B153" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C153" s="9" t="s">
+      <c r="B153" s="29"/>
+      <c r="C153" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="D153" s="18"/>
-      <c r="E153" s="9" t="s">
+      <c r="D153" s="31"/>
+      <c r="E153" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="F153" s="7"/>
+      <c r="F153" s="31"/>
       <c r="G153" s="25"/>
-      <c r="H153" s="14"/>
+      <c r="H153" s="25"/>
       <c r="I153" s="11">
-        <v>210.0</v>
-      </c>
+        <v>50.0</v>
+      </c>
+      <c r="J153" s="33"/>
+      <c r="K153" s="33"/>
+      <c r="L153" s="33"/>
+      <c r="M153" s="33"/>
+      <c r="N153" s="33"/>
+      <c r="O153" s="33"/>
+      <c r="P153" s="33"/>
+      <c r="Q153" s="33"/>
+      <c r="R153" s="33"/>
+      <c r="S153" s="33"/>
+      <c r="T153" s="33"/>
+      <c r="U153" s="33"/>
+      <c r="V153" s="33"/>
+      <c r="W153" s="33"/>
+      <c r="X153" s="33"/>
+      <c r="Y153" s="33"/>
+      <c r="Z153" s="33"/>
     </row>
     <row r="154">
-      <c r="A154" s="28" t="s">
-        <v>17</v>
+      <c r="A154" s="34" t="s">
+        <v>18</v>
       </c>
       <c r="B154" s="29"/>
       <c r="C154" s="30" t="s">
@@ -4507,7 +4518,7 @@
       <c r="G154" s="25"/>
       <c r="H154" s="25"/>
       <c r="I154" s="11">
-        <v>50.0</v>
+        <v>165.0</v>
       </c>
       <c r="J154" s="33"/>
       <c r="K154" s="33"/>
@@ -4528,193 +4539,176 @@
       <c r="Z154" s="33"/>
     </row>
     <row r="155">
-      <c r="A155" s="34" t="s">
+      <c r="A155" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B155" s="29"/>
+      <c r="B155" s="35"/>
       <c r="C155" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="D155" s="31"/>
-      <c r="E155" s="32" t="s">
+      <c r="D155" s="36"/>
+      <c r="E155" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="F155" s="31"/>
-      <c r="G155" s="25"/>
-      <c r="H155" s="25"/>
+      <c r="F155" s="36"/>
+      <c r="G155" s="26"/>
+      <c r="H155" s="26"/>
       <c r="I155" s="11">
         <v>165.0</v>
       </c>
-      <c r="J155" s="33"/>
-      <c r="K155" s="33"/>
-      <c r="L155" s="33"/>
-      <c r="M155" s="33"/>
-      <c r="N155" s="33"/>
-      <c r="O155" s="33"/>
-      <c r="P155" s="33"/>
-      <c r="Q155" s="33"/>
-      <c r="R155" s="33"/>
-      <c r="S155" s="33"/>
-      <c r="T155" s="33"/>
-      <c r="U155" s="33"/>
-      <c r="V155" s="33"/>
-      <c r="W155" s="33"/>
-      <c r="X155" s="33"/>
-      <c r="Y155" s="33"/>
-      <c r="Z155" s="33"/>
+      <c r="J155" s="37"/>
+      <c r="K155" s="37"/>
+      <c r="L155" s="37"/>
+      <c r="M155" s="37"/>
+      <c r="N155" s="37"/>
+      <c r="O155" s="37"/>
+      <c r="P155" s="37"/>
+      <c r="Q155" s="37"/>
+      <c r="R155" s="37"/>
+      <c r="S155" s="37"/>
+      <c r="T155" s="37"/>
+      <c r="U155" s="37"/>
+      <c r="V155" s="37"/>
+      <c r="W155" s="37"/>
+      <c r="X155" s="37"/>
+      <c r="Y155" s="37"/>
+      <c r="Z155" s="37"/>
     </row>
     <row r="156">
-      <c r="A156" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B156" s="35"/>
-      <c r="C156" s="30" t="s">
+      <c r="A156" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B156" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C156" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="D156" s="36"/>
-      <c r="E156" s="30" t="s">
+      <c r="D156" s="18"/>
+      <c r="E156" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="F156" s="36"/>
-      <c r="G156" s="26"/>
-      <c r="H156" s="26"/>
+      <c r="F156" s="18"/>
+      <c r="G156" s="25"/>
+      <c r="H156" s="14"/>
       <c r="I156" s="11">
-        <v>165.0</v>
-      </c>
-      <c r="J156" s="37"/>
-      <c r="K156" s="37"/>
-      <c r="L156" s="37"/>
-      <c r="M156" s="37"/>
-      <c r="N156" s="37"/>
-      <c r="O156" s="37"/>
-      <c r="P156" s="37"/>
-      <c r="Q156" s="37"/>
-      <c r="R156" s="37"/>
-      <c r="S156" s="37"/>
-      <c r="T156" s="37"/>
-      <c r="U156" s="37"/>
-      <c r="V156" s="37"/>
-      <c r="W156" s="37"/>
-      <c r="X156" s="37"/>
-      <c r="Y156" s="37"/>
-      <c r="Z156" s="37"/>
+        <v>220.0</v>
+      </c>
     </row>
     <row r="157">
-      <c r="A157" s="13" t="s">
+      <c r="A157" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B157" s="13" t="s">
+      <c r="B157" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C157" s="13" t="s">
+      <c r="C157" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="D157" s="18"/>
-      <c r="E157" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="F157" s="18"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F157" s="7"/>
       <c r="G157" s="25"/>
       <c r="H157" s="14"/>
       <c r="I157" s="11">
-        <v>220.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="9" t="s">
+      <c r="A158" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B158" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C158" s="9" t="s">
-        <v>258</v>
+      <c r="B158" s="9"/>
+      <c r="C158" s="12" t="s">
+        <v>257</v>
       </c>
       <c r="D158" s="7"/>
-      <c r="E158" s="9" t="s">
+      <c r="E158" s="12" t="s">
         <v>258</v>
       </c>
       <c r="F158" s="7"/>
       <c r="G158" s="25"/>
       <c r="H158" s="14"/>
       <c r="I158" s="11">
-        <v>300.0</v>
+        <v>155.0</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B159" s="9"/>
-      <c r="C159" s="12" t="s">
+      <c r="A159" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B159" s="26"/>
+      <c r="C159" s="13" t="s">
         <v>259</v>
       </c>
       <c r="D159" s="7"/>
-      <c r="E159" s="12" t="s">
+      <c r="E159" s="13" t="s">
         <v>260</v>
       </c>
       <c r="F159" s="7"/>
       <c r="G159" s="25"/>
       <c r="H159" s="14"/>
-      <c r="I159" s="11">
-        <v>155.0</v>
+      <c r="I159" s="14">
+        <v>20.0</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="26" t="s">
+      <c r="A160" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B160" s="26"/>
-      <c r="C160" s="13" t="s">
+      <c r="C160" s="9" t="s">
         <v>261</v>
       </c>
       <c r="D160" s="7"/>
-      <c r="E160" s="13" t="s">
+      <c r="E160" s="9" t="s">
         <v>262</v>
       </c>
       <c r="F160" s="7"/>
       <c r="G160" s="25"/>
-      <c r="H160" s="14"/>
-      <c r="I160" s="14">
-        <v>20.0</v>
+      <c r="H160" s="11"/>
+      <c r="I160" s="11">
+        <v>40.0</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="7" t="s">
+      <c r="A161" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B161" s="26"/>
-      <c r="C161" s="9" t="s">
+      <c r="B161" s="7"/>
+      <c r="C161" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="D161" s="7"/>
-      <c r="E161" s="9" t="s">
+      <c r="D161" s="18"/>
+      <c r="E161" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="F161" s="7"/>
+      <c r="F161" s="18"/>
       <c r="G161" s="25"/>
       <c r="H161" s="11"/>
       <c r="I161" s="11">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="27" t="s">
+      <c r="A162" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B162" s="7"/>
-      <c r="C162" s="12" t="s">
+      <c r="C162" s="9" t="s">
         <v>265</v>
       </c>
       <c r="D162" s="18"/>
-      <c r="E162" s="38" t="s">
+      <c r="E162" s="9" t="s">
         <v>266</v>
       </c>
       <c r="F162" s="18"/>
       <c r="G162" s="25"/>
       <c r="H162" s="11"/>
       <c r="I162" s="11">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="163">
@@ -4731,9 +4725,9 @@
       </c>
       <c r="F163" s="18"/>
       <c r="G163" s="25"/>
-      <c r="H163" s="11"/>
+      <c r="H163" s="14"/>
       <c r="I163" s="11">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="164">
@@ -4752,7 +4746,7 @@
       <c r="G164" s="25"/>
       <c r="H164" s="14"/>
       <c r="I164" s="11">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="165">
@@ -4770,7 +4764,7 @@
       <c r="F165" s="18"/>
       <c r="G165" s="25"/>
       <c r="H165" s="14"/>
-      <c r="I165" s="11">
+      <c r="I165" s="14">
         <v>20.0</v>
       </c>
     </row>
@@ -4789,8 +4783,8 @@
       <c r="F166" s="18"/>
       <c r="G166" s="25"/>
       <c r="H166" s="14"/>
-      <c r="I166" s="14">
-        <v>20.0</v>
+      <c r="I166" s="11">
+        <v>25.0</v>
       </c>
     </row>
     <row r="167">
@@ -4798,18 +4792,18 @@
         <v>20</v>
       </c>
       <c r="B167" s="7"/>
-      <c r="C167" s="9" t="s">
+      <c r="C167" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="D167" s="18"/>
-      <c r="E167" s="9" t="s">
+      <c r="D167" s="7"/>
+      <c r="E167" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="F167" s="18"/>
+      <c r="F167" s="7"/>
       <c r="G167" s="25"/>
       <c r="H167" s="14"/>
       <c r="I167" s="11">
-        <v>25.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="168">
@@ -4828,11 +4822,11 @@
       <c r="G168" s="25"/>
       <c r="H168" s="14"/>
       <c r="I168" s="11">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="7" t="s">
+      <c r="A169" s="27" t="s">
         <v>20</v>
       </c>
       <c r="B169" s="7"/>
@@ -4847,26 +4841,26 @@
       <c r="G169" s="25"/>
       <c r="H169" s="14"/>
       <c r="I169" s="11">
-        <v>60.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="27" t="s">
+      <c r="A170" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B170" s="7"/>
-      <c r="C170" s="12" t="s">
+      <c r="C170" s="9" t="s">
         <v>281</v>
       </c>
       <c r="D170" s="7"/>
-      <c r="E170" s="12" t="s">
+      <c r="E170" s="9" t="s">
         <v>282</v>
       </c>
       <c r="F170" s="7"/>
       <c r="G170" s="25"/>
       <c r="H170" s="14"/>
-      <c r="I170" s="11">
-        <v>150.0</v>
+      <c r="I170" s="14">
+        <v>15.0</v>
       </c>
     </row>
     <row r="171">
@@ -4874,17 +4868,17 @@
         <v>20</v>
       </c>
       <c r="B171" s="7"/>
-      <c r="C171" s="9" t="s">
+      <c r="C171" s="12" t="s">
         <v>283</v>
       </c>
       <c r="D171" s="7"/>
-      <c r="E171" s="9" t="s">
+      <c r="E171" s="12" t="s">
         <v>284</v>
       </c>
       <c r="F171" s="7"/>
       <c r="G171" s="25"/>
       <c r="H171" s="14"/>
-      <c r="I171" s="14">
+      <c r="I171" s="11">
         <v>15.0</v>
       </c>
     </row>
@@ -4892,39 +4886,26 @@
       <c r="A172" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B172" s="7"/>
-      <c r="C172" s="12" t="s">
+      <c r="B172" s="18"/>
+      <c r="C172" s="9" t="s">
         <v>285</v>
       </c>
       <c r="D172" s="7"/>
-      <c r="E172" s="12" t="s">
+      <c r="E172" s="9" t="s">
         <v>286</v>
       </c>
       <c r="F172" s="7"/>
-      <c r="G172" s="25"/>
+      <c r="G172" s="7"/>
       <c r="H172" s="14"/>
-      <c r="I172" s="11">
-        <v>15.0</v>
+      <c r="I172" s="14">
+        <v>60.0</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B173" s="18"/>
-      <c r="C173" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="D173" s="7"/>
-      <c r="E173" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="F173" s="7"/>
-      <c r="G173" s="7"/>
-      <c r="H173" s="14"/>
-      <c r="I173" s="14">
-        <v>60.0</v>
-      </c>
+      <c r="A173" s="39"/>
+      <c r="B173" s="39"/>
+      <c r="C173" s="39"/>
+      <c r="E173" s="39"/>
     </row>
     <row r="174">
       <c r="A174" s="39"/>
@@ -4959,16 +4940,10 @@
     <row r="179">
       <c r="A179" s="39"/>
       <c r="B179" s="39"/>
-      <c r="C179" s="39"/>
-      <c r="E179" s="39"/>
     </row>
     <row r="180">
       <c r="A180" s="39"/>
       <c r="B180" s="39"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="39"/>
-      <c r="B181" s="39"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -2688,7 +2688,7 @@
       <c r="G61" s="14"/>
       <c r="H61" s="13"/>
       <c r="I61" s="11">
-        <v>130.0</v>
+        <v>175.0</v>
       </c>
     </row>
     <row r="62">
@@ -2707,7 +2707,7 @@
       <c r="G62" s="14"/>
       <c r="H62" s="13"/>
       <c r="I62" s="11">
-        <v>135.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="63">
@@ -2728,7 +2728,7 @@
       <c r="G63" s="25"/>
       <c r="H63" s="13"/>
       <c r="I63" s="10">
-        <v>140.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="64">
@@ -2747,7 +2747,7 @@
       <c r="G64" s="25"/>
       <c r="H64" s="13"/>
       <c r="I64" s="10">
-        <v>145.0</v>
+        <v>175.0</v>
       </c>
     </row>
     <row r="65">
@@ -2766,7 +2766,7 @@
       <c r="G65" s="25"/>
       <c r="H65" s="13"/>
       <c r="I65" s="10">
-        <v>160.0</v>
+        <v>186.0</v>
       </c>
     </row>
     <row r="66">
@@ -2785,7 +2785,7 @@
       <c r="G66" s="25"/>
       <c r="H66" s="13"/>
       <c r="I66" s="10">
-        <v>170.0</v>
+        <v>195.0</v>
       </c>
     </row>
     <row r="67">
@@ -2804,7 +2804,7 @@
       <c r="G67" s="25"/>
       <c r="H67" s="13"/>
       <c r="I67" s="10">
-        <v>170.0</v>
+        <v>195.0</v>
       </c>
     </row>
     <row r="68">
@@ -2823,7 +2823,7 @@
       <c r="G68" s="25"/>
       <c r="H68" s="13"/>
       <c r="I68" s="10">
-        <v>145.0</v>
+        <v>175.0</v>
       </c>
     </row>
     <row r="69">
@@ -2844,7 +2844,7 @@
       <c r="G69" s="25"/>
       <c r="H69" s="13"/>
       <c r="I69" s="10">
-        <v>145.0</v>
+        <v>175.0</v>
       </c>
     </row>
     <row r="70">
@@ -2863,7 +2863,7 @@
       <c r="G70" s="25"/>
       <c r="H70" s="13"/>
       <c r="I70" s="10">
-        <v>180.0</v>
+        <v>195.0</v>
       </c>
     </row>
     <row r="71">
@@ -3245,7 +3245,7 @@
       <c r="G90" s="14"/>
       <c r="H90" s="13"/>
       <c r="I90" s="11">
-        <v>130.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="91">
@@ -3264,7 +3264,7 @@
       <c r="G91" s="14"/>
       <c r="H91" s="13"/>
       <c r="I91" s="11">
-        <v>130.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="92">
@@ -3283,7 +3283,7 @@
       <c r="G92" s="14"/>
       <c r="H92" s="13"/>
       <c r="I92" s="11">
-        <v>130.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="93">
@@ -4689,7 +4689,7 @@
       <c r="G161" s="25"/>
       <c r="H161" s="11"/>
       <c r="I161" s="11">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="162">
@@ -4784,7 +4784,7 @@
       <c r="G166" s="25"/>
       <c r="H166" s="14"/>
       <c r="I166" s="11">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="167">
@@ -4859,8 +4859,8 @@
       <c r="F170" s="7"/>
       <c r="G170" s="25"/>
       <c r="H170" s="14"/>
-      <c r="I170" s="14">
-        <v>15.0</v>
+      <c r="I170" s="11">
+        <v>10.0</v>
       </c>
     </row>
     <row r="171">
@@ -4879,7 +4879,7 @@
       <c r="G171" s="25"/>
       <c r="H171" s="14"/>
       <c r="I171" s="11">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="172">

--- a/helper_skripts/menu_converter/google_menu.xlsx
+++ b/helper_skripts/menu_converter/google_menu.xlsx
@@ -768,10 +768,10 @@
     <t>Kruvasan  (çikolatalı)</t>
   </si>
   <si>
-    <t>Cheese Pastry (short)</t>
-  </si>
-  <si>
-    <t>Peynirli Börek (kısa -adet)</t>
+    <t xml:space="preserve">Mini Patty  ( Cheese / Spinach) </t>
+  </si>
+  <si>
+    <t>Mini Börek ( Peynirli / Ispanaklı ) (adet)</t>
   </si>
   <si>
     <t>World of Roll Pastry (spinach+cheese / Three cheese / patato)</t>
@@ -1007,6 +1007,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF00FF00"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <b/>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1031,11 +1036,6 @@
     </font>
     <font>
       <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -1153,26 +1153,24 @@
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -2643,7 +2641,7 @@
         <v>97</v>
       </c>
       <c r="D59" s="18"/>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="25" t="s">
         <v>97</v>
       </c>
       <c r="F59" s="18"/>
@@ -2662,7 +2660,7 @@
         <v>98</v>
       </c>
       <c r="D60" s="18"/>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="25" t="s">
         <v>98</v>
       </c>
       <c r="F60" s="18"/>
@@ -2725,7 +2723,7 @@
         <v>102</v>
       </c>
       <c r="F63" s="18"/>
-      <c r="G63" s="25"/>
+      <c r="G63" s="26"/>
       <c r="H63" s="13"/>
       <c r="I63" s="10">
         <v>170.0</v>
@@ -2744,7 +2742,7 @@
         <v>103</v>
       </c>
       <c r="F64" s="18"/>
-      <c r="G64" s="25"/>
+      <c r="G64" s="26"/>
       <c r="H64" s="13"/>
       <c r="I64" s="10">
         <v>175.0</v>
@@ -2763,7 +2761,7 @@
         <v>104</v>
       </c>
       <c r="F65" s="18"/>
-      <c r="G65" s="25"/>
+      <c r="G65" s="26"/>
       <c r="H65" s="13"/>
       <c r="I65" s="10">
         <v>186.0</v>
@@ -2782,7 +2780,7 @@
         <v>105</v>
       </c>
       <c r="F66" s="18"/>
-      <c r="G66" s="25"/>
+      <c r="G66" s="26"/>
       <c r="H66" s="13"/>
       <c r="I66" s="10">
         <v>195.0</v>
@@ -2801,7 +2799,7 @@
         <v>106</v>
       </c>
       <c r="F67" s="18"/>
-      <c r="G67" s="25"/>
+      <c r="G67" s="26"/>
       <c r="H67" s="13"/>
       <c r="I67" s="10">
         <v>195.0</v>
@@ -2820,7 +2818,7 @@
         <v>109</v>
       </c>
       <c r="F68" s="18"/>
-      <c r="G68" s="25"/>
+      <c r="G68" s="26"/>
       <c r="H68" s="13"/>
       <c r="I68" s="10">
         <v>175.0</v>
@@ -2841,7 +2839,7 @@
         <v>110</v>
       </c>
       <c r="F69" s="18"/>
-      <c r="G69" s="25"/>
+      <c r="G69" s="26"/>
       <c r="H69" s="13"/>
       <c r="I69" s="10">
         <v>175.0</v>
@@ -2860,7 +2858,7 @@
         <v>111</v>
       </c>
       <c r="F70" s="18"/>
-      <c r="G70" s="25"/>
+      <c r="G70" s="26"/>
       <c r="H70" s="13"/>
       <c r="I70" s="10">
         <v>195.0</v>
@@ -2882,7 +2880,7 @@
       <c r="G71" s="13"/>
       <c r="H71" s="13"/>
       <c r="I71" s="10">
-        <v>180.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="72">
@@ -2899,9 +2897,9 @@
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="14"/>
-      <c r="H72" s="25"/>
+      <c r="H72" s="26"/>
       <c r="I72" s="10">
-        <v>140.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="73">
@@ -2918,7 +2916,7 @@
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="14"/>
-      <c r="H73" s="25"/>
+      <c r="H73" s="26"/>
       <c r="I73" s="10">
         <v>200.0</v>
       </c>
@@ -2937,7 +2935,7 @@
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="14"/>
-      <c r="H74" s="25"/>
+      <c r="H74" s="26"/>
       <c r="I74" s="10">
         <v>220.0</v>
       </c>
@@ -2956,7 +2954,7 @@
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="14"/>
-      <c r="H75" s="25"/>
+      <c r="H75" s="26"/>
       <c r="I75" s="10">
         <v>200.0</v>
       </c>
@@ -2975,7 +2973,7 @@
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="14"/>
-      <c r="H76" s="25"/>
+      <c r="H76" s="26"/>
       <c r="I76" s="10">
         <v>200.0</v>
       </c>
@@ -2994,7 +2992,7 @@
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="14"/>
-      <c r="H77" s="25"/>
+      <c r="H77" s="26"/>
       <c r="I77" s="10">
         <v>200.0</v>
       </c>
@@ -3013,7 +3011,7 @@
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="14"/>
-      <c r="H78" s="25"/>
+      <c r="H78" s="26"/>
       <c r="I78" s="10">
         <v>200.0</v>
       </c>
@@ -3053,7 +3051,7 @@
       </c>
       <c r="F80" s="18"/>
       <c r="G80" s="14"/>
-      <c r="H80" s="25"/>
+      <c r="H80" s="26"/>
       <c r="I80" s="10">
         <v>180.0</v>
       </c>
@@ -3072,7 +3070,7 @@
       </c>
       <c r="F81" s="18"/>
       <c r="G81" s="14"/>
-      <c r="H81" s="25"/>
+      <c r="H81" s="26"/>
       <c r="I81" s="10">
         <v>150.0</v>
       </c>
@@ -3090,7 +3088,7 @@
         <v>128</v>
       </c>
       <c r="F82" s="18"/>
-      <c r="G82" s="25"/>
+      <c r="G82" s="26"/>
       <c r="H82" s="13"/>
       <c r="I82" s="10">
         <v>160.0</v>
@@ -3544,10 +3542,10 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="26" t="s">
+      <c r="A106" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="26" t="s">
+      <c r="B106" s="27" t="s">
         <v>28</v>
       </c>
       <c r="C106" s="13" t="s">
@@ -3643,7 +3641,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="27" t="s">
+      <c r="A111" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B111" s="7"/>
@@ -3662,7 +3660,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="27" t="s">
+      <c r="A112" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B112" s="7"/>
@@ -3681,7 +3679,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="27" t="s">
+      <c r="A113" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B113" s="7"/>
@@ -3700,7 +3698,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="27" t="s">
+      <c r="A114" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B114" s="7"/>
@@ -3719,7 +3717,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="27" t="s">
+      <c r="A115" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B115" s="7"/>
@@ -3738,10 +3736,10 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="26" t="s">
+      <c r="A116" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B116" s="26" t="s">
+      <c r="B116" s="27" t="s">
         <v>28</v>
       </c>
       <c r="C116" s="13" t="s">
@@ -3752,7 +3750,7 @@
         <v>177</v>
       </c>
       <c r="F116" s="18"/>
-      <c r="G116" s="25"/>
+      <c r="G116" s="26"/>
       <c r="H116" s="14"/>
       <c r="I116" s="11">
         <v>215.0</v>
@@ -3762,7 +3760,7 @@
       <c r="A117" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B117" s="26"/>
+      <c r="B117" s="27"/>
       <c r="C117" s="13" t="s">
         <v>178</v>
       </c>
@@ -3771,7 +3769,7 @@
         <v>179</v>
       </c>
       <c r="F117" s="18"/>
-      <c r="G117" s="25"/>
+      <c r="G117" s="26"/>
       <c r="H117" s="14"/>
       <c r="I117" s="11">
         <v>230.0</v>
@@ -3781,7 +3779,7 @@
       <c r="A118" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B118" s="26"/>
+      <c r="B118" s="27"/>
       <c r="C118" s="13" t="s">
         <v>180</v>
       </c>
@@ -3790,7 +3788,7 @@
         <v>181</v>
       </c>
       <c r="F118" s="18"/>
-      <c r="G118" s="25"/>
+      <c r="G118" s="26"/>
       <c r="H118" s="14"/>
       <c r="I118" s="11">
         <v>230.0</v>
@@ -3809,7 +3807,7 @@
         <v>183</v>
       </c>
       <c r="F119" s="7"/>
-      <c r="G119" s="25"/>
+      <c r="G119" s="26"/>
       <c r="H119" s="14"/>
       <c r="I119" s="11">
         <v>215.0</v>
@@ -3828,7 +3826,7 @@
         <v>185</v>
       </c>
       <c r="F120" s="7"/>
-      <c r="G120" s="25"/>
+      <c r="G120" s="26"/>
       <c r="H120" s="14"/>
       <c r="I120" s="11">
         <v>215.0</v>
@@ -3847,7 +3845,7 @@
         <v>187</v>
       </c>
       <c r="F121" s="18"/>
-      <c r="G121" s="25"/>
+      <c r="G121" s="26"/>
       <c r="H121" s="14"/>
       <c r="I121" s="11">
         <v>230.0</v>
@@ -3868,7 +3866,7 @@
         <v>189</v>
       </c>
       <c r="F122" s="18"/>
-      <c r="G122" s="25"/>
+      <c r="G122" s="26"/>
       <c r="H122" s="14"/>
       <c r="I122" s="11">
         <v>230.0</v>
@@ -3889,7 +3887,7 @@
         <v>191</v>
       </c>
       <c r="F123" s="18"/>
-      <c r="G123" s="25"/>
+      <c r="G123" s="26"/>
       <c r="H123" s="14"/>
       <c r="I123" s="11">
         <v>220.0</v>
@@ -3908,7 +3906,7 @@
         <v>193</v>
       </c>
       <c r="F124" s="18"/>
-      <c r="G124" s="25"/>
+      <c r="G124" s="26"/>
       <c r="H124" s="14"/>
       <c r="I124" s="11">
         <v>220.0</v>
@@ -3927,7 +3925,7 @@
         <v>195</v>
       </c>
       <c r="F125" s="18"/>
-      <c r="G125" s="25"/>
+      <c r="G125" s="26"/>
       <c r="H125" s="14"/>
       <c r="I125" s="11">
         <v>220.0</v>
@@ -3946,7 +3944,7 @@
         <v>197</v>
       </c>
       <c r="F126" s="7"/>
-      <c r="G126" s="25"/>
+      <c r="G126" s="26"/>
       <c r="H126" s="14"/>
       <c r="I126" s="11">
         <v>230.0</v>
@@ -3965,7 +3963,7 @@
         <v>199</v>
       </c>
       <c r="F127" s="7"/>
-      <c r="G127" s="25"/>
+      <c r="G127" s="26"/>
       <c r="H127" s="14"/>
       <c r="I127" s="11">
         <v>220.0</v>
@@ -3984,7 +3982,7 @@
         <v>201</v>
       </c>
       <c r="F128" s="7"/>
-      <c r="G128" s="25"/>
+      <c r="G128" s="26"/>
       <c r="H128" s="14"/>
       <c r="I128" s="11">
         <v>215.0</v>
@@ -4003,7 +4001,7 @@
         <v>203</v>
       </c>
       <c r="F129" s="7"/>
-      <c r="G129" s="25"/>
+      <c r="G129" s="26"/>
       <c r="H129" s="14"/>
       <c r="I129" s="11">
         <v>220.0</v>
@@ -4022,7 +4020,7 @@
         <v>205</v>
       </c>
       <c r="F130" s="7"/>
-      <c r="G130" s="25"/>
+      <c r="G130" s="26"/>
       <c r="H130" s="14"/>
       <c r="I130" s="11">
         <v>210.0</v>
@@ -4041,7 +4039,7 @@
         <v>207</v>
       </c>
       <c r="F131" s="7"/>
-      <c r="G131" s="25"/>
+      <c r="G131" s="26"/>
       <c r="H131" s="14"/>
       <c r="I131" s="11">
         <v>80.0</v>
@@ -4062,7 +4060,7 @@
         <v>209</v>
       </c>
       <c r="F132" s="18"/>
-      <c r="G132" s="25"/>
+      <c r="G132" s="26"/>
       <c r="H132" s="14"/>
       <c r="I132" s="11">
         <v>220.0</v>
@@ -4081,7 +4079,7 @@
         <v>211</v>
       </c>
       <c r="F133" s="7"/>
-      <c r="G133" s="25"/>
+      <c r="G133" s="26"/>
       <c r="H133" s="14"/>
       <c r="I133" s="11">
         <v>160.0</v>
@@ -4100,7 +4098,7 @@
         <v>213</v>
       </c>
       <c r="F134" s="7"/>
-      <c r="G134" s="25"/>
+      <c r="G134" s="26"/>
       <c r="H134" s="14"/>
       <c r="I134" s="11">
         <v>70.0</v>
@@ -4121,7 +4119,7 @@
         <v>215</v>
       </c>
       <c r="F135" s="18"/>
-      <c r="G135" s="25"/>
+      <c r="G135" s="26"/>
       <c r="H135" s="14"/>
       <c r="I135" s="11">
         <v>220.0</v>
@@ -4140,7 +4138,7 @@
         <v>217</v>
       </c>
       <c r="F136" s="18"/>
-      <c r="G136" s="25"/>
+      <c r="G136" s="26"/>
       <c r="H136" s="14"/>
       <c r="I136" s="11">
         <v>220.0</v>
@@ -4161,7 +4159,7 @@
         <v>219</v>
       </c>
       <c r="F137" s="7"/>
-      <c r="G137" s="25"/>
+      <c r="G137" s="26"/>
       <c r="H137" s="14"/>
       <c r="I137" s="11">
         <v>220.0</v>
@@ -4180,7 +4178,7 @@
         <v>220</v>
       </c>
       <c r="F138" s="7"/>
-      <c r="G138" s="25"/>
+      <c r="G138" s="26"/>
       <c r="H138" s="14"/>
       <c r="I138" s="11">
         <v>185.0</v>
@@ -4199,7 +4197,7 @@
         <v>221</v>
       </c>
       <c r="F139" s="18"/>
-      <c r="G139" s="25"/>
+      <c r="G139" s="26"/>
       <c r="H139" s="14"/>
       <c r="I139" s="11">
         <v>185.0</v>
@@ -4220,7 +4218,7 @@
         <v>223</v>
       </c>
       <c r="F140" s="18"/>
-      <c r="G140" s="25"/>
+      <c r="G140" s="26"/>
       <c r="H140" s="14"/>
       <c r="I140" s="11">
         <v>185.0</v>
@@ -4239,7 +4237,7 @@
         <v>225</v>
       </c>
       <c r="F141" s="7"/>
-      <c r="G141" s="25"/>
+      <c r="G141" s="26"/>
       <c r="H141" s="14"/>
       <c r="I141" s="11">
         <v>185.0</v>
@@ -4258,7 +4256,7 @@
         <v>227</v>
       </c>
       <c r="F142" s="7"/>
-      <c r="G142" s="25"/>
+      <c r="G142" s="26"/>
       <c r="H142" s="14"/>
       <c r="I142" s="11">
         <v>200.0</v>
@@ -4277,7 +4275,7 @@
         <v>229</v>
       </c>
       <c r="F143" s="7"/>
-      <c r="G143" s="25"/>
+      <c r="G143" s="26"/>
       <c r="H143" s="14"/>
       <c r="I143" s="11">
         <v>185.0</v>
@@ -4296,17 +4294,17 @@
         <v>231</v>
       </c>
       <c r="F144" s="7"/>
-      <c r="G144" s="25"/>
+      <c r="G144" s="26"/>
       <c r="H144" s="14"/>
       <c r="I144" s="11">
         <v>80.0</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="26" t="s">
+      <c r="A145" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B145" s="26"/>
+      <c r="B145" s="27"/>
       <c r="C145" s="13" t="s">
         <v>232</v>
       </c>
@@ -4315,7 +4313,7 @@
         <v>233</v>
       </c>
       <c r="F145" s="7"/>
-      <c r="G145" s="25"/>
+      <c r="G145" s="26"/>
       <c r="H145" s="14"/>
       <c r="I145" s="11">
         <v>120.0</v>
@@ -4336,7 +4334,7 @@
         <v>235</v>
       </c>
       <c r="F146" s="7"/>
-      <c r="G146" s="25"/>
+      <c r="G146" s="26"/>
       <c r="H146" s="14"/>
       <c r="I146" s="11">
         <v>130.0</v>
@@ -4355,17 +4353,17 @@
         <v>237</v>
       </c>
       <c r="F147" s="7"/>
-      <c r="G147" s="25"/>
+      <c r="G147" s="26"/>
       <c r="H147" s="14"/>
       <c r="I147" s="11">
         <v>30.0</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="26" t="s">
+      <c r="A148" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B148" s="26" t="s">
+      <c r="B148" s="27" t="s">
         <v>28</v>
       </c>
       <c r="C148" s="13" t="s">
@@ -4376,17 +4374,17 @@
         <v>239</v>
       </c>
       <c r="F148" s="7"/>
-      <c r="G148" s="25"/>
+      <c r="G148" s="26"/>
       <c r="H148" s="14"/>
       <c r="I148" s="11">
         <v>150.0</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="26" t="s">
+      <c r="A149" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B149" s="26" t="s">
+      <c r="B149" s="27" t="s">
         <v>28</v>
       </c>
       <c r="C149" s="13" t="s">
@@ -4397,7 +4395,7 @@
         <v>241</v>
       </c>
       <c r="F149" s="7"/>
-      <c r="G149" s="25"/>
+      <c r="G149" s="26"/>
       <c r="H149" s="14"/>
       <c r="I149" s="11">
         <v>310.0</v>
@@ -4418,7 +4416,7 @@
         <v>243</v>
       </c>
       <c r="F150" s="7"/>
-      <c r="G150" s="25"/>
+      <c r="G150" s="26"/>
       <c r="H150" s="14"/>
       <c r="I150" s="11">
         <v>250.0</v>
@@ -4439,7 +4437,7 @@
         <v>245</v>
       </c>
       <c r="F151" s="7"/>
-      <c r="G151" s="25"/>
+      <c r="G151" s="26"/>
       <c r="H151" s="14"/>
       <c r="I151" s="11">
         <v>250.0</v>
@@ -4460,27 +4458,27 @@
         <v>247</v>
       </c>
       <c r="F152" s="7"/>
-      <c r="G152" s="25"/>
+      <c r="G152" s="26"/>
       <c r="H152" s="14"/>
       <c r="I152" s="11">
         <v>210.0</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="28" t="s">
+      <c r="A153" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B153" s="29"/>
-      <c r="C153" s="30" t="s">
+      <c r="B153" s="30"/>
+      <c r="C153" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="D153" s="31"/>
-      <c r="E153" s="32" t="s">
+      <c r="D153" s="32"/>
+      <c r="E153" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="F153" s="31"/>
-      <c r="G153" s="25"/>
-      <c r="H153" s="25"/>
+      <c r="F153" s="32"/>
+      <c r="G153" s="26"/>
+      <c r="H153" s="26"/>
       <c r="I153" s="11">
         <v>50.0</v>
       </c>
@@ -4506,17 +4504,17 @@
       <c r="A154" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B154" s="29"/>
-      <c r="C154" s="30" t="s">
+      <c r="B154" s="30"/>
+      <c r="C154" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="D154" s="31"/>
-      <c r="E154" s="32" t="s">
+      <c r="D154" s="32"/>
+      <c r="E154" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="F154" s="31"/>
-      <c r="G154" s="25"/>
-      <c r="H154" s="25"/>
+      <c r="F154" s="32"/>
+      <c r="G154" s="26"/>
+      <c r="H154" s="26"/>
       <c r="I154" s="11">
         <v>165.0</v>
       </c>
@@ -4539,20 +4537,20 @@
       <c r="Z154" s="33"/>
     </row>
     <row r="155">
-      <c r="A155" s="28" t="s">
+      <c r="A155" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B155" s="35"/>
-      <c r="C155" s="30" t="s">
+      <c r="C155" s="31" t="s">
         <v>252</v>
       </c>
       <c r="D155" s="36"/>
-      <c r="E155" s="30" t="s">
+      <c r="E155" s="31" t="s">
         <v>253</v>
       </c>
       <c r="F155" s="36"/>
-      <c r="G155" s="26"/>
-      <c r="H155" s="26"/>
+      <c r="G155" s="27"/>
+      <c r="H155" s="27"/>
       <c r="I155" s="11">
         <v>165.0</v>
       </c>
@@ -4589,7 +4587,7 @@
         <v>255</v>
       </c>
       <c r="F156" s="18"/>
-      <c r="G156" s="25"/>
+      <c r="G156" s="26"/>
       <c r="H156" s="14"/>
       <c r="I156" s="11">
         <v>220.0</v>
@@ -4610,7 +4608,7 @@
         <v>256</v>
       </c>
       <c r="F157" s="7"/>
-      <c r="G157" s="25"/>
+      <c r="G157" s="26"/>
       <c r="H157" s="14"/>
       <c r="I157" s="11">
         <v>300.0</v>
@@ -4629,17 +4627,17 @@
         <v>258</v>
       </c>
       <c r="F158" s="7"/>
-      <c r="G158" s="25"/>
+      <c r="G158" s="26"/>
       <c r="H158" s="14"/>
       <c r="I158" s="11">
         <v>155.0</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="26" t="s">
+      <c r="A159" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B159" s="26"/>
+      <c r="B159" s="27"/>
       <c r="C159" s="13" t="s">
         <v>259</v>
       </c>
@@ -4648,7 +4646,7 @@
         <v>260</v>
       </c>
       <c r="F159" s="7"/>
-      <c r="G159" s="25"/>
+      <c r="G159" s="26"/>
       <c r="H159" s="14"/>
       <c r="I159" s="14">
         <v>20.0</v>
@@ -4658,7 +4656,7 @@
       <c r="A160" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B160" s="26"/>
+      <c r="B160" s="27"/>
       <c r="C160" s="9" t="s">
         <v>261</v>
       </c>
@@ -4667,14 +4665,14 @@
         <v>262</v>
       </c>
       <c r="F160" s="7"/>
-      <c r="G160" s="25"/>
+      <c r="G160" s="26"/>
       <c r="H160" s="11"/>
       <c r="I160" s="11">
         <v>40.0</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="27" t="s">
+      <c r="A161" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B161" s="7"/>
@@ -4686,7 +4684,7 @@
         <v>264</v>
       </c>
       <c r="F161" s="18"/>
-      <c r="G161" s="25"/>
+      <c r="G161" s="26"/>
       <c r="H161" s="11"/>
       <c r="I161" s="11">
         <v>20.0</v>
@@ -4705,7 +4703,7 @@
         <v>266</v>
       </c>
       <c r="F162" s="18"/>
-      <c r="G162" s="25"/>
+      <c r="G162" s="26"/>
       <c r="H162" s="11"/>
       <c r="I162" s="11">
         <v>20.0</v>
@@ -4724,7 +4722,7 @@
         <v>268</v>
       </c>
       <c r="F163" s="18"/>
-      <c r="G163" s="25"/>
+      <c r="G163" s="26"/>
       <c r="H163" s="14"/>
       <c r="I163" s="11">
         <v>50.0</v>
@@ -4743,7 +4741,7 @@
         <v>270</v>
       </c>
       <c r="F164" s="18"/>
-      <c r="G164" s="25"/>
+      <c r="G164" s="26"/>
       <c r="H164" s="14"/>
       <c r="I164" s="11">
         <v>20.0</v>
@@ -4762,7 +4760,7 @@
         <v>272</v>
       </c>
       <c r="F165" s="18"/>
-      <c r="G165" s="25"/>
+      <c r="G165" s="26"/>
       <c r="H165" s="14"/>
       <c r="I165" s="14">
         <v>20.0</v>
@@ -4781,7 +4779,7 @@
         <v>274</v>
       </c>
       <c r="F166" s="18"/>
-      <c r="G166" s="25"/>
+      <c r="G166" s="26"/>
       <c r="H166" s="14"/>
       <c r="I166" s="11">
         <v>20.0</v>
@@ -4800,7 +4798,7 @@
         <v>276</v>
       </c>
       <c r="F167" s="7"/>
-      <c r="G167" s="25"/>
+      <c r="G167" s="26"/>
       <c r="H167" s="14"/>
       <c r="I167" s="11">
         <v>40.0</v>
@@ -4819,14 +4817,14 @@
         <v>278</v>
       </c>
       <c r="F168" s="7"/>
-      <c r="G168" s="25"/>
+      <c r="G168" s="26"/>
       <c r="H168" s="14"/>
       <c r="I168" s="11">
         <v>60.0</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="27" t="s">
+      <c r="A169" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B169" s="7"/>
@@ -4838,7 +4836,7 @@
         <v>280</v>
       </c>
       <c r="F169" s="7"/>
-      <c r="G169" s="25"/>
+      <c r="G169" s="26"/>
       <c r="H169" s="14"/>
       <c r="I169" s="11">
         <v>150.0</v>
@@ -4857,7 +4855,7 @@
         <v>282</v>
       </c>
       <c r="F170" s="7"/>
-      <c r="G170" s="25"/>
+      <c r="G170" s="26"/>
       <c r="H170" s="14"/>
       <c r="I170" s="11">
         <v>10.0</v>
@@ -4876,7 +4874,7 @@
         <v>284</v>
       </c>
       <c r="F171" s="7"/>
-      <c r="G171" s="25"/>
+      <c r="G171" s="26"/>
       <c r="H171" s="14"/>
       <c r="I171" s="11">
         <v>20.0</v>
